--- a/summary.xlsx
+++ b/summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>百度网盘</t>
   </si>
@@ -196,6 +196,228 @@
   </si>
   <si>
     <t>psexpress</t>
+  </si>
+  <si>
+    <t>Google Photos</t>
+  </si>
+  <si>
+    <t>googlephotos</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.photos</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.photos.home.HomeActivity</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>夸克浏览器</t>
+  </si>
+  <si>
+    <t>kuake</t>
+  </si>
+  <si>
+    <t>com.quark.browser</t>
+  </si>
+  <si>
+    <t>com.ucpro.MainActivity</t>
+  </si>
+  <si>
+    <t>QQ浏览器</t>
+  </si>
+  <si>
+    <t>qqliulanqi</t>
+  </si>
+  <si>
+    <t>com.tencent.mtt</t>
+  </si>
+  <si>
+    <t>com.tencent.mtt.SplashActivity</t>
+  </si>
+  <si>
+    <t>QQ同步助手</t>
+  </si>
+  <si>
+    <t>qqtongbuzhushou</t>
+  </si>
+  <si>
+    <t>com.tencent.qqpim</t>
+  </si>
+  <si>
+    <t>comm.tencent.qqpim.ui.QQPimAndroid</t>
+  </si>
+  <si>
+    <t>QQ音乐</t>
+  </si>
+  <si>
+    <t>qqyinyue</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmusic</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmusic.activity.AppStartActivity</t>
+  </si>
+  <si>
+    <t>snapseed</t>
+  </si>
+  <si>
+    <t>com.niksoftware.snapseed</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.snapseed.WelcomeScreenActivity</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>taobao</t>
+  </si>
+  <si>
+    <t>com.taobao.taobao</t>
+  </si>
+  <si>
+    <t>com.taobao.tao.welcome.Welcome</t>
+  </si>
+  <si>
+    <t>腾讯翻译君</t>
+  </si>
+  <si>
+    <t>tengxunfanyijun</t>
+  </si>
+  <si>
+    <t>com.qb.qtranslate</t>
+  </si>
+  <si>
+    <t>com.qb.qtranslate.qactivity.SplashActivity</t>
+  </si>
+  <si>
+    <t>腾讯文档</t>
+  </si>
+  <si>
+    <t>tengxunwendang</t>
+  </si>
+  <si>
+    <t>com.tencent.docs</t>
+  </si>
+  <si>
+    <t>腾讯WiFi管家</t>
+  </si>
+  <si>
+    <t>tengxunwifiguanjia</t>
+  </si>
+  <si>
+    <t>com.tencent.wifimanager</t>
+  </si>
+  <si>
+    <t>com.tencent.wifimanager.MainActivity</t>
+  </si>
+  <si>
+    <t>腾讯手机管家</t>
+  </si>
+  <si>
+    <t>tengxunanquanguanjia</t>
+  </si>
+  <si>
+    <t>com.tencent.qqpimsecure</t>
+  </si>
+  <si>
+    <t>com.tencent.server.fore.QuickLoadActivity</t>
+  </si>
+  <si>
+    <t>腾讯时光</t>
+  </si>
+  <si>
+    <t>tengxunshiguang</t>
+  </si>
+  <si>
+    <t>com.tencent.ipai</t>
+  </si>
+  <si>
+    <t>腾讯视频</t>
+  </si>
+  <si>
+    <t>tengxunshipin</t>
+  </si>
+  <si>
+    <t>com.tencent.qqlive</t>
+  </si>
+  <si>
+    <t>com.tencent.qqlive.one.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>mark.via</t>
+  </si>
+  <si>
+    <t>mark.via.ui.activity.BrowserActivity</t>
+  </si>
+  <si>
+    <t>网易云音乐</t>
+  </si>
+  <si>
+    <t>wangyiyunyinyue</t>
+  </si>
+  <si>
+    <t>com.netease.cloudmusic</t>
+  </si>
+  <si>
+    <t>com.netease.cloudmusic.activity.LoadingActivity</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>weibo</t>
+  </si>
+  <si>
+    <t>com.sina.weibo</t>
+  </si>
+  <si>
+    <t>com.sina.weibo.SplashActivity</t>
+  </si>
+  <si>
+    <t>微信读书</t>
+  </si>
+  <si>
+    <t>weixindushu</t>
+  </si>
+  <si>
+    <t>com.tencent.weread</t>
+  </si>
+  <si>
+    <t>com.tencent.weread.LauncherActivity</t>
+  </si>
+  <si>
+    <t>WPS Office</t>
+  </si>
+  <si>
+    <t>wps</t>
+  </si>
+  <si>
+    <t>cn.wps.moffice_eng</t>
+  </si>
+  <si>
+    <t>cn.wps.documentmanager.PreStartActivity</t>
+  </si>
+  <si>
+    <t>猫饼</t>
+  </si>
+  <si>
+    <t>maobing</t>
+  </si>
+  <si>
+    <t>tv.xiandao.xdtv</t>
+  </si>
+  <si>
+    <t>tv.xiandao.xdtv.presentation.module.splash.SplashActivity</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1349,6 +1571,329 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TestIconPack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7A25D-2825-44A9-AC93-6121A7DFD256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
   <si>
     <t>百度网盘</t>
   </si>
@@ -104,9 +105,6 @@
     <t>com.tencent.mm</t>
   </si>
   <si>
-    <t>com.tencent.mm.ui.LaunchUI</t>
-  </si>
-  <si>
     <t>me.piebridge.brevent</t>
   </si>
   <si>
@@ -246,9 +244,6 @@
     <t>com.tencent.qqpim</t>
   </si>
   <si>
-    <t>comm.tencent.qqpim.ui.QQPimAndroid</t>
-  </si>
-  <si>
     <t>QQ音乐</t>
   </si>
   <si>
@@ -258,9 +253,6 @@
     <t>com.tencent.qqmusic</t>
   </si>
   <si>
-    <t>com.tencent.qqmusic.activity.AppStartActivity</t>
-  </si>
-  <si>
     <t>snapseed</t>
   </si>
   <si>
@@ -288,9 +280,6 @@
     <t>tengxunfanyijun</t>
   </si>
   <si>
-    <t>com.qb.qtranslate</t>
-  </si>
-  <si>
     <t>com.qb.qtranslate.qactivity.SplashActivity</t>
   </si>
   <si>
@@ -345,9 +334,6 @@
     <t>com.tencent.qqlive</t>
   </si>
   <si>
-    <t>com.tencent.qqlive.one.activity.WelcomeActivity</t>
-  </si>
-  <si>
     <t>Via</t>
   </si>
   <si>
@@ -405,25 +391,64 @@
     <t>cn.wps.moffice_eng</t>
   </si>
   <si>
-    <t>cn.wps.documentmanager.PreStartActivity</t>
-  </si>
-  <si>
     <t>猫饼</t>
   </si>
   <si>
     <t>maobing</t>
   </si>
   <si>
-    <t>tv.xiandao.xdtv</t>
-  </si>
-  <si>
-    <t>tv.xiandao.xdtv.presentation.module.splash.SplashActivity</t>
+    <t>知乎</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhihu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zhihu.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zhihu.android.app.ui.activity.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.wps.moffice.documentmanager.PreStartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm.ui.LauncherUI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qb.qtranslator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqpim.ui.QQPimAndroid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqmusic.activity.AppStarterActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.xiaodao.xdtv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.xiaodao.xdtv.presentation.module.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqlive.ona.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1334,11 +1359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1420,10 +1445,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1437,10 +1462,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1454,10 +1479,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1471,16 +1496,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1488,16 +1513,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1505,13 +1530,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1522,16 +1547,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1539,16 +1564,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1556,16 +1581,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1573,325 +1598,342 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7A25D-2825-44A9-AC93-6121A7DFD256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9E2A8A-C8BB-4BF8-94B2-33F1BFE9F690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="188">
   <si>
     <t>百度网盘</t>
   </si>
@@ -443,6 +443,182 @@
   <si>
     <t>com.tencent.qqlive.ona.activity.WelcomeActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔托的冒险</t>
+  </si>
+  <si>
+    <t>altoadventure</t>
+  </si>
+  <si>
+    <t>com.noodlecake.altosadventure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.prime31.UnityPlayerNativeActivity</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>阿尔托的奥德赛</t>
+  </si>
+  <si>
+    <t>odyssey</t>
+  </si>
+  <si>
+    <t>com.noodlecake.altosodyssey</t>
+  </si>
+  <si>
+    <t>com.unity3d.player.UnityPlayerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM Pro</t>
+  </si>
+  <si>
+    <t>admpro</t>
+  </si>
+  <si>
+    <t>com.dv.adm.pay</t>
+  </si>
+  <si>
+    <t>com.dv.adm.pay.Main</t>
+  </si>
+  <si>
+    <t>Google Play商店</t>
+  </si>
+  <si>
+    <t>googleplay</t>
+  </si>
+  <si>
+    <t>com.android.vending</t>
+  </si>
+  <si>
+    <t>com.android.vending.AssetBrowserActivity</t>
+  </si>
+  <si>
+    <t>Lastpass</t>
+  </si>
+  <si>
+    <t>lastpass</t>
+  </si>
+  <si>
+    <t>com.lastpass.lpandroid</t>
+  </si>
+  <si>
+    <t>com.lastpass.lpandroid.activity.WebBrowserActivity</t>
+  </si>
+  <si>
+    <t>Nova启动器</t>
+  </si>
+  <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>com.teslacoilsw.launcher</t>
+  </si>
+  <si>
+    <t>com.teslacoilsw.launcher.NovaShortcutHandler</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ocamera</t>
+  </si>
+  <si>
+    <t>ocamera</t>
+  </si>
+  <si>
+    <t>com.qinlin.ocamera</t>
+  </si>
+  <si>
+    <t>com.qinlin.ocamera.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>PU口袋校园</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>com.xyhui</t>
+  </si>
+  <si>
+    <t>com.lee.start.LoadingActivity</t>
+  </si>
+  <si>
+    <t>QQ安全中心</t>
+  </si>
+  <si>
+    <t>qqanquanzhongxin</t>
+  </si>
+  <si>
+    <t>com.tencent.token</t>
+  </si>
+  <si>
+    <t>com.tencent.token.ui.LogoActivity</t>
+  </si>
+  <si>
+    <t>SpeedTest</t>
+  </si>
+  <si>
+    <t>speedtest</t>
+  </si>
+  <si>
+    <t>org.zwanoo.android.speedtest</t>
+  </si>
+  <si>
+    <t>com.ookla.mobile4.screens.main.MainActivity</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>ssr</t>
+  </si>
+  <si>
+    <t>in.zhaoj.shadowsocksr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.github.shadowsocks.Shadowsocks</t>
+  </si>
+  <si>
+    <t>Taptap</t>
+  </si>
+  <si>
+    <t>taptap</t>
+  </si>
+  <si>
+    <t>com.taptap</t>
+  </si>
+  <si>
+    <t>com.play.taptap.ui.SplashAct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼</t>
+  </si>
+  <si>
+    <t>xianyu</t>
+  </si>
+  <si>
+    <t>com.taobao.idlefish</t>
+  </si>
+  <si>
+    <t>com.taobao.fleamarket.home.activity.InitActivity</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>com.google.android.youtube</t>
+  </si>
+  <si>
+    <t>com.google.android.youtube.app.honeycomb.Shell$HomeActivity</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1936,6 +2112,244 @@
         <v>56</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9E2A8A-C8BB-4BF8-94B2-33F1BFE9F690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19ADB53-CBB3-4C6D-8C94-81D5B713CE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="255">
   <si>
     <t>百度网盘</t>
   </si>
@@ -619,13 +619,220 @@
   </si>
   <si>
     <t>com.google.android.youtube.app.honeycomb.Shell$HomeActivity</t>
+  </si>
+  <si>
+    <t>爱音乐</t>
+  </si>
+  <si>
+    <t>aiyinyue</t>
+  </si>
+  <si>
+    <t>com.gwsoft.imusic.controller</t>
+  </si>
+  <si>
+    <t>com.gwsoft.imusic.controller.LoadingActivity</t>
+  </si>
+  <si>
+    <t>apllication</t>
+  </si>
+  <si>
+    <t>百词斩</t>
+  </si>
+  <si>
+    <t>baicizhan</t>
+  </si>
+  <si>
+    <t>com.jiongji.andriod.card</t>
+  </si>
+  <si>
+    <t>com.baicizhan.main.activity.LoadingPageActivity</t>
+  </si>
+  <si>
+    <t>便签</t>
+  </si>
+  <si>
+    <t>bianqian</t>
+  </si>
+  <si>
+    <t>com.meizu.notepaper</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.notepaper.app.NotePaperActivity</t>
+  </si>
+  <si>
+    <t>meizu</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘任务</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bianyuanrenwu</t>
+  </si>
+  <si>
+    <t>com.gesture.s</t>
+  </si>
+  <si>
+    <t>com.gesture.s.OpenActivity</t>
+  </si>
+  <si>
+    <t>表情包生成器</t>
+  </si>
+  <si>
+    <t>biaoqingbaoshenchengqi</t>
+  </si>
+  <si>
+    <t>com.android.emoticoncreater</t>
+  </si>
+  <si>
+    <t>com.android.emoticoncreater.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>超级计算器</t>
+  </si>
+  <si>
+    <t>chaojijisuanqi</t>
+  </si>
+  <si>
+    <t>com.youdao.calculator</t>
+  </si>
+  <si>
+    <t>com.youdao.calculator.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>城通网盘</t>
+  </si>
+  <si>
+    <t>chentongwangpan</t>
+  </si>
+  <si>
+    <t>com.ctfile</t>
+  </si>
+  <si>
+    <t>com.ctfile.MainActivity</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>dianhua</t>
+  </si>
+  <si>
+    <t>com.android.dialer</t>
+  </si>
+  <si>
+    <t>com.android.dialer.DialtactsActivity</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>ditu</t>
+  </si>
+  <si>
+    <t>com.baidu.BaiduMap.meizu</t>
+  </si>
+  <si>
+    <t>com.baidu.baidumaps.WelcomeScreen</t>
+  </si>
+  <si>
+    <t>多开分身</t>
+  </si>
+  <si>
+    <t>duokaifenshen</t>
+  </si>
+  <si>
+    <t>com.bly.dkplat</t>
+  </si>
+  <si>
+    <t>com.bly.dkplat.widget.splash.Splash</t>
+  </si>
+  <si>
+    <t>工具箱</t>
+  </si>
+  <si>
+    <t>gongjuxiang</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.toolbox</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.toolbox.activity.ToolBoxActivity</t>
+  </si>
+  <si>
+    <t>谷歌翻译</t>
+  </si>
+  <si>
+    <t>gugefanyi</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.translate</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.translate.TranslateActivity</t>
+  </si>
+  <si>
+    <t>按键精灵</t>
+  </si>
+  <si>
+    <t>anjianjingling</t>
+  </si>
+  <si>
+    <t>com.cyjh.mobileanjian</t>
+  </si>
+  <si>
+    <t>com.cyjh.mobileanjian.activity.GuiActivity</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>shezhi</t>
+  </si>
+  <si>
+    <t>com.android.settings</t>
+  </si>
+  <si>
+    <t>com.android.settings.Settings</t>
+  </si>
+  <si>
+    <t>手机管家</t>
+  </si>
+  <si>
+    <t>shoujiguanjia</t>
+  </si>
+  <si>
+    <t>com.meizu.safe</t>
+  </si>
+  <si>
+    <t>com.meizu.safe.SecurityMainActivity</t>
+  </si>
+  <si>
+    <t>SSRR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>in.zhaoj.shadowsocksrr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS HD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>air.com.adobe.pstouch</t>
+  </si>
+  <si>
+    <t>air.com.adobe.pstouch.AppEntry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +989,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1536,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1774,33 +1988,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>56</v>
@@ -1808,16 +2022,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -1825,16 +2039,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -1842,16 +2056,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -1859,16 +2073,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -1876,16 +2090,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -1893,16 +2107,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -1910,16 +2124,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -1927,16 +2141,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -1944,16 +2158,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -1961,16 +2175,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -1978,16 +2192,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -1995,16 +2209,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
@@ -2012,16 +2226,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
         <v>56</v>
@@ -2029,16 +2243,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
@@ -2046,16 +2260,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>56</v>
@@ -2063,16 +2277,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>
@@ -2080,16 +2294,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
         <v>56</v>
@@ -2097,16 +2311,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -2114,33 +2328,33 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
         <v>135</v>
@@ -2148,33 +2362,33 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
@@ -2182,16 +2396,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
@@ -2199,16 +2413,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
         <v>56</v>
@@ -2216,16 +2430,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
         <v>56</v>
@@ -2233,16 +2447,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
         <v>56</v>
@@ -2250,16 +2464,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
         <v>56</v>
@@ -2267,16 +2481,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
         <v>56</v>
@@ -2284,16 +2498,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
         <v>56</v>
@@ -2301,16 +2515,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
         <v>56</v>
@@ -2318,16 +2532,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
         <v>56</v>
@@ -2335,23 +2549,312 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>184</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>185</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>186</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>187</v>
       </c>
-      <c r="E47" t="s">
-        <v>56</v>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19ADB53-CBB3-4C6D-8C94-81D5B713CE3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798D80AC-2917-40D6-BD73-0C682CC7968D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="315">
   <si>
     <t>百度网盘</t>
   </si>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>com.gwsoft.imusic.controller.LoadingActivity</t>
-  </si>
-  <si>
-    <t>apllication</t>
   </si>
   <si>
     <t>百词斩</t>
@@ -826,6 +823,190 @@
   <si>
     <t>air.com.adobe.pstouch.AppEntry</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机营业厅</t>
+  </si>
+  <si>
+    <t>com.sinovatech.unicom.ui</t>
+  </si>
+  <si>
+    <t>com.sinovatech.unicom.ui.WelcomeClient</t>
+  </si>
+  <si>
+    <t>曲奇云盘</t>
+  </si>
+  <si>
+    <t>quqiyunpan</t>
+  </si>
+  <si>
+    <t>com.quqi.quqioffice</t>
+  </si>
+  <si>
+    <t>com.quqi.quqioffice.MainActivity</t>
+  </si>
+  <si>
+    <t>乐秀视频编辑器</t>
+  </si>
+  <si>
+    <t>lexiu</t>
+  </si>
+  <si>
+    <t>com.xvideostudio.videoeditor</t>
+  </si>
+  <si>
+    <t>com.xvideostudio.videoeditor.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>换机助手</t>
+  </si>
+  <si>
+    <t>huanjizhushou</t>
+  </si>
+  <si>
+    <t>com.meizu.datamigration</t>
+  </si>
+  <si>
+    <t>com.meizu.datamigration.capture.DataMigrationActivity</t>
+  </si>
+  <si>
+    <t>meizu</t>
+  </si>
+  <si>
+    <t>主题美化</t>
+  </si>
+  <si>
+    <t>zhutimeihua</t>
+  </si>
+  <si>
+    <t>com.meizu.customizecenter</t>
+  </si>
+  <si>
+    <t>com.meizu.customizecenter.frame.activity.CustomizeCenterActivity</t>
+  </si>
+  <si>
+    <t>扫一扫</t>
+  </si>
+  <si>
+    <t>saoyisaocitie</t>
+  </si>
+  <si>
+    <t>com.inklin.qrcodescanner</t>
+  </si>
+  <si>
+    <t>com.inklin.qrcodescanner.SplashActivity</t>
+  </si>
+  <si>
+    <t>奇异人生</t>
+  </si>
+  <si>
+    <t>qiyirensheng</t>
+  </si>
+  <si>
+    <t>com.squareenix.lis</t>
+  </si>
+  <si>
+    <t>com.epicgames.ue4.SplashActivity</t>
+  </si>
+  <si>
+    <t>蓝奏云</t>
+  </si>
+  <si>
+    <t>lanzouyun</t>
+  </si>
+  <si>
+    <t>com.lanzou.gwa</t>
+  </si>
+  <si>
+    <t>com.uzmap.pkg.EntranceActivity</t>
+  </si>
+  <si>
+    <t>觅动校园</t>
+  </si>
+  <si>
+    <t>midongxiaoyuan</t>
+  </si>
+  <si>
+    <t>com.huidong.mdschool</t>
+  </si>
+  <si>
+    <t>com.huidong.mdschool.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>录音机</t>
+  </si>
+  <si>
+    <t>luyinji</t>
+  </si>
+  <si>
+    <t>com.android.soundrecorder</t>
+  </si>
+  <si>
+    <t>com.android.soundrecorder.MzRecorderActivity</t>
+  </si>
+  <si>
+    <t>计步器</t>
+  </si>
+  <si>
+    <t>jibuqi</t>
+  </si>
+  <si>
+    <t>com.meizu.net.pedometer</t>
+  </si>
+  <si>
+    <t>com.meizu.net.pedometer.ui.PedometerMainActivitys</t>
+  </si>
+  <si>
+    <t>计算器</t>
+  </si>
+  <si>
+    <t>jisuanqi</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.calculator</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.calculator.Calculator</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>tianqi</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.weather</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.weather.WeatherMainActivity</t>
+  </si>
+  <si>
+    <t>如果明天是晴天</t>
+  </si>
+  <si>
+    <t>ruguomingtianshiqintian</t>
+  </si>
+  <si>
+    <t>com.Keeler.ifsunshine</t>
+  </si>
+  <si>
+    <t>com.unity3d.player.UnityPlayerActivity</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>shizhong</t>
+  </si>
+  <si>
+    <t>com.android.alarmclock</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.alarmclock.DeskClock</t>
+  </si>
+  <si>
+    <t>zhongguoliantong</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1750,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,16 +2169,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" t="s">
         <v>253</v>
-      </c>
-      <c r="D14" t="s">
-        <v>254</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -2532,13 +2713,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
         <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D46" t="s">
         <v>175</v>
@@ -2612,245 +2793,500 @@
         <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
         <v>193</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>194</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>195</v>
       </c>
-      <c r="D51" t="s">
-        <v>196</v>
-      </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" t="s">
         <v>197</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>198</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>199</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>200</v>
-      </c>
-      <c r="E52" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" t="s">
         <v>202</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>203</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>204</v>
       </c>
-      <c r="D53" t="s">
-        <v>205</v>
-      </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
         <v>206</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>207</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>208</v>
       </c>
-      <c r="D54" t="s">
-        <v>209</v>
-      </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>211</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>212</v>
       </c>
-      <c r="D55" t="s">
-        <v>213</v>
-      </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
         <v>214</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>215</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>216</v>
       </c>
-      <c r="D56" t="s">
-        <v>217</v>
-      </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
         <v>218</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>219</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>220</v>
       </c>
-      <c r="D57" t="s">
-        <v>221</v>
-      </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
         <v>222</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>223</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>224</v>
       </c>
-      <c r="D58" t="s">
-        <v>225</v>
-      </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
         <v>226</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>228</v>
       </c>
-      <c r="D59" t="s">
-        <v>229</v>
-      </c>
       <c r="E59" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
         <v>230</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>231</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>232</v>
       </c>
-      <c r="D60" t="s">
-        <v>233</v>
-      </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" t="s">
         <v>234</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>236</v>
       </c>
-      <c r="D61" t="s">
-        <v>237</v>
-      </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" t="s">
         <v>238</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>239</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>240</v>
       </c>
-      <c r="D62" t="s">
-        <v>241</v>
-      </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
         <v>242</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>243</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>244</v>
       </c>
-      <c r="D63" t="s">
-        <v>245</v>
-      </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" t="s">
         <v>246</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>247</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>248</v>
       </c>
-      <c r="D64" t="s">
-        <v>249</v>
-      </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" t="s">
+        <v>285</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" t="s">
+        <v>293</v>
+      </c>
+      <c r="E74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
+        <v>305</v>
+      </c>
+      <c r="E77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" t="s">
+        <v>313</v>
+      </c>
+      <c r="E79" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798D80AC-2917-40D6-BD73-0C682CC7968D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EC62F-0855-46C2-A523-57D8C44BA92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>百度网盘</t>
   </si>
   <si>
-    <t>baiduwangpan</t>
-  </si>
-  <si>
     <t>com.baidu.netdisk</t>
   </si>
   <si>
@@ -74,10 +71,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>kuan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>com.coolapk.market</t>
   </si>
   <si>
@@ -90,922 +83,1004 @@
     <t>com.eg.android.AlipayGphone.AlipayLogin</t>
   </si>
   <si>
+    <t>com.One.WoodenLetter.LetterActivity</t>
+  </si>
+  <si>
+    <t>com.ruguoapp.jike</t>
+  </si>
+  <si>
+    <t>com.ruguoapp.jike.business.launch.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.tencent.mm</t>
+  </si>
+  <si>
+    <t>me.piebridge.brevent.ui.BreventActivity</t>
+  </si>
+  <si>
+    <t>com.bilibili.app.blue</t>
+  </si>
+  <si>
+    <t>com.ruanmei.ithome</t>
+  </si>
+  <si>
+    <t>com.ruanmei.ithome.MainActivity1</t>
+  </si>
+  <si>
+    <t>com.tencent.mobileqq</t>
+  </si>
+  <si>
+    <t>com.tencent.mobileqq.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.adobe.psmobile</t>
+  </si>
+  <si>
+    <t>com.adobe.psmobile.SplashScreen</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个木函</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>即刻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑域</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩概念版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT之家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photoshop Express</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jike</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ithome</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>Google Photos</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.photos</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.photos.home.HomeActivity</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>夸克浏览器</t>
+  </si>
+  <si>
+    <t>com.quark.browser</t>
+  </si>
+  <si>
+    <t>com.ucpro.MainActivity</t>
+  </si>
+  <si>
+    <t>QQ浏览器</t>
+  </si>
+  <si>
+    <t>com.tencent.mtt</t>
+  </si>
+  <si>
+    <t>com.tencent.mtt.SplashActivity</t>
+  </si>
+  <si>
+    <t>QQ同步助手</t>
+  </si>
+  <si>
+    <t>com.tencent.qqpim</t>
+  </si>
+  <si>
+    <t>QQ音乐</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmusic</t>
+  </si>
+  <si>
+    <t>snapseed</t>
+  </si>
+  <si>
+    <t>com.niksoftware.snapseed</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.snapseed.WelcomeScreenActivity</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>taobao</t>
+  </si>
+  <si>
+    <t>com.taobao.taobao</t>
+  </si>
+  <si>
+    <t>com.taobao.tao.welcome.Welcome</t>
+  </si>
+  <si>
+    <t>腾讯翻译君</t>
+  </si>
+  <si>
+    <t>com.qb.qtranslate.qactivity.SplashActivity</t>
+  </si>
+  <si>
+    <t>腾讯文档</t>
+  </si>
+  <si>
+    <t>com.tencent.docs</t>
+  </si>
+  <si>
+    <t>腾讯WiFi管家</t>
+  </si>
+  <si>
+    <t>com.tencent.wifimanager.MainActivity</t>
+  </si>
+  <si>
+    <t>腾讯手机管家</t>
+  </si>
+  <si>
+    <t>com.tencent.server.fore.QuickLoadActivity</t>
+  </si>
+  <si>
+    <t>腾讯时光</t>
+  </si>
+  <si>
+    <t>腾讯视频</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>mark.via</t>
+  </si>
+  <si>
+    <t>mark.via.ui.activity.BrowserActivity</t>
+  </si>
+  <si>
+    <t>网易云音乐</t>
+  </si>
+  <si>
+    <t>com.netease.cloudmusic</t>
+  </si>
+  <si>
+    <t>com.netease.cloudmusic.activity.LoadingActivity</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>weibo</t>
+  </si>
+  <si>
+    <t>com.sina.weibo</t>
+  </si>
+  <si>
+    <t>com.sina.weibo.SplashActivity</t>
+  </si>
+  <si>
+    <t>微信读书</t>
+  </si>
+  <si>
+    <t>com.tencent.weread</t>
+  </si>
+  <si>
+    <t>com.tencent.weread.LauncherActivity</t>
+  </si>
+  <si>
+    <t>WPS Office</t>
+  </si>
+  <si>
+    <t>wps</t>
+  </si>
+  <si>
+    <t>cn.wps.moffice_eng</t>
+  </si>
+  <si>
+    <t>猫饼</t>
+  </si>
+  <si>
+    <t>maobing</t>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhihu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zhihu.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zhihu.android.app.ui.activity.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.wps.moffice.documentmanager.PreStartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm.ui.LauncherUI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qb.qtranslator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqpim.ui.QQPimAndroid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqmusic.activity.AppStarterActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.xiaodao.xdtv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.xiaodao.xdtv.presentation.module.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqlive.ona.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔托的冒险</t>
+  </si>
+  <si>
+    <t>com.noodlecake.altosadventure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.prime31.UnityPlayerNativeActivity</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>阿尔托的奥德赛</t>
+  </si>
+  <si>
+    <t>com.noodlecake.altosodyssey</t>
+  </si>
+  <si>
+    <t>com.unity3d.player.UnityPlayerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM Pro</t>
+  </si>
+  <si>
+    <t>com.dv.adm.pay</t>
+  </si>
+  <si>
+    <t>com.dv.adm.pay.Main</t>
+  </si>
+  <si>
+    <t>Google Play商店</t>
+  </si>
+  <si>
+    <t>com.android.vending</t>
+  </si>
+  <si>
+    <t>com.android.vending.AssetBrowserActivity</t>
+  </si>
+  <si>
+    <t>Lastpass</t>
+  </si>
+  <si>
+    <t>lastpass</t>
+  </si>
+  <si>
+    <t>com.lastpass.lpandroid</t>
+  </si>
+  <si>
+    <t>com.lastpass.lpandroid.activity.WebBrowserActivity</t>
+  </si>
+  <si>
+    <t>Nova启动器</t>
+  </si>
+  <si>
+    <t>com.teslacoilsw.launcher</t>
+  </si>
+  <si>
+    <t>com.teslacoilsw.launcher.NovaShortcutHandler</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ocamera</t>
+  </si>
+  <si>
+    <t>ocamera</t>
+  </si>
+  <si>
+    <t>com.qinlin.ocamera</t>
+  </si>
+  <si>
+    <t>com.qinlin.ocamera.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>PU口袋校园</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>com.xyhui</t>
+  </si>
+  <si>
+    <t>com.lee.start.LoadingActivity</t>
+  </si>
+  <si>
+    <t>QQ安全中心</t>
+  </si>
+  <si>
+    <t>com.tencent.token</t>
+  </si>
+  <si>
+    <t>com.tencent.token.ui.LogoActivity</t>
+  </si>
+  <si>
+    <t>SpeedTest</t>
+  </si>
+  <si>
+    <t>speedtest</t>
+  </si>
+  <si>
+    <t>org.zwanoo.android.speedtest</t>
+  </si>
+  <si>
+    <t>com.ookla.mobile4.screens.main.MainActivity</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>in.zhaoj.shadowsocksr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.github.shadowsocks.Shadowsocks</t>
+  </si>
+  <si>
+    <t>Taptap</t>
+  </si>
+  <si>
+    <t>taptap</t>
+  </si>
+  <si>
+    <t>com.taptap</t>
+  </si>
+  <si>
+    <t>com.play.taptap.ui.SplashAct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼</t>
+  </si>
+  <si>
+    <t>com.taobao.fleamarket.home.activity.InitActivity</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>com.google.android.youtube</t>
+  </si>
+  <si>
+    <t>com.google.android.youtube.app.honeycomb.Shell$HomeActivity</t>
+  </si>
+  <si>
+    <t>爱音乐</t>
+  </si>
+  <si>
+    <t>com.gwsoft.imusic.controller</t>
+  </si>
+  <si>
+    <t>com.gwsoft.imusic.controller.LoadingActivity</t>
+  </si>
+  <si>
+    <t>百词斩</t>
+  </si>
+  <si>
+    <t>baicizhan</t>
+  </si>
+  <si>
+    <t>com.jiongji.andriod.card</t>
+  </si>
+  <si>
+    <t>com.baicizhan.main.activity.LoadingPageActivity</t>
+  </si>
+  <si>
+    <t>便签</t>
+  </si>
+  <si>
+    <t>com.meizu.notepaper</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.notepaper.app.NotePaperActivity</t>
+  </si>
+  <si>
+    <t>meizu</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘任务</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gesture.s</t>
+  </si>
+  <si>
+    <t>com.gesture.s.OpenActivity</t>
+  </si>
+  <si>
+    <t>表情包生成器</t>
+  </si>
+  <si>
+    <t>com.android.emoticoncreater.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>超级计算器</t>
+  </si>
+  <si>
+    <t>com.youdao.calculator</t>
+  </si>
+  <si>
+    <t>com.youdao.calculator.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>城通网盘</t>
+  </si>
+  <si>
+    <t>com.ctfile</t>
+  </si>
+  <si>
+    <t>com.ctfile.MainActivity</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>com.android.dialer</t>
+  </si>
+  <si>
+    <t>com.android.dialer.DialtactsActivity</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>com.baidu.BaiduMap.meizu</t>
+  </si>
+  <si>
+    <t>com.baidu.baidumaps.WelcomeScreen</t>
+  </si>
+  <si>
+    <t>多开分身</t>
+  </si>
+  <si>
+    <t>com.bly.dkplat.widget.splash.Splash</t>
+  </si>
+  <si>
+    <t>工具箱</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.toolbox.activity.ToolBoxActivity</t>
+  </si>
+  <si>
+    <t>谷歌翻译</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.translate</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.translate.TranslateActivity</t>
+  </si>
+  <si>
+    <t>按键精灵</t>
+  </si>
+  <si>
+    <t>com.cyjh.mobileanjian.activity.GuiActivity</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>com.android.settings</t>
+  </si>
+  <si>
+    <t>com.android.settings.Settings</t>
+  </si>
+  <si>
+    <t>手机管家</t>
+  </si>
+  <si>
+    <t>com.meizu.safe</t>
+  </si>
+  <si>
+    <t>com.meizu.safe.SecurityMainActivity</t>
+  </si>
+  <si>
+    <t>SSRR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>in.zhaoj.shadowsocksrr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS HD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>air.com.adobe.pstouch</t>
+  </si>
+  <si>
+    <t>air.com.adobe.pstouch.AppEntry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机营业厅</t>
+  </si>
+  <si>
+    <t>com.sinovatech.unicom.ui.WelcomeClient</t>
+  </si>
+  <si>
+    <t>曲奇云盘</t>
+  </si>
+  <si>
+    <t>com.quqi.quqioffice</t>
+  </si>
+  <si>
+    <t>com.quqi.quqioffice.MainActivity</t>
+  </si>
+  <si>
+    <t>乐秀视频编辑器</t>
+  </si>
+  <si>
+    <t>com.xvideostudio.videoeditor.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>换机助手</t>
+  </si>
+  <si>
+    <t>com.meizu.datamigration.capture.DataMigrationActivity</t>
+  </si>
+  <si>
+    <t>meizu</t>
+  </si>
+  <si>
+    <t>主题美化</t>
+  </si>
+  <si>
+    <t>com.meizu.customizecenter.frame.activity.CustomizeCenterActivity</t>
+  </si>
+  <si>
+    <t>扫一扫</t>
+  </si>
+  <si>
+    <t>com.inklin.qrcodescanner.SplashActivity</t>
+  </si>
+  <si>
+    <t>奇异人生</t>
+  </si>
+  <si>
+    <t>com.epicgames.ue4.SplashActivity</t>
+  </si>
+  <si>
+    <t>蓝奏云</t>
+  </si>
+  <si>
+    <t>com.lanzou.gwa</t>
+  </si>
+  <si>
+    <t>com.uzmap.pkg.EntranceActivity</t>
+  </si>
+  <si>
+    <t>觅动校园</t>
+  </si>
+  <si>
+    <t>com.huidong.mdschool.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>录音机</t>
+  </si>
+  <si>
+    <t>com.android.soundrecorder.MzRecorderActivity</t>
+  </si>
+  <si>
+    <t>计步器</t>
+  </si>
+  <si>
+    <t>com.meizu.net.pedometer.ui.PedometerMainActivitys</t>
+  </si>
+  <si>
+    <t>计算器</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.calculator.Calculator</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.weather</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.weather.WeatherMainActivity</t>
+  </si>
+  <si>
+    <t>如果明天是晴天</t>
+  </si>
+  <si>
+    <t>com.unity3d.player.UnityPlayerActivity</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>com.android.alarmclock</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.alarmclock.DeskClock</t>
+  </si>
+  <si>
+    <t>adm_pro</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>imusic</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>altos_adventure</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cyjh.mobileanjian</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu_netdisk</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.emoticoncreater</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>emoticon_creater</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili_blue</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>super_calculator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctfile</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bly.dkplat</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>dkplat</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.flyme.toolbox</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolbox</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_photos</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_play</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_translate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.piebridge.brevent</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>brevent</t>
+  </si>
+  <si>
+    <t>com.meizu.datamigration</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_migration</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.net.pedometer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedometer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.flyme.calculator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>quark</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolapk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanzou</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xvideostudio.videoeditor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoshow</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.soundrecorder</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_recorder</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huidong.mdschool</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdschool</t>
+  </si>
+  <si>
+    <t>nova_launcher</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>altos_odyssey</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>quqi</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.squareenix.lis</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_is_strange</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_music</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_pim</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_browser</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_token</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.Keeler.ifsunshine</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_sunshine</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.inklin.qrcodescanner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrcode_scanner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadowsocksr</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.wifimanager</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_wifimanager</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_docs</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqlive</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_qqlive</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.ipai</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_ipai</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqpimsecure</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_secure</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_translator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudmusic</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>weread</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.taobao.idlefish</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>idlefish</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>com.One.WoodenLetter</t>
-  </si>
-  <si>
-    <t>com.One.WoodenLetter.LetterActivity</t>
-  </si>
-  <si>
-    <t>com.ruguoapp.jike</t>
-  </si>
-  <si>
-    <t>com.ruguoapp.jike.business.launch.ui.SplashActivity</t>
-  </si>
-  <si>
-    <t>com.tencent.mm</t>
-  </si>
-  <si>
-    <t>me.piebridge.brevent</t>
-  </si>
-  <si>
-    <t>me.piebridge.brevent.ui.BreventActivity</t>
-  </si>
-  <si>
-    <t>com.bilibili.app.blue</t>
-  </si>
-  <si>
-    <t>com.ruanmei.ithome</t>
-  </si>
-  <si>
-    <t>com.ruanmei.ithome.MainActivity1</t>
-  </si>
-  <si>
-    <t>com.tencent.mobileqq</t>
-  </si>
-  <si>
-    <t>com.tencent.mobileqq.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>com.adobe.psmobile</t>
-  </si>
-  <si>
-    <t>com.adobe.psmobile.SplashScreen</t>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个木函</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>即刻</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑域</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>哔哩哔哩概念版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT之家</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Photoshop Express</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhifubao</t>
-  </si>
-  <si>
-    <t>yigemuhan</t>
-  </si>
-  <si>
-    <t>jike</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin</t>
-  </si>
-  <si>
-    <t>heiyu</t>
-  </si>
-  <si>
-    <t>bilibligainian</t>
-  </si>
-  <si>
-    <t>ithome</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>psexpress</t>
-  </si>
-  <si>
-    <t>Google Photos</t>
-  </si>
-  <si>
-    <t>googlephotos</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.photos</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.photos.home.HomeActivity</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>夸克浏览器</t>
-  </si>
-  <si>
-    <t>kuake</t>
-  </si>
-  <si>
-    <t>com.quark.browser</t>
-  </si>
-  <si>
-    <t>com.ucpro.MainActivity</t>
-  </si>
-  <si>
-    <t>QQ浏览器</t>
-  </si>
-  <si>
-    <t>qqliulanqi</t>
-  </si>
-  <si>
-    <t>com.tencent.mtt</t>
-  </si>
-  <si>
-    <t>com.tencent.mtt.SplashActivity</t>
-  </si>
-  <si>
-    <t>QQ同步助手</t>
-  </si>
-  <si>
-    <t>qqtongbuzhushou</t>
-  </si>
-  <si>
-    <t>com.tencent.qqpim</t>
-  </si>
-  <si>
-    <t>QQ音乐</t>
-  </si>
-  <si>
-    <t>qqyinyue</t>
-  </si>
-  <si>
-    <t>com.tencent.qqmusic</t>
-  </si>
-  <si>
-    <t>snapseed</t>
-  </si>
-  <si>
-    <t>com.niksoftware.snapseed</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.snapseed.WelcomeScreenActivity</t>
-  </si>
-  <si>
-    <t>淘宝</t>
-  </si>
-  <si>
-    <t>taobao</t>
-  </si>
-  <si>
-    <t>com.taobao.taobao</t>
-  </si>
-  <si>
-    <t>com.taobao.tao.welcome.Welcome</t>
-  </si>
-  <si>
-    <t>腾讯翻译君</t>
-  </si>
-  <si>
-    <t>tengxunfanyijun</t>
-  </si>
-  <si>
-    <t>com.qb.qtranslate.qactivity.SplashActivity</t>
-  </si>
-  <si>
-    <t>腾讯文档</t>
-  </si>
-  <si>
-    <t>tengxunwendang</t>
-  </si>
-  <si>
-    <t>com.tencent.docs</t>
-  </si>
-  <si>
-    <t>腾讯WiFi管家</t>
-  </si>
-  <si>
-    <t>tengxunwifiguanjia</t>
-  </si>
-  <si>
-    <t>com.tencent.wifimanager</t>
-  </si>
-  <si>
-    <t>com.tencent.wifimanager.MainActivity</t>
-  </si>
-  <si>
-    <t>腾讯手机管家</t>
-  </si>
-  <si>
-    <t>tengxunanquanguanjia</t>
-  </si>
-  <si>
-    <t>com.tencent.qqpimsecure</t>
-  </si>
-  <si>
-    <t>com.tencent.server.fore.QuickLoadActivity</t>
-  </si>
-  <si>
-    <t>腾讯时光</t>
-  </si>
-  <si>
-    <t>tengxunshiguang</t>
-  </si>
-  <si>
-    <t>com.tencent.ipai</t>
-  </si>
-  <si>
-    <t>腾讯视频</t>
-  </si>
-  <si>
-    <t>tengxunshipin</t>
-  </si>
-  <si>
-    <t>com.tencent.qqlive</t>
-  </si>
-  <si>
-    <t>Via</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>mark.via</t>
-  </si>
-  <si>
-    <t>mark.via.ui.activity.BrowserActivity</t>
-  </si>
-  <si>
-    <t>网易云音乐</t>
-  </si>
-  <si>
-    <t>wangyiyunyinyue</t>
-  </si>
-  <si>
-    <t>com.netease.cloudmusic</t>
-  </si>
-  <si>
-    <t>com.netease.cloudmusic.activity.LoadingActivity</t>
-  </si>
-  <si>
-    <t>微博</t>
-  </si>
-  <si>
-    <t>weibo</t>
-  </si>
-  <si>
-    <t>com.sina.weibo</t>
-  </si>
-  <si>
-    <t>com.sina.weibo.SplashActivity</t>
-  </si>
-  <si>
-    <t>微信读书</t>
-  </si>
-  <si>
-    <t>weixindushu</t>
-  </si>
-  <si>
-    <t>com.tencent.weread</t>
-  </si>
-  <si>
-    <t>com.tencent.weread.LauncherActivity</t>
-  </si>
-  <si>
-    <t>WPS Office</t>
-  </si>
-  <si>
-    <t>wps</t>
-  </si>
-  <si>
-    <t>cn.wps.moffice_eng</t>
-  </si>
-  <si>
-    <t>猫饼</t>
-  </si>
-  <si>
-    <t>maobing</t>
-  </si>
-  <si>
-    <t>知乎</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhihu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.zhihu.android</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.zhihu.android.app.ui.activity.LauncherActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.wps.moffice.documentmanager.PreStartActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm.ui.LauncherUI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.qb.qtranslator</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.qqpim.ui.QQPimAndroid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.qqmusic.activity.AppStarterActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tv.xiaodao.xdtv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tv.xiaodao.xdtv.presentation.module.splash.SplashActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.qqlive.ona.activity.WelcomeActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尔托的冒险</t>
-  </si>
-  <si>
-    <t>altoadventure</t>
-  </si>
-  <si>
-    <t>com.noodlecake.altosadventure</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.prime31.UnityPlayerNativeActivity</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>阿尔托的奥德赛</t>
-  </si>
-  <si>
-    <t>odyssey</t>
-  </si>
-  <si>
-    <t>com.noodlecake.altosodyssey</t>
-  </si>
-  <si>
-    <t>com.unity3d.player.UnityPlayerActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADM Pro</t>
-  </si>
-  <si>
-    <t>admpro</t>
-  </si>
-  <si>
-    <t>com.dv.adm.pay</t>
-  </si>
-  <si>
-    <t>com.dv.adm.pay.Main</t>
-  </si>
-  <si>
-    <t>Google Play商店</t>
-  </si>
-  <si>
-    <t>googleplay</t>
-  </si>
-  <si>
-    <t>com.android.vending</t>
-  </si>
-  <si>
-    <t>com.android.vending.AssetBrowserActivity</t>
-  </si>
-  <si>
-    <t>Lastpass</t>
-  </si>
-  <si>
-    <t>lastpass</t>
-  </si>
-  <si>
-    <t>com.lastpass.lpandroid</t>
-  </si>
-  <si>
-    <t>com.lastpass.lpandroid.activity.WebBrowserActivity</t>
-  </si>
-  <si>
-    <t>Nova启动器</t>
-  </si>
-  <si>
-    <t>nova</t>
-  </si>
-  <si>
-    <t>com.teslacoilsw.launcher</t>
-  </si>
-  <si>
-    <t>com.teslacoilsw.launcher.NovaShortcutHandler</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ocamera</t>
-  </si>
-  <si>
-    <t>ocamera</t>
-  </si>
-  <si>
-    <t>com.qinlin.ocamera</t>
-  </si>
-  <si>
-    <t>com.qinlin.ocamera.ui.LaunchActivity</t>
-  </si>
-  <si>
-    <t>PU口袋校园</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>com.xyhui</t>
-  </si>
-  <si>
-    <t>com.lee.start.LoadingActivity</t>
-  </si>
-  <si>
-    <t>QQ安全中心</t>
-  </si>
-  <si>
-    <t>qqanquanzhongxin</t>
-  </si>
-  <si>
-    <t>com.tencent.token</t>
-  </si>
-  <si>
-    <t>com.tencent.token.ui.LogoActivity</t>
-  </si>
-  <si>
-    <t>SpeedTest</t>
-  </si>
-  <si>
-    <t>speedtest</t>
-  </si>
-  <si>
-    <t>org.zwanoo.android.speedtest</t>
-  </si>
-  <si>
-    <t>com.ookla.mobile4.screens.main.MainActivity</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>ssr</t>
-  </si>
-  <si>
-    <t>in.zhaoj.shadowsocksr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.github.shadowsocks.Shadowsocks</t>
-  </si>
-  <si>
-    <t>Taptap</t>
-  </si>
-  <si>
-    <t>taptap</t>
-  </si>
-  <si>
-    <t>com.taptap</t>
-  </si>
-  <si>
-    <t>com.play.taptap.ui.SplashAct</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲鱼</t>
-  </si>
-  <si>
-    <t>xianyu</t>
-  </si>
-  <si>
-    <t>com.taobao.idlefish</t>
-  </si>
-  <si>
-    <t>com.taobao.fleamarket.home.activity.InitActivity</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>com.google.android.youtube</t>
-  </si>
-  <si>
-    <t>com.google.android.youtube.app.honeycomb.Shell$HomeActivity</t>
-  </si>
-  <si>
-    <t>爱音乐</t>
-  </si>
-  <si>
-    <t>aiyinyue</t>
-  </si>
-  <si>
-    <t>com.gwsoft.imusic.controller</t>
-  </si>
-  <si>
-    <t>com.gwsoft.imusic.controller.LoadingActivity</t>
-  </si>
-  <si>
-    <t>百词斩</t>
-  </si>
-  <si>
-    <t>baicizhan</t>
-  </si>
-  <si>
-    <t>com.jiongji.andriod.card</t>
-  </si>
-  <si>
-    <t>com.baicizhan.main.activity.LoadingPageActivity</t>
-  </si>
-  <si>
-    <t>便签</t>
-  </si>
-  <si>
-    <t>bianqian</t>
-  </si>
-  <si>
-    <t>com.meizu.notepaper</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.notepaper.app.NotePaperActivity</t>
-  </si>
-  <si>
-    <t>meizu</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘任务</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>bianyuanrenwu</t>
-  </si>
-  <si>
-    <t>com.gesture.s</t>
-  </si>
-  <si>
-    <t>com.gesture.s.OpenActivity</t>
-  </si>
-  <si>
-    <t>表情包生成器</t>
-  </si>
-  <si>
-    <t>biaoqingbaoshenchengqi</t>
-  </si>
-  <si>
-    <t>com.android.emoticoncreater</t>
-  </si>
-  <si>
-    <t>com.android.emoticoncreater.ui.activity.MainActivity</t>
-  </si>
-  <si>
-    <t>超级计算器</t>
-  </si>
-  <si>
-    <t>chaojijisuanqi</t>
-  </si>
-  <si>
-    <t>com.youdao.calculator</t>
-  </si>
-  <si>
-    <t>com.youdao.calculator.activities.MainActivity</t>
-  </si>
-  <si>
-    <t>城通网盘</t>
-  </si>
-  <si>
-    <t>chentongwangpan</t>
-  </si>
-  <si>
-    <t>com.ctfile</t>
-  </si>
-  <si>
-    <t>com.ctfile.MainActivity</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>dianhua</t>
-  </si>
-  <si>
-    <t>com.android.dialer</t>
-  </si>
-  <si>
-    <t>com.android.dialer.DialtactsActivity</t>
-  </si>
-  <si>
-    <t>地图</t>
-  </si>
-  <si>
-    <t>ditu</t>
-  </si>
-  <si>
-    <t>com.baidu.BaiduMap.meizu</t>
-  </si>
-  <si>
-    <t>com.baidu.baidumaps.WelcomeScreen</t>
-  </si>
-  <si>
-    <t>多开分身</t>
-  </si>
-  <si>
-    <t>duokaifenshen</t>
-  </si>
-  <si>
-    <t>com.bly.dkplat</t>
-  </si>
-  <si>
-    <t>com.bly.dkplat.widget.splash.Splash</t>
-  </si>
-  <si>
-    <t>工具箱</t>
-  </si>
-  <si>
-    <t>gongjuxiang</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.toolbox</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.toolbox.activity.ToolBoxActivity</t>
-  </si>
-  <si>
-    <t>谷歌翻译</t>
-  </si>
-  <si>
-    <t>gugefanyi</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.translate</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.translate.TranslateActivity</t>
-  </si>
-  <si>
-    <t>按键精灵</t>
-  </si>
-  <si>
-    <t>anjianjingling</t>
-  </si>
-  <si>
-    <t>com.cyjh.mobileanjian</t>
-  </si>
-  <si>
-    <t>com.cyjh.mobileanjian.activity.GuiActivity</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>shezhi</t>
-  </si>
-  <si>
-    <t>com.android.settings</t>
-  </si>
-  <si>
-    <t>com.android.settings.Settings</t>
-  </si>
-  <si>
-    <t>手机管家</t>
-  </si>
-  <si>
-    <t>shoujiguanjia</t>
-  </si>
-  <si>
-    <t>com.meizu.safe</t>
-  </si>
-  <si>
-    <t>com.meizu.safe.SecurityMainActivity</t>
-  </si>
-  <si>
-    <t>SSRR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>in.zhaoj.shadowsocksrr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS HD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>air.com.adobe.pstouch</t>
-  </si>
-  <si>
-    <t>air.com.adobe.pstouch.AppEntry</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>联通手机营业厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>wooden_letter</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipay</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>com.sinovatech.unicom.ui</t>
-  </si>
-  <si>
-    <t>com.sinovatech.unicom.ui.WelcomeClient</t>
-  </si>
-  <si>
-    <t>曲奇云盘</t>
-  </si>
-  <si>
-    <t>quqiyunpan</t>
-  </si>
-  <si>
-    <t>com.quqi.quqioffice</t>
-  </si>
-  <si>
-    <t>com.quqi.quqioffice.MainActivity</t>
-  </si>
-  <si>
-    <t>乐秀视频编辑器</t>
-  </si>
-  <si>
-    <t>lexiu</t>
-  </si>
-  <si>
-    <t>com.xvideostudio.videoeditor</t>
-  </si>
-  <si>
-    <t>com.xvideostudio.videoeditor.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>换机助手</t>
-  </si>
-  <si>
-    <t>huanjizhushou</t>
-  </si>
-  <si>
-    <t>com.meizu.datamigration</t>
-  </si>
-  <si>
-    <t>com.meizu.datamigration.capture.DataMigrationActivity</t>
-  </si>
-  <si>
-    <t>meizu</t>
-  </si>
-  <si>
-    <t>主题美化</t>
-  </si>
-  <si>
-    <t>zhutimeihua</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicom</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>com.meizu.customizecenter</t>
-  </si>
-  <si>
-    <t>com.meizu.customizecenter.frame.activity.CustomizeCenterActivity</t>
-  </si>
-  <si>
-    <t>扫一扫</t>
-  </si>
-  <si>
-    <t>saoyisaocitie</t>
-  </si>
-  <si>
-    <t>com.inklin.qrcodescanner</t>
-  </si>
-  <si>
-    <t>com.inklin.qrcodescanner.SplashActivity</t>
-  </si>
-  <si>
-    <t>奇异人生</t>
-  </si>
-  <si>
-    <t>qiyirensheng</t>
-  </si>
-  <si>
-    <t>com.squareenix.lis</t>
-  </si>
-  <si>
-    <t>com.epicgames.ue4.SplashActivity</t>
-  </si>
-  <si>
-    <t>蓝奏云</t>
-  </si>
-  <si>
-    <t>lanzouyun</t>
-  </si>
-  <si>
-    <t>com.lanzou.gwa</t>
-  </si>
-  <si>
-    <t>com.uzmap.pkg.EntranceActivity</t>
-  </si>
-  <si>
-    <t>觅动校园</t>
-  </si>
-  <si>
-    <t>midongxiaoyuan</t>
-  </si>
-  <si>
-    <t>com.huidong.mdschool</t>
-  </si>
-  <si>
-    <t>com.huidong.mdschool.SplashScreenActivity</t>
-  </si>
-  <si>
-    <t>录音机</t>
-  </si>
-  <si>
-    <t>luyinji</t>
-  </si>
-  <si>
-    <t>com.android.soundrecorder</t>
-  </si>
-  <si>
-    <t>com.android.soundrecorder.MzRecorderActivity</t>
-  </si>
-  <si>
-    <t>计步器</t>
-  </si>
-  <si>
-    <t>jibuqi</t>
-  </si>
-  <si>
-    <t>com.meizu.net.pedometer</t>
-  </si>
-  <si>
-    <t>com.meizu.net.pedometer.ui.PedometerMainActivitys</t>
-  </si>
-  <si>
-    <t>计算器</t>
-  </si>
-  <si>
-    <t>jisuanqi</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.calculator</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.calculator.Calculator</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>tianqi</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.weather</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.weather.WeatherMainActivity</t>
-  </si>
-  <si>
-    <t>如果明天是晴天</t>
-  </si>
-  <si>
-    <t>ruguomingtianshiqintian</t>
-  </si>
-  <si>
-    <t>com.Keeler.ifsunshine</t>
-  </si>
-  <si>
-    <t>com.unity3d.player.UnityPlayerActivity</t>
-  </si>
-  <si>
-    <t>时钟</t>
-  </si>
-  <si>
-    <t>shizhong</t>
-  </si>
-  <si>
-    <t>com.android.alarmclock</t>
-  </si>
-  <si>
-    <t>com.meizu.flyme.alarmclock.DeskClock</t>
-  </si>
-  <si>
-    <t>zhongguoliantong</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_center</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>anjian</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge_gesture</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1606,8 +1681,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1948,852 +2026,852 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2801,495 +2879,498 @@
         <v>192</v>
       </c>
       <c r="B51" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" t="s">
         <v>193</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>194</v>
       </c>
-      <c r="D51" t="s">
-        <v>195</v>
-      </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>312</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E79">
+    <sortCondition ref="B2:B79"/>
+  </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EC62F-0855-46C2-A523-57D8C44BA92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F568E4-B19E-4EFA-87CD-0DE331D2558A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="377">
   <si>
     <t>百度网盘</t>
   </si>
@@ -1081,6 +1081,235 @@
   </si>
   <si>
     <t>edge_gesture</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道云笔记</t>
+  </si>
+  <si>
+    <t>youdao_note</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.youdao.note</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.youdao.note.activity2.SplashActivity</t>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>xunlei</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xunlei.downloadprovider</t>
+  </si>
+  <si>
+    <t>com.xunlei.downloadprovider.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>downloads</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.providers.downloads.ui</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.providers.downloads.ui.DownloadActivity</t>
+  </si>
+  <si>
+    <t>相机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.media.camera</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.media.camera.CameraLauncher</t>
+  </si>
+  <si>
+    <t>小鸡模拟器</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoji_emulator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaoji.emulator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaoji.emulator.Entry</t>
+  </si>
+  <si>
+    <t>日历</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.calendar</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.calendar.AllInOneActivity</t>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mms</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.mms</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.mms.ui.ConversationList</t>
+  </si>
+  <si>
+    <t>微工具箱</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.media.music</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.media.music.MusicActivity</t>
+  </si>
+  <si>
+    <t>黑科下载器</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>heike</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.heike.gw.heike</t>
+  </si>
+  <si>
+    <t>com.heike.gw.heike.MainActivity</t>
+  </si>
+  <si>
+    <t>百分网游戏盒</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>byfen</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.byfen.market</t>
+  </si>
+  <si>
+    <t>com.byfen.market.ui.aty.SplashActivity</t>
+  </si>
+  <si>
+    <t>文件管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_manager</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.filemanager</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.flyme.filemanager.activity.HomeActivity</t>
+  </si>
+  <si>
+    <t>全民K歌</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>karaoke</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.karaoke</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.karaoke.module.splash.ui.SplashBaseActivity</t>
+  </si>
+  <si>
+    <t>com.omarea.vboot</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.omarea.vboot.ActivityMain</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>vboot</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>图库</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.media.gallery.GalleryActivity</t>
+  </si>
+  <si>
+    <t>com.meizu.media.gallery</t>
+  </si>
+  <si>
+    <t>meizu</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtools</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.omarea.vtools</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.omarea.vtools.ActivityMain</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1681,13 +1910,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2009,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3367,6 +3597,261 @@
         <v>45</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" t="s">
+        <v>370</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F568E4-B19E-4EFA-87CD-0DE331D2558A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41932E-3456-4418-82AE-4BD7C3130B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$113</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="449">
   <si>
     <t>百度网盘</t>
   </si>
@@ -542,10 +545,6 @@
     <t>com.meizu.flyme.notepaper.app.NotePaperActivity</t>
   </si>
   <si>
-    <t>meizu</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>边缘任务</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -689,9 +688,6 @@
     <t>com.meizu.datamigration.capture.DataMigrationActivity</t>
   </si>
   <si>
-    <t>meizu</t>
-  </si>
-  <si>
     <t>主题美化</t>
   </si>
   <si>
@@ -1293,10 +1289,6 @@
     <t>com.meizu.media.gallery</t>
   </si>
   <si>
-    <t>meizu</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Scene</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1311,6 +1303,240 @@
   <si>
     <t>com.omarea.vtools.ActivityMain</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用商店</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>com.meizu.mstore</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.appcenter.activitys.AppMainActivity</t>
+  </si>
+  <si>
+    <t>busybox</t>
+  </si>
+  <si>
+    <t>stericson.busybox</t>
+  </si>
+  <si>
+    <t>stericson.busybox.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>英雄丹</t>
+  </si>
+  <si>
+    <t>dan_the_man</t>
+  </si>
+  <si>
+    <t>com.halfbrick.dantheman</t>
+  </si>
+  <si>
+    <t>com.halfbrick.mortar.MortarGameLauncherActivity</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>com.android.email</t>
+  </si>
+  <si>
+    <t>com.android.email.activity.EmailActivity</t>
+  </si>
+  <si>
+    <t>Express Vpn</t>
+  </si>
+  <si>
+    <t>express_vpn</t>
+  </si>
+  <si>
+    <t>com.expressvpn.vpn</t>
+  </si>
+  <si>
+    <t>com.expressvpn.vpn.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>Fake Location</t>
+  </si>
+  <si>
+    <t>fake_location</t>
+  </si>
+  <si>
+    <t>com.lerist.fakelocation</t>
+  </si>
+  <si>
+    <t>com.lerist.fakelocation.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>Javiewer</t>
+  </si>
+  <si>
+    <t>javiewer</t>
+  </si>
+  <si>
+    <t>io.github.javiewer</t>
+  </si>
+  <si>
+    <t>io.github.javiewer.activity.StartActivity</t>
+  </si>
+  <si>
+    <t>幸运破解器</t>
+  </si>
+  <si>
+    <t>lucky_patcher</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.pro</t>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.pro.ActivityWelcomeMX</t>
+  </si>
+  <si>
+    <t>网络信号大师</t>
+  </si>
+  <si>
+    <t>signal_master</t>
+  </si>
+  <si>
+    <t>com.qtrun.QuickTest</t>
+  </si>
+  <si>
+    <t>com.qtrun.QuickTest.LauncherActivity</t>
+  </si>
+  <si>
+    <t>威力导演</t>
+  </si>
+  <si>
+    <t>powerdirector</t>
+  </si>
+  <si>
+    <t>com.cyberlink.powerdirector.DRA140225_01</t>
+  </si>
+  <si>
+    <t>com.cyberlink.powerdirector.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>Relaxio</t>
+  </si>
+  <si>
+    <t>relaxio</t>
+  </si>
+  <si>
+    <t>net.relaxio.relaxio</t>
+  </si>
+  <si>
+    <t>net.relaxio.relaxio.MainActivity</t>
+  </si>
+  <si>
+    <t>Solid Explorer</t>
+  </si>
+  <si>
+    <t>solid_explorer</t>
+  </si>
+  <si>
+    <t>pl.solidexplorer2</t>
+  </si>
+  <si>
+    <t>pl.solidexplorer.SolidExplorer</t>
+  </si>
+  <si>
+    <t>卸载（系统软件安全卸载）</t>
+  </si>
+  <si>
+    <t>remover</t>
+  </si>
+  <si>
+    <t>com.jumobile.manager.systemapp</t>
+  </si>
+  <si>
+    <t>com.jumobile.manager.systemapp.ui.activity.IndexActivity</t>
+  </si>
+  <si>
+    <t>Tencent净化</t>
+  </si>
+  <si>
+    <t>tc_cleaner</t>
+  </si>
+  <si>
+    <t>com.firework.app</t>
+  </si>
+  <si>
+    <t>com.firework.app.SplashActivityde</t>
+  </si>
+  <si>
+    <t>Thunder VPN</t>
+  </si>
+  <si>
+    <t>thunder_vpn</t>
+  </si>
+  <si>
+    <t>com.fast.free.unblock.thunder.vpn</t>
+  </si>
+  <si>
+    <t>com.signallab.thunder.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>com.meizu.media.video</t>
+  </si>
+  <si>
+    <t>com.meizu.media.video.VideoMainActivity</t>
+  </si>
+  <si>
+    <t>flyme</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX player Pro</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX player</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.ad</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.ad.ActivityMediaList</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.vending.billing.InAppBillingService.CLON</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.vending.billing.InAppBillingService.CLON.MainActivity-Original</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎（旧）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zhihu.android</t>
+  </si>
+  <si>
+    <t>com.zhihu.android.app.ui.activity.MainActivity</t>
   </si>
 </sst>
 </file>
@@ -2239,18 +2465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="75.875" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2276,7 +2502,7 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2293,7 +2519,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2310,7 +2536,7 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -2327,7 +2553,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>109</v>
@@ -2341,16 +2567,16 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
@@ -2378,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2412,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2429,10 +2655,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -2443,36 +2669,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
         <v>232</v>
       </c>
-      <c r="B13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" t="s">
-        <v>234</v>
-      </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2480,7 +2706,7 @@
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
@@ -2497,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -2511,16 +2737,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
         <v>171</v>
       </c>
-      <c r="B16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>172</v>
-      </c>
-      <c r="D16" t="s">
-        <v>173</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -2528,50 +2754,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
         <v>207</v>
       </c>
-      <c r="B17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
-      </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
         <v>174</v>
       </c>
-      <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>175</v>
       </c>
-      <c r="D18" t="s">
-        <v>176</v>
-      </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
         <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" t="s">
-        <v>181</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -2579,16 +2805,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
         <v>163</v>
       </c>
-      <c r="B20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>164</v>
-      </c>
-      <c r="D20" t="s">
-        <v>165</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -2596,16 +2822,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="s">
         <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" t="s">
-        <v>167</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -2616,7 +2842,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -2633,7 +2859,7 @@
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
         <v>115</v>
@@ -2647,16 +2873,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
         <v>184</v>
       </c>
-      <c r="B24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>186</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -2667,10 +2893,10 @@
         <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D25" t="s">
         <v>147</v>
@@ -2681,16 +2907,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
         <v>107</v>
@@ -2701,7 +2927,7 @@
         <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
         <v>153</v>
@@ -2749,16 +2975,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
         <v>216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" t="s">
-        <v>218</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
@@ -2783,16 +3009,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
         <v>107</v>
@@ -2817,33 +3043,33 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" t="s">
         <v>177</v>
       </c>
-      <c r="B34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>178</v>
       </c>
-      <c r="D34" t="s">
-        <v>179</v>
-      </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
         <v>45</v>
@@ -2854,7 +3080,7 @@
         <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
         <v>160</v>
@@ -2863,7 +3089,7 @@
         <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2871,7 +3097,7 @@
         <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
         <v>122</v>
@@ -2902,19 +3128,19 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2922,7 +3148,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -2936,16 +3162,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" t="s">
         <v>197</v>
       </c>
-      <c r="B41" t="s">
-        <v>274</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>198</v>
-      </c>
-      <c r="D41" t="s">
-        <v>199</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2990,7 +3216,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -3007,7 +3233,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
@@ -3024,7 +3250,7 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -3041,7 +3267,7 @@
         <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
         <v>133</v>
@@ -3055,19 +3281,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3075,7 +3301,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
@@ -3089,16 +3315,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" t="s">
         <v>202</v>
       </c>
-      <c r="B50" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>203</v>
-      </c>
-      <c r="D50" t="s">
-        <v>204</v>
       </c>
       <c r="E50" t="s">
         <v>45</v>
@@ -3106,36 +3332,36 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" t="s">
         <v>192</v>
       </c>
-      <c r="B51" t="s">
-        <v>288</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>193</v>
       </c>
-      <c r="D51" t="s">
-        <v>194</v>
-      </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" t="s">
         <v>189</v>
       </c>
-      <c r="B52" t="s">
-        <v>286</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>190</v>
       </c>
-      <c r="D52" t="s">
-        <v>191</v>
-      </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,7 +3369,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C53" t="s">
         <v>140</v>
@@ -3157,13 +3383,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" t="s">
         <v>195</v>
-      </c>
-      <c r="B54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C54" t="s">
-        <v>196</v>
       </c>
       <c r="D54" t="s">
         <v>141</v>
@@ -3191,19 +3417,19 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,16 +3451,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
         <v>168</v>
       </c>
-      <c r="B58" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
@@ -3279,7 +3505,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
         <v>66</v>
@@ -3296,10 +3522,10 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
@@ -3313,10 +3539,10 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
         <v>103</v>
@@ -3330,10 +3556,10 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D64" t="s">
         <v>70</v>
@@ -3347,7 +3573,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s">
         <v>98</v>
@@ -3364,10 +3590,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -3378,50 +3604,50 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" t="s">
         <v>182</v>
       </c>
-      <c r="B68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" t="s">
-        <v>250</v>
-      </c>
-      <c r="D68" t="s">
-        <v>183</v>
-      </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" t="s">
         <v>200</v>
-      </c>
-      <c r="B69" t="s">
-        <v>310</v>
-      </c>
-      <c r="C69" t="s">
-        <v>309</v>
-      </c>
-      <c r="D69" t="s">
-        <v>201</v>
       </c>
       <c r="E69" t="s">
         <v>45</v>
@@ -3446,16 +3672,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" t="s">
         <v>205</v>
-      </c>
-      <c r="B71" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D71" t="s">
-        <v>206</v>
       </c>
       <c r="E71" t="s">
         <v>45</v>
@@ -3463,19 +3689,19 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" t="s">
         <v>227</v>
       </c>
-      <c r="B72" t="s">
-        <v>300</v>
-      </c>
-      <c r="C72" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" t="s">
-        <v>229</v>
-      </c>
       <c r="E72" t="s">
-        <v>209</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3483,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -3517,7 +3743,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s">
         <v>85</v>
@@ -3534,10 +3760,10 @@
         <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -3598,261 +3824,585 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>319</v>
+      <c r="A80" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>447</v>
+      </c>
+      <c r="D80" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>162</v>
+        <v>325</v>
+      </c>
+      <c r="E83" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="E84" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>162</v>
+        <v>337</v>
+      </c>
+      <c r="E86" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>319</v>
+        <v>341</v>
+      </c>
+      <c r="E87" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>319</v>
+        <v>346</v>
+      </c>
+      <c r="E90" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
+      </c>
+      <c r="E93" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" t="s">
+        <v>369</v>
+      </c>
+      <c r="D95" t="s">
         <v>368</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C94" t="s">
-        <v>371</v>
-      </c>
-      <c r="D94" t="s">
-        <v>370</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>372</v>
+      <c r="E95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>374</v>
+      </c>
+      <c r="B96" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" t="s">
+        <v>377</v>
+      </c>
+      <c r="E96" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>381</v>
+      </c>
+      <c r="B98" t="s">
+        <v>382</v>
+      </c>
+      <c r="C98" t="s">
+        <v>383</v>
+      </c>
+      <c r="D98" t="s">
+        <v>384</v>
+      </c>
+      <c r="E98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" t="s">
+        <v>387</v>
+      </c>
+      <c r="D99" t="s">
+        <v>388</v>
+      </c>
+      <c r="E99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" t="s">
+        <v>390</v>
+      </c>
+      <c r="C100" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" t="s">
+        <v>396</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" t="s">
+        <v>400</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s">
+        <v>402</v>
+      </c>
+      <c r="C103" t="s">
+        <v>444</v>
+      </c>
+      <c r="D103" t="s">
+        <v>445</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>440</v>
+      </c>
+      <c r="B104" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104" t="s">
+        <v>442</v>
+      </c>
+      <c r="D104" t="s">
+        <v>443</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>439</v>
+      </c>
+      <c r="B105" t="s">
+        <v>403</v>
+      </c>
+      <c r="C105" t="s">
+        <v>404</v>
+      </c>
+      <c r="D105" t="s">
+        <v>405</v>
+      </c>
+      <c r="E105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>406</v>
+      </c>
+      <c r="B106" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" t="s">
+        <v>409</v>
+      </c>
+      <c r="E106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>410</v>
+      </c>
+      <c r="B107" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" t="s">
+        <v>412</v>
+      </c>
+      <c r="D107" t="s">
+        <v>413</v>
+      </c>
+      <c r="E107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>414</v>
+      </c>
+      <c r="B108" t="s">
+        <v>415</v>
+      </c>
+      <c r="C108" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" t="s">
+        <v>417</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>418</v>
+      </c>
+      <c r="B109" t="s">
+        <v>419</v>
+      </c>
+      <c r="C109" t="s">
+        <v>420</v>
+      </c>
+      <c r="D109" t="s">
+        <v>421</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" t="s">
+        <v>423</v>
+      </c>
+      <c r="C110" t="s">
+        <v>424</v>
+      </c>
+      <c r="D110" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B111" t="s">
+        <v>427</v>
+      </c>
+      <c r="C111" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" t="s">
+        <v>429</v>
+      </c>
+      <c r="E111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" t="s">
+        <v>431</v>
+      </c>
+      <c r="C112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D112" t="s">
+        <v>433</v>
+      </c>
+      <c r="E112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" t="s">
+        <v>435</v>
+      </c>
+      <c r="C113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" t="s">
+        <v>437</v>
+      </c>
+      <c r="E113" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E113" xr:uid="{75B61382-B54E-4E94-8AEA-01B2B590EEB0}"/>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41932E-3456-4418-82AE-4BD7C3130B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="478">
   <si>
     <t>百度网盘</t>
   </si>
@@ -1537,12 +1536,114 @@
   </si>
   <si>
     <t>com.zhihu.android.app.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>小草</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cl.newt66y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cl.newt66y.MainActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机乐园</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoujimarket</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.shouji.market</t>
+  </si>
+  <si>
+    <t>cn.com.shouji.market.LogoActivity</t>
+  </si>
+  <si>
+    <t>刃心</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bladeheart_ninja</t>
+  </si>
+  <si>
+    <t>com.heimai666.ninja</t>
+  </si>
+  <si>
+    <t>ninja.heimai6666.com.mylibrary.HMYXUnityActivity</t>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博国际版</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>weibo_intl</t>
+  </si>
+  <si>
+    <t>com.weico.international</t>
+  </si>
+  <si>
+    <t>com.weico.international.activity.LogoActivity</t>
+  </si>
+  <si>
+    <t>钱包</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.flyme.wallet</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.wallet.activity.WalletTabActivity</t>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gedoor.monkeybook</t>
+  </si>
+  <si>
+    <t>com.monke.monkeybook.view.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Walli</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>walli</t>
+  </si>
+  <si>
+    <t>com.shanga.walli</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.shanga.walli.mvp.splash.SplashActivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2464,11 +2565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4401,8 +4502,127 @@
         <v>438</v>
       </c>
     </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E113" xr:uid="{75B61382-B54E-4E94-8AEA-01B2B590EEB0}"/>
+  <autoFilter ref="E1:E113"/>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TestIconPack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD915F07-DE51-48D0-B741-AF7A045CC61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="520">
   <si>
     <t>百度网盘</t>
   </si>
@@ -1638,12 +1639,140 @@
   </si>
   <si>
     <t>com.shanga.walli.mvp.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>com.oneplus.note</t>
+  </si>
+  <si>
+    <t>com.oneplus.note.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>H2OS</t>
+  </si>
+  <si>
+    <t>卡券</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>com.oneplus.card</t>
+  </si>
+  <si>
+    <t>com.oneplus.card.entity.activity.CardlistActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialer</t>
+  </si>
+  <si>
+    <t>com.oneplus.contacts.activities.OPDialtactsActivity</t>
+  </si>
+  <si>
+    <t>图库</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>com.oneplus.gallery</t>
+  </si>
+  <si>
+    <t>com.oneplus.gallery.OPGalleryActivity</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>com.oneplus.deskclock</t>
+  </si>
+  <si>
+    <t>com.oneplus.deskclock.DeskClock</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>com.oppo.market</t>
+  </si>
+  <si>
+    <t>com.oppo.market.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>文件管理</t>
+  </si>
+  <si>
+    <t>file_manager</t>
+  </si>
+  <si>
+    <t>com.oneplus.filemanager</t>
+  </si>
+  <si>
+    <t>com.oneplus.filemanager.HomePageActivity</t>
+  </si>
+  <si>
+    <t>相机</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>com.oneplus.camera</t>
+  </si>
+  <si>
+    <t>com.oneplus.camera.OPCameraActivity</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>mms</t>
+  </si>
+  <si>
+    <t>com.android.mms</t>
+  </si>
+  <si>
+    <t>com.oneplus.calculator</t>
+  </si>
+  <si>
+    <t>com.oneplus.calculator.Calculator</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>downloads</t>
+  </si>
+  <si>
+    <t>com.android.documentsui</t>
+  </si>
+  <si>
+    <t>com.android.documentsui.LauncherActivity</t>
+  </si>
+  <si>
+    <t>录音机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_recorder</t>
+  </si>
+  <si>
+    <t>com.oneplus.soundrecorder</t>
+  </si>
+  <si>
+    <t>com.oneplus.soundrecorder.SoundRecorder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2565,11 +2694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4621,8 +4750,229 @@
         <v>317</v>
       </c>
     </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>478</v>
+      </c>
+      <c r="C121" t="s">
+        <v>479</v>
+      </c>
+      <c r="D121" t="s">
+        <v>480</v>
+      </c>
+      <c r="E121" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>482</v>
+      </c>
+      <c r="B122" t="s">
+        <v>483</v>
+      </c>
+      <c r="C122" t="s">
+        <v>484</v>
+      </c>
+      <c r="D122" t="s">
+        <v>485</v>
+      </c>
+      <c r="E122" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" t="s">
+        <v>486</v>
+      </c>
+      <c r="C123" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" t="s">
+        <v>487</v>
+      </c>
+      <c r="E123" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>488</v>
+      </c>
+      <c r="B124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" t="s">
+        <v>490</v>
+      </c>
+      <c r="D124" t="s">
+        <v>491</v>
+      </c>
+      <c r="E124" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>188</v>
+      </c>
+      <c r="B125" t="s">
+        <v>492</v>
+      </c>
+      <c r="C125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" t="s">
+        <v>493</v>
+      </c>
+      <c r="C126" t="s">
+        <v>494</v>
+      </c>
+      <c r="D126" t="s">
+        <v>495</v>
+      </c>
+      <c r="E126" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>496</v>
+      </c>
+      <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" t="s">
+        <v>497</v>
+      </c>
+      <c r="D127" t="s">
+        <v>498</v>
+      </c>
+      <c r="E127" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>499</v>
+      </c>
+      <c r="B128" t="s">
+        <v>500</v>
+      </c>
+      <c r="C128" t="s">
+        <v>501</v>
+      </c>
+      <c r="D128" t="s">
+        <v>502</v>
+      </c>
+      <c r="E128" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" t="s">
+        <v>505</v>
+      </c>
+      <c r="D129" t="s">
+        <v>506</v>
+      </c>
+      <c r="E129" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>507</v>
+      </c>
+      <c r="B130" t="s">
+        <v>508</v>
+      </c>
+      <c r="C130" t="s">
+        <v>509</v>
+      </c>
+      <c r="D130" t="s">
+        <v>341</v>
+      </c>
+      <c r="E130" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>510</v>
+      </c>
+      <c r="D131" t="s">
+        <v>511</v>
+      </c>
+      <c r="E131" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>512</v>
+      </c>
+      <c r="B132" t="s">
+        <v>513</v>
+      </c>
+      <c r="C132" t="s">
+        <v>514</v>
+      </c>
+      <c r="D132" t="s">
+        <v>515</v>
+      </c>
+      <c r="E132" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>516</v>
+      </c>
+      <c r="B133" t="s">
+        <v>517</v>
+      </c>
+      <c r="C133" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>519</v>
+      </c>
+      <c r="E133" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E113"/>
+  <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD915F07-DE51-48D0-B741-AF7A045CC61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE8E3B-848D-439E-BAA4-41CCE6E76E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="598">
   <si>
     <t>百度网盘</t>
   </si>
@@ -1767,6 +1767,241 @@
   </si>
   <si>
     <t>com.oneplus.soundrecorder.SoundRecorder</t>
+  </si>
+  <si>
+    <t>百度地图</t>
+  </si>
+  <si>
+    <t>baidumap</t>
+  </si>
+  <si>
+    <t>com.baidu.BaiduMap</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+  </si>
+  <si>
+    <t>china_mobile</t>
+  </si>
+  <si>
+    <t>com.greenpoint.android.mc10086.activity</t>
+  </si>
+  <si>
+    <t>com.leadeon.cmcc.base.StartPageActivity</t>
+  </si>
+  <si>
+    <t>电信营业厅</t>
+  </si>
+  <si>
+    <t>china_telecom</t>
+  </si>
+  <si>
+    <t>com.ct.client</t>
+  </si>
+  <si>
+    <t>com.ct.client.SplashActivity</t>
+  </si>
+  <si>
+    <t>cuto</t>
+  </si>
+  <si>
+    <t>com.sspai.cuto.android</t>
+  </si>
+  <si>
+    <t>com.sspai.cuto.android.ui.main.MainActivity</t>
+  </si>
+  <si>
+    <t>滴滴出行</t>
+  </si>
+  <si>
+    <t>didi</t>
+  </si>
+  <si>
+    <t>com.sdu.didi.psnger</t>
+  </si>
+  <si>
+    <t>com.didi.sdk.app.launch.DidiLoadDexActivity</t>
+  </si>
+  <si>
+    <t>高德地图</t>
+  </si>
+  <si>
+    <t>gaode_map</t>
+  </si>
+  <si>
+    <t>com.autonavi.minimap</t>
+  </si>
+  <si>
+    <t>com.autonavi.map.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>高铁管家</t>
+  </si>
+  <si>
+    <t>gtgj</t>
+  </si>
+  <si>
+    <t>com.gtgj.view</t>
+  </si>
+  <si>
+    <t>com.gtgj.view.LaunchActivity</t>
+  </si>
+  <si>
+    <t>虎扑</t>
+  </si>
+  <si>
+    <t>hupu</t>
+  </si>
+  <si>
+    <t>com.hupu.games</t>
+  </si>
+  <si>
+    <t>com.hupu.games.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>jingdong</t>
+  </si>
+  <si>
+    <t>com.jingdong.app.mall</t>
+  </si>
+  <si>
+    <t>com.jingdong.app.mall.main.MainActivity</t>
+  </si>
+  <si>
+    <t>miracles</t>
+  </si>
+  <si>
+    <t>com.amamiya.nanoiconpack.miracles</t>
+  </si>
+  <si>
+    <t>com.amamiya.nanoiconpack.miracles.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>摩拜单车</t>
+  </si>
+  <si>
+    <t>mobike</t>
+  </si>
+  <si>
+    <t>com.mobike.mobikeapp</t>
+  </si>
+  <si>
+    <t>com.mobike.mobikeapp.SplashActivity</t>
+  </si>
+  <si>
+    <t>网易邮箱大师</t>
+  </si>
+  <si>
+    <t>netease_mail</t>
+  </si>
+  <si>
+    <t>com.netease.mail</t>
+  </si>
+  <si>
+    <t>com.netease.mobimail.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>网易蜗牛读书</t>
+  </si>
+  <si>
+    <t>netease_snailread</t>
+  </si>
+  <si>
+    <t>com.netease.snailread</t>
+  </si>
+  <si>
+    <t>com.netease.snailread.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>网易严选</t>
+  </si>
+  <si>
+    <t>netease_yanxuan</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan.module.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>好奇心日报</t>
+  </si>
+  <si>
+    <t>qdaily</t>
+  </si>
+  <si>
+    <t>com.qdaily.ui</t>
+  </si>
+  <si>
+    <t>com.qdaily.ui.LauncherActivity</t>
+  </si>
+  <si>
+    <t>铁路12306</t>
+  </si>
+  <si>
+    <t>railway</t>
+  </si>
+  <si>
+    <t>com.MobileTicket</t>
+  </si>
+  <si>
+    <t>com.alipay.mobile.quinox.LauncherActivity</t>
+  </si>
+  <si>
+    <t>telegram</t>
+  </si>
+  <si>
+    <t>org.telegram.messenger</t>
+  </si>
+  <si>
+    <t>org.telegram.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>com.tencent.tim</t>
+  </si>
+  <si>
+    <t>手机天猫</t>
+  </si>
+  <si>
+    <t>tmall</t>
+  </si>
+  <si>
+    <t>com.tmall.wireless</t>
+  </si>
+  <si>
+    <t>com.tmall.wireless.splash.TMSplashActivity</t>
+  </si>
+  <si>
+    <t>waw</t>
+  </si>
+  <si>
+    <t>wwAww.icons</t>
+  </si>
+  <si>
+    <t>com.qigelong.lib.wAwiconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>知乎日报</t>
+  </si>
+  <si>
+    <t>zhihu_daily</t>
+  </si>
+  <si>
+    <t>com.zhihu.daily.android</t>
+  </si>
+  <si>
+    <t>com.zhihu.daily.android.activity.MainActivity_</t>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2695,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D120"/>
+    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4971,6 +5206,363 @@
         <v>481</v>
       </c>
     </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>520</v>
+      </c>
+      <c r="B134" t="s">
+        <v>521</v>
+      </c>
+      <c r="C134" t="s">
+        <v>522</v>
+      </c>
+      <c r="D134" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>523</v>
+      </c>
+      <c r="B135" t="s">
+        <v>524</v>
+      </c>
+      <c r="C135" t="s">
+        <v>525</v>
+      </c>
+      <c r="D135" t="s">
+        <v>526</v>
+      </c>
+      <c r="E135" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>527</v>
+      </c>
+      <c r="B136" t="s">
+        <v>528</v>
+      </c>
+      <c r="C136" t="s">
+        <v>529</v>
+      </c>
+      <c r="D136" t="s">
+        <v>530</v>
+      </c>
+      <c r="E136" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>531</v>
+      </c>
+      <c r="B137" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" t="s">
+        <v>532</v>
+      </c>
+      <c r="D137" t="s">
+        <v>533</v>
+      </c>
+      <c r="E137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>534</v>
+      </c>
+      <c r="B138" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138" t="s">
+        <v>536</v>
+      </c>
+      <c r="D138" t="s">
+        <v>537</v>
+      </c>
+      <c r="E138" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>538</v>
+      </c>
+      <c r="B139" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" t="s">
+        <v>540</v>
+      </c>
+      <c r="D139" t="s">
+        <v>541</v>
+      </c>
+      <c r="E139" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>542</v>
+      </c>
+      <c r="B140" t="s">
+        <v>543</v>
+      </c>
+      <c r="C140" t="s">
+        <v>544</v>
+      </c>
+      <c r="D140" t="s">
+        <v>545</v>
+      </c>
+      <c r="E140" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>546</v>
+      </c>
+      <c r="B141" t="s">
+        <v>547</v>
+      </c>
+      <c r="C141" t="s">
+        <v>548</v>
+      </c>
+      <c r="D141" t="s">
+        <v>549</v>
+      </c>
+      <c r="E141" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>550</v>
+      </c>
+      <c r="B142" t="s">
+        <v>551</v>
+      </c>
+      <c r="C142" t="s">
+        <v>552</v>
+      </c>
+      <c r="D142" t="s">
+        <v>553</v>
+      </c>
+      <c r="E142" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>554</v>
+      </c>
+      <c r="B143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143" t="s">
+        <v>555</v>
+      </c>
+      <c r="D143" t="s">
+        <v>556</v>
+      </c>
+      <c r="E143" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>557</v>
+      </c>
+      <c r="B144" t="s">
+        <v>558</v>
+      </c>
+      <c r="C144" t="s">
+        <v>559</v>
+      </c>
+      <c r="D144" t="s">
+        <v>560</v>
+      </c>
+      <c r="E144" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>561</v>
+      </c>
+      <c r="B145" t="s">
+        <v>562</v>
+      </c>
+      <c r="C145" t="s">
+        <v>563</v>
+      </c>
+      <c r="D145" t="s">
+        <v>564</v>
+      </c>
+      <c r="E145" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>565</v>
+      </c>
+      <c r="B146" t="s">
+        <v>566</v>
+      </c>
+      <c r="C146" t="s">
+        <v>567</v>
+      </c>
+      <c r="D146" t="s">
+        <v>568</v>
+      </c>
+      <c r="E146" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" t="s">
+        <v>570</v>
+      </c>
+      <c r="C147" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" t="s">
+        <v>572</v>
+      </c>
+      <c r="E147" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>573</v>
+      </c>
+      <c r="B148" t="s">
+        <v>574</v>
+      </c>
+      <c r="C148" t="s">
+        <v>575</v>
+      </c>
+      <c r="D148" t="s">
+        <v>576</v>
+      </c>
+      <c r="E148" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>577</v>
+      </c>
+      <c r="B149" t="s">
+        <v>578</v>
+      </c>
+      <c r="C149" t="s">
+        <v>579</v>
+      </c>
+      <c r="D149" t="s">
+        <v>580</v>
+      </c>
+      <c r="E149" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>581</v>
+      </c>
+      <c r="B150" t="s">
+        <v>581</v>
+      </c>
+      <c r="C150" t="s">
+        <v>582</v>
+      </c>
+      <c r="D150" t="s">
+        <v>583</v>
+      </c>
+      <c r="E150" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>584</v>
+      </c>
+      <c r="B151" t="s">
+        <v>584</v>
+      </c>
+      <c r="C151" t="s">
+        <v>585</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>586</v>
+      </c>
+      <c r="B152" t="s">
+        <v>587</v>
+      </c>
+      <c r="C152" t="s">
+        <v>588</v>
+      </c>
+      <c r="D152" t="s">
+        <v>589</v>
+      </c>
+      <c r="E152" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>590</v>
+      </c>
+      <c r="B153" t="s">
+        <v>590</v>
+      </c>
+      <c r="C153" t="s">
+        <v>591</v>
+      </c>
+      <c r="D153" t="s">
+        <v>592</v>
+      </c>
+      <c r="E153" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>593</v>
+      </c>
+      <c r="B154" t="s">
+        <v>594</v>
+      </c>
+      <c r="C154" t="s">
+        <v>595</v>
+      </c>
+      <c r="D154" t="s">
+        <v>596</v>
+      </c>
+      <c r="E154" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE8E3B-848D-439E-BAA4-41CCE6E76E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40993F-D524-436A-965D-E5F6E2BF083F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="690">
   <si>
     <t>百度网盘</t>
   </si>
@@ -2002,6 +2002,285 @@
   <si>
     <t>application</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>com.android.contacts</t>
+  </si>
+  <si>
+    <t>com.oneplus.contacts.activities.OPPeopleActivity</t>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+  </si>
+  <si>
+    <t>iqiyi</t>
+  </si>
+  <si>
+    <t>com.qiyi.video</t>
+  </si>
+  <si>
+    <t>com.qiyi.video.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>com.android.browser</t>
+  </si>
+  <si>
+    <t>下厨房</t>
+  </si>
+  <si>
+    <t>xiachufang</t>
+  </si>
+  <si>
+    <t>com.xiachufang</t>
+  </si>
+  <si>
+    <t>com.xiachufang.activity.StartPageActivity</t>
+  </si>
+  <si>
+    <t>饿了么</t>
+  </si>
+  <si>
+    <t>ele</t>
+  </si>
+  <si>
+    <t>me.ele</t>
+  </si>
+  <si>
+    <t>me.ele.Launcher</t>
+  </si>
+  <si>
+    <t>盒马</t>
+  </si>
+  <si>
+    <t>hippo</t>
+  </si>
+  <si>
+    <t>com.wudaokou.hippo</t>
+  </si>
+  <si>
+    <t>com.wudaokou.hippo.launcher.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>芒果TV</t>
+  </si>
+  <si>
+    <t>hunantv</t>
+  </si>
+  <si>
+    <t>com.hunantv.imgo.activity</t>
+  </si>
+  <si>
+    <t>com.hunantv.imgo.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>猫眼</t>
+  </si>
+  <si>
+    <t>maoyan</t>
+  </si>
+  <si>
+    <t>com.sankuai.movie</t>
+  </si>
+  <si>
+    <t>com.sankuai.movie.welcome.Welcome</t>
+  </si>
+  <si>
+    <t>meeye</t>
+  </si>
+  <si>
+    <t>com.yeyebbc.meeye.iconpack</t>
+  </si>
+  <si>
+    <t>com.yeyebbc.meeye.iconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>大众点评</t>
+  </si>
+  <si>
+    <t>dianping</t>
+  </si>
+  <si>
+    <t>com.dianping.v1</t>
+  </si>
+  <si>
+    <t>com.dianping.main.guide.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>美团外卖</t>
+  </si>
+  <si>
+    <t>meituan_takeout</t>
+  </si>
+  <si>
+    <t>com.sankuai.meituan.takeoutnew</t>
+  </si>
+  <si>
+    <t>com.sankuai.meituan.takeoutnew.ui.page.boot.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>米家</t>
+  </si>
+  <si>
+    <t>mijia</t>
+  </si>
+  <si>
+    <t>com.xiaomi.smarthome</t>
+  </si>
+  <si>
+    <t>com.xiaomi.smarthome.SmartHomeMainActivity</t>
+  </si>
+  <si>
+    <t>oblatum</t>
+  </si>
+  <si>
+    <t>com.oblatum.iconpack</t>
+  </si>
+  <si>
+    <t>com.oblatum.iconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>PP视频</t>
+  </si>
+  <si>
+    <t>pplive</t>
+  </si>
+  <si>
+    <t>com.pplive.androidphone</t>
+  </si>
+  <si>
+    <t>com.pplive.androidphone.ui.FirstActivity</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>me.morirain.dev.iconpack.pure</t>
+  </si>
+  <si>
+    <t>me.morirain.dev.iconpack.pure.MainActivity</t>
+  </si>
+  <si>
+    <t>shadowsocks</t>
+  </si>
+  <si>
+    <t>com.github.shadowsocks</t>
+  </si>
+  <si>
+    <t>com.github.shadowsocks.MainActivity</t>
+  </si>
+  <si>
+    <t>sorcery</t>
+  </si>
+  <si>
+    <t>com.sorcerer.sorcery.iconpack</t>
+  </si>
+  <si>
+    <t>com.sorcerer.sorcery.iconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>哈啰出行</t>
+  </si>
+  <si>
+    <t>hellobike</t>
+  </si>
+  <si>
+    <t>com.jingyao.easybike</t>
+  </si>
+  <si>
+    <t>com.hellobike.atlas.business.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>马蜂窝旅游</t>
+  </si>
+  <si>
+    <t>mfw</t>
+  </si>
+  <si>
+    <t>com.mfw.roadbook</t>
+  </si>
+  <si>
+    <t>com.mfw.roadbook.main.StartActivity</t>
+  </si>
+  <si>
+    <t>VLC</t>
+  </si>
+  <si>
+    <t>vlc</t>
+  </si>
+  <si>
+    <t>org.videolan.vlc</t>
+  </si>
+  <si>
+    <t>org.videolan.vlc.StartActivity</t>
+  </si>
+  <si>
+    <t>虾米音乐</t>
+  </si>
+  <si>
+    <t>xiami</t>
+  </si>
+  <si>
+    <t>fm.xiami.main</t>
+  </si>
+  <si>
+    <t>fm.xiami.main.SplashActivity</t>
+  </si>
+  <si>
+    <t>优酷</t>
+  </si>
+  <si>
+    <t>youku</t>
+  </si>
+  <si>
+    <t>com.youku.phone</t>
+  </si>
+  <si>
+    <t>com.youku.phone.ActivityWelcome</t>
+  </si>
+  <si>
+    <t>mistiness</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>person.cjy.iconpack.mistiness</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>person.cjy.iconpack.mistiness.MainActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>com.downloading.main.baiduyundownload</t>
+  </si>
+  <si>
+    <t>com.downloading.main.baiduyundownload.ui.S</t>
+  </si>
+  <si>
+    <t>一加社区</t>
+  </si>
+  <si>
+    <t>oneplus_bbs</t>
+  </si>
+  <si>
+    <t>com.oneplus.bbs</t>
+  </si>
+  <si>
+    <t>com.oneplus.bbs.ui.activity.PreStartActivity</t>
   </si>
 </sst>
 </file>
@@ -2930,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5563,6 +5842,431 @@
         <v>597</v>
       </c>
     </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>598</v>
+      </c>
+      <c r="B155" t="s">
+        <v>599</v>
+      </c>
+      <c r="C155" t="s">
+        <v>600</v>
+      </c>
+      <c r="D155" t="s">
+        <v>601</v>
+      </c>
+      <c r="E155" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>602</v>
+      </c>
+      <c r="B156" t="s">
+        <v>603</v>
+      </c>
+      <c r="C156" t="s">
+        <v>604</v>
+      </c>
+      <c r="D156" t="s">
+        <v>605</v>
+      </c>
+      <c r="E156" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>606</v>
+      </c>
+      <c r="B157" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" t="s">
+        <v>608</v>
+      </c>
+      <c r="D157" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>609</v>
+      </c>
+      <c r="B158" t="s">
+        <v>610</v>
+      </c>
+      <c r="C158" t="s">
+        <v>611</v>
+      </c>
+      <c r="D158" t="s">
+        <v>612</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>613</v>
+      </c>
+      <c r="B159" t="s">
+        <v>614</v>
+      </c>
+      <c r="C159" t="s">
+        <v>615</v>
+      </c>
+      <c r="D159" t="s">
+        <v>616</v>
+      </c>
+      <c r="E159" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>617</v>
+      </c>
+      <c r="B160" t="s">
+        <v>618</v>
+      </c>
+      <c r="C160" t="s">
+        <v>619</v>
+      </c>
+      <c r="D160" t="s">
+        <v>620</v>
+      </c>
+      <c r="E160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>621</v>
+      </c>
+      <c r="B161" t="s">
+        <v>622</v>
+      </c>
+      <c r="C161" t="s">
+        <v>623</v>
+      </c>
+      <c r="D161" t="s">
+        <v>624</v>
+      </c>
+      <c r="E161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>625</v>
+      </c>
+      <c r="B162" t="s">
+        <v>626</v>
+      </c>
+      <c r="C162" t="s">
+        <v>627</v>
+      </c>
+      <c r="D162" t="s">
+        <v>628</v>
+      </c>
+      <c r="E162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>629</v>
+      </c>
+      <c r="B163" t="s">
+        <v>629</v>
+      </c>
+      <c r="C163" t="s">
+        <v>630</v>
+      </c>
+      <c r="D163" t="s">
+        <v>631</v>
+      </c>
+      <c r="E163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>632</v>
+      </c>
+      <c r="B164" t="s">
+        <v>633</v>
+      </c>
+      <c r="C164" t="s">
+        <v>634</v>
+      </c>
+      <c r="D164" t="s">
+        <v>635</v>
+      </c>
+      <c r="E164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>636</v>
+      </c>
+      <c r="B165" t="s">
+        <v>637</v>
+      </c>
+      <c r="C165" t="s">
+        <v>638</v>
+      </c>
+      <c r="D165" t="s">
+        <v>639</v>
+      </c>
+      <c r="E165" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>640</v>
+      </c>
+      <c r="B166" t="s">
+        <v>641</v>
+      </c>
+      <c r="C166" t="s">
+        <v>642</v>
+      </c>
+      <c r="D166" t="s">
+        <v>643</v>
+      </c>
+      <c r="E166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>644</v>
+      </c>
+      <c r="B167" t="s">
+        <v>644</v>
+      </c>
+      <c r="C167" t="s">
+        <v>645</v>
+      </c>
+      <c r="D167" t="s">
+        <v>646</v>
+      </c>
+      <c r="E167" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>647</v>
+      </c>
+      <c r="B168" t="s">
+        <v>648</v>
+      </c>
+      <c r="C168" t="s">
+        <v>649</v>
+      </c>
+      <c r="D168" t="s">
+        <v>650</v>
+      </c>
+      <c r="E168" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>651</v>
+      </c>
+      <c r="B169" t="s">
+        <v>651</v>
+      </c>
+      <c r="C169" t="s">
+        <v>652</v>
+      </c>
+      <c r="D169" t="s">
+        <v>653</v>
+      </c>
+      <c r="E169" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>654</v>
+      </c>
+      <c r="B170" t="s">
+        <v>654</v>
+      </c>
+      <c r="C170" t="s">
+        <v>655</v>
+      </c>
+      <c r="D170" t="s">
+        <v>656</v>
+      </c>
+      <c r="E170" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>657</v>
+      </c>
+      <c r="B171" t="s">
+        <v>657</v>
+      </c>
+      <c r="C171" t="s">
+        <v>658</v>
+      </c>
+      <c r="D171" t="s">
+        <v>659</v>
+      </c>
+      <c r="E171" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>660</v>
+      </c>
+      <c r="B172" t="s">
+        <v>661</v>
+      </c>
+      <c r="C172" t="s">
+        <v>662</v>
+      </c>
+      <c r="D172" t="s">
+        <v>663</v>
+      </c>
+      <c r="E172" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>664</v>
+      </c>
+      <c r="B173" t="s">
+        <v>665</v>
+      </c>
+      <c r="C173" t="s">
+        <v>666</v>
+      </c>
+      <c r="D173" t="s">
+        <v>667</v>
+      </c>
+      <c r="E173" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>668</v>
+      </c>
+      <c r="B174" t="s">
+        <v>669</v>
+      </c>
+      <c r="C174" t="s">
+        <v>670</v>
+      </c>
+      <c r="D174" t="s">
+        <v>671</v>
+      </c>
+      <c r="E174" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>672</v>
+      </c>
+      <c r="B175" t="s">
+        <v>673</v>
+      </c>
+      <c r="C175" t="s">
+        <v>674</v>
+      </c>
+      <c r="D175" t="s">
+        <v>675</v>
+      </c>
+      <c r="E175" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>676</v>
+      </c>
+      <c r="B176" t="s">
+        <v>677</v>
+      </c>
+      <c r="C176" t="s">
+        <v>678</v>
+      </c>
+      <c r="D176" t="s">
+        <v>679</v>
+      </c>
+      <c r="E176" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>680</v>
+      </c>
+      <c r="B177" t="s">
+        <v>680</v>
+      </c>
+      <c r="C177" t="s">
+        <v>681</v>
+      </c>
+      <c r="D177" t="s">
+        <v>682</v>
+      </c>
+      <c r="E177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>683</v>
+      </c>
+      <c r="B178" t="s">
+        <v>683</v>
+      </c>
+      <c r="C178" t="s">
+        <v>684</v>
+      </c>
+      <c r="D178" t="s">
+        <v>685</v>
+      </c>
+      <c r="E178" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>686</v>
+      </c>
+      <c r="B179" t="s">
+        <v>687</v>
+      </c>
+      <c r="C179" t="s">
+        <v>688</v>
+      </c>
+      <c r="D179" t="s">
+        <v>689</v>
+      </c>
+      <c r="E179" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40993F-D524-436A-965D-E5F6E2BF083F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6F57A-A0B1-418F-A85A-6B42E8DD00CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="726">
   <si>
     <t>百度网盘</t>
   </si>
@@ -2281,6 +2281,114 @@
   </si>
   <si>
     <t>com.oneplus.bbs.ui.activity.PreStartActivity</t>
+  </si>
+  <si>
+    <t>百度输入法</t>
+  </si>
+  <si>
+    <t>baidu_ime</t>
+  </si>
+  <si>
+    <t>com.baidu.input</t>
+  </si>
+  <si>
+    <t>com.baidu.input.ImeAppMainActivity</t>
+  </si>
+  <si>
+    <t>搜狗输入法</t>
+  </si>
+  <si>
+    <t>sogou_ime</t>
+  </si>
+  <si>
+    <t>com.sohu.inputmethod.sogou</t>
+  </si>
+  <si>
+    <t>com.sohu.inputmethod.sogou.SogouIMELauncher</t>
+  </si>
+  <si>
+    <t>讯飞输入法</t>
+  </si>
+  <si>
+    <t>ifly_ime</t>
+  </si>
+  <si>
+    <t>com.iflytek.inputmethod</t>
+  </si>
+  <si>
+    <t>com.iflytek.inputmethod.LauncherActivity</t>
+  </si>
+  <si>
+    <t>喜马拉雅</t>
+  </si>
+  <si>
+    <t>ximalaya</t>
+  </si>
+  <si>
+    <t>com.ximalaya.ting.android</t>
+  </si>
+  <si>
+    <t>com.ximalaya.ting.android.host.activity.WelComeActivity</t>
+  </si>
+  <si>
+    <t>简书</t>
+  </si>
+  <si>
+    <t>jianshu</t>
+  </si>
+  <si>
+    <t>com.jianshu.haruki</t>
+  </si>
+  <si>
+    <t>com.baiji.jianshu.ui.splash.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>UC浏览器</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>com.UCMobile</t>
+  </si>
+  <si>
+    <t>com.UCMobile.main.UCMobile</t>
+  </si>
+  <si>
+    <t>火狐浏览器</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>org.mozilla.firefox</t>
+  </si>
+  <si>
+    <t>org.mozilla.firefox.App</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>com.android.chrome</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.chrome.Main</t>
+  </si>
+  <si>
+    <t>人人影视PRO</t>
+  </si>
+  <si>
+    <t>yyets</t>
+  </si>
+  <si>
+    <t>com.yyets.pro</t>
+  </si>
+  <si>
+    <t>com.yyets.zimuzu.SplashActivity</t>
   </si>
 </sst>
 </file>
@@ -3209,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:E179"/>
+      <selection activeCell="A180" sqref="A180:E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6267,6 +6375,159 @@
         <v>45</v>
       </c>
     </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>690</v>
+      </c>
+      <c r="B180" t="s">
+        <v>691</v>
+      </c>
+      <c r="C180" t="s">
+        <v>692</v>
+      </c>
+      <c r="D180" t="s">
+        <v>693</v>
+      </c>
+      <c r="E180" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>694</v>
+      </c>
+      <c r="B181" t="s">
+        <v>695</v>
+      </c>
+      <c r="C181" t="s">
+        <v>696</v>
+      </c>
+      <c r="D181" t="s">
+        <v>697</v>
+      </c>
+      <c r="E181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>698</v>
+      </c>
+      <c r="B182" t="s">
+        <v>699</v>
+      </c>
+      <c r="C182" t="s">
+        <v>700</v>
+      </c>
+      <c r="D182" t="s">
+        <v>701</v>
+      </c>
+      <c r="E182" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>702</v>
+      </c>
+      <c r="B183" t="s">
+        <v>703</v>
+      </c>
+      <c r="C183" t="s">
+        <v>704</v>
+      </c>
+      <c r="D183" t="s">
+        <v>705</v>
+      </c>
+      <c r="E183" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>706</v>
+      </c>
+      <c r="B184" t="s">
+        <v>707</v>
+      </c>
+      <c r="C184" t="s">
+        <v>708</v>
+      </c>
+      <c r="D184" t="s">
+        <v>709</v>
+      </c>
+      <c r="E184" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>710</v>
+      </c>
+      <c r="B185" t="s">
+        <v>711</v>
+      </c>
+      <c r="C185" t="s">
+        <v>712</v>
+      </c>
+      <c r="D185" t="s">
+        <v>713</v>
+      </c>
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>714</v>
+      </c>
+      <c r="B186" t="s">
+        <v>715</v>
+      </c>
+      <c r="C186" t="s">
+        <v>716</v>
+      </c>
+      <c r="D186" t="s">
+        <v>717</v>
+      </c>
+      <c r="E186" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>718</v>
+      </c>
+      <c r="B187" t="s">
+        <v>719</v>
+      </c>
+      <c r="C187" t="s">
+        <v>720</v>
+      </c>
+      <c r="D187" t="s">
+        <v>721</v>
+      </c>
+      <c r="E187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>722</v>
+      </c>
+      <c r="B188" t="s">
+        <v>723</v>
+      </c>
+      <c r="C188" t="s">
+        <v>724</v>
+      </c>
+      <c r="D188" t="s">
+        <v>725</v>
+      </c>
+      <c r="E188" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6F57A-A0B1-418F-A85A-6B42E8DD00CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4222E4-A897-4E1E-AF23-93588AD2E522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="906">
   <si>
     <t>百度网盘</t>
   </si>
@@ -2389,6 +2389,585 @@
   </si>
   <si>
     <t>com.yyets.zimuzu.SplashActivity</t>
+  </si>
+  <si>
+    <t>谷歌拼音输入法</t>
+  </si>
+  <si>
+    <t>google_pinyin_ime</t>
+  </si>
+  <si>
+    <t>com.google.android.inputmethod.pinyin</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.inputmethod.libs.framework.core.LauncherActivity</t>
+  </si>
+  <si>
+    <t>Gboard</t>
+  </si>
+  <si>
+    <t>gboard</t>
+  </si>
+  <si>
+    <t>com.google.android.inputmethod.latin</t>
+  </si>
+  <si>
+    <t>手心输入法</t>
+  </si>
+  <si>
+    <t>shouxin_input</t>
+  </si>
+  <si>
+    <t>com.xinshuru.inputmethod</t>
+  </si>
+  <si>
+    <t>com.xinshuru.inputmethod.FTInputSplashActivity</t>
+  </si>
+  <si>
+    <t>fooview</t>
+  </si>
+  <si>
+    <t>com.fooview.android.fooview</t>
+  </si>
+  <si>
+    <t>com.fooview.android.fooview.MainActivity</t>
+  </si>
+  <si>
+    <t>存储空间清理</t>
+  </si>
+  <si>
+    <t>sdclear</t>
+  </si>
+  <si>
+    <t>com.ktls.fileinfo</t>
+  </si>
+  <si>
+    <t>com.ktls.fileinfo.MainSDClear</t>
+  </si>
+  <si>
+    <t>ES文件管理器</t>
+  </si>
+  <si>
+    <t>estrongs</t>
+  </si>
+  <si>
+    <t>com.estrongs.android.pop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.estrongs.android.pop.app.openscreenad.NewSplashActivity</t>
+  </si>
+  <si>
+    <t>RE文件管理</t>
+  </si>
+  <si>
+    <t>root_explore</t>
+  </si>
+  <si>
+    <t>com.speedsoftware.rootexplorer</t>
+  </si>
+  <si>
+    <t>com.speedsoftware.rootexplorer.RootExplorer</t>
+  </si>
+  <si>
+    <t>SD Maid</t>
+  </si>
+  <si>
+    <t>sdm</t>
+  </si>
+  <si>
+    <t>eu.thedarken.sdm</t>
+  </si>
+  <si>
+    <t>eu.thedarken.sdm.main.ui.SDMMainActivity</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh.android.dir</t>
+  </si>
+  <si>
+    <t>kh.android.dir.ui.activities.MDMainActivity</t>
+  </si>
+  <si>
+    <t>广告快走开</t>
+  </si>
+  <si>
+    <t>adaway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.adaway</t>
+  </si>
+  <si>
+    <t>org.adaway.ui.BaseActivity</t>
+  </si>
+  <si>
+    <t>power clean</t>
+  </si>
+  <si>
+    <t>power_clean</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lionmobi.powerclean</t>
+  </si>
+  <si>
+    <t>com.lionmobi.powerclean.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>LBE安全大师</t>
+  </si>
+  <si>
+    <t>lbe_security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lbe.security</t>
+  </si>
+  <si>
+    <t>com.lbe.security.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>360卫士</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihoo_mobile_safe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qihoo360.mobilesafe</t>
+  </si>
+  <si>
+    <t>com.qihoo360.mobilesafe.ui.index.AppEnterActivity</t>
+  </si>
+  <si>
+    <t>360卫士极客版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihoo_antivirus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qihoo.antivirus</t>
+  </si>
+  <si>
+    <t>com.qihoo.antivirus.ui.index.AppEnterActivity</t>
+  </si>
+  <si>
+    <t>SuperSU</t>
+  </si>
+  <si>
+    <t>supersu</t>
+  </si>
+  <si>
+    <t>eu.chainfire.supersu</t>
+  </si>
+  <si>
+    <t>eu.chainfire.supersu.MainActivity-Material</t>
+  </si>
+  <si>
+    <t>KingRoot</t>
+  </si>
+  <si>
+    <t>kingroot</t>
+  </si>
+  <si>
+    <t>com.kingroot.kinguser</t>
+  </si>
+  <si>
+    <t>com.kingroot.kinguser.activitys.SliderMainActivity-Entry</t>
+  </si>
+  <si>
+    <t>钛备份</t>
+  </si>
+  <si>
+    <t>titanium_backup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.keramidas.TitaniumBackup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.keramidas.TitaniumBackup.MainActivity</t>
+  </si>
+  <si>
+    <t>安兔兔评测</t>
+  </si>
+  <si>
+    <t>antutu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.antutu.ABenchMark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.antutu.ABenchMark.ABenchMarkStart</t>
+  </si>
+  <si>
+    <t>My Android Tools</t>
+  </si>
+  <si>
+    <t>myandroidtools</t>
+  </si>
+  <si>
+    <t>cn.wq.myandroidtools</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.wq.myandroidtoolspro.MainActivity</t>
+  </si>
+  <si>
+    <t>Tasker</t>
+  </si>
+  <si>
+    <t>tasker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.dinglisch.android.taskerm</t>
+  </si>
+  <si>
+    <t>net.dinglisch.android.taskerm.Tasker</t>
+  </si>
+  <si>
+    <t>CPU-Z</t>
+  </si>
+  <si>
+    <t>cpu_z</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cpuid.cpu_z</t>
+  </si>
+  <si>
+    <t>com.cpuid.cpu_z.MainActivity</t>
+  </si>
+  <si>
+    <t>微软桌面</t>
+  </si>
+  <si>
+    <t>microsoft_launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.microsoft.launcher</t>
+  </si>
+  <si>
+    <t>com.microsoft.launcher.EntryActivity</t>
+  </si>
+  <si>
+    <t>星空视频壁纸</t>
+  </si>
+  <si>
+    <t>xingkong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyc.xk</t>
+  </si>
+  <si>
+    <t>yyc.xk.adview</t>
+  </si>
+  <si>
+    <t>total Launcher</t>
+  </si>
+  <si>
+    <t>total_launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.launcher2</t>
+  </si>
+  <si>
+    <t>com.ss.launcher2.MainActivity</t>
+  </si>
+  <si>
+    <t>POCO 桌面</t>
+  </si>
+  <si>
+    <t>poco_launcher</t>
+  </si>
+  <si>
+    <t>com.mi.android.globallauncher</t>
+  </si>
+  <si>
+    <t>com.miui.home.launcher.SplashActivity</t>
+  </si>
+  <si>
+    <t>一句</t>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>small.word</t>
+  </si>
+  <si>
+    <t>small.word.Main</t>
+  </si>
+  <si>
+    <t>一言</t>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hitokoto</t>
+  </si>
+  <si>
+    <t>com.hitokoto.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>远离手机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>away_from_mobile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lijianqiang12.silent</t>
+  </si>
+  <si>
+    <t>com.lijianqiang12.silent.mvvm.SplashActivity</t>
+  </si>
+  <si>
+    <t>火萤</t>
+  </si>
+  <si>
+    <t>huoying</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.znxh.hyhuo</t>
+  </si>
+  <si>
+    <t>com.znxh.hyhuo.t.d.WelcomeTActivity</t>
+  </si>
+  <si>
+    <t>搜图神器</t>
+  </si>
+  <si>
+    <t>search_picture_tool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.example.administrator.searchpicturetool</t>
+  </si>
+  <si>
+    <t>com.example.administrator.searchpicturetool.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>substratum主题管理</t>
+  </si>
+  <si>
+    <t>substratum</t>
+  </si>
+  <si>
+    <t>projekt.substratum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>projekt.substratum.LauncherActivity</t>
+  </si>
+  <si>
+    <t>QQ国际版</t>
+  </si>
+  <si>
+    <t>qqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mobileqqi</t>
+  </si>
+  <si>
+    <t>QQ轻聊版</t>
+  </si>
+  <si>
+    <t>qqlite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqlite</t>
+  </si>
+  <si>
+    <t>子弹短信</t>
+  </si>
+  <si>
+    <t>bullet_messenger</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bullet.messenger</t>
+  </si>
+  <si>
+    <t>com.smartisan.flashim.main.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>钉钉</t>
+  </si>
+  <si>
+    <t>dingtalk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.alibaba.android.rimet</t>
+  </si>
+  <si>
+    <t>com.alibaba.android.rimet.biz.SplashActivity</t>
+  </si>
+  <si>
+    <t>旺信</t>
+  </si>
+  <si>
+    <t>wangxin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.alibaba.mobileim</t>
+  </si>
+  <si>
+    <t>com.alibaba.mobileim.SplashActivity</t>
+  </si>
+  <si>
+    <t>易信</t>
+  </si>
+  <si>
+    <t>yixin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>im.yixin</t>
+  </si>
+  <si>
+    <t>im.yixin.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>com.hengye.share</t>
+  </si>
+  <si>
+    <t>com.hengye.share.Launcher</t>
+  </si>
+  <si>
+    <t>weico</t>
+  </si>
+  <si>
+    <t>com.eico.weico</t>
+  </si>
+  <si>
+    <t>com.eico.weico.activity.LogoActivity</t>
+  </si>
+  <si>
+    <t>emore</t>
+  </si>
+  <si>
+    <t>com.caij.emore</t>
+  </si>
+  <si>
+    <t>com.caij.emore.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>welike</t>
+  </si>
+  <si>
+    <t>com.sxy.ui</t>
+  </si>
+  <si>
+    <t>com.sxy.ui.view.MainActivity</t>
+  </si>
+  <si>
+    <t>微博极速版</t>
+  </si>
+  <si>
+    <t>weibo_lite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sina.weibolite</t>
+  </si>
+  <si>
+    <t>com.sina.weibo.lightning.main.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>QQ空间</t>
+  </si>
+  <si>
+    <t>qzone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qzone</t>
+  </si>
+  <si>
+    <t>com.tencent.sc.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>探探</t>
+  </si>
+  <si>
+    <t>tantan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.p1.mobile.putong</t>
+  </si>
+  <si>
+    <t>com.p1.mobile.putong.ui.splash.SplashAct</t>
+  </si>
+  <si>
+    <t>陌陌</t>
+  </si>
+  <si>
+    <t>momo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.immomo.momo</t>
+  </si>
+  <si>
+    <t>com.immomo.momo.android.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>唱吧</t>
+  </si>
+  <si>
+    <t>changba</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.changba</t>
+  </si>
+  <si>
+    <t>com.changba.splash.Welcome</t>
+  </si>
+  <si>
+    <t>微视</t>
+  </si>
+  <si>
+    <t>tencent_weishi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.weishi</t>
+  </si>
+  <si>
+    <t>com.tencent.oscar.module.splash.SplashActivity</t>
   </si>
 </sst>
 </file>
@@ -3317,10 +3896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:E188"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6528,6 +7107,805 @@
         <v>45</v>
       </c>
     </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>726</v>
+      </c>
+      <c r="B189" t="s">
+        <v>727</v>
+      </c>
+      <c r="C189" t="s">
+        <v>728</v>
+      </c>
+      <c r="D189" t="s">
+        <v>729</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>730</v>
+      </c>
+      <c r="B190" t="s">
+        <v>731</v>
+      </c>
+      <c r="C190" t="s">
+        <v>732</v>
+      </c>
+      <c r="D190" t="s">
+        <v>729</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>733</v>
+      </c>
+      <c r="B191" t="s">
+        <v>734</v>
+      </c>
+      <c r="C191" t="s">
+        <v>735</v>
+      </c>
+      <c r="D191" t="s">
+        <v>736</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>737</v>
+      </c>
+      <c r="B192" t="s">
+        <v>737</v>
+      </c>
+      <c r="C192" t="s">
+        <v>738</v>
+      </c>
+      <c r="D192" t="s">
+        <v>739</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>740</v>
+      </c>
+      <c r="B193" t="s">
+        <v>741</v>
+      </c>
+      <c r="C193" t="s">
+        <v>742</v>
+      </c>
+      <c r="D193" t="s">
+        <v>743</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>744</v>
+      </c>
+      <c r="B194" t="s">
+        <v>745</v>
+      </c>
+      <c r="C194" t="s">
+        <v>746</v>
+      </c>
+      <c r="D194" t="s">
+        <v>747</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>748</v>
+      </c>
+      <c r="B195" t="s">
+        <v>749</v>
+      </c>
+      <c r="C195" t="s">
+        <v>750</v>
+      </c>
+      <c r="D195" t="s">
+        <v>751</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>752</v>
+      </c>
+      <c r="B196" t="s">
+        <v>753</v>
+      </c>
+      <c r="C196" t="s">
+        <v>754</v>
+      </c>
+      <c r="D196" t="s">
+        <v>755</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>756</v>
+      </c>
+      <c r="B197" t="s">
+        <v>757</v>
+      </c>
+      <c r="C197" t="s">
+        <v>758</v>
+      </c>
+      <c r="D197" t="s">
+        <v>759</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>760</v>
+      </c>
+      <c r="B198" t="s">
+        <v>761</v>
+      </c>
+      <c r="C198" t="s">
+        <v>762</v>
+      </c>
+      <c r="D198" t="s">
+        <v>763</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>764</v>
+      </c>
+      <c r="B199" t="s">
+        <v>765</v>
+      </c>
+      <c r="C199" t="s">
+        <v>766</v>
+      </c>
+      <c r="D199" t="s">
+        <v>767</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>768</v>
+      </c>
+      <c r="B200" t="s">
+        <v>769</v>
+      </c>
+      <c r="C200" t="s">
+        <v>770</v>
+      </c>
+      <c r="D200" t="s">
+        <v>771</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>772</v>
+      </c>
+      <c r="B201" t="s">
+        <v>773</v>
+      </c>
+      <c r="C201" t="s">
+        <v>774</v>
+      </c>
+      <c r="D201" t="s">
+        <v>775</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>776</v>
+      </c>
+      <c r="B202" t="s">
+        <v>777</v>
+      </c>
+      <c r="C202" t="s">
+        <v>778</v>
+      </c>
+      <c r="D202" t="s">
+        <v>779</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>780</v>
+      </c>
+      <c r="B203" t="s">
+        <v>781</v>
+      </c>
+      <c r="C203" t="s">
+        <v>782</v>
+      </c>
+      <c r="D203" t="s">
+        <v>783</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>784</v>
+      </c>
+      <c r="B204" t="s">
+        <v>785</v>
+      </c>
+      <c r="C204" t="s">
+        <v>786</v>
+      </c>
+      <c r="D204" t="s">
+        <v>787</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>788</v>
+      </c>
+      <c r="B205" t="s">
+        <v>789</v>
+      </c>
+      <c r="C205" t="s">
+        <v>790</v>
+      </c>
+      <c r="D205" t="s">
+        <v>791</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>792</v>
+      </c>
+      <c r="B206" t="s">
+        <v>793</v>
+      </c>
+      <c r="C206" t="s">
+        <v>794</v>
+      </c>
+      <c r="D206" t="s">
+        <v>795</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>796</v>
+      </c>
+      <c r="B207" t="s">
+        <v>797</v>
+      </c>
+      <c r="C207" t="s">
+        <v>798</v>
+      </c>
+      <c r="D207" t="s">
+        <v>799</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>800</v>
+      </c>
+      <c r="B208" t="s">
+        <v>801</v>
+      </c>
+      <c r="C208" t="s">
+        <v>802</v>
+      </c>
+      <c r="D208" t="s">
+        <v>803</v>
+      </c>
+      <c r="E208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>804</v>
+      </c>
+      <c r="B209" t="s">
+        <v>805</v>
+      </c>
+      <c r="C209" t="s">
+        <v>806</v>
+      </c>
+      <c r="D209" t="s">
+        <v>807</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>808</v>
+      </c>
+      <c r="B210" t="s">
+        <v>809</v>
+      </c>
+      <c r="C210" t="s">
+        <v>810</v>
+      </c>
+      <c r="D210" t="s">
+        <v>811</v>
+      </c>
+      <c r="E210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>812</v>
+      </c>
+      <c r="B211" t="s">
+        <v>813</v>
+      </c>
+      <c r="C211" t="s">
+        <v>814</v>
+      </c>
+      <c r="D211" t="s">
+        <v>815</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>816</v>
+      </c>
+      <c r="B212" t="s">
+        <v>817</v>
+      </c>
+      <c r="C212" t="s">
+        <v>818</v>
+      </c>
+      <c r="D212" t="s">
+        <v>819</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>820</v>
+      </c>
+      <c r="B213" t="s">
+        <v>821</v>
+      </c>
+      <c r="C213" t="s">
+        <v>822</v>
+      </c>
+      <c r="D213" t="s">
+        <v>823</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>824</v>
+      </c>
+      <c r="B214" t="s">
+        <v>825</v>
+      </c>
+      <c r="C214" t="s">
+        <v>826</v>
+      </c>
+      <c r="D214" t="s">
+        <v>827</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>828</v>
+      </c>
+      <c r="B215" t="s">
+        <v>829</v>
+      </c>
+      <c r="C215" t="s">
+        <v>830</v>
+      </c>
+      <c r="D215" t="s">
+        <v>831</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>832</v>
+      </c>
+      <c r="B216" t="s">
+        <v>833</v>
+      </c>
+      <c r="C216" t="s">
+        <v>834</v>
+      </c>
+      <c r="D216" t="s">
+        <v>835</v>
+      </c>
+      <c r="E216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>836</v>
+      </c>
+      <c r="B217" t="s">
+        <v>837</v>
+      </c>
+      <c r="C217" t="s">
+        <v>838</v>
+      </c>
+      <c r="D217" t="s">
+        <v>839</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>840</v>
+      </c>
+      <c r="B218" t="s">
+        <v>841</v>
+      </c>
+      <c r="C218" t="s">
+        <v>842</v>
+      </c>
+      <c r="D218" t="s">
+        <v>843</v>
+      </c>
+      <c r="E218" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>844</v>
+      </c>
+      <c r="B219" t="s">
+        <v>845</v>
+      </c>
+      <c r="C219" t="s">
+        <v>846</v>
+      </c>
+      <c r="D219" t="s">
+        <v>847</v>
+      </c>
+      <c r="E219" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>848</v>
+      </c>
+      <c r="B220" t="s">
+        <v>849</v>
+      </c>
+      <c r="C220" t="s">
+        <v>850</v>
+      </c>
+      <c r="D220" t="s">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>851</v>
+      </c>
+      <c r="B221" t="s">
+        <v>852</v>
+      </c>
+      <c r="C221" t="s">
+        <v>853</v>
+      </c>
+      <c r="D221" t="s">
+        <v>27</v>
+      </c>
+      <c r="E221" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>854</v>
+      </c>
+      <c r="B222" t="s">
+        <v>855</v>
+      </c>
+      <c r="C222" t="s">
+        <v>856</v>
+      </c>
+      <c r="D222" t="s">
+        <v>857</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>858</v>
+      </c>
+      <c r="B223" t="s">
+        <v>859</v>
+      </c>
+      <c r="C223" t="s">
+        <v>860</v>
+      </c>
+      <c r="D223" t="s">
+        <v>861</v>
+      </c>
+      <c r="E223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>862</v>
+      </c>
+      <c r="B224" t="s">
+        <v>863</v>
+      </c>
+      <c r="C224" t="s">
+        <v>864</v>
+      </c>
+      <c r="D224" t="s">
+        <v>865</v>
+      </c>
+      <c r="E224" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>866</v>
+      </c>
+      <c r="B225" t="s">
+        <v>867</v>
+      </c>
+      <c r="C225" t="s">
+        <v>868</v>
+      </c>
+      <c r="D225" t="s">
+        <v>869</v>
+      </c>
+      <c r="E225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>870</v>
+      </c>
+      <c r="B226" t="s">
+        <v>870</v>
+      </c>
+      <c r="C226" t="s">
+        <v>871</v>
+      </c>
+      <c r="D226" t="s">
+        <v>872</v>
+      </c>
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>873</v>
+      </c>
+      <c r="B227" t="s">
+        <v>873</v>
+      </c>
+      <c r="C227" t="s">
+        <v>874</v>
+      </c>
+      <c r="D227" t="s">
+        <v>875</v>
+      </c>
+      <c r="E227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>876</v>
+      </c>
+      <c r="B228" t="s">
+        <v>876</v>
+      </c>
+      <c r="C228" t="s">
+        <v>877</v>
+      </c>
+      <c r="D228" t="s">
+        <v>878</v>
+      </c>
+      <c r="E228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>879</v>
+      </c>
+      <c r="B229" t="s">
+        <v>879</v>
+      </c>
+      <c r="C229" t="s">
+        <v>880</v>
+      </c>
+      <c r="D229" t="s">
+        <v>881</v>
+      </c>
+      <c r="E229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>882</v>
+      </c>
+      <c r="B230" t="s">
+        <v>883</v>
+      </c>
+      <c r="C230" t="s">
+        <v>884</v>
+      </c>
+      <c r="D230" t="s">
+        <v>885</v>
+      </c>
+      <c r="E230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>886</v>
+      </c>
+      <c r="B231" t="s">
+        <v>887</v>
+      </c>
+      <c r="C231" t="s">
+        <v>888</v>
+      </c>
+      <c r="D231" t="s">
+        <v>889</v>
+      </c>
+      <c r="E231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>890</v>
+      </c>
+      <c r="B232" t="s">
+        <v>891</v>
+      </c>
+      <c r="C232" t="s">
+        <v>892</v>
+      </c>
+      <c r="D232" t="s">
+        <v>893</v>
+      </c>
+      <c r="E232" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>894</v>
+      </c>
+      <c r="B233" t="s">
+        <v>895</v>
+      </c>
+      <c r="C233" t="s">
+        <v>896</v>
+      </c>
+      <c r="D233" t="s">
+        <v>897</v>
+      </c>
+      <c r="E233" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>898</v>
+      </c>
+      <c r="B234" t="s">
+        <v>899</v>
+      </c>
+      <c r="C234" t="s">
+        <v>900</v>
+      </c>
+      <c r="D234" t="s">
+        <v>901</v>
+      </c>
+      <c r="E234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>902</v>
+      </c>
+      <c r="B235" t="s">
+        <v>903</v>
+      </c>
+      <c r="C235" t="s">
+        <v>904</v>
+      </c>
+      <c r="D235" t="s">
+        <v>905</v>
+      </c>
+      <c r="E235" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4222E4-A897-4E1E-AF23-93588AD2E522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13FE00D-74FD-48FE-81FF-2A06B20D5431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1517,10 +1517,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>com.mxtech.videoplayer.ad.ActivityMediaList</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>com.android.vending.billing.InAppBillingService.CLON</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2968,6 +2964,10 @@
   </si>
   <si>
     <t>com.tencent.oscar.module.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.ad.ActivityWelcomeMX</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3898,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:E235"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5256,16 +5256,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B80" t="s">
         <v>93</v>
       </c>
       <c r="C80" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" t="s">
         <v>447</v>
-      </c>
-      <c r="D80" t="s">
-        <v>448</v>
       </c>
       <c r="E80" t="s">
         <v>45</v>
@@ -5653,10 +5653,10 @@
         <v>402</v>
       </c>
       <c r="C103" t="s">
+        <v>443</v>
+      </c>
+      <c r="D103" t="s">
         <v>444</v>
-      </c>
-      <c r="D103" t="s">
-        <v>445</v>
       </c>
       <c r="E103" t="s">
         <v>45</v>
@@ -5673,7 +5673,7 @@
         <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
+        <v>905</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
@@ -5834,16 +5834,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>317</v>
@@ -5851,16 +5851,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>317</v>
@@ -5868,33 +5868,33 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>317</v>
@@ -5902,16 +5902,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>438</v>
@@ -5919,16 +5919,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>317</v>
@@ -5936,16 +5936,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>317</v>
@@ -5956,33 +5956,33 @@
         <v>159</v>
       </c>
       <c r="B121" t="s">
+        <v>477</v>
+      </c>
+      <c r="C121" t="s">
         <v>478</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>479</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>480</v>
-      </c>
-      <c r="E121" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>481</v>
+      </c>
+      <c r="B122" t="s">
         <v>482</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>483</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>484</v>
       </c>
-      <c r="D122" t="s">
-        <v>485</v>
-      </c>
       <c r="E122" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -5990,33 +5990,33 @@
         <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C123" t="s">
         <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E123" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" t="s">
         <v>488</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>489</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>490</v>
       </c>
-      <c r="D124" t="s">
-        <v>491</v>
-      </c>
       <c r="E124" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6024,7 +6024,7 @@
         <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
@@ -6033,7 +6033,7 @@
         <v>190</v>
       </c>
       <c r="E125" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -6041,84 +6041,84 @@
         <v>230</v>
       </c>
       <c r="B126" t="s">
+        <v>492</v>
+      </c>
+      <c r="C126" t="s">
         <v>493</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>494</v>
       </c>
-      <c r="D126" t="s">
-        <v>495</v>
-      </c>
       <c r="E126" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B127" t="s">
         <v>375</v>
       </c>
       <c r="C127" t="s">
+        <v>496</v>
+      </c>
+      <c r="D127" t="s">
         <v>497</v>
       </c>
-      <c r="D127" t="s">
-        <v>498</v>
-      </c>
       <c r="E127" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>498</v>
+      </c>
+      <c r="B128" t="s">
         <v>499</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>500</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>501</v>
       </c>
-      <c r="D128" t="s">
-        <v>502</v>
-      </c>
       <c r="E128" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>502</v>
+      </c>
+      <c r="B129" t="s">
         <v>503</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>504</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>505</v>
       </c>
-      <c r="D129" t="s">
-        <v>506</v>
-      </c>
       <c r="E129" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>506</v>
+      </c>
+      <c r="B130" t="s">
         <v>507</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>508</v>
-      </c>
-      <c r="C130" t="s">
-        <v>509</v>
       </c>
       <c r="D130" t="s">
         <v>341</v>
       </c>
       <c r="E130" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6129,435 +6129,435 @@
         <v>260</v>
       </c>
       <c r="C131" t="s">
+        <v>509</v>
+      </c>
+      <c r="D131" t="s">
         <v>510</v>
       </c>
-      <c r="D131" t="s">
-        <v>511</v>
-      </c>
       <c r="E131" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>511</v>
+      </c>
+      <c r="B132" t="s">
         <v>512</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>513</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>514</v>
       </c>
-      <c r="D132" t="s">
-        <v>515</v>
-      </c>
       <c r="E132" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>515</v>
+      </c>
+      <c r="B133" t="s">
         <v>516</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>517</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>518</v>
       </c>
-      <c r="D133" t="s">
-        <v>519</v>
-      </c>
       <c r="E133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>519</v>
+      </c>
+      <c r="B134" t="s">
         <v>520</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>521</v>
-      </c>
-      <c r="C134" t="s">
-        <v>522</v>
       </c>
       <c r="D134" t="s">
         <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>522</v>
+      </c>
+      <c r="B135" t="s">
         <v>523</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>524</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>525</v>
       </c>
-      <c r="D135" t="s">
-        <v>526</v>
-      </c>
       <c r="E135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>526</v>
+      </c>
+      <c r="B136" t="s">
         <v>527</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>528</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>529</v>
       </c>
-      <c r="D136" t="s">
-        <v>530</v>
-      </c>
       <c r="E136" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>530</v>
+      </c>
+      <c r="B137" t="s">
+        <v>530</v>
+      </c>
+      <c r="C137" t="s">
         <v>531</v>
       </c>
-      <c r="B137" t="s">
-        <v>531</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>532</v>
       </c>
-      <c r="D137" t="s">
-        <v>533</v>
-      </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" t="s">
         <v>534</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>535</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>536</v>
       </c>
-      <c r="D138" t="s">
-        <v>537</v>
-      </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>537</v>
+      </c>
+      <c r="B139" t="s">
         <v>538</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>539</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>540</v>
       </c>
-      <c r="D139" t="s">
-        <v>541</v>
-      </c>
       <c r="E139" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>541</v>
+      </c>
+      <c r="B140" t="s">
         <v>542</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>543</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>544</v>
       </c>
-      <c r="D140" t="s">
-        <v>545</v>
-      </c>
       <c r="E140" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>545</v>
+      </c>
+      <c r="B141" t="s">
         <v>546</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>547</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>548</v>
       </c>
-      <c r="D141" t="s">
-        <v>549</v>
-      </c>
       <c r="E141" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>549</v>
+      </c>
+      <c r="B142" t="s">
         <v>550</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>551</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>552</v>
       </c>
-      <c r="D142" t="s">
-        <v>553</v>
-      </c>
       <c r="E142" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>553</v>
+      </c>
+      <c r="B143" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" t="s">
         <v>554</v>
       </c>
-      <c r="B143" t="s">
-        <v>554</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>555</v>
       </c>
-      <c r="D143" t="s">
-        <v>556</v>
-      </c>
       <c r="E143" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>556</v>
+      </c>
+      <c r="B144" t="s">
         <v>557</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>558</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>559</v>
       </c>
-      <c r="D144" t="s">
-        <v>560</v>
-      </c>
       <c r="E144" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>560</v>
+      </c>
+      <c r="B145" t="s">
         <v>561</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>562</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>563</v>
       </c>
-      <c r="D145" t="s">
-        <v>564</v>
-      </c>
       <c r="E145" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>564</v>
+      </c>
+      <c r="B146" t="s">
         <v>565</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>566</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>567</v>
       </c>
-      <c r="D146" t="s">
-        <v>568</v>
-      </c>
       <c r="E146" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>568</v>
+      </c>
+      <c r="B147" t="s">
         <v>569</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>570</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>571</v>
       </c>
-      <c r="D147" t="s">
-        <v>572</v>
-      </c>
       <c r="E147" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>572</v>
+      </c>
+      <c r="B148" t="s">
         <v>573</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>574</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>575</v>
       </c>
-      <c r="D148" t="s">
-        <v>576</v>
-      </c>
       <c r="E148" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>576</v>
+      </c>
+      <c r="B149" t="s">
         <v>577</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>578</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>579</v>
       </c>
-      <c r="D149" t="s">
-        <v>580</v>
-      </c>
       <c r="E149" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>580</v>
+      </c>
+      <c r="B150" t="s">
+        <v>580</v>
+      </c>
+      <c r="C150" t="s">
         <v>581</v>
       </c>
-      <c r="B150" t="s">
-        <v>581</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>582</v>
       </c>
-      <c r="D150" t="s">
-        <v>583</v>
-      </c>
       <c r="E150" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>583</v>
+      </c>
+      <c r="B151" t="s">
+        <v>583</v>
+      </c>
+      <c r="C151" t="s">
         <v>584</v>
-      </c>
-      <c r="B151" t="s">
-        <v>584</v>
-      </c>
-      <c r="C151" t="s">
-        <v>585</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>585</v>
+      </c>
+      <c r="B152" t="s">
         <v>586</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>587</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>588</v>
       </c>
-      <c r="D152" t="s">
-        <v>589</v>
-      </c>
       <c r="E152" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>589</v>
+      </c>
+      <c r="B153" t="s">
+        <v>589</v>
+      </c>
+      <c r="C153" t="s">
         <v>590</v>
       </c>
-      <c r="B153" t="s">
-        <v>590</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>591</v>
       </c>
-      <c r="D153" t="s">
-        <v>592</v>
-      </c>
       <c r="E153" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>592</v>
+      </c>
+      <c r="B154" t="s">
         <v>593</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>594</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>595</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>596</v>
-      </c>
-      <c r="E154" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>597</v>
+      </c>
+      <c r="B155" t="s">
         <v>598</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>599</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>600</v>
       </c>
-      <c r="D155" t="s">
-        <v>601</v>
-      </c>
       <c r="E155" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>601</v>
+      </c>
+      <c r="B156" t="s">
         <v>602</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>603</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>604</v>
-      </c>
-      <c r="D156" t="s">
-        <v>605</v>
       </c>
       <c r="E156" t="s">
         <v>45</v>
@@ -6565,33 +6565,33 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>605</v>
+      </c>
+      <c r="B157" t="s">
         <v>606</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>607</v>
-      </c>
-      <c r="C157" t="s">
-        <v>608</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>608</v>
+      </c>
+      <c r="B158" t="s">
         <v>609</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>610</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>611</v>
-      </c>
-      <c r="D158" t="s">
-        <v>612</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
@@ -6599,16 +6599,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>612</v>
+      </c>
+      <c r="B159" t="s">
         <v>613</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>614</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>615</v>
-      </c>
-      <c r="D159" t="s">
-        <v>616</v>
       </c>
       <c r="E159" t="s">
         <v>45</v>
@@ -6616,16 +6616,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>616</v>
+      </c>
+      <c r="B160" t="s">
         <v>617</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>618</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>619</v>
-      </c>
-      <c r="D160" t="s">
-        <v>620</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
@@ -6633,16 +6633,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>620</v>
+      </c>
+      <c r="B161" t="s">
         <v>621</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>622</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>623</v>
-      </c>
-      <c r="D161" t="s">
-        <v>624</v>
       </c>
       <c r="E161" t="s">
         <v>45</v>
@@ -6650,16 +6650,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>624</v>
+      </c>
+      <c r="B162" t="s">
         <v>625</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>626</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>627</v>
-      </c>
-      <c r="D162" t="s">
-        <v>628</v>
       </c>
       <c r="E162" t="s">
         <v>45</v>
@@ -6667,16 +6667,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>628</v>
+      </c>
+      <c r="B163" t="s">
+        <v>628</v>
+      </c>
+      <c r="C163" t="s">
         <v>629</v>
       </c>
-      <c r="B163" t="s">
-        <v>629</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>630</v>
-      </c>
-      <c r="D163" t="s">
-        <v>631</v>
       </c>
       <c r="E163" t="s">
         <v>45</v>
@@ -6684,16 +6684,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>631</v>
+      </c>
+      <c r="B164" t="s">
         <v>632</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>633</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>634</v>
-      </c>
-      <c r="D164" t="s">
-        <v>635</v>
       </c>
       <c r="E164" t="s">
         <v>45</v>
@@ -6701,16 +6701,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>635</v>
+      </c>
+      <c r="B165" t="s">
         <v>636</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>637</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>638</v>
-      </c>
-      <c r="D165" t="s">
-        <v>639</v>
       </c>
       <c r="E165" t="s">
         <v>45</v>
@@ -6718,16 +6718,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>639</v>
+      </c>
+      <c r="B166" t="s">
         <v>640</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>641</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>642</v>
-      </c>
-      <c r="D166" t="s">
-        <v>643</v>
       </c>
       <c r="E166" t="s">
         <v>45</v>
@@ -6735,16 +6735,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>643</v>
+      </c>
+      <c r="B167" t="s">
+        <v>643</v>
+      </c>
+      <c r="C167" t="s">
         <v>644</v>
       </c>
-      <c r="B167" t="s">
-        <v>644</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>645</v>
-      </c>
-      <c r="D167" t="s">
-        <v>646</v>
       </c>
       <c r="E167" t="s">
         <v>45</v>
@@ -6752,16 +6752,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>646</v>
+      </c>
+      <c r="B168" t="s">
         <v>647</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>648</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>649</v>
-      </c>
-      <c r="D168" t="s">
-        <v>650</v>
       </c>
       <c r="E168" t="s">
         <v>45</v>
@@ -6769,16 +6769,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>650</v>
+      </c>
+      <c r="B169" t="s">
+        <v>650</v>
+      </c>
+      <c r="C169" t="s">
         <v>651</v>
       </c>
-      <c r="B169" t="s">
-        <v>651</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>652</v>
-      </c>
-      <c r="D169" t="s">
-        <v>653</v>
       </c>
       <c r="E169" t="s">
         <v>45</v>
@@ -6786,16 +6786,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>653</v>
+      </c>
+      <c r="B170" t="s">
+        <v>653</v>
+      </c>
+      <c r="C170" t="s">
         <v>654</v>
       </c>
-      <c r="B170" t="s">
-        <v>654</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>655</v>
-      </c>
-      <c r="D170" t="s">
-        <v>656</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
@@ -6803,16 +6803,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>656</v>
+      </c>
+      <c r="B171" t="s">
+        <v>656</v>
+      </c>
+      <c r="C171" t="s">
         <v>657</v>
       </c>
-      <c r="B171" t="s">
-        <v>657</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>658</v>
-      </c>
-      <c r="D171" t="s">
-        <v>659</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
@@ -6820,16 +6820,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>659</v>
+      </c>
+      <c r="B172" t="s">
         <v>660</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>661</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>662</v>
-      </c>
-      <c r="D172" t="s">
-        <v>663</v>
       </c>
       <c r="E172" t="s">
         <v>45</v>
@@ -6837,16 +6837,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>663</v>
+      </c>
+      <c r="B173" t="s">
         <v>664</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>665</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>666</v>
-      </c>
-      <c r="D173" t="s">
-        <v>667</v>
       </c>
       <c r="E173" t="s">
         <v>45</v>
@@ -6854,16 +6854,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>667</v>
+      </c>
+      <c r="B174" t="s">
         <v>668</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>669</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>670</v>
-      </c>
-      <c r="D174" t="s">
-        <v>671</v>
       </c>
       <c r="E174" t="s">
         <v>45</v>
@@ -6871,16 +6871,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>671</v>
+      </c>
+      <c r="B175" t="s">
         <v>672</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>673</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>674</v>
-      </c>
-      <c r="D175" t="s">
-        <v>675</v>
       </c>
       <c r="E175" t="s">
         <v>45</v>
@@ -6888,16 +6888,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>675</v>
+      </c>
+      <c r="B176" t="s">
         <v>676</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>677</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>678</v>
-      </c>
-      <c r="D176" t="s">
-        <v>679</v>
       </c>
       <c r="E176" t="s">
         <v>45</v>
@@ -6905,16 +6905,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>679</v>
+      </c>
+      <c r="B177" t="s">
+        <v>679</v>
+      </c>
+      <c r="C177" t="s">
         <v>680</v>
       </c>
-      <c r="B177" t="s">
-        <v>680</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>681</v>
-      </c>
-      <c r="D177" t="s">
-        <v>682</v>
       </c>
       <c r="E177" t="s">
         <v>45</v>
@@ -6922,16 +6922,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>682</v>
+      </c>
+      <c r="B178" t="s">
+        <v>682</v>
+      </c>
+      <c r="C178" t="s">
         <v>683</v>
       </c>
-      <c r="B178" t="s">
-        <v>683</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>684</v>
-      </c>
-      <c r="D178" t="s">
-        <v>685</v>
       </c>
       <c r="E178" t="s">
         <v>45</v>
@@ -6939,16 +6939,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>685</v>
+      </c>
+      <c r="B179" t="s">
         <v>686</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>687</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>688</v>
-      </c>
-      <c r="D179" t="s">
-        <v>689</v>
       </c>
       <c r="E179" t="s">
         <v>45</v>
@@ -6956,16 +6956,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>689</v>
+      </c>
+      <c r="B180" t="s">
         <v>690</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>691</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>692</v>
-      </c>
-      <c r="D180" t="s">
-        <v>693</v>
       </c>
       <c r="E180" t="s">
         <v>45</v>
@@ -6973,16 +6973,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>693</v>
+      </c>
+      <c r="B181" t="s">
         <v>694</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>695</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>696</v>
-      </c>
-      <c r="D181" t="s">
-        <v>697</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
@@ -6990,16 +6990,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>697</v>
+      </c>
+      <c r="B182" t="s">
         <v>698</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>699</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>700</v>
-      </c>
-      <c r="D182" t="s">
-        <v>701</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -7007,16 +7007,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>701</v>
+      </c>
+      <c r="B183" t="s">
         <v>702</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>703</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>704</v>
-      </c>
-      <c r="D183" t="s">
-        <v>705</v>
       </c>
       <c r="E183" t="s">
         <v>45</v>
@@ -7024,16 +7024,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>705</v>
+      </c>
+      <c r="B184" t="s">
         <v>706</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>707</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>708</v>
-      </c>
-      <c r="D184" t="s">
-        <v>709</v>
       </c>
       <c r="E184" t="s">
         <v>45</v>
@@ -7041,16 +7041,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>709</v>
+      </c>
+      <c r="B185" t="s">
         <v>710</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>711</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>712</v>
-      </c>
-      <c r="D185" t="s">
-        <v>713</v>
       </c>
       <c r="E185" t="s">
         <v>45</v>
@@ -7058,16 +7058,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>713</v>
+      </c>
+      <c r="B186" t="s">
         <v>714</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>715</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>716</v>
-      </c>
-      <c r="D186" t="s">
-        <v>717</v>
       </c>
       <c r="E186" t="s">
         <v>45</v>
@@ -7075,16 +7075,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>717</v>
+      </c>
+      <c r="B187" t="s">
         <v>718</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>719</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>720</v>
-      </c>
-      <c r="D187" t="s">
-        <v>721</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
@@ -7092,16 +7092,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>721</v>
+      </c>
+      <c r="B188" t="s">
         <v>722</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>723</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>724</v>
-      </c>
-      <c r="D188" t="s">
-        <v>725</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
@@ -7109,16 +7109,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>725</v>
+      </c>
+      <c r="B189" t="s">
         <v>726</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>727</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>728</v>
-      </c>
-      <c r="D189" t="s">
-        <v>729</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -7126,16 +7126,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>729</v>
+      </c>
+      <c r="B190" t="s">
         <v>730</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>731</v>
       </c>
-      <c r="C190" t="s">
-        <v>732</v>
-      </c>
       <c r="D190" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -7143,16 +7143,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>732</v>
+      </c>
+      <c r="B191" t="s">
         <v>733</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>734</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>735</v>
-      </c>
-      <c r="D191" t="s">
-        <v>736</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7160,16 +7160,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>736</v>
+      </c>
+      <c r="B192" t="s">
+        <v>736</v>
+      </c>
+      <c r="C192" t="s">
         <v>737</v>
       </c>
-      <c r="B192" t="s">
-        <v>737</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>738</v>
-      </c>
-      <c r="D192" t="s">
-        <v>739</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -7177,16 +7177,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>739</v>
+      </c>
+      <c r="B193" t="s">
         <v>740</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>741</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>742</v>
-      </c>
-      <c r="D193" t="s">
-        <v>743</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -7194,16 +7194,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>743</v>
+      </c>
+      <c r="B194" t="s">
         <v>744</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>745</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>746</v>
-      </c>
-      <c r="D194" t="s">
-        <v>747</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -7211,16 +7211,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>747</v>
+      </c>
+      <c r="B195" t="s">
         <v>748</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>749</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>750</v>
-      </c>
-      <c r="D195" t="s">
-        <v>751</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
@@ -7228,16 +7228,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>751</v>
+      </c>
+      <c r="B196" t="s">
         <v>752</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>753</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>754</v>
-      </c>
-      <c r="D196" t="s">
-        <v>755</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -7245,16 +7245,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>755</v>
+      </c>
+      <c r="B197" t="s">
         <v>756</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>757</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>758</v>
-      </c>
-      <c r="D197" t="s">
-        <v>759</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -7262,16 +7262,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>759</v>
+      </c>
+      <c r="B198" t="s">
         <v>760</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>761</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>762</v>
-      </c>
-      <c r="D198" t="s">
-        <v>763</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -7279,16 +7279,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>763</v>
+      </c>
+      <c r="B199" t="s">
         <v>764</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>765</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>766</v>
-      </c>
-      <c r="D199" t="s">
-        <v>767</v>
       </c>
       <c r="E199" t="s">
         <v>12</v>
@@ -7296,16 +7296,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>767</v>
+      </c>
+      <c r="B200" t="s">
         <v>768</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>769</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>770</v>
-      </c>
-      <c r="D200" t="s">
-        <v>771</v>
       </c>
       <c r="E200" t="s">
         <v>12</v>
@@ -7313,16 +7313,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>771</v>
+      </c>
+      <c r="B201" t="s">
         <v>772</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>773</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>774</v>
-      </c>
-      <c r="D201" t="s">
-        <v>775</v>
       </c>
       <c r="E201" t="s">
         <v>12</v>
@@ -7330,16 +7330,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>775</v>
+      </c>
+      <c r="B202" t="s">
         <v>776</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>777</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>778</v>
-      </c>
-      <c r="D202" t="s">
-        <v>779</v>
       </c>
       <c r="E202" t="s">
         <v>12</v>
@@ -7347,16 +7347,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>779</v>
+      </c>
+      <c r="B203" t="s">
         <v>780</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>781</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>782</v>
-      </c>
-      <c r="D203" t="s">
-        <v>783</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
@@ -7364,16 +7364,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>783</v>
+      </c>
+      <c r="B204" t="s">
         <v>784</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>785</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>786</v>
-      </c>
-      <c r="D204" t="s">
-        <v>787</v>
       </c>
       <c r="E204" t="s">
         <v>12</v>
@@ -7381,16 +7381,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>787</v>
+      </c>
+      <c r="B205" t="s">
         <v>788</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>789</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>790</v>
-      </c>
-      <c r="D205" t="s">
-        <v>791</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -7398,16 +7398,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>791</v>
+      </c>
+      <c r="B206" t="s">
         <v>792</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>793</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>794</v>
-      </c>
-      <c r="D206" t="s">
-        <v>795</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -7415,16 +7415,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>795</v>
+      </c>
+      <c r="B207" t="s">
         <v>796</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>797</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>798</v>
-      </c>
-      <c r="D207" t="s">
-        <v>799</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
@@ -7432,16 +7432,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>799</v>
+      </c>
+      <c r="B208" t="s">
         <v>800</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>801</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>802</v>
-      </c>
-      <c r="D208" t="s">
-        <v>803</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -7449,16 +7449,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>803</v>
+      </c>
+      <c r="B209" t="s">
         <v>804</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>805</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>806</v>
-      </c>
-      <c r="D209" t="s">
-        <v>807</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -7466,16 +7466,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>807</v>
+      </c>
+      <c r="B210" t="s">
         <v>808</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>809</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>810</v>
-      </c>
-      <c r="D210" t="s">
-        <v>811</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
@@ -7483,16 +7483,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>811</v>
+      </c>
+      <c r="B211" t="s">
         <v>812</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>813</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>814</v>
-      </c>
-      <c r="D211" t="s">
-        <v>815</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
@@ -7500,16 +7500,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>815</v>
+      </c>
+      <c r="B212" t="s">
         <v>816</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>817</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>818</v>
-      </c>
-      <c r="D212" t="s">
-        <v>819</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -7517,16 +7517,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>819</v>
+      </c>
+      <c r="B213" t="s">
         <v>820</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>821</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>822</v>
-      </c>
-      <c r="D213" t="s">
-        <v>823</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
@@ -7534,16 +7534,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>823</v>
+      </c>
+      <c r="B214" t="s">
         <v>824</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>825</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>826</v>
-      </c>
-      <c r="D214" t="s">
-        <v>827</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
@@ -7551,16 +7551,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>827</v>
+      </c>
+      <c r="B215" t="s">
         <v>828</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>829</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>830</v>
-      </c>
-      <c r="D215" t="s">
-        <v>831</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
@@ -7568,16 +7568,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>831</v>
+      </c>
+      <c r="B216" t="s">
         <v>832</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>833</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>834</v>
-      </c>
-      <c r="D216" t="s">
-        <v>835</v>
       </c>
       <c r="E216" t="s">
         <v>12</v>
@@ -7585,16 +7585,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>835</v>
+      </c>
+      <c r="B217" t="s">
         <v>836</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>837</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>838</v>
-      </c>
-      <c r="D217" t="s">
-        <v>839</v>
       </c>
       <c r="E217" t="s">
         <v>12</v>
@@ -7602,16 +7602,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>839</v>
+      </c>
+      <c r="B218" t="s">
         <v>840</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>841</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>842</v>
-      </c>
-      <c r="D218" t="s">
-        <v>843</v>
       </c>
       <c r="E218" t="s">
         <v>12</v>
@@ -7619,16 +7619,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>843</v>
+      </c>
+      <c r="B219" t="s">
         <v>844</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>845</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>846</v>
-      </c>
-      <c r="D219" t="s">
-        <v>847</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -7636,13 +7636,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>847</v>
+      </c>
+      <c r="B220" t="s">
         <v>848</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>849</v>
-      </c>
-      <c r="C220" t="s">
-        <v>850</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
@@ -7653,13 +7653,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>850</v>
+      </c>
+      <c r="B221" t="s">
         <v>851</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>852</v>
-      </c>
-      <c r="C221" t="s">
-        <v>853</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -7670,16 +7670,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>853</v>
+      </c>
+      <c r="B222" t="s">
         <v>854</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>855</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>856</v>
-      </c>
-      <c r="D222" t="s">
-        <v>857</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
@@ -7687,16 +7687,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>857</v>
+      </c>
+      <c r="B223" t="s">
         <v>858</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>859</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>860</v>
-      </c>
-      <c r="D223" t="s">
-        <v>861</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
@@ -7704,16 +7704,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>861</v>
+      </c>
+      <c r="B224" t="s">
         <v>862</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>863</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>864</v>
-      </c>
-      <c r="D224" t="s">
-        <v>865</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
@@ -7721,16 +7721,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>865</v>
+      </c>
+      <c r="B225" t="s">
         <v>866</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>867</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>868</v>
-      </c>
-      <c r="D225" t="s">
-        <v>869</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
@@ -7738,16 +7738,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>869</v>
+      </c>
+      <c r="B226" t="s">
+        <v>869</v>
+      </c>
+      <c r="C226" t="s">
         <v>870</v>
       </c>
-      <c r="B226" t="s">
-        <v>870</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>871</v>
-      </c>
-      <c r="D226" t="s">
-        <v>872</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -7755,16 +7755,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>872</v>
+      </c>
+      <c r="B227" t="s">
+        <v>872</v>
+      </c>
+      <c r="C227" t="s">
         <v>873</v>
       </c>
-      <c r="B227" t="s">
-        <v>873</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>874</v>
-      </c>
-      <c r="D227" t="s">
-        <v>875</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
@@ -7772,16 +7772,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>875</v>
+      </c>
+      <c r="B228" t="s">
+        <v>875</v>
+      </c>
+      <c r="C228" t="s">
         <v>876</v>
       </c>
-      <c r="B228" t="s">
-        <v>876</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>877</v>
-      </c>
-      <c r="D228" t="s">
-        <v>878</v>
       </c>
       <c r="E228" t="s">
         <v>12</v>
@@ -7789,16 +7789,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>878</v>
+      </c>
+      <c r="B229" t="s">
+        <v>878</v>
+      </c>
+      <c r="C229" t="s">
         <v>879</v>
       </c>
-      <c r="B229" t="s">
-        <v>879</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>880</v>
-      </c>
-      <c r="D229" t="s">
-        <v>881</v>
       </c>
       <c r="E229" t="s">
         <v>12</v>
@@ -7806,16 +7806,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>881</v>
+      </c>
+      <c r="B230" t="s">
         <v>882</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>883</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>884</v>
-      </c>
-      <c r="D230" t="s">
-        <v>885</v>
       </c>
       <c r="E230" t="s">
         <v>12</v>
@@ -7823,16 +7823,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>885</v>
+      </c>
+      <c r="B231" t="s">
         <v>886</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>887</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>888</v>
-      </c>
-      <c r="D231" t="s">
-        <v>889</v>
       </c>
       <c r="E231" t="s">
         <v>12</v>
@@ -7840,16 +7840,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>889</v>
+      </c>
+      <c r="B232" t="s">
         <v>890</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>891</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>892</v>
-      </c>
-      <c r="D232" t="s">
-        <v>893</v>
       </c>
       <c r="E232" t="s">
         <v>12</v>
@@ -7857,16 +7857,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>893</v>
+      </c>
+      <c r="B233" t="s">
         <v>894</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>895</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>896</v>
-      </c>
-      <c r="D233" t="s">
-        <v>897</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -7874,16 +7874,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>897</v>
+      </c>
+      <c r="B234" t="s">
         <v>898</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>899</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>900</v>
-      </c>
-      <c r="D234" t="s">
-        <v>901</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -7891,16 +7891,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>901</v>
+      </c>
+      <c r="B235" t="s">
         <v>902</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>903</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>904</v>
-      </c>
-      <c r="D235" t="s">
-        <v>905</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13FE00D-74FD-48FE-81FF-2A06B20D5431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D716EF-53B5-422A-85BB-14BD70B76456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="1090">
   <si>
     <t>百度网盘</t>
   </si>
@@ -2968,13 +2968,608 @@
   <si>
     <t>com.mxtech.videoplayer.ad.ActivityWelcomeMX</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.article.news</t>
+  </si>
+  <si>
+    <t>com.ss.android.article.news.activity.SplashBadgeActivity</t>
+  </si>
+  <si>
+    <t>掌阅</t>
+  </si>
+  <si>
+    <t>ireader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chaozh.iReaderFree</t>
+  </si>
+  <si>
+    <t>com.chaozh.iReader.ui.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>多看阅读</t>
+  </si>
+  <si>
+    <t>duokan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.duokan.reader</t>
+  </si>
+  <si>
+    <t>com.duokan.reader.DkReaderActivity</t>
+  </si>
+  <si>
+    <t>爱看阅读</t>
+  </si>
+  <si>
+    <t>loveread</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mdroid.read</t>
+  </si>
+  <si>
+    <t>com.mdroid.application.ui.welcome.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>静读天下专业版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonread</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.flyersoft.moonreaderp</t>
+  </si>
+  <si>
+    <t>com.flyersoft.moonreaderp.ActivityMain</t>
+  </si>
+  <si>
+    <t>Flipboard新闻</t>
+  </si>
+  <si>
+    <t>flipboard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipboard.cn</t>
+  </si>
+  <si>
+    <t>flipboard.activities.LaunchActivityAlias</t>
+  </si>
+  <si>
+    <t>网易新闻</t>
+  </si>
+  <si>
+    <t>netease_news</t>
+  </si>
+  <si>
+    <t>com.netease.newsreader.activity</t>
+  </si>
+  <si>
+    <t>com.netease.nr.biz.ad.AdActivity</t>
+  </si>
+  <si>
+    <t>ZAKER</t>
+  </si>
+  <si>
+    <t>zaker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.myzaker.ZAKER_Phone</t>
+  </si>
+  <si>
+    <t>com.myzaker.ZAKER_Phone.view.LogoActivity</t>
+  </si>
+  <si>
+    <t>界面新闻</t>
+  </si>
+  <si>
+    <t>jiemian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jiemian.news</t>
+  </si>
+  <si>
+    <t>com.jiemian.news.module.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰新闻</t>
+  </si>
+  <si>
+    <t>feng_news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ifeng.news2</t>
+  </si>
+  <si>
+    <t>com.ifeng.news2.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>澎湃新闻</t>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wondertek.paper</t>
+  </si>
+  <si>
+    <t>cn.thepaper.paper.ui.splash.welcome.LaunchActivity</t>
+  </si>
+  <si>
+    <t>布卡漫画</t>
+  </si>
+  <si>
+    <t>buka</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.ibuka.manga.ui</t>
+  </si>
+  <si>
+    <t>cn.ibuka.manga.ui.ActivityStartup</t>
+  </si>
+  <si>
+    <t>腾讯动漫</t>
+  </si>
+  <si>
+    <t>tencent_ac</t>
+  </si>
+  <si>
+    <t>com.qq.ac.android</t>
+  </si>
+  <si>
+    <t>com.qq.ac.android.view.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>追追漫画</t>
+  </si>
+  <si>
+    <t>comiclover</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mandongkeji.comiclover</t>
+  </si>
+  <si>
+    <t>com.mandongkeji.comiclover.splash.SplashV2Activity</t>
+  </si>
+  <si>
+    <t>漫画岛</t>
+  </si>
+  <si>
+    <t>comics_island</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.comicsisland.activity</t>
+  </si>
+  <si>
+    <t>com.android.comicsisland.activity.SplashLogoActivity</t>
+  </si>
+  <si>
+    <t>起点小说</t>
+  </si>
+  <si>
+    <t>qidian_novel</t>
+  </si>
+  <si>
+    <t>com.qidian.QDReader.cps</t>
+  </si>
+  <si>
+    <t>com.qidian.QDReader.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>追书神器</t>
+  </si>
+  <si>
+    <t>zhuishushenqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>QQ邮箱</t>
+  </si>
+  <si>
+    <t>qq_mail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.androidqqmail</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmail.launcher.desktop.LauncherActivity</t>
+  </si>
+  <si>
+    <t>WiFi万能钥匙</t>
+  </si>
+  <si>
+    <t>wifi_locating</t>
+  </si>
+  <si>
+    <t>com.snda.wifilocating</t>
+  </si>
+  <si>
+    <t>com.lantern.launcher.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>抖音短视频</t>
+  </si>
+  <si>
+    <t>tiptap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.aweme</t>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.aweme.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>西瓜视频</t>
+  </si>
+  <si>
+    <t>article_video</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.article.video</t>
+  </si>
+  <si>
+    <t>com.ss.android.article.video.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>火山小视频</t>
+  </si>
+  <si>
+    <t>huoshan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.live</t>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.live.main.MainActivity</t>
+  </si>
+  <si>
+    <t>AcFun</t>
+  </si>
+  <si>
+    <t>acfun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.acfundanmaku.video</t>
+  </si>
+  <si>
+    <t>tv.acfun.core.view.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>kuaishou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.smile.gifmaker</t>
+  </si>
+  <si>
+    <t>com.yxcorp.gifshow.HomeActivity</t>
+  </si>
+  <si>
+    <t>央视影音</t>
+  </si>
+  <si>
+    <t>cntv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.cntv</t>
+  </si>
+  <si>
+    <t>cn.cntv.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>暴风影音</t>
+  </si>
+  <si>
+    <t>storm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.storm.smart</t>
+  </si>
+  <si>
+    <t>com.storm.smart.LogoActivity</t>
+  </si>
+  <si>
+    <t>酷狗音乐</t>
+  </si>
+  <si>
+    <t>kugou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kugou.android</t>
+  </si>
+  <si>
+    <t>com.kugou.android.app.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>酷我音乐</t>
+  </si>
+  <si>
+    <t>kuwo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.kuwo.player</t>
+  </si>
+  <si>
+    <t>cn.kuwo.player.activities.EntryActivity</t>
+  </si>
+  <si>
+    <t>轻听</t>
+  </si>
+  <si>
+    <t>qq_music_local</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqmusiclocalplayer</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmusiclocalplayer.app.activity.AppStarterActivity</t>
+  </si>
+  <si>
+    <t>Retor Music</t>
+  </si>
+  <si>
+    <t>retor_music</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>code.name.monkey.retromusic</t>
+  </si>
+  <si>
+    <t>code.name.monkey.retromusic.ui.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>斗鱼直播</t>
+  </si>
+  <si>
+    <t>douyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>air.tv.douyu.android</t>
+  </si>
+  <si>
+    <t>tv.douyu.view.activity.launcher.DYLauncherActivity</t>
+  </si>
+  <si>
+    <t>虎牙直播</t>
+  </si>
+  <si>
+    <t>huya</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.duowan.kiwi</t>
+  </si>
+  <si>
+    <t>com.duowan.kiwi.simpleactivity.SplashActivity</t>
+  </si>
+  <si>
+    <t>熊猫直播</t>
+  </si>
+  <si>
+    <t>panda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.panda.videoliveplatform</t>
+  </si>
+  <si>
+    <t>com.panda.videoliveplatform.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>直播吧</t>
+  </si>
+  <si>
+    <t>zhibo8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.zhibo8</t>
+  </si>
+  <si>
+    <t>android.zhibo8.ui.contollers.main.LaunchActivity</t>
+  </si>
+  <si>
+    <t>一直播</t>
+  </si>
+  <si>
+    <t>yi_live</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.xiaoka.live</t>
+  </si>
+  <si>
+    <t>tv.xiaoka.live.activity.AppSplashActivity</t>
+  </si>
+  <si>
+    <t>Google相机</t>
+  </si>
+  <si>
+    <t>google_camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.GoogleCamera</t>
+  </si>
+  <si>
+    <t>com.android.camera.CameraLauncher</t>
+  </si>
+  <si>
+    <t>相机360</t>
+  </si>
+  <si>
+    <t>camera360</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vStudio.Android.Camera360</t>
+  </si>
+  <si>
+    <t>vStudio.Android.Camera360.activity.CameraActivity</t>
+  </si>
+  <si>
+    <t>Prisma艺术相机</t>
+  </si>
+  <si>
+    <t>prisma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.neuralprisma</t>
+  </si>
+  <si>
+    <t>com.prisma.starter.StarterActivity</t>
+  </si>
+  <si>
+    <t>B612咔叽</t>
+  </si>
+  <si>
+    <t>b612</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.campmobile.snowcamera</t>
+  </si>
+  <si>
+    <t>com.linecorp.b612.android.activity.ActivityCamera</t>
+  </si>
+  <si>
+    <t>NOMO</t>
+  </si>
+  <si>
+    <t>nomo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blink.academy.nomo</t>
+  </si>
+  <si>
+    <t>com.blink.academy.nomo.ui.activity.splash.NomoSplashActivity</t>
+  </si>
+  <si>
+    <t>Faceu激萌</t>
+  </si>
+  <si>
+    <t>faceu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lemon.faceu</t>
+  </si>
+  <si>
+    <t>com.lemon.faceu.business.login.LoadingPageActivity</t>
+  </si>
+  <si>
+    <t>美颜相机</t>
+  </si>
+  <si>
+    <t>meiyan_camera</t>
+  </si>
+  <si>
+    <t>com.meitu.meiyancamera</t>
+  </si>
+  <si>
+    <t>com.meitu.meiyancamera.MyxjActivity</t>
+  </si>
+  <si>
+    <t>轻颜相机</t>
+  </si>
+  <si>
+    <t>light_beauty</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gorgeous.lite</t>
+  </si>
+  <si>
+    <t>com.light.beauty.login.LoadingPageActivity</t>
+  </si>
+  <si>
+    <t>美图秀秀</t>
+  </si>
+  <si>
+    <t>mtxx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mt.mtxx.mtxx</t>
+  </si>
+  <si>
+    <t>com.mt.mtxx.mtxx.TopViewActivity</t>
+  </si>
+  <si>
+    <t>天天P图</t>
+  </si>
+  <si>
+    <t>ttpic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.ttpic</t>
+  </si>
+  <si>
+    <t>com.tencent.ttpic.module.MainActivity</t>
+  </si>
+  <si>
+    <t>快图浏览</t>
+  </si>
+  <si>
+    <t>pic_folder</t>
+  </si>
+  <si>
+    <t>com.alensw.PicFolder</t>
+  </si>
+  <si>
+    <t>com.alensw.PicFolder.GalleryActivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3136,6 +3731,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3567,7 +4170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3575,6 +4178,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3896,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="D283" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7906,6 +8512,788 @@
         <v>12</v>
       </c>
     </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B236" t="s">
+        <v>907</v>
+      </c>
+      <c r="C236" t="s">
+        <v>908</v>
+      </c>
+      <c r="D236" t="s">
+        <v>909</v>
+      </c>
+      <c r="E236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>910</v>
+      </c>
+      <c r="B237" t="s">
+        <v>911</v>
+      </c>
+      <c r="C237" t="s">
+        <v>912</v>
+      </c>
+      <c r="D237" t="s">
+        <v>913</v>
+      </c>
+      <c r="E237" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>914</v>
+      </c>
+      <c r="B238" t="s">
+        <v>915</v>
+      </c>
+      <c r="C238" t="s">
+        <v>916</v>
+      </c>
+      <c r="D238" t="s">
+        <v>917</v>
+      </c>
+      <c r="E238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>918</v>
+      </c>
+      <c r="B239" t="s">
+        <v>919</v>
+      </c>
+      <c r="C239" t="s">
+        <v>920</v>
+      </c>
+      <c r="D239" t="s">
+        <v>921</v>
+      </c>
+      <c r="E239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>922</v>
+      </c>
+      <c r="B240" t="s">
+        <v>923</v>
+      </c>
+      <c r="C240" t="s">
+        <v>924</v>
+      </c>
+      <c r="D240" t="s">
+        <v>925</v>
+      </c>
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>926</v>
+      </c>
+      <c r="B241" t="s">
+        <v>927</v>
+      </c>
+      <c r="C241" t="s">
+        <v>928</v>
+      </c>
+      <c r="D241" t="s">
+        <v>929</v>
+      </c>
+      <c r="E241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>930</v>
+      </c>
+      <c r="B242" t="s">
+        <v>931</v>
+      </c>
+      <c r="C242" t="s">
+        <v>932</v>
+      </c>
+      <c r="D242" t="s">
+        <v>933</v>
+      </c>
+      <c r="E242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>934</v>
+      </c>
+      <c r="B243" t="s">
+        <v>935</v>
+      </c>
+      <c r="C243" t="s">
+        <v>936</v>
+      </c>
+      <c r="D243" t="s">
+        <v>937</v>
+      </c>
+      <c r="E243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>938</v>
+      </c>
+      <c r="B244" t="s">
+        <v>939</v>
+      </c>
+      <c r="C244" t="s">
+        <v>940</v>
+      </c>
+      <c r="D244" t="s">
+        <v>941</v>
+      </c>
+      <c r="E244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>942</v>
+      </c>
+      <c r="B245" t="s">
+        <v>943</v>
+      </c>
+      <c r="C245" t="s">
+        <v>944</v>
+      </c>
+      <c r="D245" t="s">
+        <v>945</v>
+      </c>
+      <c r="E245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>946</v>
+      </c>
+      <c r="B246" t="s">
+        <v>947</v>
+      </c>
+      <c r="C246" t="s">
+        <v>948</v>
+      </c>
+      <c r="D246" t="s">
+        <v>949</v>
+      </c>
+      <c r="E246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>950</v>
+      </c>
+      <c r="B247" t="s">
+        <v>951</v>
+      </c>
+      <c r="C247" t="s">
+        <v>952</v>
+      </c>
+      <c r="D247" t="s">
+        <v>953</v>
+      </c>
+      <c r="E247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>954</v>
+      </c>
+      <c r="B248" t="s">
+        <v>955</v>
+      </c>
+      <c r="C248" t="s">
+        <v>956</v>
+      </c>
+      <c r="D248" t="s">
+        <v>957</v>
+      </c>
+      <c r="E248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>958</v>
+      </c>
+      <c r="B249" t="s">
+        <v>959</v>
+      </c>
+      <c r="C249" t="s">
+        <v>960</v>
+      </c>
+      <c r="D249" t="s">
+        <v>961</v>
+      </c>
+      <c r="E249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>962</v>
+      </c>
+      <c r="B250" t="s">
+        <v>963</v>
+      </c>
+      <c r="C250" t="s">
+        <v>964</v>
+      </c>
+      <c r="D250" t="s">
+        <v>965</v>
+      </c>
+      <c r="E250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>966</v>
+      </c>
+      <c r="B251" t="s">
+        <v>967</v>
+      </c>
+      <c r="C251" t="s">
+        <v>968</v>
+      </c>
+      <c r="D251" t="s">
+        <v>969</v>
+      </c>
+      <c r="E251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>970</v>
+      </c>
+      <c r="B252" t="s">
+        <v>971</v>
+      </c>
+      <c r="C252" t="s">
+        <v>972</v>
+      </c>
+      <c r="D252" t="s">
+        <v>973</v>
+      </c>
+      <c r="E252" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>974</v>
+      </c>
+      <c r="B253" t="s">
+        <v>975</v>
+      </c>
+      <c r="C253" t="s">
+        <v>976</v>
+      </c>
+      <c r="D253" t="s">
+        <v>977</v>
+      </c>
+      <c r="E253" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>978</v>
+      </c>
+      <c r="B254" t="s">
+        <v>979</v>
+      </c>
+      <c r="C254" t="s">
+        <v>980</v>
+      </c>
+      <c r="D254" t="s">
+        <v>981</v>
+      </c>
+      <c r="E254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>982</v>
+      </c>
+      <c r="B255" t="s">
+        <v>983</v>
+      </c>
+      <c r="C255" t="s">
+        <v>984</v>
+      </c>
+      <c r="D255" t="s">
+        <v>985</v>
+      </c>
+      <c r="E255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>986</v>
+      </c>
+      <c r="B256" t="s">
+        <v>987</v>
+      </c>
+      <c r="C256" t="s">
+        <v>988</v>
+      </c>
+      <c r="D256" t="s">
+        <v>989</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>990</v>
+      </c>
+      <c r="B257" t="s">
+        <v>991</v>
+      </c>
+      <c r="C257" t="s">
+        <v>992</v>
+      </c>
+      <c r="D257" t="s">
+        <v>993</v>
+      </c>
+      <c r="E257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>994</v>
+      </c>
+      <c r="B258" t="s">
+        <v>995</v>
+      </c>
+      <c r="C258" t="s">
+        <v>996</v>
+      </c>
+      <c r="D258" t="s">
+        <v>997</v>
+      </c>
+      <c r="E258" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>998</v>
+      </c>
+      <c r="B259" t="s">
+        <v>999</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E269" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E270" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E275" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E278" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E280" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E281" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D716EF-53B5-422A-85BB-14BD70B76456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EB45D-63E5-4EEB-93D7-3CF49EB6AD28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1652,9 +1652,6 @@
     <t>卡券</t>
   </si>
   <si>
-    <t>wallet</t>
-  </si>
-  <si>
     <t>com.oneplus.card</t>
   </si>
   <si>
@@ -3563,6 +3560,10 @@
   </si>
   <si>
     <t>com.alensw.PicFolder.GalleryActivity</t>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4504,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D283" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6279,7 +6280,7 @@
         <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
@@ -6579,13 +6580,13 @@
         <v>481</v>
       </c>
       <c r="B122" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C122" t="s">
         <v>482</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>483</v>
-      </c>
-      <c r="D122" t="s">
-        <v>484</v>
       </c>
       <c r="E122" t="s">
         <v>480</v>
@@ -6596,13 +6597,13 @@
         <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C123" t="s">
         <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E123" t="s">
         <v>480</v>
@@ -6610,16 +6611,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>486</v>
+      </c>
+      <c r="B124" t="s">
         <v>487</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>488</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>489</v>
-      </c>
-      <c r="D124" t="s">
-        <v>490</v>
       </c>
       <c r="E124" t="s">
         <v>480</v>
@@ -6630,7 +6631,7 @@
         <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
@@ -6647,13 +6648,13 @@
         <v>230</v>
       </c>
       <c r="B126" t="s">
+        <v>491</v>
+      </c>
+      <c r="C126" t="s">
         <v>492</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>493</v>
-      </c>
-      <c r="D126" t="s">
-        <v>494</v>
       </c>
       <c r="E126" t="s">
         <v>480</v>
@@ -6661,16 +6662,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B127" t="s">
         <v>375</v>
       </c>
       <c r="C127" t="s">
+        <v>495</v>
+      </c>
+      <c r="D127" t="s">
         <v>496</v>
-      </c>
-      <c r="D127" t="s">
-        <v>497</v>
       </c>
       <c r="E127" t="s">
         <v>480</v>
@@ -6678,16 +6679,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>497</v>
+      </c>
+      <c r="B128" t="s">
         <v>498</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>499</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>500</v>
-      </c>
-      <c r="D128" t="s">
-        <v>501</v>
       </c>
       <c r="E128" t="s">
         <v>480</v>
@@ -6695,16 +6696,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>501</v>
+      </c>
+      <c r="B129" t="s">
         <v>502</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>503</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>504</v>
-      </c>
-      <c r="D129" t="s">
-        <v>505</v>
       </c>
       <c r="E129" t="s">
         <v>480</v>
@@ -6712,13 +6713,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>505</v>
+      </c>
+      <c r="B130" t="s">
         <v>506</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>507</v>
-      </c>
-      <c r="C130" t="s">
-        <v>508</v>
       </c>
       <c r="D130" t="s">
         <v>341</v>
@@ -6735,10 +6736,10 @@
         <v>260</v>
       </c>
       <c r="C131" t="s">
+        <v>508</v>
+      </c>
+      <c r="D131" t="s">
         <v>509</v>
-      </c>
-      <c r="D131" t="s">
-        <v>510</v>
       </c>
       <c r="E131" t="s">
         <v>480</v>
@@ -6746,16 +6747,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>510</v>
+      </c>
+      <c r="B132" t="s">
         <v>511</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>512</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>513</v>
-      </c>
-      <c r="D132" t="s">
-        <v>514</v>
       </c>
       <c r="E132" t="s">
         <v>480</v>
@@ -6763,16 +6764,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>514</v>
+      </c>
+      <c r="B133" t="s">
         <v>515</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>516</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>517</v>
-      </c>
-      <c r="D133" t="s">
-        <v>518</v>
       </c>
       <c r="E133" t="s">
         <v>480</v>
@@ -6780,373 +6781,373 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>518</v>
+      </c>
+      <c r="B134" t="s">
         <v>519</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>520</v>
-      </c>
-      <c r="C134" t="s">
-        <v>521</v>
       </c>
       <c r="D134" t="s">
         <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>521</v>
+      </c>
+      <c r="B135" t="s">
         <v>522</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>523</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>524</v>
       </c>
-      <c r="D135" t="s">
-        <v>525</v>
-      </c>
       <c r="E135" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>525</v>
+      </c>
+      <c r="B136" t="s">
         <v>526</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>527</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>528</v>
       </c>
-      <c r="D136" t="s">
-        <v>529</v>
-      </c>
       <c r="E136" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>529</v>
+      </c>
+      <c r="B137" t="s">
+        <v>529</v>
+      </c>
+      <c r="C137" t="s">
         <v>530</v>
       </c>
-      <c r="B137" t="s">
-        <v>530</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>531</v>
       </c>
-      <c r="D137" t="s">
-        <v>532</v>
-      </c>
       <c r="E137" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>532</v>
+      </c>
+      <c r="B138" t="s">
         <v>533</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>534</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>535</v>
       </c>
-      <c r="D138" t="s">
-        <v>536</v>
-      </c>
       <c r="E138" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>536</v>
+      </c>
+      <c r="B139" t="s">
         <v>537</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>538</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>539</v>
       </c>
-      <c r="D139" t="s">
-        <v>540</v>
-      </c>
       <c r="E139" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>540</v>
+      </c>
+      <c r="B140" t="s">
         <v>541</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>542</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>543</v>
       </c>
-      <c r="D140" t="s">
-        <v>544</v>
-      </c>
       <c r="E140" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>544</v>
+      </c>
+      <c r="B141" t="s">
         <v>545</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>546</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>547</v>
       </c>
-      <c r="D141" t="s">
-        <v>548</v>
-      </c>
       <c r="E141" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>548</v>
+      </c>
+      <c r="B142" t="s">
         <v>549</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>550</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>551</v>
       </c>
-      <c r="D142" t="s">
-        <v>552</v>
-      </c>
       <c r="E142" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>552</v>
+      </c>
+      <c r="B143" t="s">
+        <v>552</v>
+      </c>
+      <c r="C143" t="s">
         <v>553</v>
       </c>
-      <c r="B143" t="s">
-        <v>553</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>554</v>
       </c>
-      <c r="D143" t="s">
-        <v>555</v>
-      </c>
       <c r="E143" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>555</v>
+      </c>
+      <c r="B144" t="s">
         <v>556</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>557</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>558</v>
       </c>
-      <c r="D144" t="s">
-        <v>559</v>
-      </c>
       <c r="E144" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>559</v>
+      </c>
+      <c r="B145" t="s">
         <v>560</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>561</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>562</v>
       </c>
-      <c r="D145" t="s">
-        <v>563</v>
-      </c>
       <c r="E145" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>563</v>
+      </c>
+      <c r="B146" t="s">
         <v>564</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>565</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>566</v>
       </c>
-      <c r="D146" t="s">
-        <v>567</v>
-      </c>
       <c r="E146" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>567</v>
+      </c>
+      <c r="B147" t="s">
         <v>568</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>569</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>570</v>
       </c>
-      <c r="D147" t="s">
-        <v>571</v>
-      </c>
       <c r="E147" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>571</v>
+      </c>
+      <c r="B148" t="s">
         <v>572</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>573</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>574</v>
       </c>
-      <c r="D148" t="s">
-        <v>575</v>
-      </c>
       <c r="E148" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>575</v>
+      </c>
+      <c r="B149" t="s">
         <v>576</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>577</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>578</v>
       </c>
-      <c r="D149" t="s">
-        <v>579</v>
-      </c>
       <c r="E149" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>579</v>
+      </c>
+      <c r="B150" t="s">
+        <v>579</v>
+      </c>
+      <c r="C150" t="s">
         <v>580</v>
       </c>
-      <c r="B150" t="s">
-        <v>580</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>581</v>
       </c>
-      <c r="D150" t="s">
-        <v>582</v>
-      </c>
       <c r="E150" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>582</v>
+      </c>
+      <c r="B151" t="s">
+        <v>582</v>
+      </c>
+      <c r="C151" t="s">
         <v>583</v>
-      </c>
-      <c r="B151" t="s">
-        <v>583</v>
-      </c>
-      <c r="C151" t="s">
-        <v>584</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>584</v>
+      </c>
+      <c r="B152" t="s">
         <v>585</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>586</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>587</v>
       </c>
-      <c r="D152" t="s">
-        <v>588</v>
-      </c>
       <c r="E152" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>588</v>
+      </c>
+      <c r="B153" t="s">
+        <v>588</v>
+      </c>
+      <c r="C153" t="s">
         <v>589</v>
       </c>
-      <c r="B153" t="s">
-        <v>589</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>590</v>
       </c>
-      <c r="D153" t="s">
-        <v>591</v>
-      </c>
       <c r="E153" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>591</v>
+      </c>
+      <c r="B154" t="s">
         <v>592</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>593</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>594</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>595</v>
-      </c>
-      <c r="E154" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>596</v>
+      </c>
+      <c r="B155" t="s">
         <v>597</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>598</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>599</v>
-      </c>
-      <c r="D155" t="s">
-        <v>600</v>
       </c>
       <c r="E155" t="s">
         <v>480</v>
@@ -7154,16 +7155,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>600</v>
+      </c>
+      <c r="B156" t="s">
         <v>601</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>602</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>603</v>
-      </c>
-      <c r="D156" t="s">
-        <v>604</v>
       </c>
       <c r="E156" t="s">
         <v>45</v>
@@ -7171,13 +7172,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>604</v>
+      </c>
+      <c r="B157" t="s">
         <v>605</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>606</v>
-      </c>
-      <c r="C157" t="s">
-        <v>607</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
@@ -7188,16 +7189,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>607</v>
+      </c>
+      <c r="B158" t="s">
         <v>608</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>609</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>610</v>
-      </c>
-      <c r="D158" t="s">
-        <v>611</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
@@ -7205,16 +7206,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>611</v>
+      </c>
+      <c r="B159" t="s">
         <v>612</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>613</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>614</v>
-      </c>
-      <c r="D159" t="s">
-        <v>615</v>
       </c>
       <c r="E159" t="s">
         <v>45</v>
@@ -7222,16 +7223,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>615</v>
+      </c>
+      <c r="B160" t="s">
         <v>616</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>617</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>618</v>
-      </c>
-      <c r="D160" t="s">
-        <v>619</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
@@ -7239,16 +7240,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>619</v>
+      </c>
+      <c r="B161" t="s">
         <v>620</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>621</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>622</v>
-      </c>
-      <c r="D161" t="s">
-        <v>623</v>
       </c>
       <c r="E161" t="s">
         <v>45</v>
@@ -7256,16 +7257,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>623</v>
+      </c>
+      <c r="B162" t="s">
         <v>624</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>625</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>626</v>
-      </c>
-      <c r="D162" t="s">
-        <v>627</v>
       </c>
       <c r="E162" t="s">
         <v>45</v>
@@ -7273,16 +7274,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>627</v>
+      </c>
+      <c r="B163" t="s">
+        <v>627</v>
+      </c>
+      <c r="C163" t="s">
         <v>628</v>
       </c>
-      <c r="B163" t="s">
-        <v>628</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>629</v>
-      </c>
-      <c r="D163" t="s">
-        <v>630</v>
       </c>
       <c r="E163" t="s">
         <v>45</v>
@@ -7290,16 +7291,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>630</v>
+      </c>
+      <c r="B164" t="s">
         <v>631</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>632</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>633</v>
-      </c>
-      <c r="D164" t="s">
-        <v>634</v>
       </c>
       <c r="E164" t="s">
         <v>45</v>
@@ -7307,16 +7308,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>634</v>
+      </c>
+      <c r="B165" t="s">
         <v>635</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>636</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>637</v>
-      </c>
-      <c r="D165" t="s">
-        <v>638</v>
       </c>
       <c r="E165" t="s">
         <v>45</v>
@@ -7324,16 +7325,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>638</v>
+      </c>
+      <c r="B166" t="s">
         <v>639</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>640</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>641</v>
-      </c>
-      <c r="D166" t="s">
-        <v>642</v>
       </c>
       <c r="E166" t="s">
         <v>45</v>
@@ -7341,16 +7342,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>642</v>
+      </c>
+      <c r="B167" t="s">
+        <v>642</v>
+      </c>
+      <c r="C167" t="s">
         <v>643</v>
       </c>
-      <c r="B167" t="s">
-        <v>643</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>644</v>
-      </c>
-      <c r="D167" t="s">
-        <v>645</v>
       </c>
       <c r="E167" t="s">
         <v>45</v>
@@ -7358,16 +7359,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>645</v>
+      </c>
+      <c r="B168" t="s">
         <v>646</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>647</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>648</v>
-      </c>
-      <c r="D168" t="s">
-        <v>649</v>
       </c>
       <c r="E168" t="s">
         <v>45</v>
@@ -7375,16 +7376,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>649</v>
+      </c>
+      <c r="B169" t="s">
+        <v>649</v>
+      </c>
+      <c r="C169" t="s">
         <v>650</v>
       </c>
-      <c r="B169" t="s">
-        <v>650</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>651</v>
-      </c>
-      <c r="D169" t="s">
-        <v>652</v>
       </c>
       <c r="E169" t="s">
         <v>45</v>
@@ -7392,16 +7393,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>652</v>
+      </c>
+      <c r="B170" t="s">
+        <v>652</v>
+      </c>
+      <c r="C170" t="s">
         <v>653</v>
       </c>
-      <c r="B170" t="s">
-        <v>653</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>654</v>
-      </c>
-      <c r="D170" t="s">
-        <v>655</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
@@ -7409,16 +7410,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>655</v>
+      </c>
+      <c r="B171" t="s">
+        <v>655</v>
+      </c>
+      <c r="C171" t="s">
         <v>656</v>
       </c>
-      <c r="B171" t="s">
-        <v>656</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>657</v>
-      </c>
-      <c r="D171" t="s">
-        <v>658</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
@@ -7426,16 +7427,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>658</v>
+      </c>
+      <c r="B172" t="s">
         <v>659</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>660</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>661</v>
-      </c>
-      <c r="D172" t="s">
-        <v>662</v>
       </c>
       <c r="E172" t="s">
         <v>45</v>
@@ -7443,16 +7444,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>662</v>
+      </c>
+      <c r="B173" t="s">
         <v>663</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>664</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>665</v>
-      </c>
-      <c r="D173" t="s">
-        <v>666</v>
       </c>
       <c r="E173" t="s">
         <v>45</v>
@@ -7460,16 +7461,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>666</v>
+      </c>
+      <c r="B174" t="s">
         <v>667</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>668</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>669</v>
-      </c>
-      <c r="D174" t="s">
-        <v>670</v>
       </c>
       <c r="E174" t="s">
         <v>45</v>
@@ -7477,16 +7478,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>670</v>
+      </c>
+      <c r="B175" t="s">
         <v>671</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>672</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>673</v>
-      </c>
-      <c r="D175" t="s">
-        <v>674</v>
       </c>
       <c r="E175" t="s">
         <v>45</v>
@@ -7494,16 +7495,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>674</v>
+      </c>
+      <c r="B176" t="s">
         <v>675</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>676</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>677</v>
-      </c>
-      <c r="D176" t="s">
-        <v>678</v>
       </c>
       <c r="E176" t="s">
         <v>45</v>
@@ -7511,16 +7512,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>678</v>
+      </c>
+      <c r="B177" t="s">
+        <v>678</v>
+      </c>
+      <c r="C177" t="s">
         <v>679</v>
       </c>
-      <c r="B177" t="s">
-        <v>679</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>680</v>
-      </c>
-      <c r="D177" t="s">
-        <v>681</v>
       </c>
       <c r="E177" t="s">
         <v>45</v>
@@ -7528,16 +7529,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>681</v>
+      </c>
+      <c r="B178" t="s">
+        <v>681</v>
+      </c>
+      <c r="C178" t="s">
         <v>682</v>
       </c>
-      <c r="B178" t="s">
-        <v>682</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>683</v>
-      </c>
-      <c r="D178" t="s">
-        <v>684</v>
       </c>
       <c r="E178" t="s">
         <v>45</v>
@@ -7545,16 +7546,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>684</v>
+      </c>
+      <c r="B179" t="s">
         <v>685</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>686</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>687</v>
-      </c>
-      <c r="D179" t="s">
-        <v>688</v>
       </c>
       <c r="E179" t="s">
         <v>45</v>
@@ -7562,16 +7563,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>688</v>
+      </c>
+      <c r="B180" t="s">
         <v>689</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>690</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>691</v>
-      </c>
-      <c r="D180" t="s">
-        <v>692</v>
       </c>
       <c r="E180" t="s">
         <v>45</v>
@@ -7579,16 +7580,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>692</v>
+      </c>
+      <c r="B181" t="s">
         <v>693</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>694</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>695</v>
-      </c>
-      <c r="D181" t="s">
-        <v>696</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
@@ -7596,16 +7597,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>696</v>
+      </c>
+      <c r="B182" t="s">
         <v>697</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>698</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>699</v>
-      </c>
-      <c r="D182" t="s">
-        <v>700</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -7613,16 +7614,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>700</v>
+      </c>
+      <c r="B183" t="s">
         <v>701</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>702</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>703</v>
-      </c>
-      <c r="D183" t="s">
-        <v>704</v>
       </c>
       <c r="E183" t="s">
         <v>45</v>
@@ -7630,16 +7631,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>704</v>
+      </c>
+      <c r="B184" t="s">
         <v>705</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>706</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>707</v>
-      </c>
-      <c r="D184" t="s">
-        <v>708</v>
       </c>
       <c r="E184" t="s">
         <v>45</v>
@@ -7647,16 +7648,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>708</v>
+      </c>
+      <c r="B185" t="s">
         <v>709</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>710</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>711</v>
-      </c>
-      <c r="D185" t="s">
-        <v>712</v>
       </c>
       <c r="E185" t="s">
         <v>45</v>
@@ -7664,16 +7665,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>712</v>
+      </c>
+      <c r="B186" t="s">
         <v>713</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>714</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>715</v>
-      </c>
-      <c r="D186" t="s">
-        <v>716</v>
       </c>
       <c r="E186" t="s">
         <v>45</v>
@@ -7681,16 +7682,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>716</v>
+      </c>
+      <c r="B187" t="s">
         <v>717</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>718</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>719</v>
-      </c>
-      <c r="D187" t="s">
-        <v>720</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
@@ -7698,16 +7699,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>720</v>
+      </c>
+      <c r="B188" t="s">
         <v>721</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>722</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>723</v>
-      </c>
-      <c r="D188" t="s">
-        <v>724</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
@@ -7715,16 +7716,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>724</v>
+      </c>
+      <c r="B189" t="s">
         <v>725</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>726</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>727</v>
-      </c>
-      <c r="D189" t="s">
-        <v>728</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -7732,16 +7733,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>728</v>
+      </c>
+      <c r="B190" t="s">
         <v>729</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>730</v>
       </c>
-      <c r="C190" t="s">
-        <v>731</v>
-      </c>
       <c r="D190" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -7749,16 +7750,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>731</v>
+      </c>
+      <c r="B191" t="s">
         <v>732</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>733</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>734</v>
-      </c>
-      <c r="D191" t="s">
-        <v>735</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7766,16 +7767,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>735</v>
+      </c>
+      <c r="B192" t="s">
+        <v>735</v>
+      </c>
+      <c r="C192" t="s">
         <v>736</v>
       </c>
-      <c r="B192" t="s">
-        <v>736</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>737</v>
-      </c>
-      <c r="D192" t="s">
-        <v>738</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -7783,16 +7784,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>738</v>
+      </c>
+      <c r="B193" t="s">
         <v>739</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>740</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>741</v>
-      </c>
-      <c r="D193" t="s">
-        <v>742</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -7800,16 +7801,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>742</v>
+      </c>
+      <c r="B194" t="s">
         <v>743</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>744</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>745</v>
-      </c>
-      <c r="D194" t="s">
-        <v>746</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -7817,16 +7818,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>746</v>
+      </c>
+      <c r="B195" t="s">
         <v>747</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>748</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>749</v>
-      </c>
-      <c r="D195" t="s">
-        <v>750</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
@@ -7834,16 +7835,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>750</v>
+      </c>
+      <c r="B196" t="s">
         <v>751</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>752</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>753</v>
-      </c>
-      <c r="D196" t="s">
-        <v>754</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -7851,16 +7852,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>754</v>
+      </c>
+      <c r="B197" t="s">
         <v>755</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>756</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>757</v>
-      </c>
-      <c r="D197" t="s">
-        <v>758</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -7868,16 +7869,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>758</v>
+      </c>
+      <c r="B198" t="s">
         <v>759</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>760</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>761</v>
-      </c>
-      <c r="D198" t="s">
-        <v>762</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -7885,16 +7886,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>762</v>
+      </c>
+      <c r="B199" t="s">
         <v>763</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>764</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>765</v>
-      </c>
-      <c r="D199" t="s">
-        <v>766</v>
       </c>
       <c r="E199" t="s">
         <v>12</v>
@@ -7902,16 +7903,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>766</v>
+      </c>
+      <c r="B200" t="s">
         <v>767</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>768</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>769</v>
-      </c>
-      <c r="D200" t="s">
-        <v>770</v>
       </c>
       <c r="E200" t="s">
         <v>12</v>
@@ -7919,16 +7920,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>770</v>
+      </c>
+      <c r="B201" t="s">
         <v>771</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>772</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>773</v>
-      </c>
-      <c r="D201" t="s">
-        <v>774</v>
       </c>
       <c r="E201" t="s">
         <v>12</v>
@@ -7936,16 +7937,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>774</v>
+      </c>
+      <c r="B202" t="s">
         <v>775</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>776</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>777</v>
-      </c>
-      <c r="D202" t="s">
-        <v>778</v>
       </c>
       <c r="E202" t="s">
         <v>12</v>
@@ -7953,16 +7954,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>778</v>
+      </c>
+      <c r="B203" t="s">
         <v>779</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>780</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>781</v>
-      </c>
-      <c r="D203" t="s">
-        <v>782</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
@@ -7970,16 +7971,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>782</v>
+      </c>
+      <c r="B204" t="s">
         <v>783</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>784</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>785</v>
-      </c>
-      <c r="D204" t="s">
-        <v>786</v>
       </c>
       <c r="E204" t="s">
         <v>12</v>
@@ -7987,16 +7988,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>786</v>
+      </c>
+      <c r="B205" t="s">
         <v>787</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>788</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>789</v>
-      </c>
-      <c r="D205" t="s">
-        <v>790</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8004,16 +8005,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>790</v>
+      </c>
+      <c r="B206" t="s">
         <v>791</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>792</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>793</v>
-      </c>
-      <c r="D206" t="s">
-        <v>794</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -8021,16 +8022,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>794</v>
+      </c>
+      <c r="B207" t="s">
         <v>795</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>796</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>797</v>
-      </c>
-      <c r="D207" t="s">
-        <v>798</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
@@ -8038,16 +8039,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>798</v>
+      </c>
+      <c r="B208" t="s">
         <v>799</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>800</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>801</v>
-      </c>
-      <c r="D208" t="s">
-        <v>802</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -8055,16 +8056,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>802</v>
+      </c>
+      <c r="B209" t="s">
         <v>803</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>804</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>805</v>
-      </c>
-      <c r="D209" t="s">
-        <v>806</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -8072,16 +8073,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>806</v>
+      </c>
+      <c r="B210" t="s">
         <v>807</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>808</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>809</v>
-      </c>
-      <c r="D210" t="s">
-        <v>810</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
@@ -8089,16 +8090,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>810</v>
+      </c>
+      <c r="B211" t="s">
         <v>811</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>812</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>813</v>
-      </c>
-      <c r="D211" t="s">
-        <v>814</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
@@ -8106,16 +8107,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>814</v>
+      </c>
+      <c r="B212" t="s">
         <v>815</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>816</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>817</v>
-      </c>
-      <c r="D212" t="s">
-        <v>818</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8123,16 +8124,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>818</v>
+      </c>
+      <c r="B213" t="s">
         <v>819</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>820</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>821</v>
-      </c>
-      <c r="D213" t="s">
-        <v>822</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
@@ -8140,16 +8141,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>822</v>
+      </c>
+      <c r="B214" t="s">
         <v>823</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>824</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>825</v>
-      </c>
-      <c r="D214" t="s">
-        <v>826</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
@@ -8157,16 +8158,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>826</v>
+      </c>
+      <c r="B215" t="s">
         <v>827</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>828</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>829</v>
-      </c>
-      <c r="D215" t="s">
-        <v>830</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
@@ -8174,16 +8175,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>830</v>
+      </c>
+      <c r="B216" t="s">
         <v>831</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>832</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>833</v>
-      </c>
-      <c r="D216" t="s">
-        <v>834</v>
       </c>
       <c r="E216" t="s">
         <v>12</v>
@@ -8191,16 +8192,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>834</v>
+      </c>
+      <c r="B217" t="s">
         <v>835</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>836</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>837</v>
-      </c>
-      <c r="D217" t="s">
-        <v>838</v>
       </c>
       <c r="E217" t="s">
         <v>12</v>
@@ -8208,16 +8209,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>838</v>
+      </c>
+      <c r="B218" t="s">
         <v>839</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>840</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>841</v>
-      </c>
-      <c r="D218" t="s">
-        <v>842</v>
       </c>
       <c r="E218" t="s">
         <v>12</v>
@@ -8225,16 +8226,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>842</v>
+      </c>
+      <c r="B219" t="s">
         <v>843</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>844</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>845</v>
-      </c>
-      <c r="D219" t="s">
-        <v>846</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8242,13 +8243,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>846</v>
+      </c>
+      <c r="B220" t="s">
         <v>847</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>848</v>
-      </c>
-      <c r="C220" t="s">
-        <v>849</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
@@ -8259,13 +8260,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>849</v>
+      </c>
+      <c r="B221" t="s">
         <v>850</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>851</v>
-      </c>
-      <c r="C221" t="s">
-        <v>852</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -8276,16 +8277,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>852</v>
+      </c>
+      <c r="B222" t="s">
         <v>853</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>854</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>855</v>
-      </c>
-      <c r="D222" t="s">
-        <v>856</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
@@ -8293,16 +8294,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>856</v>
+      </c>
+      <c r="B223" t="s">
         <v>857</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>858</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>859</v>
-      </c>
-      <c r="D223" t="s">
-        <v>860</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
@@ -8310,16 +8311,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>860</v>
+      </c>
+      <c r="B224" t="s">
         <v>861</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>862</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>863</v>
-      </c>
-      <c r="D224" t="s">
-        <v>864</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
@@ -8327,16 +8328,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>864</v>
+      </c>
+      <c r="B225" t="s">
         <v>865</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>866</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>867</v>
-      </c>
-      <c r="D225" t="s">
-        <v>868</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
@@ -8344,16 +8345,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>868</v>
+      </c>
+      <c r="B226" t="s">
+        <v>868</v>
+      </c>
+      <c r="C226" t="s">
         <v>869</v>
       </c>
-      <c r="B226" t="s">
-        <v>869</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>870</v>
-      </c>
-      <c r="D226" t="s">
-        <v>871</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8361,16 +8362,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>871</v>
+      </c>
+      <c r="B227" t="s">
+        <v>871</v>
+      </c>
+      <c r="C227" t="s">
         <v>872</v>
       </c>
-      <c r="B227" t="s">
-        <v>872</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>873</v>
-      </c>
-      <c r="D227" t="s">
-        <v>874</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
@@ -8378,16 +8379,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>874</v>
+      </c>
+      <c r="B228" t="s">
+        <v>874</v>
+      </c>
+      <c r="C228" t="s">
         <v>875</v>
       </c>
-      <c r="B228" t="s">
-        <v>875</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>876</v>
-      </c>
-      <c r="D228" t="s">
-        <v>877</v>
       </c>
       <c r="E228" t="s">
         <v>12</v>
@@ -8395,16 +8396,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>877</v>
+      </c>
+      <c r="B229" t="s">
+        <v>877</v>
+      </c>
+      <c r="C229" t="s">
         <v>878</v>
       </c>
-      <c r="B229" t="s">
-        <v>878</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>879</v>
-      </c>
-      <c r="D229" t="s">
-        <v>880</v>
       </c>
       <c r="E229" t="s">
         <v>12</v>
@@ -8412,16 +8413,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>880</v>
+      </c>
+      <c r="B230" t="s">
         <v>881</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>882</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>883</v>
-      </c>
-      <c r="D230" t="s">
-        <v>884</v>
       </c>
       <c r="E230" t="s">
         <v>12</v>
@@ -8429,16 +8430,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>884</v>
+      </c>
+      <c r="B231" t="s">
         <v>885</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>886</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>887</v>
-      </c>
-      <c r="D231" t="s">
-        <v>888</v>
       </c>
       <c r="E231" t="s">
         <v>12</v>
@@ -8446,16 +8447,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>888</v>
+      </c>
+      <c r="B232" t="s">
         <v>889</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>890</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>891</v>
-      </c>
-      <c r="D232" t="s">
-        <v>892</v>
       </c>
       <c r="E232" t="s">
         <v>12</v>
@@ -8463,16 +8464,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>892</v>
+      </c>
+      <c r="B233" t="s">
         <v>893</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>894</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>895</v>
-      </c>
-      <c r="D233" t="s">
-        <v>896</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -8480,16 +8481,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>896</v>
+      </c>
+      <c r="B234" t="s">
         <v>897</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>898</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>899</v>
-      </c>
-      <c r="D234" t="s">
-        <v>900</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -8497,16 +8498,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>900</v>
+      </c>
+      <c r="B235" t="s">
         <v>901</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>902</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>903</v>
-      </c>
-      <c r="D235" t="s">
-        <v>904</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -8514,16 +8515,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B236" t="s">
         <v>906</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>907</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>908</v>
-      </c>
-      <c r="D236" t="s">
-        <v>909</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
@@ -8531,16 +8532,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>909</v>
+      </c>
+      <c r="B237" t="s">
         <v>910</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>911</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>912</v>
-      </c>
-      <c r="D237" t="s">
-        <v>913</v>
       </c>
       <c r="E237" t="s">
         <v>12</v>
@@ -8548,16 +8549,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>913</v>
+      </c>
+      <c r="B238" t="s">
         <v>914</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>915</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>916</v>
-      </c>
-      <c r="D238" t="s">
-        <v>917</v>
       </c>
       <c r="E238" t="s">
         <v>12</v>
@@ -8565,16 +8566,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>917</v>
+      </c>
+      <c r="B239" t="s">
         <v>918</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>919</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>920</v>
-      </c>
-      <c r="D239" t="s">
-        <v>921</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -8582,16 +8583,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>921</v>
+      </c>
+      <c r="B240" t="s">
         <v>922</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>923</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>924</v>
-      </c>
-      <c r="D240" t="s">
-        <v>925</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -8599,16 +8600,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>925</v>
+      </c>
+      <c r="B241" t="s">
         <v>926</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>927</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>928</v>
-      </c>
-      <c r="D241" t="s">
-        <v>929</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
@@ -8616,16 +8617,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>929</v>
+      </c>
+      <c r="B242" t="s">
         <v>930</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>931</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>932</v>
-      </c>
-      <c r="D242" t="s">
-        <v>933</v>
       </c>
       <c r="E242" t="s">
         <v>12</v>
@@ -8633,16 +8634,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>933</v>
+      </c>
+      <c r="B243" t="s">
         <v>934</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>935</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>936</v>
-      </c>
-      <c r="D243" t="s">
-        <v>937</v>
       </c>
       <c r="E243" t="s">
         <v>12</v>
@@ -8650,16 +8651,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>937</v>
+      </c>
+      <c r="B244" t="s">
         <v>938</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>939</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>940</v>
-      </c>
-      <c r="D244" t="s">
-        <v>941</v>
       </c>
       <c r="E244" t="s">
         <v>12</v>
@@ -8667,16 +8668,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>941</v>
+      </c>
+      <c r="B245" t="s">
         <v>942</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>943</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>944</v>
-      </c>
-      <c r="D245" t="s">
-        <v>945</v>
       </c>
       <c r="E245" t="s">
         <v>12</v>
@@ -8684,16 +8685,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>945</v>
+      </c>
+      <c r="B246" t="s">
         <v>946</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>947</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>948</v>
-      </c>
-      <c r="D246" t="s">
-        <v>949</v>
       </c>
       <c r="E246" t="s">
         <v>12</v>
@@ -8701,16 +8702,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>949</v>
+      </c>
+      <c r="B247" t="s">
         <v>950</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>951</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>952</v>
-      </c>
-      <c r="D247" t="s">
-        <v>953</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -8718,16 +8719,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>953</v>
+      </c>
+      <c r="B248" t="s">
         <v>954</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>955</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>956</v>
-      </c>
-      <c r="D248" t="s">
-        <v>957</v>
       </c>
       <c r="E248" t="s">
         <v>12</v>
@@ -8735,16 +8736,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>957</v>
+      </c>
+      <c r="B249" t="s">
         <v>958</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>959</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>960</v>
-      </c>
-      <c r="D249" t="s">
-        <v>961</v>
       </c>
       <c r="E249" t="s">
         <v>12</v>
@@ -8752,16 +8753,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>961</v>
+      </c>
+      <c r="B250" t="s">
         <v>962</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>963</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>964</v>
-      </c>
-      <c r="D250" t="s">
-        <v>965</v>
       </c>
       <c r="E250" t="s">
         <v>12</v>
@@ -8769,16 +8770,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>965</v>
+      </c>
+      <c r="B251" t="s">
         <v>966</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>967</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>968</v>
-      </c>
-      <c r="D251" t="s">
-        <v>969</v>
       </c>
       <c r="E251" t="s">
         <v>12</v>
@@ -8786,16 +8787,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>969</v>
+      </c>
+      <c r="B252" t="s">
         <v>970</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>971</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>972</v>
-      </c>
-      <c r="D252" t="s">
-        <v>973</v>
       </c>
       <c r="E252" t="s">
         <v>12</v>
@@ -8803,16 +8804,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>973</v>
+      </c>
+      <c r="B253" t="s">
         <v>974</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>975</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>976</v>
-      </c>
-      <c r="D253" t="s">
-        <v>977</v>
       </c>
       <c r="E253" t="s">
         <v>12</v>
@@ -8820,16 +8821,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>977</v>
+      </c>
+      <c r="B254" t="s">
         <v>978</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>979</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>980</v>
-      </c>
-      <c r="D254" t="s">
-        <v>981</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -8837,16 +8838,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>981</v>
+      </c>
+      <c r="B255" t="s">
         <v>982</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>983</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>984</v>
-      </c>
-      <c r="D255" t="s">
-        <v>985</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
@@ -8854,16 +8855,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>985</v>
+      </c>
+      <c r="B256" t="s">
         <v>986</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>987</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>988</v>
-      </c>
-      <c r="D256" t="s">
-        <v>989</v>
       </c>
       <c r="E256" t="s">
         <v>12</v>
@@ -8871,16 +8872,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>989</v>
+      </c>
+      <c r="B257" t="s">
         <v>990</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>991</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>992</v>
-      </c>
-      <c r="D257" t="s">
-        <v>993</v>
       </c>
       <c r="E257" t="s">
         <v>12</v>
@@ -8888,16 +8889,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>993</v>
+      </c>
+      <c r="B258" t="s">
         <v>994</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>995</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>996</v>
-      </c>
-      <c r="D258" t="s">
-        <v>997</v>
       </c>
       <c r="E258" t="s">
         <v>12</v>
@@ -8905,16 +8906,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>997</v>
+      </c>
+      <c r="B259" t="s">
         <v>998</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>999</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>1000</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1001</v>
       </c>
       <c r="E259" t="s">
         <v>12</v>
@@ -8922,16 +8923,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B260" t="s">
         <v>1002</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>1003</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>1004</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1005</v>
       </c>
       <c r="E260" t="s">
         <v>12</v>
@@ -8939,16 +8940,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B261" t="s">
         <v>1006</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>1007</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>1008</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1009</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -8956,16 +8957,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B262" t="s">
         <v>1010</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>1011</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>1012</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1013</v>
       </c>
       <c r="E262" t="s">
         <v>12</v>
@@ -8973,16 +8974,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B263" t="s">
         <v>1014</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>1015</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>1016</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1017</v>
       </c>
       <c r="E263" t="s">
         <v>12</v>
@@ -8990,16 +8991,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B264" t="s">
         <v>1018</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>1019</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>1020</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1021</v>
       </c>
       <c r="E264" t="s">
         <v>12</v>
@@ -9007,16 +9008,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B265" t="s">
         <v>1022</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>1023</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>1024</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1025</v>
       </c>
       <c r="E265" t="s">
         <v>12</v>
@@ -9024,16 +9025,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B266" t="s">
         <v>1026</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>1027</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>1028</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1029</v>
       </c>
       <c r="E266" t="s">
         <v>12</v>
@@ -9041,16 +9042,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B267" t="s">
         <v>1030</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>1031</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>1032</v>
-      </c>
-      <c r="D267" t="s">
-        <v>1033</v>
       </c>
       <c r="E267" t="s">
         <v>12</v>
@@ -9058,16 +9059,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B268" t="s">
         <v>1034</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>1035</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>1036</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1037</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9075,16 +9076,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B269" t="s">
         <v>1038</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>1039</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>1040</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1041</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -9092,16 +9093,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B270" t="s">
         <v>1042</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>1043</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>1044</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1045</v>
       </c>
       <c r="E270" t="s">
         <v>12</v>
@@ -9109,16 +9110,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B271" t="s">
         <v>1046</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>1047</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>1048</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1049</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -9126,16 +9127,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B272" t="s">
         <v>1050</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>1051</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>1052</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1053</v>
       </c>
       <c r="E272" t="s">
         <v>12</v>
@@ -9143,16 +9144,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B273" t="s">
         <v>1054</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>1055</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>1056</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1057</v>
       </c>
       <c r="E273" t="s">
         <v>12</v>
@@ -9160,16 +9161,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B274" t="s">
         <v>1058</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>1059</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>1060</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1061</v>
       </c>
       <c r="E274" t="s">
         <v>12</v>
@@ -9177,16 +9178,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B275" t="s">
         <v>1062</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>1063</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>1064</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1065</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9194,16 +9195,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B276" t="s">
         <v>1066</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>1067</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>1068</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1069</v>
       </c>
       <c r="E276" t="s">
         <v>12</v>
@@ -9211,16 +9212,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B277" t="s">
         <v>1070</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>1071</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>1072</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1073</v>
       </c>
       <c r="E277" t="s">
         <v>12</v>
@@ -9228,16 +9229,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B278" t="s">
         <v>1074</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>1075</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>1076</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1077</v>
       </c>
       <c r="E278" t="s">
         <v>12</v>
@@ -9245,16 +9246,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B279" t="s">
         <v>1078</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>1079</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>1080</v>
-      </c>
-      <c r="D279" t="s">
-        <v>1081</v>
       </c>
       <c r="E279" t="s">
         <v>12</v>
@@ -9262,16 +9263,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B280" t="s">
         <v>1082</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>1083</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>1084</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1085</v>
       </c>
       <c r="E280" t="s">
         <v>12</v>
@@ -9279,16 +9280,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B281" t="s">
         <v>1086</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>1087</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>1088</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1089</v>
       </c>
       <c r="E281" t="s">
         <v>12</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EB45D-63E5-4EEB-93D7-3CF49EB6AD28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D30319B-DA60-4223-8BA4-011118200E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1786,1783 +1786,1785 @@
     <t>电信营业厅</t>
   </si>
   <si>
+    <t>com.ct.client</t>
+  </si>
+  <si>
+    <t>com.ct.client.SplashActivity</t>
+  </si>
+  <si>
+    <t>cuto</t>
+  </si>
+  <si>
+    <t>com.sspai.cuto.android</t>
+  </si>
+  <si>
+    <t>com.sspai.cuto.android.ui.main.MainActivity</t>
+  </si>
+  <si>
+    <t>滴滴出行</t>
+  </si>
+  <si>
+    <t>didi</t>
+  </si>
+  <si>
+    <t>com.sdu.didi.psnger</t>
+  </si>
+  <si>
+    <t>com.didi.sdk.app.launch.DidiLoadDexActivity</t>
+  </si>
+  <si>
+    <t>高德地图</t>
+  </si>
+  <si>
+    <t>gaode_map</t>
+  </si>
+  <si>
+    <t>com.autonavi.minimap</t>
+  </si>
+  <si>
+    <t>com.autonavi.map.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>高铁管家</t>
+  </si>
+  <si>
+    <t>gtgj</t>
+  </si>
+  <si>
+    <t>com.gtgj.view</t>
+  </si>
+  <si>
+    <t>com.gtgj.view.LaunchActivity</t>
+  </si>
+  <si>
+    <t>虎扑</t>
+  </si>
+  <si>
+    <t>hupu</t>
+  </si>
+  <si>
+    <t>com.hupu.games</t>
+  </si>
+  <si>
+    <t>com.hupu.games.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>jingdong</t>
+  </si>
+  <si>
+    <t>com.jingdong.app.mall</t>
+  </si>
+  <si>
+    <t>com.jingdong.app.mall.main.MainActivity</t>
+  </si>
+  <si>
+    <t>miracles</t>
+  </si>
+  <si>
+    <t>com.amamiya.nanoiconpack.miracles</t>
+  </si>
+  <si>
+    <t>com.amamiya.nanoiconpack.miracles.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>摩拜单车</t>
+  </si>
+  <si>
+    <t>mobike</t>
+  </si>
+  <si>
+    <t>com.mobike.mobikeapp</t>
+  </si>
+  <si>
+    <t>com.mobike.mobikeapp.SplashActivity</t>
+  </si>
+  <si>
+    <t>网易邮箱大师</t>
+  </si>
+  <si>
+    <t>netease_mail</t>
+  </si>
+  <si>
+    <t>com.netease.mail</t>
+  </si>
+  <si>
+    <t>com.netease.mobimail.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>网易蜗牛读书</t>
+  </si>
+  <si>
+    <t>netease_snailread</t>
+  </si>
+  <si>
+    <t>com.netease.snailread</t>
+  </si>
+  <si>
+    <t>com.netease.snailread.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>网易严选</t>
+  </si>
+  <si>
+    <t>netease_yanxuan</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan.module.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>好奇心日报</t>
+  </si>
+  <si>
+    <t>qdaily</t>
+  </si>
+  <si>
+    <t>com.qdaily.ui</t>
+  </si>
+  <si>
+    <t>com.qdaily.ui.LauncherActivity</t>
+  </si>
+  <si>
+    <t>铁路12306</t>
+  </si>
+  <si>
+    <t>railway</t>
+  </si>
+  <si>
+    <t>com.MobileTicket</t>
+  </si>
+  <si>
+    <t>com.alipay.mobile.quinox.LauncherActivity</t>
+  </si>
+  <si>
+    <t>telegram</t>
+  </si>
+  <si>
+    <t>org.telegram.messenger</t>
+  </si>
+  <si>
+    <t>org.telegram.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>com.tencent.tim</t>
+  </si>
+  <si>
+    <t>手机天猫</t>
+  </si>
+  <si>
+    <t>tmall</t>
+  </si>
+  <si>
+    <t>com.tmall.wireless</t>
+  </si>
+  <si>
+    <t>com.tmall.wireless.splash.TMSplashActivity</t>
+  </si>
+  <si>
+    <t>waw</t>
+  </si>
+  <si>
+    <t>wwAww.icons</t>
+  </si>
+  <si>
+    <t>com.qigelong.lib.wAwiconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>知乎日报</t>
+  </si>
+  <si>
+    <t>zhihu_daily</t>
+  </si>
+  <si>
+    <t>com.zhihu.daily.android</t>
+  </si>
+  <si>
+    <t>com.zhihu.daily.android.activity.MainActivity_</t>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>com.android.contacts</t>
+  </si>
+  <si>
+    <t>com.oneplus.contacts.activities.OPPeopleActivity</t>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+  </si>
+  <si>
+    <t>iqiyi</t>
+  </si>
+  <si>
+    <t>com.qiyi.video</t>
+  </si>
+  <si>
+    <t>com.qiyi.video.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>com.android.browser</t>
+  </si>
+  <si>
+    <t>下厨房</t>
+  </si>
+  <si>
+    <t>xiachufang</t>
+  </si>
+  <si>
+    <t>com.xiachufang</t>
+  </si>
+  <si>
+    <t>com.xiachufang.activity.StartPageActivity</t>
+  </si>
+  <si>
+    <t>饿了么</t>
+  </si>
+  <si>
+    <t>ele</t>
+  </si>
+  <si>
+    <t>me.ele</t>
+  </si>
+  <si>
+    <t>me.ele.Launcher</t>
+  </si>
+  <si>
+    <t>盒马</t>
+  </si>
+  <si>
+    <t>hippo</t>
+  </si>
+  <si>
+    <t>com.wudaokou.hippo</t>
+  </si>
+  <si>
+    <t>com.wudaokou.hippo.launcher.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>芒果TV</t>
+  </si>
+  <si>
+    <t>hunantv</t>
+  </si>
+  <si>
+    <t>com.hunantv.imgo.activity</t>
+  </si>
+  <si>
+    <t>com.hunantv.imgo.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>猫眼</t>
+  </si>
+  <si>
+    <t>maoyan</t>
+  </si>
+  <si>
+    <t>com.sankuai.movie</t>
+  </si>
+  <si>
+    <t>com.sankuai.movie.welcome.Welcome</t>
+  </si>
+  <si>
+    <t>meeye</t>
+  </si>
+  <si>
+    <t>com.yeyebbc.meeye.iconpack</t>
+  </si>
+  <si>
+    <t>com.yeyebbc.meeye.iconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>大众点评</t>
+  </si>
+  <si>
+    <t>dianping</t>
+  </si>
+  <si>
+    <t>com.dianping.v1</t>
+  </si>
+  <si>
+    <t>com.dianping.main.guide.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>美团外卖</t>
+  </si>
+  <si>
+    <t>meituan_takeout</t>
+  </si>
+  <si>
+    <t>com.sankuai.meituan.takeoutnew</t>
+  </si>
+  <si>
+    <t>com.sankuai.meituan.takeoutnew.ui.page.boot.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>米家</t>
+  </si>
+  <si>
+    <t>mijia</t>
+  </si>
+  <si>
+    <t>com.xiaomi.smarthome</t>
+  </si>
+  <si>
+    <t>com.xiaomi.smarthome.SmartHomeMainActivity</t>
+  </si>
+  <si>
+    <t>oblatum</t>
+  </si>
+  <si>
+    <t>com.oblatum.iconpack</t>
+  </si>
+  <si>
+    <t>com.oblatum.iconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>PP视频</t>
+  </si>
+  <si>
+    <t>pplive</t>
+  </si>
+  <si>
+    <t>com.pplive.androidphone</t>
+  </si>
+  <si>
+    <t>com.pplive.androidphone.ui.FirstActivity</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>me.morirain.dev.iconpack.pure</t>
+  </si>
+  <si>
+    <t>me.morirain.dev.iconpack.pure.MainActivity</t>
+  </si>
+  <si>
+    <t>shadowsocks</t>
+  </si>
+  <si>
+    <t>com.github.shadowsocks</t>
+  </si>
+  <si>
+    <t>com.github.shadowsocks.MainActivity</t>
+  </si>
+  <si>
+    <t>sorcery</t>
+  </si>
+  <si>
+    <t>com.sorcerer.sorcery.iconpack</t>
+  </si>
+  <si>
+    <t>com.sorcerer.sorcery.iconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>哈啰出行</t>
+  </si>
+  <si>
+    <t>hellobike</t>
+  </si>
+  <si>
+    <t>com.jingyao.easybike</t>
+  </si>
+  <si>
+    <t>com.hellobike.atlas.business.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>马蜂窝旅游</t>
+  </si>
+  <si>
+    <t>mfw</t>
+  </si>
+  <si>
+    <t>com.mfw.roadbook</t>
+  </si>
+  <si>
+    <t>com.mfw.roadbook.main.StartActivity</t>
+  </si>
+  <si>
+    <t>VLC</t>
+  </si>
+  <si>
+    <t>vlc</t>
+  </si>
+  <si>
+    <t>org.videolan.vlc</t>
+  </si>
+  <si>
+    <t>org.videolan.vlc.StartActivity</t>
+  </si>
+  <si>
+    <t>虾米音乐</t>
+  </si>
+  <si>
+    <t>xiami</t>
+  </si>
+  <si>
+    <t>fm.xiami.main</t>
+  </si>
+  <si>
+    <t>fm.xiami.main.SplashActivity</t>
+  </si>
+  <si>
+    <t>优酷</t>
+  </si>
+  <si>
+    <t>youku</t>
+  </si>
+  <si>
+    <t>com.youku.phone</t>
+  </si>
+  <si>
+    <t>com.youku.phone.ActivityWelcome</t>
+  </si>
+  <si>
+    <t>mistiness</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>person.cjy.iconpack.mistiness</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>person.cjy.iconpack.mistiness.MainActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>com.downloading.main.baiduyundownload</t>
+  </si>
+  <si>
+    <t>com.downloading.main.baiduyundownload.ui.S</t>
+  </si>
+  <si>
+    <t>一加社区</t>
+  </si>
+  <si>
+    <t>oneplus_bbs</t>
+  </si>
+  <si>
+    <t>com.oneplus.bbs</t>
+  </si>
+  <si>
+    <t>com.oneplus.bbs.ui.activity.PreStartActivity</t>
+  </si>
+  <si>
+    <t>百度输入法</t>
+  </si>
+  <si>
+    <t>baidu_ime</t>
+  </si>
+  <si>
+    <t>com.baidu.input</t>
+  </si>
+  <si>
+    <t>com.baidu.input.ImeAppMainActivity</t>
+  </si>
+  <si>
+    <t>搜狗输入法</t>
+  </si>
+  <si>
+    <t>sogou_ime</t>
+  </si>
+  <si>
+    <t>com.sohu.inputmethod.sogou</t>
+  </si>
+  <si>
+    <t>com.sohu.inputmethod.sogou.SogouIMELauncher</t>
+  </si>
+  <si>
+    <t>讯飞输入法</t>
+  </si>
+  <si>
+    <t>ifly_ime</t>
+  </si>
+  <si>
+    <t>com.iflytek.inputmethod</t>
+  </si>
+  <si>
+    <t>com.iflytek.inputmethod.LauncherActivity</t>
+  </si>
+  <si>
+    <t>喜马拉雅</t>
+  </si>
+  <si>
+    <t>ximalaya</t>
+  </si>
+  <si>
+    <t>com.ximalaya.ting.android</t>
+  </si>
+  <si>
+    <t>com.ximalaya.ting.android.host.activity.WelComeActivity</t>
+  </si>
+  <si>
+    <t>简书</t>
+  </si>
+  <si>
+    <t>jianshu</t>
+  </si>
+  <si>
+    <t>com.jianshu.haruki</t>
+  </si>
+  <si>
+    <t>com.baiji.jianshu.ui.splash.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>UC浏览器</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>com.UCMobile</t>
+  </si>
+  <si>
+    <t>com.UCMobile.main.UCMobile</t>
+  </si>
+  <si>
+    <t>火狐浏览器</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>org.mozilla.firefox</t>
+  </si>
+  <si>
+    <t>org.mozilla.firefox.App</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>com.android.chrome</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.chrome.Main</t>
+  </si>
+  <si>
+    <t>人人影视PRO</t>
+  </si>
+  <si>
+    <t>yyets</t>
+  </si>
+  <si>
+    <t>com.yyets.pro</t>
+  </si>
+  <si>
+    <t>com.yyets.zimuzu.SplashActivity</t>
+  </si>
+  <si>
+    <t>谷歌拼音输入法</t>
+  </si>
+  <si>
+    <t>google_pinyin_ime</t>
+  </si>
+  <si>
+    <t>com.google.android.inputmethod.pinyin</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.inputmethod.libs.framework.core.LauncherActivity</t>
+  </si>
+  <si>
+    <t>Gboard</t>
+  </si>
+  <si>
+    <t>gboard</t>
+  </si>
+  <si>
+    <t>com.google.android.inputmethod.latin</t>
+  </si>
+  <si>
+    <t>手心输入法</t>
+  </si>
+  <si>
+    <t>shouxin_input</t>
+  </si>
+  <si>
+    <t>com.xinshuru.inputmethod</t>
+  </si>
+  <si>
+    <t>com.xinshuru.inputmethod.FTInputSplashActivity</t>
+  </si>
+  <si>
+    <t>fooview</t>
+  </si>
+  <si>
+    <t>com.fooview.android.fooview</t>
+  </si>
+  <si>
+    <t>com.fooview.android.fooview.MainActivity</t>
+  </si>
+  <si>
+    <t>存储空间清理</t>
+  </si>
+  <si>
+    <t>sdclear</t>
+  </si>
+  <si>
+    <t>com.ktls.fileinfo</t>
+  </si>
+  <si>
+    <t>com.ktls.fileinfo.MainSDClear</t>
+  </si>
+  <si>
+    <t>ES文件管理器</t>
+  </si>
+  <si>
+    <t>estrongs</t>
+  </si>
+  <si>
+    <t>com.estrongs.android.pop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.estrongs.android.pop.app.openscreenad.NewSplashActivity</t>
+  </si>
+  <si>
+    <t>RE文件管理</t>
+  </si>
+  <si>
+    <t>root_explore</t>
+  </si>
+  <si>
+    <t>com.speedsoftware.rootexplorer</t>
+  </si>
+  <si>
+    <t>com.speedsoftware.rootexplorer.RootExplorer</t>
+  </si>
+  <si>
+    <t>SD Maid</t>
+  </si>
+  <si>
+    <t>sdm</t>
+  </si>
+  <si>
+    <t>eu.thedarken.sdm</t>
+  </si>
+  <si>
+    <t>eu.thedarken.sdm.main.ui.SDMMainActivity</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh.android.dir</t>
+  </si>
+  <si>
+    <t>kh.android.dir.ui.activities.MDMainActivity</t>
+  </si>
+  <si>
+    <t>广告快走开</t>
+  </si>
+  <si>
+    <t>adaway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.adaway</t>
+  </si>
+  <si>
+    <t>org.adaway.ui.BaseActivity</t>
+  </si>
+  <si>
+    <t>power clean</t>
+  </si>
+  <si>
+    <t>power_clean</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lionmobi.powerclean</t>
+  </si>
+  <si>
+    <t>com.lionmobi.powerclean.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>LBE安全大师</t>
+  </si>
+  <si>
+    <t>lbe_security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lbe.security</t>
+  </si>
+  <si>
+    <t>com.lbe.security.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>360卫士</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihoo_mobile_safe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qihoo360.mobilesafe</t>
+  </si>
+  <si>
+    <t>com.qihoo360.mobilesafe.ui.index.AppEnterActivity</t>
+  </si>
+  <si>
+    <t>360卫士极客版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihoo_antivirus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qihoo.antivirus</t>
+  </si>
+  <si>
+    <t>com.qihoo.antivirus.ui.index.AppEnterActivity</t>
+  </si>
+  <si>
+    <t>SuperSU</t>
+  </si>
+  <si>
+    <t>supersu</t>
+  </si>
+  <si>
+    <t>eu.chainfire.supersu</t>
+  </si>
+  <si>
+    <t>eu.chainfire.supersu.MainActivity-Material</t>
+  </si>
+  <si>
+    <t>KingRoot</t>
+  </si>
+  <si>
+    <t>kingroot</t>
+  </si>
+  <si>
+    <t>com.kingroot.kinguser</t>
+  </si>
+  <si>
+    <t>com.kingroot.kinguser.activitys.SliderMainActivity-Entry</t>
+  </si>
+  <si>
+    <t>钛备份</t>
+  </si>
+  <si>
+    <t>titanium_backup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.keramidas.TitaniumBackup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.keramidas.TitaniumBackup.MainActivity</t>
+  </si>
+  <si>
+    <t>安兔兔评测</t>
+  </si>
+  <si>
+    <t>antutu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.antutu.ABenchMark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.antutu.ABenchMark.ABenchMarkStart</t>
+  </si>
+  <si>
+    <t>My Android Tools</t>
+  </si>
+  <si>
+    <t>myandroidtools</t>
+  </si>
+  <si>
+    <t>cn.wq.myandroidtools</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.wq.myandroidtoolspro.MainActivity</t>
+  </si>
+  <si>
+    <t>Tasker</t>
+  </si>
+  <si>
+    <t>tasker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.dinglisch.android.taskerm</t>
+  </si>
+  <si>
+    <t>net.dinglisch.android.taskerm.Tasker</t>
+  </si>
+  <si>
+    <t>CPU-Z</t>
+  </si>
+  <si>
+    <t>cpu_z</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cpuid.cpu_z</t>
+  </si>
+  <si>
+    <t>com.cpuid.cpu_z.MainActivity</t>
+  </si>
+  <si>
+    <t>微软桌面</t>
+  </si>
+  <si>
+    <t>microsoft_launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.microsoft.launcher</t>
+  </si>
+  <si>
+    <t>com.microsoft.launcher.EntryActivity</t>
+  </si>
+  <si>
+    <t>星空视频壁纸</t>
+  </si>
+  <si>
+    <t>xingkong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyc.xk</t>
+  </si>
+  <si>
+    <t>yyc.xk.adview</t>
+  </si>
+  <si>
+    <t>total Launcher</t>
+  </si>
+  <si>
+    <t>total_launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.launcher2</t>
+  </si>
+  <si>
+    <t>com.ss.launcher2.MainActivity</t>
+  </si>
+  <si>
+    <t>POCO 桌面</t>
+  </si>
+  <si>
+    <t>poco_launcher</t>
+  </si>
+  <si>
+    <t>com.mi.android.globallauncher</t>
+  </si>
+  <si>
+    <t>com.miui.home.launcher.SplashActivity</t>
+  </si>
+  <si>
+    <t>一句</t>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>small.word</t>
+  </si>
+  <si>
+    <t>small.word.Main</t>
+  </si>
+  <si>
+    <t>一言</t>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hitokoto</t>
+  </si>
+  <si>
+    <t>com.hitokoto.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>远离手机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>away_from_mobile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lijianqiang12.silent</t>
+  </si>
+  <si>
+    <t>com.lijianqiang12.silent.mvvm.SplashActivity</t>
+  </si>
+  <si>
+    <t>火萤</t>
+  </si>
+  <si>
+    <t>huoying</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.znxh.hyhuo</t>
+  </si>
+  <si>
+    <t>com.znxh.hyhuo.t.d.WelcomeTActivity</t>
+  </si>
+  <si>
+    <t>搜图神器</t>
+  </si>
+  <si>
+    <t>search_picture_tool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.example.administrator.searchpicturetool</t>
+  </si>
+  <si>
+    <t>com.example.administrator.searchpicturetool.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>substratum主题管理</t>
+  </si>
+  <si>
+    <t>substratum</t>
+  </si>
+  <si>
+    <t>projekt.substratum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>projekt.substratum.LauncherActivity</t>
+  </si>
+  <si>
+    <t>QQ国际版</t>
+  </si>
+  <si>
+    <t>qqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mobileqqi</t>
+  </si>
+  <si>
+    <t>QQ轻聊版</t>
+  </si>
+  <si>
+    <t>qqlite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqlite</t>
+  </si>
+  <si>
+    <t>子弹短信</t>
+  </si>
+  <si>
+    <t>bullet_messenger</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bullet.messenger</t>
+  </si>
+  <si>
+    <t>com.smartisan.flashim.main.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>钉钉</t>
+  </si>
+  <si>
+    <t>dingtalk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.alibaba.android.rimet</t>
+  </si>
+  <si>
+    <t>com.alibaba.android.rimet.biz.SplashActivity</t>
+  </si>
+  <si>
+    <t>旺信</t>
+  </si>
+  <si>
+    <t>wangxin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.alibaba.mobileim</t>
+  </si>
+  <si>
+    <t>com.alibaba.mobileim.SplashActivity</t>
+  </si>
+  <si>
+    <t>易信</t>
+  </si>
+  <si>
+    <t>yixin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>im.yixin</t>
+  </si>
+  <si>
+    <t>im.yixin.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>com.hengye.share</t>
+  </si>
+  <si>
+    <t>com.hengye.share.Launcher</t>
+  </si>
+  <si>
+    <t>weico</t>
+  </si>
+  <si>
+    <t>com.eico.weico</t>
+  </si>
+  <si>
+    <t>com.eico.weico.activity.LogoActivity</t>
+  </si>
+  <si>
+    <t>emore</t>
+  </si>
+  <si>
+    <t>com.caij.emore</t>
+  </si>
+  <si>
+    <t>com.caij.emore.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>welike</t>
+  </si>
+  <si>
+    <t>com.sxy.ui</t>
+  </si>
+  <si>
+    <t>com.sxy.ui.view.MainActivity</t>
+  </si>
+  <si>
+    <t>微博极速版</t>
+  </si>
+  <si>
+    <t>weibo_lite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sina.weibolite</t>
+  </si>
+  <si>
+    <t>com.sina.weibo.lightning.main.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>QQ空间</t>
+  </si>
+  <si>
+    <t>qzone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qzone</t>
+  </si>
+  <si>
+    <t>com.tencent.sc.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>探探</t>
+  </si>
+  <si>
+    <t>tantan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.p1.mobile.putong</t>
+  </si>
+  <si>
+    <t>com.p1.mobile.putong.ui.splash.SplashAct</t>
+  </si>
+  <si>
+    <t>陌陌</t>
+  </si>
+  <si>
+    <t>momo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.immomo.momo</t>
+  </si>
+  <si>
+    <t>com.immomo.momo.android.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>唱吧</t>
+  </si>
+  <si>
+    <t>changba</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.changba</t>
+  </si>
+  <si>
+    <t>com.changba.splash.Welcome</t>
+  </si>
+  <si>
+    <t>微视</t>
+  </si>
+  <si>
+    <t>tencent_weishi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.weishi</t>
+  </si>
+  <si>
+    <t>com.tencent.oscar.module.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.ad.ActivityWelcomeMX</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.article.news</t>
+  </si>
+  <si>
+    <t>com.ss.android.article.news.activity.SplashBadgeActivity</t>
+  </si>
+  <si>
+    <t>掌阅</t>
+  </si>
+  <si>
+    <t>ireader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chaozh.iReaderFree</t>
+  </si>
+  <si>
+    <t>com.chaozh.iReader.ui.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>多看阅读</t>
+  </si>
+  <si>
+    <t>duokan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.duokan.reader</t>
+  </si>
+  <si>
+    <t>com.duokan.reader.DkReaderActivity</t>
+  </si>
+  <si>
+    <t>爱看阅读</t>
+  </si>
+  <si>
+    <t>loveread</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mdroid.read</t>
+  </si>
+  <si>
+    <t>com.mdroid.application.ui.welcome.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>静读天下专业版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonread</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.flyersoft.moonreaderp</t>
+  </si>
+  <si>
+    <t>com.flyersoft.moonreaderp.ActivityMain</t>
+  </si>
+  <si>
+    <t>Flipboard新闻</t>
+  </si>
+  <si>
+    <t>flipboard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipboard.cn</t>
+  </si>
+  <si>
+    <t>flipboard.activities.LaunchActivityAlias</t>
+  </si>
+  <si>
+    <t>网易新闻</t>
+  </si>
+  <si>
+    <t>netease_news</t>
+  </si>
+  <si>
+    <t>com.netease.newsreader.activity</t>
+  </si>
+  <si>
+    <t>com.netease.nr.biz.ad.AdActivity</t>
+  </si>
+  <si>
+    <t>ZAKER</t>
+  </si>
+  <si>
+    <t>zaker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.myzaker.ZAKER_Phone</t>
+  </si>
+  <si>
+    <t>com.myzaker.ZAKER_Phone.view.LogoActivity</t>
+  </si>
+  <si>
+    <t>界面新闻</t>
+  </si>
+  <si>
+    <t>jiemian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jiemian.news</t>
+  </si>
+  <si>
+    <t>com.jiemian.news.module.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰新闻</t>
+  </si>
+  <si>
+    <t>feng_news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ifeng.news2</t>
+  </si>
+  <si>
+    <t>com.ifeng.news2.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>澎湃新闻</t>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wondertek.paper</t>
+  </si>
+  <si>
+    <t>cn.thepaper.paper.ui.splash.welcome.LaunchActivity</t>
+  </si>
+  <si>
+    <t>布卡漫画</t>
+  </si>
+  <si>
+    <t>buka</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.ibuka.manga.ui</t>
+  </si>
+  <si>
+    <t>cn.ibuka.manga.ui.ActivityStartup</t>
+  </si>
+  <si>
+    <t>腾讯动漫</t>
+  </si>
+  <si>
+    <t>com.qq.ac.android</t>
+  </si>
+  <si>
+    <t>com.qq.ac.android.view.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>追追漫画</t>
+  </si>
+  <si>
+    <t>comiclover</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mandongkeji.comiclover</t>
+  </si>
+  <si>
+    <t>com.mandongkeji.comiclover.splash.SplashV2Activity</t>
+  </si>
+  <si>
+    <t>漫画岛</t>
+  </si>
+  <si>
+    <t>comics_island</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.comicsisland.activity</t>
+  </si>
+  <si>
+    <t>com.android.comicsisland.activity.SplashLogoActivity</t>
+  </si>
+  <si>
+    <t>起点小说</t>
+  </si>
+  <si>
+    <t>qidian_novel</t>
+  </si>
+  <si>
+    <t>com.qidian.QDReader.cps</t>
+  </si>
+  <si>
+    <t>com.qidian.QDReader.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>追书神器</t>
+  </si>
+  <si>
+    <t>zhuishushenqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>QQ邮箱</t>
+  </si>
+  <si>
+    <t>qq_mail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.androidqqmail</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmail.launcher.desktop.LauncherActivity</t>
+  </si>
+  <si>
+    <t>WiFi万能钥匙</t>
+  </si>
+  <si>
+    <t>wifi_locating</t>
+  </si>
+  <si>
+    <t>com.snda.wifilocating</t>
+  </si>
+  <si>
+    <t>com.lantern.launcher.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>抖音短视频</t>
+  </si>
+  <si>
+    <t>tiptap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.aweme</t>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.aweme.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>西瓜视频</t>
+  </si>
+  <si>
+    <t>article_video</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.article.video</t>
+  </si>
+  <si>
+    <t>com.ss.android.article.video.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>火山小视频</t>
+  </si>
+  <si>
+    <t>huoshan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.live</t>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.live.main.MainActivity</t>
+  </si>
+  <si>
+    <t>AcFun</t>
+  </si>
+  <si>
+    <t>acfun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.acfundanmaku.video</t>
+  </si>
+  <si>
+    <t>tv.acfun.core.view.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>kuaishou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.smile.gifmaker</t>
+  </si>
+  <si>
+    <t>com.yxcorp.gifshow.HomeActivity</t>
+  </si>
+  <si>
+    <t>央视影音</t>
+  </si>
+  <si>
+    <t>cntv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.cntv</t>
+  </si>
+  <si>
+    <t>cn.cntv.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>暴风影音</t>
+  </si>
+  <si>
+    <t>storm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.storm.smart</t>
+  </si>
+  <si>
+    <t>com.storm.smart.LogoActivity</t>
+  </si>
+  <si>
+    <t>酷狗音乐</t>
+  </si>
+  <si>
+    <t>kugou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kugou.android</t>
+  </si>
+  <si>
+    <t>com.kugou.android.app.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>酷我音乐</t>
+  </si>
+  <si>
+    <t>kuwo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.kuwo.player</t>
+  </si>
+  <si>
+    <t>cn.kuwo.player.activities.EntryActivity</t>
+  </si>
+  <si>
+    <t>轻听</t>
+  </si>
+  <si>
+    <t>qq_music_local</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqmusiclocalplayer</t>
+  </si>
+  <si>
+    <t>com.tencent.qqmusiclocalplayer.app.activity.AppStarterActivity</t>
+  </si>
+  <si>
+    <t>Retor Music</t>
+  </si>
+  <si>
+    <t>retor_music</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>code.name.monkey.retromusic</t>
+  </si>
+  <si>
+    <t>code.name.monkey.retromusic.ui.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>斗鱼直播</t>
+  </si>
+  <si>
+    <t>douyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>air.tv.douyu.android</t>
+  </si>
+  <si>
+    <t>tv.douyu.view.activity.launcher.DYLauncherActivity</t>
+  </si>
+  <si>
+    <t>虎牙直播</t>
+  </si>
+  <si>
+    <t>huya</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.duowan.kiwi</t>
+  </si>
+  <si>
+    <t>com.duowan.kiwi.simpleactivity.SplashActivity</t>
+  </si>
+  <si>
+    <t>熊猫直播</t>
+  </si>
+  <si>
+    <t>panda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.panda.videoliveplatform</t>
+  </si>
+  <si>
+    <t>com.panda.videoliveplatform.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>直播吧</t>
+  </si>
+  <si>
+    <t>zhibo8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.zhibo8</t>
+  </si>
+  <si>
+    <t>android.zhibo8.ui.contollers.main.LaunchActivity</t>
+  </si>
+  <si>
+    <t>一直播</t>
+  </si>
+  <si>
+    <t>yi_live</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.xiaoka.live</t>
+  </si>
+  <si>
+    <t>tv.xiaoka.live.activity.AppSplashActivity</t>
+  </si>
+  <si>
+    <t>Google相机</t>
+  </si>
+  <si>
+    <t>google_camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.GoogleCamera</t>
+  </si>
+  <si>
+    <t>com.android.camera.CameraLauncher</t>
+  </si>
+  <si>
+    <t>相机360</t>
+  </si>
+  <si>
+    <t>camera360</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vStudio.Android.Camera360</t>
+  </si>
+  <si>
+    <t>vStudio.Android.Camera360.activity.CameraActivity</t>
+  </si>
+  <si>
+    <t>Prisma艺术相机</t>
+  </si>
+  <si>
+    <t>prisma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.neuralprisma</t>
+  </si>
+  <si>
+    <t>com.prisma.starter.StarterActivity</t>
+  </si>
+  <si>
+    <t>B612咔叽</t>
+  </si>
+  <si>
+    <t>b612</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.campmobile.snowcamera</t>
+  </si>
+  <si>
+    <t>com.linecorp.b612.android.activity.ActivityCamera</t>
+  </si>
+  <si>
+    <t>NOMO</t>
+  </si>
+  <si>
+    <t>nomo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blink.academy.nomo</t>
+  </si>
+  <si>
+    <t>com.blink.academy.nomo.ui.activity.splash.NomoSplashActivity</t>
+  </si>
+  <si>
+    <t>Faceu激萌</t>
+  </si>
+  <si>
+    <t>faceu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lemon.faceu</t>
+  </si>
+  <si>
+    <t>com.lemon.faceu.business.login.LoadingPageActivity</t>
+  </si>
+  <si>
+    <t>美颜相机</t>
+  </si>
+  <si>
+    <t>meiyan_camera</t>
+  </si>
+  <si>
+    <t>com.meitu.meiyancamera</t>
+  </si>
+  <si>
+    <t>com.meitu.meiyancamera.MyxjActivity</t>
+  </si>
+  <si>
+    <t>轻颜相机</t>
+  </si>
+  <si>
+    <t>light_beauty</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gorgeous.lite</t>
+  </si>
+  <si>
+    <t>com.light.beauty.login.LoadingPageActivity</t>
+  </si>
+  <si>
+    <t>美图秀秀</t>
+  </si>
+  <si>
+    <t>mtxx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mt.mtxx.mtxx</t>
+  </si>
+  <si>
+    <t>com.mt.mtxx.mtxx.TopViewActivity</t>
+  </si>
+  <si>
+    <t>天天P图</t>
+  </si>
+  <si>
+    <t>ttpic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.ttpic</t>
+  </si>
+  <si>
+    <t>com.tencent.ttpic.module.MainActivity</t>
+  </si>
+  <si>
+    <t>快图浏览</t>
+  </si>
+  <si>
+    <t>pic_folder</t>
+  </si>
+  <si>
+    <t>com.alensw.PicFolder</t>
+  </si>
+  <si>
+    <t>com.alensw.PicFolder.GalleryActivity</t>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_ac</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>china_telecom</t>
-  </si>
-  <si>
-    <t>com.ct.client</t>
-  </si>
-  <si>
-    <t>com.ct.client.SplashActivity</t>
-  </si>
-  <si>
-    <t>cuto</t>
-  </si>
-  <si>
-    <t>com.sspai.cuto.android</t>
-  </si>
-  <si>
-    <t>com.sspai.cuto.android.ui.main.MainActivity</t>
-  </si>
-  <si>
-    <t>滴滴出行</t>
-  </si>
-  <si>
-    <t>didi</t>
-  </si>
-  <si>
-    <t>com.sdu.didi.psnger</t>
-  </si>
-  <si>
-    <t>com.didi.sdk.app.launch.DidiLoadDexActivity</t>
-  </si>
-  <si>
-    <t>高德地图</t>
-  </si>
-  <si>
-    <t>gaode_map</t>
-  </si>
-  <si>
-    <t>com.autonavi.minimap</t>
-  </si>
-  <si>
-    <t>com.autonavi.map.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>高铁管家</t>
-  </si>
-  <si>
-    <t>gtgj</t>
-  </si>
-  <si>
-    <t>com.gtgj.view</t>
-  </si>
-  <si>
-    <t>com.gtgj.view.LaunchActivity</t>
-  </si>
-  <si>
-    <t>虎扑</t>
-  </si>
-  <si>
-    <t>hupu</t>
-  </si>
-  <si>
-    <t>com.hupu.games</t>
-  </si>
-  <si>
-    <t>com.hupu.games.activity.LaunchActivity</t>
-  </si>
-  <si>
-    <t>京东</t>
-  </si>
-  <si>
-    <t>jingdong</t>
-  </si>
-  <si>
-    <t>com.jingdong.app.mall</t>
-  </si>
-  <si>
-    <t>com.jingdong.app.mall.main.MainActivity</t>
-  </si>
-  <si>
-    <t>miracles</t>
-  </si>
-  <si>
-    <t>com.amamiya.nanoiconpack.miracles</t>
-  </si>
-  <si>
-    <t>com.amamiya.nanoiconpack.miracles.activities.SplashActivity</t>
-  </si>
-  <si>
-    <t>摩拜单车</t>
-  </si>
-  <si>
-    <t>mobike</t>
-  </si>
-  <si>
-    <t>com.mobike.mobikeapp</t>
-  </si>
-  <si>
-    <t>com.mobike.mobikeapp.SplashActivity</t>
-  </si>
-  <si>
-    <t>网易邮箱大师</t>
-  </si>
-  <si>
-    <t>netease_mail</t>
-  </si>
-  <si>
-    <t>com.netease.mail</t>
-  </si>
-  <si>
-    <t>com.netease.mobimail.activity.LaunchActivity</t>
-  </si>
-  <si>
-    <t>网易蜗牛读书</t>
-  </si>
-  <si>
-    <t>netease_snailread</t>
-  </si>
-  <si>
-    <t>com.netease.snailread</t>
-  </si>
-  <si>
-    <t>com.netease.snailread.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>网易严选</t>
-  </si>
-  <si>
-    <t>netease_yanxuan</t>
-  </si>
-  <si>
-    <t>com.netease.yanxuan</t>
-  </si>
-  <si>
-    <t>com.netease.yanxuan.module.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>好奇心日报</t>
-  </si>
-  <si>
-    <t>qdaily</t>
-  </si>
-  <si>
-    <t>com.qdaily.ui</t>
-  </si>
-  <si>
-    <t>com.qdaily.ui.LauncherActivity</t>
-  </si>
-  <si>
-    <t>铁路12306</t>
-  </si>
-  <si>
-    <t>railway</t>
-  </si>
-  <si>
-    <t>com.MobileTicket</t>
-  </si>
-  <si>
-    <t>com.alipay.mobile.quinox.LauncherActivity</t>
-  </si>
-  <si>
-    <t>telegram</t>
-  </si>
-  <si>
-    <t>org.telegram.messenger</t>
-  </si>
-  <si>
-    <t>org.telegram.ui.LaunchActivity</t>
-  </si>
-  <si>
-    <t>tim</t>
-  </si>
-  <si>
-    <t>com.tencent.tim</t>
-  </si>
-  <si>
-    <t>手机天猫</t>
-  </si>
-  <si>
-    <t>tmall</t>
-  </si>
-  <si>
-    <t>com.tmall.wireless</t>
-  </si>
-  <si>
-    <t>com.tmall.wireless.splash.TMSplashActivity</t>
-  </si>
-  <si>
-    <t>waw</t>
-  </si>
-  <si>
-    <t>wwAww.icons</t>
-  </si>
-  <si>
-    <t>com.qigelong.lib.wAwiconpack.MainActivity</t>
-  </si>
-  <si>
-    <t>知乎日报</t>
-  </si>
-  <si>
-    <t>zhihu_daily</t>
-  </si>
-  <si>
-    <t>com.zhihu.daily.android</t>
-  </si>
-  <si>
-    <t>com.zhihu.daily.android.activity.MainActivity_</t>
-  </si>
-  <si>
-    <t>application</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>com.android.contacts</t>
-  </si>
-  <si>
-    <t>com.oneplus.contacts.activities.OPPeopleActivity</t>
-  </si>
-  <si>
-    <t>爱奇艺</t>
-  </si>
-  <si>
-    <t>iqiyi</t>
-  </si>
-  <si>
-    <t>com.qiyi.video</t>
-  </si>
-  <si>
-    <t>com.qiyi.video.WelcomeActivity</t>
-  </si>
-  <si>
-    <t>浏览器</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>com.android.browser</t>
-  </si>
-  <si>
-    <t>下厨房</t>
-  </si>
-  <si>
-    <t>xiachufang</t>
-  </si>
-  <si>
-    <t>com.xiachufang</t>
-  </si>
-  <si>
-    <t>com.xiachufang.activity.StartPageActivity</t>
-  </si>
-  <si>
-    <t>饿了么</t>
-  </si>
-  <si>
-    <t>ele</t>
-  </si>
-  <si>
-    <t>me.ele</t>
-  </si>
-  <si>
-    <t>me.ele.Launcher</t>
-  </si>
-  <si>
-    <t>盒马</t>
-  </si>
-  <si>
-    <t>hippo</t>
-  </si>
-  <si>
-    <t>com.wudaokou.hippo</t>
-  </si>
-  <si>
-    <t>com.wudaokou.hippo.launcher.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>芒果TV</t>
-  </si>
-  <si>
-    <t>hunantv</t>
-  </si>
-  <si>
-    <t>com.hunantv.imgo.activity</t>
-  </si>
-  <si>
-    <t>com.hunantv.imgo.activity.MainActivity</t>
-  </si>
-  <si>
-    <t>猫眼</t>
-  </si>
-  <si>
-    <t>maoyan</t>
-  </si>
-  <si>
-    <t>com.sankuai.movie</t>
-  </si>
-  <si>
-    <t>com.sankuai.movie.welcome.Welcome</t>
-  </si>
-  <si>
-    <t>meeye</t>
-  </si>
-  <si>
-    <t>com.yeyebbc.meeye.iconpack</t>
-  </si>
-  <si>
-    <t>com.yeyebbc.meeye.iconpack.MainActivity</t>
-  </si>
-  <si>
-    <t>大众点评</t>
-  </si>
-  <si>
-    <t>dianping</t>
-  </si>
-  <si>
-    <t>com.dianping.v1</t>
-  </si>
-  <si>
-    <t>com.dianping.main.guide.SplashScreenActivity</t>
-  </si>
-  <si>
-    <t>美团外卖</t>
-  </si>
-  <si>
-    <t>meituan_takeout</t>
-  </si>
-  <si>
-    <t>com.sankuai.meituan.takeoutnew</t>
-  </si>
-  <si>
-    <t>com.sankuai.meituan.takeoutnew.ui.page.boot.WelcomeActivity</t>
-  </si>
-  <si>
-    <t>米家</t>
-  </si>
-  <si>
-    <t>mijia</t>
-  </si>
-  <si>
-    <t>com.xiaomi.smarthome</t>
-  </si>
-  <si>
-    <t>com.xiaomi.smarthome.SmartHomeMainActivity</t>
-  </si>
-  <si>
-    <t>oblatum</t>
-  </si>
-  <si>
-    <t>com.oblatum.iconpack</t>
-  </si>
-  <si>
-    <t>com.oblatum.iconpack.MainActivity</t>
-  </si>
-  <si>
-    <t>PP视频</t>
-  </si>
-  <si>
-    <t>pplive</t>
-  </si>
-  <si>
-    <t>com.pplive.androidphone</t>
-  </si>
-  <si>
-    <t>com.pplive.androidphone.ui.FirstActivity</t>
-  </si>
-  <si>
-    <t>pure</t>
-  </si>
-  <si>
-    <t>me.morirain.dev.iconpack.pure</t>
-  </si>
-  <si>
-    <t>me.morirain.dev.iconpack.pure.MainActivity</t>
-  </si>
-  <si>
-    <t>shadowsocks</t>
-  </si>
-  <si>
-    <t>com.github.shadowsocks</t>
-  </si>
-  <si>
-    <t>com.github.shadowsocks.MainActivity</t>
-  </si>
-  <si>
-    <t>sorcery</t>
-  </si>
-  <si>
-    <t>com.sorcerer.sorcery.iconpack</t>
-  </si>
-  <si>
-    <t>com.sorcerer.sorcery.iconpack.MainActivity</t>
-  </si>
-  <si>
-    <t>哈啰出行</t>
-  </si>
-  <si>
-    <t>hellobike</t>
-  </si>
-  <si>
-    <t>com.jingyao.easybike</t>
-  </si>
-  <si>
-    <t>com.hellobike.atlas.business.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>马蜂窝旅游</t>
-  </si>
-  <si>
-    <t>mfw</t>
-  </si>
-  <si>
-    <t>com.mfw.roadbook</t>
-  </si>
-  <si>
-    <t>com.mfw.roadbook.main.StartActivity</t>
-  </si>
-  <si>
-    <t>VLC</t>
-  </si>
-  <si>
-    <t>vlc</t>
-  </si>
-  <si>
-    <t>org.videolan.vlc</t>
-  </si>
-  <si>
-    <t>org.videolan.vlc.StartActivity</t>
-  </si>
-  <si>
-    <t>虾米音乐</t>
-  </si>
-  <si>
-    <t>xiami</t>
-  </si>
-  <si>
-    <t>fm.xiami.main</t>
-  </si>
-  <si>
-    <t>fm.xiami.main.SplashActivity</t>
-  </si>
-  <si>
-    <t>优酷</t>
-  </si>
-  <si>
-    <t>youku</t>
-  </si>
-  <si>
-    <t>com.youku.phone</t>
-  </si>
-  <si>
-    <t>com.youku.phone.ActivityWelcome</t>
-  </si>
-  <si>
-    <t>mistiness</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>person.cjy.iconpack.mistiness</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>person.cjy.iconpack.mistiness.MainActivity</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>com.downloading.main.baiduyundownload</t>
-  </si>
-  <si>
-    <t>com.downloading.main.baiduyundownload.ui.S</t>
-  </si>
-  <si>
-    <t>一加社区</t>
-  </si>
-  <si>
-    <t>oneplus_bbs</t>
-  </si>
-  <si>
-    <t>com.oneplus.bbs</t>
-  </si>
-  <si>
-    <t>com.oneplus.bbs.ui.activity.PreStartActivity</t>
-  </si>
-  <si>
-    <t>百度输入法</t>
-  </si>
-  <si>
-    <t>baidu_ime</t>
-  </si>
-  <si>
-    <t>com.baidu.input</t>
-  </si>
-  <si>
-    <t>com.baidu.input.ImeAppMainActivity</t>
-  </si>
-  <si>
-    <t>搜狗输入法</t>
-  </si>
-  <si>
-    <t>sogou_ime</t>
-  </si>
-  <si>
-    <t>com.sohu.inputmethod.sogou</t>
-  </si>
-  <si>
-    <t>com.sohu.inputmethod.sogou.SogouIMELauncher</t>
-  </si>
-  <si>
-    <t>讯飞输入法</t>
-  </si>
-  <si>
-    <t>ifly_ime</t>
-  </si>
-  <si>
-    <t>com.iflytek.inputmethod</t>
-  </si>
-  <si>
-    <t>com.iflytek.inputmethod.LauncherActivity</t>
-  </si>
-  <si>
-    <t>喜马拉雅</t>
-  </si>
-  <si>
-    <t>ximalaya</t>
-  </si>
-  <si>
-    <t>com.ximalaya.ting.android</t>
-  </si>
-  <si>
-    <t>com.ximalaya.ting.android.host.activity.WelComeActivity</t>
-  </si>
-  <si>
-    <t>简书</t>
-  </si>
-  <si>
-    <t>jianshu</t>
-  </si>
-  <si>
-    <t>com.jianshu.haruki</t>
-  </si>
-  <si>
-    <t>com.baiji.jianshu.ui.splash.SplashScreenActivity</t>
-  </si>
-  <si>
-    <t>UC浏览器</t>
-  </si>
-  <si>
-    <t>uc</t>
-  </si>
-  <si>
-    <t>com.UCMobile</t>
-  </si>
-  <si>
-    <t>com.UCMobile.main.UCMobile</t>
-  </si>
-  <si>
-    <t>火狐浏览器</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>org.mozilla.firefox</t>
-  </si>
-  <si>
-    <t>org.mozilla.firefox.App</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>com.android.chrome</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.chrome.Main</t>
-  </si>
-  <si>
-    <t>人人影视PRO</t>
-  </si>
-  <si>
-    <t>yyets</t>
-  </si>
-  <si>
-    <t>com.yyets.pro</t>
-  </si>
-  <si>
-    <t>com.yyets.zimuzu.SplashActivity</t>
-  </si>
-  <si>
-    <t>谷歌拼音输入法</t>
-  </si>
-  <si>
-    <t>google_pinyin_ime</t>
-  </si>
-  <si>
-    <t>com.google.android.inputmethod.pinyin</t>
-  </si>
-  <si>
-    <t>com.google.android.apps.inputmethod.libs.framework.core.LauncherActivity</t>
-  </si>
-  <si>
-    <t>Gboard</t>
-  </si>
-  <si>
-    <t>gboard</t>
-  </si>
-  <si>
-    <t>com.google.android.inputmethod.latin</t>
-  </si>
-  <si>
-    <t>手心输入法</t>
-  </si>
-  <si>
-    <t>shouxin_input</t>
-  </si>
-  <si>
-    <t>com.xinshuru.inputmethod</t>
-  </si>
-  <si>
-    <t>com.xinshuru.inputmethod.FTInputSplashActivity</t>
-  </si>
-  <si>
-    <t>fooview</t>
-  </si>
-  <si>
-    <t>com.fooview.android.fooview</t>
-  </si>
-  <si>
-    <t>com.fooview.android.fooview.MainActivity</t>
-  </si>
-  <si>
-    <t>存储空间清理</t>
-  </si>
-  <si>
-    <t>sdclear</t>
-  </si>
-  <si>
-    <t>com.ktls.fileinfo</t>
-  </si>
-  <si>
-    <t>com.ktls.fileinfo.MainSDClear</t>
-  </si>
-  <si>
-    <t>ES文件管理器</t>
-  </si>
-  <si>
-    <t>estrongs</t>
-  </si>
-  <si>
-    <t>com.estrongs.android.pop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.estrongs.android.pop.app.openscreenad.NewSplashActivity</t>
-  </si>
-  <si>
-    <t>RE文件管理</t>
-  </si>
-  <si>
-    <t>root_explore</t>
-  </si>
-  <si>
-    <t>com.speedsoftware.rootexplorer</t>
-  </si>
-  <si>
-    <t>com.speedsoftware.rootexplorer.RootExplorer</t>
-  </si>
-  <si>
-    <t>SD Maid</t>
-  </si>
-  <si>
-    <t>sdm</t>
-  </si>
-  <si>
-    <t>eu.thedarken.sdm</t>
-  </si>
-  <si>
-    <t>eu.thedarken.sdm.main.ui.SDMMainActivity</t>
-  </si>
-  <si>
-    <t>Dir</t>
-  </si>
-  <si>
-    <t>dir</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh.android.dir</t>
-  </si>
-  <si>
-    <t>kh.android.dir.ui.activities.MDMainActivity</t>
-  </si>
-  <si>
-    <t>广告快走开</t>
-  </si>
-  <si>
-    <t>adaway</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>org.adaway</t>
-  </si>
-  <si>
-    <t>org.adaway.ui.BaseActivity</t>
-  </si>
-  <si>
-    <t>power clean</t>
-  </si>
-  <si>
-    <t>power_clean</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.lionmobi.powerclean</t>
-  </si>
-  <si>
-    <t>com.lionmobi.powerclean.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>LBE安全大师</t>
-  </si>
-  <si>
-    <t>lbe_security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.lbe.security</t>
-  </si>
-  <si>
-    <t>com.lbe.security.ui.SplashActivity</t>
-  </si>
-  <si>
-    <t>360卫士</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qihoo_mobile_safe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.qihoo360.mobilesafe</t>
-  </si>
-  <si>
-    <t>com.qihoo360.mobilesafe.ui.index.AppEnterActivity</t>
-  </si>
-  <si>
-    <t>360卫士极客版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qihoo_antivirus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.qihoo.antivirus</t>
-  </si>
-  <si>
-    <t>com.qihoo.antivirus.ui.index.AppEnterActivity</t>
-  </si>
-  <si>
-    <t>SuperSU</t>
-  </si>
-  <si>
-    <t>supersu</t>
-  </si>
-  <si>
-    <t>eu.chainfire.supersu</t>
-  </si>
-  <si>
-    <t>eu.chainfire.supersu.MainActivity-Material</t>
-  </si>
-  <si>
-    <t>KingRoot</t>
-  </si>
-  <si>
-    <t>kingroot</t>
-  </si>
-  <si>
-    <t>com.kingroot.kinguser</t>
-  </si>
-  <si>
-    <t>com.kingroot.kinguser.activitys.SliderMainActivity-Entry</t>
-  </si>
-  <si>
-    <t>钛备份</t>
-  </si>
-  <si>
-    <t>titanium_backup</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.keramidas.TitaniumBackup</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.keramidas.TitaniumBackup.MainActivity</t>
-  </si>
-  <si>
-    <t>安兔兔评测</t>
-  </si>
-  <si>
-    <t>antutu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.antutu.ABenchMark</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.antutu.ABenchMark.ABenchMarkStart</t>
-  </si>
-  <si>
-    <t>My Android Tools</t>
-  </si>
-  <si>
-    <t>myandroidtools</t>
-  </si>
-  <si>
-    <t>cn.wq.myandroidtools</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.wq.myandroidtoolspro.MainActivity</t>
-  </si>
-  <si>
-    <t>Tasker</t>
-  </si>
-  <si>
-    <t>tasker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.dinglisch.android.taskerm</t>
-  </si>
-  <si>
-    <t>net.dinglisch.android.taskerm.Tasker</t>
-  </si>
-  <si>
-    <t>CPU-Z</t>
-  </si>
-  <si>
-    <t>cpu_z</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.cpuid.cpu_z</t>
-  </si>
-  <si>
-    <t>com.cpuid.cpu_z.MainActivity</t>
-  </si>
-  <si>
-    <t>微软桌面</t>
-  </si>
-  <si>
-    <t>microsoft_launcher</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.microsoft.launcher</t>
-  </si>
-  <si>
-    <t>com.microsoft.launcher.EntryActivity</t>
-  </si>
-  <si>
-    <t>星空视频壁纸</t>
-  </si>
-  <si>
-    <t>xingkong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyc.xk</t>
-  </si>
-  <si>
-    <t>yyc.xk.adview</t>
-  </si>
-  <si>
-    <t>total Launcher</t>
-  </si>
-  <si>
-    <t>total_launcher</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.launcher2</t>
-  </si>
-  <si>
-    <t>com.ss.launcher2.MainActivity</t>
-  </si>
-  <si>
-    <t>POCO 桌面</t>
-  </si>
-  <si>
-    <t>poco_launcher</t>
-  </si>
-  <si>
-    <t>com.mi.android.globallauncher</t>
-  </si>
-  <si>
-    <t>com.miui.home.launcher.SplashActivity</t>
-  </si>
-  <si>
-    <t>一句</t>
-  </si>
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>small.word</t>
-  </si>
-  <si>
-    <t>small.word.Main</t>
-  </si>
-  <si>
-    <t>一言</t>
-  </si>
-  <si>
-    <t>hi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hitokoto</t>
-  </si>
-  <si>
-    <t>com.hitokoto.ui.MainActivity</t>
-  </si>
-  <si>
-    <t>远离手机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>away_from_mobile</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.lijianqiang12.silent</t>
-  </si>
-  <si>
-    <t>com.lijianqiang12.silent.mvvm.SplashActivity</t>
-  </si>
-  <si>
-    <t>火萤</t>
-  </si>
-  <si>
-    <t>huoying</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.znxh.hyhuo</t>
-  </si>
-  <si>
-    <t>com.znxh.hyhuo.t.d.WelcomeTActivity</t>
-  </si>
-  <si>
-    <t>搜图神器</t>
-  </si>
-  <si>
-    <t>search_picture_tool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.example.administrator.searchpicturetool</t>
-  </si>
-  <si>
-    <t>com.example.administrator.searchpicturetool.launch.LaunchActivity</t>
-  </si>
-  <si>
-    <t>substratum主题管理</t>
-  </si>
-  <si>
-    <t>substratum</t>
-  </si>
-  <si>
-    <t>projekt.substratum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>projekt.substratum.LauncherActivity</t>
-  </si>
-  <si>
-    <t>QQ国际版</t>
-  </si>
-  <si>
-    <t>qqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mobileqqi</t>
-  </si>
-  <si>
-    <t>QQ轻聊版</t>
-  </si>
-  <si>
-    <t>qqlite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.qqlite</t>
-  </si>
-  <si>
-    <t>子弹短信</t>
-  </si>
-  <si>
-    <t>bullet_messenger</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.bullet.messenger</t>
-  </si>
-  <si>
-    <t>com.smartisan.flashim.main.activity.MainActivity</t>
-  </si>
-  <si>
-    <t>钉钉</t>
-  </si>
-  <si>
-    <t>dingtalk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.alibaba.android.rimet</t>
-  </si>
-  <si>
-    <t>com.alibaba.android.rimet.biz.SplashActivity</t>
-  </si>
-  <si>
-    <t>旺信</t>
-  </si>
-  <si>
-    <t>wangxin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.alibaba.mobileim</t>
-  </si>
-  <si>
-    <t>com.alibaba.mobileim.SplashActivity</t>
-  </si>
-  <si>
-    <t>易信</t>
-  </si>
-  <si>
-    <t>yixin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>im.yixin</t>
-  </si>
-  <si>
-    <t>im.yixin.activity.WelcomeActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>com.hengye.share</t>
-  </si>
-  <si>
-    <t>com.hengye.share.Launcher</t>
-  </si>
-  <si>
-    <t>weico</t>
-  </si>
-  <si>
-    <t>com.eico.weico</t>
-  </si>
-  <si>
-    <t>com.eico.weico.activity.LogoActivity</t>
-  </si>
-  <si>
-    <t>emore</t>
-  </si>
-  <si>
-    <t>com.caij.emore</t>
-  </si>
-  <si>
-    <t>com.caij.emore.ui.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>welike</t>
-  </si>
-  <si>
-    <t>com.sxy.ui</t>
-  </si>
-  <si>
-    <t>com.sxy.ui.view.MainActivity</t>
-  </si>
-  <si>
-    <t>微博极速版</t>
-  </si>
-  <si>
-    <t>weibo_lite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.sina.weibolite</t>
-  </si>
-  <si>
-    <t>com.sina.weibo.lightning.main.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>QQ空间</t>
-  </si>
-  <si>
-    <t>qzone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.qzone</t>
-  </si>
-  <si>
-    <t>com.tencent.sc.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>探探</t>
-  </si>
-  <si>
-    <t>tantan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.p1.mobile.putong</t>
-  </si>
-  <si>
-    <t>com.p1.mobile.putong.ui.splash.SplashAct</t>
-  </si>
-  <si>
-    <t>陌陌</t>
-  </si>
-  <si>
-    <t>momo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.immomo.momo</t>
-  </si>
-  <si>
-    <t>com.immomo.momo.android.activity.WelcomeActivity</t>
-  </si>
-  <si>
-    <t>唱吧</t>
-  </si>
-  <si>
-    <t>changba</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.changba</t>
-  </si>
-  <si>
-    <t>com.changba.splash.Welcome</t>
-  </si>
-  <si>
-    <t>微视</t>
-  </si>
-  <si>
-    <t>tencent_weishi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.weishi</t>
-  </si>
-  <si>
-    <t>com.tencent.oscar.module.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>com.mxtech.videoplayer.ad.ActivityWelcomeMX</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日头条</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>article_news</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.android.article.news</t>
-  </si>
-  <si>
-    <t>com.ss.android.article.news.activity.SplashBadgeActivity</t>
-  </si>
-  <si>
-    <t>掌阅</t>
-  </si>
-  <si>
-    <t>ireader</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.chaozh.iReaderFree</t>
-  </si>
-  <si>
-    <t>com.chaozh.iReader.ui.activity.WelcomeActivity</t>
-  </si>
-  <si>
-    <t>多看阅读</t>
-  </si>
-  <si>
-    <t>duokan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.duokan.reader</t>
-  </si>
-  <si>
-    <t>com.duokan.reader.DkReaderActivity</t>
-  </si>
-  <si>
-    <t>爱看阅读</t>
-  </si>
-  <si>
-    <t>loveread</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mdroid.read</t>
-  </si>
-  <si>
-    <t>com.mdroid.application.ui.welcome.WelcomeActivity</t>
-  </si>
-  <si>
-    <t>静读天下专业版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>moonread</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.flyersoft.moonreaderp</t>
-  </si>
-  <si>
-    <t>com.flyersoft.moonreaderp.ActivityMain</t>
-  </si>
-  <si>
-    <t>Flipboard新闻</t>
-  </si>
-  <si>
-    <t>flipboard</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>flipboard.cn</t>
-  </si>
-  <si>
-    <t>flipboard.activities.LaunchActivityAlias</t>
-  </si>
-  <si>
-    <t>网易新闻</t>
-  </si>
-  <si>
-    <t>netease_news</t>
-  </si>
-  <si>
-    <t>com.netease.newsreader.activity</t>
-  </si>
-  <si>
-    <t>com.netease.nr.biz.ad.AdActivity</t>
-  </si>
-  <si>
-    <t>ZAKER</t>
-  </si>
-  <si>
-    <t>zaker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.myzaker.ZAKER_Phone</t>
-  </si>
-  <si>
-    <t>com.myzaker.ZAKER_Phone.view.LogoActivity</t>
-  </si>
-  <si>
-    <t>界面新闻</t>
-  </si>
-  <si>
-    <t>jiemian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.jiemian.news</t>
-  </si>
-  <si>
-    <t>com.jiemian.news.module.splash.SplashActivity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰新闻</t>
-  </si>
-  <si>
-    <t>feng_news</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ifeng.news2</t>
-  </si>
-  <si>
-    <t>com.ifeng.news2.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>澎湃新闻</t>
-  </si>
-  <si>
-    <t>paper</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.wondertek.paper</t>
-  </si>
-  <si>
-    <t>cn.thepaper.paper.ui.splash.welcome.LaunchActivity</t>
-  </si>
-  <si>
-    <t>布卡漫画</t>
-  </si>
-  <si>
-    <t>buka</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.ibuka.manga.ui</t>
-  </si>
-  <si>
-    <t>cn.ibuka.manga.ui.ActivityStartup</t>
-  </si>
-  <si>
-    <t>腾讯动漫</t>
-  </si>
-  <si>
-    <t>tencent_ac</t>
-  </si>
-  <si>
-    <t>com.qq.ac.android</t>
-  </si>
-  <si>
-    <t>com.qq.ac.android.view.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>追追漫画</t>
-  </si>
-  <si>
-    <t>comiclover</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mandongkeji.comiclover</t>
-  </si>
-  <si>
-    <t>com.mandongkeji.comiclover.splash.SplashV2Activity</t>
-  </si>
-  <si>
-    <t>漫画岛</t>
-  </si>
-  <si>
-    <t>comics_island</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.comicsisland.activity</t>
-  </si>
-  <si>
-    <t>com.android.comicsisland.activity.SplashLogoActivity</t>
-  </si>
-  <si>
-    <t>起点小说</t>
-  </si>
-  <si>
-    <t>qidian_novel</t>
-  </si>
-  <si>
-    <t>com.qidian.QDReader.cps</t>
-  </si>
-  <si>
-    <t>com.qidian.QDReader.ui.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>追书神器</t>
-  </si>
-  <si>
-    <t>zhuishushenqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi</t>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
-  </si>
-  <si>
-    <t>QQ邮箱</t>
-  </si>
-  <si>
-    <t>qq_mail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.androidqqmail</t>
-  </si>
-  <si>
-    <t>com.tencent.qqmail.launcher.desktop.LauncherActivity</t>
-  </si>
-  <si>
-    <t>WiFi万能钥匙</t>
-  </si>
-  <si>
-    <t>wifi_locating</t>
-  </si>
-  <si>
-    <t>com.snda.wifilocating</t>
-  </si>
-  <si>
-    <t>com.lantern.launcher.ui.MainActivity</t>
-  </si>
-  <si>
-    <t>抖音短视频</t>
-  </si>
-  <si>
-    <t>tiptap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.android.ugc.aweme</t>
-  </si>
-  <si>
-    <t>com.ss.android.ugc.aweme.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>西瓜视频</t>
-  </si>
-  <si>
-    <t>article_video</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.android.article.video</t>
-  </si>
-  <si>
-    <t>com.ss.android.article.video.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>火山小视频</t>
-  </si>
-  <si>
-    <t>huoshan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ss.android.ugc.live</t>
-  </si>
-  <si>
-    <t>com.ss.android.ugc.live.main.MainActivity</t>
-  </si>
-  <si>
-    <t>AcFun</t>
-  </si>
-  <si>
-    <t>acfun</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tv.acfundanmaku.video</t>
-  </si>
-  <si>
-    <t>tv.acfun.core.view.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>快手</t>
-  </si>
-  <si>
-    <t>kuaishou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.smile.gifmaker</t>
-  </si>
-  <si>
-    <t>com.yxcorp.gifshow.HomeActivity</t>
-  </si>
-  <si>
-    <t>央视影音</t>
-  </si>
-  <si>
-    <t>cntv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.cntv</t>
-  </si>
-  <si>
-    <t>cn.cntv.ui.activity.SplashActivity</t>
-  </si>
-  <si>
-    <t>暴风影音</t>
-  </si>
-  <si>
-    <t>storm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.storm.smart</t>
-  </si>
-  <si>
-    <t>com.storm.smart.LogoActivity</t>
-  </si>
-  <si>
-    <t>酷狗音乐</t>
-  </si>
-  <si>
-    <t>kugou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.kugou.android</t>
-  </si>
-  <si>
-    <t>com.kugou.android.app.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>酷我音乐</t>
-  </si>
-  <si>
-    <t>kuwo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.kuwo.player</t>
-  </si>
-  <si>
-    <t>cn.kuwo.player.activities.EntryActivity</t>
-  </si>
-  <si>
-    <t>轻听</t>
-  </si>
-  <si>
-    <t>qq_music_local</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.qqmusiclocalplayer</t>
-  </si>
-  <si>
-    <t>com.tencent.qqmusiclocalplayer.app.activity.AppStarterActivity</t>
-  </si>
-  <si>
-    <t>Retor Music</t>
-  </si>
-  <si>
-    <t>retor_music</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>code.name.monkey.retromusic</t>
-  </si>
-  <si>
-    <t>code.name.monkey.retromusic.ui.activities.MainActivity</t>
-  </si>
-  <si>
-    <t>斗鱼直播</t>
-  </si>
-  <si>
-    <t>douyu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>air.tv.douyu.android</t>
-  </si>
-  <si>
-    <t>tv.douyu.view.activity.launcher.DYLauncherActivity</t>
-  </si>
-  <si>
-    <t>虎牙直播</t>
-  </si>
-  <si>
-    <t>huya</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.duowan.kiwi</t>
-  </si>
-  <si>
-    <t>com.duowan.kiwi.simpleactivity.SplashActivity</t>
-  </si>
-  <si>
-    <t>熊猫直播</t>
-  </si>
-  <si>
-    <t>panda</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.panda.videoliveplatform</t>
-  </si>
-  <si>
-    <t>com.panda.videoliveplatform.activity.WelcomeActivity</t>
-  </si>
-  <si>
-    <t>直播吧</t>
-  </si>
-  <si>
-    <t>zhibo8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>android.zhibo8</t>
-  </si>
-  <si>
-    <t>android.zhibo8.ui.contollers.main.LaunchActivity</t>
-  </si>
-  <si>
-    <t>一直播</t>
-  </si>
-  <si>
-    <t>yi_live</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tv.xiaoka.live</t>
-  </si>
-  <si>
-    <t>tv.xiaoka.live.activity.AppSplashActivity</t>
-  </si>
-  <si>
-    <t>Google相机</t>
-  </si>
-  <si>
-    <t>google_camera</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.google.android.GoogleCamera</t>
-  </si>
-  <si>
-    <t>com.android.camera.CameraLauncher</t>
-  </si>
-  <si>
-    <t>相机360</t>
-  </si>
-  <si>
-    <t>camera360</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>vStudio.Android.Camera360</t>
-  </si>
-  <si>
-    <t>vStudio.Android.Camera360.activity.CameraActivity</t>
-  </si>
-  <si>
-    <t>Prisma艺术相机</t>
-  </si>
-  <si>
-    <t>prisma</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.neuralprisma</t>
-  </si>
-  <si>
-    <t>com.prisma.starter.StarterActivity</t>
-  </si>
-  <si>
-    <t>B612咔叽</t>
-  </si>
-  <si>
-    <t>b612</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.campmobile.snowcamera</t>
-  </si>
-  <si>
-    <t>com.linecorp.b612.android.activity.ActivityCamera</t>
-  </si>
-  <si>
-    <t>NOMO</t>
-  </si>
-  <si>
-    <t>nomo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.blink.academy.nomo</t>
-  </si>
-  <si>
-    <t>com.blink.academy.nomo.ui.activity.splash.NomoSplashActivity</t>
-  </si>
-  <si>
-    <t>Faceu激萌</t>
-  </si>
-  <si>
-    <t>faceu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.lemon.faceu</t>
-  </si>
-  <si>
-    <t>com.lemon.faceu.business.login.LoadingPageActivity</t>
-  </si>
-  <si>
-    <t>美颜相机</t>
-  </si>
-  <si>
-    <t>meiyan_camera</t>
-  </si>
-  <si>
-    <t>com.meitu.meiyancamera</t>
-  </si>
-  <si>
-    <t>com.meitu.meiyancamera.MyxjActivity</t>
-  </si>
-  <si>
-    <t>轻颜相机</t>
-  </si>
-  <si>
-    <t>light_beauty</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.gorgeous.lite</t>
-  </si>
-  <si>
-    <t>com.light.beauty.login.LoadingPageActivity</t>
-  </si>
-  <si>
-    <t>美图秀秀</t>
-  </si>
-  <si>
-    <t>mtxx</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mt.mtxx.mtxx</t>
-  </si>
-  <si>
-    <t>com.mt.mtxx.mtxx.TopViewActivity</t>
-  </si>
-  <si>
-    <t>天天P图</t>
-  </si>
-  <si>
-    <t>ttpic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.ttpic</t>
-  </si>
-  <si>
-    <t>com.tencent.ttpic.module.MainActivity</t>
-  </si>
-  <si>
-    <t>快图浏览</t>
-  </si>
-  <si>
-    <t>pic_folder</t>
-  </si>
-  <si>
-    <t>com.alensw.PicFolder</t>
-  </si>
-  <si>
-    <t>com.alensw.PicFolder.GalleryActivity</t>
-  </si>
-  <si>
-    <t>card</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -4505,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6280,7 +6282,7 @@
         <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
@@ -6580,7 +6582,7 @@
         <v>481</v>
       </c>
       <c r="B122" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C122" t="s">
         <v>482</v>
@@ -6793,7 +6795,7 @@
         <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -6810,7 +6812,7 @@
         <v>524</v>
       </c>
       <c r="E135" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6818,336 +6820,336 @@
         <v>525</v>
       </c>
       <c r="B136" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C136" t="s">
         <v>526</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>527</v>
       </c>
-      <c r="D136" t="s">
-        <v>528</v>
-      </c>
       <c r="E136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>528</v>
+      </c>
+      <c r="B137" t="s">
+        <v>528</v>
+      </c>
+      <c r="C137" t="s">
         <v>529</v>
       </c>
-      <c r="B137" t="s">
-        <v>529</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>530</v>
       </c>
-      <c r="D137" t="s">
-        <v>531</v>
-      </c>
       <c r="E137" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>531</v>
+      </c>
+      <c r="B138" t="s">
         <v>532</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>533</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>534</v>
       </c>
-      <c r="D138" t="s">
-        <v>535</v>
-      </c>
       <c r="E138" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>535</v>
+      </c>
+      <c r="B139" t="s">
         <v>536</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>537</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>538</v>
       </c>
-      <c r="D139" t="s">
-        <v>539</v>
-      </c>
       <c r="E139" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>539</v>
+      </c>
+      <c r="B140" t="s">
         <v>540</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>541</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>542</v>
       </c>
-      <c r="D140" t="s">
-        <v>543</v>
-      </c>
       <c r="E140" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>543</v>
+      </c>
+      <c r="B141" t="s">
         <v>544</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>545</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>546</v>
       </c>
-      <c r="D141" t="s">
-        <v>547</v>
-      </c>
       <c r="E141" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>547</v>
+      </c>
+      <c r="B142" t="s">
         <v>548</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>549</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>550</v>
       </c>
-      <c r="D142" t="s">
-        <v>551</v>
-      </c>
       <c r="E142" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>551</v>
+      </c>
+      <c r="B143" t="s">
+        <v>551</v>
+      </c>
+      <c r="C143" t="s">
         <v>552</v>
       </c>
-      <c r="B143" t="s">
-        <v>552</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>553</v>
       </c>
-      <c r="D143" t="s">
-        <v>554</v>
-      </c>
       <c r="E143" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>554</v>
+      </c>
+      <c r="B144" t="s">
         <v>555</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>556</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>557</v>
       </c>
-      <c r="D144" t="s">
-        <v>558</v>
-      </c>
       <c r="E144" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>558</v>
+      </c>
+      <c r="B145" t="s">
         <v>559</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>560</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>561</v>
       </c>
-      <c r="D145" t="s">
-        <v>562</v>
-      </c>
       <c r="E145" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>562</v>
+      </c>
+      <c r="B146" t="s">
         <v>563</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>564</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>565</v>
       </c>
-      <c r="D146" t="s">
-        <v>566</v>
-      </c>
       <c r="E146" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>566</v>
+      </c>
+      <c r="B147" t="s">
         <v>567</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>568</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>569</v>
       </c>
-      <c r="D147" t="s">
-        <v>570</v>
-      </c>
       <c r="E147" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>570</v>
+      </c>
+      <c r="B148" t="s">
         <v>571</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>572</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>573</v>
       </c>
-      <c r="D148" t="s">
-        <v>574</v>
-      </c>
       <c r="E148" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>574</v>
+      </c>
+      <c r="B149" t="s">
         <v>575</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>576</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>577</v>
       </c>
-      <c r="D149" t="s">
-        <v>578</v>
-      </c>
       <c r="E149" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>578</v>
+      </c>
+      <c r="B150" t="s">
+        <v>578</v>
+      </c>
+      <c r="C150" t="s">
         <v>579</v>
       </c>
-      <c r="B150" t="s">
-        <v>579</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>580</v>
       </c>
-      <c r="D150" t="s">
-        <v>581</v>
-      </c>
       <c r="E150" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>581</v>
+      </c>
+      <c r="B151" t="s">
+        <v>581</v>
+      </c>
+      <c r="C151" t="s">
         <v>582</v>
-      </c>
-      <c r="B151" t="s">
-        <v>582</v>
-      </c>
-      <c r="C151" t="s">
-        <v>583</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>583</v>
+      </c>
+      <c r="B152" t="s">
         <v>584</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>585</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>586</v>
       </c>
-      <c r="D152" t="s">
-        <v>587</v>
-      </c>
       <c r="E152" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>587</v>
+      </c>
+      <c r="B153" t="s">
+        <v>587</v>
+      </c>
+      <c r="C153" t="s">
         <v>588</v>
       </c>
-      <c r="B153" t="s">
-        <v>588</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>589</v>
       </c>
-      <c r="D153" t="s">
-        <v>590</v>
-      </c>
       <c r="E153" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>590</v>
+      </c>
+      <c r="B154" t="s">
         <v>591</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>592</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>593</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>594</v>
-      </c>
-      <c r="E154" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>595</v>
+      </c>
+      <c r="B155" t="s">
         <v>596</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>597</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>598</v>
-      </c>
-      <c r="D155" t="s">
-        <v>599</v>
       </c>
       <c r="E155" t="s">
         <v>480</v>
@@ -7155,16 +7157,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>599</v>
+      </c>
+      <c r="B156" t="s">
         <v>600</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>601</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>602</v>
-      </c>
-      <c r="D156" t="s">
-        <v>603</v>
       </c>
       <c r="E156" t="s">
         <v>45</v>
@@ -7172,13 +7174,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>603</v>
+      </c>
+      <c r="B157" t="s">
         <v>604</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>605</v>
-      </c>
-      <c r="C157" t="s">
-        <v>606</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
@@ -7189,16 +7191,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>606</v>
+      </c>
+      <c r="B158" t="s">
         <v>607</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>608</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>609</v>
-      </c>
-      <c r="D158" t="s">
-        <v>610</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
@@ -7206,16 +7208,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>610</v>
+      </c>
+      <c r="B159" t="s">
         <v>611</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>612</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>613</v>
-      </c>
-      <c r="D159" t="s">
-        <v>614</v>
       </c>
       <c r="E159" t="s">
         <v>45</v>
@@ -7223,16 +7225,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>614</v>
+      </c>
+      <c r="B160" t="s">
         <v>615</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>616</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>617</v>
-      </c>
-      <c r="D160" t="s">
-        <v>618</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
@@ -7240,16 +7242,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>618</v>
+      </c>
+      <c r="B161" t="s">
         <v>619</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>620</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>621</v>
-      </c>
-      <c r="D161" t="s">
-        <v>622</v>
       </c>
       <c r="E161" t="s">
         <v>45</v>
@@ -7257,16 +7259,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>622</v>
+      </c>
+      <c r="B162" t="s">
         <v>623</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>624</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>625</v>
-      </c>
-      <c r="D162" t="s">
-        <v>626</v>
       </c>
       <c r="E162" t="s">
         <v>45</v>
@@ -7274,16 +7276,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>626</v>
+      </c>
+      <c r="B163" t="s">
+        <v>626</v>
+      </c>
+      <c r="C163" t="s">
         <v>627</v>
       </c>
-      <c r="B163" t="s">
-        <v>627</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>628</v>
-      </c>
-      <c r="D163" t="s">
-        <v>629</v>
       </c>
       <c r="E163" t="s">
         <v>45</v>
@@ -7291,16 +7293,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>629</v>
+      </c>
+      <c r="B164" t="s">
         <v>630</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>631</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>632</v>
-      </c>
-      <c r="D164" t="s">
-        <v>633</v>
       </c>
       <c r="E164" t="s">
         <v>45</v>
@@ -7308,16 +7310,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>633</v>
+      </c>
+      <c r="B165" t="s">
         <v>634</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>635</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>636</v>
-      </c>
-      <c r="D165" t="s">
-        <v>637</v>
       </c>
       <c r="E165" t="s">
         <v>45</v>
@@ -7325,16 +7327,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>637</v>
+      </c>
+      <c r="B166" t="s">
         <v>638</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>639</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>640</v>
-      </c>
-      <c r="D166" t="s">
-        <v>641</v>
       </c>
       <c r="E166" t="s">
         <v>45</v>
@@ -7342,16 +7344,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>641</v>
+      </c>
+      <c r="B167" t="s">
+        <v>641</v>
+      </c>
+      <c r="C167" t="s">
         <v>642</v>
       </c>
-      <c r="B167" t="s">
-        <v>642</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>643</v>
-      </c>
-      <c r="D167" t="s">
-        <v>644</v>
       </c>
       <c r="E167" t="s">
         <v>45</v>
@@ -7359,16 +7361,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>644</v>
+      </c>
+      <c r="B168" t="s">
         <v>645</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>646</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>647</v>
-      </c>
-      <c r="D168" t="s">
-        <v>648</v>
       </c>
       <c r="E168" t="s">
         <v>45</v>
@@ -7376,16 +7378,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>648</v>
+      </c>
+      <c r="B169" t="s">
+        <v>648</v>
+      </c>
+      <c r="C169" t="s">
         <v>649</v>
       </c>
-      <c r="B169" t="s">
-        <v>649</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>650</v>
-      </c>
-      <c r="D169" t="s">
-        <v>651</v>
       </c>
       <c r="E169" t="s">
         <v>45</v>
@@ -7393,16 +7395,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>651</v>
+      </c>
+      <c r="B170" t="s">
+        <v>651</v>
+      </c>
+      <c r="C170" t="s">
         <v>652</v>
       </c>
-      <c r="B170" t="s">
-        <v>652</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>653</v>
-      </c>
-      <c r="D170" t="s">
-        <v>654</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
@@ -7410,16 +7412,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>654</v>
+      </c>
+      <c r="B171" t="s">
+        <v>654</v>
+      </c>
+      <c r="C171" t="s">
         <v>655</v>
       </c>
-      <c r="B171" t="s">
-        <v>655</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>656</v>
-      </c>
-      <c r="D171" t="s">
-        <v>657</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
@@ -7427,16 +7429,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>657</v>
+      </c>
+      <c r="B172" t="s">
         <v>658</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>659</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>660</v>
-      </c>
-      <c r="D172" t="s">
-        <v>661</v>
       </c>
       <c r="E172" t="s">
         <v>45</v>
@@ -7444,16 +7446,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>661</v>
+      </c>
+      <c r="B173" t="s">
         <v>662</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>663</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>664</v>
-      </c>
-      <c r="D173" t="s">
-        <v>665</v>
       </c>
       <c r="E173" t="s">
         <v>45</v>
@@ -7461,16 +7463,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>665</v>
+      </c>
+      <c r="B174" t="s">
         <v>666</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>667</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>668</v>
-      </c>
-      <c r="D174" t="s">
-        <v>669</v>
       </c>
       <c r="E174" t="s">
         <v>45</v>
@@ -7478,16 +7480,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>669</v>
+      </c>
+      <c r="B175" t="s">
         <v>670</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>671</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>672</v>
-      </c>
-      <c r="D175" t="s">
-        <v>673</v>
       </c>
       <c r="E175" t="s">
         <v>45</v>
@@ -7495,16 +7497,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>673</v>
+      </c>
+      <c r="B176" t="s">
         <v>674</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>675</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>676</v>
-      </c>
-      <c r="D176" t="s">
-        <v>677</v>
       </c>
       <c r="E176" t="s">
         <v>45</v>
@@ -7512,16 +7514,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>677</v>
+      </c>
+      <c r="B177" t="s">
+        <v>677</v>
+      </c>
+      <c r="C177" t="s">
         <v>678</v>
       </c>
-      <c r="B177" t="s">
-        <v>678</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>679</v>
-      </c>
-      <c r="D177" t="s">
-        <v>680</v>
       </c>
       <c r="E177" t="s">
         <v>45</v>
@@ -7529,16 +7531,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>680</v>
+      </c>
+      <c r="B178" t="s">
+        <v>680</v>
+      </c>
+      <c r="C178" t="s">
         <v>681</v>
       </c>
-      <c r="B178" t="s">
-        <v>681</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>682</v>
-      </c>
-      <c r="D178" t="s">
-        <v>683</v>
       </c>
       <c r="E178" t="s">
         <v>45</v>
@@ -7546,16 +7548,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>683</v>
+      </c>
+      <c r="B179" t="s">
         <v>684</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>685</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>686</v>
-      </c>
-      <c r="D179" t="s">
-        <v>687</v>
       </c>
       <c r="E179" t="s">
         <v>45</v>
@@ -7563,16 +7565,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>687</v>
+      </c>
+      <c r="B180" t="s">
         <v>688</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>689</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>690</v>
-      </c>
-      <c r="D180" t="s">
-        <v>691</v>
       </c>
       <c r="E180" t="s">
         <v>45</v>
@@ -7580,16 +7582,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>691</v>
+      </c>
+      <c r="B181" t="s">
         <v>692</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>693</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>694</v>
-      </c>
-      <c r="D181" t="s">
-        <v>695</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
@@ -7597,16 +7599,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>695</v>
+      </c>
+      <c r="B182" t="s">
         <v>696</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>697</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>698</v>
-      </c>
-      <c r="D182" t="s">
-        <v>699</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -7614,16 +7616,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>699</v>
+      </c>
+      <c r="B183" t="s">
         <v>700</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>701</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>702</v>
-      </c>
-      <c r="D183" t="s">
-        <v>703</v>
       </c>
       <c r="E183" t="s">
         <v>45</v>
@@ -7631,16 +7633,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>703</v>
+      </c>
+      <c r="B184" t="s">
         <v>704</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>705</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>706</v>
-      </c>
-      <c r="D184" t="s">
-        <v>707</v>
       </c>
       <c r="E184" t="s">
         <v>45</v>
@@ -7648,16 +7650,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>707</v>
+      </c>
+      <c r="B185" t="s">
         <v>708</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>709</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>710</v>
-      </c>
-      <c r="D185" t="s">
-        <v>711</v>
       </c>
       <c r="E185" t="s">
         <v>45</v>
@@ -7665,16 +7667,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>711</v>
+      </c>
+      <c r="B186" t="s">
         <v>712</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>713</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>714</v>
-      </c>
-      <c r="D186" t="s">
-        <v>715</v>
       </c>
       <c r="E186" t="s">
         <v>45</v>
@@ -7682,16 +7684,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>715</v>
+      </c>
+      <c r="B187" t="s">
         <v>716</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>717</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>718</v>
-      </c>
-      <c r="D187" t="s">
-        <v>719</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
@@ -7699,16 +7701,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>719</v>
+      </c>
+      <c r="B188" t="s">
         <v>720</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>721</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>722</v>
-      </c>
-      <c r="D188" t="s">
-        <v>723</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
@@ -7716,16 +7718,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>723</v>
+      </c>
+      <c r="B189" t="s">
         <v>724</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>725</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>726</v>
-      </c>
-      <c r="D189" t="s">
-        <v>727</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -7733,16 +7735,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>727</v>
+      </c>
+      <c r="B190" t="s">
         <v>728</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>729</v>
       </c>
-      <c r="C190" t="s">
-        <v>730</v>
-      </c>
       <c r="D190" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -7750,16 +7752,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>730</v>
+      </c>
+      <c r="B191" t="s">
         <v>731</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>732</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>733</v>
-      </c>
-      <c r="D191" t="s">
-        <v>734</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7767,16 +7769,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>734</v>
+      </c>
+      <c r="B192" t="s">
+        <v>734</v>
+      </c>
+      <c r="C192" t="s">
         <v>735</v>
       </c>
-      <c r="B192" t="s">
-        <v>735</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>736</v>
-      </c>
-      <c r="D192" t="s">
-        <v>737</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -7784,16 +7786,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>737</v>
+      </c>
+      <c r="B193" t="s">
         <v>738</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>739</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>740</v>
-      </c>
-      <c r="D193" t="s">
-        <v>741</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -7801,16 +7803,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>741</v>
+      </c>
+      <c r="B194" t="s">
         <v>742</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>743</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>744</v>
-      </c>
-      <c r="D194" t="s">
-        <v>745</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -7818,16 +7820,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>745</v>
+      </c>
+      <c r="B195" t="s">
         <v>746</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>747</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>748</v>
-      </c>
-      <c r="D195" t="s">
-        <v>749</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
@@ -7835,16 +7837,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>749</v>
+      </c>
+      <c r="B196" t="s">
         <v>750</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>751</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>752</v>
-      </c>
-      <c r="D196" t="s">
-        <v>753</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -7852,16 +7854,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>753</v>
+      </c>
+      <c r="B197" t="s">
         <v>754</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>755</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>756</v>
-      </c>
-      <c r="D197" t="s">
-        <v>757</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -7869,16 +7871,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>757</v>
+      </c>
+      <c r="B198" t="s">
         <v>758</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>759</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>760</v>
-      </c>
-      <c r="D198" t="s">
-        <v>761</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -7886,16 +7888,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>761</v>
+      </c>
+      <c r="B199" t="s">
         <v>762</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>763</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>764</v>
-      </c>
-      <c r="D199" t="s">
-        <v>765</v>
       </c>
       <c r="E199" t="s">
         <v>12</v>
@@ -7903,16 +7905,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>765</v>
+      </c>
+      <c r="B200" t="s">
         <v>766</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>767</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>768</v>
-      </c>
-      <c r="D200" t="s">
-        <v>769</v>
       </c>
       <c r="E200" t="s">
         <v>12</v>
@@ -7920,16 +7922,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>769</v>
+      </c>
+      <c r="B201" t="s">
         <v>770</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>771</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>772</v>
-      </c>
-      <c r="D201" t="s">
-        <v>773</v>
       </c>
       <c r="E201" t="s">
         <v>12</v>
@@ -7937,16 +7939,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>773</v>
+      </c>
+      <c r="B202" t="s">
         <v>774</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>775</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>776</v>
-      </c>
-      <c r="D202" t="s">
-        <v>777</v>
       </c>
       <c r="E202" t="s">
         <v>12</v>
@@ -7954,16 +7956,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>777</v>
+      </c>
+      <c r="B203" t="s">
         <v>778</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>779</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>780</v>
-      </c>
-      <c r="D203" t="s">
-        <v>781</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
@@ -7971,16 +7973,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>781</v>
+      </c>
+      <c r="B204" t="s">
         <v>782</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>783</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>784</v>
-      </c>
-      <c r="D204" t="s">
-        <v>785</v>
       </c>
       <c r="E204" t="s">
         <v>12</v>
@@ -7988,16 +7990,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>785</v>
+      </c>
+      <c r="B205" t="s">
         <v>786</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>787</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>788</v>
-      </c>
-      <c r="D205" t="s">
-        <v>789</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8005,16 +8007,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>789</v>
+      </c>
+      <c r="B206" t="s">
         <v>790</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>791</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>792</v>
-      </c>
-      <c r="D206" t="s">
-        <v>793</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -8022,16 +8024,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>793</v>
+      </c>
+      <c r="B207" t="s">
         <v>794</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>795</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>796</v>
-      </c>
-      <c r="D207" t="s">
-        <v>797</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
@@ -8039,16 +8041,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>797</v>
+      </c>
+      <c r="B208" t="s">
         <v>798</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>799</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>800</v>
-      </c>
-      <c r="D208" t="s">
-        <v>801</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -8056,16 +8058,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>801</v>
+      </c>
+      <c r="B209" t="s">
         <v>802</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>803</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>804</v>
-      </c>
-      <c r="D209" t="s">
-        <v>805</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -8073,16 +8075,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>805</v>
+      </c>
+      <c r="B210" t="s">
         <v>806</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>807</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>808</v>
-      </c>
-      <c r="D210" t="s">
-        <v>809</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
@@ -8090,16 +8092,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>809</v>
+      </c>
+      <c r="B211" t="s">
         <v>810</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>811</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>812</v>
-      </c>
-      <c r="D211" t="s">
-        <v>813</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
@@ -8107,16 +8109,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>813</v>
+      </c>
+      <c r="B212" t="s">
         <v>814</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>815</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>816</v>
-      </c>
-      <c r="D212" t="s">
-        <v>817</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -8124,16 +8126,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>817</v>
+      </c>
+      <c r="B213" t="s">
         <v>818</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>819</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>820</v>
-      </c>
-      <c r="D213" t="s">
-        <v>821</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
@@ -8141,16 +8143,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>821</v>
+      </c>
+      <c r="B214" t="s">
         <v>822</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>823</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>824</v>
-      </c>
-      <c r="D214" t="s">
-        <v>825</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
@@ -8158,16 +8160,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>825</v>
+      </c>
+      <c r="B215" t="s">
         <v>826</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>827</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>828</v>
-      </c>
-      <c r="D215" t="s">
-        <v>829</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
@@ -8175,16 +8177,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>829</v>
+      </c>
+      <c r="B216" t="s">
         <v>830</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>831</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>832</v>
-      </c>
-      <c r="D216" t="s">
-        <v>833</v>
       </c>
       <c r="E216" t="s">
         <v>12</v>
@@ -8192,16 +8194,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>833</v>
+      </c>
+      <c r="B217" t="s">
         <v>834</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>835</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>836</v>
-      </c>
-      <c r="D217" t="s">
-        <v>837</v>
       </c>
       <c r="E217" t="s">
         <v>12</v>
@@ -8209,16 +8211,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>837</v>
+      </c>
+      <c r="B218" t="s">
         <v>838</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>839</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>840</v>
-      </c>
-      <c r="D218" t="s">
-        <v>841</v>
       </c>
       <c r="E218" t="s">
         <v>12</v>
@@ -8226,16 +8228,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>841</v>
+      </c>
+      <c r="B219" t="s">
         <v>842</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>843</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>844</v>
-      </c>
-      <c r="D219" t="s">
-        <v>845</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -8243,13 +8245,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>845</v>
+      </c>
+      <c r="B220" t="s">
         <v>846</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>847</v>
-      </c>
-      <c r="C220" t="s">
-        <v>848</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
@@ -8260,13 +8262,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>848</v>
+      </c>
+      <c r="B221" t="s">
         <v>849</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>850</v>
-      </c>
-      <c r="C221" t="s">
-        <v>851</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -8277,16 +8279,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>851</v>
+      </c>
+      <c r="B222" t="s">
         <v>852</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>853</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>854</v>
-      </c>
-      <c r="D222" t="s">
-        <v>855</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
@@ -8294,16 +8296,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>855</v>
+      </c>
+      <c r="B223" t="s">
         <v>856</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>857</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>858</v>
-      </c>
-      <c r="D223" t="s">
-        <v>859</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
@@ -8311,16 +8313,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>859</v>
+      </c>
+      <c r="B224" t="s">
         <v>860</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>861</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>862</v>
-      </c>
-      <c r="D224" t="s">
-        <v>863</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
@@ -8328,16 +8330,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>863</v>
+      </c>
+      <c r="B225" t="s">
         <v>864</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>865</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>866</v>
-      </c>
-      <c r="D225" t="s">
-        <v>867</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
@@ -8345,16 +8347,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>867</v>
+      </c>
+      <c r="B226" t="s">
+        <v>867</v>
+      </c>
+      <c r="C226" t="s">
         <v>868</v>
       </c>
-      <c r="B226" t="s">
-        <v>868</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>869</v>
-      </c>
-      <c r="D226" t="s">
-        <v>870</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -8362,16 +8364,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>870</v>
+      </c>
+      <c r="B227" t="s">
+        <v>870</v>
+      </c>
+      <c r="C227" t="s">
         <v>871</v>
       </c>
-      <c r="B227" t="s">
-        <v>871</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>872</v>
-      </c>
-      <c r="D227" t="s">
-        <v>873</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
@@ -8379,16 +8381,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>873</v>
+      </c>
+      <c r="B228" t="s">
+        <v>873</v>
+      </c>
+      <c r="C228" t="s">
         <v>874</v>
       </c>
-      <c r="B228" t="s">
-        <v>874</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>875</v>
-      </c>
-      <c r="D228" t="s">
-        <v>876</v>
       </c>
       <c r="E228" t="s">
         <v>12</v>
@@ -8396,16 +8398,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>876</v>
+      </c>
+      <c r="B229" t="s">
+        <v>876</v>
+      </c>
+      <c r="C229" t="s">
         <v>877</v>
       </c>
-      <c r="B229" t="s">
-        <v>877</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>878</v>
-      </c>
-      <c r="D229" t="s">
-        <v>879</v>
       </c>
       <c r="E229" t="s">
         <v>12</v>
@@ -8413,16 +8415,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>879</v>
+      </c>
+      <c r="B230" t="s">
         <v>880</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>881</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>882</v>
-      </c>
-      <c r="D230" t="s">
-        <v>883</v>
       </c>
       <c r="E230" t="s">
         <v>12</v>
@@ -8430,16 +8432,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>883</v>
+      </c>
+      <c r="B231" t="s">
         <v>884</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>885</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>886</v>
-      </c>
-      <c r="D231" t="s">
-        <v>887</v>
       </c>
       <c r="E231" t="s">
         <v>12</v>
@@ -8447,16 +8449,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>887</v>
+      </c>
+      <c r="B232" t="s">
         <v>888</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>889</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>890</v>
-      </c>
-      <c r="D232" t="s">
-        <v>891</v>
       </c>
       <c r="E232" t="s">
         <v>12</v>
@@ -8464,16 +8466,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>891</v>
+      </c>
+      <c r="B233" t="s">
         <v>892</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>893</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>894</v>
-      </c>
-      <c r="D233" t="s">
-        <v>895</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -8481,16 +8483,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>895</v>
+      </c>
+      <c r="B234" t="s">
         <v>896</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>897</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>898</v>
-      </c>
-      <c r="D234" t="s">
-        <v>899</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -8498,16 +8500,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>899</v>
+      </c>
+      <c r="B235" t="s">
         <v>900</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>901</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>902</v>
-      </c>
-      <c r="D235" t="s">
-        <v>903</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -8515,16 +8517,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B236" t="s">
         <v>905</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>906</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>907</v>
-      </c>
-      <c r="D236" t="s">
-        <v>908</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
@@ -8532,16 +8534,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>908</v>
+      </c>
+      <c r="B237" t="s">
         <v>909</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>910</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>911</v>
-      </c>
-      <c r="D237" t="s">
-        <v>912</v>
       </c>
       <c r="E237" t="s">
         <v>12</v>
@@ -8549,16 +8551,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>912</v>
+      </c>
+      <c r="B238" t="s">
         <v>913</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>914</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>915</v>
-      </c>
-      <c r="D238" t="s">
-        <v>916</v>
       </c>
       <c r="E238" t="s">
         <v>12</v>
@@ -8566,16 +8568,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>916</v>
+      </c>
+      <c r="B239" t="s">
         <v>917</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>918</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>919</v>
-      </c>
-      <c r="D239" t="s">
-        <v>920</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -8583,16 +8585,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>920</v>
+      </c>
+      <c r="B240" t="s">
         <v>921</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>922</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>923</v>
-      </c>
-      <c r="D240" t="s">
-        <v>924</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -8600,16 +8602,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>924</v>
+      </c>
+      <c r="B241" t="s">
         <v>925</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>926</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>927</v>
-      </c>
-      <c r="D241" t="s">
-        <v>928</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
@@ -8617,16 +8619,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>928</v>
+      </c>
+      <c r="B242" t="s">
         <v>929</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>930</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>931</v>
-      </c>
-      <c r="D242" t="s">
-        <v>932</v>
       </c>
       <c r="E242" t="s">
         <v>12</v>
@@ -8634,16 +8636,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>932</v>
+      </c>
+      <c r="B243" t="s">
         <v>933</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>934</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>935</v>
-      </c>
-      <c r="D243" t="s">
-        <v>936</v>
       </c>
       <c r="E243" t="s">
         <v>12</v>
@@ -8651,16 +8653,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>936</v>
+      </c>
+      <c r="B244" t="s">
         <v>937</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>938</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>939</v>
-      </c>
-      <c r="D244" t="s">
-        <v>940</v>
       </c>
       <c r="E244" t="s">
         <v>12</v>
@@ -8668,16 +8670,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>940</v>
+      </c>
+      <c r="B245" t="s">
         <v>941</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>942</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>943</v>
-      </c>
-      <c r="D245" t="s">
-        <v>944</v>
       </c>
       <c r="E245" t="s">
         <v>12</v>
@@ -8685,16 +8687,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>944</v>
+      </c>
+      <c r="B246" t="s">
         <v>945</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>946</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>947</v>
-      </c>
-      <c r="D246" t="s">
-        <v>948</v>
       </c>
       <c r="E246" t="s">
         <v>12</v>
@@ -8702,16 +8704,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>948</v>
+      </c>
+      <c r="B247" t="s">
         <v>949</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>950</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>951</v>
-      </c>
-      <c r="D247" t="s">
-        <v>952</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -8719,16 +8721,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>952</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C248" t="s">
         <v>953</v>
       </c>
-      <c r="B248" t="s">
+      <c r="D248" t="s">
         <v>954</v>
-      </c>
-      <c r="C248" t="s">
-        <v>955</v>
-      </c>
-      <c r="D248" t="s">
-        <v>956</v>
       </c>
       <c r="E248" t="s">
         <v>12</v>
@@ -8736,16 +8738,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>955</v>
+      </c>
+      <c r="B249" t="s">
+        <v>956</v>
+      </c>
+      <c r="C249" t="s">
         <v>957</v>
       </c>
-      <c r="B249" t="s">
+      <c r="D249" t="s">
         <v>958</v>
-      </c>
-      <c r="C249" t="s">
-        <v>959</v>
-      </c>
-      <c r="D249" t="s">
-        <v>960</v>
       </c>
       <c r="E249" t="s">
         <v>12</v>
@@ -8753,16 +8755,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>959</v>
+      </c>
+      <c r="B250" t="s">
+        <v>960</v>
+      </c>
+      <c r="C250" t="s">
         <v>961</v>
       </c>
-      <c r="B250" t="s">
+      <c r="D250" t="s">
         <v>962</v>
-      </c>
-      <c r="C250" t="s">
-        <v>963</v>
-      </c>
-      <c r="D250" t="s">
-        <v>964</v>
       </c>
       <c r="E250" t="s">
         <v>12</v>
@@ -8770,16 +8772,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>963</v>
+      </c>
+      <c r="B251" t="s">
+        <v>964</v>
+      </c>
+      <c r="C251" t="s">
         <v>965</v>
       </c>
-      <c r="B251" t="s">
+      <c r="D251" t="s">
         <v>966</v>
-      </c>
-      <c r="C251" t="s">
-        <v>967</v>
-      </c>
-      <c r="D251" t="s">
-        <v>968</v>
       </c>
       <c r="E251" t="s">
         <v>12</v>
@@ -8787,16 +8789,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>967</v>
+      </c>
+      <c r="B252" t="s">
+        <v>968</v>
+      </c>
+      <c r="C252" t="s">
         <v>969</v>
       </c>
-      <c r="B252" t="s">
+      <c r="D252" t="s">
         <v>970</v>
-      </c>
-      <c r="C252" t="s">
-        <v>971</v>
-      </c>
-      <c r="D252" t="s">
-        <v>972</v>
       </c>
       <c r="E252" t="s">
         <v>12</v>
@@ -8804,16 +8806,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>971</v>
+      </c>
+      <c r="B253" t="s">
+        <v>972</v>
+      </c>
+      <c r="C253" t="s">
         <v>973</v>
       </c>
-      <c r="B253" t="s">
+      <c r="D253" t="s">
         <v>974</v>
-      </c>
-      <c r="C253" t="s">
-        <v>975</v>
-      </c>
-      <c r="D253" t="s">
-        <v>976</v>
       </c>
       <c r="E253" t="s">
         <v>12</v>
@@ -8821,16 +8823,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>975</v>
+      </c>
+      <c r="B254" t="s">
+        <v>976</v>
+      </c>
+      <c r="C254" t="s">
         <v>977</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D254" t="s">
         <v>978</v>
-      </c>
-      <c r="C254" t="s">
-        <v>979</v>
-      </c>
-      <c r="D254" t="s">
-        <v>980</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -8838,16 +8840,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>979</v>
+      </c>
+      <c r="B255" t="s">
+        <v>980</v>
+      </c>
+      <c r="C255" t="s">
         <v>981</v>
       </c>
-      <c r="B255" t="s">
+      <c r="D255" t="s">
         <v>982</v>
-      </c>
-      <c r="C255" t="s">
-        <v>983</v>
-      </c>
-      <c r="D255" t="s">
-        <v>984</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
@@ -8855,16 +8857,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>983</v>
+      </c>
+      <c r="B256" t="s">
+        <v>984</v>
+      </c>
+      <c r="C256" t="s">
         <v>985</v>
       </c>
-      <c r="B256" t="s">
+      <c r="D256" t="s">
         <v>986</v>
-      </c>
-      <c r="C256" t="s">
-        <v>987</v>
-      </c>
-      <c r="D256" t="s">
-        <v>988</v>
       </c>
       <c r="E256" t="s">
         <v>12</v>
@@ -8872,16 +8874,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>987</v>
+      </c>
+      <c r="B257" t="s">
+        <v>988</v>
+      </c>
+      <c r="C257" t="s">
         <v>989</v>
       </c>
-      <c r="B257" t="s">
+      <c r="D257" t="s">
         <v>990</v>
-      </c>
-      <c r="C257" t="s">
-        <v>991</v>
-      </c>
-      <c r="D257" t="s">
-        <v>992</v>
       </c>
       <c r="E257" t="s">
         <v>12</v>
@@ -8889,16 +8891,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>991</v>
+      </c>
+      <c r="B258" t="s">
+        <v>992</v>
+      </c>
+      <c r="C258" t="s">
         <v>993</v>
       </c>
-      <c r="B258" t="s">
+      <c r="D258" t="s">
         <v>994</v>
-      </c>
-      <c r="C258" t="s">
-        <v>995</v>
-      </c>
-      <c r="D258" t="s">
-        <v>996</v>
       </c>
       <c r="E258" t="s">
         <v>12</v>
@@ -8906,16 +8908,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>995</v>
+      </c>
+      <c r="B259" t="s">
+        <v>996</v>
+      </c>
+      <c r="C259" t="s">
         <v>997</v>
       </c>
-      <c r="B259" t="s">
+      <c r="D259" t="s">
         <v>998</v>
-      </c>
-      <c r="C259" t="s">
-        <v>999</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1000</v>
       </c>
       <c r="E259" t="s">
         <v>12</v>
@@ -8923,16 +8925,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>999</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C260" t="s">
         <v>1001</v>
       </c>
-      <c r="B260" t="s">
+      <c r="D260" t="s">
         <v>1002</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1004</v>
       </c>
       <c r="E260" t="s">
         <v>12</v>
@@ -8940,16 +8942,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C261" t="s">
         <v>1005</v>
       </c>
-      <c r="B261" t="s">
+      <c r="D261" t="s">
         <v>1006</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1008</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -8957,16 +8959,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C262" t="s">
         <v>1009</v>
       </c>
-      <c r="B262" t="s">
+      <c r="D262" t="s">
         <v>1010</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1012</v>
       </c>
       <c r="E262" t="s">
         <v>12</v>
@@ -8974,16 +8976,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C263" t="s">
         <v>1013</v>
       </c>
-      <c r="B263" t="s">
+      <c r="D263" t="s">
         <v>1014</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1016</v>
       </c>
       <c r="E263" t="s">
         <v>12</v>
@@ -8991,16 +8993,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C264" t="s">
         <v>1017</v>
       </c>
-      <c r="B264" t="s">
+      <c r="D264" t="s">
         <v>1018</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1020</v>
       </c>
       <c r="E264" t="s">
         <v>12</v>
@@ -9008,16 +9010,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C265" t="s">
         <v>1021</v>
       </c>
-      <c r="B265" t="s">
+      <c r="D265" t="s">
         <v>1022</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1024</v>
       </c>
       <c r="E265" t="s">
         <v>12</v>
@@ -9025,16 +9027,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C266" t="s">
         <v>1025</v>
       </c>
-      <c r="B266" t="s">
+      <c r="D266" t="s">
         <v>1026</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1028</v>
       </c>
       <c r="E266" t="s">
         <v>12</v>
@@ -9042,16 +9044,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C267" t="s">
         <v>1029</v>
       </c>
-      <c r="B267" t="s">
+      <c r="D267" t="s">
         <v>1030</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D267" t="s">
-        <v>1032</v>
       </c>
       <c r="E267" t="s">
         <v>12</v>
@@ -9059,16 +9061,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C268" t="s">
         <v>1033</v>
       </c>
-      <c r="B268" t="s">
+      <c r="D268" t="s">
         <v>1034</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1036</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -9076,16 +9078,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C269" t="s">
         <v>1037</v>
       </c>
-      <c r="B269" t="s">
+      <c r="D269" t="s">
         <v>1038</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1040</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -9093,16 +9095,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C270" t="s">
         <v>1041</v>
       </c>
-      <c r="B270" t="s">
+      <c r="D270" t="s">
         <v>1042</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1044</v>
       </c>
       <c r="E270" t="s">
         <v>12</v>
@@ -9110,16 +9112,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C271" t="s">
         <v>1045</v>
       </c>
-      <c r="B271" t="s">
+      <c r="D271" t="s">
         <v>1046</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1048</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -9127,16 +9129,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C272" t="s">
         <v>1049</v>
       </c>
-      <c r="B272" t="s">
+      <c r="D272" t="s">
         <v>1050</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1052</v>
       </c>
       <c r="E272" t="s">
         <v>12</v>
@@ -9144,16 +9146,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C273" t="s">
         <v>1053</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D273" t="s">
         <v>1054</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1056</v>
       </c>
       <c r="E273" t="s">
         <v>12</v>
@@ -9161,16 +9163,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C274" t="s">
         <v>1057</v>
       </c>
-      <c r="B274" t="s">
+      <c r="D274" t="s">
         <v>1058</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1060</v>
       </c>
       <c r="E274" t="s">
         <v>12</v>
@@ -9178,16 +9180,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C275" t="s">
         <v>1061</v>
       </c>
-      <c r="B275" t="s">
+      <c r="D275" t="s">
         <v>1062</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1064</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -9195,16 +9197,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C276" t="s">
         <v>1065</v>
       </c>
-      <c r="B276" t="s">
+      <c r="D276" t="s">
         <v>1066</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1068</v>
       </c>
       <c r="E276" t="s">
         <v>12</v>
@@ -9212,16 +9214,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C277" t="s">
         <v>1069</v>
       </c>
-      <c r="B277" t="s">
+      <c r="D277" t="s">
         <v>1070</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1072</v>
       </c>
       <c r="E277" t="s">
         <v>12</v>
@@ -9229,16 +9231,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C278" t="s">
         <v>1073</v>
       </c>
-      <c r="B278" t="s">
+      <c r="D278" t="s">
         <v>1074</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1076</v>
       </c>
       <c r="E278" t="s">
         <v>12</v>
@@ -9246,16 +9248,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C279" t="s">
         <v>1077</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D279" t="s">
         <v>1078</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D279" t="s">
-        <v>1080</v>
       </c>
       <c r="E279" t="s">
         <v>12</v>
@@ -9263,16 +9265,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C280" t="s">
         <v>1081</v>
       </c>
-      <c r="B280" t="s">
+      <c r="D280" t="s">
         <v>1082</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1084</v>
       </c>
       <c r="E280" t="s">
         <v>12</v>
@@ -9280,16 +9282,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C281" t="s">
         <v>1085</v>
       </c>
-      <c r="B281" t="s">
+      <c r="D281" t="s">
         <v>1086</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1088</v>
       </c>
       <c r="E281" t="s">
         <v>12</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D30319B-DA60-4223-8BA4-011118200E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EA773-D66A-40DC-A983-4EABF6E784B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1156">
   <si>
     <t>百度网盘</t>
   </si>
@@ -3565,6 +3565,206 @@
   </si>
   <si>
     <t>china_telecom</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色守护</t>
+  </si>
+  <si>
+    <t>greenify</t>
+  </si>
+  <si>
+    <t>com.oasisfeng.greenify</t>
+  </si>
+  <si>
+    <t>com.oasisfeng.greenify.GreenifyActivity</t>
+  </si>
+  <si>
+    <t>google搜索</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>com.google.android.googlequicksearchbox</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>icebox</t>
+  </si>
+  <si>
+    <t>com.catchingnow.icebox</t>
+  </si>
+  <si>
+    <t>com.catchingnow.icebox.activity.mainActivity.MainAppActivity</t>
+  </si>
+  <si>
+    <t>爱字体</t>
+  </si>
+  <si>
+    <t>ifont</t>
+  </si>
+  <si>
+    <t>com.kapp.ifont</t>
+  </si>
+  <si>
+    <t>com.kapp.ifont.ui.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>字体管家</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>com.xinmei365.font</t>
+  </si>
+  <si>
+    <t>com.xinmei365.font.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>MT管理器2.0</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>bin.mt.plus</t>
+  </si>
+  <si>
+    <t>l.ۦۦ۠ۗ</t>
+  </si>
+  <si>
+    <t>猎豹清理大师</t>
+  </si>
+  <si>
+    <t>liebao_clean_master</t>
+  </si>
+  <si>
+    <t>com.cleanmaster.mguard_cn</t>
+  </si>
+  <si>
+    <t>com.keniu.security.main.MainActivity</t>
+  </si>
+  <si>
+    <t>镧系统工具箱</t>
+  </si>
+  <si>
+    <t>la_systemtoolbox</t>
+  </si>
+  <si>
+    <t>com.xzr.La.systemtoolbox</t>
+  </si>
+  <si>
+    <t>com.xzr.La.systemtoolbox.MainActivity</t>
+  </si>
+  <si>
+    <t>鲁大师</t>
+  </si>
+  <si>
+    <t>ludashi</t>
+  </si>
+  <si>
+    <t>com.ludashi.benchmark</t>
+  </si>
+  <si>
+    <t>com.ludashi.benchmark.SplashActivity</t>
+  </si>
+  <si>
+    <t>空调狗</t>
+  </si>
+  <si>
+    <t>airfrozen</t>
+  </si>
+  <si>
+    <t>me.yourbay.airfrozen</t>
+  </si>
+  <si>
+    <t>me.yourbay.airfrozen.main.uimodule.Launcher</t>
+  </si>
+  <si>
+    <t>悬浮菜单</t>
+  </si>
+  <si>
+    <t>floating</t>
+  </si>
+  <si>
+    <t>com.ksxkq.floating</t>
+  </si>
+  <si>
+    <t>com.ksxkq.floating.ui.MainNavigationActivity</t>
+  </si>
+  <si>
+    <t>腾讯文件</t>
+  </si>
+  <si>
+    <t>tencent_mmt</t>
+  </si>
+  <si>
+    <t>lawnchair启动器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawnchair</t>
+  </si>
+  <si>
+    <t>ch.deletescape.lawnchair</t>
+  </si>
+  <si>
+    <t>ch.deletescape.lawnchair.Launcher</t>
+  </si>
+  <si>
+    <t>搜索lite</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>com.orekie.search</t>
+  </si>
+  <si>
+    <t>com.orekie.search.components.EntryActivity</t>
+  </si>
+  <si>
+    <t>nokia Z Launcher</t>
+  </si>
+  <si>
+    <t>z_launcher</t>
+  </si>
+  <si>
+    <t>com.nokia.z</t>
+  </si>
+  <si>
+    <t>com.nokia.z.ui.NextUIMain</t>
+  </si>
+  <si>
+    <t>安卓壁纸</t>
+  </si>
+  <si>
+    <t>androidesk</t>
+  </si>
+  <si>
+    <t>com.androidesk</t>
+  </si>
+  <si>
+    <t>com.adesk.picasso.view.MainActivity</t>
+  </si>
+  <si>
+    <t>爱壁纸</t>
+  </si>
+  <si>
+    <t>lovebizhi</t>
+  </si>
+  <si>
+    <t>com.lovebizhi.wallpaper</t>
+  </si>
+  <si>
+    <t>com.tencent.FileManager</t>
+  </si>
+  <si>
+    <t>com.google.android.googlequicksearchbox.SearchActivity</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -4505,10 +4705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9297,6 +9497,295 @@
         <v>12</v>
       </c>
     </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E282" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E283" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E284" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E285" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E286" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E287" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E288" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E289" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E290" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E291" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E292" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D293" t="s">
+        <v>51</v>
+      </c>
+      <c r="E293" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E294" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E295" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E297" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E298" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EA773-D66A-40DC-A983-4EABF6E784B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6514CD-805A-4D1E-B775-A81268C61355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1270">
   <si>
     <t>百度网盘</t>
   </si>
@@ -3766,6 +3766,355 @@
   <si>
     <t>com.google.android.googlequicksearchbox.SearchActivity</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局透明壁纸</t>
+  </si>
+  <si>
+    <t>transparent_wallpaper</t>
+  </si>
+  <si>
+    <t>com.jian.qin</t>
+  </si>
+  <si>
+    <t>com.jian.quan.activity.LoginActivity</t>
+  </si>
+  <si>
+    <t>边缘闪光</t>
+  </si>
+  <si>
+    <t>edge_lighting</t>
+  </si>
+  <si>
+    <t>com.panshen.edgelighting</t>
+  </si>
+  <si>
+    <t>com.panshen.ui.activity.TabMainactivity</t>
+  </si>
+  <si>
+    <t>QQ日本版</t>
+  </si>
+  <si>
+    <t>qq_japan</t>
+  </si>
+  <si>
+    <t>com.tencent.qq.kddi</t>
+  </si>
+  <si>
+    <t>豆瓣</t>
+  </si>
+  <si>
+    <t>douban</t>
+  </si>
+  <si>
+    <t>com.douban.frodo</t>
+  </si>
+  <si>
+    <t>com.douban.frodo.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>blued</t>
+  </si>
+  <si>
+    <t>com.soft.blued</t>
+  </si>
+  <si>
+    <t>com.soft.blued.icon0</t>
+  </si>
+  <si>
+    <t>LOFTER</t>
+  </si>
+  <si>
+    <t>lofter</t>
+  </si>
+  <si>
+    <t>com.lofter.android</t>
+  </si>
+  <si>
+    <t>com.lofter.android.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>cn.soulapp.android</t>
+  </si>
+  <si>
+    <t>cn.soulapp.android.ui.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>脉脉</t>
+  </si>
+  <si>
+    <t>maimai</t>
+  </si>
+  <si>
+    <t>com.taou.maimai</t>
+  </si>
+  <si>
+    <t>com.taou.maimai.SplashActivity</t>
+  </si>
+  <si>
+    <t>他趣</t>
+  </si>
+  <si>
+    <t>taqu</t>
+  </si>
+  <si>
+    <t>com.xingjiabi.shengsheng</t>
+  </si>
+  <si>
+    <t>com.xingjiabi.shengsheng.app.SplashActivity</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>com.linkedin.android</t>
+  </si>
+  <si>
+    <t>米聊</t>
+  </si>
+  <si>
+    <t>com.xiaomi.channel</t>
+  </si>
+  <si>
+    <t>com.xiaomi.channel.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>miui论坛</t>
+  </si>
+  <si>
+    <t>miuibbs</t>
+  </si>
+  <si>
+    <t>com.miui.miuibbs</t>
+  </si>
+  <si>
+    <t>com.miui.miuibbs.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>百度贴吧</t>
+  </si>
+  <si>
+    <t>baidu_tieba</t>
+  </si>
+  <si>
+    <t>com.baidu.tieba</t>
+  </si>
+  <si>
+    <t>com.baidu.tieba.LogoActivity</t>
+  </si>
+  <si>
+    <t>adobe reader</t>
+  </si>
+  <si>
+    <t>adobe_reader</t>
+  </si>
+  <si>
+    <t>com.adobe.reader</t>
+  </si>
+  <si>
+    <t>com.adobe.reader.AdobeReader</t>
+  </si>
+  <si>
+    <t>QQ阅读</t>
+  </si>
+  <si>
+    <t>qq_reader</t>
+  </si>
+  <si>
+    <t>com.qq.reader</t>
+  </si>
+  <si>
+    <t>com.qq.reader.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>xiaomi_channel</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.linkedin.android.authenticator.LaunchActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌上英雄联盟</t>
+  </si>
+  <si>
+    <t>tencent_qtl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qt.qtl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qt.qtl.activity.main.LauncherActivity</t>
+  </si>
+  <si>
+    <t>汽车之家</t>
+  </si>
+  <si>
+    <t>autohome</t>
+  </si>
+  <si>
+    <t>com.cubic.autohome</t>
+  </si>
+  <si>
+    <t>com.cubic.autohome.LogoActivity</t>
+  </si>
+  <si>
+    <t>糗事百科</t>
+  </si>
+  <si>
+    <t>qsbk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qsbk.app</t>
+  </si>
+  <si>
+    <t>qsbk.app.activity.group.SplashGroup</t>
+  </si>
+  <si>
+    <t>腾讯新闻</t>
+  </si>
+  <si>
+    <t>tencent_news</t>
+  </si>
+  <si>
+    <t>com.tencent.news</t>
+  </si>
+  <si>
+    <t>com.tencent.news.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人听书</t>
+  </si>
+  <si>
+    <t>tingshu</t>
+  </si>
+  <si>
+    <t>bubei.tingshu</t>
+  </si>
+  <si>
+    <t>bubei.tingshu.listen.guide.ui.activity.LOGOActivity</t>
+  </si>
+  <si>
+    <t>最右</t>
+  </si>
+  <si>
+    <t>zuiyou</t>
+  </si>
+  <si>
+    <t>cn.xiaochuankeji.tieba</t>
+  </si>
+  <si>
+    <t>cn.xiaochuankeji.tieba.ui.base.SplashActivity</t>
+  </si>
+  <si>
+    <t>开眼</t>
+  </si>
+  <si>
+    <t>eyepetizer</t>
+  </si>
+  <si>
+    <t>com.wandoujia.eyepetizer</t>
+  </si>
+  <si>
+    <t>com.wandoujia.eyepetizer.ui.activity.LandingActivity</t>
+  </si>
+  <si>
+    <t>NGA玩家社区</t>
+  </si>
+  <si>
+    <t>nga</t>
+  </si>
+  <si>
+    <t>gov.pianzong.androidnga</t>
+  </si>
+  <si>
+    <t>gov.pianzong.androidnga.activity.LoadingActivity</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>com.valvesoftware.android.steam.community</t>
+  </si>
+  <si>
+    <t>com.valvesoftware.android.steam.community.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>搜书大师</t>
+  </si>
+  <si>
+    <t>seekbooks</t>
+  </si>
+  <si>
+    <t>com.flyersoft.seekbooks</t>
+  </si>
+  <si>
+    <t>com.flyersoft.seekbooks.ActivityMain</t>
+  </si>
+  <si>
+    <t>kindle</t>
+  </si>
+  <si>
+    <t>com.amazon.kindlefc</t>
+  </si>
+  <si>
+    <t>com.amazon.kindle.UpgradePage</t>
+  </si>
+  <si>
+    <t>新浪新闻</t>
+  </si>
+  <si>
+    <t>sina_news</t>
+  </si>
+  <si>
+    <t>com.sina.news</t>
+  </si>
+  <si>
+    <t>com.sina.news.module.launch.activity.PowerOnScreen</t>
+  </si>
+  <si>
+    <t>腾讯体育</t>
+  </si>
+  <si>
+    <t>tencent_sports</t>
+  </si>
+  <si>
+    <t>com.tencent.qqsports</t>
+  </si>
+  <si>
+    <t>com.tencent.qqsports.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>起点读书</t>
+  </si>
+  <si>
+    <t>qidian</t>
+  </si>
+  <si>
+    <t>com.qidian.QDReader</t>
+  </si>
+  <si>
+    <t>书旗小说</t>
+  </si>
+  <si>
+    <t>shuqi</t>
+  </si>
+  <si>
+    <t>com.shuqi.controller</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.shuqi.activity.SplashActivity</t>
   </si>
 </sst>
 </file>
@@ -4705,10 +5054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9786,6 +10135,516 @@
         <v>45</v>
       </c>
     </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E299" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E300" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D301" t="s">
+        <v>27</v>
+      </c>
+      <c r="E301" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E302" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E303" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E304" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E305" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E306" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E307" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E308" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E309" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E311" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E312" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E313" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E314" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E315" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E316" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E317" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E318" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E319" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E320" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E321" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E322" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E323" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E324" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E325" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E326" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D327" t="s">
+        <v>966</v>
+      </c>
+      <c r="E327" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E328" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6514CD-805A-4D1E-B775-A81268C61355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238057F-D392-4007-9F2E-4032ABA06A30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1393">
   <si>
     <t>百度网盘</t>
   </si>
@@ -4115,6 +4115,385 @@
   </si>
   <si>
     <t>com.shuqi.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>中关村在线</t>
+  </si>
+  <si>
+    <t>zol</t>
+  </si>
+  <si>
+    <t>com.zol.android.ui.FirstActivity</t>
+  </si>
+  <si>
+    <t>动漫之家</t>
+  </si>
+  <si>
+    <t>dmzj</t>
+  </si>
+  <si>
+    <t>com.dmzj.manhua</t>
+  </si>
+  <si>
+    <t>com.dmzj.manhua.ui.LaunchInterceptorActivity</t>
+  </si>
+  <si>
+    <t>数字尾巴</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>com.funinput.digit</t>
+  </si>
+  <si>
+    <t>com.funinput.digit.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>豆瓣阅读</t>
+  </si>
+  <si>
+    <t>douban_reader</t>
+  </si>
+  <si>
+    <t>com.douban.book.reader</t>
+  </si>
+  <si>
+    <t>com.douban.book.reader.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>快看漫画</t>
+  </si>
+  <si>
+    <t>kuaikan_comic</t>
+  </si>
+  <si>
+    <t>com.kuaikan.comic</t>
+  </si>
+  <si>
+    <t>com.kuaikan.comic.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>掘金</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>com.daimajia.gold</t>
+  </si>
+  <si>
+    <t>im.juejin.android.hull.activity.LogoActivity</t>
+  </si>
+  <si>
+    <t>掌游宝</t>
+  </si>
+  <si>
+    <t>esports</t>
+  </si>
+  <si>
+    <t>com.anzogame.esports</t>
+  </si>
+  <si>
+    <t>com.anzogame.esports.SplashActivity</t>
+  </si>
+  <si>
+    <t>网易漫画</t>
+  </si>
+  <si>
+    <t>com.netease.cartoonreader</t>
+  </si>
+  <si>
+    <t>果壳精选</t>
+  </si>
+  <si>
+    <t>guokr</t>
+  </si>
+  <si>
+    <t>com.guokr.android</t>
+  </si>
+  <si>
+    <t>X浏览器</t>
+  </si>
+  <si>
+    <t>xbrowser</t>
+  </si>
+  <si>
+    <t>com.mmbox.xbrowser</t>
+  </si>
+  <si>
+    <t>com.mmbox.xbrowser.BrowserActivity</t>
+  </si>
+  <si>
+    <t>快牙</t>
+  </si>
+  <si>
+    <t>kuaiya</t>
+  </si>
+  <si>
+    <t>com.dewmobile.kuaiya</t>
+  </si>
+  <si>
+    <t>com.dewmobile.kuaiya.act.DmStartupActivity</t>
+  </si>
+  <si>
+    <t>微云</t>
+  </si>
+  <si>
+    <t>qcloud</t>
+  </si>
+  <si>
+    <t>com.qq.qcloud</t>
+  </si>
+  <si>
+    <t>com.qq.qcloud.activity.WeiyunRootActivity</t>
+  </si>
+  <si>
+    <t>115网盘</t>
+  </si>
+  <si>
+    <t>com.ylmf.androidclient</t>
+  </si>
+  <si>
+    <t>com.main.partner.user.activity.LogActivity</t>
+  </si>
+  <si>
+    <t>airdroid</t>
+  </si>
+  <si>
+    <t>com.sand.airdroid</t>
+  </si>
+  <si>
+    <t>com.sand.airdroid.ui.splash.SplashActivity_</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>baidu</t>
+  </si>
+  <si>
+    <t>com.baidu.searchbox</t>
+  </si>
+  <si>
+    <t>com.baidu.searchbox.SplashActivity</t>
+  </si>
+  <si>
+    <t>netease_cartoonreader</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.cartoonreader.activity.ComicStartFlashActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.guokr.android.ui.activity.SplashActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zol.android</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>google语音搜索</t>
+  </si>
+  <si>
+    <t>google语音搜索</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_voice</t>
+  </si>
+  <si>
+    <t>google_voice</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.googlequicksearchbox.VoiceSearchActivity</t>
+  </si>
+  <si>
+    <t>com.google.android.googlequicksearchbox.VoiceSearchActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软小娜</t>
+  </si>
+  <si>
+    <t>microsoft_cartana</t>
+  </si>
+  <si>
+    <t>com.microsoft.cortana</t>
+  </si>
+  <si>
+    <t>com.microsoft.bing.dss.SplashActivity</t>
+  </si>
+  <si>
+    <t>遨游5浏览器</t>
+  </si>
+  <si>
+    <t>com.mx.browser</t>
+  </si>
+  <si>
+    <t>com.mx.browser.MxSplashActivity</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>com.opera.browser</t>
+  </si>
+  <si>
+    <t>com.opera.Opera</t>
+  </si>
+  <si>
+    <t>豆瓣FM</t>
+  </si>
+  <si>
+    <t>douban_radio</t>
+  </si>
+  <si>
+    <t>com.douban.radio</t>
+  </si>
+  <si>
+    <t>com.douban.radio.ui.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>豆瓣电影</t>
+  </si>
+  <si>
+    <t>douban_movie</t>
+  </si>
+  <si>
+    <t>com.douban.movie</t>
+  </si>
+  <si>
+    <t>com.douban.movie.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>美拍</t>
+  </si>
+  <si>
+    <t>meipai</t>
+  </si>
+  <si>
+    <t>com.meitu.meipaimv</t>
+  </si>
+  <si>
+    <t>com.meitu.meipaimv.StartupActivity</t>
+  </si>
+  <si>
+    <t>VUE</t>
+  </si>
+  <si>
+    <t>video.vue.android</t>
+  </si>
+  <si>
+    <t>video.vue.android.ui.launch.SplashActivity</t>
+  </si>
+  <si>
+    <t>POCO相机</t>
+  </si>
+  <si>
+    <t>pcamera</t>
+  </si>
+  <si>
+    <t>my.PCamera</t>
+  </si>
+  <si>
+    <t>my.PCamera.PocoCamera</t>
+  </si>
+  <si>
+    <t>无他相机</t>
+  </si>
+  <si>
+    <t>wuta_camera</t>
+  </si>
+  <si>
+    <t>com.benqu.wuta</t>
+  </si>
+  <si>
+    <t>com.benqu.wuta.activities.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>墨迹天气</t>
+  </si>
+  <si>
+    <t>moji_weather</t>
+  </si>
+  <si>
+    <t>com.moji.mjweather</t>
+  </si>
+  <si>
+    <t>com.moji.mjweather.LauncherActivity</t>
+  </si>
+  <si>
+    <t>pure天气</t>
+  </si>
+  <si>
+    <t>pure_weather</t>
+  </si>
+  <si>
+    <t>hanjie.app.pureweather</t>
+  </si>
+  <si>
+    <t>hanjie.app.pureweather.ui.HomeActivity</t>
+  </si>
+  <si>
+    <t>什么值得买</t>
+  </si>
+  <si>
+    <t>smzdm</t>
+  </si>
+  <si>
+    <t>com.smzdm.client.android</t>
+  </si>
+  <si>
+    <t>com.smzdm.client.android.activity.WelComeActivity</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>com.gotokeep.keep</t>
+  </si>
+  <si>
+    <t>com.gotokeep.keep.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>58同城</t>
+  </si>
+  <si>
+    <t>wuba</t>
+  </si>
+  <si>
+    <t>com.wuba</t>
+  </si>
+  <si>
+    <t>com.wuba.activity.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>天气通</t>
+  </si>
+  <si>
+    <t>tianqitong</t>
+  </si>
+  <si>
+    <t>sina.mobile.tianqitong</t>
+  </si>
+  <si>
+    <t>com.sina.tianqitong.ui.main.Splash</t>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx_browser</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud_115</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5054,16 +5433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView tabSelected="1" topLeftCell="B327" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="75.875" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
@@ -9882,16 +10261,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1097</v>
+        <v>1329</v>
       </c>
       <c r="B284" t="s">
-        <v>1098</v>
+        <v>1331</v>
       </c>
       <c r="C284" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D284" t="s">
-        <v>1100</v>
+        <v>1333</v>
       </c>
       <c r="E284" t="s">
         <v>45</v>
@@ -9899,16 +10278,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B285" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C285" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D285" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E285" t="s">
         <v>45</v>
@@ -9916,16 +10295,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B286" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C286" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D286" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E286" t="s">
         <v>45</v>
@@ -9933,16 +10312,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B287" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C287" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D287" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E287" t="s">
         <v>45</v>
@@ -9950,16 +10329,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B288" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C288" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D288" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E288" t="s">
         <v>45</v>
@@ -9967,16 +10346,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B289" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C289" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D289" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E289" t="s">
         <v>45</v>
@@ -9984,16 +10363,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B290" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C290" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D290" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E290" t="s">
         <v>45</v>
@@ -10001,16 +10380,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B291" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C291" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D291" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E291" t="s">
         <v>45</v>
@@ -10018,16 +10397,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B292" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C292" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D292" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E292" t="s">
         <v>45</v>
@@ -10035,16 +10414,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B293" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C293" t="s">
-        <v>1154</v>
+        <v>1131</v>
       </c>
       <c r="D293" t="s">
-        <v>51</v>
+        <v>1132</v>
       </c>
       <c r="E293" t="s">
         <v>45</v>
@@ -10052,16 +10431,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B294" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C294" t="s">
-        <v>1137</v>
+        <v>1154</v>
       </c>
       <c r="D294" t="s">
-        <v>1138</v>
+        <v>51</v>
       </c>
       <c r="E294" t="s">
         <v>45</v>
@@ -10069,16 +10448,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B295" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C295" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D295" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E295" t="s">
         <v>45</v>
@@ -10086,16 +10465,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B296" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C296" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D296" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E296" t="s">
         <v>45</v>
@@ -10103,16 +10482,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B297" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C297" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D297" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E297" t="s">
         <v>45</v>
@@ -10120,13 +10499,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B298" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C298" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D298" t="s">
         <v>1150</v>
@@ -10137,16 +10516,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B299" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C299" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="D299" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="E299" t="s">
         <v>45</v>
@@ -10154,16 +10533,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B300" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C300" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D300" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E300" t="s">
         <v>45</v>
@@ -10171,16 +10550,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B301" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C301" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D301" t="s">
-        <v>27</v>
+        <v>1163</v>
       </c>
       <c r="E301" t="s">
         <v>45</v>
@@ -10188,16 +10567,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B302" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C302" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D302" t="s">
-        <v>1170</v>
+        <v>27</v>
       </c>
       <c r="E302" t="s">
         <v>45</v>
@@ -10205,16 +10584,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B303" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C303" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D303" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E303" t="s">
         <v>45</v>
@@ -10222,16 +10601,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B304" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C304" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D304" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E304" t="s">
         <v>45</v>
@@ -10239,16 +10618,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B305" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C305" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D305" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E305" t="s">
         <v>45</v>
@@ -10256,16 +10635,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B306" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C306" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D306" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E306" t="s">
         <v>45</v>
@@ -10273,16 +10652,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B307" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C307" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D307" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E307" t="s">
         <v>45</v>
@@ -10290,16 +10669,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B308" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C308" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D308" t="s">
-        <v>1212</v>
+        <v>1188</v>
       </c>
       <c r="E308" t="s">
         <v>45</v>
@@ -10307,16 +10686,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B309" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="C309" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D309" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="E309" t="s">
         <v>45</v>
@@ -10324,16 +10703,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B310" t="s">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="C310" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="D310" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E310" t="s">
         <v>45</v>
@@ -10341,16 +10720,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B311" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C311" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="D311" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E311" t="s">
         <v>45</v>
@@ -10358,16 +10737,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B312" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C312" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D312" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="E312" t="s">
         <v>45</v>
@@ -10375,16 +10754,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B313" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C313" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D313" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E313" t="s">
         <v>45</v>
@@ -10392,16 +10771,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B314" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C314" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D314" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="E314" t="s">
         <v>45</v>
@@ -10409,16 +10788,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B315" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C315" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D315" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E315" t="s">
         <v>45</v>
@@ -10426,16 +10805,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B316" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C316" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D316" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E316" t="s">
         <v>45</v>
@@ -10443,16 +10822,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B317" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C317" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D317" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E317" t="s">
         <v>45</v>
@@ -10460,16 +10839,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B318" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C318" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D318" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="E318" t="s">
         <v>45</v>
@@ -10477,16 +10856,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B319" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C319" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D319" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E319" t="s">
         <v>45</v>
@@ -10494,16 +10873,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B320" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C320" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D320" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E320" t="s">
         <v>45</v>
@@ -10511,16 +10890,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B321" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C321" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D321" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E321" t="s">
         <v>45</v>
@@ -10528,16 +10907,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B322" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C322" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D322" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E322" t="s">
         <v>45</v>
@@ -10545,16 +10924,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B323" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C323" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D323" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="E323" t="s">
         <v>45</v>
@@ -10562,16 +10941,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B324" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C324" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D324" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E324" t="s">
         <v>45</v>
@@ -10579,16 +10958,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B325" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C325" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D325" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E325" t="s">
         <v>45</v>
@@ -10596,16 +10975,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B326" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C326" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D326" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E326" t="s">
         <v>45</v>
@@ -10613,16 +10992,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B327" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C327" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D327" t="s">
-        <v>966</v>
+        <v>1262</v>
       </c>
       <c r="E327" t="s">
         <v>45</v>
@@ -10630,18 +11009,562 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D328" t="s">
+        <v>966</v>
+      </c>
+      <c r="E328" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>1266</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>1267</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C329" t="s">
         <v>1268</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D329" t="s">
         <v>1269</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E329" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E330" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E331" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E332" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E333" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E334" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E335" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E336" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E337" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E338" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E339" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E340" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E341" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E342" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E343" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E344" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E345" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E346" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E347" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E348" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E349" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E350" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E351" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E352" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E353" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E354" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E355" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E356" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E357" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E358" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E359" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E360" t="s">
         <v>45</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238057F-D392-4007-9F2E-4032ABA06A30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CBD60-460B-46F2-AF80-FCA4071D333E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1473">
   <si>
     <t>百度网盘</t>
   </si>
@@ -1879,9 +1879,6 @@
     <t>com.mobike.mobikeapp</t>
   </si>
   <si>
-    <t>com.mobike.mobikeapp.SplashActivity</t>
-  </si>
-  <si>
     <t>网易邮箱大师</t>
   </si>
   <si>
@@ -2036,9 +2033,6 @@
     <t>com.xiachufang</t>
   </si>
   <si>
-    <t>com.xiachufang.activity.StartPageActivity</t>
-  </si>
-  <si>
     <t>饿了么</t>
   </si>
   <si>
@@ -2072,9 +2066,6 @@
     <t>com.hunantv.imgo.activity</t>
   </si>
   <si>
-    <t>com.hunantv.imgo.activity.MainActivity</t>
-  </si>
-  <si>
     <t>猫眼</t>
   </si>
   <si>
@@ -4493,6 +4484,257 @@
   </si>
   <si>
     <t>cloud_115</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mobike.mobikeapp.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.hunantv.imgo.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.xiachufang.startpage.ui.StartPageActivity</t>
+  </si>
+  <si>
+    <t>菜鸟裹裹</t>
+  </si>
+  <si>
+    <t>cainiao</t>
+  </si>
+  <si>
+    <t>com.cainiao.wireless</t>
+  </si>
+  <si>
+    <t>com.cainiao.wireless.homepage.view.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>转转</t>
+  </si>
+  <si>
+    <t>zhuanzhuan</t>
+  </si>
+  <si>
+    <t>com.wuba.zhuanzhuan</t>
+  </si>
+  <si>
+    <t>com.wuba.zhuanzhuan.presentation.view.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>淘票票</t>
+  </si>
+  <si>
+    <t>taobao_movie</t>
+  </si>
+  <si>
+    <t>com.taobao.movie.android</t>
+  </si>
+  <si>
+    <t>com.taobao.movie.android.app.home.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>顺丰速运</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>com.sf.activity</t>
+  </si>
+  <si>
+    <t>com.syt.ui.activity.InitActivity</t>
+  </si>
+  <si>
+    <t>雅虎天气</t>
+  </si>
+  <si>
+    <t>yahoo_weather</t>
+  </si>
+  <si>
+    <t>com.yahoo.mobile.client.android.weather.ui.WeatherMainActivity</t>
+  </si>
+  <si>
+    <t>几何天气</t>
+  </si>
+  <si>
+    <t>geometric_weather</t>
+  </si>
+  <si>
+    <t>wangdaye.com.geometricweather</t>
+  </si>
+  <si>
+    <t>wangdaye.com.geometricweather.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>彩云天气</t>
+  </si>
+  <si>
+    <t>com.nowcasting.activity</t>
+  </si>
+  <si>
+    <t>com.nowcasting.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>肯德基</t>
+  </si>
+  <si>
+    <t>kfc</t>
+  </si>
+  <si>
+    <t>com.yek.android.kfc.activitys</t>
+  </si>
+  <si>
+    <t>com.yum.brandkfc.SplashAct</t>
+  </si>
+  <si>
+    <t>豆果美食</t>
+  </si>
+  <si>
+    <t>douguo</t>
+  </si>
+  <si>
+    <t>com.douguo.recipe</t>
+  </si>
+  <si>
+    <t>com.douguo.recipe.MainActivity</t>
+  </si>
+  <si>
+    <t>好豆</t>
+  </si>
+  <si>
+    <t>haodou</t>
+  </si>
+  <si>
+    <t>com.haodou.recipe</t>
+  </si>
+  <si>
+    <t>com.haodou.recipe.page.activity.SplashActivity2</t>
+  </si>
+  <si>
+    <t>网上厨房</t>
+  </si>
+  <si>
+    <t>ecook</t>
+  </si>
+  <si>
+    <t>cn.ecook</t>
+  </si>
+  <si>
+    <t>cn.ecook.ui.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>日日煮</t>
+  </si>
+  <si>
+    <t>day_day_cook</t>
+  </si>
+  <si>
+    <t>com.gfeng.daydaycook</t>
+  </si>
+  <si>
+    <t>com.gfeng.daydaycook.activity.WelcomeActivity_</t>
+  </si>
+  <si>
+    <t>水表助手</t>
+  </si>
+  <si>
+    <t>express_helper</t>
+  </si>
+  <si>
+    <t>info.papdt.express.helper</t>
+  </si>
+  <si>
+    <t>info.papdt.express.helper.EntryActivity</t>
+  </si>
+  <si>
+    <t>快递100</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>com.Kingdee.Express</t>
+  </si>
+  <si>
+    <t>com.Kingdee.Express.module.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>中华万年历</t>
+  </si>
+  <si>
+    <t>ecalendar</t>
+  </si>
+  <si>
+    <t>cn.etouch.ecalendar</t>
+  </si>
+  <si>
+    <t>cn.etouch.ecalendar.ECalendar</t>
+  </si>
+  <si>
+    <t>单纯就是个日历</t>
+  </si>
+  <si>
+    <t>calendar_ii</t>
+  </si>
+  <si>
+    <t>top.soyask.calendarii</t>
+  </si>
+  <si>
+    <t>top.soyask.calendarii.MainActivity</t>
+  </si>
+  <si>
+    <t>nfc卡模拟</t>
+  </si>
+  <si>
+    <t>card_emulator</t>
+  </si>
+  <si>
+    <t>com.yuanwofei.cardemulator</t>
+  </si>
+  <si>
+    <t>com.yuanwofei.cardemulator.MainActivity</t>
+  </si>
+  <si>
+    <t>forest专注森林</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>cc.forestapp</t>
+  </si>
+  <si>
+    <t>cc.forestapp.applications.SplashActivity</t>
+  </si>
+  <si>
+    <t>颜咚</t>
+  </si>
+  <si>
+    <t>yandong</t>
+  </si>
+  <si>
+    <t>nico.styTool</t>
+  </si>
+  <si>
+    <t>nico.styTool.SplashActivity</t>
+  </si>
+  <si>
+    <t>微痕继</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>com.pleasure.trace_wechat</t>
+  </si>
+  <si>
+    <t>com.camellia.trace.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>nowcasting</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yahoo.mobile.client.android.weather</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5433,10 +5675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B327" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7210,7 +7452,7 @@
         <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
@@ -7510,7 +7752,7 @@
         <v>481</v>
       </c>
       <c r="B122" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C122" t="s">
         <v>482</v>
@@ -7723,7 +7965,7 @@
         <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -7740,7 +7982,7 @@
         <v>524</v>
       </c>
       <c r="E135" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -7748,7 +7990,7 @@
         <v>525</v>
       </c>
       <c r="B136" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C136" t="s">
         <v>526</v>
@@ -7757,7 +7999,7 @@
         <v>527</v>
       </c>
       <c r="E136" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -7774,7 +8016,7 @@
         <v>530</v>
       </c>
       <c r="E137" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -7791,7 +8033,7 @@
         <v>534</v>
       </c>
       <c r="E138" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -7808,7 +8050,7 @@
         <v>538</v>
       </c>
       <c r="E139" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -7825,7 +8067,7 @@
         <v>542</v>
       </c>
       <c r="E140" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -7842,7 +8084,7 @@
         <v>546</v>
       </c>
       <c r="E141" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -7859,7 +8101,7 @@
         <v>550</v>
       </c>
       <c r="E142" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -7876,7 +8118,7 @@
         <v>553</v>
       </c>
       <c r="E143" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -7890,194 +8132,194 @@
         <v>556</v>
       </c>
       <c r="D144" t="s">
-        <v>557</v>
+        <v>1390</v>
       </c>
       <c r="E144" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>557</v>
+      </c>
+      <c r="B145" t="s">
         <v>558</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>559</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>560</v>
       </c>
-      <c r="D145" t="s">
-        <v>561</v>
-      </c>
       <c r="E145" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>561</v>
+      </c>
+      <c r="B146" t="s">
         <v>562</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>563</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>564</v>
       </c>
-      <c r="D146" t="s">
-        <v>565</v>
-      </c>
       <c r="E146" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>565</v>
+      </c>
+      <c r="B147" t="s">
         <v>566</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>567</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>568</v>
       </c>
-      <c r="D147" t="s">
-        <v>569</v>
-      </c>
       <c r="E147" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>569</v>
+      </c>
+      <c r="B148" t="s">
         <v>570</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>571</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>572</v>
       </c>
-      <c r="D148" t="s">
-        <v>573</v>
-      </c>
       <c r="E148" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>573</v>
+      </c>
+      <c r="B149" t="s">
         <v>574</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>575</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>576</v>
       </c>
-      <c r="D149" t="s">
-        <v>577</v>
-      </c>
       <c r="E149" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>577</v>
+      </c>
+      <c r="B150" t="s">
+        <v>577</v>
+      </c>
+      <c r="C150" t="s">
         <v>578</v>
       </c>
-      <c r="B150" t="s">
-        <v>578</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>579</v>
       </c>
-      <c r="D150" t="s">
-        <v>580</v>
-      </c>
       <c r="E150" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>580</v>
+      </c>
+      <c r="B151" t="s">
+        <v>580</v>
+      </c>
+      <c r="C151" t="s">
         <v>581</v>
-      </c>
-      <c r="B151" t="s">
-        <v>581</v>
-      </c>
-      <c r="C151" t="s">
-        <v>582</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>582</v>
+      </c>
+      <c r="B152" t="s">
         <v>583</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>584</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>585</v>
       </c>
-      <c r="D152" t="s">
-        <v>586</v>
-      </c>
       <c r="E152" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>586</v>
+      </c>
+      <c r="B153" t="s">
+        <v>586</v>
+      </c>
+      <c r="C153" t="s">
         <v>587</v>
       </c>
-      <c r="B153" t="s">
-        <v>587</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>588</v>
       </c>
-      <c r="D153" t="s">
-        <v>589</v>
-      </c>
       <c r="E153" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>589</v>
+      </c>
+      <c r="B154" t="s">
         <v>590</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>591</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>592</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>593</v>
-      </c>
-      <c r="E154" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>594</v>
+      </c>
+      <c r="B155" t="s">
         <v>595</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>596</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>597</v>
-      </c>
-      <c r="D155" t="s">
-        <v>598</v>
       </c>
       <c r="E155" t="s">
         <v>480</v>
@@ -8085,16 +8327,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>598</v>
+      </c>
+      <c r="B156" t="s">
         <v>599</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>600</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>601</v>
-      </c>
-      <c r="D156" t="s">
-        <v>602</v>
       </c>
       <c r="E156" t="s">
         <v>45</v>
@@ -8102,13 +8344,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>602</v>
+      </c>
+      <c r="B157" t="s">
         <v>603</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>604</v>
-      </c>
-      <c r="C157" t="s">
-        <v>605</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
@@ -8119,16 +8361,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>605</v>
+      </c>
+      <c r="B158" t="s">
         <v>606</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>607</v>
       </c>
-      <c r="C158" t="s">
-        <v>608</v>
-      </c>
       <c r="D158" t="s">
-        <v>609</v>
+        <v>1392</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
@@ -8136,16 +8378,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>608</v>
+      </c>
+      <c r="B159" t="s">
+        <v>609</v>
+      </c>
+      <c r="C159" t="s">
         <v>610</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>611</v>
-      </c>
-      <c r="C159" t="s">
-        <v>612</v>
-      </c>
-      <c r="D159" t="s">
-        <v>613</v>
       </c>
       <c r="E159" t="s">
         <v>45</v>
@@ -8153,16 +8395,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>612</v>
+      </c>
+      <c r="B160" t="s">
+        <v>613</v>
+      </c>
+      <c r="C160" t="s">
         <v>614</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>615</v>
-      </c>
-      <c r="C160" t="s">
-        <v>616</v>
-      </c>
-      <c r="D160" t="s">
-        <v>617</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
@@ -8170,16 +8412,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>616</v>
+      </c>
+      <c r="B161" t="s">
+        <v>617</v>
+      </c>
+      <c r="C161" t="s">
         <v>618</v>
       </c>
-      <c r="B161" t="s">
-        <v>619</v>
-      </c>
-      <c r="C161" t="s">
-        <v>620</v>
-      </c>
       <c r="D161" t="s">
-        <v>621</v>
+        <v>1391</v>
       </c>
       <c r="E161" t="s">
         <v>45</v>
@@ -8187,16 +8429,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>619</v>
+      </c>
+      <c r="B162" t="s">
+        <v>620</v>
+      </c>
+      <c r="C162" t="s">
+        <v>621</v>
+      </c>
+      <c r="D162" t="s">
         <v>622</v>
-      </c>
-      <c r="B162" t="s">
-        <v>623</v>
-      </c>
-      <c r="C162" t="s">
-        <v>624</v>
-      </c>
-      <c r="D162" t="s">
-        <v>625</v>
       </c>
       <c r="E162" t="s">
         <v>45</v>
@@ -8204,16 +8446,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B163" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C163" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D163" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E163" t="s">
         <v>45</v>
@@ -8221,16 +8463,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>626</v>
+      </c>
+      <c r="B164" t="s">
+        <v>627</v>
+      </c>
+      <c r="C164" t="s">
+        <v>628</v>
+      </c>
+      <c r="D164" t="s">
         <v>629</v>
-      </c>
-      <c r="B164" t="s">
-        <v>630</v>
-      </c>
-      <c r="C164" t="s">
-        <v>631</v>
-      </c>
-      <c r="D164" t="s">
-        <v>632</v>
       </c>
       <c r="E164" t="s">
         <v>45</v>
@@ -8238,16 +8480,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>630</v>
+      </c>
+      <c r="B165" t="s">
+        <v>631</v>
+      </c>
+      <c r="C165" t="s">
+        <v>632</v>
+      </c>
+      <c r="D165" t="s">
         <v>633</v>
-      </c>
-      <c r="B165" t="s">
-        <v>634</v>
-      </c>
-      <c r="C165" t="s">
-        <v>635</v>
-      </c>
-      <c r="D165" t="s">
-        <v>636</v>
       </c>
       <c r="E165" t="s">
         <v>45</v>
@@ -8255,16 +8497,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>634</v>
+      </c>
+      <c r="B166" t="s">
+        <v>635</v>
+      </c>
+      <c r="C166" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" t="s">
         <v>637</v>
-      </c>
-      <c r="B166" t="s">
-        <v>638</v>
-      </c>
-      <c r="C166" t="s">
-        <v>639</v>
-      </c>
-      <c r="D166" t="s">
-        <v>640</v>
       </c>
       <c r="E166" t="s">
         <v>45</v>
@@ -8272,16 +8514,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B167" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C167" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D167" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E167" t="s">
         <v>45</v>
@@ -8289,16 +8531,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>641</v>
+      </c>
+      <c r="B168" t="s">
+        <v>642</v>
+      </c>
+      <c r="C168" t="s">
+        <v>643</v>
+      </c>
+      <c r="D168" t="s">
         <v>644</v>
-      </c>
-      <c r="B168" t="s">
-        <v>645</v>
-      </c>
-      <c r="C168" t="s">
-        <v>646</v>
-      </c>
-      <c r="D168" t="s">
-        <v>647</v>
       </c>
       <c r="E168" t="s">
         <v>45</v>
@@ -8306,16 +8548,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B169" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C169" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D169" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E169" t="s">
         <v>45</v>
@@ -8323,16 +8565,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B170" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C170" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D170" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
@@ -8340,16 +8582,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B171" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C171" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D171" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
@@ -8357,16 +8599,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>654</v>
+      </c>
+      <c r="B172" t="s">
+        <v>655</v>
+      </c>
+      <c r="C172" t="s">
+        <v>656</v>
+      </c>
+      <c r="D172" t="s">
         <v>657</v>
-      </c>
-      <c r="B172" t="s">
-        <v>658</v>
-      </c>
-      <c r="C172" t="s">
-        <v>659</v>
-      </c>
-      <c r="D172" t="s">
-        <v>660</v>
       </c>
       <c r="E172" t="s">
         <v>45</v>
@@ -8374,16 +8616,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>658</v>
+      </c>
+      <c r="B173" t="s">
+        <v>659</v>
+      </c>
+      <c r="C173" t="s">
+        <v>660</v>
+      </c>
+      <c r="D173" t="s">
         <v>661</v>
-      </c>
-      <c r="B173" t="s">
-        <v>662</v>
-      </c>
-      <c r="C173" t="s">
-        <v>663</v>
-      </c>
-      <c r="D173" t="s">
-        <v>664</v>
       </c>
       <c r="E173" t="s">
         <v>45</v>
@@ -8391,16 +8633,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>662</v>
+      </c>
+      <c r="B174" t="s">
+        <v>663</v>
+      </c>
+      <c r="C174" t="s">
+        <v>664</v>
+      </c>
+      <c r="D174" t="s">
         <v>665</v>
-      </c>
-      <c r="B174" t="s">
-        <v>666</v>
-      </c>
-      <c r="C174" t="s">
-        <v>667</v>
-      </c>
-      <c r="D174" t="s">
-        <v>668</v>
       </c>
       <c r="E174" t="s">
         <v>45</v>
@@ -8408,16 +8650,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>666</v>
+      </c>
+      <c r="B175" t="s">
+        <v>667</v>
+      </c>
+      <c r="C175" t="s">
+        <v>668</v>
+      </c>
+      <c r="D175" t="s">
         <v>669</v>
-      </c>
-      <c r="B175" t="s">
-        <v>670</v>
-      </c>
-      <c r="C175" t="s">
-        <v>671</v>
-      </c>
-      <c r="D175" t="s">
-        <v>672</v>
       </c>
       <c r="E175" t="s">
         <v>45</v>
@@ -8425,16 +8667,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>670</v>
+      </c>
+      <c r="B176" t="s">
+        <v>671</v>
+      </c>
+      <c r="C176" t="s">
+        <v>672</v>
+      </c>
+      <c r="D176" t="s">
         <v>673</v>
-      </c>
-      <c r="B176" t="s">
-        <v>674</v>
-      </c>
-      <c r="C176" t="s">
-        <v>675</v>
-      </c>
-      <c r="D176" t="s">
-        <v>676</v>
       </c>
       <c r="E176" t="s">
         <v>45</v>
@@ -8442,16 +8684,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B177" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C177" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D177" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E177" t="s">
         <v>45</v>
@@ -8459,16 +8701,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B178" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C178" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D178" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E178" t="s">
         <v>45</v>
@@ -8476,16 +8718,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>680</v>
+      </c>
+      <c r="B179" t="s">
+        <v>681</v>
+      </c>
+      <c r="C179" t="s">
+        <v>682</v>
+      </c>
+      <c r="D179" t="s">
         <v>683</v>
-      </c>
-      <c r="B179" t="s">
-        <v>684</v>
-      </c>
-      <c r="C179" t="s">
-        <v>685</v>
-      </c>
-      <c r="D179" t="s">
-        <v>686</v>
       </c>
       <c r="E179" t="s">
         <v>45</v>
@@ -8493,16 +8735,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>684</v>
+      </c>
+      <c r="B180" t="s">
+        <v>685</v>
+      </c>
+      <c r="C180" t="s">
+        <v>686</v>
+      </c>
+      <c r="D180" t="s">
         <v>687</v>
-      </c>
-      <c r="B180" t="s">
-        <v>688</v>
-      </c>
-      <c r="C180" t="s">
-        <v>689</v>
-      </c>
-      <c r="D180" t="s">
-        <v>690</v>
       </c>
       <c r="E180" t="s">
         <v>45</v>
@@ -8510,16 +8752,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>688</v>
+      </c>
+      <c r="B181" t="s">
+        <v>689</v>
+      </c>
+      <c r="C181" t="s">
+        <v>690</v>
+      </c>
+      <c r="D181" t="s">
         <v>691</v>
-      </c>
-      <c r="B181" t="s">
-        <v>692</v>
-      </c>
-      <c r="C181" t="s">
-        <v>693</v>
-      </c>
-      <c r="D181" t="s">
-        <v>694</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
@@ -8527,16 +8769,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>692</v>
+      </c>
+      <c r="B182" t="s">
+        <v>693</v>
+      </c>
+      <c r="C182" t="s">
+        <v>694</v>
+      </c>
+      <c r="D182" t="s">
         <v>695</v>
-      </c>
-      <c r="B182" t="s">
-        <v>696</v>
-      </c>
-      <c r="C182" t="s">
-        <v>697</v>
-      </c>
-      <c r="D182" t="s">
-        <v>698</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -8544,16 +8786,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>696</v>
+      </c>
+      <c r="B183" t="s">
+        <v>697</v>
+      </c>
+      <c r="C183" t="s">
+        <v>698</v>
+      </c>
+      <c r="D183" t="s">
         <v>699</v>
-      </c>
-      <c r="B183" t="s">
-        <v>700</v>
-      </c>
-      <c r="C183" t="s">
-        <v>701</v>
-      </c>
-      <c r="D183" t="s">
-        <v>702</v>
       </c>
       <c r="E183" t="s">
         <v>45</v>
@@ -8561,16 +8803,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>700</v>
+      </c>
+      <c r="B184" t="s">
+        <v>701</v>
+      </c>
+      <c r="C184" t="s">
+        <v>702</v>
+      </c>
+      <c r="D184" t="s">
         <v>703</v>
-      </c>
-      <c r="B184" t="s">
-        <v>704</v>
-      </c>
-      <c r="C184" t="s">
-        <v>705</v>
-      </c>
-      <c r="D184" t="s">
-        <v>706</v>
       </c>
       <c r="E184" t="s">
         <v>45</v>
@@ -8578,16 +8820,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>704</v>
+      </c>
+      <c r="B185" t="s">
+        <v>705</v>
+      </c>
+      <c r="C185" t="s">
+        <v>706</v>
+      </c>
+      <c r="D185" t="s">
         <v>707</v>
-      </c>
-      <c r="B185" t="s">
-        <v>708</v>
-      </c>
-      <c r="C185" t="s">
-        <v>709</v>
-      </c>
-      <c r="D185" t="s">
-        <v>710</v>
       </c>
       <c r="E185" t="s">
         <v>45</v>
@@ -8595,16 +8837,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>708</v>
+      </c>
+      <c r="B186" t="s">
+        <v>709</v>
+      </c>
+      <c r="C186" t="s">
+        <v>710</v>
+      </c>
+      <c r="D186" t="s">
         <v>711</v>
-      </c>
-      <c r="B186" t="s">
-        <v>712</v>
-      </c>
-      <c r="C186" t="s">
-        <v>713</v>
-      </c>
-      <c r="D186" t="s">
-        <v>714</v>
       </c>
       <c r="E186" t="s">
         <v>45</v>
@@ -8612,16 +8854,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>712</v>
+      </c>
+      <c r="B187" t="s">
+        <v>713</v>
+      </c>
+      <c r="C187" t="s">
+        <v>714</v>
+      </c>
+      <c r="D187" t="s">
         <v>715</v>
-      </c>
-      <c r="B187" t="s">
-        <v>716</v>
-      </c>
-      <c r="C187" t="s">
-        <v>717</v>
-      </c>
-      <c r="D187" t="s">
-        <v>718</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
@@ -8629,16 +8871,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>716</v>
+      </c>
+      <c r="B188" t="s">
+        <v>717</v>
+      </c>
+      <c r="C188" t="s">
+        <v>718</v>
+      </c>
+      <c r="D188" t="s">
         <v>719</v>
-      </c>
-      <c r="B188" t="s">
-        <v>720</v>
-      </c>
-      <c r="C188" t="s">
-        <v>721</v>
-      </c>
-      <c r="D188" t="s">
-        <v>722</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
@@ -8646,16 +8888,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>720</v>
+      </c>
+      <c r="B189" t="s">
+        <v>721</v>
+      </c>
+      <c r="C189" t="s">
+        <v>722</v>
+      </c>
+      <c r="D189" t="s">
         <v>723</v>
-      </c>
-      <c r="B189" t="s">
-        <v>724</v>
-      </c>
-      <c r="C189" t="s">
-        <v>725</v>
-      </c>
-      <c r="D189" t="s">
-        <v>726</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -8663,16 +8905,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B190" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C190" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D190" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -8680,16 +8922,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>727</v>
+      </c>
+      <c r="B191" t="s">
+        <v>728</v>
+      </c>
+      <c r="C191" t="s">
+        <v>729</v>
+      </c>
+      <c r="D191" t="s">
         <v>730</v>
-      </c>
-      <c r="B191" t="s">
-        <v>731</v>
-      </c>
-      <c r="C191" t="s">
-        <v>732</v>
-      </c>
-      <c r="D191" t="s">
-        <v>733</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8697,16 +8939,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B192" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C192" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D192" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -8714,16 +8956,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>734</v>
+      </c>
+      <c r="B193" t="s">
+        <v>735</v>
+      </c>
+      <c r="C193" t="s">
+        <v>736</v>
+      </c>
+      <c r="D193" t="s">
         <v>737</v>
-      </c>
-      <c r="B193" t="s">
-        <v>738</v>
-      </c>
-      <c r="C193" t="s">
-        <v>739</v>
-      </c>
-      <c r="D193" t="s">
-        <v>740</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -8731,16 +8973,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>738</v>
+      </c>
+      <c r="B194" t="s">
+        <v>739</v>
+      </c>
+      <c r="C194" t="s">
+        <v>740</v>
+      </c>
+      <c r="D194" t="s">
         <v>741</v>
-      </c>
-      <c r="B194" t="s">
-        <v>742</v>
-      </c>
-      <c r="C194" t="s">
-        <v>743</v>
-      </c>
-      <c r="D194" t="s">
-        <v>744</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -8748,16 +8990,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>742</v>
+      </c>
+      <c r="B195" t="s">
+        <v>743</v>
+      </c>
+      <c r="C195" t="s">
+        <v>744</v>
+      </c>
+      <c r="D195" t="s">
         <v>745</v>
-      </c>
-      <c r="B195" t="s">
-        <v>746</v>
-      </c>
-      <c r="C195" t="s">
-        <v>747</v>
-      </c>
-      <c r="D195" t="s">
-        <v>748</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
@@ -8765,16 +9007,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>746</v>
+      </c>
+      <c r="B196" t="s">
+        <v>747</v>
+      </c>
+      <c r="C196" t="s">
+        <v>748</v>
+      </c>
+      <c r="D196" t="s">
         <v>749</v>
-      </c>
-      <c r="B196" t="s">
-        <v>750</v>
-      </c>
-      <c r="C196" t="s">
-        <v>751</v>
-      </c>
-      <c r="D196" t="s">
-        <v>752</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -8782,16 +9024,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>750</v>
+      </c>
+      <c r="B197" t="s">
+        <v>751</v>
+      </c>
+      <c r="C197" t="s">
+        <v>752</v>
+      </c>
+      <c r="D197" t="s">
         <v>753</v>
-      </c>
-      <c r="B197" t="s">
-        <v>754</v>
-      </c>
-      <c r="C197" t="s">
-        <v>755</v>
-      </c>
-      <c r="D197" t="s">
-        <v>756</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -8799,16 +9041,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>754</v>
+      </c>
+      <c r="B198" t="s">
+        <v>755</v>
+      </c>
+      <c r="C198" t="s">
+        <v>756</v>
+      </c>
+      <c r="D198" t="s">
         <v>757</v>
-      </c>
-      <c r="B198" t="s">
-        <v>758</v>
-      </c>
-      <c r="C198" t="s">
-        <v>759</v>
-      </c>
-      <c r="D198" t="s">
-        <v>760</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -8816,16 +9058,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>758</v>
+      </c>
+      <c r="B199" t="s">
+        <v>759</v>
+      </c>
+      <c r="C199" t="s">
+        <v>760</v>
+      </c>
+      <c r="D199" t="s">
         <v>761</v>
-      </c>
-      <c r="B199" t="s">
-        <v>762</v>
-      </c>
-      <c r="C199" t="s">
-        <v>763</v>
-      </c>
-      <c r="D199" t="s">
-        <v>764</v>
       </c>
       <c r="E199" t="s">
         <v>12</v>
@@ -8833,16 +9075,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>762</v>
+      </c>
+      <c r="B200" t="s">
+        <v>763</v>
+      </c>
+      <c r="C200" t="s">
+        <v>764</v>
+      </c>
+      <c r="D200" t="s">
         <v>765</v>
-      </c>
-      <c r="B200" t="s">
-        <v>766</v>
-      </c>
-      <c r="C200" t="s">
-        <v>767</v>
-      </c>
-      <c r="D200" t="s">
-        <v>768</v>
       </c>
       <c r="E200" t="s">
         <v>12</v>
@@ -8850,16 +9092,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>766</v>
+      </c>
+      <c r="B201" t="s">
+        <v>767</v>
+      </c>
+      <c r="C201" t="s">
+        <v>768</v>
+      </c>
+      <c r="D201" t="s">
         <v>769</v>
-      </c>
-      <c r="B201" t="s">
-        <v>770</v>
-      </c>
-      <c r="C201" t="s">
-        <v>771</v>
-      </c>
-      <c r="D201" t="s">
-        <v>772</v>
       </c>
       <c r="E201" t="s">
         <v>12</v>
@@ -8867,16 +9109,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>770</v>
+      </c>
+      <c r="B202" t="s">
+        <v>771</v>
+      </c>
+      <c r="C202" t="s">
+        <v>772</v>
+      </c>
+      <c r="D202" t="s">
         <v>773</v>
-      </c>
-      <c r="B202" t="s">
-        <v>774</v>
-      </c>
-      <c r="C202" t="s">
-        <v>775</v>
-      </c>
-      <c r="D202" t="s">
-        <v>776</v>
       </c>
       <c r="E202" t="s">
         <v>12</v>
@@ -8884,16 +9126,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>774</v>
+      </c>
+      <c r="B203" t="s">
+        <v>775</v>
+      </c>
+      <c r="C203" t="s">
+        <v>776</v>
+      </c>
+      <c r="D203" t="s">
         <v>777</v>
-      </c>
-      <c r="B203" t="s">
-        <v>778</v>
-      </c>
-      <c r="C203" t="s">
-        <v>779</v>
-      </c>
-      <c r="D203" t="s">
-        <v>780</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
@@ -8901,16 +9143,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>778</v>
+      </c>
+      <c r="B204" t="s">
+        <v>779</v>
+      </c>
+      <c r="C204" t="s">
+        <v>780</v>
+      </c>
+      <c r="D204" t="s">
         <v>781</v>
-      </c>
-      <c r="B204" t="s">
-        <v>782</v>
-      </c>
-      <c r="C204" t="s">
-        <v>783</v>
-      </c>
-      <c r="D204" t="s">
-        <v>784</v>
       </c>
       <c r="E204" t="s">
         <v>12</v>
@@ -8918,16 +9160,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>782</v>
+      </c>
+      <c r="B205" t="s">
+        <v>783</v>
+      </c>
+      <c r="C205" t="s">
+        <v>784</v>
+      </c>
+      <c r="D205" t="s">
         <v>785</v>
-      </c>
-      <c r="B205" t="s">
-        <v>786</v>
-      </c>
-      <c r="C205" t="s">
-        <v>787</v>
-      </c>
-      <c r="D205" t="s">
-        <v>788</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -8935,16 +9177,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>786</v>
+      </c>
+      <c r="B206" t="s">
+        <v>787</v>
+      </c>
+      <c r="C206" t="s">
+        <v>788</v>
+      </c>
+      <c r="D206" t="s">
         <v>789</v>
-      </c>
-      <c r="B206" t="s">
-        <v>790</v>
-      </c>
-      <c r="C206" t="s">
-        <v>791</v>
-      </c>
-      <c r="D206" t="s">
-        <v>792</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -8952,16 +9194,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>790</v>
+      </c>
+      <c r="B207" t="s">
+        <v>791</v>
+      </c>
+      <c r="C207" t="s">
+        <v>792</v>
+      </c>
+      <c r="D207" t="s">
         <v>793</v>
-      </c>
-      <c r="B207" t="s">
-        <v>794</v>
-      </c>
-      <c r="C207" t="s">
-        <v>795</v>
-      </c>
-      <c r="D207" t="s">
-        <v>796</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
@@ -8969,16 +9211,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>794</v>
+      </c>
+      <c r="B208" t="s">
+        <v>795</v>
+      </c>
+      <c r="C208" t="s">
+        <v>796</v>
+      </c>
+      <c r="D208" t="s">
         <v>797</v>
-      </c>
-      <c r="B208" t="s">
-        <v>798</v>
-      </c>
-      <c r="C208" t="s">
-        <v>799</v>
-      </c>
-      <c r="D208" t="s">
-        <v>800</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -8986,16 +9228,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>798</v>
+      </c>
+      <c r="B209" t="s">
+        <v>799</v>
+      </c>
+      <c r="C209" t="s">
+        <v>800</v>
+      </c>
+      <c r="D209" t="s">
         <v>801</v>
-      </c>
-      <c r="B209" t="s">
-        <v>802</v>
-      </c>
-      <c r="C209" t="s">
-        <v>803</v>
-      </c>
-      <c r="D209" t="s">
-        <v>804</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -9003,16 +9245,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>802</v>
+      </c>
+      <c r="B210" t="s">
+        <v>803</v>
+      </c>
+      <c r="C210" t="s">
+        <v>804</v>
+      </c>
+      <c r="D210" t="s">
         <v>805</v>
-      </c>
-      <c r="B210" t="s">
-        <v>806</v>
-      </c>
-      <c r="C210" t="s">
-        <v>807</v>
-      </c>
-      <c r="D210" t="s">
-        <v>808</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
@@ -9020,16 +9262,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>806</v>
+      </c>
+      <c r="B211" t="s">
+        <v>807</v>
+      </c>
+      <c r="C211" t="s">
+        <v>808</v>
+      </c>
+      <c r="D211" t="s">
         <v>809</v>
-      </c>
-      <c r="B211" t="s">
-        <v>810</v>
-      </c>
-      <c r="C211" t="s">
-        <v>811</v>
-      </c>
-      <c r="D211" t="s">
-        <v>812</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
@@ -9037,16 +9279,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>810</v>
+      </c>
+      <c r="B212" t="s">
+        <v>811</v>
+      </c>
+      <c r="C212" t="s">
+        <v>812</v>
+      </c>
+      <c r="D212" t="s">
         <v>813</v>
-      </c>
-      <c r="B212" t="s">
-        <v>814</v>
-      </c>
-      <c r="C212" t="s">
-        <v>815</v>
-      </c>
-      <c r="D212" t="s">
-        <v>816</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -9054,16 +9296,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>814</v>
+      </c>
+      <c r="B213" t="s">
+        <v>815</v>
+      </c>
+      <c r="C213" t="s">
+        <v>816</v>
+      </c>
+      <c r="D213" t="s">
         <v>817</v>
-      </c>
-      <c r="B213" t="s">
-        <v>818</v>
-      </c>
-      <c r="C213" t="s">
-        <v>819</v>
-      </c>
-      <c r="D213" t="s">
-        <v>820</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
@@ -9071,16 +9313,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>818</v>
+      </c>
+      <c r="B214" t="s">
+        <v>819</v>
+      </c>
+      <c r="C214" t="s">
+        <v>820</v>
+      </c>
+      <c r="D214" t="s">
         <v>821</v>
-      </c>
-      <c r="B214" t="s">
-        <v>822</v>
-      </c>
-      <c r="C214" t="s">
-        <v>823</v>
-      </c>
-      <c r="D214" t="s">
-        <v>824</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
@@ -9088,16 +9330,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>822</v>
+      </c>
+      <c r="B215" t="s">
+        <v>823</v>
+      </c>
+      <c r="C215" t="s">
+        <v>824</v>
+      </c>
+      <c r="D215" t="s">
         <v>825</v>
-      </c>
-      <c r="B215" t="s">
-        <v>826</v>
-      </c>
-      <c r="C215" t="s">
-        <v>827</v>
-      </c>
-      <c r="D215" t="s">
-        <v>828</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
@@ -9105,16 +9347,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>826</v>
+      </c>
+      <c r="B216" t="s">
+        <v>827</v>
+      </c>
+      <c r="C216" t="s">
+        <v>828</v>
+      </c>
+      <c r="D216" t="s">
         <v>829</v>
-      </c>
-      <c r="B216" t="s">
-        <v>830</v>
-      </c>
-      <c r="C216" t="s">
-        <v>831</v>
-      </c>
-      <c r="D216" t="s">
-        <v>832</v>
       </c>
       <c r="E216" t="s">
         <v>12</v>
@@ -9122,16 +9364,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>830</v>
+      </c>
+      <c r="B217" t="s">
+        <v>831</v>
+      </c>
+      <c r="C217" t="s">
+        <v>832</v>
+      </c>
+      <c r="D217" t="s">
         <v>833</v>
-      </c>
-      <c r="B217" t="s">
-        <v>834</v>
-      </c>
-      <c r="C217" t="s">
-        <v>835</v>
-      </c>
-      <c r="D217" t="s">
-        <v>836</v>
       </c>
       <c r="E217" t="s">
         <v>12</v>
@@ -9139,16 +9381,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>834</v>
+      </c>
+      <c r="B218" t="s">
+        <v>835</v>
+      </c>
+      <c r="C218" t="s">
+        <v>836</v>
+      </c>
+      <c r="D218" t="s">
         <v>837</v>
-      </c>
-      <c r="B218" t="s">
-        <v>838</v>
-      </c>
-      <c r="C218" t="s">
-        <v>839</v>
-      </c>
-      <c r="D218" t="s">
-        <v>840</v>
       </c>
       <c r="E218" t="s">
         <v>12</v>
@@ -9156,16 +9398,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>838</v>
+      </c>
+      <c r="B219" t="s">
+        <v>839</v>
+      </c>
+      <c r="C219" t="s">
+        <v>840</v>
+      </c>
+      <c r="D219" t="s">
         <v>841</v>
-      </c>
-      <c r="B219" t="s">
-        <v>842</v>
-      </c>
-      <c r="C219" t="s">
-        <v>843</v>
-      </c>
-      <c r="D219" t="s">
-        <v>844</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -9173,13 +9415,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B220" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C220" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
@@ -9190,13 +9432,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B221" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C221" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -9207,16 +9449,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>848</v>
+      </c>
+      <c r="B222" t="s">
+        <v>849</v>
+      </c>
+      <c r="C222" t="s">
+        <v>850</v>
+      </c>
+      <c r="D222" t="s">
         <v>851</v>
-      </c>
-      <c r="B222" t="s">
-        <v>852</v>
-      </c>
-      <c r="C222" t="s">
-        <v>853</v>
-      </c>
-      <c r="D222" t="s">
-        <v>854</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
@@ -9224,16 +9466,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>852</v>
+      </c>
+      <c r="B223" t="s">
+        <v>853</v>
+      </c>
+      <c r="C223" t="s">
+        <v>854</v>
+      </c>
+      <c r="D223" t="s">
         <v>855</v>
-      </c>
-      <c r="B223" t="s">
-        <v>856</v>
-      </c>
-      <c r="C223" t="s">
-        <v>857</v>
-      </c>
-      <c r="D223" t="s">
-        <v>858</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
@@ -9241,16 +9483,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>856</v>
+      </c>
+      <c r="B224" t="s">
+        <v>857</v>
+      </c>
+      <c r="C224" t="s">
+        <v>858</v>
+      </c>
+      <c r="D224" t="s">
         <v>859</v>
-      </c>
-      <c r="B224" t="s">
-        <v>860</v>
-      </c>
-      <c r="C224" t="s">
-        <v>861</v>
-      </c>
-      <c r="D224" t="s">
-        <v>862</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
@@ -9258,16 +9500,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>860</v>
+      </c>
+      <c r="B225" t="s">
+        <v>861</v>
+      </c>
+      <c r="C225" t="s">
+        <v>862</v>
+      </c>
+      <c r="D225" t="s">
         <v>863</v>
-      </c>
-      <c r="B225" t="s">
-        <v>864</v>
-      </c>
-      <c r="C225" t="s">
-        <v>865</v>
-      </c>
-      <c r="D225" t="s">
-        <v>866</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
@@ -9275,16 +9517,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B226" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C226" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D226" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -9292,16 +9534,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B227" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C227" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D227" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
@@ -9309,16 +9551,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B228" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C228" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D228" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E228" t="s">
         <v>12</v>
@@ -9326,16 +9568,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B229" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C229" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D229" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E229" t="s">
         <v>12</v>
@@ -9343,16 +9585,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>876</v>
+      </c>
+      <c r="B230" t="s">
+        <v>877</v>
+      </c>
+      <c r="C230" t="s">
+        <v>878</v>
+      </c>
+      <c r="D230" t="s">
         <v>879</v>
-      </c>
-      <c r="B230" t="s">
-        <v>880</v>
-      </c>
-      <c r="C230" t="s">
-        <v>881</v>
-      </c>
-      <c r="D230" t="s">
-        <v>882</v>
       </c>
       <c r="E230" t="s">
         <v>12</v>
@@ -9360,16 +9602,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>880</v>
+      </c>
+      <c r="B231" t="s">
+        <v>881</v>
+      </c>
+      <c r="C231" t="s">
+        <v>882</v>
+      </c>
+      <c r="D231" t="s">
         <v>883</v>
-      </c>
-      <c r="B231" t="s">
-        <v>884</v>
-      </c>
-      <c r="C231" t="s">
-        <v>885</v>
-      </c>
-      <c r="D231" t="s">
-        <v>886</v>
       </c>
       <c r="E231" t="s">
         <v>12</v>
@@ -9377,16 +9619,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>884</v>
+      </c>
+      <c r="B232" t="s">
+        <v>885</v>
+      </c>
+      <c r="C232" t="s">
+        <v>886</v>
+      </c>
+      <c r="D232" t="s">
         <v>887</v>
-      </c>
-      <c r="B232" t="s">
-        <v>888</v>
-      </c>
-      <c r="C232" t="s">
-        <v>889</v>
-      </c>
-      <c r="D232" t="s">
-        <v>890</v>
       </c>
       <c r="E232" t="s">
         <v>12</v>
@@ -9394,16 +9636,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>888</v>
+      </c>
+      <c r="B233" t="s">
+        <v>889</v>
+      </c>
+      <c r="C233" t="s">
+        <v>890</v>
+      </c>
+      <c r="D233" t="s">
         <v>891</v>
-      </c>
-      <c r="B233" t="s">
-        <v>892</v>
-      </c>
-      <c r="C233" t="s">
-        <v>893</v>
-      </c>
-      <c r="D233" t="s">
-        <v>894</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -9411,16 +9653,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>892</v>
+      </c>
+      <c r="B234" t="s">
+        <v>893</v>
+      </c>
+      <c r="C234" t="s">
+        <v>894</v>
+      </c>
+      <c r="D234" t="s">
         <v>895</v>
-      </c>
-      <c r="B234" t="s">
-        <v>896</v>
-      </c>
-      <c r="C234" t="s">
-        <v>897</v>
-      </c>
-      <c r="D234" t="s">
-        <v>898</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -9428,16 +9670,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>896</v>
+      </c>
+      <c r="B235" t="s">
+        <v>897</v>
+      </c>
+      <c r="C235" t="s">
+        <v>898</v>
+      </c>
+      <c r="D235" t="s">
         <v>899</v>
-      </c>
-      <c r="B235" t="s">
-        <v>900</v>
-      </c>
-      <c r="C235" t="s">
-        <v>901</v>
-      </c>
-      <c r="D235" t="s">
-        <v>902</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -9445,16 +9687,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B236" t="s">
+        <v>902</v>
+      </c>
+      <c r="C236" t="s">
+        <v>903</v>
+      </c>
+      <c r="D236" t="s">
         <v>904</v>
-      </c>
-      <c r="B236" t="s">
-        <v>905</v>
-      </c>
-      <c r="C236" t="s">
-        <v>906</v>
-      </c>
-      <c r="D236" t="s">
-        <v>907</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
@@ -9462,16 +9704,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>905</v>
+      </c>
+      <c r="B237" t="s">
+        <v>906</v>
+      </c>
+      <c r="C237" t="s">
+        <v>907</v>
+      </c>
+      <c r="D237" t="s">
         <v>908</v>
-      </c>
-      <c r="B237" t="s">
-        <v>909</v>
-      </c>
-      <c r="C237" t="s">
-        <v>910</v>
-      </c>
-      <c r="D237" t="s">
-        <v>911</v>
       </c>
       <c r="E237" t="s">
         <v>12</v>
@@ -9479,16 +9721,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>909</v>
+      </c>
+      <c r="B238" t="s">
+        <v>910</v>
+      </c>
+      <c r="C238" t="s">
+        <v>911</v>
+      </c>
+      <c r="D238" t="s">
         <v>912</v>
-      </c>
-      <c r="B238" t="s">
-        <v>913</v>
-      </c>
-      <c r="C238" t="s">
-        <v>914</v>
-      </c>
-      <c r="D238" t="s">
-        <v>915</v>
       </c>
       <c r="E238" t="s">
         <v>12</v>
@@ -9496,16 +9738,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>913</v>
+      </c>
+      <c r="B239" t="s">
+        <v>914</v>
+      </c>
+      <c r="C239" t="s">
+        <v>915</v>
+      </c>
+      <c r="D239" t="s">
         <v>916</v>
-      </c>
-      <c r="B239" t="s">
-        <v>917</v>
-      </c>
-      <c r="C239" t="s">
-        <v>918</v>
-      </c>
-      <c r="D239" t="s">
-        <v>919</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -9513,16 +9755,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>917</v>
+      </c>
+      <c r="B240" t="s">
+        <v>918</v>
+      </c>
+      <c r="C240" t="s">
+        <v>919</v>
+      </c>
+      <c r="D240" t="s">
         <v>920</v>
-      </c>
-      <c r="B240" t="s">
-        <v>921</v>
-      </c>
-      <c r="C240" t="s">
-        <v>922</v>
-      </c>
-      <c r="D240" t="s">
-        <v>923</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9530,16 +9772,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>921</v>
+      </c>
+      <c r="B241" t="s">
+        <v>922</v>
+      </c>
+      <c r="C241" t="s">
+        <v>923</v>
+      </c>
+      <c r="D241" t="s">
         <v>924</v>
-      </c>
-      <c r="B241" t="s">
-        <v>925</v>
-      </c>
-      <c r="C241" t="s">
-        <v>926</v>
-      </c>
-      <c r="D241" t="s">
-        <v>927</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
@@ -9547,16 +9789,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>925</v>
+      </c>
+      <c r="B242" t="s">
+        <v>926</v>
+      </c>
+      <c r="C242" t="s">
+        <v>927</v>
+      </c>
+      <c r="D242" t="s">
         <v>928</v>
-      </c>
-      <c r="B242" t="s">
-        <v>929</v>
-      </c>
-      <c r="C242" t="s">
-        <v>930</v>
-      </c>
-      <c r="D242" t="s">
-        <v>931</v>
       </c>
       <c r="E242" t="s">
         <v>12</v>
@@ -9564,16 +9806,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>929</v>
+      </c>
+      <c r="B243" t="s">
+        <v>930</v>
+      </c>
+      <c r="C243" t="s">
+        <v>931</v>
+      </c>
+      <c r="D243" t="s">
         <v>932</v>
-      </c>
-      <c r="B243" t="s">
-        <v>933</v>
-      </c>
-      <c r="C243" t="s">
-        <v>934</v>
-      </c>
-      <c r="D243" t="s">
-        <v>935</v>
       </c>
       <c r="E243" t="s">
         <v>12</v>
@@ -9581,16 +9823,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>933</v>
+      </c>
+      <c r="B244" t="s">
+        <v>934</v>
+      </c>
+      <c r="C244" t="s">
+        <v>935</v>
+      </c>
+      <c r="D244" t="s">
         <v>936</v>
-      </c>
-      <c r="B244" t="s">
-        <v>937</v>
-      </c>
-      <c r="C244" t="s">
-        <v>938</v>
-      </c>
-      <c r="D244" t="s">
-        <v>939</v>
       </c>
       <c r="E244" t="s">
         <v>12</v>
@@ -9598,16 +9840,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>937</v>
+      </c>
+      <c r="B245" t="s">
+        <v>938</v>
+      </c>
+      <c r="C245" t="s">
+        <v>939</v>
+      </c>
+      <c r="D245" t="s">
         <v>940</v>
-      </c>
-      <c r="B245" t="s">
-        <v>941</v>
-      </c>
-      <c r="C245" t="s">
-        <v>942</v>
-      </c>
-      <c r="D245" t="s">
-        <v>943</v>
       </c>
       <c r="E245" t="s">
         <v>12</v>
@@ -9615,16 +9857,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>941</v>
+      </c>
+      <c r="B246" t="s">
+        <v>942</v>
+      </c>
+      <c r="C246" t="s">
+        <v>943</v>
+      </c>
+      <c r="D246" t="s">
         <v>944</v>
-      </c>
-      <c r="B246" t="s">
-        <v>945</v>
-      </c>
-      <c r="C246" t="s">
-        <v>946</v>
-      </c>
-      <c r="D246" t="s">
-        <v>947</v>
       </c>
       <c r="E246" t="s">
         <v>12</v>
@@ -9632,16 +9874,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>945</v>
+      </c>
+      <c r="B247" t="s">
+        <v>946</v>
+      </c>
+      <c r="C247" t="s">
+        <v>947</v>
+      </c>
+      <c r="D247" t="s">
         <v>948</v>
-      </c>
-      <c r="B247" t="s">
-        <v>949</v>
-      </c>
-      <c r="C247" t="s">
-        <v>950</v>
-      </c>
-      <c r="D247" t="s">
-        <v>951</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -9649,16 +9891,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B248" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C248" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D248" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E248" t="s">
         <v>12</v>
@@ -9666,16 +9908,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>952</v>
+      </c>
+      <c r="B249" t="s">
+        <v>953</v>
+      </c>
+      <c r="C249" t="s">
+        <v>954</v>
+      </c>
+      <c r="D249" t="s">
         <v>955</v>
-      </c>
-      <c r="B249" t="s">
-        <v>956</v>
-      </c>
-      <c r="C249" t="s">
-        <v>957</v>
-      </c>
-      <c r="D249" t="s">
-        <v>958</v>
       </c>
       <c r="E249" t="s">
         <v>12</v>
@@ -9683,16 +9925,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>956</v>
+      </c>
+      <c r="B250" t="s">
+        <v>957</v>
+      </c>
+      <c r="C250" t="s">
+        <v>958</v>
+      </c>
+      <c r="D250" t="s">
         <v>959</v>
-      </c>
-      <c r="B250" t="s">
-        <v>960</v>
-      </c>
-      <c r="C250" t="s">
-        <v>961</v>
-      </c>
-      <c r="D250" t="s">
-        <v>962</v>
       </c>
       <c r="E250" t="s">
         <v>12</v>
@@ -9700,16 +9942,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>960</v>
+      </c>
+      <c r="B251" t="s">
+        <v>961</v>
+      </c>
+      <c r="C251" t="s">
+        <v>962</v>
+      </c>
+      <c r="D251" t="s">
         <v>963</v>
-      </c>
-      <c r="B251" t="s">
-        <v>964</v>
-      </c>
-      <c r="C251" t="s">
-        <v>965</v>
-      </c>
-      <c r="D251" t="s">
-        <v>966</v>
       </c>
       <c r="E251" t="s">
         <v>12</v>
@@ -9717,16 +9959,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>964</v>
+      </c>
+      <c r="B252" t="s">
+        <v>965</v>
+      </c>
+      <c r="C252" t="s">
+        <v>966</v>
+      </c>
+      <c r="D252" t="s">
         <v>967</v>
-      </c>
-      <c r="B252" t="s">
-        <v>968</v>
-      </c>
-      <c r="C252" t="s">
-        <v>969</v>
-      </c>
-      <c r="D252" t="s">
-        <v>970</v>
       </c>
       <c r="E252" t="s">
         <v>12</v>
@@ -9734,16 +9976,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>968</v>
+      </c>
+      <c r="B253" t="s">
+        <v>969</v>
+      </c>
+      <c r="C253" t="s">
+        <v>970</v>
+      </c>
+      <c r="D253" t="s">
         <v>971</v>
-      </c>
-      <c r="B253" t="s">
-        <v>972</v>
-      </c>
-      <c r="C253" t="s">
-        <v>973</v>
-      </c>
-      <c r="D253" t="s">
-        <v>974</v>
       </c>
       <c r="E253" t="s">
         <v>12</v>
@@ -9751,16 +9993,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>972</v>
+      </c>
+      <c r="B254" t="s">
+        <v>973</v>
+      </c>
+      <c r="C254" t="s">
+        <v>974</v>
+      </c>
+      <c r="D254" t="s">
         <v>975</v>
-      </c>
-      <c r="B254" t="s">
-        <v>976</v>
-      </c>
-      <c r="C254" t="s">
-        <v>977</v>
-      </c>
-      <c r="D254" t="s">
-        <v>978</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -9768,16 +10010,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>976</v>
+      </c>
+      <c r="B255" t="s">
+        <v>977</v>
+      </c>
+      <c r="C255" t="s">
+        <v>978</v>
+      </c>
+      <c r="D255" t="s">
         <v>979</v>
-      </c>
-      <c r="B255" t="s">
-        <v>980</v>
-      </c>
-      <c r="C255" t="s">
-        <v>981</v>
-      </c>
-      <c r="D255" t="s">
-        <v>982</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
@@ -9785,16 +10027,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>980</v>
+      </c>
+      <c r="B256" t="s">
+        <v>981</v>
+      </c>
+      <c r="C256" t="s">
+        <v>982</v>
+      </c>
+      <c r="D256" t="s">
         <v>983</v>
-      </c>
-      <c r="B256" t="s">
-        <v>984</v>
-      </c>
-      <c r="C256" t="s">
-        <v>985</v>
-      </c>
-      <c r="D256" t="s">
-        <v>986</v>
       </c>
       <c r="E256" t="s">
         <v>12</v>
@@ -9802,16 +10044,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>984</v>
+      </c>
+      <c r="B257" t="s">
+        <v>985</v>
+      </c>
+      <c r="C257" t="s">
+        <v>986</v>
+      </c>
+      <c r="D257" t="s">
         <v>987</v>
-      </c>
-      <c r="B257" t="s">
-        <v>988</v>
-      </c>
-      <c r="C257" t="s">
-        <v>989</v>
-      </c>
-      <c r="D257" t="s">
-        <v>990</v>
       </c>
       <c r="E257" t="s">
         <v>12</v>
@@ -9819,16 +10061,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>988</v>
+      </c>
+      <c r="B258" t="s">
+        <v>989</v>
+      </c>
+      <c r="C258" t="s">
+        <v>990</v>
+      </c>
+      <c r="D258" t="s">
         <v>991</v>
-      </c>
-      <c r="B258" t="s">
-        <v>992</v>
-      </c>
-      <c r="C258" t="s">
-        <v>993</v>
-      </c>
-      <c r="D258" t="s">
-        <v>994</v>
       </c>
       <c r="E258" t="s">
         <v>12</v>
@@ -9836,16 +10078,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>992</v>
+      </c>
+      <c r="B259" t="s">
+        <v>993</v>
+      </c>
+      <c r="C259" t="s">
+        <v>994</v>
+      </c>
+      <c r="D259" t="s">
         <v>995</v>
-      </c>
-      <c r="B259" t="s">
-        <v>996</v>
-      </c>
-      <c r="C259" t="s">
-        <v>997</v>
-      </c>
-      <c r="D259" t="s">
-        <v>998</v>
       </c>
       <c r="E259" t="s">
         <v>12</v>
@@ -9853,16 +10095,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>996</v>
+      </c>
+      <c r="B260" t="s">
+        <v>997</v>
+      </c>
+      <c r="C260" t="s">
+        <v>998</v>
+      </c>
+      <c r="D260" t="s">
         <v>999</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1002</v>
       </c>
       <c r="E260" t="s">
         <v>12</v>
@@ -9870,16 +10112,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D261" t="s">
         <v>1003</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1006</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -9887,16 +10129,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D262" t="s">
         <v>1007</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1010</v>
       </c>
       <c r="E262" t="s">
         <v>12</v>
@@ -9904,16 +10146,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D263" t="s">
         <v>1011</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1014</v>
       </c>
       <c r="E263" t="s">
         <v>12</v>
@@ -9921,16 +10163,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D264" t="s">
         <v>1015</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1018</v>
       </c>
       <c r="E264" t="s">
         <v>12</v>
@@ -9938,16 +10180,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D265" t="s">
         <v>1019</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1022</v>
       </c>
       <c r="E265" t="s">
         <v>12</v>
@@ -9955,16 +10197,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D266" t="s">
         <v>1023</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1026</v>
       </c>
       <c r="E266" t="s">
         <v>12</v>
@@ -9972,16 +10214,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D267" t="s">
         <v>1027</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D267" t="s">
-        <v>1030</v>
       </c>
       <c r="E267" t="s">
         <v>12</v>
@@ -9989,16 +10231,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D268" t="s">
         <v>1031</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1034</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -10006,16 +10248,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D269" t="s">
         <v>1035</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1038</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -10023,16 +10265,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D270" t="s">
         <v>1039</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1042</v>
       </c>
       <c r="E270" t="s">
         <v>12</v>
@@ -10040,16 +10282,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D271" t="s">
         <v>1043</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1046</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -10057,16 +10299,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D272" t="s">
         <v>1047</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1050</v>
       </c>
       <c r="E272" t="s">
         <v>12</v>
@@ -10074,16 +10316,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D273" t="s">
         <v>1051</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1054</v>
       </c>
       <c r="E273" t="s">
         <v>12</v>
@@ -10091,16 +10333,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D274" t="s">
         <v>1055</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1058</v>
       </c>
       <c r="E274" t="s">
         <v>12</v>
@@ -10108,16 +10350,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D275" t="s">
         <v>1059</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1062</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -10125,16 +10367,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D276" t="s">
         <v>1063</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1066</v>
       </c>
       <c r="E276" t="s">
         <v>12</v>
@@ -10142,16 +10384,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D277" t="s">
         <v>1067</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1070</v>
       </c>
       <c r="E277" t="s">
         <v>12</v>
@@ -10159,16 +10401,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D278" t="s">
         <v>1071</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1074</v>
       </c>
       <c r="E278" t="s">
         <v>12</v>
@@ -10176,16 +10418,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D279" t="s">
         <v>1075</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D279" t="s">
-        <v>1078</v>
       </c>
       <c r="E279" t="s">
         <v>12</v>
@@ -10193,16 +10435,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D280" t="s">
         <v>1079</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1082</v>
       </c>
       <c r="E280" t="s">
         <v>12</v>
@@ -10210,16 +10452,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D281" t="s">
         <v>1083</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1086</v>
       </c>
       <c r="E281" t="s">
         <v>12</v>
@@ -10227,16 +10469,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D282" t="s">
         <v>1090</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D282" t="s">
-        <v>1093</v>
       </c>
       <c r="E282" t="s">
         <v>45</v>
@@ -10244,16 +10486,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B283" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C283" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D283" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E283" t="s">
         <v>45</v>
@@ -10261,16 +10503,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B284" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C284" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D284" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="E284" t="s">
         <v>45</v>
@@ -10278,16 +10520,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D285" t="s">
         <v>1097</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1100</v>
       </c>
       <c r="E285" t="s">
         <v>45</v>
@@ -10295,16 +10537,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D286" t="s">
         <v>1101</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1104</v>
       </c>
       <c r="E286" t="s">
         <v>45</v>
@@ -10312,16 +10554,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D287" t="s">
         <v>1105</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1108</v>
       </c>
       <c r="E287" t="s">
         <v>45</v>
@@ -10329,16 +10571,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D288" t="s">
         <v>1109</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1112</v>
       </c>
       <c r="E288" t="s">
         <v>45</v>
@@ -10346,16 +10588,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D289" t="s">
         <v>1113</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D289" t="s">
-        <v>1116</v>
       </c>
       <c r="E289" t="s">
         <v>45</v>
@@ -10363,16 +10605,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D290" t="s">
         <v>1117</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1120</v>
       </c>
       <c r="E290" t="s">
         <v>45</v>
@@ -10380,16 +10622,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D291" t="s">
         <v>1121</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1124</v>
       </c>
       <c r="E291" t="s">
         <v>45</v>
@@ -10397,16 +10639,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D292" t="s">
         <v>1125</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1128</v>
       </c>
       <c r="E292" t="s">
         <v>45</v>
@@ -10414,16 +10656,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D293" t="s">
         <v>1129</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1132</v>
       </c>
       <c r="E293" t="s">
         <v>45</v>
@@ -10431,13 +10673,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B294" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C294" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D294" t="s">
         <v>51</v>
@@ -10448,16 +10690,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D295" t="s">
         <v>1135</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1138</v>
       </c>
       <c r="E295" t="s">
         <v>45</v>
@@ -10465,16 +10707,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D296" t="s">
         <v>1139</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1142</v>
       </c>
       <c r="E296" t="s">
         <v>45</v>
@@ -10482,16 +10724,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D297" t="s">
         <v>1143</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D297" t="s">
-        <v>1146</v>
       </c>
       <c r="E297" t="s">
         <v>45</v>
@@ -10499,16 +10741,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D298" t="s">
         <v>1147</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1150</v>
       </c>
       <c r="E298" t="s">
         <v>45</v>
@@ -10516,16 +10758,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B299" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C299" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D299" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E299" t="s">
         <v>45</v>
@@ -10533,16 +10775,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D300" t="s">
         <v>1156</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1159</v>
       </c>
       <c r="E300" t="s">
         <v>45</v>
@@ -10550,16 +10792,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D301" t="s">
         <v>1160</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1163</v>
       </c>
       <c r="E301" t="s">
         <v>45</v>
@@ -10567,13 +10809,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B302" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C302" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
@@ -10584,16 +10826,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D303" t="s">
         <v>1167</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1170</v>
       </c>
       <c r="E303" t="s">
         <v>45</v>
@@ -10601,16 +10843,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B304" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C304" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D304" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E304" t="s">
         <v>45</v>
@@ -10618,16 +10860,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D305" t="s">
         <v>1174</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1177</v>
       </c>
       <c r="E305" t="s">
         <v>45</v>
@@ -10635,16 +10877,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B306" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C306" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D306" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E306" t="s">
         <v>45</v>
@@ -10652,16 +10894,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D307" t="s">
         <v>1181</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D307" t="s">
-        <v>1184</v>
       </c>
       <c r="E307" t="s">
         <v>45</v>
@@ -10669,16 +10911,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D308" t="s">
         <v>1185</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1188</v>
       </c>
       <c r="E308" t="s">
         <v>45</v>
@@ -10686,16 +10928,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B309" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C309" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D309" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E309" t="s">
         <v>45</v>
@@ -10703,16 +10945,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B310" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C310" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D310" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E310" t="s">
         <v>45</v>
@@ -10720,16 +10962,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D311" t="s">
         <v>1195</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1198</v>
       </c>
       <c r="E311" t="s">
         <v>45</v>
@@ -10737,16 +10979,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D312" t="s">
         <v>1199</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1202</v>
       </c>
       <c r="E312" t="s">
         <v>45</v>
@@ -10754,16 +10996,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D313" t="s">
         <v>1203</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1206</v>
       </c>
       <c r="E313" t="s">
         <v>45</v>
@@ -10771,16 +11013,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D314" t="s">
         <v>1207</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1210</v>
       </c>
       <c r="E314" t="s">
         <v>45</v>
@@ -10788,16 +11030,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D315" t="s">
         <v>1213</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1216</v>
       </c>
       <c r="E315" t="s">
         <v>45</v>
@@ -10805,16 +11047,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D316" t="s">
         <v>1217</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1220</v>
       </c>
       <c r="E316" t="s">
         <v>45</v>
@@ -10822,16 +11064,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D317" t="s">
         <v>1221</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1224</v>
       </c>
       <c r="E317" t="s">
         <v>45</v>
@@ -10839,16 +11081,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D318" t="s">
         <v>1225</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1228</v>
       </c>
       <c r="E318" t="s">
         <v>45</v>
@@ -10856,16 +11098,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D319" t="s">
         <v>1229</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1232</v>
       </c>
       <c r="E319" t="s">
         <v>45</v>
@@ -10873,16 +11115,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D320" t="s">
         <v>1233</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D320" t="s">
-        <v>1236</v>
       </c>
       <c r="E320" t="s">
         <v>45</v>
@@ -10890,16 +11132,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D321" t="s">
         <v>1237</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1240</v>
       </c>
       <c r="E321" t="s">
         <v>45</v>
@@ -10907,16 +11149,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D322" t="s">
         <v>1241</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1244</v>
       </c>
       <c r="E322" t="s">
         <v>45</v>
@@ -10924,16 +11166,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B323" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C323" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D323" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E323" t="s">
         <v>45</v>
@@ -10941,16 +11183,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D324" t="s">
         <v>1248</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1251</v>
       </c>
       <c r="E324" t="s">
         <v>45</v>
@@ -10958,16 +11200,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B325" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C325" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D325" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E325" t="s">
         <v>45</v>
@@ -10975,16 +11217,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D326" t="s">
         <v>1255</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1258</v>
       </c>
       <c r="E326" t="s">
         <v>45</v>
@@ -10992,16 +11234,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D327" t="s">
         <v>1259</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1262</v>
       </c>
       <c r="E327" t="s">
         <v>45</v>
@@ -11009,16 +11251,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B328" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C328" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D328" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E328" t="s">
         <v>45</v>
@@ -11026,16 +11268,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D329" t="s">
         <v>1266</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1269</v>
       </c>
       <c r="E329" t="s">
         <v>45</v>
@@ -11043,16 +11285,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B330" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C330" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D330" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E330" t="s">
         <v>45</v>
@@ -11060,16 +11302,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D331" t="s">
         <v>1273</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1276</v>
       </c>
       <c r="E331" t="s">
         <v>45</v>
@@ -11077,16 +11319,16 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D332" t="s">
         <v>1277</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1280</v>
       </c>
       <c r="E332" t="s">
         <v>45</v>
@@ -11094,16 +11336,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D333" t="s">
         <v>1281</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1284</v>
       </c>
       <c r="E333" t="s">
         <v>45</v>
@@ -11111,16 +11353,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D334" t="s">
         <v>1285</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1288</v>
       </c>
       <c r="E334" t="s">
         <v>45</v>
@@ -11128,16 +11370,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D335" t="s">
         <v>1289</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1292</v>
       </c>
       <c r="E335" t="s">
         <v>45</v>
@@ -11145,16 +11387,16 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D336" t="s">
         <v>1293</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1296</v>
       </c>
       <c r="E336" t="s">
         <v>45</v>
@@ -11162,16 +11404,16 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B337" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C337" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D337" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E337" t="s">
         <v>45</v>
@@ -11179,16 +11421,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B338" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C338" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D338" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="E338" t="s">
         <v>45</v>
@@ -11196,16 +11438,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D339" t="s">
         <v>1302</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1305</v>
       </c>
       <c r="E339" t="s">
         <v>45</v>
@@ -11213,16 +11455,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D340" t="s">
         <v>1306</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1309</v>
       </c>
       <c r="E340" t="s">
         <v>45</v>
@@ -11230,16 +11472,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D341" t="s">
         <v>1310</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1313</v>
       </c>
       <c r="E341" t="s">
         <v>45</v>
@@ -11247,16 +11489,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B342" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C342" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D342" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E342" t="s">
         <v>45</v>
@@ -11264,16 +11506,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B343" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C343" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D343" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E343" t="s">
         <v>45</v>
@@ -11281,16 +11523,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D344" t="s">
         <v>1320</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1323</v>
       </c>
       <c r="E344" t="s">
         <v>45</v>
@@ -11298,16 +11540,16 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D345" t="s">
         <v>1334</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1337</v>
       </c>
       <c r="E345" t="s">
         <v>45</v>
@@ -11315,16 +11557,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B346" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C346" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D346" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E346" t="s">
         <v>45</v>
@@ -11332,16 +11574,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B347" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C347" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D347" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E347" t="s">
         <v>45</v>
@@ -11349,16 +11591,16 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D348" t="s">
         <v>1344</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1347</v>
       </c>
       <c r="E348" t="s">
         <v>45</v>
@@ -11366,16 +11608,16 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D349" t="s">
         <v>1348</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1351</v>
       </c>
       <c r="E349" t="s">
         <v>45</v>
@@ -11383,16 +11625,16 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D350" t="s">
         <v>1352</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1355</v>
       </c>
       <c r="E350" t="s">
         <v>45</v>
@@ -11400,16 +11642,16 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B351" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C351" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D351" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E351" t="s">
         <v>45</v>
@@ -11417,16 +11659,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D352" t="s">
         <v>1359</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1362</v>
       </c>
       <c r="E352" t="s">
         <v>45</v>
@@ -11434,16 +11676,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D353" t="s">
         <v>1363</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1366</v>
       </c>
       <c r="E353" t="s">
         <v>45</v>
@@ -11451,16 +11693,16 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D354" t="s">
         <v>1367</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1370</v>
       </c>
       <c r="E354" t="s">
         <v>45</v>
@@ -11468,16 +11710,16 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D355" t="s">
         <v>1371</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1374</v>
       </c>
       <c r="E355" t="s">
         <v>45</v>
@@ -11485,16 +11727,16 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D356" t="s">
         <v>1375</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1378</v>
       </c>
       <c r="E356" t="s">
         <v>45</v>
@@ -11502,16 +11744,16 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B357" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C357" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D357" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E357" t="s">
         <v>45</v>
@@ -11519,16 +11761,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D358" t="s">
         <v>1382</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1385</v>
       </c>
       <c r="E358" t="s">
         <v>45</v>
@@ -11536,16 +11778,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D359" t="s">
         <v>1386</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1389</v>
       </c>
       <c r="E359" t="s">
         <v>45</v>
@@ -11553,18 +11795,358 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B360" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C360" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D360" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="E360" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E361" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E362" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E363" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E364" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E365" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E366" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E367" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E368" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E369" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E370" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E371" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E372" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E373" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E374" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E375" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E376" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E377" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E378" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E379" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E380" t="s">
         <v>45</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CBD60-460B-46F2-AF80-FCA4071D333E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94C998-982D-4395-964C-0A5799F7054F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="icon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$390</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1514">
   <si>
     <t>百度网盘</t>
   </si>
@@ -1497,10 +1497,6 @@
     <t>com.meizu.media.video.VideoMainActivity</t>
   </si>
   <si>
-    <t>flyme</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>MX player Pro</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1646,9 +1642,6 @@
     <t>com.oneplus.note.ui.MainActivity</t>
   </si>
   <si>
-    <t>H2OS</t>
-  </si>
-  <si>
     <t>卡券</t>
   </si>
   <si>
@@ -4735,6 +4728,137 @@
   </si>
   <si>
     <t>com.yahoo.mobile.client.android.weather</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBE平行空间</t>
+  </si>
+  <si>
+    <t>leb_parallel</t>
+  </si>
+  <si>
+    <t>com.lbe.parallel</t>
+  </si>
+  <si>
+    <t>com.lbe.parallel.ui.tour.SplashActivity</t>
+  </si>
+  <si>
+    <t>双开助手</t>
+  </si>
+  <si>
+    <t>shuangkai</t>
+  </si>
+  <si>
+    <t>com.excelliance.dualaid</t>
+  </si>
+  <si>
+    <t>com.excelliance.kxqp.ui.HelloActivity</t>
+  </si>
+  <si>
+    <t>Auto.JS</t>
+  </si>
+  <si>
+    <t>auto_js</t>
+  </si>
+  <si>
+    <t>com.stardust.scriptdroid</t>
+  </si>
+  <si>
+    <t>com.stardust.scriptdroid.ui.splash.SplashActivity_</t>
+  </si>
+  <si>
+    <t>锤子便签</t>
+  </si>
+  <si>
+    <t>smartisan_notes</t>
+  </si>
+  <si>
+    <t>com.smartisan.notes</t>
+  </si>
+  <si>
+    <t>com.smartisan.notes.NewNotesActivity</t>
+  </si>
+  <si>
+    <t>Smartisan</t>
+  </si>
+  <si>
+    <t>小米计算器</t>
+  </si>
+  <si>
+    <t>miui_calculator</t>
+  </si>
+  <si>
+    <t>com.miui.calculator</t>
+  </si>
+  <si>
+    <t>com.miui.calculator.cal.CalculatorActivity</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>微软翻译</t>
+  </si>
+  <si>
+    <t>microsoft_translator</t>
+  </si>
+  <si>
+    <t>com.microsoft.translator</t>
+  </si>
+  <si>
+    <t>com.microsoft.translator.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>遥控精灵</t>
+  </si>
+  <si>
+    <t>icontrol</t>
+  </si>
+  <si>
+    <t>com.tiqiaa.icontrol</t>
+  </si>
+  <si>
+    <t>com.tiqiaa.icontrol.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>番茄ToDo</t>
+  </si>
+  <si>
+    <t>tomato_time</t>
+  </si>
+  <si>
+    <t>com.plan.kot32.tomatotime</t>
+  </si>
+  <si>
+    <t>com.plan.kot32.tomatotime.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>tencent_transfer</t>
+  </si>
+  <si>
+    <t>com.tencent.transfer</t>
+  </si>
+  <si>
+    <t>com.tencent.transfer.ui.FirstActivity</t>
+  </si>
+  <si>
+    <t>一加搬家</t>
+  </si>
+  <si>
+    <t>oneplus_backuprestore</t>
+  </si>
+  <si>
+    <t>com.oneplus.backuprestore</t>
+  </si>
+  <si>
+    <t>com.oneplus.backuprestore.activity.BootActivity</t>
+  </si>
+  <si>
+    <t>Oneplus</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meizu</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5675,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C365" sqref="C365"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5891,7 +6015,7 @@
         <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5908,7 +6032,7 @@
         <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5976,7 +6100,7 @@
         <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5993,7 +6117,7 @@
         <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6265,7 +6389,7 @@
         <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -6299,7 +6423,7 @@
         <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6350,7 +6474,7 @@
         <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6503,7 +6627,7 @@
         <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -6554,7 +6678,7 @@
         <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -6571,7 +6695,7 @@
         <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -6639,7 +6763,7 @@
         <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -6826,7 +6950,7 @@
         <v>209</v>
       </c>
       <c r="E67" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -6843,7 +6967,7 @@
         <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -6911,7 +7035,7 @@
         <v>227</v>
       </c>
       <c r="E72" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -7035,16 +7159,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B80" t="s">
         <v>93</v>
       </c>
       <c r="C80" t="s">
+        <v>445</v>
+      </c>
+      <c r="D80" t="s">
         <v>446</v>
-      </c>
-      <c r="D80" t="s">
-        <v>447</v>
       </c>
       <c r="E80" t="s">
         <v>45</v>
@@ -7098,7 +7222,7 @@
         <v>325</v>
       </c>
       <c r="E83" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -7115,7 +7239,7 @@
         <v>329</v>
       </c>
       <c r="E84" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -7149,7 +7273,7 @@
         <v>337</v>
       </c>
       <c r="E86" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -7166,7 +7290,7 @@
         <v>341</v>
       </c>
       <c r="E87" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -7217,7 +7341,7 @@
         <v>346</v>
       </c>
       <c r="E90" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -7268,7 +7392,7 @@
         <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -7302,7 +7426,7 @@
         <v>368</v>
       </c>
       <c r="E95" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -7319,7 +7443,7 @@
         <v>377</v>
       </c>
       <c r="E96" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -7370,7 +7494,7 @@
         <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -7432,10 +7556,10 @@
         <v>402</v>
       </c>
       <c r="C103" t="s">
+        <v>442</v>
+      </c>
+      <c r="D103" t="s">
         <v>443</v>
-      </c>
-      <c r="D103" t="s">
-        <v>444</v>
       </c>
       <c r="E103" t="s">
         <v>45</v>
@@ -7443,16 +7567,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" t="s">
         <v>440</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>441</v>
       </c>
-      <c r="C104" t="s">
-        <v>442</v>
-      </c>
       <c r="D104" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
@@ -7460,7 +7584,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s">
         <v>403</v>
@@ -7608,21 +7732,21 @@
         <v>437</v>
       </c>
       <c r="E113" t="s">
-        <v>438</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>317</v>
@@ -7630,16 +7754,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>317</v>
@@ -7647,33 +7771,33 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>317</v>
@@ -7681,33 +7805,33 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>438</v>
+      <c r="E118" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>317</v>
@@ -7715,16 +7839,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>317</v>
@@ -7735,33 +7859,33 @@
         <v>159</v>
       </c>
       <c r="B121" t="s">
+        <v>476</v>
+      </c>
+      <c r="C121" t="s">
         <v>477</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>478</v>
       </c>
-      <c r="D121" t="s">
-        <v>479</v>
-      </c>
       <c r="E121" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>479</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C122" t="s">
+        <v>480</v>
+      </c>
+      <c r="D122" t="s">
         <v>481</v>
       </c>
-      <c r="B122" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C122" t="s">
-        <v>482</v>
-      </c>
-      <c r="D122" t="s">
-        <v>483</v>
-      </c>
       <c r="E122" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -7769,33 +7893,33 @@
         <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C123" t="s">
         <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E123" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>484</v>
+      </c>
+      <c r="B124" t="s">
+        <v>485</v>
+      </c>
+      <c r="C124" t="s">
         <v>486</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>487</v>
       </c>
-      <c r="C124" t="s">
-        <v>488</v>
-      </c>
-      <c r="D124" t="s">
-        <v>489</v>
-      </c>
       <c r="E124" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -7803,7 +7927,7 @@
         <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C125" t="s">
         <v>189</v>
@@ -7812,7 +7936,7 @@
         <v>190</v>
       </c>
       <c r="E125" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -7820,84 +7944,84 @@
         <v>230</v>
       </c>
       <c r="B126" t="s">
+        <v>489</v>
+      </c>
+      <c r="C126" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" t="s">
         <v>491</v>
       </c>
-      <c r="C126" t="s">
-        <v>492</v>
-      </c>
-      <c r="D126" t="s">
-        <v>493</v>
-      </c>
       <c r="E126" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B127" t="s">
         <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D127" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E127" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128" t="s">
+        <v>496</v>
+      </c>
+      <c r="C128" t="s">
         <v>497</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>498</v>
       </c>
-      <c r="C128" t="s">
-        <v>499</v>
-      </c>
-      <c r="D128" t="s">
-        <v>500</v>
-      </c>
       <c r="E128" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>499</v>
+      </c>
+      <c r="B129" t="s">
+        <v>500</v>
+      </c>
+      <c r="C129" t="s">
         <v>501</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>502</v>
       </c>
-      <c r="C129" t="s">
-        <v>503</v>
-      </c>
-      <c r="D129" t="s">
-        <v>504</v>
-      </c>
       <c r="E129" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" t="s">
+        <v>504</v>
+      </c>
+      <c r="C130" t="s">
         <v>505</v>
-      </c>
-      <c r="B130" t="s">
-        <v>506</v>
-      </c>
-      <c r="C130" t="s">
-        <v>507</v>
       </c>
       <c r="D130" t="s">
         <v>341</v>
       </c>
       <c r="E130" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -7908,435 +8032,435 @@
         <v>260</v>
       </c>
       <c r="C131" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E131" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>508</v>
+      </c>
+      <c r="B132" t="s">
+        <v>509</v>
+      </c>
+      <c r="C132" t="s">
         <v>510</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>511</v>
       </c>
-      <c r="C132" t="s">
-        <v>512</v>
-      </c>
-      <c r="D132" t="s">
-        <v>513</v>
-      </c>
       <c r="E132" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>512</v>
+      </c>
+      <c r="B133" t="s">
+        <v>513</v>
+      </c>
+      <c r="C133" t="s">
         <v>514</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>515</v>
       </c>
-      <c r="C133" t="s">
-        <v>516</v>
-      </c>
-      <c r="D133" t="s">
-        <v>517</v>
-      </c>
       <c r="E133" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>516</v>
+      </c>
+      <c r="B134" t="s">
+        <v>517</v>
+      </c>
+      <c r="C134" t="s">
         <v>518</v>
-      </c>
-      <c r="B134" t="s">
-        <v>519</v>
-      </c>
-      <c r="C134" t="s">
-        <v>520</v>
       </c>
       <c r="D134" t="s">
         <v>178</v>
       </c>
       <c r="E134" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>519</v>
+      </c>
+      <c r="B135" t="s">
+        <v>520</v>
+      </c>
+      <c r="C135" t="s">
         <v>521</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>522</v>
       </c>
-      <c r="C135" t="s">
-        <v>523</v>
-      </c>
-      <c r="D135" t="s">
-        <v>524</v>
-      </c>
       <c r="E135" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C136" t="s">
+        <v>524</v>
+      </c>
+      <c r="D136" t="s">
         <v>525</v>
       </c>
-      <c r="B136" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C136" t="s">
-        <v>526</v>
-      </c>
-      <c r="D136" t="s">
-        <v>527</v>
-      </c>
       <c r="E136" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>526</v>
+      </c>
+      <c r="B137" t="s">
+        <v>526</v>
+      </c>
+      <c r="C137" t="s">
+        <v>527</v>
+      </c>
+      <c r="D137" t="s">
         <v>528</v>
       </c>
-      <c r="B137" t="s">
-        <v>528</v>
-      </c>
-      <c r="C137" t="s">
-        <v>529</v>
-      </c>
-      <c r="D137" t="s">
-        <v>530</v>
-      </c>
       <c r="E137" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>529</v>
+      </c>
+      <c r="B138" t="s">
+        <v>530</v>
+      </c>
+      <c r="C138" t="s">
         <v>531</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>532</v>
       </c>
-      <c r="C138" t="s">
-        <v>533</v>
-      </c>
-      <c r="D138" t="s">
-        <v>534</v>
-      </c>
       <c r="E138" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>533</v>
+      </c>
+      <c r="B139" t="s">
+        <v>534</v>
+      </c>
+      <c r="C139" t="s">
         <v>535</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>536</v>
       </c>
-      <c r="C139" t="s">
-        <v>537</v>
-      </c>
-      <c r="D139" t="s">
-        <v>538</v>
-      </c>
       <c r="E139" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>537</v>
+      </c>
+      <c r="B140" t="s">
+        <v>538</v>
+      </c>
+      <c r="C140" t="s">
         <v>539</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>540</v>
       </c>
-      <c r="C140" t="s">
-        <v>541</v>
-      </c>
-      <c r="D140" t="s">
-        <v>542</v>
-      </c>
       <c r="E140" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>541</v>
+      </c>
+      <c r="B141" t="s">
+        <v>542</v>
+      </c>
+      <c r="C141" t="s">
         <v>543</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>544</v>
       </c>
-      <c r="C141" t="s">
-        <v>545</v>
-      </c>
-      <c r="D141" t="s">
-        <v>546</v>
-      </c>
       <c r="E141" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>545</v>
+      </c>
+      <c r="B142" t="s">
+        <v>546</v>
+      </c>
+      <c r="C142" t="s">
         <v>547</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>548</v>
       </c>
-      <c r="C142" t="s">
-        <v>549</v>
-      </c>
-      <c r="D142" t="s">
-        <v>550</v>
-      </c>
       <c r="E142" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>549</v>
+      </c>
+      <c r="B143" t="s">
+        <v>549</v>
+      </c>
+      <c r="C143" t="s">
+        <v>550</v>
+      </c>
+      <c r="D143" t="s">
         <v>551</v>
       </c>
-      <c r="B143" t="s">
-        <v>551</v>
-      </c>
-      <c r="C143" t="s">
-        <v>552</v>
-      </c>
-      <c r="D143" t="s">
-        <v>553</v>
-      </c>
       <c r="E143" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>552</v>
+      </c>
+      <c r="B144" t="s">
+        <v>553</v>
+      </c>
+      <c r="C144" t="s">
         <v>554</v>
       </c>
-      <c r="B144" t="s">
-        <v>555</v>
-      </c>
-      <c r="C144" t="s">
-        <v>556</v>
-      </c>
       <c r="D144" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E144" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>555</v>
+      </c>
+      <c r="B145" t="s">
+        <v>556</v>
+      </c>
+      <c r="C145" t="s">
         <v>557</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>558</v>
       </c>
-      <c r="C145" t="s">
-        <v>559</v>
-      </c>
-      <c r="D145" t="s">
-        <v>560</v>
-      </c>
       <c r="E145" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>559</v>
+      </c>
+      <c r="B146" t="s">
+        <v>560</v>
+      </c>
+      <c r="C146" t="s">
         <v>561</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>562</v>
       </c>
-      <c r="C146" t="s">
-        <v>563</v>
-      </c>
-      <c r="D146" t="s">
-        <v>564</v>
-      </c>
       <c r="E146" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>563</v>
+      </c>
+      <c r="B147" t="s">
+        <v>564</v>
+      </c>
+      <c r="C147" t="s">
         <v>565</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>566</v>
       </c>
-      <c r="C147" t="s">
-        <v>567</v>
-      </c>
-      <c r="D147" t="s">
-        <v>568</v>
-      </c>
       <c r="E147" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>567</v>
+      </c>
+      <c r="B148" t="s">
+        <v>568</v>
+      </c>
+      <c r="C148" t="s">
         <v>569</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>570</v>
       </c>
-      <c r="C148" t="s">
-        <v>571</v>
-      </c>
-      <c r="D148" t="s">
-        <v>572</v>
-      </c>
       <c r="E148" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>571</v>
+      </c>
+      <c r="B149" t="s">
+        <v>572</v>
+      </c>
+      <c r="C149" t="s">
         <v>573</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>574</v>
       </c>
-      <c r="C149" t="s">
-        <v>575</v>
-      </c>
-      <c r="D149" t="s">
-        <v>576</v>
-      </c>
       <c r="E149" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>575</v>
+      </c>
+      <c r="B150" t="s">
+        <v>575</v>
+      </c>
+      <c r="C150" t="s">
+        <v>576</v>
+      </c>
+      <c r="D150" t="s">
         <v>577</v>
       </c>
-      <c r="B150" t="s">
-        <v>577</v>
-      </c>
-      <c r="C150" t="s">
-        <v>578</v>
-      </c>
-      <c r="D150" t="s">
-        <v>579</v>
-      </c>
       <c r="E150" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B151" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C151" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>580</v>
+      </c>
+      <c r="B152" t="s">
+        <v>581</v>
+      </c>
+      <c r="C152" t="s">
         <v>582</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>583</v>
       </c>
-      <c r="C152" t="s">
-        <v>584</v>
-      </c>
-      <c r="D152" t="s">
-        <v>585</v>
-      </c>
       <c r="E152" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>584</v>
+      </c>
+      <c r="B153" t="s">
+        <v>584</v>
+      </c>
+      <c r="C153" t="s">
+        <v>585</v>
+      </c>
+      <c r="D153" t="s">
         <v>586</v>
       </c>
-      <c r="B153" t="s">
-        <v>586</v>
-      </c>
-      <c r="C153" t="s">
-        <v>587</v>
-      </c>
-      <c r="D153" t="s">
-        <v>588</v>
-      </c>
       <c r="E153" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>587</v>
+      </c>
+      <c r="B154" t="s">
+        <v>588</v>
+      </c>
+      <c r="C154" t="s">
         <v>589</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" t="s">
         <v>590</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E154" t="s">
         <v>591</v>
-      </c>
-      <c r="D154" t="s">
-        <v>592</v>
-      </c>
-      <c r="E154" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>592</v>
+      </c>
+      <c r="B155" t="s">
+        <v>593</v>
+      </c>
+      <c r="C155" t="s">
         <v>594</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>595</v>
       </c>
-      <c r="C155" t="s">
-        <v>596</v>
-      </c>
-      <c r="D155" t="s">
-        <v>597</v>
-      </c>
       <c r="E155" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>596</v>
+      </c>
+      <c r="B156" t="s">
+        <v>597</v>
+      </c>
+      <c r="C156" t="s">
         <v>598</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>599</v>
-      </c>
-      <c r="C156" t="s">
-        <v>600</v>
-      </c>
-      <c r="D156" t="s">
-        <v>601</v>
       </c>
       <c r="E156" t="s">
         <v>45</v>
@@ -8344,33 +8468,33 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>600</v>
+      </c>
+      <c r="B157" t="s">
+        <v>601</v>
+      </c>
+      <c r="C157" t="s">
         <v>602</v>
-      </c>
-      <c r="B157" t="s">
-        <v>603</v>
-      </c>
-      <c r="C157" t="s">
-        <v>604</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>480</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>603</v>
+      </c>
+      <c r="B158" t="s">
+        <v>604</v>
+      </c>
+      <c r="C158" t="s">
         <v>605</v>
       </c>
-      <c r="B158" t="s">
-        <v>606</v>
-      </c>
-      <c r="C158" t="s">
-        <v>607</v>
-      </c>
       <c r="D158" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E158" t="s">
         <v>45</v>
@@ -8378,16 +8502,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>606</v>
+      </c>
+      <c r="B159" t="s">
+        <v>607</v>
+      </c>
+      <c r="C159" t="s">
         <v>608</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>609</v>
-      </c>
-      <c r="C159" t="s">
-        <v>610</v>
-      </c>
-      <c r="D159" t="s">
-        <v>611</v>
       </c>
       <c r="E159" t="s">
         <v>45</v>
@@ -8395,16 +8519,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>610</v>
+      </c>
+      <c r="B160" t="s">
+        <v>611</v>
+      </c>
+      <c r="C160" t="s">
         <v>612</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>613</v>
-      </c>
-      <c r="C160" t="s">
-        <v>614</v>
-      </c>
-      <c r="D160" t="s">
-        <v>615</v>
       </c>
       <c r="E160" t="s">
         <v>45</v>
@@ -8412,16 +8536,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>614</v>
+      </c>
+      <c r="B161" t="s">
+        <v>615</v>
+      </c>
+      <c r="C161" t="s">
         <v>616</v>
       </c>
-      <c r="B161" t="s">
-        <v>617</v>
-      </c>
-      <c r="C161" t="s">
-        <v>618</v>
-      </c>
       <c r="D161" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E161" t="s">
         <v>45</v>
@@ -8429,16 +8553,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>617</v>
+      </c>
+      <c r="B162" t="s">
+        <v>618</v>
+      </c>
+      <c r="C162" t="s">
         <v>619</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>620</v>
-      </c>
-      <c r="C162" t="s">
-        <v>621</v>
-      </c>
-      <c r="D162" t="s">
-        <v>622</v>
       </c>
       <c r="E162" t="s">
         <v>45</v>
@@ -8446,16 +8570,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>621</v>
+      </c>
+      <c r="B163" t="s">
+        <v>621</v>
+      </c>
+      <c r="C163" t="s">
+        <v>622</v>
+      </c>
+      <c r="D163" t="s">
         <v>623</v>
-      </c>
-      <c r="B163" t="s">
-        <v>623</v>
-      </c>
-      <c r="C163" t="s">
-        <v>624</v>
-      </c>
-      <c r="D163" t="s">
-        <v>625</v>
       </c>
       <c r="E163" t="s">
         <v>45</v>
@@ -8463,16 +8587,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>624</v>
+      </c>
+      <c r="B164" t="s">
+        <v>625</v>
+      </c>
+      <c r="C164" t="s">
         <v>626</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>627</v>
-      </c>
-      <c r="C164" t="s">
-        <v>628</v>
-      </c>
-      <c r="D164" t="s">
-        <v>629</v>
       </c>
       <c r="E164" t="s">
         <v>45</v>
@@ -8480,16 +8604,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>628</v>
+      </c>
+      <c r="B165" t="s">
+        <v>629</v>
+      </c>
+      <c r="C165" t="s">
         <v>630</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>631</v>
-      </c>
-      <c r="C165" t="s">
-        <v>632</v>
-      </c>
-      <c r="D165" t="s">
-        <v>633</v>
       </c>
       <c r="E165" t="s">
         <v>45</v>
@@ -8497,16 +8621,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>632</v>
+      </c>
+      <c r="B166" t="s">
+        <v>633</v>
+      </c>
+      <c r="C166" t="s">
         <v>634</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>635</v>
-      </c>
-      <c r="C166" t="s">
-        <v>636</v>
-      </c>
-      <c r="D166" t="s">
-        <v>637</v>
       </c>
       <c r="E166" t="s">
         <v>45</v>
@@ -8514,16 +8638,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>636</v>
+      </c>
+      <c r="B167" t="s">
+        <v>636</v>
+      </c>
+      <c r="C167" t="s">
+        <v>637</v>
+      </c>
+      <c r="D167" t="s">
         <v>638</v>
-      </c>
-      <c r="B167" t="s">
-        <v>638</v>
-      </c>
-      <c r="C167" t="s">
-        <v>639</v>
-      </c>
-      <c r="D167" t="s">
-        <v>640</v>
       </c>
       <c r="E167" t="s">
         <v>45</v>
@@ -8531,16 +8655,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>639</v>
+      </c>
+      <c r="B168" t="s">
+        <v>640</v>
+      </c>
+      <c r="C168" t="s">
         <v>641</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>642</v>
-      </c>
-      <c r="C168" t="s">
-        <v>643</v>
-      </c>
-      <c r="D168" t="s">
-        <v>644</v>
       </c>
       <c r="E168" t="s">
         <v>45</v>
@@ -8548,16 +8672,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>643</v>
+      </c>
+      <c r="B169" t="s">
+        <v>643</v>
+      </c>
+      <c r="C169" t="s">
+        <v>644</v>
+      </c>
+      <c r="D169" t="s">
         <v>645</v>
-      </c>
-      <c r="B169" t="s">
-        <v>645</v>
-      </c>
-      <c r="C169" t="s">
-        <v>646</v>
-      </c>
-      <c r="D169" t="s">
-        <v>647</v>
       </c>
       <c r="E169" t="s">
         <v>45</v>
@@ -8565,16 +8689,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>646</v>
+      </c>
+      <c r="B170" t="s">
+        <v>646</v>
+      </c>
+      <c r="C170" t="s">
+        <v>647</v>
+      </c>
+      <c r="D170" t="s">
         <v>648</v>
-      </c>
-      <c r="B170" t="s">
-        <v>648</v>
-      </c>
-      <c r="C170" t="s">
-        <v>649</v>
-      </c>
-      <c r="D170" t="s">
-        <v>650</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
@@ -8582,16 +8706,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>649</v>
+      </c>
+      <c r="B171" t="s">
+        <v>649</v>
+      </c>
+      <c r="C171" t="s">
+        <v>650</v>
+      </c>
+      <c r="D171" t="s">
         <v>651</v>
-      </c>
-      <c r="B171" t="s">
-        <v>651</v>
-      </c>
-      <c r="C171" t="s">
-        <v>652</v>
-      </c>
-      <c r="D171" t="s">
-        <v>653</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
@@ -8599,16 +8723,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>652</v>
+      </c>
+      <c r="B172" t="s">
+        <v>653</v>
+      </c>
+      <c r="C172" t="s">
         <v>654</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>655</v>
-      </c>
-      <c r="C172" t="s">
-        <v>656</v>
-      </c>
-      <c r="D172" t="s">
-        <v>657</v>
       </c>
       <c r="E172" t="s">
         <v>45</v>
@@ -8616,16 +8740,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>656</v>
+      </c>
+      <c r="B173" t="s">
+        <v>657</v>
+      </c>
+      <c r="C173" t="s">
         <v>658</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>659</v>
-      </c>
-      <c r="C173" t="s">
-        <v>660</v>
-      </c>
-      <c r="D173" t="s">
-        <v>661</v>
       </c>
       <c r="E173" t="s">
         <v>45</v>
@@ -8633,16 +8757,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>660</v>
+      </c>
+      <c r="B174" t="s">
+        <v>661</v>
+      </c>
+      <c r="C174" t="s">
         <v>662</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>663</v>
-      </c>
-      <c r="C174" t="s">
-        <v>664</v>
-      </c>
-      <c r="D174" t="s">
-        <v>665</v>
       </c>
       <c r="E174" t="s">
         <v>45</v>
@@ -8650,16 +8774,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>664</v>
+      </c>
+      <c r="B175" t="s">
+        <v>665</v>
+      </c>
+      <c r="C175" t="s">
         <v>666</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" t="s">
         <v>667</v>
-      </c>
-      <c r="C175" t="s">
-        <v>668</v>
-      </c>
-      <c r="D175" t="s">
-        <v>669</v>
       </c>
       <c r="E175" t="s">
         <v>45</v>
@@ -8667,16 +8791,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>668</v>
+      </c>
+      <c r="B176" t="s">
+        <v>669</v>
+      </c>
+      <c r="C176" t="s">
         <v>670</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
         <v>671</v>
-      </c>
-      <c r="C176" t="s">
-        <v>672</v>
-      </c>
-      <c r="D176" t="s">
-        <v>673</v>
       </c>
       <c r="E176" t="s">
         <v>45</v>
@@ -8684,16 +8808,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>672</v>
+      </c>
+      <c r="B177" t="s">
+        <v>672</v>
+      </c>
+      <c r="C177" t="s">
+        <v>673</v>
+      </c>
+      <c r="D177" t="s">
         <v>674</v>
-      </c>
-      <c r="B177" t="s">
-        <v>674</v>
-      </c>
-      <c r="C177" t="s">
-        <v>675</v>
-      </c>
-      <c r="D177" t="s">
-        <v>676</v>
       </c>
       <c r="E177" t="s">
         <v>45</v>
@@ -8701,16 +8825,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>675</v>
+      </c>
+      <c r="B178" t="s">
+        <v>675</v>
+      </c>
+      <c r="C178" t="s">
+        <v>676</v>
+      </c>
+      <c r="D178" t="s">
         <v>677</v>
-      </c>
-      <c r="B178" t="s">
-        <v>677</v>
-      </c>
-      <c r="C178" t="s">
-        <v>678</v>
-      </c>
-      <c r="D178" t="s">
-        <v>679</v>
       </c>
       <c r="E178" t="s">
         <v>45</v>
@@ -8718,16 +8842,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>678</v>
+      </c>
+      <c r="B179" t="s">
+        <v>679</v>
+      </c>
+      <c r="C179" t="s">
         <v>680</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>681</v>
-      </c>
-      <c r="C179" t="s">
-        <v>682</v>
-      </c>
-      <c r="D179" t="s">
-        <v>683</v>
       </c>
       <c r="E179" t="s">
         <v>45</v>
@@ -8735,16 +8859,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>682</v>
+      </c>
+      <c r="B180" t="s">
+        <v>683</v>
+      </c>
+      <c r="C180" t="s">
         <v>684</v>
       </c>
-      <c r="B180" t="s">
+      <c r="D180" t="s">
         <v>685</v>
-      </c>
-      <c r="C180" t="s">
-        <v>686</v>
-      </c>
-      <c r="D180" t="s">
-        <v>687</v>
       </c>
       <c r="E180" t="s">
         <v>45</v>
@@ -8752,16 +8876,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>686</v>
+      </c>
+      <c r="B181" t="s">
+        <v>687</v>
+      </c>
+      <c r="C181" t="s">
         <v>688</v>
       </c>
-      <c r="B181" t="s">
+      <c r="D181" t="s">
         <v>689</v>
-      </c>
-      <c r="C181" t="s">
-        <v>690</v>
-      </c>
-      <c r="D181" t="s">
-        <v>691</v>
       </c>
       <c r="E181" t="s">
         <v>45</v>
@@ -8769,16 +8893,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>690</v>
+      </c>
+      <c r="B182" t="s">
+        <v>691</v>
+      </c>
+      <c r="C182" t="s">
         <v>692</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
         <v>693</v>
-      </c>
-      <c r="C182" t="s">
-        <v>694</v>
-      </c>
-      <c r="D182" t="s">
-        <v>695</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -8786,16 +8910,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>694</v>
+      </c>
+      <c r="B183" t="s">
+        <v>695</v>
+      </c>
+      <c r="C183" t="s">
         <v>696</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
         <v>697</v>
-      </c>
-      <c r="C183" t="s">
-        <v>698</v>
-      </c>
-      <c r="D183" t="s">
-        <v>699</v>
       </c>
       <c r="E183" t="s">
         <v>45</v>
@@ -8803,16 +8927,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>698</v>
+      </c>
+      <c r="B184" t="s">
+        <v>699</v>
+      </c>
+      <c r="C184" t="s">
         <v>700</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
         <v>701</v>
-      </c>
-      <c r="C184" t="s">
-        <v>702</v>
-      </c>
-      <c r="D184" t="s">
-        <v>703</v>
       </c>
       <c r="E184" t="s">
         <v>45</v>
@@ -8820,16 +8944,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>702</v>
+      </c>
+      <c r="B185" t="s">
+        <v>703</v>
+      </c>
+      <c r="C185" t="s">
         <v>704</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>705</v>
-      </c>
-      <c r="C185" t="s">
-        <v>706</v>
-      </c>
-      <c r="D185" t="s">
-        <v>707</v>
       </c>
       <c r="E185" t="s">
         <v>45</v>
@@ -8837,16 +8961,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>706</v>
+      </c>
+      <c r="B186" t="s">
+        <v>707</v>
+      </c>
+      <c r="C186" t="s">
         <v>708</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>709</v>
-      </c>
-      <c r="C186" t="s">
-        <v>710</v>
-      </c>
-      <c r="D186" t="s">
-        <v>711</v>
       </c>
       <c r="E186" t="s">
         <v>45</v>
@@ -8854,16 +8978,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>710</v>
+      </c>
+      <c r="B187" t="s">
+        <v>711</v>
+      </c>
+      <c r="C187" t="s">
         <v>712</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" t="s">
         <v>713</v>
-      </c>
-      <c r="C187" t="s">
-        <v>714</v>
-      </c>
-      <c r="D187" t="s">
-        <v>715</v>
       </c>
       <c r="E187" t="s">
         <v>45</v>
@@ -8871,16 +8995,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>714</v>
+      </c>
+      <c r="B188" t="s">
+        <v>715</v>
+      </c>
+      <c r="C188" t="s">
         <v>716</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" t="s">
         <v>717</v>
-      </c>
-      <c r="C188" t="s">
-        <v>718</v>
-      </c>
-      <c r="D188" t="s">
-        <v>719</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
@@ -8888,16 +9012,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>718</v>
+      </c>
+      <c r="B189" t="s">
+        <v>719</v>
+      </c>
+      <c r="C189" t="s">
         <v>720</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>721</v>
-      </c>
-      <c r="C189" t="s">
-        <v>722</v>
-      </c>
-      <c r="D189" t="s">
-        <v>723</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -8905,16 +9029,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>722</v>
+      </c>
+      <c r="B190" t="s">
+        <v>723</v>
+      </c>
+      <c r="C190" t="s">
         <v>724</v>
       </c>
-      <c r="B190" t="s">
-        <v>725</v>
-      </c>
-      <c r="C190" t="s">
-        <v>726</v>
-      </c>
       <c r="D190" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -8922,16 +9046,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>725</v>
+      </c>
+      <c r="B191" t="s">
+        <v>726</v>
+      </c>
+      <c r="C191" t="s">
         <v>727</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D191" t="s">
         <v>728</v>
-      </c>
-      <c r="C191" t="s">
-        <v>729</v>
-      </c>
-      <c r="D191" t="s">
-        <v>730</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -8939,16 +9063,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>729</v>
+      </c>
+      <c r="B192" t="s">
+        <v>729</v>
+      </c>
+      <c r="C192" t="s">
+        <v>730</v>
+      </c>
+      <c r="D192" t="s">
         <v>731</v>
-      </c>
-      <c r="B192" t="s">
-        <v>731</v>
-      </c>
-      <c r="C192" t="s">
-        <v>732</v>
-      </c>
-      <c r="D192" t="s">
-        <v>733</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -8956,16 +9080,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>732</v>
+      </c>
+      <c r="B193" t="s">
+        <v>733</v>
+      </c>
+      <c r="C193" t="s">
         <v>734</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" t="s">
         <v>735</v>
-      </c>
-      <c r="C193" t="s">
-        <v>736</v>
-      </c>
-      <c r="D193" t="s">
-        <v>737</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -8973,16 +9097,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>736</v>
+      </c>
+      <c r="B194" t="s">
+        <v>737</v>
+      </c>
+      <c r="C194" t="s">
         <v>738</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>739</v>
-      </c>
-      <c r="C194" t="s">
-        <v>740</v>
-      </c>
-      <c r="D194" t="s">
-        <v>741</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -8990,16 +9114,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>740</v>
+      </c>
+      <c r="B195" t="s">
+        <v>741</v>
+      </c>
+      <c r="C195" t="s">
         <v>742</v>
       </c>
-      <c r="B195" t="s">
+      <c r="D195" t="s">
         <v>743</v>
-      </c>
-      <c r="C195" t="s">
-        <v>744</v>
-      </c>
-      <c r="D195" t="s">
-        <v>745</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
@@ -9007,16 +9131,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>744</v>
+      </c>
+      <c r="B196" t="s">
+        <v>745</v>
+      </c>
+      <c r="C196" t="s">
         <v>746</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" t="s">
         <v>747</v>
-      </c>
-      <c r="C196" t="s">
-        <v>748</v>
-      </c>
-      <c r="D196" t="s">
-        <v>749</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -9024,16 +9148,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>748</v>
+      </c>
+      <c r="B197" t="s">
+        <v>749</v>
+      </c>
+      <c r="C197" t="s">
         <v>750</v>
       </c>
-      <c r="B197" t="s">
+      <c r="D197" t="s">
         <v>751</v>
-      </c>
-      <c r="C197" t="s">
-        <v>752</v>
-      </c>
-      <c r="D197" t="s">
-        <v>753</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -9041,16 +9165,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>752</v>
+      </c>
+      <c r="B198" t="s">
+        <v>753</v>
+      </c>
+      <c r="C198" t="s">
         <v>754</v>
       </c>
-      <c r="B198" t="s">
+      <c r="D198" t="s">
         <v>755</v>
-      </c>
-      <c r="C198" t="s">
-        <v>756</v>
-      </c>
-      <c r="D198" t="s">
-        <v>757</v>
       </c>
       <c r="E198" t="s">
         <v>12</v>
@@ -9058,16 +9182,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>756</v>
+      </c>
+      <c r="B199" t="s">
+        <v>757</v>
+      </c>
+      <c r="C199" t="s">
         <v>758</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D199" t="s">
         <v>759</v>
-      </c>
-      <c r="C199" t="s">
-        <v>760</v>
-      </c>
-      <c r="D199" t="s">
-        <v>761</v>
       </c>
       <c r="E199" t="s">
         <v>12</v>
@@ -9075,16 +9199,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>760</v>
+      </c>
+      <c r="B200" t="s">
+        <v>761</v>
+      </c>
+      <c r="C200" t="s">
         <v>762</v>
       </c>
-      <c r="B200" t="s">
+      <c r="D200" t="s">
         <v>763</v>
-      </c>
-      <c r="C200" t="s">
-        <v>764</v>
-      </c>
-      <c r="D200" t="s">
-        <v>765</v>
       </c>
       <c r="E200" t="s">
         <v>12</v>
@@ -9092,16 +9216,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>764</v>
+      </c>
+      <c r="B201" t="s">
+        <v>765</v>
+      </c>
+      <c r="C201" t="s">
         <v>766</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D201" t="s">
         <v>767</v>
-      </c>
-      <c r="C201" t="s">
-        <v>768</v>
-      </c>
-      <c r="D201" t="s">
-        <v>769</v>
       </c>
       <c r="E201" t="s">
         <v>12</v>
@@ -9109,16 +9233,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>768</v>
+      </c>
+      <c r="B202" t="s">
+        <v>769</v>
+      </c>
+      <c r="C202" t="s">
         <v>770</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>771</v>
-      </c>
-      <c r="C202" t="s">
-        <v>772</v>
-      </c>
-      <c r="D202" t="s">
-        <v>773</v>
       </c>
       <c r="E202" t="s">
         <v>12</v>
@@ -9126,16 +9250,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>772</v>
+      </c>
+      <c r="B203" t="s">
+        <v>773</v>
+      </c>
+      <c r="C203" t="s">
         <v>774</v>
       </c>
-      <c r="B203" t="s">
+      <c r="D203" t="s">
         <v>775</v>
-      </c>
-      <c r="C203" t="s">
-        <v>776</v>
-      </c>
-      <c r="D203" t="s">
-        <v>777</v>
       </c>
       <c r="E203" t="s">
         <v>12</v>
@@ -9143,16 +9267,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>776</v>
+      </c>
+      <c r="B204" t="s">
+        <v>777</v>
+      </c>
+      <c r="C204" t="s">
         <v>778</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>779</v>
-      </c>
-      <c r="C204" t="s">
-        <v>780</v>
-      </c>
-      <c r="D204" t="s">
-        <v>781</v>
       </c>
       <c r="E204" t="s">
         <v>12</v>
@@ -9160,16 +9284,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>780</v>
+      </c>
+      <c r="B205" t="s">
+        <v>781</v>
+      </c>
+      <c r="C205" t="s">
         <v>782</v>
       </c>
-      <c r="B205" t="s">
+      <c r="D205" t="s">
         <v>783</v>
-      </c>
-      <c r="C205" t="s">
-        <v>784</v>
-      </c>
-      <c r="D205" t="s">
-        <v>785</v>
       </c>
       <c r="E205" t="s">
         <v>12</v>
@@ -9177,16 +9301,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>784</v>
+      </c>
+      <c r="B206" t="s">
+        <v>785</v>
+      </c>
+      <c r="C206" t="s">
         <v>786</v>
       </c>
-      <c r="B206" t="s">
+      <c r="D206" t="s">
         <v>787</v>
-      </c>
-      <c r="C206" t="s">
-        <v>788</v>
-      </c>
-      <c r="D206" t="s">
-        <v>789</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
@@ -9194,16 +9318,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>788</v>
+      </c>
+      <c r="B207" t="s">
+        <v>789</v>
+      </c>
+      <c r="C207" t="s">
         <v>790</v>
       </c>
-      <c r="B207" t="s">
+      <c r="D207" t="s">
         <v>791</v>
-      </c>
-      <c r="C207" t="s">
-        <v>792</v>
-      </c>
-      <c r="D207" t="s">
-        <v>793</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
@@ -9211,16 +9335,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>792</v>
+      </c>
+      <c r="B208" t="s">
+        <v>793</v>
+      </c>
+      <c r="C208" t="s">
         <v>794</v>
       </c>
-      <c r="B208" t="s">
+      <c r="D208" t="s">
         <v>795</v>
-      </c>
-      <c r="C208" t="s">
-        <v>796</v>
-      </c>
-      <c r="D208" t="s">
-        <v>797</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
@@ -9228,16 +9352,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>796</v>
+      </c>
+      <c r="B209" t="s">
+        <v>797</v>
+      </c>
+      <c r="C209" t="s">
         <v>798</v>
       </c>
-      <c r="B209" t="s">
+      <c r="D209" t="s">
         <v>799</v>
-      </c>
-      <c r="C209" t="s">
-        <v>800</v>
-      </c>
-      <c r="D209" t="s">
-        <v>801</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -9245,16 +9369,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>800</v>
+      </c>
+      <c r="B210" t="s">
+        <v>801</v>
+      </c>
+      <c r="C210" t="s">
         <v>802</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
         <v>803</v>
-      </c>
-      <c r="C210" t="s">
-        <v>804</v>
-      </c>
-      <c r="D210" t="s">
-        <v>805</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
@@ -9262,16 +9386,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>804</v>
+      </c>
+      <c r="B211" t="s">
+        <v>805</v>
+      </c>
+      <c r="C211" t="s">
         <v>806</v>
       </c>
-      <c r="B211" t="s">
+      <c r="D211" t="s">
         <v>807</v>
-      </c>
-      <c r="C211" t="s">
-        <v>808</v>
-      </c>
-      <c r="D211" t="s">
-        <v>809</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
@@ -9279,16 +9403,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>808</v>
+      </c>
+      <c r="B212" t="s">
+        <v>809</v>
+      </c>
+      <c r="C212" t="s">
         <v>810</v>
       </c>
-      <c r="B212" t="s">
+      <c r="D212" t="s">
         <v>811</v>
-      </c>
-      <c r="C212" t="s">
-        <v>812</v>
-      </c>
-      <c r="D212" t="s">
-        <v>813</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -9296,16 +9420,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>812</v>
+      </c>
+      <c r="B213" t="s">
+        <v>813</v>
+      </c>
+      <c r="C213" t="s">
         <v>814</v>
       </c>
-      <c r="B213" t="s">
+      <c r="D213" t="s">
         <v>815</v>
-      </c>
-      <c r="C213" t="s">
-        <v>816</v>
-      </c>
-      <c r="D213" t="s">
-        <v>817</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
@@ -9313,16 +9437,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>816</v>
+      </c>
+      <c r="B214" t="s">
+        <v>817</v>
+      </c>
+      <c r="C214" t="s">
         <v>818</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D214" t="s">
         <v>819</v>
-      </c>
-      <c r="C214" t="s">
-        <v>820</v>
-      </c>
-      <c r="D214" t="s">
-        <v>821</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
@@ -9330,16 +9454,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>820</v>
+      </c>
+      <c r="B215" t="s">
+        <v>821</v>
+      </c>
+      <c r="C215" t="s">
         <v>822</v>
       </c>
-      <c r="B215" t="s">
+      <c r="D215" t="s">
         <v>823</v>
-      </c>
-      <c r="C215" t="s">
-        <v>824</v>
-      </c>
-      <c r="D215" t="s">
-        <v>825</v>
       </c>
       <c r="E215" t="s">
         <v>12</v>
@@ -9347,16 +9471,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>824</v>
+      </c>
+      <c r="B216" t="s">
+        <v>825</v>
+      </c>
+      <c r="C216" t="s">
         <v>826</v>
       </c>
-      <c r="B216" t="s">
+      <c r="D216" t="s">
         <v>827</v>
-      </c>
-      <c r="C216" t="s">
-        <v>828</v>
-      </c>
-      <c r="D216" t="s">
-        <v>829</v>
       </c>
       <c r="E216" t="s">
         <v>12</v>
@@ -9364,16 +9488,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>828</v>
+      </c>
+      <c r="B217" t="s">
+        <v>829</v>
+      </c>
+      <c r="C217" t="s">
         <v>830</v>
       </c>
-      <c r="B217" t="s">
+      <c r="D217" t="s">
         <v>831</v>
-      </c>
-      <c r="C217" t="s">
-        <v>832</v>
-      </c>
-      <c r="D217" t="s">
-        <v>833</v>
       </c>
       <c r="E217" t="s">
         <v>12</v>
@@ -9381,16 +9505,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>832</v>
+      </c>
+      <c r="B218" t="s">
+        <v>833</v>
+      </c>
+      <c r="C218" t="s">
         <v>834</v>
       </c>
-      <c r="B218" t="s">
+      <c r="D218" t="s">
         <v>835</v>
-      </c>
-      <c r="C218" t="s">
-        <v>836</v>
-      </c>
-      <c r="D218" t="s">
-        <v>837</v>
       </c>
       <c r="E218" t="s">
         <v>12</v>
@@ -9398,16 +9522,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>836</v>
+      </c>
+      <c r="B219" t="s">
+        <v>837</v>
+      </c>
+      <c r="C219" t="s">
         <v>838</v>
       </c>
-      <c r="B219" t="s">
+      <c r="D219" t="s">
         <v>839</v>
-      </c>
-      <c r="C219" t="s">
-        <v>840</v>
-      </c>
-      <c r="D219" t="s">
-        <v>841</v>
       </c>
       <c r="E219" t="s">
         <v>12</v>
@@ -9415,13 +9539,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>840</v>
+      </c>
+      <c r="B220" t="s">
+        <v>841</v>
+      </c>
+      <c r="C220" t="s">
         <v>842</v>
-      </c>
-      <c r="B220" t="s">
-        <v>843</v>
-      </c>
-      <c r="C220" t="s">
-        <v>844</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
@@ -9432,13 +9556,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>843</v>
+      </c>
+      <c r="B221" t="s">
+        <v>844</v>
+      </c>
+      <c r="C221" t="s">
         <v>845</v>
-      </c>
-      <c r="B221" t="s">
-        <v>846</v>
-      </c>
-      <c r="C221" t="s">
-        <v>847</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -9449,16 +9573,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>846</v>
+      </c>
+      <c r="B222" t="s">
+        <v>847</v>
+      </c>
+      <c r="C222" t="s">
         <v>848</v>
       </c>
-      <c r="B222" t="s">
+      <c r="D222" t="s">
         <v>849</v>
-      </c>
-      <c r="C222" t="s">
-        <v>850</v>
-      </c>
-      <c r="D222" t="s">
-        <v>851</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
@@ -9466,16 +9590,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>850</v>
+      </c>
+      <c r="B223" t="s">
+        <v>851</v>
+      </c>
+      <c r="C223" t="s">
         <v>852</v>
       </c>
-      <c r="B223" t="s">
+      <c r="D223" t="s">
         <v>853</v>
-      </c>
-      <c r="C223" t="s">
-        <v>854</v>
-      </c>
-      <c r="D223" t="s">
-        <v>855</v>
       </c>
       <c r="E223" t="s">
         <v>12</v>
@@ -9483,16 +9607,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>854</v>
+      </c>
+      <c r="B224" t="s">
+        <v>855</v>
+      </c>
+      <c r="C224" t="s">
         <v>856</v>
       </c>
-      <c r="B224" t="s">
+      <c r="D224" t="s">
         <v>857</v>
-      </c>
-      <c r="C224" t="s">
-        <v>858</v>
-      </c>
-      <c r="D224" t="s">
-        <v>859</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
@@ -9500,16 +9624,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>858</v>
+      </c>
+      <c r="B225" t="s">
+        <v>859</v>
+      </c>
+      <c r="C225" t="s">
         <v>860</v>
       </c>
-      <c r="B225" t="s">
+      <c r="D225" t="s">
         <v>861</v>
-      </c>
-      <c r="C225" t="s">
-        <v>862</v>
-      </c>
-      <c r="D225" t="s">
-        <v>863</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
@@ -9517,16 +9641,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>862</v>
+      </c>
+      <c r="B226" t="s">
+        <v>862</v>
+      </c>
+      <c r="C226" t="s">
+        <v>863</v>
+      </c>
+      <c r="D226" t="s">
         <v>864</v>
-      </c>
-      <c r="B226" t="s">
-        <v>864</v>
-      </c>
-      <c r="C226" t="s">
-        <v>865</v>
-      </c>
-      <c r="D226" t="s">
-        <v>866</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -9534,16 +9658,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>865</v>
+      </c>
+      <c r="B227" t="s">
+        <v>865</v>
+      </c>
+      <c r="C227" t="s">
+        <v>866</v>
+      </c>
+      <c r="D227" t="s">
         <v>867</v>
-      </c>
-      <c r="B227" t="s">
-        <v>867</v>
-      </c>
-      <c r="C227" t="s">
-        <v>868</v>
-      </c>
-      <c r="D227" t="s">
-        <v>869</v>
       </c>
       <c r="E227" t="s">
         <v>12</v>
@@ -9551,16 +9675,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>868</v>
+      </c>
+      <c r="B228" t="s">
+        <v>868</v>
+      </c>
+      <c r="C228" t="s">
+        <v>869</v>
+      </c>
+      <c r="D228" t="s">
         <v>870</v>
-      </c>
-      <c r="B228" t="s">
-        <v>870</v>
-      </c>
-      <c r="C228" t="s">
-        <v>871</v>
-      </c>
-      <c r="D228" t="s">
-        <v>872</v>
       </c>
       <c r="E228" t="s">
         <v>12</v>
@@ -9568,16 +9692,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>871</v>
+      </c>
+      <c r="B229" t="s">
+        <v>871</v>
+      </c>
+      <c r="C229" t="s">
+        <v>872</v>
+      </c>
+      <c r="D229" t="s">
         <v>873</v>
-      </c>
-      <c r="B229" t="s">
-        <v>873</v>
-      </c>
-      <c r="C229" t="s">
-        <v>874</v>
-      </c>
-      <c r="D229" t="s">
-        <v>875</v>
       </c>
       <c r="E229" t="s">
         <v>12</v>
@@ -9585,16 +9709,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>874</v>
+      </c>
+      <c r="B230" t="s">
+        <v>875</v>
+      </c>
+      <c r="C230" t="s">
         <v>876</v>
       </c>
-      <c r="B230" t="s">
+      <c r="D230" t="s">
         <v>877</v>
-      </c>
-      <c r="C230" t="s">
-        <v>878</v>
-      </c>
-      <c r="D230" t="s">
-        <v>879</v>
       </c>
       <c r="E230" t="s">
         <v>12</v>
@@ -9602,16 +9726,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>878</v>
+      </c>
+      <c r="B231" t="s">
+        <v>879</v>
+      </c>
+      <c r="C231" t="s">
         <v>880</v>
       </c>
-      <c r="B231" t="s">
+      <c r="D231" t="s">
         <v>881</v>
-      </c>
-      <c r="C231" t="s">
-        <v>882</v>
-      </c>
-      <c r="D231" t="s">
-        <v>883</v>
       </c>
       <c r="E231" t="s">
         <v>12</v>
@@ -9619,16 +9743,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>882</v>
+      </c>
+      <c r="B232" t="s">
+        <v>883</v>
+      </c>
+      <c r="C232" t="s">
         <v>884</v>
       </c>
-      <c r="B232" t="s">
+      <c r="D232" t="s">
         <v>885</v>
-      </c>
-      <c r="C232" t="s">
-        <v>886</v>
-      </c>
-      <c r="D232" t="s">
-        <v>887</v>
       </c>
       <c r="E232" t="s">
         <v>12</v>
@@ -9636,16 +9760,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>886</v>
+      </c>
+      <c r="B233" t="s">
+        <v>887</v>
+      </c>
+      <c r="C233" t="s">
         <v>888</v>
       </c>
-      <c r="B233" t="s">
+      <c r="D233" t="s">
         <v>889</v>
-      </c>
-      <c r="C233" t="s">
-        <v>890</v>
-      </c>
-      <c r="D233" t="s">
-        <v>891</v>
       </c>
       <c r="E233" t="s">
         <v>12</v>
@@ -9653,16 +9777,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>890</v>
+      </c>
+      <c r="B234" t="s">
+        <v>891</v>
+      </c>
+      <c r="C234" t="s">
         <v>892</v>
       </c>
-      <c r="B234" t="s">
+      <c r="D234" t="s">
         <v>893</v>
-      </c>
-      <c r="C234" t="s">
-        <v>894</v>
-      </c>
-      <c r="D234" t="s">
-        <v>895</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -9670,16 +9794,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>894</v>
+      </c>
+      <c r="B235" t="s">
+        <v>895</v>
+      </c>
+      <c r="C235" t="s">
         <v>896</v>
       </c>
-      <c r="B235" t="s">
+      <c r="D235" t="s">
         <v>897</v>
-      </c>
-      <c r="C235" t="s">
-        <v>898</v>
-      </c>
-      <c r="D235" t="s">
-        <v>899</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -9687,16 +9811,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B236" t="s">
+        <v>900</v>
+      </c>
+      <c r="C236" t="s">
         <v>901</v>
       </c>
-      <c r="B236" t="s">
+      <c r="D236" t="s">
         <v>902</v>
-      </c>
-      <c r="C236" t="s">
-        <v>903</v>
-      </c>
-      <c r="D236" t="s">
-        <v>904</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
@@ -9704,16 +9828,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>903</v>
+      </c>
+      <c r="B237" t="s">
+        <v>904</v>
+      </c>
+      <c r="C237" t="s">
         <v>905</v>
       </c>
-      <c r="B237" t="s">
+      <c r="D237" t="s">
         <v>906</v>
-      </c>
-      <c r="C237" t="s">
-        <v>907</v>
-      </c>
-      <c r="D237" t="s">
-        <v>908</v>
       </c>
       <c r="E237" t="s">
         <v>12</v>
@@ -9721,16 +9845,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>907</v>
+      </c>
+      <c r="B238" t="s">
+        <v>908</v>
+      </c>
+      <c r="C238" t="s">
         <v>909</v>
       </c>
-      <c r="B238" t="s">
+      <c r="D238" t="s">
         <v>910</v>
-      </c>
-      <c r="C238" t="s">
-        <v>911</v>
-      </c>
-      <c r="D238" t="s">
-        <v>912</v>
       </c>
       <c r="E238" t="s">
         <v>12</v>
@@ -9738,16 +9862,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>911</v>
+      </c>
+      <c r="B239" t="s">
+        <v>912</v>
+      </c>
+      <c r="C239" t="s">
         <v>913</v>
       </c>
-      <c r="B239" t="s">
+      <c r="D239" t="s">
         <v>914</v>
-      </c>
-      <c r="C239" t="s">
-        <v>915</v>
-      </c>
-      <c r="D239" t="s">
-        <v>916</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -9755,16 +9879,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>915</v>
+      </c>
+      <c r="B240" t="s">
+        <v>916</v>
+      </c>
+      <c r="C240" t="s">
         <v>917</v>
       </c>
-      <c r="B240" t="s">
+      <c r="D240" t="s">
         <v>918</v>
-      </c>
-      <c r="C240" t="s">
-        <v>919</v>
-      </c>
-      <c r="D240" t="s">
-        <v>920</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -9772,16 +9896,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>919</v>
+      </c>
+      <c r="B241" t="s">
+        <v>920</v>
+      </c>
+      <c r="C241" t="s">
         <v>921</v>
       </c>
-      <c r="B241" t="s">
+      <c r="D241" t="s">
         <v>922</v>
-      </c>
-      <c r="C241" t="s">
-        <v>923</v>
-      </c>
-      <c r="D241" t="s">
-        <v>924</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
@@ -9789,16 +9913,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>923</v>
+      </c>
+      <c r="B242" t="s">
+        <v>924</v>
+      </c>
+      <c r="C242" t="s">
         <v>925</v>
       </c>
-      <c r="B242" t="s">
+      <c r="D242" t="s">
         <v>926</v>
-      </c>
-      <c r="C242" t="s">
-        <v>927</v>
-      </c>
-      <c r="D242" t="s">
-        <v>928</v>
       </c>
       <c r="E242" t="s">
         <v>12</v>
@@ -9806,16 +9930,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>927</v>
+      </c>
+      <c r="B243" t="s">
+        <v>928</v>
+      </c>
+      <c r="C243" t="s">
         <v>929</v>
       </c>
-      <c r="B243" t="s">
+      <c r="D243" t="s">
         <v>930</v>
-      </c>
-      <c r="C243" t="s">
-        <v>931</v>
-      </c>
-      <c r="D243" t="s">
-        <v>932</v>
       </c>
       <c r="E243" t="s">
         <v>12</v>
@@ -9823,16 +9947,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>931</v>
+      </c>
+      <c r="B244" t="s">
+        <v>932</v>
+      </c>
+      <c r="C244" t="s">
         <v>933</v>
       </c>
-      <c r="B244" t="s">
+      <c r="D244" t="s">
         <v>934</v>
-      </c>
-      <c r="C244" t="s">
-        <v>935</v>
-      </c>
-      <c r="D244" t="s">
-        <v>936</v>
       </c>
       <c r="E244" t="s">
         <v>12</v>
@@ -9840,16 +9964,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>935</v>
+      </c>
+      <c r="B245" t="s">
+        <v>936</v>
+      </c>
+      <c r="C245" t="s">
         <v>937</v>
       </c>
-      <c r="B245" t="s">
+      <c r="D245" t="s">
         <v>938</v>
-      </c>
-      <c r="C245" t="s">
-        <v>939</v>
-      </c>
-      <c r="D245" t="s">
-        <v>940</v>
       </c>
       <c r="E245" t="s">
         <v>12</v>
@@ -9857,16 +9981,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>939</v>
+      </c>
+      <c r="B246" t="s">
+        <v>940</v>
+      </c>
+      <c r="C246" t="s">
         <v>941</v>
       </c>
-      <c r="B246" t="s">
+      <c r="D246" t="s">
         <v>942</v>
-      </c>
-      <c r="C246" t="s">
-        <v>943</v>
-      </c>
-      <c r="D246" t="s">
-        <v>944</v>
       </c>
       <c r="E246" t="s">
         <v>12</v>
@@ -9874,16 +9998,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>943</v>
+      </c>
+      <c r="B247" t="s">
+        <v>944</v>
+      </c>
+      <c r="C247" t="s">
         <v>945</v>
       </c>
-      <c r="B247" t="s">
+      <c r="D247" t="s">
         <v>946</v>
-      </c>
-      <c r="C247" t="s">
-        <v>947</v>
-      </c>
-      <c r="D247" t="s">
-        <v>948</v>
       </c>
       <c r="E247" t="s">
         <v>12</v>
@@ -9891,16 +10015,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>947</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C248" t="s">
+        <v>948</v>
+      </c>
+      <c r="D248" t="s">
         <v>949</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C248" t="s">
-        <v>950</v>
-      </c>
-      <c r="D248" t="s">
-        <v>951</v>
       </c>
       <c r="E248" t="s">
         <v>12</v>
@@ -9908,16 +10032,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>950</v>
+      </c>
+      <c r="B249" t="s">
+        <v>951</v>
+      </c>
+      <c r="C249" t="s">
         <v>952</v>
       </c>
-      <c r="B249" t="s">
+      <c r="D249" t="s">
         <v>953</v>
-      </c>
-      <c r="C249" t="s">
-        <v>954</v>
-      </c>
-      <c r="D249" t="s">
-        <v>955</v>
       </c>
       <c r="E249" t="s">
         <v>12</v>
@@ -9925,16 +10049,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>954</v>
+      </c>
+      <c r="B250" t="s">
+        <v>955</v>
+      </c>
+      <c r="C250" t="s">
         <v>956</v>
       </c>
-      <c r="B250" t="s">
+      <c r="D250" t="s">
         <v>957</v>
-      </c>
-      <c r="C250" t="s">
-        <v>958</v>
-      </c>
-      <c r="D250" t="s">
-        <v>959</v>
       </c>
       <c r="E250" t="s">
         <v>12</v>
@@ -9942,16 +10066,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>958</v>
+      </c>
+      <c r="B251" t="s">
+        <v>959</v>
+      </c>
+      <c r="C251" t="s">
         <v>960</v>
       </c>
-      <c r="B251" t="s">
+      <c r="D251" t="s">
         <v>961</v>
-      </c>
-      <c r="C251" t="s">
-        <v>962</v>
-      </c>
-      <c r="D251" t="s">
-        <v>963</v>
       </c>
       <c r="E251" t="s">
         <v>12</v>
@@ -9959,16 +10083,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>962</v>
+      </c>
+      <c r="B252" t="s">
+        <v>963</v>
+      </c>
+      <c r="C252" t="s">
         <v>964</v>
       </c>
-      <c r="B252" t="s">
+      <c r="D252" t="s">
         <v>965</v>
-      </c>
-      <c r="C252" t="s">
-        <v>966</v>
-      </c>
-      <c r="D252" t="s">
-        <v>967</v>
       </c>
       <c r="E252" t="s">
         <v>12</v>
@@ -9976,16 +10100,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>966</v>
+      </c>
+      <c r="B253" t="s">
+        <v>967</v>
+      </c>
+      <c r="C253" t="s">
         <v>968</v>
       </c>
-      <c r="B253" t="s">
+      <c r="D253" t="s">
         <v>969</v>
-      </c>
-      <c r="C253" t="s">
-        <v>970</v>
-      </c>
-      <c r="D253" t="s">
-        <v>971</v>
       </c>
       <c r="E253" t="s">
         <v>12</v>
@@ -9993,16 +10117,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>970</v>
+      </c>
+      <c r="B254" t="s">
+        <v>971</v>
+      </c>
+      <c r="C254" t="s">
         <v>972</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D254" t="s">
         <v>973</v>
-      </c>
-      <c r="C254" t="s">
-        <v>974</v>
-      </c>
-      <c r="D254" t="s">
-        <v>975</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -10010,16 +10134,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>974</v>
+      </c>
+      <c r="B255" t="s">
+        <v>975</v>
+      </c>
+      <c r="C255" t="s">
         <v>976</v>
       </c>
-      <c r="B255" t="s">
+      <c r="D255" t="s">
         <v>977</v>
-      </c>
-      <c r="C255" t="s">
-        <v>978</v>
-      </c>
-      <c r="D255" t="s">
-        <v>979</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
@@ -10027,16 +10151,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>978</v>
+      </c>
+      <c r="B256" t="s">
+        <v>979</v>
+      </c>
+      <c r="C256" t="s">
         <v>980</v>
       </c>
-      <c r="B256" t="s">
+      <c r="D256" t="s">
         <v>981</v>
-      </c>
-      <c r="C256" t="s">
-        <v>982</v>
-      </c>
-      <c r="D256" t="s">
-        <v>983</v>
       </c>
       <c r="E256" t="s">
         <v>12</v>
@@ -10044,16 +10168,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>982</v>
+      </c>
+      <c r="B257" t="s">
+        <v>983</v>
+      </c>
+      <c r="C257" t="s">
         <v>984</v>
       </c>
-      <c r="B257" t="s">
+      <c r="D257" t="s">
         <v>985</v>
-      </c>
-      <c r="C257" t="s">
-        <v>986</v>
-      </c>
-      <c r="D257" t="s">
-        <v>987</v>
       </c>
       <c r="E257" t="s">
         <v>12</v>
@@ -10061,16 +10185,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>986</v>
+      </c>
+      <c r="B258" t="s">
+        <v>987</v>
+      </c>
+      <c r="C258" t="s">
         <v>988</v>
       </c>
-      <c r="B258" t="s">
+      <c r="D258" t="s">
         <v>989</v>
-      </c>
-      <c r="C258" t="s">
-        <v>990</v>
-      </c>
-      <c r="D258" t="s">
-        <v>991</v>
       </c>
       <c r="E258" t="s">
         <v>12</v>
@@ -10078,16 +10202,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>990</v>
+      </c>
+      <c r="B259" t="s">
+        <v>991</v>
+      </c>
+      <c r="C259" t="s">
         <v>992</v>
       </c>
-      <c r="B259" t="s">
+      <c r="D259" t="s">
         <v>993</v>
-      </c>
-      <c r="C259" t="s">
-        <v>994</v>
-      </c>
-      <c r="D259" t="s">
-        <v>995</v>
       </c>
       <c r="E259" t="s">
         <v>12</v>
@@ -10095,16 +10219,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>994</v>
+      </c>
+      <c r="B260" t="s">
+        <v>995</v>
+      </c>
+      <c r="C260" t="s">
         <v>996</v>
       </c>
-      <c r="B260" t="s">
+      <c r="D260" t="s">
         <v>997</v>
-      </c>
-      <c r="C260" t="s">
-        <v>998</v>
-      </c>
-      <c r="D260" t="s">
-        <v>999</v>
       </c>
       <c r="E260" t="s">
         <v>12</v>
@@ -10112,16 +10236,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>998</v>
+      </c>
+      <c r="B261" t="s">
+        <v>999</v>
+      </c>
+      <c r="C261" t="s">
         <v>1000</v>
       </c>
-      <c r="B261" t="s">
+      <c r="D261" t="s">
         <v>1001</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1003</v>
       </c>
       <c r="E261" t="s">
         <v>12</v>
@@ -10129,16 +10253,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C262" t="s">
         <v>1004</v>
       </c>
-      <c r="B262" t="s">
+      <c r="D262" t="s">
         <v>1005</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1007</v>
       </c>
       <c r="E262" t="s">
         <v>12</v>
@@ -10146,16 +10270,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C263" t="s">
         <v>1008</v>
       </c>
-      <c r="B263" t="s">
+      <c r="D263" t="s">
         <v>1009</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1011</v>
       </c>
       <c r="E263" t="s">
         <v>12</v>
@@ -10163,16 +10287,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C264" t="s">
         <v>1012</v>
       </c>
-      <c r="B264" t="s">
+      <c r="D264" t="s">
         <v>1013</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1015</v>
       </c>
       <c r="E264" t="s">
         <v>12</v>
@@ -10180,16 +10304,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C265" t="s">
         <v>1016</v>
       </c>
-      <c r="B265" t="s">
+      <c r="D265" t="s">
         <v>1017</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1019</v>
       </c>
       <c r="E265" t="s">
         <v>12</v>
@@ -10197,16 +10321,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C266" t="s">
         <v>1020</v>
       </c>
-      <c r="B266" t="s">
+      <c r="D266" t="s">
         <v>1021</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1023</v>
       </c>
       <c r="E266" t="s">
         <v>12</v>
@@ -10214,16 +10338,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C267" t="s">
         <v>1024</v>
       </c>
-      <c r="B267" t="s">
+      <c r="D267" t="s">
         <v>1025</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D267" t="s">
-        <v>1027</v>
       </c>
       <c r="E267" t="s">
         <v>12</v>
@@ -10231,16 +10355,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C268" t="s">
         <v>1028</v>
       </c>
-      <c r="B268" t="s">
+      <c r="D268" t="s">
         <v>1029</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1031</v>
       </c>
       <c r="E268" t="s">
         <v>12</v>
@@ -10248,16 +10372,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C269" t="s">
         <v>1032</v>
       </c>
-      <c r="B269" t="s">
+      <c r="D269" t="s">
         <v>1033</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1035</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -10265,16 +10389,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C270" t="s">
         <v>1036</v>
       </c>
-      <c r="B270" t="s">
+      <c r="D270" t="s">
         <v>1037</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1039</v>
       </c>
       <c r="E270" t="s">
         <v>12</v>
@@ -10282,16 +10406,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C271" t="s">
         <v>1040</v>
       </c>
-      <c r="B271" t="s">
+      <c r="D271" t="s">
         <v>1041</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1043</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
@@ -10299,16 +10423,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C272" t="s">
         <v>1044</v>
       </c>
-      <c r="B272" t="s">
+      <c r="D272" t="s">
         <v>1045</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1047</v>
       </c>
       <c r="E272" t="s">
         <v>12</v>
@@ -10316,16 +10440,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C273" t="s">
         <v>1048</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D273" t="s">
         <v>1049</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1051</v>
       </c>
       <c r="E273" t="s">
         <v>12</v>
@@ -10333,16 +10457,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C274" t="s">
         <v>1052</v>
       </c>
-      <c r="B274" t="s">
+      <c r="D274" t="s">
         <v>1053</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1055</v>
       </c>
       <c r="E274" t="s">
         <v>12</v>
@@ -10350,16 +10474,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C275" t="s">
         <v>1056</v>
       </c>
-      <c r="B275" t="s">
+      <c r="D275" t="s">
         <v>1057</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1059</v>
       </c>
       <c r="E275" t="s">
         <v>12</v>
@@ -10367,16 +10491,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C276" t="s">
         <v>1060</v>
       </c>
-      <c r="B276" t="s">
+      <c r="D276" t="s">
         <v>1061</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1063</v>
       </c>
       <c r="E276" t="s">
         <v>12</v>
@@ -10384,16 +10508,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C277" t="s">
         <v>1064</v>
       </c>
-      <c r="B277" t="s">
+      <c r="D277" t="s">
         <v>1065</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1067</v>
       </c>
       <c r="E277" t="s">
         <v>12</v>
@@ -10401,16 +10525,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C278" t="s">
         <v>1068</v>
       </c>
-      <c r="B278" t="s">
+      <c r="D278" t="s">
         <v>1069</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1071</v>
       </c>
       <c r="E278" t="s">
         <v>12</v>
@@ -10418,16 +10542,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C279" t="s">
         <v>1072</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D279" t="s">
         <v>1073</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D279" t="s">
-        <v>1075</v>
       </c>
       <c r="E279" t="s">
         <v>12</v>
@@ -10435,16 +10559,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C280" t="s">
         <v>1076</v>
       </c>
-      <c r="B280" t="s">
+      <c r="D280" t="s">
         <v>1077</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D280" t="s">
-        <v>1079</v>
       </c>
       <c r="E280" t="s">
         <v>12</v>
@@ -10452,16 +10576,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C281" t="s">
         <v>1080</v>
       </c>
-      <c r="B281" t="s">
+      <c r="D281" t="s">
         <v>1081</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1083</v>
       </c>
       <c r="E281" t="s">
         <v>12</v>
@@ -10469,16 +10593,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C282" t="s">
         <v>1087</v>
       </c>
-      <c r="B282" t="s">
+      <c r="D282" t="s">
         <v>1088</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D282" t="s">
-        <v>1090</v>
       </c>
       <c r="E282" t="s">
         <v>45</v>
@@ -10486,16 +10610,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C283" t="s">
         <v>1091</v>
       </c>
-      <c r="B283" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1093</v>
-      </c>
       <c r="D283" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E283" t="s">
         <v>45</v>
@@ -10503,16 +10627,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B284" t="s">
         <v>1326</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D284" t="s">
         <v>1328</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D284" t="s">
-        <v>1330</v>
       </c>
       <c r="E284" t="s">
         <v>45</v>
@@ -10520,16 +10644,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C285" t="s">
         <v>1094</v>
       </c>
-      <c r="B285" t="s">
+      <c r="D285" t="s">
         <v>1095</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1097</v>
       </c>
       <c r="E285" t="s">
         <v>45</v>
@@ -10537,16 +10661,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C286" t="s">
         <v>1098</v>
       </c>
-      <c r="B286" t="s">
+      <c r="D286" t="s">
         <v>1099</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1101</v>
       </c>
       <c r="E286" t="s">
         <v>45</v>
@@ -10554,16 +10678,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C287" t="s">
         <v>1102</v>
       </c>
-      <c r="B287" t="s">
+      <c r="D287" t="s">
         <v>1103</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1105</v>
       </c>
       <c r="E287" t="s">
         <v>45</v>
@@ -10571,16 +10695,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C288" t="s">
         <v>1106</v>
       </c>
-      <c r="B288" t="s">
+      <c r="D288" t="s">
         <v>1107</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1109</v>
       </c>
       <c r="E288" t="s">
         <v>45</v>
@@ -10588,16 +10712,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C289" t="s">
         <v>1110</v>
       </c>
-      <c r="B289" t="s">
+      <c r="D289" t="s">
         <v>1111</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D289" t="s">
-        <v>1113</v>
       </c>
       <c r="E289" t="s">
         <v>45</v>
@@ -10605,16 +10729,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C290" t="s">
         <v>1114</v>
       </c>
-      <c r="B290" t="s">
+      <c r="D290" t="s">
         <v>1115</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1117</v>
       </c>
       <c r="E290" t="s">
         <v>45</v>
@@ -10622,16 +10746,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C291" t="s">
         <v>1118</v>
       </c>
-      <c r="B291" t="s">
+      <c r="D291" t="s">
         <v>1119</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1121</v>
       </c>
       <c r="E291" t="s">
         <v>45</v>
@@ -10639,16 +10763,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C292" t="s">
         <v>1122</v>
       </c>
-      <c r="B292" t="s">
+      <c r="D292" t="s">
         <v>1123</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1125</v>
       </c>
       <c r="E292" t="s">
         <v>45</v>
@@ -10656,16 +10780,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C293" t="s">
         <v>1126</v>
       </c>
-      <c r="B293" t="s">
+      <c r="D293" t="s">
         <v>1127</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1129</v>
       </c>
       <c r="E293" t="s">
         <v>45</v>
@@ -10673,13 +10797,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B294" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C294" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D294" t="s">
         <v>51</v>
@@ -10690,16 +10814,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C295" t="s">
         <v>1132</v>
       </c>
-      <c r="B295" t="s">
+      <c r="D295" t="s">
         <v>1133</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1135</v>
       </c>
       <c r="E295" t="s">
         <v>45</v>
@@ -10707,16 +10831,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C296" t="s">
         <v>1136</v>
       </c>
-      <c r="B296" t="s">
+      <c r="D296" t="s">
         <v>1137</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1139</v>
       </c>
       <c r="E296" t="s">
         <v>45</v>
@@ -10724,16 +10848,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C297" t="s">
         <v>1140</v>
       </c>
-      <c r="B297" t="s">
+      <c r="D297" t="s">
         <v>1141</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D297" t="s">
-        <v>1143</v>
       </c>
       <c r="E297" t="s">
         <v>45</v>
@@ -10741,16 +10865,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C298" t="s">
         <v>1144</v>
       </c>
-      <c r="B298" t="s">
+      <c r="D298" t="s">
         <v>1145</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1147</v>
       </c>
       <c r="E298" t="s">
         <v>45</v>
@@ -10758,16 +10882,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C299" t="s">
         <v>1148</v>
       </c>
-      <c r="B299" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1150</v>
-      </c>
       <c r="D299" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E299" t="s">
         <v>45</v>
@@ -10775,16 +10899,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C300" t="s">
         <v>1153</v>
       </c>
-      <c r="B300" t="s">
+      <c r="D300" t="s">
         <v>1154</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1156</v>
       </c>
       <c r="E300" t="s">
         <v>45</v>
@@ -10792,16 +10916,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C301" t="s">
         <v>1157</v>
       </c>
-      <c r="B301" t="s">
+      <c r="D301" t="s">
         <v>1158</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1160</v>
       </c>
       <c r="E301" t="s">
         <v>45</v>
@@ -10809,13 +10933,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C302" t="s">
         <v>1161</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1163</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
@@ -10826,16 +10950,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C303" t="s">
         <v>1164</v>
       </c>
-      <c r="B303" t="s">
+      <c r="D303" t="s">
         <v>1165</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1167</v>
       </c>
       <c r="E303" t="s">
         <v>45</v>
@@ -10843,16 +10967,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D304" t="s">
         <v>1168</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D304" t="s">
-        <v>1170</v>
       </c>
       <c r="E304" t="s">
         <v>45</v>
@@ -10860,16 +10984,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C305" t="s">
         <v>1171</v>
       </c>
-      <c r="B305" t="s">
+      <c r="D305" t="s">
         <v>1172</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1174</v>
       </c>
       <c r="E305" t="s">
         <v>45</v>
@@ -10877,16 +11001,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D306" t="s">
         <v>1175</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D306" t="s">
-        <v>1177</v>
       </c>
       <c r="E306" t="s">
         <v>45</v>
@@ -10894,16 +11018,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C307" t="s">
         <v>1178</v>
       </c>
-      <c r="B307" t="s">
+      <c r="D307" t="s">
         <v>1179</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D307" t="s">
-        <v>1181</v>
       </c>
       <c r="E307" t="s">
         <v>45</v>
@@ -10911,16 +11035,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C308" t="s">
         <v>1182</v>
       </c>
-      <c r="B308" t="s">
+      <c r="D308" t="s">
         <v>1183</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1185</v>
       </c>
       <c r="E308" t="s">
         <v>45</v>
@@ -10928,16 +11052,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C309" t="s">
         <v>1186</v>
       </c>
-      <c r="B309" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1188</v>
-      </c>
       <c r="D309" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E309" t="s">
         <v>45</v>
@@ -10945,16 +11069,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D310" t="s">
         <v>1189</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1191</v>
       </c>
       <c r="E310" t="s">
         <v>45</v>
@@ -10962,16 +11086,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C311" t="s">
         <v>1192</v>
       </c>
-      <c r="B311" t="s">
+      <c r="D311" t="s">
         <v>1193</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1195</v>
       </c>
       <c r="E311" t="s">
         <v>45</v>
@@ -10979,16 +11103,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C312" t="s">
         <v>1196</v>
       </c>
-      <c r="B312" t="s">
+      <c r="D312" t="s">
         <v>1197</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1199</v>
       </c>
       <c r="E312" t="s">
         <v>45</v>
@@ -10996,16 +11120,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C313" t="s">
         <v>1200</v>
       </c>
-      <c r="B313" t="s">
+      <c r="D313" t="s">
         <v>1201</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1203</v>
       </c>
       <c r="E313" t="s">
         <v>45</v>
@@ -11013,16 +11137,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C314" t="s">
         <v>1204</v>
       </c>
-      <c r="B314" t="s">
+      <c r="D314" t="s">
         <v>1205</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1207</v>
       </c>
       <c r="E314" t="s">
         <v>45</v>
@@ -11030,16 +11154,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C315" t="s">
         <v>1210</v>
       </c>
-      <c r="B315" t="s">
+      <c r="D315" t="s">
         <v>1211</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1213</v>
       </c>
       <c r="E315" t="s">
         <v>45</v>
@@ -11047,16 +11171,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C316" t="s">
         <v>1214</v>
       </c>
-      <c r="B316" t="s">
+      <c r="D316" t="s">
         <v>1215</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1217</v>
       </c>
       <c r="E316" t="s">
         <v>45</v>
@@ -11064,16 +11188,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C317" t="s">
         <v>1218</v>
       </c>
-      <c r="B317" t="s">
+      <c r="D317" t="s">
         <v>1219</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1221</v>
       </c>
       <c r="E317" t="s">
         <v>45</v>
@@ -11081,16 +11205,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C318" t="s">
         <v>1222</v>
       </c>
-      <c r="B318" t="s">
+      <c r="D318" t="s">
         <v>1223</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1225</v>
       </c>
       <c r="E318" t="s">
         <v>45</v>
@@ -11098,16 +11222,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C319" t="s">
         <v>1226</v>
       </c>
-      <c r="B319" t="s">
+      <c r="D319" t="s">
         <v>1227</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1229</v>
       </c>
       <c r="E319" t="s">
         <v>45</v>
@@ -11115,16 +11239,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C320" t="s">
         <v>1230</v>
       </c>
-      <c r="B320" t="s">
+      <c r="D320" t="s">
         <v>1231</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D320" t="s">
-        <v>1233</v>
       </c>
       <c r="E320" t="s">
         <v>45</v>
@@ -11132,16 +11256,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C321" t="s">
         <v>1234</v>
       </c>
-      <c r="B321" t="s">
+      <c r="D321" t="s">
         <v>1235</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1237</v>
       </c>
       <c r="E321" t="s">
         <v>45</v>
@@ -11149,16 +11273,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C322" t="s">
         <v>1238</v>
       </c>
-      <c r="B322" t="s">
+      <c r="D322" t="s">
         <v>1239</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1241</v>
       </c>
       <c r="E322" t="s">
         <v>45</v>
@@ -11166,16 +11290,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D323" t="s">
         <v>1242</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1244</v>
       </c>
       <c r="E323" t="s">
         <v>45</v>
@@ -11183,16 +11307,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C324" t="s">
         <v>1245</v>
       </c>
-      <c r="B324" t="s">
+      <c r="D324" t="s">
         <v>1246</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1248</v>
       </c>
       <c r="E324" t="s">
         <v>45</v>
@@ -11200,16 +11324,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D325" t="s">
         <v>1249</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1251</v>
       </c>
       <c r="E325" t="s">
         <v>45</v>
@@ -11217,16 +11341,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C326" t="s">
         <v>1252</v>
       </c>
-      <c r="B326" t="s">
+      <c r="D326" t="s">
         <v>1253</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1255</v>
       </c>
       <c r="E326" t="s">
         <v>45</v>
@@ -11234,16 +11358,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C327" t="s">
         <v>1256</v>
       </c>
-      <c r="B327" t="s">
+      <c r="D327" t="s">
         <v>1257</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1259</v>
       </c>
       <c r="E327" t="s">
         <v>45</v>
@@ -11251,16 +11375,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C328" t="s">
         <v>1260</v>
       </c>
-      <c r="B328" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1262</v>
-      </c>
       <c r="D328" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E328" t="s">
         <v>45</v>
@@ -11268,16 +11392,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C329" t="s">
         <v>1263</v>
       </c>
-      <c r="B329" t="s">
+      <c r="D329" t="s">
         <v>1264</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1266</v>
       </c>
       <c r="E329" t="s">
         <v>45</v>
@@ -11285,16 +11409,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D330" t="s">
         <v>1267</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D330" t="s">
-        <v>1269</v>
       </c>
       <c r="E330" t="s">
         <v>45</v>
@@ -11302,16 +11426,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C331" t="s">
         <v>1270</v>
       </c>
-      <c r="B331" t="s">
+      <c r="D331" t="s">
         <v>1271</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1273</v>
       </c>
       <c r="E331" t="s">
         <v>45</v>
@@ -11319,16 +11443,16 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C332" t="s">
         <v>1274</v>
       </c>
-      <c r="B332" t="s">
+      <c r="D332" t="s">
         <v>1275</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1277</v>
       </c>
       <c r="E332" t="s">
         <v>45</v>
@@ -11336,16 +11460,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C333" t="s">
         <v>1278</v>
       </c>
-      <c r="B333" t="s">
+      <c r="D333" t="s">
         <v>1279</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1281</v>
       </c>
       <c r="E333" t="s">
         <v>45</v>
@@ -11353,16 +11477,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C334" t="s">
         <v>1282</v>
       </c>
-      <c r="B334" t="s">
+      <c r="D334" t="s">
         <v>1283</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1285</v>
       </c>
       <c r="E334" t="s">
         <v>45</v>
@@ -11370,16 +11494,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C335" t="s">
         <v>1286</v>
       </c>
-      <c r="B335" t="s">
+      <c r="D335" t="s">
         <v>1287</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1289</v>
       </c>
       <c r="E335" t="s">
         <v>45</v>
@@ -11387,16 +11511,16 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C336" t="s">
         <v>1290</v>
       </c>
-      <c r="B336" t="s">
+      <c r="D336" t="s">
         <v>1291</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1293</v>
       </c>
       <c r="E336" t="s">
         <v>45</v>
@@ -11404,16 +11528,16 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B337" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C337" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D337" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E337" t="s">
         <v>45</v>
@@ -11421,16 +11545,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C338" t="s">
         <v>1296</v>
       </c>
-      <c r="B338" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1298</v>
-      </c>
       <c r="D338" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E338" t="s">
         <v>45</v>
@@ -11438,16 +11562,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C339" t="s">
         <v>1299</v>
       </c>
-      <c r="B339" t="s">
+      <c r="D339" t="s">
         <v>1300</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1302</v>
       </c>
       <c r="E339" t="s">
         <v>45</v>
@@ -11455,16 +11579,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C340" t="s">
         <v>1303</v>
       </c>
-      <c r="B340" t="s">
+      <c r="D340" t="s">
         <v>1304</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1306</v>
       </c>
       <c r="E340" t="s">
         <v>45</v>
@@ -11472,16 +11596,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C341" t="s">
         <v>1307</v>
       </c>
-      <c r="B341" t="s">
+      <c r="D341" t="s">
         <v>1308</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1310</v>
       </c>
       <c r="E341" t="s">
         <v>45</v>
@@ -11489,16 +11613,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D342" t="s">
         <v>1311</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1313</v>
       </c>
       <c r="E342" t="s">
         <v>45</v>
@@ -11506,16 +11630,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D343" t="s">
         <v>1314</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1316</v>
       </c>
       <c r="E343" t="s">
         <v>45</v>
@@ -11523,16 +11647,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C344" t="s">
         <v>1317</v>
       </c>
-      <c r="B344" t="s">
+      <c r="D344" t="s">
         <v>1318</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1320</v>
       </c>
       <c r="E344" t="s">
         <v>45</v>
@@ -11540,16 +11664,16 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C345" t="s">
         <v>1331</v>
       </c>
-      <c r="B345" t="s">
+      <c r="D345" t="s">
         <v>1332</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1334</v>
       </c>
       <c r="E345" t="s">
         <v>45</v>
@@ -11557,16 +11681,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D346" t="s">
         <v>1335</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1337</v>
       </c>
       <c r="E346" t="s">
         <v>45</v>
@@ -11574,16 +11698,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D347" t="s">
         <v>1338</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1340</v>
       </c>
       <c r="E347" t="s">
         <v>45</v>
@@ -11591,16 +11715,16 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C348" t="s">
         <v>1341</v>
       </c>
-      <c r="B348" t="s">
+      <c r="D348" t="s">
         <v>1342</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1344</v>
       </c>
       <c r="E348" t="s">
         <v>45</v>
@@ -11608,16 +11732,16 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C349" t="s">
         <v>1345</v>
       </c>
-      <c r="B349" t="s">
+      <c r="D349" t="s">
         <v>1346</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1348</v>
       </c>
       <c r="E349" t="s">
         <v>45</v>
@@ -11625,16 +11749,16 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C350" t="s">
         <v>1349</v>
       </c>
-      <c r="B350" t="s">
+      <c r="D350" t="s">
         <v>1350</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1352</v>
       </c>
       <c r="E350" t="s">
         <v>45</v>
@@ -11642,16 +11766,16 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D351" t="s">
         <v>1353</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1355</v>
       </c>
       <c r="E351" t="s">
         <v>45</v>
@@ -11659,16 +11783,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C352" t="s">
         <v>1356</v>
       </c>
-      <c r="B352" t="s">
+      <c r="D352" t="s">
         <v>1357</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1359</v>
       </c>
       <c r="E352" t="s">
         <v>45</v>
@@ -11676,16 +11800,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C353" t="s">
         <v>1360</v>
       </c>
-      <c r="B353" t="s">
+      <c r="D353" t="s">
         <v>1361</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1363</v>
       </c>
       <c r="E353" t="s">
         <v>45</v>
@@ -11693,16 +11817,16 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C354" t="s">
         <v>1364</v>
       </c>
-      <c r="B354" t="s">
+      <c r="D354" t="s">
         <v>1365</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1367</v>
       </c>
       <c r="E354" t="s">
         <v>45</v>
@@ -11710,16 +11834,16 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C355" t="s">
         <v>1368</v>
       </c>
-      <c r="B355" t="s">
+      <c r="D355" t="s">
         <v>1369</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1371</v>
       </c>
       <c r="E355" t="s">
         <v>45</v>
@@ -11727,16 +11851,16 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C356" t="s">
         <v>1372</v>
       </c>
-      <c r="B356" t="s">
+      <c r="D356" t="s">
         <v>1373</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1375</v>
       </c>
       <c r="E356" t="s">
         <v>45</v>
@@ -11744,16 +11868,16 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D357" t="s">
         <v>1376</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1378</v>
       </c>
       <c r="E357" t="s">
         <v>45</v>
@@ -11761,16 +11885,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C358" t="s">
         <v>1379</v>
       </c>
-      <c r="B358" t="s">
+      <c r="D358" t="s">
         <v>1380</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1382</v>
       </c>
       <c r="E358" t="s">
         <v>45</v>
@@ -11778,16 +11902,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C359" t="s">
         <v>1383</v>
       </c>
-      <c r="B359" t="s">
+      <c r="D359" t="s">
         <v>1384</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1386</v>
       </c>
       <c r="E359" t="s">
         <v>45</v>
@@ -11795,16 +11919,16 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B360" t="s">
         <v>1325</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D360" t="s">
         <v>1327</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1329</v>
       </c>
       <c r="E360" t="s">
         <v>45</v>
@@ -11812,16 +11936,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C361" t="s">
         <v>1393</v>
       </c>
-      <c r="B361" t="s">
+      <c r="D361" t="s">
         <v>1394</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1396</v>
       </c>
       <c r="E361" t="s">
         <v>45</v>
@@ -11829,16 +11953,16 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C362" t="s">
         <v>1397</v>
       </c>
-      <c r="B362" t="s">
+      <c r="D362" t="s">
         <v>1398</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D362" t="s">
-        <v>1400</v>
       </c>
       <c r="E362" t="s">
         <v>45</v>
@@ -11846,16 +11970,16 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C363" t="s">
         <v>1401</v>
       </c>
-      <c r="B363" t="s">
+      <c r="D363" t="s">
         <v>1402</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1404</v>
       </c>
       <c r="E363" t="s">
         <v>45</v>
@@ -11863,16 +11987,16 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C364" t="s">
         <v>1405</v>
       </c>
-      <c r="B364" t="s">
+      <c r="D364" t="s">
         <v>1406</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1408</v>
       </c>
       <c r="E364" t="s">
         <v>45</v>
@@ -11880,16 +12004,16 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D365" t="s">
         <v>1409</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1411</v>
       </c>
       <c r="E365" t="s">
         <v>45</v>
@@ -11897,16 +12021,16 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C366" t="s">
         <v>1412</v>
       </c>
-      <c r="B366" t="s">
+      <c r="D366" t="s">
         <v>1413</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1415</v>
       </c>
       <c r="E366" t="s">
         <v>45</v>
@@ -11914,16 +12038,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D367" t="s">
         <v>1416</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1418</v>
       </c>
       <c r="E367" t="s">
         <v>45</v>
@@ -11931,16 +12055,16 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C368" t="s">
         <v>1419</v>
       </c>
-      <c r="B368" t="s">
+      <c r="D368" t="s">
         <v>1420</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1422</v>
       </c>
       <c r="E368" t="s">
         <v>45</v>
@@ -11948,16 +12072,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C369" t="s">
         <v>1423</v>
       </c>
-      <c r="B369" t="s">
+      <c r="D369" t="s">
         <v>1424</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1426</v>
       </c>
       <c r="E369" t="s">
         <v>45</v>
@@ -11965,16 +12089,16 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C370" t="s">
         <v>1427</v>
       </c>
-      <c r="B370" t="s">
+      <c r="D370" t="s">
         <v>1428</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1430</v>
       </c>
       <c r="E370" t="s">
         <v>45</v>
@@ -11982,16 +12106,16 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C371" t="s">
         <v>1431</v>
       </c>
-      <c r="B371" t="s">
+      <c r="D371" t="s">
         <v>1432</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1434</v>
       </c>
       <c r="E371" t="s">
         <v>45</v>
@@ -11999,16 +12123,16 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C372" t="s">
         <v>1435</v>
       </c>
-      <c r="B372" t="s">
+      <c r="D372" t="s">
         <v>1436</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1438</v>
       </c>
       <c r="E372" t="s">
         <v>45</v>
@@ -12016,16 +12140,16 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C373" t="s">
         <v>1439</v>
       </c>
-      <c r="B373" t="s">
+      <c r="D373" t="s">
         <v>1440</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1442</v>
       </c>
       <c r="E373" t="s">
         <v>45</v>
@@ -12033,16 +12157,16 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C374" t="s">
         <v>1443</v>
       </c>
-      <c r="B374" t="s">
+      <c r="D374" t="s">
         <v>1444</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1446</v>
       </c>
       <c r="E374" t="s">
         <v>45</v>
@@ -12050,16 +12174,16 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C375" t="s">
         <v>1447</v>
       </c>
-      <c r="B375" t="s">
+      <c r="D375" t="s">
         <v>1448</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D375" t="s">
-        <v>1450</v>
       </c>
       <c r="E375" t="s">
         <v>45</v>
@@ -12067,16 +12191,16 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C376" t="s">
         <v>1451</v>
       </c>
-      <c r="B376" t="s">
+      <c r="D376" t="s">
         <v>1452</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1454</v>
       </c>
       <c r="E376" t="s">
         <v>45</v>
@@ -12084,16 +12208,16 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C377" t="s">
         <v>1455</v>
       </c>
-      <c r="B377" t="s">
+      <c r="D377" t="s">
         <v>1456</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1458</v>
       </c>
       <c r="E377" t="s">
         <v>45</v>
@@ -12101,16 +12225,16 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C378" t="s">
         <v>1459</v>
       </c>
-      <c r="B378" t="s">
+      <c r="D378" t="s">
         <v>1460</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1462</v>
       </c>
       <c r="E378" t="s">
         <v>45</v>
@@ -12118,16 +12242,16 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C379" t="s">
         <v>1463</v>
       </c>
-      <c r="B379" t="s">
+      <c r="D379" t="s">
         <v>1464</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1466</v>
       </c>
       <c r="E379" t="s">
         <v>45</v>
@@ -12135,23 +12259,193 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C380" t="s">
         <v>1467</v>
       </c>
-      <c r="B380" t="s">
+      <c r="D380" t="s">
         <v>1468</v>
       </c>
-      <c r="C380" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1470</v>
-      </c>
       <c r="E380" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E381" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E382" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E383" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E386" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E387" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E388" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>206</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E389" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94C998-982D-4395-964C-0A5799F7054F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E33B21-A830-4F5F-8E7F-29EB6B553DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1572">
   <si>
     <t>百度网盘</t>
   </si>
@@ -4860,6 +4860,182 @@
   <si>
     <t>Meizu</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft Word</t>
+  </si>
+  <si>
+    <t>microsoft_word</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.word</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.apphost.LaunchActivity</t>
+  </si>
+  <si>
+    <t>Microsoft PowerPoint</t>
+  </si>
+  <si>
+    <t>microsoft_powerpoint</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.powerpoint</t>
+  </si>
+  <si>
+    <t>Microsoft Excel</t>
+  </si>
+  <si>
+    <t>microsoft_excel</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.excel</t>
+  </si>
+  <si>
+    <t>Microsoft Lens</t>
+  </si>
+  <si>
+    <t>microsoft_lens</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.officelens</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.officelens.MainActivity</t>
+  </si>
+  <si>
+    <t>一本日记</t>
+  </si>
+  <si>
+    <t>one_diary</t>
+  </si>
+  <si>
+    <t>com.chenupt.day</t>
+  </si>
+  <si>
+    <t>com.chenupt.day.launch.SplashActivity11</t>
+  </si>
+  <si>
+    <t>Google Keep</t>
+  </si>
+  <si>
+    <t>google_keep</t>
+  </si>
+  <si>
+    <t>com.google.android.keep</t>
+  </si>
+  <si>
+    <t>com.google.android.keep.activities.BrowseActivity</t>
+  </si>
+  <si>
+    <t>为知笔记</t>
+  </si>
+  <si>
+    <t>wiz_note</t>
+  </si>
+  <si>
+    <t>cn.wiz.note</t>
+  </si>
+  <si>
+    <t>cn.wiz.note.MainActivity</t>
+  </si>
+  <si>
+    <t>Microsoft OneNote</t>
+  </si>
+  <si>
+    <t>microsoft_onenote</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.onenote</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.onenote.ui.ONMSplashActivity</t>
+  </si>
+  <si>
+    <t>WPS便签</t>
+  </si>
+  <si>
+    <t>wps_note</t>
+  </si>
+  <si>
+    <t>cn.wps.note</t>
+  </si>
+  <si>
+    <t>cn.wps.note.StartActivity</t>
+  </si>
+  <si>
+    <t>印象笔记</t>
+  </si>
+  <si>
+    <t>evernote</t>
+  </si>
+  <si>
+    <t>com.evernote</t>
+  </si>
+  <si>
+    <t>com.evernote.ui.HomeActivity</t>
+  </si>
+  <si>
+    <t>扫描全能王</t>
+  </si>
+  <si>
+    <t>cam_scanner</t>
+  </si>
+  <si>
+    <t>com.intsig.camscanner</t>
+  </si>
+  <si>
+    <t>com.intsig.camscanner.launcher.WelcomeDefaultActivity</t>
+  </si>
+  <si>
+    <t>名片全能王</t>
+  </si>
+  <si>
+    <t>cam_card</t>
+  </si>
+  <si>
+    <t>com.intsig.BizCardReader</t>
+  </si>
+  <si>
+    <t>com.intsig.camcard.BcrFirstLaunchGuide</t>
+  </si>
+  <si>
+    <t>白描</t>
+  </si>
+  <si>
+    <t>baimiao</t>
+  </si>
+  <si>
+    <t>com.uzero.baimiao</t>
+  </si>
+  <si>
+    <t>com.uzero.baimiao.Hello</t>
+  </si>
+  <si>
+    <t>Microsoft Outlook</t>
+  </si>
+  <si>
+    <t>microsoft_outlook</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.outlook</t>
+  </si>
+  <si>
+    <t>com.microsoft.office.outlook.MainActivity</t>
+  </si>
+  <si>
+    <t>记忆碎片</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>memento</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jyye.memento</t>
+  </si>
+  <si>
+    <t>com.jyye.memento.view.splash.SplashActivity</t>
   </si>
 </sst>
 </file>
@@ -5799,10 +5975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B401" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12444,6 +12620,261 @@
         <v>1512</v>
       </c>
     </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E391" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E392" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E393" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E394" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E395" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E396" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E397" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E398" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E399" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E400" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E401" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E402" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E403" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E404" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E405" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E33B21-A830-4F5F-8E7F-29EB6B553DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77754A77-3265-4618-9CB5-9B50C207ED76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1633">
   <si>
     <t>百度网盘</t>
   </si>
@@ -5036,6 +5036,189 @@
   </si>
   <si>
     <t>com.jyye.memento.view.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>智联招聘</t>
+  </si>
+  <si>
+    <t>zhilianzhaopin</t>
+  </si>
+  <si>
+    <t>com.zhaopin.social</t>
+  </si>
+  <si>
+    <t>com.zhaopin.social.SplashActivity</t>
+  </si>
+  <si>
+    <t>applicaton</t>
+  </si>
+  <si>
+    <t>纯纯写作</t>
+  </si>
+  <si>
+    <t>pure_writer</t>
+  </si>
+  <si>
+    <t>com.drakeet.purewriter</t>
+  </si>
+  <si>
+    <t>com.drakeet.purewriter.WriterActivity</t>
+  </si>
+  <si>
+    <t>滴答清单</t>
+  </si>
+  <si>
+    <t>ticktick_task</t>
+  </si>
+  <si>
+    <t>cn.ticktick.task</t>
+  </si>
+  <si>
+    <t>com.ticktick.task.activity.MeTaskActivity</t>
+  </si>
+  <si>
+    <t>奇妙清单</t>
+  </si>
+  <si>
+    <t>wunder_list</t>
+  </si>
+  <si>
+    <t>com.wunderkinder.wunderlistandroid</t>
+  </si>
+  <si>
+    <t>com.wunderkinder.wunderlistandroid.activity.WLMainFragmentActivity</t>
+  </si>
+  <si>
+    <t>拉勾招聘</t>
+  </si>
+  <si>
+    <t>lagou</t>
+  </si>
+  <si>
+    <t>com.alpha.lagouapk</t>
+  </si>
+  <si>
+    <t>com.alpha.lagouapk.HelloActivity</t>
+  </si>
+  <si>
+    <t>番茄土豆</t>
+  </si>
+  <si>
+    <t>pomotodo</t>
+  </si>
+  <si>
+    <t>com.pomotodo</t>
+  </si>
+  <si>
+    <t>com.pomotodo.ui.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>WPS邮箱</t>
+  </si>
+  <si>
+    <t>wps_mail</t>
+  </si>
+  <si>
+    <t>com.kingsoft.email</t>
+  </si>
+  <si>
+    <t>com.kingsoft.email.ui.launch.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Microsoft To-Do</t>
+  </si>
+  <si>
+    <t>microsoft_todo</t>
+  </si>
+  <si>
+    <t>com.microsoft.todos</t>
+  </si>
+  <si>
+    <t>com.microsoft.todos.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>京东金融</t>
+  </si>
+  <si>
+    <t>jd_jr</t>
+  </si>
+  <si>
+    <t>com.jd.jrapp</t>
+  </si>
+  <si>
+    <t>com.jd.jrapp.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>随手记</t>
+  </si>
+  <si>
+    <t>suishouji</t>
+  </si>
+  <si>
+    <t>com.mymoney</t>
+  </si>
+  <si>
+    <t>com.mymoney.biz.splash.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>挖财</t>
+  </si>
+  <si>
+    <t>wacai</t>
+  </si>
+  <si>
+    <t>com.wacai365</t>
+  </si>
+  <si>
+    <t>com.wacai365.Launcher</t>
+  </si>
+  <si>
+    <t>钱迹</t>
+  </si>
+  <si>
+    <t>qianji</t>
+  </si>
+  <si>
+    <t>com.mutangtech.qianji</t>
+  </si>
+  <si>
+    <t>com.mutangtech.qianji.ui.main.MainActivity</t>
+  </si>
+  <si>
+    <t>51信用卡管家</t>
+  </si>
+  <si>
+    <t>credit_card_manager</t>
+  </si>
+  <si>
+    <t>com.zhangdan.app</t>
+  </si>
+  <si>
+    <t>com.zhangdan.app.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>小米金融</t>
+  </si>
+  <si>
+    <t>xiaomi_jr</t>
+  </si>
+  <si>
+    <t>com.xiaomi.jr</t>
+  </si>
+  <si>
+    <t>com.xiaomi.jr.SplashActivity</t>
+  </si>
+  <si>
+    <t>陆金所</t>
+  </si>
+  <si>
+    <t>lufax</t>
+  </si>
+  <si>
+    <t>com.lufax.android</t>
+  </si>
+  <si>
+    <t>com.lufax.android.activity.WelcomeActivity</t>
   </si>
 </sst>
 </file>
@@ -5975,18 +6158,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B401" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" customWidth="1"/>
-    <col min="4" max="4" width="75.875" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12873,6 +13056,261 @@
       </c>
       <c r="E405" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1576</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77754A77-3265-4618-9CB5-9B50C207ED76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C29EC-3682-4BE3-AC39-0F4A7C8D458F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1693">
   <si>
     <t>百度网盘</t>
   </si>
@@ -5219,6 +5219,186 @@
   </si>
   <si>
     <t>com.lufax.android.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>网易有钱记账</t>
+  </si>
+  <si>
+    <t>netease_moneykeeper</t>
+  </si>
+  <si>
+    <t>com.netease.moneykeeper</t>
+  </si>
+  <si>
+    <t>com.netease.moneykeeper.ui.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>cmb</t>
+  </si>
+  <si>
+    <t>cmb.pb</t>
+  </si>
+  <si>
+    <t>cmb.pb.launch.PBInitActivity</t>
+  </si>
+  <si>
+    <t>招商银行掌上生活</t>
+  </si>
+  <si>
+    <t>cmb_life</t>
+  </si>
+  <si>
+    <t>com.cmbchina.ccd.pluto.cmbActivity</t>
+  </si>
+  <si>
+    <t>com.cmbchina.ccd.pluto.cmbActivity.SplashActivity</t>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>ccb</t>
+  </si>
+  <si>
+    <t>com.chinamworld.main</t>
+  </si>
+  <si>
+    <t>com.ccb.start.MainActivity</t>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+  </si>
+  <si>
+    <t>icbc</t>
+  </si>
+  <si>
+    <t>com.icbc</t>
+  </si>
+  <si>
+    <t>com.icbc.activity.init.LoadingActivity</t>
+  </si>
+  <si>
+    <t>中国农业银行</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>com.android.bankabc</t>
+  </si>
+  <si>
+    <t>com.android.bankabc.SplashActivity</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>boc</t>
+  </si>
+  <si>
+    <t>com.chinamworld.bocmbci</t>
+  </si>
+  <si>
+    <t>com.boc.bocsoft.mobile.bocmobile.buss.system.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>citic</t>
+  </si>
+  <si>
+    <t>com.ecitic.bank.mobile</t>
+  </si>
+  <si>
+    <t>com.ecitic.bank.mobile.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>云闪付</t>
+  </si>
+  <si>
+    <t>unionpay</t>
+  </si>
+  <si>
+    <t>com.unionpay</t>
+  </si>
+  <si>
+    <t>com.unionpay.activity.UPActivityWelcome</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>spdb</t>
+  </si>
+  <si>
+    <t>cn.com.spdb.mobilebank.per</t>
+  </si>
+  <si>
+    <t>cn.com.spdb.mobilebank.per.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>同花顺</t>
+  </si>
+  <si>
+    <t>hexin</t>
+  </si>
+  <si>
+    <t>com.hexin.plat.android</t>
+  </si>
+  <si>
+    <t>com.hexin.plat.android.AndroidLogoActivity</t>
+  </si>
+  <si>
+    <t>雪球股票</t>
+  </si>
+  <si>
+    <t>xueqiu</t>
+  </si>
+  <si>
+    <t>com.xueqiu.android</t>
+  </si>
+  <si>
+    <t>com.xueqiu.android.view.WelcomeActivityAlias</t>
+  </si>
+  <si>
+    <t>大智慧</t>
+  </si>
+  <si>
+    <t>dzh</t>
+  </si>
+  <si>
+    <t>com.android.dazhihui</t>
+  </si>
+  <si>
+    <t>com.android.dazhihui.dzh.dzh</t>
+  </si>
+  <si>
+    <t>智远一户通</t>
+  </si>
+  <si>
+    <t>cms</t>
+  </si>
+  <si>
+    <t>com.cmschina.stock</t>
+  </si>
+  <si>
+    <t>com.cmschina.stock.InitActivity</t>
+  </si>
+  <si>
+    <t>国泰君安君弘</t>
+  </si>
+  <si>
+    <t>gtja</t>
+  </si>
+  <si>
+    <t>com.guotai.dazhihui</t>
+  </si>
+  <si>
+    <t>com.gtja.home.InitScreen</t>
   </si>
 </sst>
 </file>
@@ -6158,10 +6338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E420"/>
+  <dimension ref="A1:E435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13313,6 +13493,261 @@
         <v>1576</v>
       </c>
     </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E421" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E422" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E423" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E424" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E425" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E426" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E427" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E428" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E429" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E430" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E431" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E432" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E433" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E434" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E435" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598C29EC-3682-4BE3-AC39-0F4A7C8D458F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE20D77-57BA-43E7-A9E9-189E5C1654A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="1753">
   <si>
     <t>百度网盘</t>
   </si>
@@ -5399,6 +5399,187 @@
   </si>
   <si>
     <t>com.gtja.home.InitScreen</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>eastmoney</t>
+  </si>
+  <si>
+    <t>com.eastmoney.android.berlin</t>
+  </si>
+  <si>
+    <t>com.eastmoney.android.berlin.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>腾讯自选股</t>
+  </si>
+  <si>
+    <t>tencent_portfolio</t>
+  </si>
+  <si>
+    <t>com.tencent.portfolio</t>
+  </si>
+  <si>
+    <t>com.tencent.portfolio.splash.CSplashActivity</t>
+  </si>
+  <si>
+    <t>同花顺爱基金</t>
+  </si>
+  <si>
+    <t>hexin_bank</t>
+  </si>
+  <si>
+    <t>com.hexin.android.bank</t>
+  </si>
+  <si>
+    <t>com.hexin.android.bank.LogoActivity</t>
+  </si>
+  <si>
+    <t>Timi时光记账</t>
+  </si>
+  <si>
+    <t>timi</t>
+  </si>
+  <si>
+    <t>com.talicai.timiclient</t>
+  </si>
+  <si>
+    <t>com.talicai.timiclient.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>口袋记账</t>
+  </si>
+  <si>
+    <t>kdjz</t>
+  </si>
+  <si>
+    <t>com.qeeniao.mobile.kdjz</t>
+  </si>
+  <si>
+    <t>com.qeeniao.mobile.kdjz.BlankActivity</t>
+  </si>
+  <si>
+    <t>薄荷记账</t>
+  </si>
+  <si>
+    <t>lonicera</t>
+  </si>
+  <si>
+    <t>melandru.lonicera</t>
+  </si>
+  <si>
+    <t>melandru.lonicera.activity.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>圈子账本</t>
+  </si>
+  <si>
+    <t>quanzi</t>
+  </si>
+  <si>
+    <t>com.account.book.quanzi</t>
+  </si>
+  <si>
+    <t>com.account.book.quanzi.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>咕咚</t>
+  </si>
+  <si>
+    <t>codoon</t>
+  </si>
+  <si>
+    <t>com.codoon.gps</t>
+  </si>
+  <si>
+    <t>com.codoon.gps.ui.login.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>悦动圈</t>
+  </si>
+  <si>
+    <t>yuedong_sport</t>
+  </si>
+  <si>
+    <t>com.yuedong.sport</t>
+  </si>
+  <si>
+    <t>com.yuedong.sport.main.WelcomeActivity_</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>com.shizhuang.duapp</t>
+  </si>
+  <si>
+    <t>com.shine.ui.home.SplashActivity</t>
+  </si>
+  <si>
+    <t>丁香医生</t>
+  </si>
+  <si>
+    <t>dxy_aspirin</t>
+  </si>
+  <si>
+    <t>cn.dxy.android.aspirin</t>
+  </si>
+  <si>
+    <t>cn.dxy.android.aspirin.ui.activity.StartupActivity</t>
+  </si>
+  <si>
+    <t>丁香园</t>
+  </si>
+  <si>
+    <t>dxy</t>
+  </si>
+  <si>
+    <t>cn.dxy.idxyer</t>
+  </si>
+  <si>
+    <t>cn.dxy.idxyer.common.StartupActivity</t>
+  </si>
+  <si>
+    <t>春雨医生</t>
+  </si>
+  <si>
+    <t>chunyu_doctor</t>
+  </si>
+  <si>
+    <t>me.chunyu.ChunyuDoctor</t>
+  </si>
+  <si>
+    <t>me.chunyu.ChunyuDoctor.Activities.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>用药助手</t>
+  </si>
+  <si>
+    <t>medicine_helper</t>
+  </si>
+  <si>
+    <t>cn.dxy.medicinehelper</t>
+  </si>
+  <si>
+    <t>虎嗅</t>
+  </si>
+  <si>
+    <t>huxiu</t>
+  </si>
+  <si>
+    <t>com.huxiu</t>
+  </si>
+  <si>
+    <t>com.huxiu.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>cn.dxy.medicinehelper.activity.DrugLaunchActivity</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6338,10 +6519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E435"/>
+  <dimension ref="A1:E450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13748,6 +13929,261 @@
         <v>45</v>
       </c>
     </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E436" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E437" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E438" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E439" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E440" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E441" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E442" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E443" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E444" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E445" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E446" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E447" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E448" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E449" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E450" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E390" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F5788-9D85-41F4-B0FA-BB83A2BC6333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5A0F8-1FA8-44AF-AAFB-84B975A01712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="icon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$547</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="2071">
   <si>
     <t>百度网盘</t>
   </si>
@@ -6349,6 +6349,268 @@
   <si>
     <t>魅族</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miui_notes</t>
+  </si>
+  <si>
+    <t>com.miui.notes</t>
+  </si>
+  <si>
+    <t>com.miui.notes.ui.NotesListActivity</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>USIM卡工具</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
+    <t>用户反馈</t>
+  </si>
+  <si>
+    <t>bugreport</t>
+  </si>
+  <si>
+    <t>com.miui.bugreport</t>
+  </si>
+  <si>
+    <t>com.miui.bugreport.ui.MainTabActivity</t>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>com.miui.compass</t>
+  </si>
+  <si>
+    <t>com.miui.compass.CompassActivity</t>
+  </si>
+  <si>
+    <t>屏幕录制</t>
+  </si>
+  <si>
+    <t>com.miui.screenrecorder</t>
+  </si>
+  <si>
+    <t>com.miui.screenrecorder.activity.ScreenRecorderHomeActivity</t>
+  </si>
+  <si>
+    <t>个性主题</t>
+  </si>
+  <si>
+    <t>miui_theme_manager</t>
+  </si>
+  <si>
+    <t>com.android.thememanager.ThemeResourceTabActivity</t>
+  </si>
+  <si>
+    <t>全球上网</t>
+  </si>
+  <si>
+    <t>miui_virtual_sim</t>
+  </si>
+  <si>
+    <t>com.miui.virtualsim</t>
+  </si>
+  <si>
+    <t>com.miui.virtualsim.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>小爱同学</t>
+  </si>
+  <si>
+    <t>miui_voice_assistant</t>
+  </si>
+  <si>
+    <t>com.miui.voiceassist</t>
+  </si>
+  <si>
+    <t>com.xiaomi.voiceassistant.LauncherRouterActivity</t>
+  </si>
+  <si>
+    <t>钱包</t>
+  </si>
+  <si>
+    <t>mipay</t>
+  </si>
+  <si>
+    <t>com.mipay.wallet</t>
+  </si>
+  <si>
+    <t>com.mipay.wallet.ui.MipayEntryActivity</t>
+  </si>
+  <si>
+    <t>com.android.thememanager</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利中心</t>
+  </si>
+  <si>
+    <t>meizu_compaign</t>
+  </si>
+  <si>
+    <t>com.meizu.compaign</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.venice.modules.home.HomePageActivity</t>
+  </si>
+  <si>
+    <t>魅族</t>
+  </si>
+  <si>
+    <t>电子书</t>
+  </si>
+  <si>
+    <t>meizu_ebook</t>
+  </si>
+  <si>
+    <t>com.meizu.media.ebook</t>
+  </si>
+  <si>
+    <t>com.meizu.media.ebook.bookstore.EBookActivity</t>
+  </si>
+  <si>
+    <t>游戏中心</t>
+  </si>
+  <si>
+    <t>gamecenter</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.gamecenter</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.gamecenter.activity.DefaultActivity</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>meizu_life</t>
+  </si>
+  <si>
+    <t>com.meizu.media.life</t>
+  </si>
+  <si>
+    <t>com.meizu.media.life.base.home.HomeActivity</t>
+  </si>
+  <si>
+    <t>魅族支付</t>
+  </si>
+  <si>
+    <t>meizu_mznfcpay</t>
+  </si>
+  <si>
+    <t>com.meizu.mznfcpay</t>
+  </si>
+  <si>
+    <t>com.meizu.mznfcpay.cardlist.AllCardListActivity</t>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>meizu_reader</t>
+  </si>
+  <si>
+    <t>com.meizu.media.reader</t>
+  </si>
+  <si>
+    <t>com.meizu.media.reader.ReaderMainActivity</t>
+  </si>
+  <si>
+    <t>root授权</t>
+  </si>
+  <si>
+    <t>meizu_mzroottools</t>
+  </si>
+  <si>
+    <t>com.meizu.mzroottools</t>
+  </si>
+  <si>
+    <t>com.meizu.mzroottools.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>系统更新</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.update</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.update.SystemUpgradeListActivity</t>
+  </si>
+  <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>com.meizu.feedback</t>
+  </si>
+  <si>
+    <t>com.meizu.feedback.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>全球流量</t>
+  </si>
+  <si>
+    <t>flyme_roamingpay</t>
+  </si>
+  <si>
+    <t>com.flyme.roamingpay</t>
+  </si>
+  <si>
+    <t>com.flyme.roamingpay.userintent.EntranceActivity</t>
+  </si>
+  <si>
+    <t>语音助手</t>
+  </si>
+  <si>
+    <t>meizu_voiceassistant</t>
+  </si>
+  <si>
+    <t>com.meizu.voiceassistant</t>
+  </si>
+  <si>
+    <t>com.meizu.voiceassistant.MainActivity</t>
+  </si>
+  <si>
+    <t>趣视频</t>
+  </si>
+  <si>
+    <t>flyme_videoclips</t>
+  </si>
+  <si>
+    <t>com.flyme.videoclips</t>
+  </si>
+  <si>
+    <t>com.flyme.videoclips.activity.HomeWeexActivity</t>
+  </si>
+  <si>
+    <t>魅族商店</t>
+  </si>
+  <si>
+    <t>meizu_store</t>
+  </si>
+  <si>
+    <t>com.flyme.meizu.store</t>
+  </si>
+  <si>
+    <t>com.meizu.store.newhome.NewHomeActivity</t>
+  </si>
+  <si>
+    <t>SIM卡工具包</t>
   </si>
 </sst>
 </file>
@@ -7288,10 +7550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C515" sqref="C515"/>
+    <sheetView tabSelected="1" topLeftCell="A544" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D550" sqref="D550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16211,8 +16473,399 @@
         <v>1983</v>
       </c>
     </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>156</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D529" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B530" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D530" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B531" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C531" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D531" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B532" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C532" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D532" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B533" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D533" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C534" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E534" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B535" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C535" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D535" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E535" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B536" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C536" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D536" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E536" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B537" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C537" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D537" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E537" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B538" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C538" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D538" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E538" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B539" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C539" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D539" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E539" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B540" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C540" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D540" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E540" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B541" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C541" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D541" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E541" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B542" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D542" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E542" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B543" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C543" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D543" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E543" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B544" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D544" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E544" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C545" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D545" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E545" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B546" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C546" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D546" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E546" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E547" t="s">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E523" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E547" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5A0F8-1FA8-44AF-AAFB-84B975A01712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C10AF-A351-48C5-9502-5AEA7D949305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="2071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="2132">
   <si>
     <t>百度网盘</t>
   </si>
@@ -6611,6 +6611,190 @@
   </si>
   <si>
     <t>SIM卡工具包</t>
+  </si>
+  <si>
+    <t>携程</t>
+  </si>
+  <si>
+    <t>ctrip</t>
+  </si>
+  <si>
+    <t>ctrip.android.view</t>
+  </si>
+  <si>
+    <t>ctrip.business.splash.CtripSplashActivity</t>
+  </si>
+  <si>
+    <t>去哪儿旅行</t>
+  </si>
+  <si>
+    <t>qunar</t>
+  </si>
+  <si>
+    <t>com.Qunar</t>
+  </si>
+  <si>
+    <t>com.mqunar.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>穷游</t>
+  </si>
+  <si>
+    <t>qyer</t>
+  </si>
+  <si>
+    <t>com.qyer.android.jinnang</t>
+  </si>
+  <si>
+    <t>com.qyer.android.jinnang.activity.launcher.SplashActivity</t>
+  </si>
+  <si>
+    <t>艺龙旅行</t>
+  </si>
+  <si>
+    <t>elong</t>
+  </si>
+  <si>
+    <t>com.dp.android.elong</t>
+  </si>
+  <si>
+    <t>com.elong.activity.others.AppGuidActivity</t>
+  </si>
+  <si>
+    <t>猫途鹰</t>
+  </si>
+  <si>
+    <t>tripadvisor</t>
+  </si>
+  <si>
+    <t>com.tripadvisor.tripadvisor.daodao</t>
+  </si>
+  <si>
+    <t>com.tripadvisor.tripadvisor.daodao.launch.TripAdvisorDaoDaoActivity</t>
+  </si>
+  <si>
+    <t>爱彼迎</t>
+  </si>
+  <si>
+    <t>airbnb</t>
+  </si>
+  <si>
+    <t>com.airbnb.android</t>
+  </si>
+  <si>
+    <t>com.airbnb.android.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>com.booking</t>
+  </si>
+  <si>
+    <t>com.booking.startup.HomeActivity</t>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
+    <t>xiaozhu</t>
+  </si>
+  <si>
+    <t>com.xiaozhu.xzdz</t>
+  </si>
+  <si>
+    <t>com.xiaozhu.xzdz.XZLauncher_XZAlias0</t>
+  </si>
+  <si>
+    <t>Agoda</t>
+  </si>
+  <si>
+    <t>agoda</t>
+  </si>
+  <si>
+    <t>com.agoda.mobile.consumer</t>
+  </si>
+  <si>
+    <t>com.agoda.mobile.consumer.screens.splash.AppLauncherActivity</t>
+  </si>
+  <si>
+    <t>嘀嗒出行</t>
+  </si>
+  <si>
+    <t>didapinche</t>
+  </si>
+  <si>
+    <t>com.didapinche.booking</t>
+  </si>
+  <si>
+    <t>com.didapinche.booking.home.activity.StartActivity</t>
+  </si>
+  <si>
+    <t>Uber中国</t>
+  </si>
+  <si>
+    <t>uber_didi</t>
+  </si>
+  <si>
+    <t>com.didi.echo</t>
+  </si>
+  <si>
+    <t>com.didi.echo.bussiness.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>易到</t>
+  </si>
+  <si>
+    <t>yidaoyongche</t>
+  </si>
+  <si>
+    <t>com.yongche.android</t>
+  </si>
+  <si>
+    <t>com.yongche.android.YDBiz.Welcome.LoadingActivity</t>
+  </si>
+  <si>
+    <t>神州专车</t>
+  </si>
+  <si>
+    <t>szzc</t>
+  </si>
+  <si>
+    <t>com.szzc.ucar.pilot</t>
+  </si>
+  <si>
+    <t>com.szzc.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>曹操专车</t>
+  </si>
+  <si>
+    <t>caocao</t>
+  </si>
+  <si>
+    <t>cn.caocaokeji.user</t>
+  </si>
+  <si>
+    <t>cn.caocaokeji.user.load.LoadActivity</t>
+  </si>
+  <si>
+    <t>车来了</t>
+  </si>
+  <si>
+    <t>chelaile</t>
+  </si>
+  <si>
+    <t>com.ygkj.chelaile.standard</t>
+  </si>
+  <si>
+    <t>dev.xesam.chelaile.app.module.func.SplashActivity</t>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7550,10 +7734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E547"/>
+  <dimension ref="A1:E562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D550" sqref="D550"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E555" sqref="E555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16864,6 +17048,261 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B548" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D548" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E548" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B549" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D549" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E549" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B550" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D550" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E550" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B551" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C551" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D551" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E551" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C552" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D552" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E552" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B553" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C553" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D553" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E553" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C554" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D554" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E554" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B555" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C555" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D555" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E555" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B556" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C556" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D556" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E556" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B557" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C557" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D557" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E557" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B558" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D558" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E558" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B559" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D559" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E559" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B560" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D560" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E560" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B561" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C561" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D561" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E561" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C562" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D562" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E562" t="s">
+        <v>2131</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E547" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C10AF-A351-48C5-9502-5AEA7D949305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D05340D-4F72-4655-98DB-2C845163F5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="2238">
   <si>
     <t>百度网盘</t>
   </si>
@@ -6794,6 +6794,325 @@
   </si>
   <si>
     <t>应用</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>8684公交</t>
+  </si>
+  <si>
+    <t>chinabus</t>
+  </si>
+  <si>
+    <t>cn.chinabus.main</t>
+  </si>
+  <si>
+    <t>cn.chinabus.main.ui.other.SplashActivity_</t>
+  </si>
+  <si>
+    <t>掌上出行</t>
+  </si>
+  <si>
+    <t>mybus</t>
+  </si>
+  <si>
+    <t>com.mygolbs.mybus</t>
+  </si>
+  <si>
+    <t>com.mygolbs.mybus.LoginActivity</t>
+  </si>
+  <si>
+    <t>智行火车票</t>
+  </si>
+  <si>
+    <t>yipiao</t>
+  </si>
+  <si>
+    <t>com.yipiao</t>
+  </si>
+  <si>
+    <t>com.zt.main.entrance.ZTLaunchActivity</t>
+  </si>
+  <si>
+    <t>铁友火车票</t>
+  </si>
+  <si>
+    <t>tieyou</t>
+  </si>
+  <si>
+    <t>com.tieyou.train.ark</t>
+  </si>
+  <si>
+    <t>航旅纵横</t>
+  </si>
+  <si>
+    <t>umetrip</t>
+  </si>
+  <si>
+    <t>com.umetrip.android.msky.app</t>
+  </si>
+  <si>
+    <t>com.umetrip.android.msky.app.module.startup.SplashActivity</t>
+  </si>
+  <si>
+    <t>飞常准</t>
+  </si>
+  <si>
+    <t>vz</t>
+  </si>
+  <si>
+    <t>vz.com</t>
+  </si>
+  <si>
+    <t>com.feeyo.vz.activity.VZLaunchActivity</t>
+  </si>
+  <si>
+    <t>航班管家</t>
+  </si>
+  <si>
+    <t>flight_manager</t>
+  </si>
+  <si>
+    <t>com.flightmanager.view</t>
+  </si>
+  <si>
+    <t>com.flightmanager.view.Loading</t>
+  </si>
+  <si>
+    <t>小米有品</t>
+  </si>
+  <si>
+    <t>xiaomi_youpin</t>
+  </si>
+  <si>
+    <t>com.xiaomi.youpin</t>
+  </si>
+  <si>
+    <t>com.xiaomi.youpin.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>小米商城</t>
+  </si>
+  <si>
+    <t>xiaomi_shop</t>
+  </si>
+  <si>
+    <t>com.xiaomi.shop</t>
+  </si>
+  <si>
+    <t>com.xiaomi.shop.activity.MainTabActivity</t>
+  </si>
+  <si>
+    <t>亚马逊</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>cn.amazon.mShop.android</t>
+  </si>
+  <si>
+    <t>com.amazon.mShop.home.HomeActivity</t>
+  </si>
+  <si>
+    <t>苏宁易购</t>
+  </si>
+  <si>
+    <t>suning_ebuy</t>
+  </si>
+  <si>
+    <t>com.suning.mobile.ebuy</t>
+  </si>
+  <si>
+    <t>com.suning.mobile.ebuy.host.InitialActivity</t>
+  </si>
+  <si>
+    <t>唯品会</t>
+  </si>
+  <si>
+    <t>vipshop</t>
+  </si>
+  <si>
+    <t>com.achievo.vipshop</t>
+  </si>
+  <si>
+    <t>com.achievo.vipshop.activity.LodingActivity</t>
+  </si>
+  <si>
+    <t>当当</t>
+  </si>
+  <si>
+    <t>dangdang</t>
+  </si>
+  <si>
+    <t>com.dangdang.buy2</t>
+  </si>
+  <si>
+    <t>com.dangdang.buy2.StartupActivity</t>
+  </si>
+  <si>
+    <t>1号店</t>
+  </si>
+  <si>
+    <t>thestore</t>
+  </si>
+  <si>
+    <t>com.thestore.main</t>
+  </si>
+  <si>
+    <t>com.thestore.main.LoadingActivity</t>
+  </si>
+  <si>
+    <t>小红书</t>
+  </si>
+  <si>
+    <t>xhs</t>
+  </si>
+  <si>
+    <t>com.xingin.xhs</t>
+  </si>
+  <si>
+    <t>com.xingin.xhs.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>橙子VR</t>
+  </si>
+  <si>
+    <t>chengzivr</t>
+  </si>
+  <si>
+    <t>com.chengzivr.android</t>
+  </si>
+  <si>
+    <t>com.chengzivr.android.GuideActivity</t>
+  </si>
+  <si>
+    <t>九游</t>
+  </si>
+  <si>
+    <t>ninegame</t>
+  </si>
+  <si>
+    <t>cn.ninegame.gamemanager</t>
+  </si>
+  <si>
+    <t>cn.ninegame.gamemanager.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>蘑菇街</t>
+  </si>
+  <si>
+    <t>mogujie</t>
+  </si>
+  <si>
+    <t>com.mogujie</t>
+  </si>
+  <si>
+    <t>聚美优品</t>
+  </si>
+  <si>
+    <t>jumei</t>
+  </si>
+  <si>
+    <t>com.jm.android.jumei</t>
+  </si>
+  <si>
+    <t>com.jm.android.jumei.home.activity.StartActivity</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t>pinduoduo</t>
+  </si>
+  <si>
+    <t>com.xunmeng.pinduoduo</t>
+  </si>
+  <si>
+    <t>com.xunmeng.pinduoduo.ui.activity.MainFrameActivity</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>meituan</t>
+  </si>
+  <si>
+    <t>com.sankuai.meituan</t>
+  </si>
+  <si>
+    <t>com.meituan.android.pt.homepage.activity.Welcome</t>
+  </si>
+  <si>
+    <t>百度糯米</t>
+  </si>
+  <si>
+    <t>baidu_nuomi</t>
+  </si>
+  <si>
+    <t>com.nuomi</t>
+  </si>
+  <si>
+    <t>com.baidu.bainuo.dex.InstallDexActivity</t>
+  </si>
+  <si>
+    <t>赶集网</t>
+  </si>
+  <si>
+    <t>ganji</t>
+  </si>
+  <si>
+    <t>com.ganji.android</t>
+  </si>
+  <si>
+    <t>惠惠购物助手</t>
+  </si>
+  <si>
+    <t>youdao_huihui</t>
+  </si>
+  <si>
+    <t>com.youdao.huihui.deals</t>
+  </si>
+  <si>
+    <t>com.youdao.huihui.deals.activity.StartUpActivity</t>
+  </si>
+  <si>
+    <t>网易考拉</t>
+  </si>
+  <si>
+    <t>netease_kaola</t>
+  </si>
+  <si>
+    <t>com.kaola</t>
+  </si>
+  <si>
+    <t>com.kaola.modules.boot.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>辣品</t>
+  </si>
+  <si>
+    <t>lapin</t>
+  </si>
+  <si>
+    <t>com.ruanmei.lapin</t>
+  </si>
+  <si>
+    <t>com.ruanmei.lapin.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>一淘</t>
+  </si>
+  <si>
+    <t>etao</t>
+  </si>
+  <si>
+    <t>com.taobao.etao</t>
+  </si>
+  <si>
+    <t>com.taobao.sns.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>com.mogujie.home.MGInitAct</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -7734,10 +8053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E562"/>
+  <dimension ref="A1:E589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E555" sqref="E555"/>
+    <sheetView tabSelected="1" topLeftCell="A577" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D576" sqref="D576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17303,6 +17622,465 @@
         <v>2131</v>
       </c>
     </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B563" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D563" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B564" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C564" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D564" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B565" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C565" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D565" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B566" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C566" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D566" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B567" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C567" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D567" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B568" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C568" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D568" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B569" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D569" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B570" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D570" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B571" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C571" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D571" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B572" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C572" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D572" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B573" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C573" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D573" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B574" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D574" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B575" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D575" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B576" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C576" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D576" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B577" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D577" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B578" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D578" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B579" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C579" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D579" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B580" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D580" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B581" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D581" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B582" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C582" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D582" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B583" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C583" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D583" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B584" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D584" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B586" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C586" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D586" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B587" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D587" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B588" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D588" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B589" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C589" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D589" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1855</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E547" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D05340D-4F72-4655-98DB-2C845163F5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01972EA1-9850-40B8-B8E0-41AF8DF9EF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="2286">
   <si>
     <t>百度网盘</t>
   </si>
@@ -7114,6 +7114,150 @@
   <si>
     <t>com.mogujie.home.MGInitAct</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+  </si>
+  <si>
+    <t>sgame</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.sgame</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.sgame.SGameActivity</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>绝地求生：刺激战场</t>
+  </si>
+  <si>
+    <t>pubgmhd</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.pubgmhd</t>
+  </si>
+  <si>
+    <t>明日之后</t>
+  </si>
+  <si>
+    <t>mrzh</t>
+  </si>
+  <si>
+    <t>com.netease.mrzh</t>
+  </si>
+  <si>
+    <t>com.netease.mrzh.Launcher</t>
+  </si>
+  <si>
+    <t>欢乐斗地主</t>
+  </si>
+  <si>
+    <t>hlddz</t>
+  </si>
+  <si>
+    <t>com.qqgame.hlddz</t>
+  </si>
+  <si>
+    <t>com.qqgame.hlddz.NewHLDDZ</t>
+  </si>
+  <si>
+    <t>QQ飞车</t>
+  </si>
+  <si>
+    <t>speedmobile</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.speedmobile</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.speedmobile.speedmobile</t>
+  </si>
+  <si>
+    <t>阴阳师</t>
+  </si>
+  <si>
+    <t>onmyoji</t>
+  </si>
+  <si>
+    <t>com.netease.onmyoji</t>
+  </si>
+  <si>
+    <t>com.netease.onmyoji.Launcher</t>
+  </si>
+  <si>
+    <t>元气骑士</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>com.jingmo.knight</t>
+  </si>
+  <si>
+    <t>com.chillyroom.plugin.wrapper4399.ActivityWrapper4399</t>
+  </si>
+  <si>
+    <t>炉石传说</t>
+  </si>
+  <si>
+    <t>hearthstone</t>
+  </si>
+  <si>
+    <t>com.blizzard.wtcg.hearthstone</t>
+  </si>
+  <si>
+    <t>com.blizzard.wtcg.hearthstone.HearthstoneActivity</t>
+  </si>
+  <si>
+    <t>皇室战争</t>
+  </si>
+  <si>
+    <t>clashroyale</t>
+  </si>
+  <si>
+    <t>com.supercell.clashroyale.uc</t>
+  </si>
+  <si>
+    <t>com.supercell.clashroyale.uc.GameApp</t>
+  </si>
+  <si>
+    <t>穿越火线</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.cf</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.cf.AFMainActivity</t>
+  </si>
+  <si>
+    <t>8684火车</t>
+  </si>
+  <si>
+    <t>chinabus_lieche</t>
+  </si>
+  <si>
+    <t>cn.lieche.main</t>
+  </si>
+  <si>
+    <t>cn.lieche.main.SplashActivity</t>
+  </si>
+  <si>
+    <t>8684地铁</t>
+  </si>
+  <si>
+    <t>chinabus_metor</t>
+  </si>
+  <si>
+    <t>cn.chinabus.metro.main</t>
+  </si>
+  <si>
+    <t>cn.chinabus.metro.main.ui.SplashActivity_</t>
   </si>
 </sst>
 </file>
@@ -8053,10 +8197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E589"/>
+  <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D576" sqref="D576"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18081,6 +18225,210 @@
         <v>1855</v>
       </c>
     </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B590" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D590" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E590" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B591" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D591" t="s">
+        <v>210</v>
+      </c>
+      <c r="E591" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B592" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C592" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D592" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E592" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B593" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D593" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E593" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B594" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D594" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E594" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D595" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E595" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B596" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C596" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D596" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E596" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B597" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C597" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D597" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E597" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B598" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C598" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D598" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E598" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B599" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C599" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D599" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E599" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B600" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D600" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B601" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C601" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D601" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1855</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E547" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01972EA1-9850-40B8-B8E0-41AF8DF9EF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A94A9-BCB9-4CAA-BB77-258EDCF9C4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="icon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$547</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$609</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="2318">
   <si>
     <t>百度网盘</t>
   </si>
@@ -7258,6 +7258,102 @@
   </si>
   <si>
     <t>cn.chinabus.metro.main.ui.SplashActivity_</t>
+  </si>
+  <si>
+    <t>部落冲突</t>
+  </si>
+  <si>
+    <t>clash_of_clans</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.supercell.clashofclans</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.supercell.clashofclans.GameAppTencent</t>
+  </si>
+  <si>
+    <t>我的世界</t>
+  </si>
+  <si>
+    <t>minecraft</t>
+  </si>
+  <si>
+    <t>com.netease.x19</t>
+  </si>
+  <si>
+    <t>com.mojang.minecraftpe.MainActivity</t>
+  </si>
+  <si>
+    <t>开心消消乐</t>
+  </si>
+  <si>
+    <t>happyelements</t>
+  </si>
+  <si>
+    <t>com.happyelements.AndroidAnimal</t>
+  </si>
+  <si>
+    <t>第五人格</t>
+  </si>
+  <si>
+    <t>netease_dwrg</t>
+  </si>
+  <si>
+    <t>com.netease.dwrg</t>
+  </si>
+  <si>
+    <t>com.netease.dwrg.Launcher</t>
+  </si>
+  <si>
+    <t>虚荣</t>
+  </si>
+  <si>
+    <t>vainglory</t>
+  </si>
+  <si>
+    <t>com.superevilmegacorp.game</t>
+  </si>
+  <si>
+    <t>com.superevilmegacorp.nuogameentry.NuoActivityLauncher</t>
+  </si>
+  <si>
+    <t>狂野飙车8：极速凌云</t>
+  </si>
+  <si>
+    <t>asphalt8</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftA8HM</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftA8HM.Game</t>
+  </si>
+  <si>
+    <t>崩坏3</t>
+  </si>
+  <si>
+    <t>bh3</t>
+  </si>
+  <si>
+    <t>com.miHoYo.bh3.uc</t>
+  </si>
+  <si>
+    <t>com.miHoYo.bh3.uc.UCGameACT</t>
+  </si>
+  <si>
+    <t>真实赛车3</t>
+  </si>
+  <si>
+    <t>realracing3</t>
+  </si>
+  <si>
+    <t>com.ea.games.r3_row</t>
+  </si>
+  <si>
+    <t>com.firemint.realracing.MainActivity</t>
+  </si>
+  <si>
+    <t>com.happyelements.hellolua.MainActivity</t>
   </si>
 </sst>
 </file>
@@ -8197,15 +8293,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:E609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C587" sqref="C587"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
@@ -18429,8 +18525,144 @@
         <v>1855</v>
       </c>
     </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B602" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C602" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D602" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E602" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B603" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C603" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D603" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E603" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B604" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D604" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E604" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B605" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C605" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D605" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E605" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B606" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C606" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D606" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E606" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B607" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C607" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D607" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E607" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B608" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C608" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D608" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E608" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B609" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C609" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D609" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E609" t="s">
+        <v>2242</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E547" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E609" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E79">
     <sortCondition ref="B2:B79"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AF0F50-1DFE-46D9-9FA2-921065984D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB26873-3B60-409D-87A3-B0CC4234CBD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="2463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="2567">
   <si>
     <t>百度网盘</t>
   </si>
@@ -5689,18 +5689,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>meizu_wallet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>meizu_toolbox</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>meizu_customizecenter</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -6347,9 +6339,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>miui_notes</t>
-  </si>
-  <si>
     <t>com.miui.notes</t>
   </si>
   <si>
@@ -6399,9 +6388,6 @@
   </si>
   <si>
     <t>个性主题</t>
-  </si>
-  <si>
-    <t>miui_theme_manager</t>
   </si>
   <si>
     <t>com.android.thememanager.ThemeResourceTabActivity</t>
@@ -7802,6 +7788,334 @@
   <si>
     <t>wangdaye.com.geometricweather.ui.activity.main.MainActivity</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.notes</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.notepaper.app.NoteSplashActivity</t>
+  </si>
+  <si>
+    <t>欧陆词典</t>
+  </si>
+  <si>
+    <t>com.qianyan.eudic</t>
+  </si>
+  <si>
+    <t>com.asus.deskclock</t>
+  </si>
+  <si>
+    <t>com.asus.deskclock.DeskClock</t>
+  </si>
+  <si>
+    <t>华硕</t>
+  </si>
+  <si>
+    <t>audiofx</t>
+  </si>
+  <si>
+    <t>org.mokee.audiofx</t>
+  </si>
+  <si>
+    <t>org.mokee.audiofx.activity.ActivityMusic</t>
+  </si>
+  <si>
+    <t>Lawnchair启动器</t>
+  </si>
+  <si>
+    <t>ch.deletescape.lawnchair.ci</t>
+  </si>
+  <si>
+    <t>ch.deletescape.lawnchair.LawnchairLauncher</t>
+  </si>
+  <si>
+    <t>com.amazon.mShop.android.shopping</t>
+  </si>
+  <si>
+    <t>com.sonymobile.androidapp.audiorecorder</t>
+  </si>
+  <si>
+    <t>com.sonymobile.androidapp.audiorecorder.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>com.sonymobile.calendar</t>
+  </si>
+  <si>
+    <t>com.sonymobile.calendar.LaunchActivity</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.android.camera</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.android.camera.CameraActivity</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.organizer</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.organizer.Organizer</t>
+  </si>
+  <si>
+    <t>com.sonymobile.android.contacts</t>
+  </si>
+  <si>
+    <t>com.sonymobile.email</t>
+  </si>
+  <si>
+    <t>com.sonymobile.email.activity.Welcome</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.fmradio</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.fmradio.ui.FmRadioActivity</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.conversations</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.conversations.ui.ConversationListActivity</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.music</t>
+  </si>
+  <si>
+    <t>com.sonyericsson.music.MusicActivity</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>com.sonymobile.notes</t>
+  </si>
+  <si>
+    <t>com.sonymobile.notes.dashboard.DashboardActivity</t>
+  </si>
+  <si>
+    <t>com.sonymobile.android.dialer</t>
+  </si>
+  <si>
+    <t>com.sonymobile.xperiaweather</t>
+  </si>
+  <si>
+    <t>com.sonymobile.xperiaweather.MainActivity</t>
+  </si>
+  <si>
+    <t>com.sonymobile.support</t>
+  </si>
+  <si>
+    <t>com.sonymobile.support.InAppSupportLauncher</t>
+  </si>
+  <si>
+    <t>com.sonymobile.xperiatransfermobile</t>
+  </si>
+  <si>
+    <t>com.sonymobile.xperiatransfermobile.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>手电筒</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>com.android.systemui</t>
+  </si>
+  <si>
+    <t>com.android.systemui.flashlight.FlashlightActivity</t>
+  </si>
+  <si>
+    <t>huawei_notes</t>
+  </si>
+  <si>
+    <t>com.example.android.notepad</t>
+  </si>
+  <si>
+    <t>com.example.android.notepad.NotePadActivity</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>com.huawei.android.thememanager</t>
+  </si>
+  <si>
+    <t>com.huawei.android.thememanager.PageActivity</t>
+  </si>
+  <si>
+    <t>应用助手</t>
+  </si>
+  <si>
+    <t>huawei_assistant</t>
+  </si>
+  <si>
+    <t>com.huawei.gameassistant</t>
+  </si>
+  <si>
+    <t>com.huawei.gameassistant.views.GameassistantMainActivity</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>huawei_health</t>
+  </si>
+  <si>
+    <t>com.huawei.health</t>
+  </si>
+  <si>
+    <t>com.huawei.health.MainActivity</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>huawei_service</t>
+  </si>
+  <si>
+    <t>com.huawei.phoneservice</t>
+  </si>
+  <si>
+    <t>com.huawei.phoneservice.LaunchActivity</t>
+  </si>
+  <si>
+    <t>远程协助</t>
+  </si>
+  <si>
+    <t>huawei_remote_assistant</t>
+  </si>
+  <si>
+    <t>com.huawei.remoteassistant</t>
+  </si>
+  <si>
+    <t>com.huawei.remoteassistant.view.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>安全空间</t>
+  </si>
+  <si>
+    <t>huawei_trustspace</t>
+  </si>
+  <si>
+    <t>com.huawei.trustspace</t>
+  </si>
+  <si>
+    <t>com.huawei.trustspace.mainscreen.LoadActivity</t>
+  </si>
+  <si>
+    <t>huawei_voice_assistant</t>
+  </si>
+  <si>
+    <t>com.huawei.vassistant</t>
+  </si>
+  <si>
+    <t>com.huawei.vassistant.ui.main.VAssistantActivity</t>
+  </si>
+  <si>
+    <t>com.huawei.wallet</t>
+  </si>
+  <si>
+    <t>com.huawei.wallet.view.MainActivity</t>
+  </si>
+  <si>
+    <t>nokia_voice_assistant</t>
+  </si>
+  <si>
+    <t>com.nbc.voiceassistant</t>
+  </si>
+  <si>
+    <t>com.nbc.voiceassistant.view.OnePiexlActivity</t>
+  </si>
+  <si>
+    <t>handshaker</t>
+  </si>
+  <si>
+    <t>com.smartisanos.smartfolder.aoa</t>
+  </si>
+  <si>
+    <t>com.smartisanos.smartfolder.aoa.MainActivity</t>
+  </si>
+  <si>
+    <t>锤子</t>
+  </si>
+  <si>
+    <t>emui主题</t>
+  </si>
+  <si>
+    <t>theme_alt</t>
+  </si>
+  <si>
+    <t>com.teammt.gmanrainy.themestore</t>
+  </si>
+  <si>
+    <t>com.teammt.gmanrainy.emuithemestore.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>找回手机</t>
+  </si>
+  <si>
+    <t>huawei_find_my_phone</t>
+  </si>
+  <si>
+    <t>com.huawei.android.findmyphone</t>
+  </si>
+  <si>
+    <t>com.huawei.android.findmyphone.ui.FindMyPhoneActivity</t>
+  </si>
+  <si>
+    <t>华为HiLink</t>
+  </si>
+  <si>
+    <t>huawei_mw</t>
+  </si>
+  <si>
+    <t>com.huawei.mw</t>
+  </si>
+  <si>
+    <t>com.huawei.mw.plugin.guide.activity.IntroduceActivity</t>
+  </si>
+  <si>
+    <t>华为主题管理</t>
+  </si>
+  <si>
+    <t>huawei_theme_manager</t>
+  </si>
+  <si>
+    <t>com.deishelon.lab.huaweithememanager</t>
+  </si>
+  <si>
+    <t>com.deishelon.lab.huaweithememanager.ui.activities.ThemesActivity</t>
+  </si>
+  <si>
+    <t>ru.deishelon.lab.huaweithememanager</t>
+  </si>
+  <si>
+    <t>ru.deishelon.lab.huaweithememanager.ui.activities.ThemesActivity</t>
   </si>
 </sst>
 </file>
@@ -8748,10 +9062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E675"/>
+  <dimension ref="A1:E713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F680" sqref="F680"/>
+    <sheetView tabSelected="1" topLeftCell="A695" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C714" sqref="C714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8828,7 +9142,7 @@
         <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8845,7 +9159,7 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9040,7 +9354,7 @@
         <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="C17" t="s">
         <v>249</v>
@@ -9202,7 +9516,7 @@
         <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -9304,7 +9618,7 @@
         <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -9329,7 +9643,7 @@
         <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C34" t="s">
         <v>173</v>
@@ -9618,7 +9932,7 @@
         <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="C51" t="s">
         <v>188</v>
@@ -9873,7 +10187,7 @@
         <v>204</v>
       </c>
       <c r="B66" t="s">
-        <v>1795</v>
+        <v>2464</v>
       </c>
       <c r="C66" t="s">
         <v>300</v>
@@ -9890,7 +10204,7 @@
         <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C67" t="s">
         <v>243</v>
@@ -10264,7 +10578,7 @@
         <v>332</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>333</v>
@@ -10409,7 +10723,7 @@
         <v>372</v>
       </c>
       <c r="E97" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -10655,7 +10969,7 @@
         <v>422</v>
       </c>
       <c r="B112" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C112" t="s">
         <v>423</v>
@@ -10715,7 +11029,7 @@
         <v>445</v>
       </c>
       <c r="E115" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -10740,7 +11054,7 @@
         <v>450</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1793</v>
+        <v>2462</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>451</v>
@@ -10791,7 +11105,7 @@
         <v>155</v>
       </c>
       <c r="B120" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C120" t="s">
         <v>461</v>
@@ -10800,7 +11114,7 @@
         <v>462</v>
       </c>
       <c r="E120" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -10808,7 +11122,7 @@
         <v>463</v>
       </c>
       <c r="B121" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C121" t="s">
         <v>464</v>
@@ -10817,7 +11131,7 @@
         <v>465</v>
       </c>
       <c r="E121" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -10834,7 +11148,7 @@
         <v>467</v>
       </c>
       <c r="E122" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -10851,7 +11165,7 @@
         <v>471</v>
       </c>
       <c r="E123" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -10865,10 +11179,10 @@
         <v>185</v>
       </c>
       <c r="D124" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="E124" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -10885,7 +11199,7 @@
         <v>475</v>
       </c>
       <c r="E125" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -10902,7 +11216,7 @@
         <v>478</v>
       </c>
       <c r="E126" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -10919,7 +11233,7 @@
         <v>482</v>
       </c>
       <c r="E127" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -10936,7 +11250,7 @@
         <v>486</v>
       </c>
       <c r="E128" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -10953,7 +11267,7 @@
         <v>330</v>
       </c>
       <c r="E129" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -10970,7 +11284,7 @@
         <v>491</v>
       </c>
       <c r="E130" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -10987,7 +11301,7 @@
         <v>495</v>
       </c>
       <c r="E131" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -11004,7 +11318,7 @@
         <v>499</v>
       </c>
       <c r="E132" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -11378,7 +11692,7 @@
         <v>578</v>
       </c>
       <c r="E154" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -11412,7 +11726,7 @@
         <v>49</v>
       </c>
       <c r="E156" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -14962,7 +15276,7 @@
         <v>1394</v>
       </c>
       <c r="D365" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="E365" t="s">
         <v>1790</v>
@@ -15288,7 +15602,7 @@
         <v>1468</v>
       </c>
       <c r="E384" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -15305,7 +15619,7 @@
         <v>1472</v>
       </c>
       <c r="E385" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -15390,7 +15704,7 @@
         <v>1491</v>
       </c>
       <c r="E390" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -16495,7 +16809,7 @@
         <v>1749</v>
       </c>
       <c r="E455" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -16676,13 +16990,13 @@
         <v>466</v>
       </c>
       <c r="C466" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="D466" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -16693,47 +17007,47 @@
         <v>252</v>
       </c>
       <c r="C467" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D467" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E467" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B468" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D468" t="s">
         <v>1812</v>
       </c>
-      <c r="C468" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1814</v>
-      </c>
       <c r="E468" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B469" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D469" t="s">
         <v>1815</v>
       </c>
-      <c r="C469" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D469" t="s">
-        <v>1817</v>
-      </c>
       <c r="E469" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -16744,13 +17058,13 @@
         <v>473</v>
       </c>
       <c r="C470" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D470" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="E470" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -16767,24 +17081,24 @@
         <v>186</v>
       </c>
       <c r="E471" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B472" t="s">
         <v>576</v>
       </c>
       <c r="C472" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D472" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E472" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -16795,30 +17109,30 @@
         <v>480</v>
       </c>
       <c r="C473" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="D473" t="s">
         <v>495</v>
       </c>
       <c r="E473" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C474" t="s">
         <v>1843</v>
       </c>
-      <c r="B474" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1845</v>
-      </c>
       <c r="D474" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E474" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -16829,13 +17143,13 @@
         <v>488</v>
       </c>
       <c r="C475" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D475" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="E475" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -16846,13 +17160,13 @@
         <v>584</v>
       </c>
       <c r="C476" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E476" t="s">
         <v>1824</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E476" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -16863,30 +17177,30 @@
         <v>252</v>
       </c>
       <c r="C477" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D477" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E477" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B478" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C478" t="s">
         <v>325</v>
       </c>
       <c r="D478" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="E478" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -16894,16 +17208,16 @@
         <v>483</v>
       </c>
       <c r="B479" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C479" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D479" t="s">
         <v>1024</v>
       </c>
       <c r="E479" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -16914,18 +17228,18 @@
         <v>473</v>
       </c>
       <c r="C480" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D480" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="E480" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B481" t="s">
         <v>576</v>
@@ -16934,10 +17248,10 @@
         <v>577</v>
       </c>
       <c r="D481" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E481" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -16951,10 +17265,10 @@
         <v>375</v>
       </c>
       <c r="D482" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E482" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -16965,47 +17279,47 @@
         <v>469</v>
       </c>
       <c r="C483" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D483" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E483" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B484" t="s">
         <v>488</v>
       </c>
       <c r="C484" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D484" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E484" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C485" t="s">
         <v>1836</v>
       </c>
-      <c r="B485" t="s">
+      <c r="D485" t="s">
         <v>1837</v>
       </c>
-      <c r="C485" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1839</v>
-      </c>
       <c r="E485" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -17019,10 +17333,10 @@
         <v>170</v>
       </c>
       <c r="D486" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E486" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -17039,7 +17353,7 @@
         <v>495</v>
       </c>
       <c r="E487" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -17056,500 +17370,500 @@
         <v>186</v>
       </c>
       <c r="E488" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C489" t="s">
         <v>1846</v>
       </c>
-      <c r="B489" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1848</v>
-      </c>
       <c r="D489" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="E489" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C490" t="s">
         <v>1850</v>
       </c>
-      <c r="B490" t="s">
+      <c r="D490" t="s">
         <v>1851</v>
       </c>
-      <c r="C490" t="s">
+      <c r="E490" t="s">
         <v>1852</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E490" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C491" t="s">
         <v>1855</v>
       </c>
-      <c r="B491" t="s">
+      <c r="D491" t="s">
         <v>1856</v>
       </c>
-      <c r="C491" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1858</v>
-      </c>
       <c r="E491" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C492" t="s">
         <v>1859</v>
       </c>
-      <c r="B492" t="s">
+      <c r="D492" t="s">
         <v>1860</v>
       </c>
-      <c r="C492" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1862</v>
-      </c>
       <c r="E492" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C493" t="s">
         <v>1863</v>
       </c>
-      <c r="B493" t="s">
+      <c r="D493" t="s">
         <v>1864</v>
       </c>
-      <c r="C493" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D493" t="s">
-        <v>1866</v>
-      </c>
       <c r="E493" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C494" t="s">
         <v>1867</v>
       </c>
-      <c r="B494" t="s">
+      <c r="D494" t="s">
         <v>1868</v>
       </c>
-      <c r="C494" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1870</v>
-      </c>
       <c r="E494" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C495" t="s">
         <v>1871</v>
       </c>
-      <c r="B495" t="s">
+      <c r="D495" t="s">
         <v>1872</v>
       </c>
-      <c r="C495" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1874</v>
-      </c>
       <c r="E495" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C496" t="s">
         <v>1875</v>
       </c>
-      <c r="B496" t="s">
+      <c r="D496" t="s">
         <v>1876</v>
       </c>
-      <c r="C496" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1878</v>
-      </c>
       <c r="E496" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C497" t="s">
         <v>1879</v>
       </c>
-      <c r="B497" t="s">
+      <c r="D497" t="s">
         <v>1880</v>
       </c>
-      <c r="C497" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1882</v>
-      </c>
       <c r="E497" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C498" t="s">
         <v>1883</v>
       </c>
-      <c r="B498" t="s">
+      <c r="D498" t="s">
         <v>1884</v>
       </c>
-      <c r="C498" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1886</v>
-      </c>
       <c r="E498" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C499" t="s">
         <v>1887</v>
       </c>
-      <c r="B499" t="s">
+      <c r="D499" t="s">
         <v>1888</v>
       </c>
-      <c r="C499" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1890</v>
-      </c>
       <c r="E499" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C500" t="s">
         <v>1891</v>
       </c>
-      <c r="B500" t="s">
+      <c r="D500" t="s">
         <v>1892</v>
       </c>
-      <c r="C500" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1894</v>
-      </c>
       <c r="E500" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C501" t="s">
         <v>1895</v>
       </c>
-      <c r="B501" t="s">
+      <c r="D501" t="s">
         <v>1896</v>
       </c>
-      <c r="C501" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1898</v>
-      </c>
       <c r="E501" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C502" t="s">
         <v>1899</v>
       </c>
-      <c r="B502" t="s">
+      <c r="D502" t="s">
         <v>1900</v>
       </c>
-      <c r="C502" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1902</v>
-      </c>
       <c r="E502" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C503" t="s">
         <v>1903</v>
       </c>
-      <c r="B503" t="s">
+      <c r="D503" t="s">
         <v>1904</v>
       </c>
-      <c r="C503" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1906</v>
-      </c>
       <c r="E503" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C504" t="s">
         <v>1907</v>
       </c>
-      <c r="B504" t="s">
+      <c r="D504" t="s">
         <v>1908</v>
       </c>
-      <c r="C504" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1910</v>
-      </c>
       <c r="E504" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D505" t="s">
         <v>1916</v>
       </c>
-      <c r="B505" t="s">
+      <c r="E505" t="s">
         <v>1917</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C506" t="s">
         <v>1920</v>
       </c>
-      <c r="B506" t="s">
+      <c r="D506" t="s">
         <v>1921</v>
       </c>
-      <c r="C506" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1923</v>
-      </c>
       <c r="E506" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D507" t="s">
         <v>1924</v>
       </c>
-      <c r="B507" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1926</v>
-      </c>
       <c r="E507" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B508" t="s">
         <v>484</v>
       </c>
       <c r="C508" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D508" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="E508" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C509" t="s">
         <v>1930</v>
       </c>
-      <c r="B509" t="s">
+      <c r="D509" t="s">
         <v>1931</v>
       </c>
-      <c r="C509" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D509" t="s">
-        <v>1933</v>
-      </c>
       <c r="E509" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B510" t="s">
         <v>576</v>
       </c>
       <c r="C510" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D510" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E510" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D511" t="s">
         <v>1937</v>
       </c>
-      <c r="B511" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1939</v>
-      </c>
       <c r="E511" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D512" t="s">
         <v>1940</v>
       </c>
-      <c r="B512" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D512" t="s">
-        <v>1942</v>
-      </c>
       <c r="E512" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C513" t="s">
         <v>1943</v>
       </c>
-      <c r="B513" t="s">
+      <c r="D513" t="s">
         <v>1944</v>
       </c>
-      <c r="C513" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D513" t="s">
-        <v>1946</v>
-      </c>
       <c r="E513" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B514" t="s">
         <v>469</v>
       </c>
       <c r="C514" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D514" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="E514" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B515" t="s">
         <v>488</v>
       </c>
       <c r="C515" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D515" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="E515" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C516" t="s">
         <v>1953</v>
       </c>
-      <c r="B516" t="s">
+      <c r="D516" t="s">
         <v>1954</v>
       </c>
-      <c r="C516" t="s">
-        <v>1955</v>
-      </c>
-      <c r="D516" t="s">
-        <v>1956</v>
-      </c>
       <c r="E516" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C517" t="s">
         <v>1957</v>
       </c>
-      <c r="B517" t="s">
+      <c r="D517" t="s">
         <v>1958</v>
       </c>
-      <c r="C517" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D517" t="s">
-        <v>1960</v>
-      </c>
       <c r="E517" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -17557,89 +17871,89 @@
         <v>496</v>
       </c>
       <c r="B518" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D518" t="s">
         <v>1961</v>
       </c>
-      <c r="C518" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D518" t="s">
-        <v>1963</v>
-      </c>
       <c r="E518" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C519" t="s">
         <v>1964</v>
       </c>
-      <c r="B519" t="s">
+      <c r="D519" t="s">
         <v>1965</v>
       </c>
-      <c r="C519" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D519" t="s">
-        <v>1967</v>
-      </c>
       <c r="E519" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C520" t="s">
         <v>1968</v>
       </c>
-      <c r="B520" t="s">
+      <c r="D520" t="s">
         <v>1969</v>
       </c>
-      <c r="C520" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D520" t="s">
-        <v>1971</v>
-      </c>
       <c r="E520" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B521" t="s">
         <v>472</v>
       </c>
       <c r="C521" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D521" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E521" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C522" t="s">
         <v>1975</v>
       </c>
-      <c r="B522" t="s">
+      <c r="D522" t="s">
         <v>1976</v>
       </c>
-      <c r="C522" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D522" t="s">
-        <v>1978</v>
-      </c>
       <c r="E522" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B523" t="s">
         <v>374</v>
@@ -17648,27 +17962,27 @@
         <v>375</v>
       </c>
       <c r="D523" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E523" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C524" t="s">
         <v>1920</v>
       </c>
-      <c r="B524" t="s">
+      <c r="D524" t="s">
         <v>1921</v>
       </c>
-      <c r="C524" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D524" t="s">
-        <v>1923</v>
-      </c>
       <c r="E524" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -17676,1478 +17990,1478 @@
         <v>155</v>
       </c>
       <c r="B525" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E525" t="s">
         <v>1983</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D525" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B526" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C526" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D526" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E526" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D527" t="s">
         <v>1989</v>
       </c>
-      <c r="B527" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1991</v>
-      </c>
-      <c r="D527" t="s">
-        <v>1992</v>
-      </c>
       <c r="E527" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D528" t="s">
         <v>1993</v>
       </c>
-      <c r="B528" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D528" t="s">
-        <v>1996</v>
-      </c>
       <c r="E528" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B529" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C529" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D529" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E529" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B530" t="s">
-        <v>2001</v>
+        <v>2465</v>
       </c>
       <c r="C530" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D530" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="E530" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B531" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C531" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="D531" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E531" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B532" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C532" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D532" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E532" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B533" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C533" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D533" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E533" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C534" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E534" t="s">
         <v>2016</v>
-      </c>
-      <c r="B534" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C534" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D534" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E534" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B535" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C535" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D535" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E535" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B536" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C536" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="D536" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="E536" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B537" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C537" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="D537" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="E537" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B538" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="C538" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="D538" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="E538" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="B539" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="C539" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="D539" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="E539" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="B540" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="C540" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="D540" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="E540" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="B541" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C541" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="D541" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="E541" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="B542" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="C542" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="D542" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="E542" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="B543" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="C543" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="D543" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="E543" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="B544" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="C544" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="D544" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="E544" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="B545" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="C545" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="D545" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E545" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="B546" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="C546" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="D546" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="E546" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B547" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C547" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D547" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E547" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="B548" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="C548" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="D548" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E548" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="B549" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="C549" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="D549" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="E549" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="B550" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="C550" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="D550" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="E550" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="B551" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="C551" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D551" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E551" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="B552" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="C552" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="D552" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="E552" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="B553" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="C553" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D553" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="E553" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="B554" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="C554" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="D554" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="E554" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="B555" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="C555" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="D555" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="E555" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="B556" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="C556" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="D556" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="E556" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="B557" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="C557" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="D557" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="E557" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="B558" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="C558" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="D558" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="E558" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="B559" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="C559" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="D559" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="E559" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="B560" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="C560" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="D560" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="E560" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="B561" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="C561" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D561" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="E561" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C562" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D562" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E562" t="s">
         <v>2126</v>
-      </c>
-      <c r="B562" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C562" t="s">
-        <v>2128</v>
-      </c>
-      <c r="D562" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E562" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="B563" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="C563" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="D563" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="E563" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="B564" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="C564" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D564" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="E564" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="B565" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="C565" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="D565" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="E565" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="B566" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="C566" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="D566" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="E566" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="B567" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="C567" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="D567" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="E567" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="B568" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="C568" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="D568" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="E568" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="B569" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="C569" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="D569" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="E569" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="B570" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="C570" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="D570" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="E570" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="B571" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="C571" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="D571" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="E571" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="B572" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="C572" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="D572" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="E572" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="B573" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="C573" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="D573" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="E573" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="B574" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="C574" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="D574" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="E574" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="B575" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="C575" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="D575" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="E575" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="B576" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="C576" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="D576" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="E576" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="B577" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="C577" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="D577" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="E577" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="B578" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="C578" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="D578" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="E578" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="B579" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="C579" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="D579" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="E579" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="B580" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="C580" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="D580" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="E580" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="B581" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="C581" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="D581" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="E581" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="B582" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="C582" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="D582" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="E582" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="B583" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="C583" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="D583" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="E583" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="B584" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="C584" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="D584" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="E584" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="B585" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="C585" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="D585" t="s">
         <v>1362</v>
       </c>
       <c r="E585" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="B586" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="C586" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="D586" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="E586" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="B587" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="C587" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="D587" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="E587" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="B588" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="C588" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D588" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="E588" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="B589" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="C589" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="D589" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="E589" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B590" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D590" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E590" t="s">
         <v>2237</v>
-      </c>
-      <c r="B590" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C590" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D590" t="s">
-        <v>2240</v>
-      </c>
-      <c r="E590" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="B591" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="C591" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="D591" t="s">
         <v>209</v>
       </c>
       <c r="E591" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="B592" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="C592" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="D592" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="E592" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="B593" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="C593" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="D593" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="E593" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="B594" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="C594" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="D594" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="E594" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="B595" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C595" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="D595" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="E595" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="B596" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="C596" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D596" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="E596" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="B597" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="C597" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="D597" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="E597" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="B598" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="C598" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="D598" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="E598" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="B599" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="C599" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="D599" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="E599" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="B600" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="C600" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="D600" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="E600" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="B601" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="C601" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="D601" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="E601" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="B602" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="C602" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="D602" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="E602" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="B603" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C603" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="D603" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="E603" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B604" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C604" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="D604" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="E604" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="B605" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="C605" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D605" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="E605" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B606" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="C606" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="D606" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E606" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="B607" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C607" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="D607" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="E607" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B608" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C608" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="D608" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="E608" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B609" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="C609" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D609" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="E609" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="B610" t="s">
         <v>469</v>
       </c>
       <c r="C610" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="D610" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="E610" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="B611" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="C611" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="D611" t="s">
         <v>1024</v>
       </c>
       <c r="E611" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
@@ -19155,38 +19469,38 @@
         <v>136</v>
       </c>
       <c r="B612" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="C612" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="D612" t="s">
         <v>137</v>
       </c>
       <c r="E612" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B613" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C613" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D613" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E613" t="s">
         <v>2327</v>
-      </c>
-      <c r="B613" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C613" t="s">
-        <v>2329</v>
-      </c>
-      <c r="D613" t="s">
-        <v>2330</v>
-      </c>
-      <c r="E613" t="s">
-        <v>2331</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="B614" t="s">
         <v>391</v>
@@ -19195,10 +19509,10 @@
         <v>392</v>
       </c>
       <c r="D614" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="E614" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.2">
@@ -19209,13 +19523,13 @@
         <v>4</v>
       </c>
       <c r="C615" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="D615" t="s">
         <v>6</v>
       </c>
       <c r="E615" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
@@ -19229,10 +19543,10 @@
         <v>1088</v>
       </c>
       <c r="D616" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="E616" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -19243,13 +19557,13 @@
         <v>252</v>
       </c>
       <c r="C617" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="D617" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="E617" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
@@ -19260,13 +19574,13 @@
         <v>484</v>
       </c>
       <c r="C618" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="D618" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="E618" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
@@ -19277,64 +19591,64 @@
         <v>473</v>
       </c>
       <c r="C619" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="D619" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="E619" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B620" t="s">
         <v>576</v>
       </c>
       <c r="C620" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="D620" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E620" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B621" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C621" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D621" t="s">
         <v>1815</v>
       </c>
-      <c r="C621" t="s">
-        <v>2342</v>
-      </c>
-      <c r="D621" t="s">
-        <v>1817</v>
-      </c>
       <c r="E621" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="B622" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="C622" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="D622" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="E622" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
@@ -19345,13 +19659,13 @@
         <v>374</v>
       </c>
       <c r="C623" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="D623" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="E623" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
@@ -19359,33 +19673,33 @@
         <v>362</v>
       </c>
       <c r="B624" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="C624" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="D624" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="E624" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B625" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C625" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="D625" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E625" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
@@ -19396,30 +19710,30 @@
         <v>469</v>
       </c>
       <c r="C626" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="D626" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="E626" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B627" t="s">
         <v>488</v>
       </c>
       <c r="C627" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="D627" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="E627" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
@@ -19430,64 +19744,64 @@
         <v>480</v>
       </c>
       <c r="C628" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="D628" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E628" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B629" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="C629" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="D629" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="E629" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="B630" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="C630" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="D630" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="E630" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="B631" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="C631" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="D631" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="E631" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -19498,30 +19812,30 @@
         <v>584</v>
       </c>
       <c r="C632" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="D632" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="E632" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B633" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C633" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="D633" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="E633" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
@@ -19529,16 +19843,16 @@
         <v>422</v>
       </c>
       <c r="B634" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="C634" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="D634" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="E634" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
@@ -19549,81 +19863,81 @@
         <v>497</v>
       </c>
       <c r="C635" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="D635" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="E635" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="B636" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="C636" t="s">
         <v>455</v>
       </c>
       <c r="D636" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="E636" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B637" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C637" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="D637" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="E637" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="B638" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="C638" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="D638" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="E638" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="B639" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="C639" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="D639" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="E639" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
@@ -19631,33 +19945,33 @@
         <v>362</v>
       </c>
       <c r="B640" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="C640" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="D640" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="E640" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="B641" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="C641" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="D641" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="E641" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
@@ -19668,13 +19982,13 @@
         <v>484</v>
       </c>
       <c r="C642" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="D642" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E642" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.2">
@@ -19685,18 +19999,18 @@
         <v>473</v>
       </c>
       <c r="C643" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D643" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="E643" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B644" t="s">
         <v>576</v>
@@ -19705,10 +20019,10 @@
         <v>577</v>
       </c>
       <c r="D644" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="E644" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -19719,13 +20033,13 @@
         <v>480</v>
       </c>
       <c r="C645" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="D645" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="E645" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -19736,13 +20050,13 @@
         <v>469</v>
       </c>
       <c r="C646" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D646" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="E646" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -19750,33 +20064,33 @@
         <v>422</v>
       </c>
       <c r="B647" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="C647" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="D647" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="E647" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B648" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C648" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="D648" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="E648" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -19784,33 +20098,33 @@
         <v>187</v>
       </c>
       <c r="B649" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="C649" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="D649" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="E649" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B650" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C650" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="D650" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="E650" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
@@ -19824,27 +20138,27 @@
         <v>185</v>
       </c>
       <c r="D651" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="E651" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="B652" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C652" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D652" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="E652" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
@@ -19852,16 +20166,16 @@
         <v>221</v>
       </c>
       <c r="B653" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="C653" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="D653" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="E653" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
@@ -19869,21 +20183,21 @@
         <v>0</v>
       </c>
       <c r="B654" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="C654" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="D654" t="s">
         <v>2</v>
       </c>
       <c r="E654" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="B655" t="s">
         <v>598</v>
@@ -19892,27 +20206,27 @@
         <v>599</v>
       </c>
       <c r="D655" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="E655" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B656" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C656" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="D656" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="E656" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
@@ -19920,16 +20234,16 @@
         <v>1291</v>
       </c>
       <c r="B657" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="C657" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="D657" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="E657" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
@@ -19937,16 +20251,16 @@
         <v>202</v>
       </c>
       <c r="B658" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="C658" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="D658" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="E658" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
@@ -19957,18 +20271,18 @@
         <v>484</v>
       </c>
       <c r="C659" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="D659" t="s">
         <v>1024</v>
       </c>
       <c r="E659" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B660" t="s">
         <v>576</v>
@@ -19977,10 +20291,10 @@
         <v>577</v>
       </c>
       <c r="D660" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="E660" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
@@ -19991,13 +20305,13 @@
         <v>480</v>
       </c>
       <c r="C661" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="D661" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="E661" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
@@ -20008,13 +20322,13 @@
         <v>469</v>
       </c>
       <c r="C662" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="D662" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="E662" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
@@ -20025,30 +20339,30 @@
         <v>497</v>
       </c>
       <c r="C663" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="D663" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="E663" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="B664" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="C664" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="D664" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="E664" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
@@ -20059,13 +20373,13 @@
         <v>484</v>
       </c>
       <c r="C665" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="D665" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="E665" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
@@ -20076,13 +20390,13 @@
         <v>473</v>
       </c>
       <c r="C666" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="D666" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="E666" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -20090,67 +20404,67 @@
         <v>202</v>
       </c>
       <c r="B667" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="C667" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="D667" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E667" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B668" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C668" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="D668" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="E668" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B669" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C669" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="D669" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="E669" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B670" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C670" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="D670" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="E670" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
@@ -20158,16 +20472,16 @@
         <v>187</v>
       </c>
       <c r="B671" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="C671" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="D671" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="E671" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
@@ -20178,13 +20492,13 @@
         <v>469</v>
       </c>
       <c r="C672" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="D672" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="E672" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
@@ -20195,13 +20509,13 @@
         <v>497</v>
       </c>
       <c r="C673" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="D673" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="E673" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
@@ -20215,10 +20529,10 @@
         <v>185</v>
       </c>
       <c r="D674" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="E674" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
@@ -20226,16 +20540,662 @@
         <v>221</v>
       </c>
       <c r="B675" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="C675" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E675" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>155</v>
+      </c>
+      <c r="B676" t="s">
         <v>2459</v>
       </c>
-      <c r="D675" t="s">
-        <v>2460</v>
-      </c>
-      <c r="E675" t="s">
-        <v>2441</v>
+      <c r="C676" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E676" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>226</v>
+      </c>
+      <c r="B678" t="s">
+        <v>473</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E678" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B679" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C681" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E681" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>215</v>
+      </c>
+      <c r="B682" t="s">
+        <v>497</v>
+      </c>
+      <c r="C682" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E682" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C683" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E683" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>483</v>
+      </c>
+      <c r="B684" t="s">
+        <v>484</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E684" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>226</v>
+      </c>
+      <c r="B685" t="s">
+        <v>473</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E685" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B686" t="s">
+        <v>576</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E686" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>373</v>
+      </c>
+      <c r="B687" t="s">
+        <v>374</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E687" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E688" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>487</v>
+      </c>
+      <c r="B689" t="s">
+        <v>488</v>
+      </c>
+      <c r="C689" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E689" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E690" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>155</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C691" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E691" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>169</v>
+      </c>
+      <c r="B692" t="s">
+        <v>466</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D692" t="s">
+        <v>171</v>
+      </c>
+      <c r="E692" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>221</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E693" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B694" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E694" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>202</v>
+      </c>
+      <c r="B695" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C695" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E695" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>583</v>
+      </c>
+      <c r="B696" t="s">
+        <v>584</v>
+      </c>
+      <c r="C696" t="s">
+        <v>585</v>
+      </c>
+      <c r="D696" t="s">
+        <v>696</v>
+      </c>
+      <c r="E696" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B697" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C697" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E697" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>155</v>
+      </c>
+      <c r="B698" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E698" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B699" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C699" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E699" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C700" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E700" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B701" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C701" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E701" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B702" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C702" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E702" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B703" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C703" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D703" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E703" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B704" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C704" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E704" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B705" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C705" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D705" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E705" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B706" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C706" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E706" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B707" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C707" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D707" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E707" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B708" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D708" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E708" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B709" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C709" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D709" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E709" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B710" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C710" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E710" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B711" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C711" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D711" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B712" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C712" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B713" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C713" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D713" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1852</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB26873-3B60-409D-87A3-B0CC4234CBD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191F7F3-01A9-4D01-BB4C-18A7188B43D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="2567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="2651">
   <si>
     <t>百度网盘</t>
   </si>
@@ -8116,6 +8116,259 @@
   </si>
   <si>
     <t>ru.deishelon.lab.huaweithememanager.ui.activities.ThemesActivity</t>
+  </si>
+  <si>
+    <t>ColorOS社区</t>
+  </si>
+  <si>
+    <t>coloros_bbs</t>
+  </si>
+  <si>
+    <t>com.coloros.bbs</t>
+  </si>
+  <si>
+    <t>com.coloros.bbs.modules.main.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>OPPO短视频</t>
+  </si>
+  <si>
+    <t>coloros_yoli</t>
+  </si>
+  <si>
+    <t>com.coloros.yoli</t>
+  </si>
+  <si>
+    <t>com.coloros.yoli.maintab.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>OPPO会员中心</t>
+  </si>
+  <si>
+    <t>oppo_usercenter</t>
+  </si>
+  <si>
+    <t>com.oppo.usercenter</t>
+  </si>
+  <si>
+    <t>com.oppo.usercenter.vip.UCVIPMainActivity</t>
+  </si>
+  <si>
+    <t>OPPO全球上网</t>
+  </si>
+  <si>
+    <t>oppo_roaming</t>
+  </si>
+  <si>
+    <t>com.redteamobile.roaming</t>
+  </si>
+  <si>
+    <t>com.redteamobile.roaming.MainActivity</t>
+  </si>
+  <si>
+    <t>OPPO商城</t>
+  </si>
+  <si>
+    <t>oppo_store</t>
+  </si>
+  <si>
+    <t>com.oppo.store</t>
+  </si>
+  <si>
+    <t>com.oppo.store.InitActivity</t>
+  </si>
+  <si>
+    <t>OPPO社区</t>
+  </si>
+  <si>
+    <t>oppo_community</t>
+  </si>
+  <si>
+    <t>com.oppo.community</t>
+  </si>
+  <si>
+    <t>com.oppo.community.InitActivity</t>
+  </si>
+  <si>
+    <t>OPPO小游戏</t>
+  </si>
+  <si>
+    <t>coloros_play</t>
+  </si>
+  <si>
+    <t>com.nearme.play</t>
+  </si>
+  <si>
+    <t>com.nearme.play.module.others.launcher.LauncherActivity</t>
+  </si>
+  <si>
+    <t>OPPO游戏空间</t>
+  </si>
+  <si>
+    <t>coloros_gamespace</t>
+  </si>
+  <si>
+    <t>com.coloros.gamespace</t>
+  </si>
+  <si>
+    <t>com.coloros.gamespace.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>OPPO语音助手</t>
+  </si>
+  <si>
+    <t>coloros_speechassist</t>
+  </si>
+  <si>
+    <t>com.coloros.speechassist</t>
+  </si>
+  <si>
+    <t>com.coloros.speechassist.homepage.SpeechAssistMainActivity</t>
+  </si>
+  <si>
+    <t>OPPO远程助手</t>
+  </si>
+  <si>
+    <t>coloros_familyguard</t>
+  </si>
+  <si>
+    <t>com.coloros.familyguard</t>
+  </si>
+  <si>
+    <t>com.coloros.familyguard.FakeActivity</t>
+  </si>
+  <si>
+    <t>OPPO找回手机</t>
+  </si>
+  <si>
+    <t>coloros_findphone</t>
+  </si>
+  <si>
+    <t>com.coloros.findphone.client</t>
+  </si>
+  <si>
+    <t>OPPO智能家居</t>
+  </si>
+  <si>
+    <t>oppo_ohome</t>
+  </si>
+  <si>
+    <t>com.oppo.ohome</t>
+  </si>
+  <si>
+    <t>com.oppo.ohome.LaunchActivity</t>
+  </si>
+  <si>
+    <t>三星Max</t>
+  </si>
+  <si>
+    <t>samsung_max</t>
+  </si>
+  <si>
+    <t>com.opera.max.global</t>
+  </si>
+  <si>
+    <t>com.opera.max.ui.v2.MainActivity</t>
+  </si>
+  <si>
+    <t>三星安全文件夹</t>
+  </si>
+  <si>
+    <t>samsung_securefolder</t>
+  </si>
+  <si>
+    <t>com.samsung.knox.securefolder</t>
+  </si>
+  <si>
+    <t>com.samsung.knox.securefolder.switcher.SecureFolderShortcutActivity</t>
+  </si>
+  <si>
+    <t>三星单手操作</t>
+  </si>
+  <si>
+    <t>samsung_sidegesturepad</t>
+  </si>
+  <si>
+    <t>com.samsung.android.sidegesturepad</t>
+  </si>
+  <si>
+    <t>com.samsung.android.sidegesturepad.settings.SGPSettingsActivity</t>
+  </si>
+  <si>
+    <t>三星画板</t>
+  </si>
+  <si>
+    <t>samsung_smartcalli</t>
+  </si>
+  <si>
+    <t>com.samsung.smartcalli</t>
+  </si>
+  <si>
+    <t>com.samsung.smartcalli.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>三星游戏调节器</t>
+  </si>
+  <si>
+    <t>samsung_gametuner</t>
+  </si>
+  <si>
+    <t>com.samsung.android.gametuner.thin</t>
+  </si>
+  <si>
+    <t>com.samsung.android.gametuner.thin.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>三星语音助手</t>
+  </si>
+  <si>
+    <t>samsung_soundassistant</t>
+  </si>
+  <si>
+    <t>com.samsung.android.soundassistant</t>
+  </si>
+  <si>
+    <t>com.sec.android.soundassistant.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>三星支付</t>
+  </si>
+  <si>
+    <t>samsung_spay</t>
+  </si>
+  <si>
+    <t>com.samsung.android.spay</t>
+  </si>
+  <si>
+    <t>com.samsung.android.spay.ui.SpayMainActivity</t>
+  </si>
+  <si>
+    <t>三星智连</t>
+  </si>
+  <si>
+    <t>samsung_oneconnect</t>
+  </si>
+  <si>
+    <t>com.samsung.android.oneconnect</t>
+  </si>
+  <si>
+    <t>com.samsung.android.oneconnect.ui.SCMainActivity</t>
+  </si>
+  <si>
+    <t>无限绘画</t>
+  </si>
+  <si>
+    <t>brakefield_painter</t>
+  </si>
+  <si>
+    <t>com.brakefield.painter</t>
+  </si>
+  <si>
+    <t>com.brakefield.painter.activities.ActivityStartup</t>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9062,10 +9315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E713"/>
+  <dimension ref="A1:E734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A695" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C714" sqref="C714"/>
+    <sheetView tabSelected="1" topLeftCell="B716" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D736" sqref="D736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21198,6 +21451,363 @@
         <v>1852</v>
       </c>
     </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B714" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C714" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D714" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E714" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B715" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C715" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D715" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E715" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B716" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C716" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E716" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B717" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C717" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D717" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E717" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B718" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C718" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D718" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E718" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B719" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C719" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D719" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E719" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B720" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C720" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D720" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E720" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B721" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C721" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D721" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E721" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B722" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C722" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E722" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B723" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C723" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D723" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E723" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B724" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D724" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E724" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B725" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C725" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D725" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E725" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C726" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E726" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B727" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C727" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D727" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E727" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B728" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C728" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E728" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C729" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E729" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B730" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C730" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E730" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B731" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C731" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E731" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C732" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E732" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B733" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C733" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E733" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C734" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E734" t="s">
+        <v>2650</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E675" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191F7F3-01A9-4D01-BB4C-18A7188B43D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57237196-9D77-4849-87D9-EB16A2373B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="icon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$675</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$E$1:$E$676</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="2651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="2748">
   <si>
     <t>百度网盘</t>
   </si>
@@ -8368,6 +8368,299 @@
   </si>
   <si>
     <t>应用</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.stk.StkLauncherActivity2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.evenwell.fmradio</t>
+  </si>
+  <si>
+    <t>com.evenwell.fmradio.FMRadioActivity</t>
+  </si>
+  <si>
+    <t>com.uzero.baimiaog</t>
+  </si>
+  <si>
+    <t>com.evenwell.systemdashboard.mobileassistant</t>
+  </si>
+  <si>
+    <t>com.evenwell.systemdashboard.MainActivity</t>
+  </si>
+  <si>
+    <t>com.evenwell.weather</t>
+  </si>
+  <si>
+    <t>com.nbc.willcloud.athenasdk.views.LoadingActivity</t>
+  </si>
+  <si>
+    <t>tv.danmaku.bili.MainActivityV2</t>
+  </si>
+  <si>
+    <t>com.kingsoft.moffice_pro</t>
+  </si>
+  <si>
+    <t>cn.wps.moffice.documentmanager.PreStartActivity</t>
+  </si>
+  <si>
+    <t>com.huawei.android.FMRadio</t>
+  </si>
+  <si>
+    <t>com.huawei.android.FMRadio.FMRadioMainActivity</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.calendar.pro.activities.SplashActivity.Primary</t>
+  </si>
+  <si>
+    <t>org.mokee.snap</t>
+  </si>
+  <si>
+    <t>MX播放器</t>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.ad</t>
+  </si>
+  <si>
+    <t>com.mxtech.videoplayer.ad.ActivityMediaList</t>
+  </si>
+  <si>
+    <t>org.mokee.recorder</t>
+  </si>
+  <si>
+    <t>mark.via.gp</t>
+  </si>
+  <si>
+    <t>com.mi.android.globalFileexplorer</t>
+  </si>
+  <si>
+    <t>com.android.fileexplorer.FileExplorerTabActivity</t>
+  </si>
+  <si>
+    <t>com.htcmarket</t>
+  </si>
+  <si>
+    <t>com.tencent.assistant.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>com.htc.contacts</t>
+  </si>
+  <si>
+    <t>com.htc.contacts.BrowseLayerCarouselActivity</t>
+  </si>
+  <si>
+    <t>com.baidu.cloud</t>
+  </si>
+  <si>
+    <t>com.netease.mobimail.oneplus</t>
+  </si>
+  <si>
+    <t>一加</t>
+  </si>
+  <si>
+    <t>tencent_qqlive</t>
+  </si>
+  <si>
+    <t>com.tencent.qqlive</t>
+  </si>
+  <si>
+    <t>com.tencent.qqlive.ona.activity.SplashHomeActivity</t>
+  </si>
+  <si>
+    <t>Adaway</t>
+  </si>
+  <si>
+    <t>adaway</t>
+  </si>
+  <si>
+    <t>org.adaway.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>magisk manager</t>
+  </si>
+  <si>
+    <t>magisk</t>
+  </si>
+  <si>
+    <t>com.topjohnwu.magisk</t>
+  </si>
+  <si>
+    <t>a.c</t>
+  </si>
+  <si>
+    <t>gif助手</t>
+  </si>
+  <si>
+    <t>gifpaser</t>
+  </si>
+  <si>
+    <t>com.didikee.gifparser</t>
+  </si>
+  <si>
+    <t>android.didikee.gif.SplashActivity</t>
+  </si>
+  <si>
+    <t>照片编辑器</t>
+  </si>
+  <si>
+    <t>photo_editor</t>
+  </si>
+  <si>
+    <t>com.iudesk.android.photo.editor</t>
+  </si>
+  <si>
+    <t>app.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>图片拼接PPIICC</t>
+  </si>
+  <si>
+    <t>imagestitch</t>
+  </si>
+  <si>
+    <t>bos.consoar.imagestitch</t>
+  </si>
+  <si>
+    <t>bos.consoar.imagestitch.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>咪咕音乐</t>
+  </si>
+  <si>
+    <t>cmcc_music</t>
+  </si>
+  <si>
+    <t>cmccwm.mobilemusic</t>
+  </si>
+  <si>
+    <t>cmccwm.mobilemusic.ui.base.SplashActivity</t>
+  </si>
+  <si>
+    <t>通卡出行</t>
+  </si>
+  <si>
+    <t>busteanew</t>
+  </si>
+  <si>
+    <t>cn.com.busteanew</t>
+  </si>
+  <si>
+    <t>cn.com.busteanew.activity.Splash</t>
+  </si>
+  <si>
+    <t>太平洋电脑网</t>
+  </si>
+  <si>
+    <t>pconline</t>
+  </si>
+  <si>
+    <t>cn.com.pconline.android.browser</t>
+  </si>
+  <si>
+    <t>cn.com.pconline.android.browser.module.launcher.LauncherActivity</t>
+  </si>
+  <si>
+    <t>印象</t>
+  </si>
+  <si>
+    <t>poco_interphoto2</t>
+  </si>
+  <si>
+    <t>cn.poco.interphoto2</t>
+  </si>
+  <si>
+    <t>cn.poco.interphoto2.PocoCamera</t>
+  </si>
+  <si>
+    <t>Lightroom</t>
+  </si>
+  <si>
+    <t>lightroom</t>
+  </si>
+  <si>
+    <t>com.adobe.lrmobile</t>
+  </si>
+  <si>
+    <t>com.adobe.lrmobile.StorageCheckActivity</t>
+  </si>
+  <si>
+    <t>autodesk sketchbook</t>
+  </si>
+  <si>
+    <t>adsk_sketchbook</t>
+  </si>
+  <si>
+    <t>com.adsk.sketchbook.SketchBook</t>
+  </si>
+  <si>
+    <t>学习强国</t>
+  </si>
+  <si>
+    <t>xuexi</t>
+  </si>
+  <si>
+    <t>cn.xuexi.android</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>alibaba</t>
+  </si>
+  <si>
+    <t>com.alibaba.wireless</t>
+  </si>
+  <si>
+    <t>com.alibaba.wireless.launch.LauncherActivity</t>
+  </si>
+  <si>
+    <t>飞猪</t>
+  </si>
+  <si>
+    <t>taobao_trip</t>
+  </si>
+  <si>
+    <t>com.taobao.trip</t>
+  </si>
+  <si>
+    <t>AmpMe</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>com.amp.android</t>
+  </si>
+  <si>
+    <t>com.amp.android.ui.activity.LaunchActivity</t>
+  </si>
+  <si>
+    <t>谷歌音乐</t>
+  </si>
+  <si>
+    <t>google_music</t>
+  </si>
+  <si>
+    <t>com.google.android.music</t>
+  </si>
+  <si>
+    <t>com.android.music.activitymanagement.TopLevelActivity</t>
+  </si>
+  <si>
+    <t>apkpure</t>
+  </si>
+  <si>
+    <t>com.apkpure.aegon</t>
+  </si>
+  <si>
+    <t>com.apkpure.aegon.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.adsk.sketchbook</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -9315,10 +9608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E734"/>
+  <dimension ref="A1:E770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B716" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D736" sqref="D736"/>
+    <sheetView tabSelected="1" topLeftCell="A752" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C764" sqref="C764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20382,16 +20675,16 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>184</v>
+        <v>2065</v>
       </c>
       <c r="B651" t="s">
-        <v>472</v>
+        <v>1985</v>
       </c>
       <c r="C651" t="s">
-        <v>185</v>
+        <v>2406</v>
       </c>
       <c r="D651" t="s">
-        <v>2408</v>
+        <v>2651</v>
       </c>
       <c r="E651" t="s">
         <v>2391</v>
@@ -20399,16 +20692,16 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>2041</v>
+        <v>184</v>
       </c>
       <c r="B652" t="s">
-        <v>2042</v>
+        <v>472</v>
       </c>
       <c r="C652" t="s">
-        <v>2409</v>
+        <v>185</v>
       </c>
       <c r="D652" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E652" t="s">
         <v>2391</v>
@@ -20416,16 +20709,16 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>221</v>
+        <v>2041</v>
       </c>
       <c r="B653" t="s">
-        <v>2411</v>
+        <v>2042</v>
       </c>
       <c r="C653" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="D653" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="E653" t="s">
         <v>2391</v>
@@ -20433,33 +20726,33 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B654" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="C654" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="D654" t="s">
-        <v>2</v>
+        <v>2413</v>
       </c>
       <c r="E654" t="s">
-        <v>1852</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>2416</v>
+        <v>0</v>
       </c>
       <c r="B655" t="s">
-        <v>598</v>
+        <v>2414</v>
       </c>
       <c r="C655" t="s">
-        <v>599</v>
+        <v>2415</v>
       </c>
       <c r="D655" t="s">
-        <v>2417</v>
+        <v>2</v>
       </c>
       <c r="E655" t="s">
         <v>1852</v>
@@ -20467,67 +20760,67 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1990</v>
+        <v>2416</v>
       </c>
       <c r="B656" t="s">
-        <v>1991</v>
+        <v>598</v>
       </c>
       <c r="C656" t="s">
-        <v>2418</v>
+        <v>599</v>
       </c>
       <c r="D656" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="E656" t="s">
-        <v>2391</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1291</v>
+        <v>1990</v>
       </c>
       <c r="B657" t="s">
-        <v>2420</v>
+        <v>1991</v>
       </c>
       <c r="C657" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="D657" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="E657" t="s">
-        <v>1852</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>202</v>
+        <v>1291</v>
       </c>
       <c r="B658" t="s">
-        <v>2365</v>
+        <v>2420</v>
       </c>
       <c r="C658" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="D658" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="E658" t="s">
-        <v>2425</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>483</v>
+        <v>202</v>
       </c>
       <c r="B659" t="s">
-        <v>484</v>
+        <v>2365</v>
       </c>
       <c r="C659" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="D659" t="s">
-        <v>1024</v>
+        <v>2424</v>
       </c>
       <c r="E659" t="s">
         <v>2425</v>
@@ -20535,16 +20828,16 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1805</v>
+        <v>483</v>
       </c>
       <c r="B660" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="C660" t="s">
-        <v>577</v>
+        <v>2426</v>
       </c>
       <c r="D660" t="s">
-        <v>2396</v>
+        <v>1024</v>
       </c>
       <c r="E660" t="s">
         <v>2425</v>
@@ -20552,16 +20845,16 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>479</v>
+        <v>1805</v>
       </c>
       <c r="B661" t="s">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="C661" t="s">
-        <v>2427</v>
+        <v>577</v>
       </c>
       <c r="D661" t="s">
-        <v>2428</v>
+        <v>2396</v>
       </c>
       <c r="E661" t="s">
         <v>2425</v>
@@ -20569,16 +20862,16 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B662" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C662" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="D662" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="E662" t="s">
         <v>2425</v>
@@ -20586,16 +20879,16 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="B663" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C663" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="D663" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="E663" t="s">
         <v>2425</v>
@@ -20603,16 +20896,16 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>2360</v>
+        <v>215</v>
       </c>
       <c r="B664" t="s">
-        <v>2361</v>
+        <v>497</v>
       </c>
       <c r="C664" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="D664" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="E664" t="s">
         <v>2425</v>
@@ -20620,33 +20913,33 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>483</v>
+        <v>2360</v>
       </c>
       <c r="B665" t="s">
-        <v>484</v>
+        <v>2361</v>
       </c>
       <c r="C665" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="D665" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="E665" t="s">
-        <v>2437</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
       <c r="B666" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C666" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="D666" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="E666" t="s">
         <v>2437</v>
@@ -20654,16 +20947,16 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B667" t="s">
-        <v>2365</v>
+        <v>473</v>
       </c>
       <c r="C667" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="D667" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="E667" t="s">
         <v>2437</v>
@@ -20671,16 +20964,16 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1990</v>
+        <v>202</v>
       </c>
       <c r="B668" t="s">
-        <v>1991</v>
+        <v>2365</v>
       </c>
       <c r="C668" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="D668" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="E668" t="s">
         <v>2437</v>
@@ -20688,16 +20981,16 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="B669" t="s">
-        <v>2022</v>
+        <v>1991</v>
       </c>
       <c r="C669" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="D669" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="E669" t="s">
         <v>2437</v>
@@ -20705,16 +20998,16 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>2370</v>
+        <v>2021</v>
       </c>
       <c r="B670" t="s">
-        <v>2371</v>
+        <v>2022</v>
       </c>
       <c r="C670" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="D670" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E670" t="s">
         <v>2437</v>
@@ -20722,16 +21015,16 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>187</v>
+        <v>2370</v>
       </c>
       <c r="B671" t="s">
-        <v>2340</v>
+        <v>2371</v>
       </c>
       <c r="C671" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="D671" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="E671" t="s">
         <v>2437</v>
@@ -20739,16 +21032,16 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>468</v>
+        <v>187</v>
       </c>
       <c r="B672" t="s">
-        <v>469</v>
+        <v>2340</v>
       </c>
       <c r="C672" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="D672" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="E672" t="s">
         <v>2437</v>
@@ -20756,16 +21049,16 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="B673" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C673" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="D673" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="E673" t="s">
         <v>2437</v>
@@ -20773,16 +21066,16 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B674" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C674" t="s">
-        <v>185</v>
+        <v>2452</v>
       </c>
       <c r="D674" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E674" t="s">
         <v>2437</v>
@@ -20790,16 +21083,16 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B675" t="s">
-        <v>2411</v>
+        <v>472</v>
       </c>
       <c r="C675" t="s">
-        <v>2455</v>
+        <v>185</v>
       </c>
       <c r="D675" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E675" t="s">
         <v>2437</v>
@@ -20807,101 +21100,101 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B676" t="s">
-        <v>2459</v>
+        <v>2411</v>
       </c>
       <c r="C676" t="s">
-        <v>2466</v>
+        <v>2455</v>
       </c>
       <c r="D676" t="s">
-        <v>2467</v>
+        <v>2456</v>
       </c>
       <c r="E676" t="s">
-        <v>2016</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>2468</v>
+        <v>155</v>
       </c>
       <c r="B677" t="s">
-        <v>1763</v>
+        <v>2459</v>
       </c>
       <c r="C677" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="D677" t="s">
-        <v>1765</v>
+        <v>2467</v>
       </c>
       <c r="E677" t="s">
-        <v>1852</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>226</v>
+        <v>2468</v>
       </c>
       <c r="B678" t="s">
-        <v>473</v>
+        <v>1763</v>
       </c>
       <c r="C678" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D678" t="s">
-        <v>2471</v>
+        <v>1765</v>
       </c>
       <c r="E678" t="s">
-        <v>2472</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>2473</v>
+        <v>226</v>
       </c>
       <c r="B679" t="s">
-        <v>2473</v>
+        <v>473</v>
       </c>
       <c r="C679" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="D679" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="E679" t="s">
-        <v>1824</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="B680" t="s">
-        <v>1113</v>
+        <v>2473</v>
       </c>
       <c r="C680" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D680" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="E680" t="s">
-        <v>1852</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>2162</v>
+        <v>2476</v>
       </c>
       <c r="B681" t="s">
-        <v>2163</v>
+        <v>1113</v>
       </c>
       <c r="C681" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D681" t="s">
-        <v>2165</v>
+        <v>2478</v>
       </c>
       <c r="E681" t="s">
         <v>1852</v>
@@ -20909,33 +21202,33 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>215</v>
+        <v>2162</v>
       </c>
       <c r="B682" t="s">
-        <v>497</v>
+        <v>2163</v>
       </c>
       <c r="C682" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D682" t="s">
-        <v>2481</v>
+        <v>2165</v>
       </c>
       <c r="E682" t="s">
-        <v>2318</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1804</v>
+        <v>215</v>
       </c>
       <c r="B683" t="s">
-        <v>1813</v>
+        <v>497</v>
       </c>
       <c r="C683" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="D683" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="E683" t="s">
         <v>2318</v>
@@ -20943,16 +21236,16 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>483</v>
+        <v>1804</v>
       </c>
       <c r="B684" t="s">
-        <v>484</v>
+        <v>1813</v>
       </c>
       <c r="C684" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="D684" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="E684" t="s">
         <v>2318</v>
@@ -20960,16 +21253,16 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
       <c r="B685" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="C685" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="D685" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E685" t="s">
         <v>2318</v>
@@ -20977,16 +21270,16 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1805</v>
+        <v>226</v>
       </c>
       <c r="B686" t="s">
-        <v>576</v>
+        <v>473</v>
       </c>
       <c r="C686" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="D686" t="s">
-        <v>1819</v>
+        <v>2487</v>
       </c>
       <c r="E686" t="s">
         <v>2318</v>
@@ -20994,16 +21287,16 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>373</v>
+        <v>1805</v>
       </c>
       <c r="B687" t="s">
-        <v>374</v>
+        <v>576</v>
       </c>
       <c r="C687" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D687" t="s">
-        <v>2490</v>
+        <v>1819</v>
       </c>
       <c r="E687" t="s">
         <v>2318</v>
@@ -21011,16 +21304,16 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>2323</v>
+        <v>373</v>
       </c>
       <c r="B688" t="s">
-        <v>2324</v>
+        <v>374</v>
       </c>
       <c r="C688" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="D688" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="E688" t="s">
         <v>2318</v>
@@ -21028,16 +21321,16 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>487</v>
+        <v>2323</v>
       </c>
       <c r="B689" t="s">
-        <v>488</v>
+        <v>2324</v>
       </c>
       <c r="C689" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="D689" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="E689" t="s">
         <v>2318</v>
@@ -21045,16 +21338,16 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>2370</v>
+        <v>487</v>
       </c>
       <c r="B690" t="s">
-        <v>2371</v>
+        <v>488</v>
       </c>
       <c r="C690" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="D690" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="E690" t="s">
         <v>2318</v>
@@ -21062,16 +21355,16 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>155</v>
+        <v>2370</v>
       </c>
       <c r="B691" t="s">
-        <v>2497</v>
+        <v>2371</v>
       </c>
       <c r="C691" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="D691" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="E691" t="s">
         <v>2318</v>
@@ -21079,16 +21372,16 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B692" t="s">
-        <v>466</v>
+        <v>2497</v>
       </c>
       <c r="C692" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D692" t="s">
-        <v>171</v>
+        <v>2499</v>
       </c>
       <c r="E692" t="s">
         <v>2318</v>
@@ -21096,16 +21389,16 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="B693" t="s">
-        <v>2411</v>
+        <v>466</v>
       </c>
       <c r="C693" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D693" t="s">
-        <v>2502</v>
+        <v>171</v>
       </c>
       <c r="E693" t="s">
         <v>2318</v>
@@ -21113,16 +21406,16 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>2360</v>
+        <v>221</v>
       </c>
       <c r="B694" t="s">
-        <v>2361</v>
+        <v>2411</v>
       </c>
       <c r="C694" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D694" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="E694" t="s">
         <v>2318</v>
@@ -21130,16 +21423,16 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>202</v>
+        <v>2360</v>
       </c>
       <c r="B695" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="C695" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="D695" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="E695" t="s">
         <v>2318</v>
@@ -21147,16 +21440,16 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>583</v>
+        <v>202</v>
       </c>
       <c r="B696" t="s">
-        <v>584</v>
+        <v>2365</v>
       </c>
       <c r="C696" t="s">
-        <v>585</v>
+        <v>2505</v>
       </c>
       <c r="D696" t="s">
-        <v>696</v>
+        <v>2506</v>
       </c>
       <c r="E696" t="s">
         <v>2318</v>
@@ -21164,33 +21457,33 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>2507</v>
+        <v>583</v>
       </c>
       <c r="B697" t="s">
-        <v>2508</v>
+        <v>584</v>
       </c>
       <c r="C697" t="s">
-        <v>2509</v>
+        <v>585</v>
       </c>
       <c r="D697" t="s">
-        <v>2510</v>
+        <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>2391</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>155</v>
+        <v>2507</v>
       </c>
       <c r="B698" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="C698" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="D698" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="E698" t="s">
         <v>2391</v>
@@ -21198,16 +21491,16 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>2514</v>
+        <v>155</v>
       </c>
       <c r="B699" t="s">
-        <v>2463</v>
+        <v>2511</v>
       </c>
       <c r="C699" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="D699" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="E699" t="s">
         <v>2391</v>
@@ -21215,16 +21508,16 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="B700" t="s">
-        <v>2518</v>
+        <v>2463</v>
       </c>
       <c r="C700" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="D700" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="E700" t="s">
         <v>2391</v>
@@ -21232,16 +21525,16 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="B701" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="C701" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="D701" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="E701" t="s">
         <v>2391</v>
@@ -21249,16 +21542,16 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B702" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="C702" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="D702" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="E702" t="s">
         <v>2391</v>
@@ -21266,16 +21559,16 @@
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B703" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="C703" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="D703" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="E703" t="s">
         <v>2391</v>
@@ -21283,16 +21576,16 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="B704" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="C704" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="D704" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="E704" t="s">
         <v>2391</v>
@@ -21300,16 +21593,16 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>2053</v>
+        <v>2533</v>
       </c>
       <c r="B705" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="C705" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="D705" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E705" t="s">
         <v>2391</v>
@@ -21317,16 +21610,16 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>2007</v>
+        <v>2053</v>
       </c>
       <c r="B706" t="s">
-        <v>2461</v>
+        <v>2537</v>
       </c>
       <c r="C706" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="D706" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="E706" t="s">
         <v>2391</v>
@@ -21334,101 +21627,101 @@
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>2053</v>
+        <v>2007</v>
       </c>
       <c r="B707" t="s">
-        <v>2542</v>
+        <v>2461</v>
       </c>
       <c r="C707" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="D707" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="E707" t="s">
-        <v>2425</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>2545</v>
+        <v>2053</v>
       </c>
       <c r="B708" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="C708" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="D708" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="E708" t="s">
-        <v>2548</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="B709" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="C709" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
       <c r="D709" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
       <c r="E709" t="s">
-        <v>1852</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="B710" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C710" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="D710" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="E710" t="s">
-        <v>2391</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="B711" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="C711" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="D711" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="E711" t="s">
-        <v>1852</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="B712" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="C712" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="D712" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="E712" t="s">
         <v>1852</v>
@@ -21442,10 +21735,10 @@
         <v>2562</v>
       </c>
       <c r="C713" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D713" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="E713" t="s">
         <v>1852</v>
@@ -21453,33 +21746,33 @@
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>2567</v>
+        <v>2561</v>
       </c>
       <c r="B714" t="s">
-        <v>2568</v>
+        <v>2562</v>
       </c>
       <c r="C714" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="D714" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="E714" t="s">
-        <v>2437</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="B715" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="C715" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="D715" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="E715" t="s">
         <v>2437</v>
@@ -21487,16 +21780,16 @@
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="B716" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="C716" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="D716" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="E716" t="s">
         <v>2437</v>
@@ -21504,16 +21797,16 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="B717" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="C717" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="D717" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="E717" t="s">
         <v>2437</v>
@@ -21521,16 +21814,16 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="B718" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="C718" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="D718" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="E718" t="s">
         <v>2437</v>
@@ -21538,16 +21831,16 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="B719" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="C719" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="D719" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="E719" t="s">
         <v>2437</v>
@@ -21555,16 +21848,16 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B720" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="C720" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="D720" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="E720" t="s">
         <v>2437</v>
@@ -21572,16 +21865,16 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="B721" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="C721" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="D721" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="E721" t="s">
         <v>2437</v>
@@ -21589,16 +21882,16 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="B722" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="C722" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="D722" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="E722" t="s">
         <v>2437</v>
@@ -21606,16 +21899,16 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="B723" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="C723" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="D723" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="E723" t="s">
         <v>2437</v>
@@ -21623,16 +21916,16 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="B724" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="C724" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="D724" t="s">
-        <v>2445</v>
+        <v>2606</v>
       </c>
       <c r="E724" t="s">
         <v>2437</v>
@@ -21640,16 +21933,16 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="B725" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="C725" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="D725" t="s">
-        <v>2613</v>
+        <v>2445</v>
       </c>
       <c r="E725" t="s">
         <v>2437</v>
@@ -21657,33 +21950,33 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="B726" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="C726" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="D726" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="E726" t="s">
-        <v>2332</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="B727" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="C727" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="D727" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="E727" t="s">
         <v>2332</v>
@@ -21691,16 +21984,16 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="B728" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="C728" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="D728" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
       <c r="E728" t="s">
         <v>2332</v>
@@ -21708,16 +22001,16 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="B729" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="C729" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="D729" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="E729" t="s">
         <v>2332</v>
@@ -21725,16 +22018,16 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="B730" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="C730" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="D730" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="E730" t="s">
         <v>2332</v>
@@ -21742,16 +22035,16 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="B731" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="C731" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="D731" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="E731" t="s">
         <v>2332</v>
@@ -21759,16 +22052,16 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="B732" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="C732" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="D732" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="E732" t="s">
         <v>2332</v>
@@ -21776,16 +22069,16 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="B733" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="C733" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="D733" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="E733" t="s">
         <v>2332</v>
@@ -21793,23 +22086,635 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C734" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E734" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
         <v>2646</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B735" t="s">
         <v>2647</v>
       </c>
-      <c r="C734" t="s">
+      <c r="C735" t="s">
         <v>2648</v>
       </c>
-      <c r="D734" t="s">
+      <c r="D735" t="s">
         <v>2649</v>
       </c>
-      <c r="E734" t="s">
+      <c r="E735" t="s">
         <v>2650</v>
       </c>
     </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C736" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D736" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E736" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C737" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>187</v>
+      </c>
+      <c r="B738" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C738" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E738" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>221</v>
+      </c>
+      <c r="B739" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C739" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E739" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>3</v>
+      </c>
+      <c r="B740" t="s">
+        <v>4</v>
+      </c>
+      <c r="C740" t="s">
+        <v>5</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>85</v>
+      </c>
+      <c r="B741" t="s">
+        <v>86</v>
+      </c>
+      <c r="C741" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B742" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C742" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E742" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C743" t="s">
+        <v>325</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>483</v>
+      </c>
+      <c r="B744" t="s">
+        <v>484</v>
+      </c>
+      <c r="C744" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B745" t="s">
+        <v>391</v>
+      </c>
+      <c r="C745" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E745" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C746" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>71</v>
+      </c>
+      <c r="B747" t="s">
+        <v>72</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D747" t="s">
+        <v>74</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>479</v>
+      </c>
+      <c r="B748" t="s">
+        <v>480</v>
+      </c>
+      <c r="C748" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>362</v>
+      </c>
+      <c r="B749" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D749" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E749" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B750" t="s">
+        <v>576</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D750" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E750" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>0</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C751" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D751" t="s">
+        <v>2</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>373</v>
+      </c>
+      <c r="B752" t="s">
+        <v>374</v>
+      </c>
+      <c r="C752" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D752" t="s">
+        <v>542</v>
+      </c>
+      <c r="E752" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>70</v>
+      </c>
+      <c r="B753" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C753" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D753" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C754" t="s">
+        <v>737</v>
+      </c>
+      <c r="D754" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C755" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D755" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D756" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B758" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C759" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D759" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C760" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D760" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D761" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D762" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D763" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D765" t="s">
+        <v>836</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D766" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D767" t="s">
+        <v>558</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1852</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E675" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E676" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E78">
     <sortCondition ref="B2:B78"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57237196-9D77-4849-87D9-EB16A2373B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A826D0-6827-4039-BE35-88361B14282F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="2748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="2823">
   <si>
     <t>百度网盘</t>
   </si>
@@ -8662,6 +8662,231 @@
   <si>
     <t>com.adsk.sketchbook</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.danmaku.bilj</t>
+  </si>
+  <si>
+    <t>com.hicloud.android.clone</t>
+  </si>
+  <si>
+    <t>com.huawei.android.clone.activity.sender.ChooseRecevieSendActivity</t>
+  </si>
+  <si>
+    <t>com.android.soundrecorder</t>
+  </si>
+  <si>
+    <t>com.android.soundrecorder.RecordListActivity</t>
+  </si>
+  <si>
+    <t>tencent_translator</t>
+  </si>
+  <si>
+    <t>com.qb.qtranslator</t>
+  </si>
+  <si>
+    <t>com.qb.qtranslator.qactivity.SplashActivity</t>
+  </si>
+  <si>
+    <t>AudioFX</t>
+  </si>
+  <si>
+    <t>com.mokee.audiofx</t>
+  </si>
+  <si>
+    <t>com.mokee.audiofx.activity.ActivityMusic</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.calendar.pro</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.calendar.pro.activities.SplashActivity.Cyan</t>
+  </si>
+  <si>
+    <t>org.cyanogenmod.snap</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.gallery.pro</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.gallery.pro.activities.SplashActivity.Cyan</t>
+  </si>
+  <si>
+    <t>Via浏览器</t>
+  </si>
+  <si>
+    <t>zhuishushenqi</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqa</t>
+  </si>
+  <si>
+    <t>apkupdater</t>
+  </si>
+  <si>
+    <t>com.apkupdater</t>
+  </si>
+  <si>
+    <t>com.apkupdater.activity.MainActivity_</t>
+  </si>
+  <si>
+    <t>Apple Music</t>
+  </si>
+  <si>
+    <t>apple_music</t>
+  </si>
+  <si>
+    <t>com.apple.android.music</t>
+  </si>
+  <si>
+    <t>com.apple.android.music.onboarding.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>微软验证器</t>
+  </si>
+  <si>
+    <t>microsoft_authenticator</t>
+  </si>
+  <si>
+    <t>com.azure.authenticator</t>
+  </si>
+  <si>
+    <t>com.azure.authenticator.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>EyeEm</t>
+  </si>
+  <si>
+    <t>eyeem</t>
+  </si>
+  <si>
+    <t>com.baseapp.eyeem</t>
+  </si>
+  <si>
+    <t>com.baseapp.eyeem.Start</t>
+  </si>
+  <si>
+    <t>BitMoji</t>
+  </si>
+  <si>
+    <t>imoji</t>
+  </si>
+  <si>
+    <t>com.bitstrips.imoji</t>
+  </si>
+  <si>
+    <t>com.bitstrips.imoji.ui.LandingActivity</t>
+  </si>
+  <si>
+    <t>一闪</t>
+  </si>
+  <si>
+    <t>onetake</t>
+  </si>
+  <si>
+    <t>com.blink.academy.onetake</t>
+  </si>
+  <si>
+    <t>com.blink.academy.onetake.ui.activity.main.EmptySplashActivity</t>
+  </si>
+  <si>
+    <t>条码生成器</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>com.blogspot.aeioulabs.barcode</t>
+  </si>
+  <si>
+    <t>com.blogspot.aeioulabs.barcode.ui.list.CodeListActivity_</t>
+  </si>
+  <si>
+    <t>bridge桥图标包</t>
+  </si>
+  <si>
+    <t>bridge_iconpack</t>
+  </si>
+  <si>
+    <t>com.bridge.iconpack.concision</t>
+  </si>
+  <si>
+    <t>com.bridge.iconpack.concision.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>最美应用</t>
+  </si>
+  <si>
+    <t>niceapp</t>
+  </si>
+  <si>
+    <t>com.brixd.niceapp</t>
+  </si>
+  <si>
+    <t>com.brixd.niceapp.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>Aeroblast图标包</t>
+  </si>
+  <si>
+    <t>aeroblast_iconpack</t>
+  </si>
+  <si>
+    <t>com.markusslugia.iconpack.aeroblast</t>
+  </si>
+  <si>
+    <t>com.by_syk.lib.nanoiconpack.MainActivity</t>
+  </si>
+  <si>
+    <t>Bar图标包</t>
+  </si>
+  <si>
+    <t>bar_iconpack</t>
+  </si>
+  <si>
+    <t>com.bar.iconpack</t>
+  </si>
+  <si>
+    <t>CircleMi图标包</t>
+  </si>
+  <si>
+    <t>circlemi_iconpack</t>
+  </si>
+  <si>
+    <t>com.ltopro.circlemi</t>
+  </si>
+  <si>
+    <t>lineicons图标包2</t>
+  </si>
+  <si>
+    <t>lineicons2_iconpack</t>
+  </si>
+  <si>
+    <t>com.crazypig321.lineicons2</t>
+  </si>
+  <si>
+    <t>彩云小译</t>
+  </si>
+  <si>
+    <t>caiyun_interpreter</t>
+  </si>
+  <si>
+    <t>com.caiyuninterpreter.activity</t>
+  </si>
+  <si>
+    <t>com.caiyuninterpreter.activity.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>图凌</t>
+  </si>
+  <si>
+    <t>cwallpaper</t>
+  </si>
+  <si>
+    <t>com.chan.cwallpaper</t>
+  </si>
+  <si>
+    <t>com.chan.cwallpaper.module.launch.LaunchActivity</t>
   </si>
 </sst>
 </file>
@@ -9608,10 +9833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E770"/>
+  <dimension ref="A1:E796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A752" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C764" sqref="C764"/>
+    <sheetView tabSelected="1" topLeftCell="A776" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C795" sqref="C795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22713,6 +22938,448 @@
         <v>1852</v>
       </c>
     </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>169</v>
+      </c>
+      <c r="B771" t="s">
+        <v>466</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E771" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>3</v>
+      </c>
+      <c r="B772" t="s">
+        <v>4</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D772" t="s">
+        <v>6</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>215</v>
+      </c>
+      <c r="B774" t="s">
+        <v>497</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E774" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>61</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>483</v>
+      </c>
+      <c r="B778" t="s">
+        <v>484</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>468</v>
+      </c>
+      <c r="B779" t="s">
+        <v>469</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B780" t="s">
+        <v>72</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D780" t="s">
+        <v>74</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>945</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D781" t="s">
+        <v>948</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2773</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D786" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1852</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E676" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A826D0-6827-4039-BE35-88361B14282F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C04893-5958-4E26-A4C7-F921D68113AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="2933">
   <si>
     <t>百度网盘</t>
   </si>
@@ -8887,6 +8887,339 @@
   </si>
   <si>
     <t>com.chan.cwallpaper.module.launch.LaunchActivity</t>
+  </si>
+  <si>
+    <t>huya</t>
+  </si>
+  <si>
+    <t>com.huya.kiwi</t>
+  </si>
+  <si>
+    <t>com.miui.fm</t>
+  </si>
+  <si>
+    <t>com.miui.fmradio.FmActivity</t>
+  </si>
+  <si>
+    <t>Tik Tok</t>
+  </si>
+  <si>
+    <t>tiktok</t>
+  </si>
+  <si>
+    <t>com.zhiliaoapp.musically</t>
+  </si>
+  <si>
+    <t>com.autonavi.map.activity.NewMapActivity</t>
+  </si>
+  <si>
+    <t>com.estrongs.android.pop</t>
+  </si>
+  <si>
+    <t>com.estrongs.android.pop.view.FileExplorerActivity</t>
+  </si>
+  <si>
+    <t>com.happyelements.android.platform.oppo.ads.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.iflytek.inputmethod.google</t>
+  </si>
+  <si>
+    <t>全能扫描王完整版</t>
+  </si>
+  <si>
+    <t>com.intsig.lic.camscanner</t>
+  </si>
+  <si>
+    <t>com.intsig.lic.camscanner.CamScannerLicense</t>
+  </si>
+  <si>
+    <t>Auto JS</t>
+  </si>
+  <si>
+    <t>org.autojs.autojs</t>
+  </si>
+  <si>
+    <t>org.autojs.autojs.ui.splash.SplashActivity_</t>
+  </si>
+  <si>
+    <t>com.mojang.minecraftpe</t>
+  </si>
+  <si>
+    <t>SD女佣专业版</t>
+  </si>
+  <si>
+    <t>eu.thedarken.sdm.unlocker</t>
+  </si>
+  <si>
+    <t>eu.thedarken.sdm.unlocker.MainActivity</t>
+  </si>
+  <si>
+    <t>yuanqiqishi.game.huawei</t>
+  </si>
+  <si>
+    <t>com.chillyroomsdk.huaweihms.MainActivity</t>
+  </si>
+  <si>
+    <t>ccplay.cc.a.InitActivity</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>com.github.shadowsocksd</t>
+  </si>
+  <si>
+    <t>com.sankuai.meituan.activity.PreloadedWelcome</t>
+  </si>
+  <si>
+    <t>QQ飞车前瞻版</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.speedmobileEx</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.speedmobileEx.speedmobileEx</t>
+  </si>
+  <si>
+    <t>com.android.bbkcalculator</t>
+  </si>
+  <si>
+    <t>com.android.bbkcalculator.Calculator</t>
+  </si>
+  <si>
+    <t>com.bbk.calendar</t>
+  </si>
+  <si>
+    <t>com.bbk.calendar.MainActivity</t>
+  </si>
+  <si>
+    <t>com.android.camera</t>
+  </si>
+  <si>
+    <t>com.android.camera.CameraActivity</t>
+  </si>
+  <si>
+    <t>com.android.BBKClock</t>
+  </si>
+  <si>
+    <t>com.android.BBKClock.Timer</t>
+  </si>
+  <si>
+    <t>com.vivo.browser</t>
+  </si>
+  <si>
+    <t>com.vivo.browser.BrowserActivity</t>
+  </si>
+  <si>
+    <t>com.vivo.gallery</t>
+  </si>
+  <si>
+    <t>com.android.gallery3d.vivo.GalleryTabActivity</t>
+  </si>
+  <si>
+    <t>com.vivo.compass</t>
+  </si>
+  <si>
+    <t>com.vivo.compass.CalibrationActivity</t>
+  </si>
+  <si>
+    <t>com.android.contacts.DialtactsContactsEntryActivity</t>
+  </si>
+  <si>
+    <t>com.vivo.email</t>
+  </si>
+  <si>
+    <t>com.vivo.email.activity.Welcome</t>
+  </si>
+  <si>
+    <t>com.android.filemanager</t>
+  </si>
+  <si>
+    <t>com.android.filemanager.FileManagerActivity</t>
+  </si>
+  <si>
+    <t>com.google.android.GoogleCameraNext</t>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yyw.fastbrowser</t>
+  </si>
+  <si>
+    <t>yyw_browser</t>
+  </si>
+  <si>
+    <t>115浏览器</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.authenticator.AuthenticatorActivity</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.authenticator2</t>
+  </si>
+  <si>
+    <t>google_authenticator</t>
+  </si>
+  <si>
+    <t>谷歌验证器</t>
+  </si>
+  <si>
+    <t>com.gombosdev.ampere.MainActivity</t>
+  </si>
+  <si>
+    <t>com.gombosdev.ampere</t>
+  </si>
+  <si>
+    <t>ampere</t>
+  </si>
+  <si>
+    <t>充电评测</t>
+  </si>
+  <si>
+    <t>com.foundao.bjnews.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.foundao.bjnews</t>
+  </si>
+  <si>
+    <t>bjnews</t>
+  </si>
+  <si>
+    <t>新京报</t>
+  </si>
+  <si>
+    <t>com.fivehundredpx.viewer.main.RootActivity</t>
+  </si>
+  <si>
+    <t>com.fivehundredpx.viewer.main</t>
+  </si>
+  <si>
+    <t>fivehundredpx</t>
+  </si>
+  <si>
+    <t>500px中国版</t>
+  </si>
+  <si>
+    <t>com.fb.fluid.ActivityMain</t>
+  </si>
+  <si>
+    <t>com.fb.fluid</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>com.excean.gspace</t>
+  </si>
+  <si>
+    <t>gspace</t>
+  </si>
+  <si>
+    <t>谷歌空间</t>
+  </si>
+  <si>
+    <t>com.everimaging.fotor.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.everimaging.photoeffectstudio</t>
+  </si>
+  <si>
+    <t>fotor</t>
+  </si>
+  <si>
+    <t>Fotor照片编辑器</t>
+  </si>
+  <si>
+    <t>com.enjoymeet.live.liveshow.ui.startup.activity.LaunchRouterActivity</t>
+  </si>
+  <si>
+    <t>com.enjoymeet.aloapp</t>
+  </si>
+  <si>
+    <t>aloha</t>
+  </si>
+  <si>
+    <t>com.dongqiudi.news.BaseSplashActivity</t>
+  </si>
+  <si>
+    <t>com.dongqiudi.news</t>
+  </si>
+  <si>
+    <t>dongqiudi</t>
+  </si>
+  <si>
+    <t>懂球帝</t>
+  </si>
+  <si>
+    <t>com.digibites.abatterysaver.BatterySaverActivity</t>
+  </si>
+  <si>
+    <t>com.digibites.accubattery</t>
+  </si>
+  <si>
+    <t>accubattery</t>
+  </si>
+  <si>
+    <t>accu精准电量</t>
+  </si>
+  <si>
+    <t>com.csdroid.pkg.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>com.csdroid.pkg</t>
+  </si>
+  <si>
+    <t>pkg</t>
+  </si>
+  <si>
+    <t>包名查看器2.0</t>
+  </si>
+  <si>
+    <t>com.clover.myweather.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>com.clover.myweather</t>
+  </si>
+  <si>
+    <t>myweather</t>
+  </si>
+  <si>
+    <t>我的天气</t>
+  </si>
+  <si>
+    <t>com.chinatelecom.bestpayclient.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.chinatelecom.bestpayclient</t>
+  </si>
+  <si>
+    <t>bestpay</t>
+  </si>
+  <si>
+    <t>翼支付</t>
+  </si>
+  <si>
+    <t>com.chaoxing.mobile.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.chaoxing.mobile</t>
+  </si>
+  <si>
+    <t>xuexitong</t>
+  </si>
+  <si>
+    <t>学习通</t>
+  </si>
+  <si>
+    <t>cn.com.bjnews.android</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bjnews.cn.Welcome</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9833,10 +10166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E796"/>
+  <dimension ref="A1:E840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A776" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C795" sqref="C795"/>
+    <sheetView tabSelected="1" topLeftCell="A818" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C833" sqref="C833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23380,6 +23713,754 @@
         <v>1852</v>
       </c>
     </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D798" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D799" t="s">
+        <v>960</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>517</v>
+      </c>
+      <c r="B800" t="s">
+        <v>518</v>
+      </c>
+      <c r="C800" t="s">
+        <v>519</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>719</v>
+      </c>
+      <c r="B801" t="s">
+        <v>720</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>673</v>
+      </c>
+      <c r="B803" t="s">
+        <v>674</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D803" t="s">
+        <v>676</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D805" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B807" t="s">
+        <v>576</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D807" t="s">
+        <v>171</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B808" t="s">
+        <v>728</v>
+      </c>
+      <c r="C808" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D808" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C809" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D809" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E809" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D810" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E810" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B811" t="s">
+        <v>629</v>
+      </c>
+      <c r="C811" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D811" t="s">
+        <v>631</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C812" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D812" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C813" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D813" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E813" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>219</v>
+      </c>
+      <c r="B814" t="s">
+        <v>252</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D814" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E814" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C815" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D815" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E815" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>483</v>
+      </c>
+      <c r="B816" t="s">
+        <v>484</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D816" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E816" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>226</v>
+      </c>
+      <c r="B817" t="s">
+        <v>473</v>
+      </c>
+      <c r="C817" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D817" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E817" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>583</v>
+      </c>
+      <c r="B818" t="s">
+        <v>584</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D818" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E818" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>468</v>
+      </c>
+      <c r="B819" t="s">
+        <v>469</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D819" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E819" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D820" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E820" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B821" t="s">
+        <v>576</v>
+      </c>
+      <c r="C821" t="s">
+        <v>577</v>
+      </c>
+      <c r="D821" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E821" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>373</v>
+      </c>
+      <c r="B822" t="s">
+        <v>374</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D822" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E822" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>479</v>
+      </c>
+      <c r="B823" t="s">
+        <v>480</v>
+      </c>
+      <c r="C823" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D823" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E823" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D825" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D826" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D827" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C828" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D828" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C829" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D829" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D830" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C831" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D831" t="s">
+        <v>2904</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C832" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D832" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C833" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D834" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C835" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D835" t="s">
+        <v>2890</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C836" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D836" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C837" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D837" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D838" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C839" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D839" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D840" t="s">
+        <v>696</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1852</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E676" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycs\Documents\mistiness-iconpack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AB427-6BEB-4EB5-AA64-1D074C3DE6AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83898809-6E4F-4FC0-8038-DFBD6EDF3DB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="3028">
   <si>
     <t>百度网盘</t>
   </si>
@@ -6351,9 +6351,6 @@
   </si>
   <si>
     <t>用户反馈</t>
-  </si>
-  <si>
-    <t>bugreport</t>
   </si>
   <si>
     <t>com.miui.bugreport</t>
@@ -9220,6 +9217,364 @@
   <si>
     <t>moonreader</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>recorder</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kunfei.bookshelf.view.activity.WelcomeBookActivity</t>
+  </si>
+  <si>
+    <t>500px</t>
+  </si>
+  <si>
+    <t>com.fivehundredpx.viewer</t>
+  </si>
+  <si>
+    <t>镧工具箱</t>
+  </si>
+  <si>
+    <t>xzr.La.systemtoolbox</t>
+  </si>
+  <si>
+    <t>xzr.La.systemtoolbox.ui.activities.StartActivity</t>
+  </si>
+  <si>
+    <t>追书神器免费版</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi.adfree</t>
+  </si>
+  <si>
+    <t>com.oneplus.opbugreport</t>
+  </si>
+  <si>
+    <t>com.oneplus.opbugreport.OPUploadReport</t>
+  </si>
+  <si>
+    <t>com.miHoYo.bh3.nearme.gamecenter</t>
+  </si>
+  <si>
+    <t>com.miHoYo.bh3.nearme.gamecenter.OppoSDKUtils</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.gallery.pro.activities.SplashActivity.Primary</t>
+  </si>
+  <si>
+    <t>org.mokee.lawnchair</t>
+  </si>
+  <si>
+    <t>com.simplemobiletools.gallery.pro.activities.SplashActivity.Orange</t>
+  </si>
+  <si>
+    <t>adm_pro</t>
+  </si>
+  <si>
+    <t>com.dv.get.Main</t>
+  </si>
+  <si>
+    <t>com.miHoYo.bh3.mi</t>
+  </si>
+  <si>
+    <t>com.miHoYo.overridenativeactivity.OverrideNativeActivity</t>
+  </si>
+  <si>
+    <t>com.miHoYo.enterprise.NGHSoD</t>
+  </si>
+  <si>
+    <t>谷歌健康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_fitness</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.fitness</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.fitness.welcome.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_files</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.nbu.files</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.nbu.files.home.HomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶囊便签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigidea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.goyourfly.bigidea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.goyourfly.bigidea.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gramgames.tenten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gramgames.activity.UnityPlayerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>clockwork</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.guowan.clockwork</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.guowan.clockwork.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E绅士阅读器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehviewer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hippo.ehviewer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hippo.ehviewer.ui.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩范出行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>morefan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hxcx.morefun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hxcx.morefun.splash_guide.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚有声</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iflytek_readassistant</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.iflytek.readassistant</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.iflytek.readassistant.ui.JumpActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞有声</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.iflytek.readassistant.biz.home.JumpActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutisan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.imuuzi.cutisan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.imuuzi.cutisan.activity.FirstActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>instagram</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.instagram.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.instagram.android.activity.MainTabActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装器+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>installer_plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.installer.plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.installer.plus.activity.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简桌面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeejen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jeejen.family</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jeejen.home.launcher.Launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴答音乐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dida</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.joe.dida</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.joe.dida.activity.LoginActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>holi天气</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>holi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.joe.holi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.joe.holi.ui.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小爱音箱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_mico</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaomi.mico</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaomi.mico.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米社区</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_bbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaomi.bbs</t>
+  </si>
+  <si>
+    <t>com.xiaomi.bbs.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>小米直播</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_live</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wali.live</t>
+  </si>
+  <si>
+    <t>com.wali.live.main.LiveMainActivity</t>
+  </si>
+  <si>
+    <t>我的小米</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaomi_vipaccount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaomi.vipaccount</t>
+  </si>
+  <si>
+    <t>com.xiaomi.vipaccount.ui.home.dynamic.HomeFrameActivity</t>
   </si>
 </sst>
 </file>
@@ -10166,10 +10521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E840"/>
+  <dimension ref="A1:E871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A855" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B862" sqref="B862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11291,7 +11646,7 @@
         <v>204</v>
       </c>
       <c r="B66" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C66" t="s">
         <v>300</v>
@@ -12158,7 +12513,7 @@
         <v>450</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>451</v>
@@ -14232,7 +14587,7 @@
         <v>898</v>
       </c>
       <c r="B239" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="C239" t="s">
         <v>899</v>
@@ -16380,7 +16735,7 @@
         <v>1393</v>
       </c>
       <c r="D365" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E365" t="s">
         <v>1789</v>
@@ -19094,7 +19449,7 @@
         <v>155</v>
       </c>
       <c r="B525" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C525" t="s">
         <v>1980</v>
@@ -19128,13 +19483,13 @@
         <v>1985</v>
       </c>
       <c r="B527" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C527" t="s">
         <v>1986</v>
       </c>
-      <c r="C527" t="s">
+      <c r="D527" t="s">
         <v>1987</v>
-      </c>
-      <c r="D527" t="s">
-        <v>1988</v>
       </c>
       <c r="E527" t="s">
         <v>1982</v>
@@ -19142,16 +19497,16 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B528" t="s">
         <v>1989</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>1990</v>
       </c>
-      <c r="C528" t="s">
+      <c r="D528" t="s">
         <v>1991</v>
-      </c>
-      <c r="D528" t="s">
-        <v>1992</v>
       </c>
       <c r="E528" t="s">
         <v>1982</v>
@@ -19159,16 +19514,16 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B529" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C529" t="s">
         <v>1993</v>
       </c>
-      <c r="B529" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C529" t="s">
+      <c r="D529" t="s">
         <v>1994</v>
-      </c>
-      <c r="D529" t="s">
-        <v>1995</v>
       </c>
       <c r="E529" t="s">
         <v>1982</v>
@@ -19176,16 +19531,16 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B530" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D530" t="s">
         <v>1996</v>
-      </c>
-      <c r="B530" t="s">
-        <v>2464</v>
-      </c>
-      <c r="C530" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D530" t="s">
-        <v>1997</v>
       </c>
       <c r="E530" t="s">
         <v>1982</v>
@@ -19193,16 +19548,16 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B531" t="s">
         <v>1998</v>
       </c>
-      <c r="B531" t="s">
+      <c r="C531" t="s">
         <v>1999</v>
       </c>
-      <c r="C531" t="s">
+      <c r="D531" t="s">
         <v>2000</v>
-      </c>
-      <c r="D531" t="s">
-        <v>2001</v>
       </c>
       <c r="E531" t="s">
         <v>1982</v>
@@ -19210,16 +19565,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B532" t="s">
         <v>2002</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C532" t="s">
         <v>2003</v>
       </c>
-      <c r="C532" t="s">
+      <c r="D532" t="s">
         <v>2004</v>
-      </c>
-      <c r="D532" t="s">
-        <v>2005</v>
       </c>
       <c r="E532" t="s">
         <v>1982</v>
@@ -19227,16 +19582,16 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B533" t="s">
         <v>2006</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>2007</v>
       </c>
-      <c r="C533" t="s">
+      <c r="D533" t="s">
         <v>2008</v>
-      </c>
-      <c r="D533" t="s">
-        <v>2009</v>
       </c>
       <c r="E533" t="s">
         <v>1982</v>
@@ -19244,228 +19599,228 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B534" t="s">
         <v>2011</v>
       </c>
-      <c r="B534" t="s">
+      <c r="C534" t="s">
         <v>2012</v>
       </c>
-      <c r="C534" t="s">
+      <c r="D534" t="s">
         <v>2013</v>
       </c>
-      <c r="D534" t="s">
+      <c r="E534" t="s">
         <v>2014</v>
-      </c>
-      <c r="E534" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B535" t="s">
         <v>2016</v>
       </c>
-      <c r="B535" t="s">
+      <c r="C535" t="s">
         <v>2017</v>
       </c>
-      <c r="C535" t="s">
+      <c r="D535" t="s">
         <v>2018</v>
       </c>
-      <c r="D535" t="s">
-        <v>2019</v>
-      </c>
       <c r="E535" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B536" t="s">
         <v>2020</v>
       </c>
-      <c r="B536" t="s">
+      <c r="C536" t="s">
         <v>2021</v>
       </c>
-      <c r="C536" t="s">
+      <c r="D536" t="s">
         <v>2022</v>
       </c>
-      <c r="D536" t="s">
-        <v>2023</v>
-      </c>
       <c r="E536" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B537" t="s">
         <v>2024</v>
       </c>
-      <c r="B537" t="s">
+      <c r="C537" t="s">
         <v>2025</v>
       </c>
-      <c r="C537" t="s">
+      <c r="D537" t="s">
         <v>2026</v>
       </c>
-      <c r="D537" t="s">
-        <v>2027</v>
-      </c>
       <c r="E537" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B538" t="s">
         <v>2028</v>
       </c>
-      <c r="B538" t="s">
+      <c r="C538" t="s">
         <v>2029</v>
       </c>
-      <c r="C538" t="s">
+      <c r="D538" t="s">
         <v>2030</v>
       </c>
-      <c r="D538" t="s">
-        <v>2031</v>
-      </c>
       <c r="E538" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B539" t="s">
         <v>2032</v>
       </c>
-      <c r="B539" t="s">
+      <c r="C539" t="s">
         <v>2033</v>
       </c>
-      <c r="C539" t="s">
+      <c r="D539" t="s">
         <v>2034</v>
       </c>
-      <c r="D539" t="s">
-        <v>2035</v>
-      </c>
       <c r="E539" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B540" t="s">
         <v>2036</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>2037</v>
       </c>
-      <c r="C540" t="s">
+      <c r="D540" t="s">
         <v>2038</v>
       </c>
-      <c r="D540" t="s">
-        <v>2039</v>
-      </c>
       <c r="E540" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B541" t="s">
         <v>2040</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>2041</v>
       </c>
-      <c r="C541" t="s">
+      <c r="D541" t="s">
         <v>2042</v>
       </c>
-      <c r="D541" t="s">
-        <v>2043</v>
-      </c>
       <c r="E541" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B542" t="s">
         <v>2044</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>2045</v>
       </c>
-      <c r="C542" t="s">
+      <c r="D542" t="s">
         <v>2046</v>
       </c>
-      <c r="D542" t="s">
-        <v>2047</v>
-      </c>
       <c r="E542" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B543" t="s">
         <v>2048</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>2049</v>
       </c>
-      <c r="C543" t="s">
+      <c r="D543" t="s">
         <v>2050</v>
       </c>
-      <c r="D543" t="s">
-        <v>2051</v>
-      </c>
       <c r="E543" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B544" t="s">
         <v>2052</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>2053</v>
       </c>
-      <c r="C544" t="s">
+      <c r="D544" t="s">
         <v>2054</v>
       </c>
-      <c r="D544" t="s">
-        <v>2055</v>
-      </c>
       <c r="E544" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B545" t="s">
         <v>2056</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>2057</v>
       </c>
-      <c r="C545" t="s">
+      <c r="D545" t="s">
         <v>2058</v>
       </c>
-      <c r="D545" t="s">
-        <v>2059</v>
-      </c>
       <c r="E545" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B546" t="s">
         <v>2060</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>2061</v>
       </c>
-      <c r="C546" t="s">
+      <c r="D546" t="s">
         <v>2062</v>
       </c>
-      <c r="D546" t="s">
-        <v>2063</v>
-      </c>
       <c r="E546" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B547" t="s">
         <v>1984</v>
@@ -19477,276 +19832,276 @@
         <v>1842</v>
       </c>
       <c r="E547" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B548" t="s">
         <v>2065</v>
       </c>
-      <c r="B548" t="s">
+      <c r="C548" t="s">
         <v>2066</v>
       </c>
-      <c r="C548" t="s">
+      <c r="D548" t="s">
         <v>2067</v>
       </c>
-      <c r="D548" t="s">
-        <v>2068</v>
-      </c>
       <c r="E548" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B549" t="s">
         <v>2069</v>
       </c>
-      <c r="B549" t="s">
+      <c r="C549" t="s">
         <v>2070</v>
       </c>
-      <c r="C549" t="s">
+      <c r="D549" t="s">
         <v>2071</v>
       </c>
-      <c r="D549" t="s">
-        <v>2072</v>
-      </c>
       <c r="E549" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B550" t="s">
         <v>2073</v>
       </c>
-      <c r="B550" t="s">
+      <c r="C550" t="s">
         <v>2074</v>
       </c>
-      <c r="C550" t="s">
+      <c r="D550" t="s">
         <v>2075</v>
       </c>
-      <c r="D550" t="s">
-        <v>2076</v>
-      </c>
       <c r="E550" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B551" t="s">
         <v>2077</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>2078</v>
       </c>
-      <c r="C551" t="s">
+      <c r="D551" t="s">
         <v>2079</v>
       </c>
-      <c r="D551" t="s">
-        <v>2080</v>
-      </c>
       <c r="E551" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B552" t="s">
         <v>2081</v>
       </c>
-      <c r="B552" t="s">
+      <c r="C552" t="s">
         <v>2082</v>
       </c>
-      <c r="C552" t="s">
+      <c r="D552" t="s">
         <v>2083</v>
       </c>
-      <c r="D552" t="s">
-        <v>2084</v>
-      </c>
       <c r="E552" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B553" t="s">
         <v>2085</v>
       </c>
-      <c r="B553" t="s">
+      <c r="C553" t="s">
         <v>2086</v>
       </c>
-      <c r="C553" t="s">
+      <c r="D553" t="s">
         <v>2087</v>
       </c>
-      <c r="D553" t="s">
-        <v>2088</v>
-      </c>
       <c r="E553" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B554" t="s">
         <v>2089</v>
       </c>
-      <c r="B554" t="s">
+      <c r="C554" t="s">
         <v>2090</v>
       </c>
-      <c r="C554" t="s">
+      <c r="D554" t="s">
         <v>2091</v>
       </c>
-      <c r="D554" t="s">
-        <v>2092</v>
-      </c>
       <c r="E554" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B555" t="s">
         <v>2093</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
         <v>2094</v>
       </c>
-      <c r="C555" t="s">
+      <c r="D555" t="s">
         <v>2095</v>
       </c>
-      <c r="D555" t="s">
-        <v>2096</v>
-      </c>
       <c r="E555" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B556" t="s">
         <v>2097</v>
       </c>
-      <c r="B556" t="s">
+      <c r="C556" t="s">
         <v>2098</v>
       </c>
-      <c r="C556" t="s">
+      <c r="D556" t="s">
         <v>2099</v>
       </c>
-      <c r="D556" t="s">
-        <v>2100</v>
-      </c>
       <c r="E556" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B557" t="s">
         <v>2101</v>
       </c>
-      <c r="B557" t="s">
+      <c r="C557" t="s">
         <v>2102</v>
       </c>
-      <c r="C557" t="s">
+      <c r="D557" t="s">
         <v>2103</v>
       </c>
-      <c r="D557" t="s">
-        <v>2104</v>
-      </c>
       <c r="E557" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B558" t="s">
         <v>2105</v>
       </c>
-      <c r="B558" t="s">
+      <c r="C558" t="s">
         <v>2106</v>
       </c>
-      <c r="C558" t="s">
+      <c r="D558" t="s">
         <v>2107</v>
       </c>
-      <c r="D558" t="s">
-        <v>2108</v>
-      </c>
       <c r="E558" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B559" t="s">
         <v>2109</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>2110</v>
       </c>
-      <c r="C559" t="s">
+      <c r="D559" t="s">
         <v>2111</v>
       </c>
-      <c r="D559" t="s">
-        <v>2112</v>
-      </c>
       <c r="E559" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B560" t="s">
         <v>2113</v>
       </c>
-      <c r="B560" t="s">
+      <c r="C560" t="s">
         <v>2114</v>
       </c>
-      <c r="C560" t="s">
+      <c r="D560" t="s">
         <v>2115</v>
       </c>
-      <c r="D560" t="s">
-        <v>2116</v>
-      </c>
       <c r="E560" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B561" t="s">
         <v>2117</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
         <v>2118</v>
       </c>
-      <c r="C561" t="s">
+      <c r="D561" t="s">
         <v>2119</v>
       </c>
-      <c r="D561" t="s">
-        <v>2120</v>
-      </c>
       <c r="E561" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B562" t="s">
         <v>2121</v>
       </c>
-      <c r="B562" t="s">
+      <c r="C562" t="s">
         <v>2122</v>
       </c>
-      <c r="C562" t="s">
+      <c r="D562" t="s">
         <v>2123</v>
       </c>
-      <c r="D562" t="s">
+      <c r="E562" t="s">
         <v>2124</v>
-      </c>
-      <c r="E562" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B563" t="s">
         <v>2126</v>
       </c>
-      <c r="B563" t="s">
+      <c r="C563" t="s">
         <v>2127</v>
       </c>
-      <c r="C563" t="s">
+      <c r="D563" t="s">
         <v>2128</v>
-      </c>
-      <c r="D563" t="s">
-        <v>2129</v>
       </c>
       <c r="E563" t="s">
         <v>1851</v>
@@ -19754,16 +20109,16 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B564" t="s">
         <v>2130</v>
       </c>
-      <c r="B564" t="s">
+      <c r="C564" t="s">
         <v>2131</v>
       </c>
-      <c r="C564" t="s">
+      <c r="D564" t="s">
         <v>2132</v>
-      </c>
-      <c r="D564" t="s">
-        <v>2133</v>
       </c>
       <c r="E564" t="s">
         <v>1851</v>
@@ -19771,16 +20126,16 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B565" t="s">
         <v>2134</v>
       </c>
-      <c r="B565" t="s">
+      <c r="C565" t="s">
         <v>2135</v>
       </c>
-      <c r="C565" t="s">
+      <c r="D565" t="s">
         <v>2136</v>
-      </c>
-      <c r="D565" t="s">
-        <v>2137</v>
       </c>
       <c r="E565" t="s">
         <v>1851</v>
@@ -19788,16 +20143,16 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B566" t="s">
         <v>2138</v>
       </c>
-      <c r="B566" t="s">
+      <c r="C566" t="s">
         <v>2139</v>
       </c>
-      <c r="C566" t="s">
-        <v>2140</v>
-      </c>
       <c r="D566" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E566" t="s">
         <v>1851</v>
@@ -19805,16 +20160,16 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B567" t="s">
         <v>2141</v>
       </c>
-      <c r="B567" t="s">
+      <c r="C567" t="s">
         <v>2142</v>
       </c>
-      <c r="C567" t="s">
+      <c r="D567" t="s">
         <v>2143</v>
-      </c>
-      <c r="D567" t="s">
-        <v>2144</v>
       </c>
       <c r="E567" t="s">
         <v>1851</v>
@@ -19822,16 +20177,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B568" t="s">
         <v>2145</v>
       </c>
-      <c r="B568" t="s">
+      <c r="C568" t="s">
         <v>2146</v>
       </c>
-      <c r="C568" t="s">
+      <c r="D568" t="s">
         <v>2147</v>
-      </c>
-      <c r="D568" t="s">
-        <v>2148</v>
       </c>
       <c r="E568" t="s">
         <v>1851</v>
@@ -19839,16 +20194,16 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B569" t="s">
         <v>2149</v>
       </c>
-      <c r="B569" t="s">
+      <c r="C569" t="s">
         <v>2150</v>
       </c>
-      <c r="C569" t="s">
+      <c r="D569" t="s">
         <v>2151</v>
-      </c>
-      <c r="D569" t="s">
-        <v>2152</v>
       </c>
       <c r="E569" t="s">
         <v>1851</v>
@@ -19856,16 +20211,16 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B570" t="s">
         <v>2153</v>
       </c>
-      <c r="B570" t="s">
+      <c r="C570" t="s">
         <v>2154</v>
       </c>
-      <c r="C570" t="s">
+      <c r="D570" t="s">
         <v>2155</v>
-      </c>
-      <c r="D570" t="s">
-        <v>2156</v>
       </c>
       <c r="E570" t="s">
         <v>1851</v>
@@ -19873,16 +20228,16 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B571" t="s">
         <v>2157</v>
       </c>
-      <c r="B571" t="s">
+      <c r="C571" t="s">
         <v>2158</v>
       </c>
-      <c r="C571" t="s">
+      <c r="D571" t="s">
         <v>2159</v>
-      </c>
-      <c r="D571" t="s">
-        <v>2160</v>
       </c>
       <c r="E571" t="s">
         <v>1851</v>
@@ -19890,16 +20245,16 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B572" t="s">
         <v>2161</v>
       </c>
-      <c r="B572" t="s">
+      <c r="C572" t="s">
         <v>2162</v>
       </c>
-      <c r="C572" t="s">
+      <c r="D572" t="s">
         <v>2163</v>
-      </c>
-      <c r="D572" t="s">
-        <v>2164</v>
       </c>
       <c r="E572" t="s">
         <v>1851</v>
@@ -19907,16 +20262,16 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B573" t="s">
         <v>2165</v>
       </c>
-      <c r="B573" t="s">
+      <c r="C573" t="s">
         <v>2166</v>
       </c>
-      <c r="C573" t="s">
+      <c r="D573" t="s">
         <v>2167</v>
-      </c>
-      <c r="D573" t="s">
-        <v>2168</v>
       </c>
       <c r="E573" t="s">
         <v>1851</v>
@@ -19924,16 +20279,16 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B574" t="s">
         <v>2169</v>
       </c>
-      <c r="B574" t="s">
+      <c r="C574" t="s">
         <v>2170</v>
       </c>
-      <c r="C574" t="s">
+      <c r="D574" t="s">
         <v>2171</v>
-      </c>
-      <c r="D574" t="s">
-        <v>2172</v>
       </c>
       <c r="E574" t="s">
         <v>1851</v>
@@ -19941,16 +20296,16 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B575" t="s">
         <v>2173</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>2174</v>
       </c>
-      <c r="C575" t="s">
+      <c r="D575" t="s">
         <v>2175</v>
-      </c>
-      <c r="D575" t="s">
-        <v>2176</v>
       </c>
       <c r="E575" t="s">
         <v>1851</v>
@@ -19958,16 +20313,16 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B576" t="s">
         <v>2177</v>
       </c>
-      <c r="B576" t="s">
+      <c r="C576" t="s">
         <v>2178</v>
       </c>
-      <c r="C576" t="s">
+      <c r="D576" t="s">
         <v>2179</v>
-      </c>
-      <c r="D576" t="s">
-        <v>2180</v>
       </c>
       <c r="E576" t="s">
         <v>1851</v>
@@ -19975,16 +20330,16 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B577" t="s">
         <v>2181</v>
       </c>
-      <c r="B577" t="s">
+      <c r="C577" t="s">
         <v>2182</v>
       </c>
-      <c r="C577" t="s">
+      <c r="D577" t="s">
         <v>2183</v>
-      </c>
-      <c r="D577" t="s">
-        <v>2184</v>
       </c>
       <c r="E577" t="s">
         <v>1851</v>
@@ -19992,16 +20347,16 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B578" t="s">
         <v>2185</v>
       </c>
-      <c r="B578" t="s">
+      <c r="C578" t="s">
         <v>2186</v>
       </c>
-      <c r="C578" t="s">
+      <c r="D578" t="s">
         <v>2187</v>
-      </c>
-      <c r="D578" t="s">
-        <v>2188</v>
       </c>
       <c r="E578" t="s">
         <v>1851</v>
@@ -20009,16 +20364,16 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B579" t="s">
         <v>2189</v>
       </c>
-      <c r="B579" t="s">
+      <c r="C579" t="s">
         <v>2190</v>
       </c>
-      <c r="C579" t="s">
+      <c r="D579" t="s">
         <v>2191</v>
-      </c>
-      <c r="D579" t="s">
-        <v>2192</v>
       </c>
       <c r="E579" t="s">
         <v>1851</v>
@@ -20026,16 +20381,16 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B580" t="s">
         <v>2193</v>
       </c>
-      <c r="B580" t="s">
+      <c r="C580" t="s">
         <v>2194</v>
       </c>
-      <c r="C580" t="s">
-        <v>2195</v>
-      </c>
       <c r="D580" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E580" t="s">
         <v>1851</v>
@@ -20043,16 +20398,16 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B581" t="s">
         <v>2196</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C581" t="s">
         <v>2197</v>
       </c>
-      <c r="C581" t="s">
+      <c r="D581" t="s">
         <v>2198</v>
-      </c>
-      <c r="D581" t="s">
-        <v>2199</v>
       </c>
       <c r="E581" t="s">
         <v>1851</v>
@@ -20060,16 +20415,16 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B582" t="s">
         <v>2200</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C582" t="s">
         <v>2201</v>
       </c>
-      <c r="C582" t="s">
+      <c r="D582" t="s">
         <v>2202</v>
-      </c>
-      <c r="D582" t="s">
-        <v>2203</v>
       </c>
       <c r="E582" t="s">
         <v>1851</v>
@@ -20077,16 +20432,16 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B583" t="s">
         <v>2204</v>
       </c>
-      <c r="B583" t="s">
+      <c r="C583" t="s">
         <v>2205</v>
       </c>
-      <c r="C583" t="s">
+      <c r="D583" t="s">
         <v>2206</v>
-      </c>
-      <c r="D583" t="s">
-        <v>2207</v>
       </c>
       <c r="E583" t="s">
         <v>1851</v>
@@ -20094,16 +20449,16 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B584" t="s">
         <v>2208</v>
       </c>
-      <c r="B584" t="s">
+      <c r="C584" t="s">
         <v>2209</v>
       </c>
-      <c r="C584" t="s">
+      <c r="D584" t="s">
         <v>2210</v>
-      </c>
-      <c r="D584" t="s">
-        <v>2211</v>
       </c>
       <c r="E584" t="s">
         <v>1851</v>
@@ -20111,13 +20466,13 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B585" t="s">
         <v>2212</v>
       </c>
-      <c r="B585" t="s">
+      <c r="C585" t="s">
         <v>2213</v>
-      </c>
-      <c r="C585" t="s">
-        <v>2214</v>
       </c>
       <c r="D585" t="s">
         <v>1361</v>
@@ -20128,16 +20483,16 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B586" t="s">
         <v>2215</v>
       </c>
-      <c r="B586" t="s">
+      <c r="C586" t="s">
         <v>2216</v>
       </c>
-      <c r="C586" t="s">
+      <c r="D586" t="s">
         <v>2217</v>
-      </c>
-      <c r="D586" t="s">
-        <v>2218</v>
       </c>
       <c r="E586" t="s">
         <v>1851</v>
@@ -20145,16 +20500,16 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B587" t="s">
         <v>2219</v>
       </c>
-      <c r="B587" t="s">
+      <c r="C587" t="s">
         <v>2220</v>
       </c>
-      <c r="C587" t="s">
+      <c r="D587" t="s">
         <v>2221</v>
-      </c>
-      <c r="D587" t="s">
-        <v>2222</v>
       </c>
       <c r="E587" t="s">
         <v>1851</v>
@@ -20162,16 +20517,16 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B588" t="s">
         <v>2223</v>
       </c>
-      <c r="B588" t="s">
+      <c r="C588" t="s">
         <v>2224</v>
       </c>
-      <c r="C588" t="s">
+      <c r="D588" t="s">
         <v>2225</v>
-      </c>
-      <c r="D588" t="s">
-        <v>2226</v>
       </c>
       <c r="E588" t="s">
         <v>1851</v>
@@ -20179,16 +20534,16 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B589" t="s">
         <v>2227</v>
       </c>
-      <c r="B589" t="s">
+      <c r="C589" t="s">
         <v>2228</v>
       </c>
-      <c r="C589" t="s">
+      <c r="D589" t="s">
         <v>2229</v>
-      </c>
-      <c r="D589" t="s">
-        <v>2230</v>
       </c>
       <c r="E589" t="s">
         <v>1851</v>
@@ -20196,186 +20551,186 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B590" t="s">
         <v>2232</v>
       </c>
-      <c r="B590" t="s">
+      <c r="C590" t="s">
         <v>2233</v>
       </c>
-      <c r="C590" t="s">
+      <c r="D590" t="s">
         <v>2234</v>
       </c>
-      <c r="D590" t="s">
+      <c r="E590" t="s">
         <v>2235</v>
-      </c>
-      <c r="E590" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B591" t="s">
         <v>2237</v>
       </c>
-      <c r="B591" t="s">
+      <c r="C591" t="s">
         <v>2238</v>
-      </c>
-      <c r="C591" t="s">
-        <v>2239</v>
       </c>
       <c r="D591" t="s">
         <v>209</v>
       </c>
       <c r="E591" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B592" t="s">
         <v>2240</v>
       </c>
-      <c r="B592" t="s">
+      <c r="C592" t="s">
         <v>2241</v>
       </c>
-      <c r="C592" t="s">
+      <c r="D592" t="s">
         <v>2242</v>
       </c>
-      <c r="D592" t="s">
-        <v>2243</v>
-      </c>
       <c r="E592" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B593" t="s">
         <v>2244</v>
       </c>
-      <c r="B593" t="s">
+      <c r="C593" t="s">
         <v>2245</v>
       </c>
-      <c r="C593" t="s">
+      <c r="D593" t="s">
         <v>2246</v>
       </c>
-      <c r="D593" t="s">
-        <v>2247</v>
-      </c>
       <c r="E593" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B594" t="s">
         <v>2248</v>
       </c>
-      <c r="B594" t="s">
+      <c r="C594" t="s">
         <v>2249</v>
       </c>
-      <c r="C594" t="s">
+      <c r="D594" t="s">
         <v>2250</v>
       </c>
-      <c r="D594" t="s">
-        <v>2251</v>
-      </c>
       <c r="E594" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B595" t="s">
         <v>2252</v>
       </c>
-      <c r="B595" t="s">
+      <c r="C595" t="s">
         <v>2253</v>
       </c>
-      <c r="C595" t="s">
+      <c r="D595" t="s">
         <v>2254</v>
       </c>
-      <c r="D595" t="s">
-        <v>2255</v>
-      </c>
       <c r="E595" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B596" t="s">
         <v>2256</v>
       </c>
-      <c r="B596" t="s">
+      <c r="C596" t="s">
         <v>2257</v>
       </c>
-      <c r="C596" t="s">
+      <c r="D596" t="s">
         <v>2258</v>
       </c>
-      <c r="D596" t="s">
-        <v>2259</v>
-      </c>
       <c r="E596" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B597" t="s">
         <v>2260</v>
       </c>
-      <c r="B597" t="s">
+      <c r="C597" t="s">
         <v>2261</v>
       </c>
-      <c r="C597" t="s">
+      <c r="D597" t="s">
         <v>2262</v>
       </c>
-      <c r="D597" t="s">
-        <v>2263</v>
-      </c>
       <c r="E597" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B598" t="s">
         <v>2264</v>
       </c>
-      <c r="B598" t="s">
+      <c r="C598" t="s">
         <v>2265</v>
       </c>
-      <c r="C598" t="s">
+      <c r="D598" t="s">
         <v>2266</v>
       </c>
-      <c r="D598" t="s">
-        <v>2267</v>
-      </c>
       <c r="E598" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B599" t="s">
         <v>2268</v>
       </c>
-      <c r="B599" t="s">
+      <c r="C599" t="s">
         <v>2269</v>
       </c>
-      <c r="C599" t="s">
+      <c r="D599" t="s">
         <v>2270</v>
       </c>
-      <c r="D599" t="s">
-        <v>2271</v>
-      </c>
       <c r="E599" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B600" t="s">
         <v>2272</v>
       </c>
-      <c r="B600" t="s">
+      <c r="C600" t="s">
         <v>2273</v>
       </c>
-      <c r="C600" t="s">
+      <c r="D600" t="s">
         <v>2274</v>
-      </c>
-      <c r="D600" t="s">
-        <v>2275</v>
       </c>
       <c r="E600" t="s">
         <v>1851</v>
@@ -20383,16 +20738,16 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B601" t="s">
         <v>2276</v>
       </c>
-      <c r="B601" t="s">
+      <c r="C601" t="s">
         <v>2277</v>
       </c>
-      <c r="C601" t="s">
+      <c r="D601" t="s">
         <v>2278</v>
-      </c>
-      <c r="D601" t="s">
-        <v>2279</v>
       </c>
       <c r="E601" t="s">
         <v>1851</v>
@@ -20400,166 +20755,166 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B602" t="s">
         <v>2280</v>
       </c>
-      <c r="B602" t="s">
+      <c r="C602" t="s">
         <v>2281</v>
       </c>
-      <c r="C602" t="s">
+      <c r="D602" t="s">
         <v>2282</v>
       </c>
-      <c r="D602" t="s">
-        <v>2283</v>
-      </c>
       <c r="E602" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B603" t="s">
         <v>2284</v>
       </c>
-      <c r="B603" t="s">
+      <c r="C603" t="s">
         <v>2285</v>
       </c>
-      <c r="C603" t="s">
+      <c r="D603" t="s">
         <v>2286</v>
       </c>
-      <c r="D603" t="s">
-        <v>2287</v>
-      </c>
       <c r="E603" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B604" t="s">
         <v>2288</v>
       </c>
-      <c r="B604" t="s">
+      <c r="C604" t="s">
         <v>2289</v>
       </c>
-      <c r="C604" t="s">
-        <v>2290</v>
-      </c>
       <c r="D604" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E604" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B605" t="s">
         <v>2291</v>
       </c>
-      <c r="B605" t="s">
+      <c r="C605" t="s">
         <v>2292</v>
       </c>
-      <c r="C605" t="s">
+      <c r="D605" t="s">
         <v>2293</v>
       </c>
-      <c r="D605" t="s">
-        <v>2294</v>
-      </c>
       <c r="E605" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B606" t="s">
         <v>2295</v>
       </c>
-      <c r="B606" t="s">
+      <c r="C606" t="s">
         <v>2296</v>
       </c>
-      <c r="C606" t="s">
+      <c r="D606" t="s">
         <v>2297</v>
       </c>
-      <c r="D606" t="s">
-        <v>2298</v>
-      </c>
       <c r="E606" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B607" t="s">
         <v>2299</v>
       </c>
-      <c r="B607" t="s">
+      <c r="C607" t="s">
         <v>2300</v>
       </c>
-      <c r="C607" t="s">
+      <c r="D607" t="s">
         <v>2301</v>
       </c>
-      <c r="D607" t="s">
-        <v>2302</v>
-      </c>
       <c r="E607" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B608" t="s">
         <v>2303</v>
       </c>
-      <c r="B608" t="s">
+      <c r="C608" t="s">
         <v>2304</v>
       </c>
-      <c r="C608" t="s">
+      <c r="D608" t="s">
         <v>2305</v>
       </c>
-      <c r="D608" t="s">
-        <v>2306</v>
-      </c>
       <c r="E608" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B609" t="s">
         <v>2307</v>
       </c>
-      <c r="B609" t="s">
+      <c r="C609" t="s">
         <v>2308</v>
       </c>
-      <c r="C609" t="s">
+      <c r="D609" t="s">
         <v>2309</v>
       </c>
-      <c r="D609" t="s">
-        <v>2310</v>
-      </c>
       <c r="E609" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B610" t="s">
         <v>469</v>
       </c>
       <c r="C610" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D610" t="s">
         <v>2315</v>
       </c>
-      <c r="D610" t="s">
+      <c r="E610" t="s">
         <v>2316</v>
-      </c>
-      <c r="E610" t="s">
-        <v>2317</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B611" t="s">
         <v>2318</v>
       </c>
-      <c r="B611" t="s">
+      <c r="C611" t="s">
         <v>2319</v>
-      </c>
-      <c r="C611" t="s">
-        <v>2320</v>
       </c>
       <c r="D611" t="s">
         <v>1023</v>
@@ -20573,10 +20928,10 @@
         <v>136</v>
       </c>
       <c r="B612" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C612" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D612" t="s">
         <v>137</v>
@@ -20587,24 +20942,24 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B613" t="s">
         <v>2322</v>
       </c>
-      <c r="B613" t="s">
+      <c r="C613" t="s">
         <v>2323</v>
       </c>
-      <c r="C613" t="s">
+      <c r="D613" t="s">
         <v>2324</v>
       </c>
-      <c r="D613" t="s">
+      <c r="E613" t="s">
         <v>2325</v>
-      </c>
-      <c r="E613" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B614" t="s">
         <v>391</v>
@@ -20613,7 +20968,7 @@
         <v>392</v>
       </c>
       <c r="D614" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E614" t="s">
         <v>1851</v>
@@ -20627,7 +20982,7 @@
         <v>4</v>
       </c>
       <c r="C615" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D615" t="s">
         <v>6</v>
@@ -20647,7 +21002,7 @@
         <v>1087</v>
       </c>
       <c r="D616" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E616" t="s">
         <v>1851</v>
@@ -20661,13 +21016,13 @@
         <v>252</v>
       </c>
       <c r="C617" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D617" t="s">
         <v>2329</v>
       </c>
-      <c r="D617" t="s">
+      <c r="E617" t="s">
         <v>2330</v>
-      </c>
-      <c r="E617" t="s">
-        <v>2331</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
@@ -20678,13 +21033,13 @@
         <v>484</v>
       </c>
       <c r="C618" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D618" t="s">
         <v>2332</v>
       </c>
-      <c r="D618" t="s">
-        <v>2333</v>
-      </c>
       <c r="E618" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
@@ -20695,13 +21050,13 @@
         <v>473</v>
       </c>
       <c r="C619" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D619" t="s">
         <v>2334</v>
       </c>
-      <c r="D619" t="s">
-        <v>2335</v>
-      </c>
       <c r="E619" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
@@ -20712,13 +21067,13 @@
         <v>576</v>
       </c>
       <c r="C620" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D620" t="s">
         <v>1818</v>
       </c>
       <c r="E620" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
@@ -20729,30 +21084,30 @@
         <v>1812</v>
       </c>
       <c r="C621" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D621" t="s">
         <v>1814</v>
       </c>
       <c r="E621" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B622" t="s">
         <v>2338</v>
       </c>
-      <c r="B622" t="s">
+      <c r="C622" t="s">
         <v>2339</v>
       </c>
-      <c r="C622" t="s">
+      <c r="D622" t="s">
         <v>2340</v>
       </c>
-      <c r="D622" t="s">
-        <v>2341</v>
-      </c>
       <c r="E622" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
@@ -20763,13 +21118,13 @@
         <v>374</v>
       </c>
       <c r="C623" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D623" t="s">
         <v>2342</v>
       </c>
-      <c r="D623" t="s">
-        <v>2343</v>
-      </c>
       <c r="E623" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
@@ -20777,33 +21132,33 @@
         <v>362</v>
       </c>
       <c r="B624" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C624" t="s">
         <v>2344</v>
       </c>
-      <c r="C624" t="s">
+      <c r="D624" t="s">
         <v>2345</v>
       </c>
-      <c r="D624" t="s">
-        <v>2346</v>
-      </c>
       <c r="E624" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B625" t="s">
         <v>2020</v>
       </c>
-      <c r="B625" t="s">
-        <v>2021</v>
-      </c>
       <c r="C625" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D625" t="s">
         <v>2347</v>
       </c>
-      <c r="D625" t="s">
-        <v>2348</v>
-      </c>
       <c r="E625" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
@@ -20814,13 +21169,13 @@
         <v>469</v>
       </c>
       <c r="C626" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D626" t="s">
         <v>2349</v>
       </c>
-      <c r="D626" t="s">
-        <v>2350</v>
-      </c>
       <c r="E626" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
@@ -20831,13 +21186,13 @@
         <v>488</v>
       </c>
       <c r="C627" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D627" t="s">
         <v>2351</v>
       </c>
-      <c r="D627" t="s">
-        <v>2352</v>
-      </c>
       <c r="E627" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
@@ -20848,64 +21203,64 @@
         <v>480</v>
       </c>
       <c r="C628" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D628" t="s">
         <v>2353</v>
       </c>
-      <c r="D628" t="s">
-        <v>2354</v>
-      </c>
       <c r="E628" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B629" t="s">
         <v>2355</v>
       </c>
-      <c r="B629" t="s">
+      <c r="C629" t="s">
         <v>2356</v>
       </c>
-      <c r="C629" t="s">
+      <c r="D629" t="s">
         <v>2357</v>
       </c>
-      <c r="D629" t="s">
-        <v>2358</v>
-      </c>
       <c r="E629" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B630" t="s">
         <v>2359</v>
       </c>
-      <c r="B630" t="s">
+      <c r="C630" t="s">
         <v>2360</v>
       </c>
-      <c r="C630" t="s">
+      <c r="D630" t="s">
         <v>2361</v>
       </c>
-      <c r="D630" t="s">
-        <v>2362</v>
-      </c>
       <c r="E630" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B631" t="s">
         <v>2363</v>
       </c>
-      <c r="B631" t="s">
+      <c r="C631" t="s">
         <v>2364</v>
       </c>
-      <c r="C631" t="s">
+      <c r="D631" t="s">
         <v>2365</v>
       </c>
-      <c r="D631" t="s">
-        <v>2366</v>
-      </c>
       <c r="E631" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -20916,30 +21271,30 @@
         <v>584</v>
       </c>
       <c r="C632" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D632" t="s">
         <v>2367</v>
       </c>
-      <c r="D632" t="s">
-        <v>2368</v>
-      </c>
       <c r="E632" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B633" t="s">
         <v>2369</v>
       </c>
-      <c r="B633" t="s">
+      <c r="C633" t="s">
         <v>2370</v>
       </c>
-      <c r="C633" t="s">
+      <c r="D633" t="s">
         <v>2371</v>
       </c>
-      <c r="D633" t="s">
-        <v>2372</v>
-      </c>
       <c r="E633" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
@@ -20950,13 +21305,13 @@
         <v>1951</v>
       </c>
       <c r="C634" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D634" t="s">
         <v>2373</v>
       </c>
-      <c r="D634" t="s">
-        <v>2374</v>
-      </c>
       <c r="E634" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
@@ -20967,27 +21322,27 @@
         <v>497</v>
       </c>
       <c r="C635" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D635" t="s">
         <v>2375</v>
       </c>
-      <c r="D635" t="s">
-        <v>2376</v>
-      </c>
       <c r="E635" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B636" t="s">
         <v>2377</v>
-      </c>
-      <c r="B636" t="s">
-        <v>2378</v>
       </c>
       <c r="C636" t="s">
         <v>455</v>
       </c>
       <c r="D636" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E636" t="s">
         <v>1851</v>
@@ -20995,16 +21350,16 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B637" t="s">
         <v>2020</v>
       </c>
-      <c r="B637" t="s">
-        <v>2021</v>
-      </c>
       <c r="C637" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D637" t="s">
         <v>2380</v>
-      </c>
-      <c r="D637" t="s">
-        <v>2381</v>
       </c>
       <c r="E637" t="s">
         <v>1982</v>
@@ -21012,16 +21367,16 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B638" t="s">
         <v>2382</v>
       </c>
-      <c r="B638" t="s">
+      <c r="C638" t="s">
         <v>2383</v>
       </c>
-      <c r="C638" t="s">
+      <c r="D638" t="s">
         <v>2384</v>
-      </c>
-      <c r="D638" t="s">
-        <v>2385</v>
       </c>
       <c r="E638" t="s">
         <v>1982</v>
@@ -21029,16 +21384,16 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B639" t="s">
         <v>2256</v>
       </c>
-      <c r="B639" t="s">
-        <v>2257</v>
-      </c>
       <c r="C639" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D639" t="s">
         <v>2386</v>
-      </c>
-      <c r="D639" t="s">
-        <v>2387</v>
       </c>
       <c r="E639" t="s">
         <v>1851</v>
@@ -21049,33 +21404,33 @@
         <v>362</v>
       </c>
       <c r="B640" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C640" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D640" t="s">
         <v>2388</v>
       </c>
-      <c r="D640" t="s">
+      <c r="E640" t="s">
         <v>2389</v>
-      </c>
-      <c r="E640" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B641" t="s">
         <v>2363</v>
       </c>
-      <c r="B641" t="s">
-        <v>2364</v>
-      </c>
       <c r="C641" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D641" t="s">
         <v>2391</v>
       </c>
-      <c r="D641" t="s">
-        <v>2392</v>
-      </c>
       <c r="E641" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
@@ -21086,13 +21441,13 @@
         <v>484</v>
       </c>
       <c r="C642" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D642" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E642" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.2">
@@ -21106,10 +21461,10 @@
         <v>1826</v>
       </c>
       <c r="D643" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E643" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
@@ -21123,10 +21478,10 @@
         <v>577</v>
       </c>
       <c r="D644" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E644" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -21137,13 +21492,13 @@
         <v>480</v>
       </c>
       <c r="C645" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D645" t="s">
         <v>2396</v>
       </c>
-      <c r="D645" t="s">
-        <v>2397</v>
-      </c>
       <c r="E645" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -21157,10 +21512,10 @@
         <v>1828</v>
       </c>
       <c r="D646" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E646" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -21171,30 +21526,30 @@
         <v>1951</v>
       </c>
       <c r="C647" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D647" t="s">
         <v>2399</v>
       </c>
-      <c r="D647" t="s">
-        <v>2400</v>
-      </c>
       <c r="E647" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B648" t="s">
         <v>2369</v>
       </c>
-      <c r="B648" t="s">
-        <v>2370</v>
-      </c>
       <c r="C648" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D648" t="s">
         <v>2401</v>
       </c>
-      <c r="D648" t="s">
-        <v>2402</v>
-      </c>
       <c r="E648" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -21202,50 +21557,50 @@
         <v>187</v>
       </c>
       <c r="B649" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C649" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D649" t="s">
         <v>2403</v>
       </c>
-      <c r="D649" t="s">
-        <v>2404</v>
-      </c>
       <c r="E649" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B650" t="s">
         <v>1984</v>
       </c>
       <c r="C650" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D650" t="s">
         <v>2405</v>
       </c>
-      <c r="D650" t="s">
-        <v>2406</v>
-      </c>
       <c r="E650" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B651" t="s">
         <v>1984</v>
       </c>
       <c r="C651" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D651" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="E651" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
@@ -21259,27 +21614,27 @@
         <v>185</v>
       </c>
       <c r="D652" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E652" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B653" t="s">
         <v>2040</v>
       </c>
-      <c r="B653" t="s">
-        <v>2041</v>
-      </c>
       <c r="C653" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D653" t="s">
         <v>2408</v>
       </c>
-      <c r="D653" t="s">
-        <v>2409</v>
-      </c>
       <c r="E653" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
@@ -21287,16 +21642,16 @@
         <v>221</v>
       </c>
       <c r="B654" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C654" t="s">
         <v>2410</v>
       </c>
-      <c r="C654" t="s">
+      <c r="D654" t="s">
         <v>2411</v>
       </c>
-      <c r="D654" t="s">
-        <v>2412</v>
-      </c>
       <c r="E654" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
@@ -21304,10 +21659,10 @@
         <v>0</v>
       </c>
       <c r="B655" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C655" t="s">
         <v>2413</v>
-      </c>
-      <c r="C655" t="s">
-        <v>2414</v>
       </c>
       <c r="D655" t="s">
         <v>2</v>
@@ -21318,7 +21673,7 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B656" t="s">
         <v>598</v>
@@ -21327,7 +21682,7 @@
         <v>599</v>
       </c>
       <c r="D656" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E656" t="s">
         <v>1851</v>
@@ -21335,19 +21690,19 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B657" t="s">
         <v>1989</v>
       </c>
-      <c r="B657" t="s">
-        <v>1990</v>
-      </c>
       <c r="C657" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D657" t="s">
         <v>2417</v>
       </c>
-      <c r="D657" t="s">
-        <v>2418</v>
-      </c>
       <c r="E657" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
@@ -21355,13 +21710,13 @@
         <v>1290</v>
       </c>
       <c r="B658" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C658" t="s">
         <v>2419</v>
       </c>
-      <c r="C658" t="s">
+      <c r="D658" t="s">
         <v>2420</v>
-      </c>
-      <c r="D658" t="s">
-        <v>2421</v>
       </c>
       <c r="E658" t="s">
         <v>1851</v>
@@ -21372,16 +21727,16 @@
         <v>202</v>
       </c>
       <c r="B659" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C659" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D659" t="s">
         <v>2422</v>
       </c>
-      <c r="D659" t="s">
+      <c r="E659" t="s">
         <v>2423</v>
-      </c>
-      <c r="E659" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
@@ -21392,13 +21747,13 @@
         <v>484</v>
       </c>
       <c r="C660" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D660" t="s">
         <v>1023</v>
       </c>
       <c r="E660" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
@@ -21412,10 +21767,10 @@
         <v>577</v>
       </c>
       <c r="D661" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E661" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
@@ -21426,13 +21781,13 @@
         <v>480</v>
       </c>
       <c r="C662" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D662" t="s">
         <v>2426</v>
       </c>
-      <c r="D662" t="s">
-        <v>2427</v>
-      </c>
       <c r="E662" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
@@ -21443,13 +21798,13 @@
         <v>469</v>
       </c>
       <c r="C663" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D663" t="s">
         <v>2428</v>
       </c>
-      <c r="D663" t="s">
-        <v>2429</v>
-      </c>
       <c r="E663" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
@@ -21460,30 +21815,30 @@
         <v>497</v>
       </c>
       <c r="C664" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D664" t="s">
         <v>2430</v>
       </c>
-      <c r="D664" t="s">
-        <v>2431</v>
-      </c>
       <c r="E664" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B665" t="s">
         <v>2359</v>
       </c>
-      <c r="B665" t="s">
-        <v>2360</v>
-      </c>
       <c r="C665" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D665" t="s">
         <v>2432</v>
       </c>
-      <c r="D665" t="s">
-        <v>2433</v>
-      </c>
       <c r="E665" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
@@ -21494,13 +21849,13 @@
         <v>484</v>
       </c>
       <c r="C666" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D666" t="s">
         <v>2434</v>
       </c>
-      <c r="D666" t="s">
+      <c r="E666" t="s">
         <v>2435</v>
-      </c>
-      <c r="E666" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -21511,13 +21866,13 @@
         <v>473</v>
       </c>
       <c r="C667" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D667" t="s">
         <v>2437</v>
       </c>
-      <c r="D667" t="s">
-        <v>2438</v>
-      </c>
       <c r="E667" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
@@ -21525,67 +21880,67 @@
         <v>202</v>
       </c>
       <c r="B668" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C668" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D668" t="s">
         <v>2439</v>
       </c>
-      <c r="D668" t="s">
-        <v>2440</v>
-      </c>
       <c r="E668" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B669" t="s">
         <v>1989</v>
       </c>
-      <c r="B669" t="s">
-        <v>1990</v>
-      </c>
       <c r="C669" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D669" t="s">
         <v>2441</v>
       </c>
-      <c r="D669" t="s">
-        <v>2442</v>
-      </c>
       <c r="E669" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B670" t="s">
         <v>2020</v>
       </c>
-      <c r="B670" t="s">
-        <v>2021</v>
-      </c>
       <c r="C670" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D670" t="s">
         <v>2443</v>
       </c>
-      <c r="D670" t="s">
-        <v>2444</v>
-      </c>
       <c r="E670" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B671" t="s">
         <v>2369</v>
       </c>
-      <c r="B671" t="s">
-        <v>2370</v>
-      </c>
       <c r="C671" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D671" t="s">
         <v>2445</v>
       </c>
-      <c r="D671" t="s">
-        <v>2446</v>
-      </c>
       <c r="E671" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
@@ -21593,16 +21948,16 @@
         <v>187</v>
       </c>
       <c r="B672" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C672" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D672" t="s">
         <v>2447</v>
       </c>
-      <c r="D672" t="s">
-        <v>2448</v>
-      </c>
       <c r="E672" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
@@ -21613,13 +21968,13 @@
         <v>469</v>
       </c>
       <c r="C673" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D673" t="s">
         <v>2449</v>
       </c>
-      <c r="D673" t="s">
-        <v>2450</v>
-      </c>
       <c r="E673" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
@@ -21630,13 +21985,13 @@
         <v>497</v>
       </c>
       <c r="C674" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D674" t="s">
         <v>2451</v>
       </c>
-      <c r="D674" t="s">
-        <v>2452</v>
-      </c>
       <c r="E674" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
@@ -21650,10 +22005,10 @@
         <v>185</v>
       </c>
       <c r="D675" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E675" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
@@ -21661,16 +22016,16 @@
         <v>221</v>
       </c>
       <c r="B676" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C676" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D676" t="s">
         <v>2454</v>
       </c>
-      <c r="D676" t="s">
-        <v>2455</v>
-      </c>
       <c r="E676" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
@@ -21678,27 +22033,27 @@
         <v>155</v>
       </c>
       <c r="B677" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C677" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D677" t="s">
         <v>2465</v>
       </c>
-      <c r="D677" t="s">
-        <v>2466</v>
-      </c>
       <c r="E677" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B678" t="s">
         <v>1762</v>
       </c>
       <c r="C678" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D678" t="s">
         <v>1764</v>
@@ -21715,27 +22070,27 @@
         <v>473</v>
       </c>
       <c r="C679" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D679" t="s">
         <v>2469</v>
       </c>
-      <c r="D679" t="s">
+      <c r="E679" t="s">
         <v>2470</v>
-      </c>
-      <c r="E679" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B680" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C680" t="s">
         <v>2472</v>
       </c>
-      <c r="B680" t="s">
-        <v>2472</v>
-      </c>
-      <c r="C680" t="s">
+      <c r="D680" t="s">
         <v>2473</v>
-      </c>
-      <c r="D680" t="s">
-        <v>2474</v>
       </c>
       <c r="E680" t="s">
         <v>1823</v>
@@ -21743,16 +22098,16 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B681" t="s">
         <v>1112</v>
       </c>
       <c r="C681" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D681" t="s">
         <v>2476</v>
-      </c>
-      <c r="D681" t="s">
-        <v>2477</v>
       </c>
       <c r="E681" t="s">
         <v>1851</v>
@@ -21760,16 +22115,16 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B682" t="s">
         <v>2161</v>
       </c>
-      <c r="B682" t="s">
-        <v>2162</v>
-      </c>
       <c r="C682" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D682" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E682" t="s">
         <v>1851</v>
@@ -21783,13 +22138,13 @@
         <v>497</v>
       </c>
       <c r="C683" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D683" t="s">
         <v>2479</v>
       </c>
-      <c r="D683" t="s">
-        <v>2480</v>
-      </c>
       <c r="E683" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
@@ -21800,13 +22155,13 @@
         <v>1812</v>
       </c>
       <c r="C684" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D684" t="s">
         <v>2481</v>
       </c>
-      <c r="D684" t="s">
-        <v>2482</v>
-      </c>
       <c r="E684" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
@@ -21817,13 +22172,13 @@
         <v>484</v>
       </c>
       <c r="C685" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D685" t="s">
         <v>2483</v>
       </c>
-      <c r="D685" t="s">
-        <v>2484</v>
-      </c>
       <c r="E685" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
@@ -21834,13 +22189,13 @@
         <v>473</v>
       </c>
       <c r="C686" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D686" t="s">
         <v>2485</v>
       </c>
-      <c r="D686" t="s">
-        <v>2486</v>
-      </c>
       <c r="E686" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
@@ -21851,13 +22206,13 @@
         <v>576</v>
       </c>
       <c r="C687" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D687" t="s">
         <v>1818</v>
       </c>
       <c r="E687" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
@@ -21868,30 +22223,30 @@
         <v>374</v>
       </c>
       <c r="C688" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D688" t="s">
         <v>2488</v>
       </c>
-      <c r="D688" t="s">
-        <v>2489</v>
-      </c>
       <c r="E688" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B689" t="s">
         <v>2322</v>
       </c>
-      <c r="B689" t="s">
-        <v>2323</v>
-      </c>
       <c r="C689" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D689" t="s">
         <v>2490</v>
       </c>
-      <c r="D689" t="s">
-        <v>2491</v>
-      </c>
       <c r="E689" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
@@ -21902,30 +22257,30 @@
         <v>488</v>
       </c>
       <c r="C690" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D690" t="s">
         <v>2492</v>
       </c>
-      <c r="D690" t="s">
-        <v>2493</v>
-      </c>
       <c r="E690" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B691" t="s">
         <v>2369</v>
       </c>
-      <c r="B691" t="s">
-        <v>2370</v>
-      </c>
       <c r="C691" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D691" t="s">
         <v>2494</v>
       </c>
-      <c r="D691" t="s">
-        <v>2495</v>
-      </c>
       <c r="E691" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
@@ -21933,16 +22288,16 @@
         <v>155</v>
       </c>
       <c r="B692" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C692" t="s">
         <v>2496</v>
       </c>
-      <c r="C692" t="s">
+      <c r="D692" t="s">
         <v>2497</v>
       </c>
-      <c r="D692" t="s">
-        <v>2498</v>
-      </c>
       <c r="E692" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
@@ -21950,16 +22305,16 @@
         <v>169</v>
       </c>
       <c r="B693" t="s">
-        <v>466</v>
+        <v>2932</v>
       </c>
       <c r="C693" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D693" t="s">
         <v>171</v>
       </c>
       <c r="E693" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
@@ -21967,33 +22322,33 @@
         <v>221</v>
       </c>
       <c r="B694" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C694" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D694" t="s">
         <v>2500</v>
       </c>
-      <c r="D694" t="s">
-        <v>2501</v>
-      </c>
       <c r="E694" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B695" t="s">
         <v>2359</v>
       </c>
-      <c r="B695" t="s">
-        <v>2360</v>
-      </c>
       <c r="C695" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D695" t="s">
         <v>2502</v>
       </c>
-      <c r="D695" t="s">
-        <v>2503</v>
-      </c>
       <c r="E695" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
@@ -22001,16 +22356,16 @@
         <v>202</v>
       </c>
       <c r="B696" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C696" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D696" t="s">
         <v>2504</v>
       </c>
-      <c r="D696" t="s">
-        <v>2505</v>
-      </c>
       <c r="E696" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.2">
@@ -22027,24 +22382,24 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B698" t="s">
         <v>2506</v>
       </c>
-      <c r="B698" t="s">
+      <c r="C698" t="s">
         <v>2507</v>
       </c>
-      <c r="C698" t="s">
+      <c r="D698" t="s">
         <v>2508</v>
       </c>
-      <c r="D698" t="s">
-        <v>2509</v>
-      </c>
       <c r="E698" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
@@ -22052,200 +22407,200 @@
         <v>155</v>
       </c>
       <c r="B699" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C699" t="s">
         <v>2510</v>
       </c>
-      <c r="C699" t="s">
+      <c r="D699" t="s">
         <v>2511</v>
       </c>
-      <c r="D699" t="s">
-        <v>2512</v>
-      </c>
       <c r="E699" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C700" t="s">
         <v>2513</v>
       </c>
-      <c r="B700" t="s">
-        <v>2462</v>
-      </c>
-      <c r="C700" t="s">
+      <c r="D700" t="s">
         <v>2514</v>
       </c>
-      <c r="D700" t="s">
-        <v>2515</v>
-      </c>
       <c r="E700" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B701" t="s">
         <v>2516</v>
       </c>
-      <c r="B701" t="s">
+      <c r="C701" t="s">
         <v>2517</v>
       </c>
-      <c r="C701" t="s">
+      <c r="D701" t="s">
         <v>2518</v>
       </c>
-      <c r="D701" t="s">
-        <v>2519</v>
-      </c>
       <c r="E701" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B702" t="s">
         <v>2520</v>
       </c>
-      <c r="B702" t="s">
+      <c r="C702" t="s">
         <v>2521</v>
       </c>
-      <c r="C702" t="s">
+      <c r="D702" t="s">
         <v>2522</v>
       </c>
-      <c r="D702" t="s">
-        <v>2523</v>
-      </c>
       <c r="E702" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B703" t="s">
         <v>2524</v>
       </c>
-      <c r="B703" t="s">
+      <c r="C703" t="s">
         <v>2525</v>
       </c>
-      <c r="C703" t="s">
+      <c r="D703" t="s">
         <v>2526</v>
       </c>
-      <c r="D703" t="s">
-        <v>2527</v>
-      </c>
       <c r="E703" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B704" t="s">
         <v>2528</v>
       </c>
-      <c r="B704" t="s">
+      <c r="C704" t="s">
         <v>2529</v>
       </c>
-      <c r="C704" t="s">
+      <c r="D704" t="s">
         <v>2530</v>
       </c>
-      <c r="D704" t="s">
-        <v>2531</v>
-      </c>
       <c r="E704" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B705" t="s">
         <v>2532</v>
       </c>
-      <c r="B705" t="s">
+      <c r="C705" t="s">
         <v>2533</v>
       </c>
-      <c r="C705" t="s">
+      <c r="D705" t="s">
         <v>2534</v>
       </c>
-      <c r="D705" t="s">
-        <v>2535</v>
-      </c>
       <c r="E705" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B706" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C706" t="s">
         <v>2536</v>
       </c>
-      <c r="C706" t="s">
+      <c r="D706" t="s">
         <v>2537</v>
       </c>
-      <c r="D706" t="s">
-        <v>2538</v>
-      </c>
       <c r="E706" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B707" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C707" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D707" t="s">
         <v>2539</v>
       </c>
-      <c r="D707" t="s">
-        <v>2540</v>
-      </c>
       <c r="E707" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B708" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C708" t="s">
         <v>2541</v>
       </c>
-      <c r="C708" t="s">
+      <c r="D708" t="s">
         <v>2542</v>
       </c>
-      <c r="D708" t="s">
-        <v>2543</v>
-      </c>
       <c r="E708" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B709" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C709" t="s">
         <v>2544</v>
       </c>
-      <c r="B709" t="s">
-        <v>2544</v>
-      </c>
-      <c r="C709" t="s">
+      <c r="D709" t="s">
         <v>2545</v>
       </c>
-      <c r="D709" t="s">
+      <c r="E709" t="s">
         <v>2546</v>
-      </c>
-      <c r="E709" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B710" t="s">
         <v>2548</v>
       </c>
-      <c r="B710" t="s">
+      <c r="C710" t="s">
         <v>2549</v>
       </c>
-      <c r="C710" t="s">
+      <c r="D710" t="s">
         <v>2550</v>
-      </c>
-      <c r="D710" t="s">
-        <v>2551</v>
       </c>
       <c r="E710" t="s">
         <v>1851</v>
@@ -22253,33 +22608,33 @@
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B711" t="s">
         <v>2552</v>
       </c>
-      <c r="B711" t="s">
+      <c r="C711" t="s">
         <v>2553</v>
       </c>
-      <c r="C711" t="s">
+      <c r="D711" t="s">
         <v>2554</v>
       </c>
-      <c r="D711" t="s">
-        <v>2555</v>
-      </c>
       <c r="E711" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B712" t="s">
         <v>2556</v>
       </c>
-      <c r="B712" t="s">
+      <c r="C712" t="s">
         <v>2557</v>
       </c>
-      <c r="C712" t="s">
+      <c r="D712" t="s">
         <v>2558</v>
-      </c>
-      <c r="D712" t="s">
-        <v>2559</v>
       </c>
       <c r="E712" t="s">
         <v>1851</v>
@@ -22287,16 +22642,16 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B713" t="s">
         <v>2560</v>
       </c>
-      <c r="B713" t="s">
+      <c r="C713" t="s">
         <v>2561</v>
       </c>
-      <c r="C713" t="s">
+      <c r="D713" t="s">
         <v>2562</v>
-      </c>
-      <c r="D713" t="s">
-        <v>2563</v>
       </c>
       <c r="E713" t="s">
         <v>1851</v>
@@ -22304,16 +22659,16 @@
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B714" t="s">
         <v>2560</v>
       </c>
-      <c r="B714" t="s">
-        <v>2561</v>
-      </c>
       <c r="C714" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D714" t="s">
         <v>2564</v>
-      </c>
-      <c r="D714" t="s">
-        <v>2565</v>
       </c>
       <c r="E714" t="s">
         <v>1851</v>
@@ -22321,376 +22676,376 @@
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B715" t="s">
         <v>2566</v>
       </c>
-      <c r="B715" t="s">
+      <c r="C715" t="s">
         <v>2567</v>
       </c>
-      <c r="C715" t="s">
+      <c r="D715" t="s">
         <v>2568</v>
       </c>
-      <c r="D715" t="s">
-        <v>2569</v>
-      </c>
       <c r="E715" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B716" t="s">
         <v>2570</v>
       </c>
-      <c r="B716" t="s">
+      <c r="C716" t="s">
         <v>2571</v>
       </c>
-      <c r="C716" t="s">
+      <c r="D716" t="s">
         <v>2572</v>
       </c>
-      <c r="D716" t="s">
-        <v>2573</v>
-      </c>
       <c r="E716" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B717" t="s">
         <v>2574</v>
       </c>
-      <c r="B717" t="s">
+      <c r="C717" t="s">
         <v>2575</v>
       </c>
-      <c r="C717" t="s">
+      <c r="D717" t="s">
         <v>2576</v>
       </c>
-      <c r="D717" t="s">
-        <v>2577</v>
-      </c>
       <c r="E717" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B718" t="s">
         <v>2578</v>
       </c>
-      <c r="B718" t="s">
+      <c r="C718" t="s">
         <v>2579</v>
       </c>
-      <c r="C718" t="s">
+      <c r="D718" t="s">
         <v>2580</v>
       </c>
-      <c r="D718" t="s">
-        <v>2581</v>
-      </c>
       <c r="E718" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B719" t="s">
         <v>2582</v>
       </c>
-      <c r="B719" t="s">
+      <c r="C719" t="s">
         <v>2583</v>
       </c>
-      <c r="C719" t="s">
+      <c r="D719" t="s">
         <v>2584</v>
       </c>
-      <c r="D719" t="s">
-        <v>2585</v>
-      </c>
       <c r="E719" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B720" t="s">
         <v>2586</v>
       </c>
-      <c r="B720" t="s">
+      <c r="C720" t="s">
         <v>2587</v>
       </c>
-      <c r="C720" t="s">
+      <c r="D720" t="s">
         <v>2588</v>
       </c>
-      <c r="D720" t="s">
-        <v>2589</v>
-      </c>
       <c r="E720" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B721" t="s">
         <v>2590</v>
       </c>
-      <c r="B721" t="s">
+      <c r="C721" t="s">
         <v>2591</v>
       </c>
-      <c r="C721" t="s">
+      <c r="D721" t="s">
         <v>2592</v>
       </c>
-      <c r="D721" t="s">
-        <v>2593</v>
-      </c>
       <c r="E721" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B722" t="s">
         <v>2594</v>
       </c>
-      <c r="B722" t="s">
+      <c r="C722" t="s">
         <v>2595</v>
       </c>
-      <c r="C722" t="s">
+      <c r="D722" t="s">
         <v>2596</v>
       </c>
-      <c r="D722" t="s">
-        <v>2597</v>
-      </c>
       <c r="E722" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B723" t="s">
         <v>2598</v>
       </c>
-      <c r="B723" t="s">
+      <c r="C723" t="s">
         <v>2599</v>
       </c>
-      <c r="C723" t="s">
+      <c r="D723" t="s">
         <v>2600</v>
       </c>
-      <c r="D723" t="s">
-        <v>2601</v>
-      </c>
       <c r="E723" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B724" t="s">
         <v>2602</v>
       </c>
-      <c r="B724" t="s">
+      <c r="C724" t="s">
         <v>2603</v>
       </c>
-      <c r="C724" t="s">
+      <c r="D724" t="s">
         <v>2604</v>
       </c>
-      <c r="D724" t="s">
-        <v>2605</v>
-      </c>
       <c r="E724" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B725" t="s">
         <v>2606</v>
       </c>
-      <c r="B725" t="s">
+      <c r="C725" t="s">
         <v>2607</v>
       </c>
-      <c r="C725" t="s">
-        <v>2608</v>
-      </c>
       <c r="D725" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E725" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B726" t="s">
         <v>2609</v>
       </c>
-      <c r="B726" t="s">
+      <c r="C726" t="s">
         <v>2610</v>
       </c>
-      <c r="C726" t="s">
+      <c r="D726" t="s">
         <v>2611</v>
       </c>
-      <c r="D726" t="s">
-        <v>2612</v>
-      </c>
       <c r="E726" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B727" t="s">
         <v>2613</v>
       </c>
-      <c r="B727" t="s">
+      <c r="C727" t="s">
         <v>2614</v>
       </c>
-      <c r="C727" t="s">
+      <c r="D727" t="s">
         <v>2615</v>
       </c>
-      <c r="D727" t="s">
-        <v>2616</v>
-      </c>
       <c r="E727" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B728" t="s">
         <v>2617</v>
       </c>
-      <c r="B728" t="s">
+      <c r="C728" t="s">
         <v>2618</v>
       </c>
-      <c r="C728" t="s">
+      <c r="D728" t="s">
         <v>2619</v>
       </c>
-      <c r="D728" t="s">
-        <v>2620</v>
-      </c>
       <c r="E728" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B729" t="s">
         <v>2621</v>
       </c>
-      <c r="B729" t="s">
+      <c r="C729" t="s">
         <v>2622</v>
       </c>
-      <c r="C729" t="s">
+      <c r="D729" t="s">
         <v>2623</v>
       </c>
-      <c r="D729" t="s">
-        <v>2624</v>
-      </c>
       <c r="E729" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B730" t="s">
         <v>2625</v>
       </c>
-      <c r="B730" t="s">
+      <c r="C730" t="s">
         <v>2626</v>
       </c>
-      <c r="C730" t="s">
+      <c r="D730" t="s">
         <v>2627</v>
       </c>
-      <c r="D730" t="s">
-        <v>2628</v>
-      </c>
       <c r="E730" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B731" t="s">
         <v>2629</v>
       </c>
-      <c r="B731" t="s">
+      <c r="C731" t="s">
         <v>2630</v>
       </c>
-      <c r="C731" t="s">
+      <c r="D731" t="s">
         <v>2631</v>
       </c>
-      <c r="D731" t="s">
-        <v>2632</v>
-      </c>
       <c r="E731" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B732" t="s">
         <v>2633</v>
       </c>
-      <c r="B732" t="s">
+      <c r="C732" t="s">
         <v>2634</v>
       </c>
-      <c r="C732" t="s">
+      <c r="D732" t="s">
         <v>2635</v>
       </c>
-      <c r="D732" t="s">
-        <v>2636</v>
-      </c>
       <c r="E732" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B733" t="s">
         <v>2637</v>
       </c>
-      <c r="B733" t="s">
+      <c r="C733" t="s">
         <v>2638</v>
       </c>
-      <c r="C733" t="s">
+      <c r="D733" t="s">
         <v>2639</v>
       </c>
-      <c r="D733" t="s">
-        <v>2640</v>
-      </c>
       <c r="E733" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B734" t="s">
         <v>2641</v>
       </c>
-      <c r="B734" t="s">
+      <c r="C734" t="s">
         <v>2642</v>
       </c>
-      <c r="C734" t="s">
+      <c r="D734" t="s">
         <v>2643</v>
       </c>
-      <c r="D734" t="s">
-        <v>2644</v>
-      </c>
       <c r="E734" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B735" t="s">
         <v>2645</v>
       </c>
-      <c r="B735" t="s">
+      <c r="C735" t="s">
         <v>2646</v>
       </c>
-      <c r="C735" t="s">
+      <c r="D735" t="s">
         <v>2647</v>
       </c>
-      <c r="D735" t="s">
+      <c r="E735" t="s">
         <v>2648</v>
-      </c>
-      <c r="E735" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B736" t="s">
         <v>2322</v>
       </c>
-      <c r="B736" t="s">
-        <v>2323</v>
-      </c>
       <c r="C736" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D736" t="s">
         <v>2651</v>
       </c>
-      <c r="D736" t="s">
-        <v>2652</v>
-      </c>
       <c r="E736" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.2">
@@ -22701,7 +23056,7 @@
         <v>1538</v>
       </c>
       <c r="C737" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D737" t="s">
         <v>1540</v>
@@ -22715,16 +23070,16 @@
         <v>187</v>
       </c>
       <c r="B738" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C738" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D738" t="s">
         <v>2654</v>
       </c>
-      <c r="D738" t="s">
-        <v>2655</v>
-      </c>
       <c r="E738" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.2">
@@ -22732,16 +23087,16 @@
         <v>221</v>
       </c>
       <c r="B739" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C739" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D739" t="s">
         <v>2656</v>
       </c>
-      <c r="D739" t="s">
-        <v>2657</v>
-      </c>
       <c r="E739" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.2">
@@ -22755,7 +23110,7 @@
         <v>5</v>
       </c>
       <c r="D740" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="E740" t="s">
         <v>1851</v>
@@ -22769,10 +23124,10 @@
         <v>86</v>
       </c>
       <c r="C741" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D741" t="s">
         <v>2659</v>
-      </c>
-      <c r="D741" t="s">
-        <v>2660</v>
       </c>
       <c r="E741" t="s">
         <v>1851</v>
@@ -22780,19 +23135,19 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B742" t="s">
         <v>2322</v>
       </c>
-      <c r="B742" t="s">
-        <v>2323</v>
-      </c>
       <c r="C742" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D742" t="s">
         <v>2661</v>
       </c>
-      <c r="D742" t="s">
-        <v>2662</v>
-      </c>
       <c r="E742" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
@@ -22806,7 +23161,7 @@
         <v>325</v>
       </c>
       <c r="D743" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="E743" t="s">
         <v>1823</v>
@@ -22820,7 +23175,7 @@
         <v>484</v>
       </c>
       <c r="C744" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D744" t="s">
         <v>1023</v>
@@ -22831,16 +23186,16 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B745" t="s">
         <v>391</v>
       </c>
       <c r="C745" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D745" t="s">
         <v>2666</v>
-      </c>
-      <c r="D745" t="s">
-        <v>2667</v>
       </c>
       <c r="E745" t="s">
         <v>1851</v>
@@ -22854,7 +23209,7 @@
         <v>1834</v>
       </c>
       <c r="C746" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D746" t="s">
         <v>1836</v>
@@ -22871,7 +23226,7 @@
         <v>72</v>
       </c>
       <c r="C747" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D747" t="s">
         <v>74</v>
@@ -22888,10 +23243,10 @@
         <v>480</v>
       </c>
       <c r="C748" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D748" t="s">
         <v>2670</v>
-      </c>
-      <c r="D748" t="s">
-        <v>2671</v>
       </c>
       <c r="E748" t="s">
         <v>1851</v>
@@ -22902,16 +23257,16 @@
         <v>362</v>
       </c>
       <c r="B749" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C749" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D749" t="s">
         <v>2672</v>
       </c>
-      <c r="D749" t="s">
+      <c r="E749" t="s">
         <v>2673</v>
-      </c>
-      <c r="E749" t="s">
-        <v>2674</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
@@ -22922,13 +23277,13 @@
         <v>576</v>
       </c>
       <c r="C750" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D750" t="s">
         <v>2675</v>
       </c>
-      <c r="D750" t="s">
-        <v>2676</v>
-      </c>
       <c r="E750" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
@@ -22936,10 +23291,10 @@
         <v>0</v>
       </c>
       <c r="B751" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C751" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D751" t="s">
         <v>2</v>
@@ -22956,13 +23311,13 @@
         <v>374</v>
       </c>
       <c r="C752" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D752" t="s">
         <v>542</v>
       </c>
       <c r="E752" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
@@ -22970,13 +23325,13 @@
         <v>70</v>
       </c>
       <c r="B753" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C753" t="s">
         <v>2680</v>
       </c>
-      <c r="C753" t="s">
+      <c r="D753" t="s">
         <v>2681</v>
-      </c>
-      <c r="D753" t="s">
-        <v>2682</v>
       </c>
       <c r="E753" t="s">
         <v>1851</v>
@@ -22984,16 +23339,16 @@
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B754" t="s">
         <v>2683</v>
-      </c>
-      <c r="B754" t="s">
-        <v>2684</v>
       </c>
       <c r="C754" t="s">
         <v>737</v>
       </c>
       <c r="D754" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="E754" t="s">
         <v>1851</v>
@@ -23001,16 +23356,16 @@
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B755" t="s">
         <v>2686</v>
       </c>
-      <c r="B755" t="s">
+      <c r="C755" t="s">
         <v>2687</v>
       </c>
-      <c r="C755" t="s">
+      <c r="D755" t="s">
         <v>2688</v>
-      </c>
-      <c r="D755" t="s">
-        <v>2689</v>
       </c>
       <c r="E755" t="s">
         <v>1851</v>
@@ -23018,16 +23373,16 @@
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B756" t="s">
         <v>2690</v>
       </c>
-      <c r="B756" t="s">
+      <c r="C756" t="s">
         <v>2691</v>
       </c>
-      <c r="C756" t="s">
+      <c r="D756" t="s">
         <v>2692</v>
-      </c>
-      <c r="D756" t="s">
-        <v>2693</v>
       </c>
       <c r="E756" t="s">
         <v>1851</v>
@@ -23035,16 +23390,16 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B757" t="s">
         <v>2694</v>
       </c>
-      <c r="B757" t="s">
+      <c r="C757" t="s">
         <v>2695</v>
       </c>
-      <c r="C757" t="s">
+      <c r="D757" t="s">
         <v>2696</v>
-      </c>
-      <c r="D757" t="s">
-        <v>2697</v>
       </c>
       <c r="E757" t="s">
         <v>1851</v>
@@ -23052,16 +23407,16 @@
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B758" t="s">
         <v>2698</v>
       </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>2699</v>
       </c>
-      <c r="C758" t="s">
+      <c r="D758" t="s">
         <v>2700</v>
-      </c>
-      <c r="D758" t="s">
-        <v>2701</v>
       </c>
       <c r="E758" t="s">
         <v>1851</v>
@@ -23069,16 +23424,16 @@
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B759" t="s">
         <v>2702</v>
       </c>
-      <c r="B759" t="s">
+      <c r="C759" t="s">
         <v>2703</v>
       </c>
-      <c r="C759" t="s">
+      <c r="D759" t="s">
         <v>2704</v>
-      </c>
-      <c r="D759" t="s">
-        <v>2705</v>
       </c>
       <c r="E759" t="s">
         <v>1851</v>
@@ -23086,16 +23441,16 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B760" t="s">
         <v>2706</v>
       </c>
-      <c r="B760" t="s">
+      <c r="C760" t="s">
         <v>2707</v>
       </c>
-      <c r="C760" t="s">
+      <c r="D760" t="s">
         <v>2708</v>
-      </c>
-      <c r="D760" t="s">
-        <v>2709</v>
       </c>
       <c r="E760" t="s">
         <v>1851</v>
@@ -23103,16 +23458,16 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B761" t="s">
         <v>2710</v>
       </c>
-      <c r="B761" t="s">
+      <c r="C761" t="s">
         <v>2711</v>
       </c>
-      <c r="C761" t="s">
+      <c r="D761" t="s">
         <v>2712</v>
-      </c>
-      <c r="D761" t="s">
-        <v>2713</v>
       </c>
       <c r="E761" t="s">
         <v>1851</v>
@@ -23120,16 +23475,16 @@
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B762" t="s">
         <v>2714</v>
       </c>
-      <c r="B762" t="s">
+      <c r="C762" t="s">
         <v>2715</v>
       </c>
-      <c r="C762" t="s">
+      <c r="D762" t="s">
         <v>2716</v>
-      </c>
-      <c r="D762" t="s">
-        <v>2717</v>
       </c>
       <c r="E762" t="s">
         <v>1851</v>
@@ -23137,16 +23492,16 @@
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B763" t="s">
         <v>2718</v>
       </c>
-      <c r="B763" t="s">
+      <c r="C763" t="s">
         <v>2719</v>
       </c>
-      <c r="C763" t="s">
+      <c r="D763" t="s">
         <v>2720</v>
-      </c>
-      <c r="D763" t="s">
-        <v>2721</v>
       </c>
       <c r="E763" t="s">
         <v>1851</v>
@@ -23154,16 +23509,16 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B764" t="s">
         <v>2722</v>
       </c>
-      <c r="B764" t="s">
+      <c r="C764" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D764" t="s">
         <v>2723</v>
-      </c>
-      <c r="C764" t="s">
-        <v>2746</v>
-      </c>
-      <c r="D764" t="s">
-        <v>2724</v>
       </c>
       <c r="E764" t="s">
         <v>1851</v>
@@ -23171,13 +23526,13 @@
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B765" t="s">
         <v>2725</v>
       </c>
-      <c r="B765" t="s">
+      <c r="C765" t="s">
         <v>2726</v>
-      </c>
-      <c r="C765" t="s">
-        <v>2727</v>
       </c>
       <c r="D765" t="s">
         <v>836</v>
@@ -23188,16 +23543,16 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B766" t="s">
         <v>2728</v>
       </c>
-      <c r="B766" t="s">
+      <c r="C766" t="s">
         <v>2729</v>
       </c>
-      <c r="C766" t="s">
+      <c r="D766" t="s">
         <v>2730</v>
-      </c>
-      <c r="D766" t="s">
-        <v>2731</v>
       </c>
       <c r="E766" t="s">
         <v>1851</v>
@@ -23205,13 +23560,13 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B767" t="s">
         <v>2732</v>
       </c>
-      <c r="B767" t="s">
+      <c r="C767" t="s">
         <v>2733</v>
-      </c>
-      <c r="C767" t="s">
-        <v>2734</v>
       </c>
       <c r="D767" t="s">
         <v>558</v>
@@ -23222,16 +23577,16 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B768" t="s">
         <v>2735</v>
       </c>
-      <c r="B768" t="s">
+      <c r="C768" t="s">
         <v>2736</v>
       </c>
-      <c r="C768" t="s">
+      <c r="D768" t="s">
         <v>2737</v>
-      </c>
-      <c r="D768" t="s">
-        <v>2738</v>
       </c>
       <c r="E768" t="s">
         <v>1851</v>
@@ -23239,16 +23594,16 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B769" t="s">
         <v>2739</v>
       </c>
-      <c r="B769" t="s">
+      <c r="C769" t="s">
         <v>2740</v>
       </c>
-      <c r="C769" t="s">
+      <c r="D769" t="s">
         <v>2741</v>
-      </c>
-      <c r="D769" t="s">
-        <v>2742</v>
       </c>
       <c r="E769" t="s">
         <v>1851</v>
@@ -23256,16 +23611,16 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C770" t="s">
         <v>2743</v>
       </c>
-      <c r="B770" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C770" t="s">
+      <c r="D770" t="s">
         <v>2744</v>
-      </c>
-      <c r="D770" t="s">
-        <v>2745</v>
       </c>
       <c r="E770" t="s">
         <v>1851</v>
@@ -23279,13 +23634,13 @@
         <v>466</v>
       </c>
       <c r="C771" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D771" t="s">
         <v>1837</v>
       </c>
       <c r="E771" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -23296,7 +23651,7 @@
         <v>4</v>
       </c>
       <c r="C772" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D772" t="s">
         <v>6</v>
@@ -23307,19 +23662,19 @@
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B773" t="s">
         <v>2363</v>
       </c>
-      <c r="B773" t="s">
-        <v>2364</v>
-      </c>
       <c r="C773" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D773" t="s">
         <v>2748</v>
       </c>
-      <c r="D773" t="s">
-        <v>2749</v>
-      </c>
       <c r="E773" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -23330,13 +23685,13 @@
         <v>497</v>
       </c>
       <c r="C774" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D774" t="s">
         <v>2750</v>
       </c>
-      <c r="D774" t="s">
-        <v>2751</v>
-      </c>
       <c r="E774" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
@@ -23344,13 +23699,13 @@
         <v>61</v>
       </c>
       <c r="B775" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C775" t="s">
         <v>2752</v>
       </c>
-      <c r="C775" t="s">
+      <c r="D775" t="s">
         <v>2753</v>
-      </c>
-      <c r="D775" t="s">
-        <v>2754</v>
       </c>
       <c r="E775" t="s">
         <v>1851</v>
@@ -23358,16 +23713,16 @@
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C776" t="s">
         <v>2755</v>
       </c>
-      <c r="B776" t="s">
-        <v>2472</v>
-      </c>
-      <c r="C776" t="s">
+      <c r="D776" t="s">
         <v>2756</v>
-      </c>
-      <c r="D776" t="s">
-        <v>2757</v>
       </c>
       <c r="E776" t="s">
         <v>1823</v>
@@ -23381,10 +23736,10 @@
         <v>1812</v>
       </c>
       <c r="C777" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D777" t="s">
         <v>2758</v>
-      </c>
-      <c r="D777" t="s">
-        <v>2759</v>
       </c>
       <c r="E777" t="s">
         <v>1823</v>
@@ -23398,7 +23753,7 @@
         <v>484</v>
       </c>
       <c r="C778" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D778" t="s">
         <v>1023</v>
@@ -23415,10 +23770,10 @@
         <v>469</v>
       </c>
       <c r="C779" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D779" t="s">
         <v>2761</v>
-      </c>
-      <c r="D779" t="s">
-        <v>2762</v>
       </c>
       <c r="E779" t="s">
         <v>1823</v>
@@ -23426,13 +23781,13 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B780" t="s">
         <v>72</v>
       </c>
       <c r="C780" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D780" t="s">
         <v>74</v>
@@ -23446,10 +23801,10 @@
         <v>944</v>
       </c>
       <c r="B781" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C781" t="s">
         <v>2764</v>
-      </c>
-      <c r="C781" t="s">
-        <v>2765</v>
       </c>
       <c r="D781" t="s">
         <v>947</v>
@@ -23460,16 +23815,16 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C782" t="s">
         <v>2766</v>
       </c>
-      <c r="B782" t="s">
-        <v>2766</v>
-      </c>
-      <c r="C782" t="s">
+      <c r="D782" t="s">
         <v>2767</v>
-      </c>
-      <c r="D782" t="s">
-        <v>2768</v>
       </c>
       <c r="E782" t="s">
         <v>1851</v>
@@ -23477,16 +23832,16 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B783" t="s">
         <v>2769</v>
       </c>
-      <c r="B783" t="s">
+      <c r="C783" t="s">
         <v>2770</v>
       </c>
-      <c r="C783" t="s">
+      <c r="D783" t="s">
         <v>2771</v>
-      </c>
-      <c r="D783" t="s">
-        <v>2772</v>
       </c>
       <c r="E783" t="s">
         <v>1851</v>
@@ -23494,16 +23849,16 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B784" t="s">
         <v>2773</v>
       </c>
-      <c r="B784" t="s">
+      <c r="C784" t="s">
         <v>2774</v>
       </c>
-      <c r="C784" t="s">
+      <c r="D784" t="s">
         <v>2775</v>
-      </c>
-      <c r="D784" t="s">
-        <v>2776</v>
       </c>
       <c r="E784" t="s">
         <v>1851</v>
@@ -23511,16 +23866,16 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B785" t="s">
         <v>2777</v>
       </c>
-      <c r="B785" t="s">
+      <c r="C785" t="s">
         <v>2778</v>
       </c>
-      <c r="C785" t="s">
+      <c r="D785" t="s">
         <v>2779</v>
-      </c>
-      <c r="D785" t="s">
-        <v>2780</v>
       </c>
       <c r="E785" t="s">
         <v>1851</v>
@@ -23528,16 +23883,16 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B786" t="s">
         <v>2781</v>
       </c>
-      <c r="B786" t="s">
+      <c r="C786" t="s">
         <v>2782</v>
       </c>
-      <c r="C786" t="s">
+      <c r="D786" t="s">
         <v>2783</v>
-      </c>
-      <c r="D786" t="s">
-        <v>2784</v>
       </c>
       <c r="E786" t="s">
         <v>1851</v>
@@ -23545,16 +23900,16 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B787" t="s">
         <v>2785</v>
       </c>
-      <c r="B787" t="s">
+      <c r="C787" t="s">
         <v>2786</v>
       </c>
-      <c r="C787" t="s">
+      <c r="D787" t="s">
         <v>2787</v>
-      </c>
-      <c r="D787" t="s">
-        <v>2788</v>
       </c>
       <c r="E787" t="s">
         <v>1851</v>
@@ -23562,16 +23917,16 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B788" t="s">
         <v>2789</v>
       </c>
-      <c r="B788" t="s">
+      <c r="C788" t="s">
         <v>2790</v>
       </c>
-      <c r="C788" t="s">
+      <c r="D788" t="s">
         <v>2791</v>
-      </c>
-      <c r="D788" t="s">
-        <v>2792</v>
       </c>
       <c r="E788" t="s">
         <v>1851</v>
@@ -23579,16 +23934,16 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B789" t="s">
         <v>2793</v>
       </c>
-      <c r="B789" t="s">
+      <c r="C789" t="s">
         <v>2794</v>
       </c>
-      <c r="C789" t="s">
+      <c r="D789" t="s">
         <v>2795</v>
-      </c>
-      <c r="D789" t="s">
-        <v>2796</v>
       </c>
       <c r="E789" t="s">
         <v>1851</v>
@@ -23596,16 +23951,16 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B790" t="s">
         <v>2797</v>
       </c>
-      <c r="B790" t="s">
+      <c r="C790" t="s">
         <v>2798</v>
       </c>
-      <c r="C790" t="s">
+      <c r="D790" t="s">
         <v>2799</v>
-      </c>
-      <c r="D790" t="s">
-        <v>2800</v>
       </c>
       <c r="E790" t="s">
         <v>1851</v>
@@ -23613,16 +23968,16 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B791" t="s">
         <v>2801</v>
       </c>
-      <c r="B791" t="s">
+      <c r="C791" t="s">
         <v>2802</v>
       </c>
-      <c r="C791" t="s">
+      <c r="D791" t="s">
         <v>2803</v>
-      </c>
-      <c r="D791" t="s">
-        <v>2804</v>
       </c>
       <c r="E791" t="s">
         <v>1851</v>
@@ -23630,16 +23985,16 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B792" t="s">
         <v>2805</v>
       </c>
-      <c r="B792" t="s">
+      <c r="C792" t="s">
         <v>2806</v>
       </c>
-      <c r="C792" t="s">
-        <v>2807</v>
-      </c>
       <c r="D792" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E792" t="s">
         <v>1851</v>
@@ -23647,16 +24002,16 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B793" t="s">
         <v>2808</v>
       </c>
-      <c r="B793" t="s">
+      <c r="C793" t="s">
         <v>2809</v>
       </c>
-      <c r="C793" t="s">
-        <v>2810</v>
-      </c>
       <c r="D793" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E793" t="s">
         <v>1851</v>
@@ -23664,16 +24019,16 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B794" t="s">
         <v>2811</v>
       </c>
-      <c r="B794" t="s">
+      <c r="C794" t="s">
         <v>2812</v>
       </c>
-      <c r="C794" t="s">
-        <v>2813</v>
-      </c>
       <c r="D794" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E794" t="s">
         <v>1851</v>
@@ -23681,16 +24036,16 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B795" t="s">
         <v>2814</v>
       </c>
-      <c r="B795" t="s">
+      <c r="C795" t="s">
         <v>2815</v>
       </c>
-      <c r="C795" t="s">
+      <c r="D795" t="s">
         <v>2816</v>
-      </c>
-      <c r="D795" t="s">
-        <v>2817</v>
       </c>
       <c r="E795" t="s">
         <v>1851</v>
@@ -23698,16 +24053,16 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B796" t="s">
         <v>2818</v>
       </c>
-      <c r="B796" t="s">
+      <c r="C796" t="s">
         <v>2819</v>
       </c>
-      <c r="C796" t="s">
+      <c r="D796" t="s">
         <v>2820</v>
-      </c>
-      <c r="D796" t="s">
-        <v>2821</v>
       </c>
       <c r="E796" t="s">
         <v>1851</v>
@@ -23718,10 +24073,10 @@
         <v>1004</v>
       </c>
       <c r="B797" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C797" t="s">
         <v>2822</v>
-      </c>
-      <c r="C797" t="s">
-        <v>2823</v>
       </c>
       <c r="D797" t="s">
         <v>1007</v>
@@ -23732,16 +24087,16 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B798" t="s">
         <v>2322</v>
       </c>
-      <c r="B798" t="s">
-        <v>2323</v>
-      </c>
       <c r="C798" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D798" t="s">
         <v>2824</v>
-      </c>
-      <c r="D798" t="s">
-        <v>2825</v>
       </c>
       <c r="E798" t="s">
         <v>1982</v>
@@ -23749,13 +24104,13 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B799" t="s">
         <v>2826</v>
       </c>
-      <c r="B799" t="s">
+      <c r="C799" t="s">
         <v>2827</v>
-      </c>
-      <c r="C799" t="s">
-        <v>2828</v>
       </c>
       <c r="D799" t="s">
         <v>959</v>
@@ -23775,7 +24130,7 @@
         <v>519</v>
       </c>
       <c r="D800" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="E800" t="s">
         <v>1851</v>
@@ -23789,10 +24144,10 @@
         <v>720</v>
       </c>
       <c r="C801" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D801" t="s">
         <v>2830</v>
-      </c>
-      <c r="D801" t="s">
-        <v>2831</v>
       </c>
       <c r="E801" t="s">
         <v>1851</v>
@@ -23800,19 +24155,19 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B802" t="s">
         <v>2288</v>
       </c>
-      <c r="B802" t="s">
+      <c r="C802" t="s">
         <v>2289</v>
       </c>
-      <c r="C802" t="s">
-        <v>2290</v>
-      </c>
       <c r="D802" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="E802" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
@@ -23823,7 +24178,7 @@
         <v>674</v>
       </c>
       <c r="C803" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D803" t="s">
         <v>676</v>
@@ -23834,16 +24189,16 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B804" t="s">
         <v>1530</v>
       </c>
       <c r="C804" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D804" t="s">
         <v>2835</v>
-      </c>
-      <c r="D804" t="s">
-        <v>2836</v>
       </c>
       <c r="E804" t="s">
         <v>1851</v>
@@ -23851,16 +24206,16 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B805" t="s">
         <v>1461</v>
       </c>
       <c r="C805" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D805" t="s">
         <v>2838</v>
-      </c>
-      <c r="D805" t="s">
-        <v>2839</v>
       </c>
       <c r="E805" t="s">
         <v>1851</v>
@@ -23868,19 +24223,19 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B806" t="s">
         <v>2284</v>
       </c>
-      <c r="B806" t="s">
-        <v>2285</v>
-      </c>
       <c r="C806" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D806" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E806" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
@@ -23891,7 +24246,7 @@
         <v>576</v>
       </c>
       <c r="C807" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D807" t="s">
         <v>171</v>
@@ -23902,16 +24257,16 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B808" t="s">
         <v>728</v>
       </c>
       <c r="C808" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D808" t="s">
         <v>2842</v>
-      </c>
-      <c r="D808" t="s">
-        <v>2843</v>
       </c>
       <c r="E808" t="s">
         <v>1851</v>
@@ -23919,47 +24274,47 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B809" t="s">
         <v>2256</v>
       </c>
-      <c r="B809" t="s">
-        <v>2257</v>
-      </c>
       <c r="C809" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D809" t="s">
         <v>2844</v>
       </c>
-      <c r="D809" t="s">
-        <v>2845</v>
-      </c>
       <c r="E809" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B810" t="s">
         <v>2256</v>
       </c>
-      <c r="B810" t="s">
-        <v>2257</v>
-      </c>
       <c r="C810" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D810" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="E810" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B811" t="s">
         <v>629</v>
       </c>
       <c r="C811" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="D811" t="s">
         <v>631</v>
@@ -23970,16 +24325,16 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B812" t="s">
         <v>2204</v>
       </c>
-      <c r="B812" t="s">
+      <c r="C812" t="s">
         <v>2205</v>
       </c>
-      <c r="C812" t="s">
-        <v>2206</v>
-      </c>
       <c r="D812" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="E812" t="s">
         <v>1851</v>
@@ -23987,19 +24342,19 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C813" t="s">
         <v>2850</v>
       </c>
-      <c r="B813" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C813" t="s">
+      <c r="D813" t="s">
         <v>2851</v>
       </c>
-      <c r="D813" t="s">
-        <v>2852</v>
-      </c>
       <c r="E813" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
@@ -24010,13 +24365,13 @@
         <v>252</v>
       </c>
       <c r="C814" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D814" t="s">
         <v>2853</v>
       </c>
-      <c r="D814" t="s">
-        <v>2854</v>
-      </c>
       <c r="E814" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
@@ -24027,13 +24382,13 @@
         <v>1812</v>
       </c>
       <c r="C815" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D815" t="s">
         <v>2855</v>
       </c>
-      <c r="D815" t="s">
-        <v>2856</v>
-      </c>
       <c r="E815" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
@@ -24044,13 +24399,13 @@
         <v>484</v>
       </c>
       <c r="C816" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D816" t="s">
         <v>2857</v>
       </c>
-      <c r="D816" t="s">
-        <v>2858</v>
-      </c>
       <c r="E816" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
@@ -24061,13 +24416,13 @@
         <v>473</v>
       </c>
       <c r="C817" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D817" t="s">
         <v>2859</v>
       </c>
-      <c r="D817" t="s">
-        <v>2860</v>
-      </c>
       <c r="E817" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
@@ -24078,13 +24433,13 @@
         <v>584</v>
       </c>
       <c r="C818" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D818" t="s">
         <v>2861</v>
       </c>
-      <c r="D818" t="s">
-        <v>2862</v>
-      </c>
       <c r="E818" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
@@ -24095,30 +24450,30 @@
         <v>469</v>
       </c>
       <c r="C819" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D819" t="s">
         <v>2863</v>
       </c>
-      <c r="D819" t="s">
-        <v>2864</v>
-      </c>
       <c r="E819" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B820" t="s">
         <v>1989</v>
       </c>
-      <c r="B820" t="s">
-        <v>1990</v>
-      </c>
       <c r="C820" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D820" t="s">
         <v>2865</v>
       </c>
-      <c r="D820" t="s">
-        <v>2866</v>
-      </c>
       <c r="E820" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
@@ -24132,10 +24487,10 @@
         <v>577</v>
       </c>
       <c r="D821" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="E821" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
@@ -24146,13 +24501,13 @@
         <v>374</v>
       </c>
       <c r="C822" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D822" t="s">
         <v>2868</v>
       </c>
-      <c r="D822" t="s">
-        <v>2869</v>
-      </c>
       <c r="E822" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
@@ -24163,24 +24518,24 @@
         <v>480</v>
       </c>
       <c r="C823" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D823" t="s">
         <v>2870</v>
       </c>
-      <c r="D823" t="s">
-        <v>2871</v>
-      </c>
       <c r="E823" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B824" t="s">
         <v>2318</v>
       </c>
-      <c r="B824" t="s">
-        <v>2319</v>
-      </c>
       <c r="C824" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="D824" t="s">
         <v>1023</v>
@@ -24191,16 +24546,16 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B825" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="C825" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="D825" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="E825" t="s">
         <v>1851</v>
@@ -24208,16 +24563,16 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B826" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="C826" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D826" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="E826" t="s">
         <v>1851</v>
@@ -24225,16 +24580,16 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B827" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="C827" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D827" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="E827" t="s">
         <v>1851</v>
@@ -24242,16 +24597,16 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B828" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="C828" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D828" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="E828" t="s">
         <v>1851</v>
@@ -24259,16 +24614,16 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B829" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C829" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D829" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="E829" t="s">
         <v>1851</v>
@@ -24276,16 +24631,16 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B830" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C830" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D830" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="E830" t="s">
         <v>1851</v>
@@ -24293,16 +24648,16 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B831" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="C831" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D831" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="E831" t="s">
         <v>1851</v>
@@ -24310,16 +24665,16 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B832" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C832" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D832" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E832" t="s">
         <v>1851</v>
@@ -24327,13 +24682,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B833" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C833" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D833" t="s">
         <v>1459</v>
@@ -24344,16 +24699,16 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B834" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C834" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D834" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="E834" t="s">
         <v>1851</v>
@@ -24361,16 +24716,16 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B835" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C835" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D835" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="E835" t="s">
         <v>1851</v>
@@ -24378,16 +24733,16 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B836" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C836" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="D836" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="E836" t="s">
         <v>1851</v>
@@ -24395,16 +24750,16 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B837" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C837" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D837" t="s">
         <v>2930</v>
-      </c>
-      <c r="D837" t="s">
-        <v>2931</v>
       </c>
       <c r="E837" t="s">
         <v>1851</v>
@@ -24412,16 +24767,16 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B838" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C838" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D838" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="E838" t="s">
         <v>1851</v>
@@ -24429,16 +24784,16 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B839" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C839" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="D839" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="E839" t="s">
         <v>1851</v>
@@ -24446,19 +24801,546 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B840" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C840" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="D840" t="s">
         <v>696</v>
       </c>
       <c r="E840" t="s">
         <v>1851</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C841" t="s">
+        <v>455</v>
+      </c>
+      <c r="D841" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D842" t="s">
+        <v>2888</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C843" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D844" t="s">
+        <v>947</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C845" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D845" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E845" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C846" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D846" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>468</v>
+      </c>
+      <c r="B847" t="s">
+        <v>469</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D847" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C848" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>468</v>
+      </c>
+      <c r="B849" t="s">
+        <v>469</v>
+      </c>
+      <c r="C849" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>108</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C850" t="s">
+        <v>109</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E851" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C852" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D852" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C853" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D853" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C854" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D854" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C855" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D855" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C856" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D856" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E856" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C857" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D857" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C858" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D858" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C859" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C861" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C862" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D862" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C863" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B865" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C865" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D865" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E865" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B866" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C866" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D866" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B867" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C867" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D867" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B868" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C868" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D868" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B869" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C869" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D869" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B870" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C870" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D870" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B871" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C871" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D871" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1916</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycs\Documents\mistiness-iconpack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83898809-6E4F-4FC0-8038-DFBD6EDF3DB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569CCD89-4B95-432B-9B58-61F682DC6B56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="3028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="3252">
   <si>
     <t>百度网盘</t>
   </si>
@@ -9575,6 +9575,678 @@
   </si>
   <si>
     <t>com.xiaomi.vipaccount.ui.home.dynamic.HomeFrameActivity</t>
+  </si>
+  <si>
+    <t>com.sec.android.app.fm</t>
+  </si>
+  <si>
+    <t>com.sec.android.app.fm.MainActivity</t>
+  </si>
+  <si>
+    <t>com.samsung.android.dialer</t>
+  </si>
+  <si>
+    <t>com.samsung.android.dialer.DialtactsActivity</t>
+  </si>
+  <si>
+    <t>com.sec.android.app.myfiles.external.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>com.samsung.android.contacts.contactslist.PeopleActivity</t>
+  </si>
+  <si>
+    <t>com.samsung.android.app.calendar.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>com.motorola.camera2</t>
+  </si>
+  <si>
+    <t>com.motorola.camera.Camera</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>com.lenovo.gallery</t>
+  </si>
+  <si>
+    <t>com.lenovo.gallery.app.GalleryActivity</t>
+  </si>
+  <si>
+    <t>com.android.browser.MainActivity</t>
+  </si>
+  <si>
+    <t>乐视</t>
+  </si>
+  <si>
+    <t>com.android.calendar.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.android.camera2</t>
+  </si>
+  <si>
+    <t>com.letv.android.compass</t>
+  </si>
+  <si>
+    <t>com.letv.android.compass.MainActivity</t>
+  </si>
+  <si>
+    <t>com.android.dialer.allContactsActivity</t>
+  </si>
+  <si>
+    <t>com.letv.android.filemanager</t>
+  </si>
+  <si>
+    <t>com.letv.android.filemanager.activities.FileManagerActivity</t>
+  </si>
+  <si>
+    <t>com.android.gallery3d.app.MainActivity</t>
+  </si>
+  <si>
+    <t>com.android.music</t>
+  </si>
+  <si>
+    <t>com.android.music.ui.MusicBrowserActivity</t>
+  </si>
+  <si>
+    <t>com.letv.android.note</t>
+  </si>
+  <si>
+    <t>com.letv.android.note.NoteListActivity</t>
+  </si>
+  <si>
+    <t>com.letv.android.supermanager</t>
+  </si>
+  <si>
+    <t>com.letv.android.supermanager.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>视频播放器</t>
+  </si>
+  <si>
+    <t>com.letv.android.videoplayer</t>
+  </si>
+  <si>
+    <t>com.android.videoplayer.PlayerPermissionActivity</t>
+  </si>
+  <si>
+    <t>com.letv.android.recorder</t>
+  </si>
+  <si>
+    <t>com.letv.android.recorder.mvp.recorder.view.RecorderActivity</t>
+  </si>
+  <si>
+    <t>com.letv.android.remotecontrol</t>
+  </si>
+  <si>
+    <t>com.letv.android.remotecontrol.LaunchActivity</t>
+  </si>
+  <si>
+    <t>主题商店</t>
+  </si>
+  <si>
+    <t>com.letv.android.themestore</t>
+  </si>
+  <si>
+    <t>com.letv.android.themestore.base.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.letv.android.wallpaperonline</t>
+  </si>
+  <si>
+    <t>com.letv.android.wallpaper.SplashActivity</t>
+  </si>
+  <si>
+    <t>com.opera.max.ui.v2.UltraLauncherActivity</t>
+  </si>
+  <si>
+    <t>Fui</t>
+  </si>
+  <si>
+    <t>fui</t>
+  </si>
+  <si>
+    <t>com.joey.fui</t>
+  </si>
+  <si>
+    <t>com.joey.fui.welcome.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Z直播</t>
+  </si>
+  <si>
+    <t>zlive</t>
+  </si>
+  <si>
+    <t>com.linroid.zlive</t>
+  </si>
+  <si>
+    <t>com.linroid.zlive.screen.host.HostActivityThird</t>
+  </si>
+  <si>
+    <t>闹闹天宫</t>
+  </si>
+  <si>
+    <t>tencent_nntg</t>
+  </si>
+  <si>
+    <t>com.tencent.nntg.linekong</t>
+  </si>
+  <si>
+    <t>com.lknntg.MainActivity</t>
+  </si>
+  <si>
+    <t>十七</t>
+  </si>
+  <si>
+    <t>media17</t>
+  </si>
+  <si>
+    <t>com.machipopo.media17</t>
+  </si>
+  <si>
+    <t>com.machipopo.media17.StartActivity</t>
+  </si>
+  <si>
+    <t>nature图标包</t>
+  </si>
+  <si>
+    <t>nature_iconpack</t>
+  </si>
+  <si>
+    <t>com.nature.iconpack</t>
+  </si>
+  <si>
+    <t>com.material.dashboard.candybar.sample.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>PowerAMP</t>
+  </si>
+  <si>
+    <t>power_amp</t>
+  </si>
+  <si>
+    <t>com.maxmpz.audioplayer</t>
+  </si>
+  <si>
+    <t>com.maxmpz.audioplayer.StartupActivity</t>
+  </si>
+  <si>
+    <t>pieplus图标包</t>
+  </si>
+  <si>
+    <t>pieplus</t>
+  </si>
+  <si>
+    <t>com.modetime.pieplus</t>
+  </si>
+  <si>
+    <t>com.modetime.pieplus.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>决战！平安京</t>
+  </si>
+  <si>
+    <t>netease_moba</t>
+  </si>
+  <si>
+    <t>com.netease.moba</t>
+  </si>
+  <si>
+    <t>com.netease.g78.Launcher</t>
+  </si>
+  <si>
+    <t>吉利互联</t>
+  </si>
+  <si>
+    <t>geely</t>
+  </si>
+  <si>
+    <t>com.neusoft.ssp.botai.assistant</t>
+  </si>
+  <si>
+    <t>com.neusoft.ssp.botai.assistant.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>snkrs</t>
+  </si>
+  <si>
+    <t>com.nike.snkrs</t>
+  </si>
+  <si>
+    <t>com.nike.snkrs.feed.activities.TheWallActivity</t>
+  </si>
+  <si>
+    <t>盼达用车</t>
+  </si>
+  <si>
+    <t>panda_usecar</t>
+  </si>
+  <si>
+    <t>com.panda.usecar</t>
+  </si>
+  <si>
+    <t>com.panda.usecar.mvp.ui.main.MainActivity</t>
+  </si>
+  <si>
+    <t>歌曲识别Shazam</t>
+  </si>
+  <si>
+    <t>shazam</t>
+  </si>
+  <si>
+    <t>com.shazam.android</t>
+  </si>
+  <si>
+    <t>com.shazam.android.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>5sing原创音乐</t>
+  </si>
+  <si>
+    <t>sing_client</t>
+  </si>
+  <si>
+    <t>com.sing.client</t>
+  </si>
+  <si>
+    <t>com.sing.client.activity.DummyActivity</t>
+  </si>
+  <si>
+    <t>PicsArt</t>
+  </si>
+  <si>
+    <t>picsart</t>
+  </si>
+  <si>
+    <t>com.picsart.studio</t>
+  </si>
+  <si>
+    <t>com.socialin.android.photo.picsinphoto.MainPagerActivity</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>com.spotify.music</t>
+  </si>
+  <si>
+    <t>com.spotify.music.MainActivity</t>
+  </si>
+  <si>
+    <t>Moo音乐</t>
+  </si>
+  <si>
+    <t>tencent_blackkey</t>
+  </si>
+  <si>
+    <t>com.tencent.blackkey</t>
+  </si>
+  <si>
+    <t>com.tencent.blackkey.frontend.adapters.sap.ApplicationActivity</t>
+  </si>
+  <si>
+    <t>王者营地</t>
+  </si>
+  <si>
+    <t>tencent_gamehelper_smoba</t>
+  </si>
+  <si>
+    <t>com.tencent.gamehelper.smoba</t>
+  </si>
+  <si>
+    <t>com.tencent.gamehelper.ui.main.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>推酷</t>
+  </si>
+  <si>
+    <t>tuicool</t>
+  </si>
+  <si>
+    <t>com.tuicool.activity</t>
+  </si>
+  <si>
+    <t>com.tuicool.activity.StartActivity</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>com.twitter.android</t>
+  </si>
+  <si>
+    <t>com.twitter.android.StartActivity</t>
+  </si>
+  <si>
+    <t>Poly</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>com.wecut.poly</t>
+  </si>
+  <si>
+    <t>com.wecut.anycam.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>账号本子</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>com.wei.account</t>
+  </si>
+  <si>
+    <t>com.wei.account.activity.PasswordVerifyActivity</t>
+  </si>
+  <si>
+    <t>神剪手</t>
+  </si>
+  <si>
+    <t>filmorago</t>
+  </si>
+  <si>
+    <t>com.wondershare.filmorago</t>
+  </si>
+  <si>
+    <t>com.wondershare.filmorago.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>创建快捷方式</t>
+  </si>
+  <si>
+    <t>shortcut_creater</t>
+  </si>
+  <si>
+    <t>com.x7890.shortcutcreator</t>
+  </si>
+  <si>
+    <t>com.x7890.shortcutcreator.AppListActivity</t>
+  </si>
+  <si>
+    <t>surfvpn</t>
+  </si>
+  <si>
+    <t>com.xfx.surfvpn</t>
+  </si>
+  <si>
+    <t>com.xfx.surfvpn.LoadingActivity</t>
+  </si>
+  <si>
+    <t>小蚁行车记录仪</t>
+  </si>
+  <si>
+    <t>xiaoyi_carcamera</t>
+  </si>
+  <si>
+    <t>com.xiaoyi.car.camera</t>
+  </si>
+  <si>
+    <t>com.xiaoyi.car.camera.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>形色</t>
+  </si>
+  <si>
+    <t>xingse</t>
+  </si>
+  <si>
+    <t>cn.danatech.xingseapp</t>
+  </si>
+  <si>
+    <t>com.xingse.app.pages.startup.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>音乐标签编辑器</t>
+  </si>
+  <si>
+    <t>music_tag_editor</t>
+  </si>
+  <si>
+    <t>com.xjcheng.musictageditor</t>
+  </si>
+  <si>
+    <t>com.xjcheng.musictageditor.MainActivity</t>
+  </si>
+  <si>
+    <t>甘肃银行</t>
+  </si>
+  <si>
+    <t>gansu_bank</t>
+  </si>
+  <si>
+    <t>com.yitong.gansu.mobilebank</t>
+  </si>
+  <si>
+    <t>com.yitong.gansu.mobilebank.android.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>智友</t>
+  </si>
+  <si>
+    <t>zhiyoo</t>
+  </si>
+  <si>
+    <t>com.zhiyoo</t>
+  </si>
+  <si>
+    <t>com.zhiyoo.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>首旅如家</t>
+  </si>
+  <si>
+    <t>homeinn</t>
+  </si>
+  <si>
+    <t>com.ziipin.homeinn</t>
+  </si>
+  <si>
+    <t>com.ziipin.homeinn.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>xposed installer</t>
+  </si>
+  <si>
+    <t>xposed_installer</t>
+  </si>
+  <si>
+    <t>de.robv.android.xposed.installer</t>
+  </si>
+  <si>
+    <t>de.robv.android.xposed.installer.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>idm+</t>
+  </si>
+  <si>
+    <t>idm</t>
+  </si>
+  <si>
+    <t>idm.internet.download.manager.plus</t>
+  </si>
+  <si>
+    <t>idm.internet.download.manager.MainActivity</t>
+  </si>
+  <si>
+    <t>pixiv</t>
+  </si>
+  <si>
+    <t>jp.pxv.android</t>
+  </si>
+  <si>
+    <t>jp.pxv.android.activity.RoutingActivity</t>
+  </si>
+  <si>
+    <t>copas</t>
+  </si>
+  <si>
+    <t>mark.compass</t>
+  </si>
+  <si>
+    <t>mark.compass.CompassActivity</t>
+  </si>
+  <si>
+    <t>MBE Style 图标包</t>
+  </si>
+  <si>
+    <t>mbestyle</t>
+  </si>
+  <si>
+    <t>me.iacn.mbestyle</t>
+  </si>
+  <si>
+    <t>me.iacn.mbestyle.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>米侠浏览器</t>
+  </si>
+  <si>
+    <t>mixaiba_browser</t>
+  </si>
+  <si>
+    <t>mixiaba.com.Browser</t>
+  </si>
+  <si>
+    <t>mixiaba.com.Browser.ui.activities.splashScreen</t>
+  </si>
+  <si>
+    <t>歌词猎手</t>
+  </si>
+  <si>
+    <t>lrcjaeger</t>
+  </si>
+  <si>
+    <t>moe.guo.lrcjaeger</t>
+  </si>
+  <si>
+    <t>moe.guo.lrcjaeger.LrcJaeger</t>
+  </si>
+  <si>
+    <t>美人相机</t>
+  </si>
+  <si>
+    <t>beauty_camera</t>
+  </si>
+  <si>
+    <t>my.beautyCamera</t>
+  </si>
+  <si>
+    <t>my.beautyCamera.PocoCamera</t>
+  </si>
+  <si>
+    <t>爱美化</t>
+  </si>
+  <si>
+    <t>imeihua</t>
+  </si>
+  <si>
+    <t>net.imeihua.anmei</t>
+  </si>
+  <si>
+    <t>net.imeihua.anmei.MainActivity</t>
+  </si>
+  <si>
+    <t>现场云</t>
+  </si>
+  <si>
+    <t>xianchangyun</t>
+  </si>
+  <si>
+    <t>com.xinhuamm.xianchangyun</t>
+  </si>
+  <si>
+    <t>net.xinhuamm.xianchangyun.mvp.ui.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>绿叶vpn</t>
+  </si>
+  <si>
+    <t>leaf_vpn</t>
+  </si>
+  <si>
+    <t>org.amalgam.laboratory</t>
+  </si>
+  <si>
+    <t>org.amalgam.laboratory.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>比特小队</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>com.kunpo.bit</t>
+  </si>
+  <si>
+    <t>org.cocos2dx.lua.AppActivity</t>
+  </si>
+  <si>
+    <t>telegreat</t>
+  </si>
+  <si>
+    <t>taipei.sean.telegram.messenger.beta</t>
+  </si>
+  <si>
+    <t>telegreat X</t>
+  </si>
+  <si>
+    <t>telegreat_x</t>
+  </si>
+  <si>
+    <t>taipei.sean.challegram</t>
+  </si>
+  <si>
+    <t>org.thunderdog.challegram.MainActivity</t>
+  </si>
+  <si>
+    <t>telegram X</t>
+  </si>
+  <si>
+    <t>telegram_x</t>
+  </si>
+  <si>
+    <t>org.thunderdog.challegram</t>
+  </si>
+  <si>
+    <t>拼图酱</t>
+  </si>
+  <si>
+    <t>pinguo_april</t>
+  </si>
+  <si>
+    <t>us.pinguo.april_collage</t>
+  </si>
+  <si>
+    <t>us.pinguo.april.MainActivity</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>pinguo_mix</t>
+  </si>
+  <si>
+    <t>com.pinguo.edit.sdk</t>
+  </si>
+  <si>
+    <t>us.pinguo.mix.modules.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>地铁跑酷</t>
+  </si>
+  <si>
+    <t>subwaysurf</t>
+  </si>
+  <si>
+    <t>com.kiloo.subwaysurf</t>
+  </si>
+  <si>
+    <t>com.idsky.android.impl.ui.IdskySplashActivity</t>
   </si>
 </sst>
 </file>
@@ -10521,10 +11193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E871"/>
+  <dimension ref="A1:E943"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A855" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B862" sqref="B862"/>
+    <sheetView tabSelected="1" topLeftCell="A921" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C935" sqref="C935"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25343,6 +26015,1230 @@
         <v>1916</v>
       </c>
     </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C872" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D872" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E872" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>169</v>
+      </c>
+      <c r="B873" t="s">
+        <v>466</v>
+      </c>
+      <c r="C873" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D873" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E873" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>492</v>
+      </c>
+      <c r="B874" t="s">
+        <v>480</v>
+      </c>
+      <c r="C874" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D874" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E874" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>575</v>
+      </c>
+      <c r="B875" t="s">
+        <v>576</v>
+      </c>
+      <c r="C875" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D875" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E875" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C876" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D876" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E876" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>483</v>
+      </c>
+      <c r="B877" t="s">
+        <v>484</v>
+      </c>
+      <c r="C877" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D877" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E877" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>468</v>
+      </c>
+      <c r="B878" t="s">
+        <v>469</v>
+      </c>
+      <c r="C878" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D878" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E878" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>583</v>
+      </c>
+      <c r="B879" t="s">
+        <v>584</v>
+      </c>
+      <c r="C879" t="s">
+        <v>585</v>
+      </c>
+      <c r="D879" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E879" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C880" t="s">
+        <v>325</v>
+      </c>
+      <c r="D880" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E880" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>483</v>
+      </c>
+      <c r="B881" t="s">
+        <v>484</v>
+      </c>
+      <c r="C881" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E881" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C882" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D882" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E882" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>169</v>
+      </c>
+      <c r="B883" t="s">
+        <v>466</v>
+      </c>
+      <c r="C883" t="s">
+        <v>170</v>
+      </c>
+      <c r="D883" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E883" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>479</v>
+      </c>
+      <c r="B884" t="s">
+        <v>480</v>
+      </c>
+      <c r="C884" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D884" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E884" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>468</v>
+      </c>
+      <c r="B885" t="s">
+        <v>469</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D885" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E885" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C886" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D886" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E886" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>155</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C887" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D887" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E887" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>187</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C888" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D888" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E888" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C889" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D889" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E889" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C890" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D890" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E890" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C891" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D891" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E891" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C892" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D892" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E892" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C893" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D893" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E893" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C894" t="s">
+        <v>455</v>
+      </c>
+      <c r="D894" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C895" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D895" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B896" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C896" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D896" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B897" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C897" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D897" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B898" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C898" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D898" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E898" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B899" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C899" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D899" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B900" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C900" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D900" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B901" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C901" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D901" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B902" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C902" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D902" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B903" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C903" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D903" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E903" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B904" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C904" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D904" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B905" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C905" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D905" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B906" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C906" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D906" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B907" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C907" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D907" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E907" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B908" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C908" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D908" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B909" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C909" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D909" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E909" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B910" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C910" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D910" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B911" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C911" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D911" t="s">
+        <v>3130</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B912" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C912" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D912" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E912" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B913" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C913" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D913" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E913" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B914" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C914" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D914" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E914" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B915" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C915" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D915" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E915" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B916" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C916" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D916" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E916" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B917" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C917" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D917" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B918" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C918" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D918" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B919" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C919" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D919" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E919" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B920" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C920" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D920" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E920" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B921" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C921" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D921" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E921" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B922" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C922" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D922" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B923" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C923" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D923" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B924" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C924" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D924" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E924" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B925" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C925" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D925" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B926" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C926" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D926" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B927" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C927" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D927" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B928" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C928" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D928" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B929" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C929" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D929" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B930" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C930" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D930" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B931" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C931" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D931" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B932" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C932" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D932" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B933" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C933" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D933" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B934" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C934" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D934" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B935" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C935" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D935" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B936" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C936" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D936" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B937" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C937" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D937" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E937" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B938" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C938" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D938" t="s">
+        <v>561</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B939" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C939" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D939" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B940" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C940" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D940" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B941" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C941" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D941" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B942" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C942" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D942" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B943" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C943" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D943" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E943" t="s">
+        <v>2235</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E676" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycs\Documents\mistiness-iconpack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EBE635-8AD4-4620-99E6-1684D686C7A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2FF191-FF88-4311-9548-D78E2A8D577D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="3345">
   <si>
     <t>百度网盘</t>
   </si>
@@ -8117,9 +8117,6 @@
     <t>com.coloros.bbs.modules.main.WelcomeActivity</t>
   </si>
   <si>
-    <t>OPPO短视频</t>
-  </si>
-  <si>
     <t>coloros_yoli</t>
   </si>
   <si>
@@ -8129,9 +8126,6 @@
     <t>com.coloros.yoli.maintab.ui.SplashActivity</t>
   </si>
   <si>
-    <t>OPPO会员中心</t>
-  </si>
-  <si>
     <t>oppo_usercenter</t>
   </si>
   <si>
@@ -8141,9 +8135,6 @@
     <t>com.oppo.usercenter.vip.UCVIPMainActivity</t>
   </si>
   <si>
-    <t>OPPO全球上网</t>
-  </si>
-  <si>
     <t>oppo_roaming</t>
   </si>
   <si>
@@ -8165,9 +8156,6 @@
     <t>com.oppo.store.InitActivity</t>
   </si>
   <si>
-    <t>OPPO社区</t>
-  </si>
-  <si>
     <t>oppo_community</t>
   </si>
   <si>
@@ -8177,9 +8165,6 @@
     <t>com.oppo.community.InitActivity</t>
   </si>
   <si>
-    <t>OPPO小游戏</t>
-  </si>
-  <si>
     <t>coloros_play</t>
   </si>
   <si>
@@ -8189,9 +8174,6 @@
     <t>com.nearme.play.module.others.launcher.LauncherActivity</t>
   </si>
   <si>
-    <t>OPPO游戏空间</t>
-  </si>
-  <si>
     <t>coloros_gamespace</t>
   </si>
   <si>
@@ -8201,9 +8183,6 @@
     <t>com.coloros.gamespace.activity.MainActivity</t>
   </si>
   <si>
-    <t>OPPO语音助手</t>
-  </si>
-  <si>
     <t>coloros_speechassist</t>
   </si>
   <si>
@@ -8213,9 +8192,6 @@
     <t>com.coloros.speechassist.homepage.SpeechAssistMainActivity</t>
   </si>
   <si>
-    <t>OPPO远程助手</t>
-  </si>
-  <si>
     <t>coloros_familyguard</t>
   </si>
   <si>
@@ -8225,16 +8201,10 @@
     <t>com.coloros.familyguard.FakeActivity</t>
   </si>
   <si>
-    <t>OPPO找回手机</t>
-  </si>
-  <si>
     <t>coloros_findphone</t>
   </si>
   <si>
     <t>com.coloros.findphone.client</t>
-  </si>
-  <si>
-    <t>OPPO智能家居</t>
   </si>
   <si>
     <t>oppo_ohome</t>
@@ -10262,6 +10232,317 @@
   <si>
     <t>电话</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>短视频</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球上网</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO社区</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏空间</t>
+  </si>
+  <si>
+    <t>游戏空间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音助手</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程助手</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回手机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能家居</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤子阅读</t>
+  </si>
+  <si>
+    <t>smartisan_reader</t>
+  </si>
+  <si>
+    <t>com.smartisan.reader</t>
+  </si>
+  <si>
+    <t>com.smartisan.reader.activities.MainActivity_</t>
+  </si>
+  <si>
+    <t>聊天宝</t>
+  </si>
+  <si>
+    <t>bullet_messenger_new</t>
+  </si>
+  <si>
+    <t>com.smartisan.flashim.main.activity.BulletMainActivity</t>
+  </si>
+  <si>
+    <t>锤子科技论坛</t>
+  </si>
+  <si>
+    <t>smartisan_bbs</t>
+  </si>
+  <si>
+    <t>com.smartisan.bbs</t>
+  </si>
+  <si>
+    <t>com.smartisan.bbs.activity.MainActivity_</t>
+  </si>
+  <si>
+    <t>com.smartisanos.appstore</t>
+  </si>
+  <si>
+    <t>com.smartisanos.appstore.AppStoreActivity</t>
+  </si>
+  <si>
+    <t>文件管理器</t>
+  </si>
+  <si>
+    <t>com.smartisanos.filemanager</t>
+  </si>
+  <si>
+    <t>com.smartisan.filemanager.MainActivity</t>
+  </si>
+  <si>
+    <t>com.smartisanos.gamestore</t>
+  </si>
+  <si>
+    <t>om.smartisanos.gamestore.GameStoreActivity</t>
+  </si>
+  <si>
+    <t>无限屏</t>
+  </si>
+  <si>
+    <t>smartisanos_perspective</t>
+  </si>
+  <si>
+    <t>com.smartisanos.perspective</t>
+  </si>
+  <si>
+    <t>com.smartisanos.perspective.settings.SettingActivity</t>
+  </si>
+  <si>
+    <t>com.smartisanos.weather</t>
+  </si>
+  <si>
+    <t>com.smartisanos.weather.CityWeather</t>
+  </si>
+  <si>
+    <t>com.smartisanos.notes</t>
+  </si>
+  <si>
+    <t>com.smartisanos.notes.NotesActivity</t>
+  </si>
+  <si>
+    <t>一步</t>
+  </si>
+  <si>
+    <t>smartisanos_sidebar</t>
+  </si>
+  <si>
+    <t>com.smartisanos.sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.smartisanos.sidebar.setting.SettingActivity</t>
+  </si>
+  <si>
+    <t>闪念胶囊</t>
+  </si>
+  <si>
+    <t>smartisanos_bubble</t>
+  </si>
+  <si>
+    <t>com.smartisanos.sara</t>
+  </si>
+  <si>
+    <t>com.smartisanos.sara.bubble.SettingActivity</t>
+  </si>
+  <si>
+    <t>com.smartisanos.music</t>
+  </si>
+  <si>
+    <t>com.smartisanos.music.activities.MusicMain</t>
+  </si>
+  <si>
+    <t>com.smartisanos.calculator</t>
+  </si>
+  <si>
+    <t>com.smartisanos.calculator.Calculator</t>
+  </si>
+  <si>
+    <t>com.smartisanos.recorder</t>
+  </si>
+  <si>
+    <t>com.smartisanos.recorder.activity.RecorderRecordActivity</t>
+  </si>
+  <si>
+    <t>欢喜云同步</t>
+  </si>
+  <si>
+    <t>smartisanos_cloudsync</t>
+  </si>
+  <si>
+    <t>com.smartisanos.cloudsync</t>
+  </si>
+  <si>
+    <t>com.smartisanos.cloudsync.AccountsActivityLauncher</t>
+  </si>
+  <si>
+    <t>欢喜云同步工具</t>
+  </si>
+  <si>
+    <t>com.smartisan.mover</t>
+  </si>
+  <si>
+    <t>com.smartisan.accounts.MoverActivity</t>
+  </si>
+  <si>
+    <t>流量商城</t>
+  </si>
+  <si>
+    <t>coloros_flowmarket</t>
+  </si>
+  <si>
+    <t>com.coloros.flowmarket</t>
+  </si>
+  <si>
+    <t>com.coloros.flowmarket.MainActivity</t>
+  </si>
+  <si>
+    <t>电话本</t>
+  </si>
+  <si>
+    <t>com.android.contacts.DialtactsActivityAlias</t>
+  </si>
+  <si>
+    <t>com.kingsoft.email.activity.Welcome</t>
+  </si>
+  <si>
+    <t>com.coloros.filemanager</t>
+  </si>
+  <si>
+    <t>com.coloros.filemanager.Main</t>
+  </si>
+  <si>
+    <t>com.coloros.findphone.client.LoginActivity</t>
+  </si>
+  <si>
+    <t>com.coloros.gamespace.activity.GameBoxActivity</t>
+  </si>
+  <si>
+    <t>一键锁屏</t>
+  </si>
+  <si>
+    <t>coloros_lockscreen</t>
+  </si>
+  <si>
+    <t>com.coloros.onekeylockscreen</t>
+  </si>
+  <si>
+    <t>com.coloros.onekeylockscreen.OppoLockScreen</t>
+  </si>
+  <si>
+    <t>oppo.multimedia.soundrecorder.RecorderActivity</t>
+  </si>
+  <si>
+    <t>智能扫一扫</t>
+  </si>
+  <si>
+    <t>com.coloros.ocrscanner</t>
+  </si>
+  <si>
+    <t>com.coloros.ocrscanner.camera.CameraActivity</t>
+  </si>
+  <si>
+    <t>使用技巧</t>
+  </si>
+  <si>
+    <t>coloros_tips</t>
+  </si>
+  <si>
+    <t>com.coloros.operationtips</t>
+  </si>
+  <si>
+    <t>com.coloros.operationtips.activities.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>com.coloros.speechassist.MainAccessActivity</t>
+  </si>
+  <si>
+    <t>一点资讯</t>
+  </si>
+  <si>
+    <t>yidian_news</t>
+  </si>
+  <si>
+    <t>com.oppo.news</t>
+  </si>
+  <si>
+    <t>com.yidian.news.ui.guide.UserGuideActivity</t>
+  </si>
+  <si>
+    <t>com.yidian.xiaomi</t>
+  </si>
+  <si>
+    <t>com.yidian.xiaomi.ui.guide.UserGuideActivity</t>
+  </si>
+  <si>
+    <t>com.hipu.yidian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>书城</t>
+  </si>
+  <si>
+    <t>oppo_book</t>
+  </si>
+  <si>
+    <t>com.oppo.book</t>
+  </si>
+  <si>
+    <t>com.tencent.tvoem</t>
+  </si>
+  <si>
+    <t>com.tencent.qqlive.ona.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>oppo_reader</t>
+  </si>
+  <si>
+    <t>com.oppo.reader</t>
+  </si>
+  <si>
+    <t>搜狐视频</t>
+  </si>
+  <si>
+    <t>souhu_video</t>
+  </si>
+  <si>
+    <t>com.sohu.sohuvideo</t>
+  </si>
+  <si>
+    <t>com.sohu.sohuvideo.FirstNavigationActivityGroup</t>
   </si>
 </sst>
 </file>
@@ -11208,10 +11489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E943"/>
+  <dimension ref="A1:E977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A950" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C982" sqref="C982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15274,7 +15555,7 @@
         <v>897</v>
       </c>
       <c r="B239" t="s">
-        <v>2928</v>
+        <v>2918</v>
       </c>
       <c r="C239" t="s">
         <v>898</v>
@@ -20170,7 +20451,7 @@
         <v>1984</v>
       </c>
       <c r="B527" t="s">
-        <v>2931</v>
+        <v>2921</v>
       </c>
       <c r="C527" t="s">
         <v>1985</v>
@@ -20204,7 +20485,7 @@
         <v>1991</v>
       </c>
       <c r="B529" t="s">
-        <v>2930</v>
+        <v>2920</v>
       </c>
       <c r="C529" t="s">
         <v>1992</v>
@@ -22156,16 +22437,16 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>3254</v>
+        <v>3244</v>
       </c>
       <c r="B644" t="s">
-        <v>3252</v>
+        <v>3242</v>
       </c>
       <c r="C644" t="s">
         <v>576</v>
       </c>
       <c r="D644" t="s">
-        <v>3249</v>
+        <v>3239</v>
       </c>
       <c r="E644" t="s">
         <v>2388</v>
@@ -22284,7 +22565,7 @@
         <v>2402</v>
       </c>
       <c r="D651" t="s">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="E651" t="s">
         <v>2388</v>
@@ -22445,16 +22726,16 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>3254</v>
+        <v>3244</v>
       </c>
       <c r="B661" t="s">
-        <v>3252</v>
+        <v>3242</v>
       </c>
       <c r="C661" t="s">
         <v>576</v>
       </c>
       <c r="D661" t="s">
-        <v>3249</v>
+        <v>3239</v>
       </c>
       <c r="E661" t="s">
         <v>2421</v>
@@ -22992,7 +23273,7 @@
         <v>169</v>
       </c>
       <c r="B693" t="s">
-        <v>2929</v>
+        <v>2919</v>
       </c>
       <c r="C693" t="s">
         <v>2496</v>
@@ -23380,16 +23661,16 @@
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B716" t="s">
         <v>2567</v>
       </c>
-      <c r="B716" t="s">
+      <c r="C716" t="s">
         <v>2568</v>
       </c>
-      <c r="C716" t="s">
+      <c r="D716" t="s">
         <v>2569</v>
-      </c>
-      <c r="D716" t="s">
-        <v>2570</v>
       </c>
       <c r="E716" t="s">
         <v>2433</v>
@@ -23397,16 +23678,16 @@
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B717" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C717" t="s">
         <v>2571</v>
       </c>
-      <c r="B717" t="s">
+      <c r="D717" t="s">
         <v>2572</v>
-      </c>
-      <c r="C717" t="s">
-        <v>2573</v>
-      </c>
-      <c r="D717" t="s">
-        <v>2574</v>
       </c>
       <c r="E717" t="s">
         <v>2433</v>
@@ -23414,16 +23695,16 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B718" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C718" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D718" t="s">
         <v>2575</v>
-      </c>
-      <c r="B718" t="s">
-        <v>2576</v>
-      </c>
-      <c r="C718" t="s">
-        <v>2577</v>
-      </c>
-      <c r="D718" t="s">
-        <v>2578</v>
       </c>
       <c r="E718" t="s">
         <v>2433</v>
@@ -23431,16 +23712,16 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B719" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C719" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D719" t="s">
         <v>2579</v>
-      </c>
-      <c r="B719" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C719" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D719" t="s">
-        <v>2582</v>
       </c>
       <c r="E719" t="s">
         <v>2433</v>
@@ -23448,16 +23729,16 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>2583</v>
+        <v>3248</v>
       </c>
       <c r="B720" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="C720" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="D720" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="E720" t="s">
         <v>2433</v>
@@ -23465,16 +23746,16 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>2587</v>
+        <v>3249</v>
       </c>
       <c r="B721" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
       <c r="C721" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="D721" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
       <c r="E721" t="s">
         <v>2433</v>
@@ -23482,16 +23763,16 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>2591</v>
+        <v>3251</v>
       </c>
       <c r="B722" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
       <c r="C722" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="D722" t="s">
-        <v>2594</v>
+        <v>2588</v>
       </c>
       <c r="E722" t="s">
         <v>2433</v>
@@ -23499,16 +23780,16 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>2595</v>
+        <v>3252</v>
       </c>
       <c r="B723" t="s">
-        <v>2596</v>
+        <v>2589</v>
       </c>
       <c r="C723" t="s">
-        <v>2597</v>
+        <v>2590</v>
       </c>
       <c r="D723" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
       <c r="E723" t="s">
         <v>2433</v>
@@ -23516,16 +23797,16 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>2599</v>
+        <v>3253</v>
       </c>
       <c r="B724" t="s">
-        <v>2600</v>
+        <v>2592</v>
       </c>
       <c r="C724" t="s">
-        <v>2601</v>
+        <v>2593</v>
       </c>
       <c r="D724" t="s">
-        <v>2602</v>
+        <v>2594</v>
       </c>
       <c r="E724" t="s">
         <v>2433</v>
@@ -23533,13 +23814,13 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>2603</v>
+        <v>3254</v>
       </c>
       <c r="B725" t="s">
-        <v>2604</v>
+        <v>2595</v>
       </c>
       <c r="C725" t="s">
-        <v>2605</v>
+        <v>2596</v>
       </c>
       <c r="D725" t="s">
         <v>2441</v>
@@ -23550,16 +23831,16 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>2606</v>
+        <v>3255</v>
       </c>
       <c r="B726" t="s">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="C726" t="s">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="D726" t="s">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="E726" t="s">
         <v>2433</v>
@@ -23567,16 +23848,16 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B727" t="s">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C727" t="s">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="D727" t="s">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="E727" t="s">
         <v>2329</v>
@@ -23584,16 +23865,16 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="B728" t="s">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C728" t="s">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="D728" t="s">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="E728" t="s">
         <v>2329</v>
@@ -23601,16 +23882,16 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B729" t="s">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="C729" t="s">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="D729" t="s">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="E729" t="s">
         <v>2329</v>
@@ -23618,16 +23899,16 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="B730" t="s">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="C730" t="s">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="D730" t="s">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="E730" t="s">
         <v>2329</v>
@@ -23635,16 +23916,16 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="B731" t="s">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="C731" t="s">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="D731" t="s">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="E731" t="s">
         <v>2329</v>
@@ -23652,16 +23933,16 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="B732" t="s">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="C732" t="s">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="D732" t="s">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="E732" t="s">
         <v>2329</v>
@@ -23669,16 +23950,16 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="B733" t="s">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="C733" t="s">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="D733" t="s">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="E733" t="s">
         <v>2329</v>
@@ -23686,16 +23967,16 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="B734" t="s">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="C734" t="s">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="D734" t="s">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="E734" t="s">
         <v>2329</v>
@@ -23703,19 +23984,19 @@
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="B735" t="s">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="C735" t="s">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="D735" t="s">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="E735" t="s">
-        <v>2646</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
@@ -23726,10 +24007,10 @@
         <v>2321</v>
       </c>
       <c r="C736" t="s">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="D736" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="E736" t="s">
         <v>2421</v>
@@ -23743,7 +24024,7 @@
         <v>1537</v>
       </c>
       <c r="C737" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="D737" t="s">
         <v>1539</v>
@@ -23760,10 +24041,10 @@
         <v>2337</v>
       </c>
       <c r="C738" t="s">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="D738" t="s">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="E738" t="s">
         <v>2421</v>
@@ -23777,10 +24058,10 @@
         <v>2407</v>
       </c>
       <c r="C739" t="s">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="D739" t="s">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="E739" t="s">
         <v>2421</v>
@@ -23797,7 +24078,7 @@
         <v>5</v>
       </c>
       <c r="D740" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="E740" t="s">
         <v>1850</v>
@@ -23811,10 +24092,10 @@
         <v>86</v>
       </c>
       <c r="C741" t="s">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="D741" t="s">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="E741" t="s">
         <v>1850</v>
@@ -23828,10 +24109,10 @@
         <v>2321</v>
       </c>
       <c r="C742" t="s">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="D742" t="s">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="E742" t="s">
         <v>2388</v>
@@ -23848,7 +24129,7 @@
         <v>325</v>
       </c>
       <c r="D743" t="s">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="E743" t="s">
         <v>1822</v>
@@ -23862,7 +24143,7 @@
         <v>484</v>
       </c>
       <c r="C744" t="s">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="D744" t="s">
         <v>1022</v>
@@ -23873,16 +24154,16 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="B745" t="s">
         <v>391</v>
       </c>
       <c r="C745" t="s">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="D745" t="s">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="E745" t="s">
         <v>1850</v>
@@ -23896,7 +24177,7 @@
         <v>1833</v>
       </c>
       <c r="C746" t="s">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="D746" t="s">
         <v>1835</v>
@@ -23913,7 +24194,7 @@
         <v>72</v>
       </c>
       <c r="C747" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="D747" t="s">
         <v>74</v>
@@ -23930,10 +24211,10 @@
         <v>480</v>
       </c>
       <c r="C748" t="s">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="D748" t="s">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="E748" t="s">
         <v>1850</v>
@@ -23947,13 +24228,13 @@
         <v>2342</v>
       </c>
       <c r="C749" t="s">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="D749" t="s">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="E749" t="s">
-        <v>2671</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
@@ -23964,13 +24245,13 @@
         <v>575</v>
       </c>
       <c r="C750" t="s">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="D750" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="E750" t="s">
-        <v>2671</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
@@ -23981,7 +24262,7 @@
         <v>2410</v>
       </c>
       <c r="C751" t="s">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="D751" t="s">
         <v>2</v>
@@ -23998,13 +24279,13 @@
         <v>374</v>
       </c>
       <c r="C752" t="s">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="D752" t="s">
         <v>542</v>
       </c>
       <c r="E752" t="s">
-        <v>2676</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
@@ -24012,13 +24293,13 @@
         <v>70</v>
       </c>
       <c r="B753" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C753" t="s">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="D753" t="s">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="E753" t="s">
         <v>1850</v>
@@ -24026,16 +24307,16 @@
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="B754" t="s">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="C754" t="s">
         <v>736</v>
       </c>
       <c r="D754" t="s">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="E754" t="s">
         <v>1850</v>
@@ -24043,16 +24324,16 @@
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="B755" t="s">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="C755" t="s">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="D755" t="s">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="E755" t="s">
         <v>1850</v>
@@ -24060,16 +24341,16 @@
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="B756" t="s">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C756" t="s">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="D756" t="s">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="E756" t="s">
         <v>1850</v>
@@ -24077,16 +24358,16 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="B757" t="s">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C757" t="s">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="D757" t="s">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="E757" t="s">
         <v>1850</v>
@@ -24094,16 +24375,16 @@
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="B758" t="s">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="C758" t="s">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="D758" t="s">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="E758" t="s">
         <v>1850</v>
@@ -24111,16 +24392,16 @@
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="B759" t="s">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="C759" t="s">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="D759" t="s">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="E759" t="s">
         <v>1850</v>
@@ -24128,16 +24409,16 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="B760" t="s">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C760" t="s">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="D760" t="s">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="E760" t="s">
         <v>1850</v>
@@ -24145,16 +24426,16 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="B761" t="s">
-        <v>2708</v>
+        <v>2698</v>
       </c>
       <c r="C761" t="s">
-        <v>2709</v>
+        <v>2699</v>
       </c>
       <c r="D761" t="s">
-        <v>2710</v>
+        <v>2700</v>
       </c>
       <c r="E761" t="s">
         <v>1850</v>
@@ -24162,16 +24443,16 @@
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>2711</v>
+        <v>2701</v>
       </c>
       <c r="B762" t="s">
-        <v>2712</v>
+        <v>2702</v>
       </c>
       <c r="C762" t="s">
-        <v>2713</v>
+        <v>2703</v>
       </c>
       <c r="D762" t="s">
-        <v>2714</v>
+        <v>2704</v>
       </c>
       <c r="E762" t="s">
         <v>1850</v>
@@ -24179,16 +24460,16 @@
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>2715</v>
+        <v>2705</v>
       </c>
       <c r="B763" t="s">
-        <v>2716</v>
+        <v>2706</v>
       </c>
       <c r="C763" t="s">
-        <v>2717</v>
+        <v>2707</v>
       </c>
       <c r="D763" t="s">
-        <v>2718</v>
+        <v>2708</v>
       </c>
       <c r="E763" t="s">
         <v>1850</v>
@@ -24196,16 +24477,16 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>2719</v>
+        <v>2709</v>
       </c>
       <c r="B764" t="s">
-        <v>2720</v>
+        <v>2710</v>
       </c>
       <c r="C764" t="s">
-        <v>2743</v>
+        <v>2733</v>
       </c>
       <c r="D764" t="s">
-        <v>2721</v>
+        <v>2711</v>
       </c>
       <c r="E764" t="s">
         <v>1850</v>
@@ -24213,13 +24494,13 @@
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>2722</v>
+        <v>2712</v>
       </c>
       <c r="B765" t="s">
-        <v>2723</v>
+        <v>2713</v>
       </c>
       <c r="C765" t="s">
-        <v>2724</v>
+        <v>2714</v>
       </c>
       <c r="D765" t="s">
         <v>835</v>
@@ -24230,16 +24511,16 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>2725</v>
+        <v>2715</v>
       </c>
       <c r="B766" t="s">
-        <v>2726</v>
+        <v>2716</v>
       </c>
       <c r="C766" t="s">
-        <v>2727</v>
+        <v>2717</v>
       </c>
       <c r="D766" t="s">
-        <v>2728</v>
+        <v>2718</v>
       </c>
       <c r="E766" t="s">
         <v>1850</v>
@@ -24247,13 +24528,13 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>2729</v>
+        <v>2719</v>
       </c>
       <c r="B767" t="s">
-        <v>2730</v>
+        <v>2720</v>
       </c>
       <c r="C767" t="s">
-        <v>2731</v>
+        <v>2721</v>
       </c>
       <c r="D767" t="s">
         <v>558</v>
@@ -24264,16 +24545,16 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>2732</v>
+        <v>2722</v>
       </c>
       <c r="B768" t="s">
-        <v>2733</v>
+        <v>2723</v>
       </c>
       <c r="C768" t="s">
-        <v>2734</v>
+        <v>2724</v>
       </c>
       <c r="D768" t="s">
-        <v>2735</v>
+        <v>2725</v>
       </c>
       <c r="E768" t="s">
         <v>1850</v>
@@ -24281,16 +24562,16 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>2736</v>
+        <v>2726</v>
       </c>
       <c r="B769" t="s">
-        <v>2737</v>
+        <v>2727</v>
       </c>
       <c r="C769" t="s">
-        <v>2738</v>
+        <v>2728</v>
       </c>
       <c r="D769" t="s">
-        <v>2739</v>
+        <v>2729</v>
       </c>
       <c r="E769" t="s">
         <v>1850</v>
@@ -24298,16 +24579,16 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>2740</v>
+        <v>2730</v>
       </c>
       <c r="B770" t="s">
-        <v>2740</v>
+        <v>2730</v>
       </c>
       <c r="C770" t="s">
-        <v>2741</v>
+        <v>2731</v>
       </c>
       <c r="D770" t="s">
-        <v>2742</v>
+        <v>2732</v>
       </c>
       <c r="E770" t="s">
         <v>1850</v>
@@ -24338,7 +24619,7 @@
         <v>4</v>
       </c>
       <c r="C772" t="s">
-        <v>2744</v>
+        <v>2734</v>
       </c>
       <c r="D772" t="s">
         <v>6</v>
@@ -24355,10 +24636,10 @@
         <v>2362</v>
       </c>
       <c r="C773" t="s">
-        <v>2745</v>
+        <v>2735</v>
       </c>
       <c r="D773" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="E773" t="s">
         <v>2388</v>
@@ -24372,10 +24653,10 @@
         <v>497</v>
       </c>
       <c r="C774" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="D774" t="s">
-        <v>2748</v>
+        <v>2738</v>
       </c>
       <c r="E774" t="s">
         <v>2388</v>
@@ -24386,13 +24667,13 @@
         <v>61</v>
       </c>
       <c r="B775" t="s">
-        <v>2749</v>
+        <v>2739</v>
       </c>
       <c r="C775" t="s">
-        <v>2750</v>
+        <v>2740</v>
       </c>
       <c r="D775" t="s">
-        <v>2751</v>
+        <v>2741</v>
       </c>
       <c r="E775" t="s">
         <v>1850</v>
@@ -24400,16 +24681,16 @@
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
       <c r="B776" t="s">
         <v>2469</v>
       </c>
       <c r="C776" t="s">
-        <v>2753</v>
+        <v>2743</v>
       </c>
       <c r="D776" t="s">
-        <v>2754</v>
+        <v>2744</v>
       </c>
       <c r="E776" t="s">
         <v>1822</v>
@@ -24423,10 +24704,10 @@
         <v>1811</v>
       </c>
       <c r="C777" t="s">
-        <v>2755</v>
+        <v>2745</v>
       </c>
       <c r="D777" t="s">
-        <v>2756</v>
+        <v>2746</v>
       </c>
       <c r="E777" t="s">
         <v>1822</v>
@@ -24440,7 +24721,7 @@
         <v>484</v>
       </c>
       <c r="C778" t="s">
-        <v>2757</v>
+        <v>2747</v>
       </c>
       <c r="D778" t="s">
         <v>1022</v>
@@ -24457,10 +24738,10 @@
         <v>469</v>
       </c>
       <c r="C779" t="s">
-        <v>2758</v>
+        <v>2748</v>
       </c>
       <c r="D779" t="s">
-        <v>2759</v>
+        <v>2749</v>
       </c>
       <c r="E779" t="s">
         <v>1822</v>
@@ -24468,13 +24749,13 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="B780" t="s">
         <v>72</v>
       </c>
       <c r="C780" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="D780" t="s">
         <v>74</v>
@@ -24488,10 +24769,10 @@
         <v>943</v>
       </c>
       <c r="B781" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
       <c r="C781" t="s">
-        <v>2762</v>
+        <v>2752</v>
       </c>
       <c r="D781" t="s">
         <v>946</v>
@@ -24502,16 +24783,16 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
       <c r="B782" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
       <c r="C782" t="s">
-        <v>2764</v>
+        <v>2754</v>
       </c>
       <c r="D782" t="s">
-        <v>2765</v>
+        <v>2755</v>
       </c>
       <c r="E782" t="s">
         <v>1850</v>
@@ -24519,16 +24800,16 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="B783" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="C783" t="s">
-        <v>2768</v>
+        <v>2758</v>
       </c>
       <c r="D783" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
       <c r="E783" t="s">
         <v>1850</v>
@@ -24536,16 +24817,16 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="B784" t="s">
-        <v>2771</v>
+        <v>2761</v>
       </c>
       <c r="C784" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
       <c r="D784" t="s">
-        <v>2773</v>
+        <v>2763</v>
       </c>
       <c r="E784" t="s">
         <v>1850</v>
@@ -24553,16 +24834,16 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
       <c r="B785" t="s">
-        <v>2775</v>
+        <v>2765</v>
       </c>
       <c r="C785" t="s">
-        <v>2776</v>
+        <v>2766</v>
       </c>
       <c r="D785" t="s">
-        <v>2777</v>
+        <v>2767</v>
       </c>
       <c r="E785" t="s">
         <v>1850</v>
@@ -24570,16 +24851,16 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>2778</v>
+        <v>2768</v>
       </c>
       <c r="B786" t="s">
-        <v>2779</v>
+        <v>2769</v>
       </c>
       <c r="C786" t="s">
-        <v>2780</v>
+        <v>2770</v>
       </c>
       <c r="D786" t="s">
-        <v>2781</v>
+        <v>2771</v>
       </c>
       <c r="E786" t="s">
         <v>1850</v>
@@ -24587,16 +24868,16 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>2782</v>
+        <v>2772</v>
       </c>
       <c r="B787" t="s">
-        <v>2783</v>
+        <v>2773</v>
       </c>
       <c r="C787" t="s">
-        <v>2784</v>
+        <v>2774</v>
       </c>
       <c r="D787" t="s">
-        <v>2785</v>
+        <v>2775</v>
       </c>
       <c r="E787" t="s">
         <v>1850</v>
@@ -24604,16 +24885,16 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>2786</v>
+        <v>2776</v>
       </c>
       <c r="B788" t="s">
-        <v>2787</v>
+        <v>2777</v>
       </c>
       <c r="C788" t="s">
-        <v>2788</v>
+        <v>2778</v>
       </c>
       <c r="D788" t="s">
-        <v>2789</v>
+        <v>2779</v>
       </c>
       <c r="E788" t="s">
         <v>1850</v>
@@ -24621,16 +24902,16 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>2790</v>
+        <v>2780</v>
       </c>
       <c r="B789" t="s">
-        <v>2791</v>
+        <v>2781</v>
       </c>
       <c r="C789" t="s">
-        <v>2792</v>
+        <v>2782</v>
       </c>
       <c r="D789" t="s">
-        <v>2793</v>
+        <v>2783</v>
       </c>
       <c r="E789" t="s">
         <v>1850</v>
@@ -24638,16 +24919,16 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>2794</v>
+        <v>2784</v>
       </c>
       <c r="B790" t="s">
-        <v>2795</v>
+        <v>2785</v>
       </c>
       <c r="C790" t="s">
-        <v>2796</v>
+        <v>2786</v>
       </c>
       <c r="D790" t="s">
-        <v>2797</v>
+        <v>2787</v>
       </c>
       <c r="E790" t="s">
         <v>1850</v>
@@ -24655,16 +24936,16 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>2798</v>
+        <v>2788</v>
       </c>
       <c r="B791" t="s">
-        <v>2799</v>
+        <v>2789</v>
       </c>
       <c r="C791" t="s">
-        <v>2800</v>
+        <v>2790</v>
       </c>
       <c r="D791" t="s">
-        <v>2801</v>
+        <v>2791</v>
       </c>
       <c r="E791" t="s">
         <v>1850</v>
@@ -24672,16 +24953,16 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>2802</v>
+        <v>2792</v>
       </c>
       <c r="B792" t="s">
-        <v>2803</v>
+        <v>2793</v>
       </c>
       <c r="C792" t="s">
-        <v>2804</v>
+        <v>2794</v>
       </c>
       <c r="D792" t="s">
-        <v>2801</v>
+        <v>2791</v>
       </c>
       <c r="E792" t="s">
         <v>1850</v>
@@ -24689,16 +24970,16 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>2805</v>
+        <v>2795</v>
       </c>
       <c r="B793" t="s">
-        <v>2806</v>
+        <v>2796</v>
       </c>
       <c r="C793" t="s">
-        <v>2807</v>
+        <v>2797</v>
       </c>
       <c r="D793" t="s">
-        <v>2801</v>
+        <v>2791</v>
       </c>
       <c r="E793" t="s">
         <v>1850</v>
@@ -24706,16 +24987,16 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>2808</v>
+        <v>2798</v>
       </c>
       <c r="B794" t="s">
-        <v>2809</v>
+        <v>2799</v>
       </c>
       <c r="C794" t="s">
-        <v>2810</v>
+        <v>2800</v>
       </c>
       <c r="D794" t="s">
-        <v>2801</v>
+        <v>2791</v>
       </c>
       <c r="E794" t="s">
         <v>1850</v>
@@ -24723,16 +25004,16 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>2811</v>
+        <v>2801</v>
       </c>
       <c r="B795" t="s">
-        <v>2812</v>
+        <v>2802</v>
       </c>
       <c r="C795" t="s">
-        <v>2813</v>
+        <v>2803</v>
       </c>
       <c r="D795" t="s">
-        <v>2814</v>
+        <v>2804</v>
       </c>
       <c r="E795" t="s">
         <v>1850</v>
@@ -24740,16 +25021,16 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>2815</v>
+        <v>2805</v>
       </c>
       <c r="B796" t="s">
-        <v>2816</v>
+        <v>2806</v>
       </c>
       <c r="C796" t="s">
-        <v>2817</v>
+        <v>2807</v>
       </c>
       <c r="D796" t="s">
-        <v>2818</v>
+        <v>2808</v>
       </c>
       <c r="E796" t="s">
         <v>1850</v>
@@ -24760,10 +25041,10 @@
         <v>1003</v>
       </c>
       <c r="B797" t="s">
-        <v>2819</v>
+        <v>2809</v>
       </c>
       <c r="C797" t="s">
-        <v>2820</v>
+        <v>2810</v>
       </c>
       <c r="D797" t="s">
         <v>1006</v>
@@ -24780,10 +25061,10 @@
         <v>2321</v>
       </c>
       <c r="C798" t="s">
-        <v>2821</v>
+        <v>2811</v>
       </c>
       <c r="D798" t="s">
-        <v>2822</v>
+        <v>2812</v>
       </c>
       <c r="E798" t="s">
         <v>1981</v>
@@ -24791,13 +25072,13 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>2823</v>
+        <v>2813</v>
       </c>
       <c r="B799" t="s">
-        <v>2824</v>
+        <v>2814</v>
       </c>
       <c r="C799" t="s">
-        <v>2825</v>
+        <v>2815</v>
       </c>
       <c r="D799" t="s">
         <v>958</v>
@@ -24817,7 +25098,7 @@
         <v>519</v>
       </c>
       <c r="D800" t="s">
-        <v>2826</v>
+        <v>2816</v>
       </c>
       <c r="E800" t="s">
         <v>1850</v>
@@ -24831,10 +25112,10 @@
         <v>719</v>
       </c>
       <c r="C801" t="s">
-        <v>2827</v>
+        <v>2817</v>
       </c>
       <c r="D801" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
       <c r="E801" t="s">
         <v>1850</v>
@@ -24851,7 +25132,7 @@
         <v>2288</v>
       </c>
       <c r="D802" t="s">
-        <v>2829</v>
+        <v>2819</v>
       </c>
       <c r="E802" t="s">
         <v>2234</v>
@@ -24865,7 +25146,7 @@
         <v>673</v>
       </c>
       <c r="C803" t="s">
-        <v>2830</v>
+        <v>2820</v>
       </c>
       <c r="D803" t="s">
         <v>675</v>
@@ -24876,16 +25157,16 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>2831</v>
+        <v>2821</v>
       </c>
       <c r="B804" t="s">
         <v>1529</v>
       </c>
       <c r="C804" t="s">
-        <v>2832</v>
+        <v>2822</v>
       </c>
       <c r="D804" t="s">
-        <v>2833</v>
+        <v>2823</v>
       </c>
       <c r="E804" t="s">
         <v>1850</v>
@@ -24893,16 +25174,16 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>2834</v>
+        <v>2824</v>
       </c>
       <c r="B805" t="s">
         <v>1460</v>
       </c>
       <c r="C805" t="s">
-        <v>2835</v>
+        <v>2825</v>
       </c>
       <c r="D805" t="s">
-        <v>2836</v>
+        <v>2826</v>
       </c>
       <c r="E805" t="s">
         <v>1850</v>
@@ -24916,7 +25197,7 @@
         <v>2283</v>
       </c>
       <c r="C806" t="s">
-        <v>2837</v>
+        <v>2827</v>
       </c>
       <c r="D806" t="s">
         <v>2285</v>
@@ -24930,30 +25211,30 @@
         <v>169</v>
       </c>
       <c r="B807" t="s">
-        <v>3252</v>
+        <v>3242</v>
       </c>
       <c r="C807" t="s">
         <v>2334</v>
       </c>
       <c r="D807" t="s">
-        <v>3250</v>
+        <v>3240</v>
       </c>
       <c r="E807" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>2838</v>
+        <v>2828</v>
       </c>
       <c r="B808" t="s">
         <v>727</v>
       </c>
       <c r="C808" t="s">
-        <v>2839</v>
+        <v>2829</v>
       </c>
       <c r="D808" t="s">
-        <v>2840</v>
+        <v>2830</v>
       </c>
       <c r="E808" t="s">
         <v>1850</v>
@@ -24967,10 +25248,10 @@
         <v>2255</v>
       </c>
       <c r="C809" t="s">
-        <v>2841</v>
+        <v>2831</v>
       </c>
       <c r="D809" t="s">
-        <v>2842</v>
+        <v>2832</v>
       </c>
       <c r="E809" t="s">
         <v>2234</v>
@@ -24987,7 +25268,7 @@
         <v>2384</v>
       </c>
       <c r="D810" t="s">
-        <v>2843</v>
+        <v>2833</v>
       </c>
       <c r="E810" t="s">
         <v>2234</v>
@@ -24995,13 +25276,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>2844</v>
+        <v>2834</v>
       </c>
       <c r="B811" t="s">
         <v>628</v>
       </c>
       <c r="C811" t="s">
-        <v>2845</v>
+        <v>2835</v>
       </c>
       <c r="D811" t="s">
         <v>630</v>
@@ -25021,7 +25302,7 @@
         <v>2204</v>
       </c>
       <c r="D812" t="s">
-        <v>2846</v>
+        <v>2836</v>
       </c>
       <c r="E812" t="s">
         <v>1850</v>
@@ -25029,16 +25310,16 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>2847</v>
+        <v>2837</v>
       </c>
       <c r="B813" t="s">
         <v>2247</v>
       </c>
       <c r="C813" t="s">
-        <v>2848</v>
+        <v>2838</v>
       </c>
       <c r="D813" t="s">
-        <v>2849</v>
+        <v>2839</v>
       </c>
       <c r="E813" t="s">
         <v>2234</v>
@@ -25052,13 +25333,13 @@
         <v>252</v>
       </c>
       <c r="C814" t="s">
-        <v>2850</v>
+        <v>2840</v>
       </c>
       <c r="D814" t="s">
-        <v>2851</v>
+        <v>2841</v>
       </c>
       <c r="E814" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
@@ -25069,13 +25350,13 @@
         <v>1811</v>
       </c>
       <c r="C815" t="s">
-        <v>2852</v>
+        <v>2842</v>
       </c>
       <c r="D815" t="s">
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="E815" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
@@ -25086,13 +25367,13 @@
         <v>484</v>
       </c>
       <c r="C816" t="s">
-        <v>2854</v>
+        <v>2844</v>
       </c>
       <c r="D816" t="s">
-        <v>2855</v>
+        <v>2845</v>
       </c>
       <c r="E816" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
@@ -25103,13 +25384,13 @@
         <v>473</v>
       </c>
       <c r="C817" t="s">
-        <v>2856</v>
+        <v>2846</v>
       </c>
       <c r="D817" t="s">
-        <v>2857</v>
+        <v>2847</v>
       </c>
       <c r="E817" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
@@ -25120,13 +25401,13 @@
         <v>583</v>
       </c>
       <c r="C818" t="s">
-        <v>2858</v>
+        <v>2848</v>
       </c>
       <c r="D818" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E818" t="s">
         <v>2859</v>
-      </c>
-      <c r="E818" t="s">
-        <v>2869</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
@@ -25137,13 +25418,13 @@
         <v>469</v>
       </c>
       <c r="C819" t="s">
-        <v>2860</v>
+        <v>2850</v>
       </c>
       <c r="D819" t="s">
-        <v>2861</v>
+        <v>2851</v>
       </c>
       <c r="E819" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
@@ -25154,30 +25435,30 @@
         <v>1988</v>
       </c>
       <c r="C820" t="s">
-        <v>2862</v>
+        <v>2852</v>
       </c>
       <c r="D820" t="s">
-        <v>2863</v>
+        <v>2853</v>
       </c>
       <c r="E820" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>3254</v>
+        <v>3244</v>
       </c>
       <c r="B821" t="s">
-        <v>3252</v>
+        <v>3242</v>
       </c>
       <c r="C821" t="s">
         <v>576</v>
       </c>
       <c r="D821" t="s">
-        <v>3253</v>
+        <v>3243</v>
       </c>
       <c r="E821" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
@@ -25188,13 +25469,13 @@
         <v>374</v>
       </c>
       <c r="C822" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="D822" t="s">
-        <v>2865</v>
+        <v>2855</v>
       </c>
       <c r="E822" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
@@ -25205,13 +25486,13 @@
         <v>480</v>
       </c>
       <c r="C823" t="s">
-        <v>2866</v>
+        <v>2856</v>
       </c>
       <c r="D823" t="s">
-        <v>2867</v>
+        <v>2857</v>
       </c>
       <c r="E823" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
@@ -25222,7 +25503,7 @@
         <v>2317</v>
       </c>
       <c r="C824" t="s">
-        <v>2868</v>
+        <v>2858</v>
       </c>
       <c r="D824" t="s">
         <v>1022</v>
@@ -25233,16 +25514,16 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>2925</v>
+        <v>2915</v>
       </c>
       <c r="B825" t="s">
-        <v>2924</v>
+        <v>2914</v>
       </c>
       <c r="C825" t="s">
-        <v>2923</v>
+        <v>2913</v>
       </c>
       <c r="D825" t="s">
-        <v>2922</v>
+        <v>2912</v>
       </c>
       <c r="E825" t="s">
         <v>1850</v>
@@ -25250,16 +25531,16 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>2921</v>
+        <v>2911</v>
       </c>
       <c r="B826" t="s">
-        <v>2920</v>
+        <v>2910</v>
       </c>
       <c r="C826" t="s">
-        <v>2919</v>
+        <v>2909</v>
       </c>
       <c r="D826" t="s">
-        <v>2918</v>
+        <v>2908</v>
       </c>
       <c r="E826" t="s">
         <v>1850</v>
@@ -25267,16 +25548,16 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>2917</v>
+        <v>2907</v>
       </c>
       <c r="B827" t="s">
-        <v>2916</v>
+        <v>2906</v>
       </c>
       <c r="C827" t="s">
-        <v>2915</v>
+        <v>2905</v>
       </c>
       <c r="D827" t="s">
-        <v>2914</v>
+        <v>2904</v>
       </c>
       <c r="E827" t="s">
         <v>1850</v>
@@ -25284,16 +25565,16 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>2913</v>
+        <v>2903</v>
       </c>
       <c r="B828" t="s">
-        <v>2912</v>
+        <v>2902</v>
       </c>
       <c r="C828" t="s">
-        <v>2911</v>
+        <v>2901</v>
       </c>
       <c r="D828" t="s">
-        <v>2910</v>
+        <v>2900</v>
       </c>
       <c r="E828" t="s">
         <v>1850</v>
@@ -25301,16 +25582,16 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>2909</v>
+        <v>2899</v>
       </c>
       <c r="B829" t="s">
-        <v>2908</v>
+        <v>2898</v>
       </c>
       <c r="C829" t="s">
-        <v>2907</v>
+        <v>2897</v>
       </c>
       <c r="D829" t="s">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="E829" t="s">
         <v>1850</v>
@@ -25318,16 +25599,16 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>2905</v>
+        <v>2895</v>
       </c>
       <c r="B830" t="s">
-        <v>2904</v>
+        <v>2894</v>
       </c>
       <c r="C830" t="s">
-        <v>2903</v>
+        <v>2893</v>
       </c>
       <c r="D830" t="s">
-        <v>2902</v>
+        <v>2892</v>
       </c>
       <c r="E830" t="s">
         <v>1850</v>
@@ -25335,16 +25616,16 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>2901</v>
+        <v>2891</v>
       </c>
       <c r="B831" t="s">
-        <v>2901</v>
+        <v>2891</v>
       </c>
       <c r="C831" t="s">
-        <v>2900</v>
+        <v>2890</v>
       </c>
       <c r="D831" t="s">
-        <v>2899</v>
+        <v>2889</v>
       </c>
       <c r="E831" t="s">
         <v>1850</v>
@@ -25352,16 +25633,16 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>2898</v>
+        <v>2888</v>
       </c>
       <c r="B832" t="s">
-        <v>2897</v>
+        <v>2887</v>
       </c>
       <c r="C832" t="s">
-        <v>2896</v>
+        <v>2886</v>
       </c>
       <c r="D832" t="s">
-        <v>2895</v>
+        <v>2885</v>
       </c>
       <c r="E832" t="s">
         <v>1850</v>
@@ -25369,13 +25650,13 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>2894</v>
+        <v>2884</v>
       </c>
       <c r="B833" t="s">
-        <v>2893</v>
+        <v>2883</v>
       </c>
       <c r="C833" t="s">
-        <v>2892</v>
+        <v>2882</v>
       </c>
       <c r="D833" t="s">
         <v>1458</v>
@@ -25386,16 +25667,16 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>2891</v>
+        <v>2881</v>
       </c>
       <c r="B834" t="s">
-        <v>2891</v>
+        <v>2881</v>
       </c>
       <c r="C834" t="s">
-        <v>2890</v>
+        <v>2880</v>
       </c>
       <c r="D834" t="s">
-        <v>2889</v>
+        <v>2879</v>
       </c>
       <c r="E834" t="s">
         <v>1850</v>
@@ -25403,16 +25684,16 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>2888</v>
+        <v>2878</v>
       </c>
       <c r="B835" t="s">
-        <v>2887</v>
+        <v>2877</v>
       </c>
       <c r="C835" t="s">
-        <v>2886</v>
+        <v>2876</v>
       </c>
       <c r="D835" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="E835" t="s">
         <v>1850</v>
@@ -25420,16 +25701,16 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>2884</v>
+        <v>2874</v>
       </c>
       <c r="B836" t="s">
-        <v>2883</v>
+        <v>2873</v>
       </c>
       <c r="C836" t="s">
-        <v>2882</v>
+        <v>2872</v>
       </c>
       <c r="D836" t="s">
-        <v>2881</v>
+        <v>2871</v>
       </c>
       <c r="E836" t="s">
         <v>1850</v>
@@ -25437,16 +25718,16 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>2884</v>
+        <v>2874</v>
       </c>
       <c r="B837" t="s">
-        <v>2883</v>
+        <v>2873</v>
       </c>
       <c r="C837" t="s">
-        <v>2926</v>
+        <v>2916</v>
       </c>
       <c r="D837" t="s">
-        <v>2927</v>
+        <v>2917</v>
       </c>
       <c r="E837" t="s">
         <v>1850</v>
@@ -25454,16 +25735,16 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>2880</v>
+        <v>2870</v>
       </c>
       <c r="B838" t="s">
-        <v>2879</v>
+        <v>2869</v>
       </c>
       <c r="C838" t="s">
-        <v>2878</v>
+        <v>2868</v>
       </c>
       <c r="D838" t="s">
-        <v>2877</v>
+        <v>2867</v>
       </c>
       <c r="E838" t="s">
         <v>1850</v>
@@ -25471,16 +25752,16 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="B839" t="s">
-        <v>2875</v>
+        <v>2865</v>
       </c>
       <c r="C839" t="s">
-        <v>2874</v>
+        <v>2864</v>
       </c>
       <c r="D839" t="s">
-        <v>2873</v>
+        <v>2863</v>
       </c>
       <c r="E839" t="s">
         <v>1850</v>
@@ -25488,13 +25769,13 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>2872</v>
+        <v>2862</v>
       </c>
       <c r="B840" t="s">
-        <v>2871</v>
+        <v>2861</v>
       </c>
       <c r="C840" t="s">
-        <v>2870</v>
+        <v>2860</v>
       </c>
       <c r="D840" t="s">
         <v>695</v>
@@ -25514,7 +25795,7 @@
         <v>455</v>
       </c>
       <c r="D841" t="s">
-        <v>2932</v>
+        <v>2922</v>
       </c>
       <c r="E841" t="s">
         <v>1850</v>
@@ -25522,16 +25803,16 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>2933</v>
+        <v>2923</v>
       </c>
       <c r="B842" t="s">
-        <v>2887</v>
+        <v>2877</v>
       </c>
       <c r="C842" t="s">
-        <v>2934</v>
+        <v>2924</v>
       </c>
       <c r="D842" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="E842" t="s">
         <v>1850</v>
@@ -25539,16 +25820,16 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>2935</v>
+        <v>2925</v>
       </c>
       <c r="B843" t="s">
         <v>1093</v>
       </c>
       <c r="C843" t="s">
-        <v>2936</v>
+        <v>2926</v>
       </c>
       <c r="D843" t="s">
-        <v>2937</v>
+        <v>2927</v>
       </c>
       <c r="E843" t="s">
         <v>1850</v>
@@ -25556,13 +25837,13 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>2938</v>
+        <v>2928</v>
       </c>
       <c r="B844" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
       <c r="C844" t="s">
-        <v>2939</v>
+        <v>2929</v>
       </c>
       <c r="D844" t="s">
         <v>946</v>
@@ -25579,13 +25860,13 @@
         <v>2043</v>
       </c>
       <c r="C845" t="s">
-        <v>2940</v>
+        <v>2930</v>
       </c>
       <c r="D845" t="s">
-        <v>2941</v>
+        <v>2931</v>
       </c>
       <c r="E845" t="s">
-        <v>2676</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
@@ -25596,10 +25877,10 @@
         <v>2302</v>
       </c>
       <c r="C846" t="s">
-        <v>2942</v>
+        <v>2932</v>
       </c>
       <c r="D846" t="s">
-        <v>2943</v>
+        <v>2933</v>
       </c>
       <c r="E846" t="s">
         <v>2234</v>
@@ -25613,10 +25894,10 @@
         <v>469</v>
       </c>
       <c r="C847" t="s">
-        <v>2758</v>
+        <v>2748</v>
       </c>
       <c r="D847" t="s">
-        <v>2944</v>
+        <v>2934</v>
       </c>
       <c r="E847" t="s">
         <v>1822</v>
@@ -25630,7 +25911,7 @@
         <v>1111</v>
       </c>
       <c r="C848" t="s">
-        <v>2945</v>
+        <v>2935</v>
       </c>
       <c r="D848" t="s">
         <v>1113</v>
@@ -25647,10 +25928,10 @@
         <v>469</v>
       </c>
       <c r="C849" t="s">
-        <v>2758</v>
+        <v>2748</v>
       </c>
       <c r="D849" t="s">
-        <v>2946</v>
+        <v>2936</v>
       </c>
       <c r="E849" t="s">
         <v>1822</v>
@@ -25661,13 +25942,13 @@
         <v>108</v>
       </c>
       <c r="B850" t="s">
-        <v>2947</v>
+        <v>2937</v>
       </c>
       <c r="C850" t="s">
         <v>109</v>
       </c>
       <c r="D850" t="s">
-        <v>2948</v>
+        <v>2938</v>
       </c>
       <c r="E850" t="s">
         <v>1850</v>
@@ -25681,10 +25962,10 @@
         <v>2302</v>
       </c>
       <c r="C851" t="s">
-        <v>2949</v>
+        <v>2939</v>
       </c>
       <c r="D851" t="s">
-        <v>2950</v>
+        <v>2940</v>
       </c>
       <c r="E851" t="s">
         <v>2234</v>
@@ -25698,10 +25979,10 @@
         <v>2302</v>
       </c>
       <c r="C852" t="s">
-        <v>2951</v>
+        <v>2941</v>
       </c>
       <c r="D852" t="s">
-        <v>2950</v>
+        <v>2940</v>
       </c>
       <c r="E852" t="s">
         <v>2234</v>
@@ -25709,16 +25990,16 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="B853" t="s">
-        <v>2953</v>
+        <v>2943</v>
       </c>
       <c r="C853" t="s">
-        <v>2954</v>
+        <v>2944</v>
       </c>
       <c r="D853" t="s">
-        <v>2955</v>
+        <v>2945</v>
       </c>
       <c r="E853" t="s">
         <v>1788</v>
@@ -25726,16 +26007,16 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>2956</v>
+        <v>2946</v>
       </c>
       <c r="B854" t="s">
-        <v>2957</v>
+        <v>2947</v>
       </c>
       <c r="C854" t="s">
-        <v>2958</v>
+        <v>2948</v>
       </c>
       <c r="D854" t="s">
-        <v>2959</v>
+        <v>2949</v>
       </c>
       <c r="E854" t="s">
         <v>1788</v>
@@ -25743,16 +26024,16 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>2960</v>
+        <v>2950</v>
       </c>
       <c r="B855" t="s">
-        <v>2961</v>
+        <v>2951</v>
       </c>
       <c r="C855" t="s">
-        <v>2962</v>
+        <v>2952</v>
       </c>
       <c r="D855" t="s">
-        <v>2963</v>
+        <v>2953</v>
       </c>
       <c r="E855" t="s">
         <v>1788</v>
@@ -25760,33 +26041,33 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>2964</v>
+        <v>2954</v>
       </c>
       <c r="B856" t="s">
-        <v>2965</v>
+        <v>2955</v>
       </c>
       <c r="C856" t="s">
-        <v>2966</v>
+        <v>2956</v>
       </c>
       <c r="D856" t="s">
-        <v>2967</v>
+        <v>2957</v>
       </c>
       <c r="E856" t="s">
-        <v>2968</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>2969</v>
+        <v>2959</v>
       </c>
       <c r="B857" t="s">
-        <v>2970</v>
+        <v>2960</v>
       </c>
       <c r="C857" t="s">
-        <v>2971</v>
+        <v>2961</v>
       </c>
       <c r="D857" t="s">
-        <v>2972</v>
+        <v>2962</v>
       </c>
       <c r="E857" t="s">
         <v>1788</v>
@@ -25794,16 +26075,16 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>2973</v>
+        <v>2963</v>
       </c>
       <c r="B858" t="s">
-        <v>2974</v>
+        <v>2964</v>
       </c>
       <c r="C858" t="s">
-        <v>2975</v>
+        <v>2965</v>
       </c>
       <c r="D858" t="s">
-        <v>2976</v>
+        <v>2966</v>
       </c>
       <c r="E858" t="s">
         <v>1788</v>
@@ -25811,16 +26092,16 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>2977</v>
+        <v>2967</v>
       </c>
       <c r="B859" t="s">
-        <v>2978</v>
+        <v>2968</v>
       </c>
       <c r="C859" t="s">
-        <v>2979</v>
+        <v>2969</v>
       </c>
       <c r="D859" t="s">
-        <v>2980</v>
+        <v>2970</v>
       </c>
       <c r="E859" t="s">
         <v>1788</v>
@@ -25828,16 +26109,16 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>2981</v>
+        <v>2971</v>
       </c>
       <c r="B860" t="s">
-        <v>2982</v>
+        <v>2972</v>
       </c>
       <c r="C860" t="s">
-        <v>2983</v>
+        <v>2973</v>
       </c>
       <c r="D860" t="s">
-        <v>2984</v>
+        <v>2974</v>
       </c>
       <c r="E860" t="s">
         <v>1788</v>
@@ -25845,16 +26126,16 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>2985</v>
+        <v>2975</v>
       </c>
       <c r="B861" t="s">
-        <v>2982</v>
+        <v>2972</v>
       </c>
       <c r="C861" t="s">
-        <v>2983</v>
+        <v>2973</v>
       </c>
       <c r="D861" t="s">
-        <v>2986</v>
+        <v>2976</v>
       </c>
       <c r="E861" t="s">
         <v>1788</v>
@@ -25862,16 +26143,16 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>2987</v>
+        <v>2977</v>
       </c>
       <c r="B862" t="s">
-        <v>2987</v>
+        <v>2977</v>
       </c>
       <c r="C862" t="s">
-        <v>2988</v>
+        <v>2978</v>
       </c>
       <c r="D862" t="s">
-        <v>2989</v>
+        <v>2979</v>
       </c>
       <c r="E862" t="s">
         <v>1788</v>
@@ -25879,16 +26160,16 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>2990</v>
+        <v>2980</v>
       </c>
       <c r="B863" t="s">
-        <v>2990</v>
+        <v>2980</v>
       </c>
       <c r="C863" t="s">
-        <v>2991</v>
+        <v>2981</v>
       </c>
       <c r="D863" t="s">
-        <v>2992</v>
+        <v>2982</v>
       </c>
       <c r="E863" t="s">
         <v>1788</v>
@@ -25896,16 +26177,16 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>2993</v>
+        <v>2983</v>
       </c>
       <c r="B864" t="s">
-        <v>2994</v>
+        <v>2984</v>
       </c>
       <c r="C864" t="s">
-        <v>2995</v>
+        <v>2985</v>
       </c>
       <c r="D864" t="s">
-        <v>2996</v>
+        <v>2986</v>
       </c>
       <c r="E864" t="s">
         <v>1788</v>
@@ -25913,16 +26194,16 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="B865" t="s">
-        <v>2998</v>
+        <v>2988</v>
       </c>
       <c r="C865" t="s">
-        <v>2999</v>
+        <v>2989</v>
       </c>
       <c r="D865" t="s">
-        <v>3000</v>
+        <v>2990</v>
       </c>
       <c r="E865" t="s">
         <v>1788</v>
@@ -25930,16 +26211,16 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>3001</v>
+        <v>2991</v>
       </c>
       <c r="B866" t="s">
-        <v>3002</v>
+        <v>2992</v>
       </c>
       <c r="C866" t="s">
-        <v>3003</v>
+        <v>2993</v>
       </c>
       <c r="D866" t="s">
-        <v>3004</v>
+        <v>2994</v>
       </c>
       <c r="E866" t="s">
         <v>1788</v>
@@ -25947,16 +26228,16 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>3005</v>
+        <v>2995</v>
       </c>
       <c r="B867" t="s">
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="C867" t="s">
-        <v>3007</v>
+        <v>2997</v>
       </c>
       <c r="D867" t="s">
-        <v>3008</v>
+        <v>2998</v>
       </c>
       <c r="E867" t="s">
         <v>1788</v>
@@ -25964,16 +26245,16 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>3009</v>
+        <v>2999</v>
       </c>
       <c r="B868" t="s">
-        <v>3010</v>
+        <v>3000</v>
       </c>
       <c r="C868" t="s">
-        <v>3011</v>
+        <v>3001</v>
       </c>
       <c r="D868" t="s">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="E868" t="s">
         <v>1915</v>
@@ -25981,16 +26262,16 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="B869" t="s">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="C869" t="s">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="D869" t="s">
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="E869" t="s">
         <v>1915</v>
@@ -25998,16 +26279,16 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>3017</v>
+        <v>3007</v>
       </c>
       <c r="B870" t="s">
-        <v>3018</v>
+        <v>3008</v>
       </c>
       <c r="C870" t="s">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="D870" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="E870" t="s">
         <v>1915</v>
@@ -26015,16 +26296,16 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="B871" t="s">
-        <v>3022</v>
+        <v>3012</v>
       </c>
       <c r="C871" t="s">
-        <v>3023</v>
+        <v>3013</v>
       </c>
       <c r="D871" t="s">
-        <v>3024</v>
+        <v>3014</v>
       </c>
       <c r="E871" t="s">
         <v>1915</v>
@@ -26038,10 +26319,10 @@
         <v>2321</v>
       </c>
       <c r="C872" t="s">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="D872" t="s">
-        <v>3026</v>
+        <v>3016</v>
       </c>
       <c r="E872" t="s">
         <v>2329</v>
@@ -26055,10 +26336,10 @@
         <v>466</v>
       </c>
       <c r="C873" t="s">
-        <v>3027</v>
+        <v>3017</v>
       </c>
       <c r="D873" t="s">
-        <v>3028</v>
+        <v>3018</v>
       </c>
       <c r="E873" t="s">
         <v>2329</v>
@@ -26075,7 +26356,7 @@
         <v>2351</v>
       </c>
       <c r="D874" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="E874" t="s">
         <v>2329</v>
@@ -26092,7 +26373,7 @@
         <v>2334</v>
       </c>
       <c r="D875" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="E875" t="s">
         <v>2329</v>
@@ -26109,7 +26390,7 @@
         <v>2335</v>
       </c>
       <c r="D876" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="E876" t="s">
         <v>2329</v>
@@ -26123,13 +26404,13 @@
         <v>484</v>
       </c>
       <c r="C877" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="D877" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="E877" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.2">
@@ -26140,13 +26421,13 @@
         <v>469</v>
       </c>
       <c r="C878" t="s">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="D878" t="s">
-        <v>3036</v>
+        <v>3026</v>
       </c>
       <c r="E878" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.2">
@@ -26160,10 +26441,10 @@
         <v>584</v>
       </c>
       <c r="D879" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="E879" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.2">
@@ -26177,10 +26458,10 @@
         <v>325</v>
       </c>
       <c r="D880" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="E880" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.2">
@@ -26191,13 +26472,13 @@
         <v>484</v>
       </c>
       <c r="C881" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="D881" t="s">
         <v>1022</v>
       </c>
       <c r="E881" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.2">
@@ -26208,13 +26489,13 @@
         <v>1988</v>
       </c>
       <c r="C882" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="D882" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="E882" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
@@ -26228,10 +26509,10 @@
         <v>170</v>
       </c>
       <c r="D883" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="E883" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
@@ -26242,13 +26523,13 @@
         <v>480</v>
       </c>
       <c r="C884" t="s">
-        <v>3044</v>
+        <v>3034</v>
       </c>
       <c r="D884" t="s">
-        <v>3045</v>
+        <v>3035</v>
       </c>
       <c r="E884" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
@@ -26262,10 +26543,10 @@
         <v>1827</v>
       </c>
       <c r="D885" t="s">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="E885" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.2">
@@ -26276,13 +26557,13 @@
         <v>2368</v>
       </c>
       <c r="C886" t="s">
-        <v>3047</v>
+        <v>3037</v>
       </c>
       <c r="D886" t="s">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="E886" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.2">
@@ -26293,13 +26574,13 @@
         <v>2455</v>
       </c>
       <c r="C887" t="s">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="D887" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="E887" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.2">
@@ -26310,30 +26591,30 @@
         <v>2337</v>
       </c>
       <c r="C888" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="D888" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="E888" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>3053</v>
+        <v>3043</v>
       </c>
       <c r="B889" t="s">
         <v>1950</v>
       </c>
       <c r="C889" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="D889" t="s">
-        <v>3055</v>
+        <v>3045</v>
       </c>
       <c r="E889" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
@@ -26344,13 +26625,13 @@
         <v>1833</v>
       </c>
       <c r="C890" t="s">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="D890" t="s">
-        <v>3057</v>
+        <v>3047</v>
       </c>
       <c r="E890" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.2">
@@ -26361,30 +26642,30 @@
         <v>2381</v>
       </c>
       <c r="C891" t="s">
-        <v>3058</v>
+        <v>3048</v>
       </c>
       <c r="D891" t="s">
-        <v>3059</v>
+        <v>3049</v>
       </c>
       <c r="E891" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="B892" t="s">
         <v>2459</v>
       </c>
       <c r="C892" t="s">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="D892" t="s">
-        <v>3062</v>
+        <v>3052</v>
       </c>
       <c r="E892" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.2">
@@ -26395,13 +26676,13 @@
         <v>1808</v>
       </c>
       <c r="C893" t="s">
-        <v>3063</v>
+        <v>3053</v>
       </c>
       <c r="D893" t="s">
-        <v>3064</v>
+        <v>3054</v>
       </c>
       <c r="E893" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.2">
@@ -26415,7 +26696,7 @@
         <v>455</v>
       </c>
       <c r="D894" t="s">
-        <v>2932</v>
+        <v>2922</v>
       </c>
       <c r="E894" t="s">
         <v>1850</v>
@@ -26423,16 +26704,16 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B895" t="s">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C895" t="s">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="D895" t="s">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="E895" t="s">
         <v>2329</v>
@@ -26440,16 +26721,16 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>3066</v>
+        <v>3056</v>
       </c>
       <c r="B896" t="s">
-        <v>3067</v>
+        <v>3057</v>
       </c>
       <c r="C896" t="s">
-        <v>3068</v>
+        <v>3058</v>
       </c>
       <c r="D896" t="s">
-        <v>3069</v>
+        <v>3059</v>
       </c>
       <c r="E896" t="s">
         <v>1850</v>
@@ -26457,16 +26738,16 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="B897" t="s">
-        <v>3071</v>
+        <v>3061</v>
       </c>
       <c r="C897" t="s">
-        <v>3072</v>
+        <v>3062</v>
       </c>
       <c r="D897" t="s">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="E897" t="s">
         <v>1850</v>
@@ -26474,16 +26755,16 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="B898" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="C898" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="D898" t="s">
-        <v>3077</v>
+        <v>3067</v>
       </c>
       <c r="E898" t="s">
         <v>2234</v>
@@ -26491,16 +26772,16 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="B899" t="s">
-        <v>3079</v>
+        <v>3069</v>
       </c>
       <c r="C899" t="s">
-        <v>3080</v>
+        <v>3070</v>
       </c>
       <c r="D899" t="s">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="E899" t="s">
         <v>1850</v>
@@ -26508,16 +26789,16 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="B900" t="s">
-        <v>3083</v>
+        <v>3073</v>
       </c>
       <c r="C900" t="s">
-        <v>3084</v>
+        <v>3074</v>
       </c>
       <c r="D900" t="s">
-        <v>3085</v>
+        <v>3075</v>
       </c>
       <c r="E900" t="s">
         <v>1850</v>
@@ -26525,16 +26806,16 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>3086</v>
+        <v>3076</v>
       </c>
       <c r="B901" t="s">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="C901" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="D901" t="s">
-        <v>3089</v>
+        <v>3079</v>
       </c>
       <c r="E901" t="s">
         <v>1850</v>
@@ -26542,16 +26823,16 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>3090</v>
+        <v>3080</v>
       </c>
       <c r="B902" t="s">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="C902" t="s">
-        <v>3092</v>
+        <v>3082</v>
       </c>
       <c r="D902" t="s">
-        <v>3093</v>
+        <v>3083</v>
       </c>
       <c r="E902" t="s">
         <v>1850</v>
@@ -26559,16 +26840,16 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>3094</v>
+        <v>3084</v>
       </c>
       <c r="B903" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="C903" t="s">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="D903" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="E903" t="s">
         <v>2234</v>
@@ -26576,16 +26857,16 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>3098</v>
+        <v>3088</v>
       </c>
       <c r="B904" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="C904" t="s">
-        <v>3100</v>
+        <v>3090</v>
       </c>
       <c r="D904" t="s">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="E904" t="s">
         <v>1850</v>
@@ -26593,16 +26874,16 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="B905" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="C905" t="s">
-        <v>3103</v>
+        <v>3093</v>
       </c>
       <c r="D905" t="s">
-        <v>3104</v>
+        <v>3094</v>
       </c>
       <c r="E905" t="s">
         <v>1850</v>
@@ -26610,16 +26891,16 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>3105</v>
+        <v>3095</v>
       </c>
       <c r="B906" t="s">
-        <v>3106</v>
+        <v>3096</v>
       </c>
       <c r="C906" t="s">
-        <v>3107</v>
+        <v>3097</v>
       </c>
       <c r="D906" t="s">
-        <v>3108</v>
+        <v>3098</v>
       </c>
       <c r="E906" t="s">
         <v>1850</v>
@@ -26627,16 +26908,16 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>3109</v>
+        <v>3099</v>
       </c>
       <c r="B907" t="s">
-        <v>3110</v>
+        <v>3100</v>
       </c>
       <c r="C907" t="s">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="D907" t="s">
-        <v>3112</v>
+        <v>3102</v>
       </c>
       <c r="E907" t="s">
         <v>1850</v>
@@ -26644,16 +26925,16 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>3113</v>
+        <v>3103</v>
       </c>
       <c r="B908" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
       <c r="C908" t="s">
-        <v>3115</v>
+        <v>3105</v>
       </c>
       <c r="D908" t="s">
-        <v>3116</v>
+        <v>3106</v>
       </c>
       <c r="E908" t="s">
         <v>1850</v>
@@ -26661,16 +26942,16 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>3117</v>
+        <v>3107</v>
       </c>
       <c r="B909" t="s">
-        <v>3118</v>
+        <v>3108</v>
       </c>
       <c r="C909" t="s">
-        <v>3119</v>
+        <v>3109</v>
       </c>
       <c r="D909" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="E909" t="s">
         <v>1850</v>
@@ -26678,16 +26959,16 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="B910" t="s">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="C910" t="s">
-        <v>3122</v>
+        <v>3112</v>
       </c>
       <c r="D910" t="s">
-        <v>3123</v>
+        <v>3113</v>
       </c>
       <c r="E910" t="s">
         <v>1850</v>
@@ -26695,16 +26976,16 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="B911" t="s">
-        <v>3125</v>
+        <v>3115</v>
       </c>
       <c r="C911" t="s">
-        <v>3126</v>
+        <v>3116</v>
       </c>
       <c r="D911" t="s">
-        <v>3127</v>
+        <v>3117</v>
       </c>
       <c r="E911" t="s">
         <v>1850</v>
@@ -26712,16 +26993,16 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>3128</v>
+        <v>3118</v>
       </c>
       <c r="B912" t="s">
-        <v>3129</v>
+        <v>3119</v>
       </c>
       <c r="C912" t="s">
-        <v>3130</v>
+        <v>3120</v>
       </c>
       <c r="D912" t="s">
-        <v>3131</v>
+        <v>3121</v>
       </c>
       <c r="E912" t="s">
         <v>1850</v>
@@ -26729,16 +27010,16 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>3132</v>
+        <v>3122</v>
       </c>
       <c r="B913" t="s">
-        <v>3133</v>
+        <v>3123</v>
       </c>
       <c r="C913" t="s">
-        <v>3134</v>
+        <v>3124</v>
       </c>
       <c r="D913" t="s">
-        <v>3135</v>
+        <v>3125</v>
       </c>
       <c r="E913" t="s">
         <v>1850</v>
@@ -26746,16 +27027,16 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>3136</v>
+        <v>3126</v>
       </c>
       <c r="B914" t="s">
-        <v>3136</v>
+        <v>3126</v>
       </c>
       <c r="C914" t="s">
-        <v>3137</v>
+        <v>3127</v>
       </c>
       <c r="D914" t="s">
-        <v>3138</v>
+        <v>3128</v>
       </c>
       <c r="E914" t="s">
         <v>1850</v>
@@ -26763,16 +27044,16 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>3139</v>
+        <v>3129</v>
       </c>
       <c r="B915" t="s">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="C915" t="s">
-        <v>3141</v>
+        <v>3131</v>
       </c>
       <c r="D915" t="s">
-        <v>3142</v>
+        <v>3132</v>
       </c>
       <c r="E915" t="s">
         <v>1850</v>
@@ -26780,16 +27061,16 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>3143</v>
+        <v>3133</v>
       </c>
       <c r="B916" t="s">
-        <v>3144</v>
+        <v>3134</v>
       </c>
       <c r="C916" t="s">
-        <v>3145</v>
+        <v>3135</v>
       </c>
       <c r="D916" t="s">
-        <v>3146</v>
+        <v>3136</v>
       </c>
       <c r="E916" t="s">
         <v>1850</v>
@@ -26797,16 +27078,16 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>3147</v>
+        <v>3137</v>
       </c>
       <c r="B917" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="C917" t="s">
-        <v>3149</v>
+        <v>3139</v>
       </c>
       <c r="D917" t="s">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="E917" t="s">
         <v>1850</v>
@@ -26814,16 +27095,16 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>3151</v>
+        <v>3141</v>
       </c>
       <c r="B918" t="s">
-        <v>3152</v>
+        <v>3142</v>
       </c>
       <c r="C918" t="s">
-        <v>3153</v>
+        <v>3143</v>
       </c>
       <c r="D918" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="E918" t="s">
         <v>1850</v>
@@ -26831,16 +27112,16 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="B919" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="C919" t="s">
-        <v>3156</v>
+        <v>3146</v>
       </c>
       <c r="D919" t="s">
-        <v>3157</v>
+        <v>3147</v>
       </c>
       <c r="E919" t="s">
         <v>1850</v>
@@ -26848,16 +27129,16 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>3158</v>
+        <v>3148</v>
       </c>
       <c r="B920" t="s">
-        <v>3159</v>
+        <v>3149</v>
       </c>
       <c r="C920" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="D920" t="s">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="E920" t="s">
         <v>1850</v>
@@ -26865,16 +27146,16 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>3162</v>
+        <v>3152</v>
       </c>
       <c r="B921" t="s">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="C921" t="s">
-        <v>3164</v>
+        <v>3154</v>
       </c>
       <c r="D921" t="s">
-        <v>3165</v>
+        <v>3155</v>
       </c>
       <c r="E921" t="s">
         <v>1850</v>
@@ -26882,16 +27163,16 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="B922" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="C922" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="D922" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="E922" t="s">
         <v>1850</v>
@@ -26899,16 +27180,16 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="B923" t="s">
-        <v>3171</v>
+        <v>3161</v>
       </c>
       <c r="C923" t="s">
-        <v>3172</v>
+        <v>3162</v>
       </c>
       <c r="D923" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="E923" t="s">
         <v>1850</v>
@@ -26916,16 +27197,16 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>3174</v>
+        <v>3164</v>
       </c>
       <c r="B924" t="s">
-        <v>3175</v>
+        <v>3165</v>
       </c>
       <c r="C924" t="s">
-        <v>3176</v>
+        <v>3166</v>
       </c>
       <c r="D924" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="E924" t="s">
         <v>1850</v>
@@ -26933,16 +27214,16 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>3178</v>
+        <v>3168</v>
       </c>
       <c r="B925" t="s">
-        <v>3179</v>
+        <v>3169</v>
       </c>
       <c r="C925" t="s">
-        <v>3180</v>
+        <v>3170</v>
       </c>
       <c r="D925" t="s">
-        <v>3181</v>
+        <v>3171</v>
       </c>
       <c r="E925" t="s">
         <v>1850</v>
@@ -26950,16 +27231,16 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>3182</v>
+        <v>3172</v>
       </c>
       <c r="B926" t="s">
-        <v>3183</v>
+        <v>3173</v>
       </c>
       <c r="C926" t="s">
-        <v>3184</v>
+        <v>3174</v>
       </c>
       <c r="D926" t="s">
-        <v>3185</v>
+        <v>3175</v>
       </c>
       <c r="E926" t="s">
         <v>1850</v>
@@ -26967,16 +27248,16 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>3186</v>
+        <v>3176</v>
       </c>
       <c r="B927" t="s">
-        <v>3187</v>
+        <v>3177</v>
       </c>
       <c r="C927" t="s">
-        <v>3188</v>
+        <v>3178</v>
       </c>
       <c r="D927" t="s">
-        <v>3189</v>
+        <v>3179</v>
       </c>
       <c r="E927" t="s">
         <v>1850</v>
@@ -26984,16 +27265,16 @@
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>3190</v>
+        <v>3180</v>
       </c>
       <c r="B928" t="s">
-        <v>3190</v>
+        <v>3180</v>
       </c>
       <c r="C928" t="s">
-        <v>3191</v>
+        <v>3181</v>
       </c>
       <c r="D928" t="s">
-        <v>3192</v>
+        <v>3182</v>
       </c>
       <c r="E928" t="s">
         <v>1850</v>
@@ -27001,16 +27282,16 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>3193</v>
+        <v>3183</v>
       </c>
       <c r="B929" t="s">
-        <v>3193</v>
+        <v>3183</v>
       </c>
       <c r="C929" t="s">
-        <v>3194</v>
+        <v>3184</v>
       </c>
       <c r="D929" t="s">
-        <v>3195</v>
+        <v>3185</v>
       </c>
       <c r="E929" t="s">
         <v>1850</v>
@@ -27018,16 +27299,16 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>3196</v>
+        <v>3186</v>
       </c>
       <c r="B930" t="s">
-        <v>3197</v>
+        <v>3187</v>
       </c>
       <c r="C930" t="s">
-        <v>3198</v>
+        <v>3188</v>
       </c>
       <c r="D930" t="s">
-        <v>3199</v>
+        <v>3189</v>
       </c>
       <c r="E930" t="s">
         <v>1850</v>
@@ -27035,16 +27316,16 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>3200</v>
+        <v>3190</v>
       </c>
       <c r="B931" t="s">
-        <v>3201</v>
+        <v>3191</v>
       </c>
       <c r="C931" t="s">
-        <v>3202</v>
+        <v>3192</v>
       </c>
       <c r="D931" t="s">
-        <v>3203</v>
+        <v>3193</v>
       </c>
       <c r="E931" t="s">
         <v>1850</v>
@@ -27052,16 +27333,16 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>3204</v>
+        <v>3194</v>
       </c>
       <c r="B932" t="s">
-        <v>3205</v>
+        <v>3195</v>
       </c>
       <c r="C932" t="s">
-        <v>3206</v>
+        <v>3196</v>
       </c>
       <c r="D932" t="s">
-        <v>3207</v>
+        <v>3197</v>
       </c>
       <c r="E932" t="s">
         <v>1850</v>
@@ -27069,16 +27350,16 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>3208</v>
+        <v>3198</v>
       </c>
       <c r="B933" t="s">
-        <v>3209</v>
+        <v>3199</v>
       </c>
       <c r="C933" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="D933" t="s">
-        <v>3211</v>
+        <v>3201</v>
       </c>
       <c r="E933" t="s">
         <v>1850</v>
@@ -27086,16 +27367,16 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>3212</v>
+        <v>3202</v>
       </c>
       <c r="B934" t="s">
-        <v>3213</v>
+        <v>3203</v>
       </c>
       <c r="C934" t="s">
-        <v>3214</v>
+        <v>3204</v>
       </c>
       <c r="D934" t="s">
-        <v>3215</v>
+        <v>3205</v>
       </c>
       <c r="E934" t="s">
         <v>1850</v>
@@ -27103,16 +27384,16 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>3216</v>
+        <v>3206</v>
       </c>
       <c r="B935" t="s">
-        <v>3217</v>
+        <v>3207</v>
       </c>
       <c r="C935" t="s">
-        <v>3218</v>
+        <v>3208</v>
       </c>
       <c r="D935" t="s">
-        <v>3219</v>
+        <v>3209</v>
       </c>
       <c r="E935" t="s">
         <v>1850</v>
@@ -27120,16 +27401,16 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>3220</v>
+        <v>3210</v>
       </c>
       <c r="B936" t="s">
-        <v>3221</v>
+        <v>3211</v>
       </c>
       <c r="C936" t="s">
-        <v>3222</v>
+        <v>3212</v>
       </c>
       <c r="D936" t="s">
-        <v>3223</v>
+        <v>3213</v>
       </c>
       <c r="E936" t="s">
         <v>1850</v>
@@ -27137,16 +27418,16 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>3224</v>
+        <v>3214</v>
       </c>
       <c r="B937" t="s">
-        <v>3225</v>
+        <v>3215</v>
       </c>
       <c r="C937" t="s">
-        <v>3226</v>
+        <v>3216</v>
       </c>
       <c r="D937" t="s">
-        <v>3227</v>
+        <v>3217</v>
       </c>
       <c r="E937" t="s">
         <v>2234</v>
@@ -27154,13 +27435,13 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>3228</v>
+        <v>3218</v>
       </c>
       <c r="B938" t="s">
-        <v>3228</v>
+        <v>3218</v>
       </c>
       <c r="C938" t="s">
-        <v>3229</v>
+        <v>3219</v>
       </c>
       <c r="D938" t="s">
         <v>561</v>
@@ -27171,16 +27452,16 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>3230</v>
+        <v>3220</v>
       </c>
       <c r="B939" t="s">
-        <v>3231</v>
+        <v>3221</v>
       </c>
       <c r="C939" t="s">
-        <v>3232</v>
+        <v>3222</v>
       </c>
       <c r="D939" t="s">
-        <v>3233</v>
+        <v>3223</v>
       </c>
       <c r="E939" t="s">
         <v>1850</v>
@@ -27188,16 +27469,16 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>3234</v>
+        <v>3224</v>
       </c>
       <c r="B940" t="s">
-        <v>3235</v>
+        <v>3225</v>
       </c>
       <c r="C940" t="s">
-        <v>3236</v>
+        <v>3226</v>
       </c>
       <c r="D940" t="s">
-        <v>3233</v>
+        <v>3223</v>
       </c>
       <c r="E940" t="s">
         <v>1850</v>
@@ -27205,16 +27486,16 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>3237</v>
+        <v>3227</v>
       </c>
       <c r="B941" t="s">
-        <v>3238</v>
+        <v>3228</v>
       </c>
       <c r="C941" t="s">
-        <v>3239</v>
+        <v>3229</v>
       </c>
       <c r="D941" t="s">
-        <v>3240</v>
+        <v>3230</v>
       </c>
       <c r="E941" t="s">
         <v>1850</v>
@@ -27222,16 +27503,16 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>3241</v>
+        <v>3231</v>
       </c>
       <c r="B942" t="s">
-        <v>3242</v>
+        <v>3232</v>
       </c>
       <c r="C942" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="D942" t="s">
-        <v>3244</v>
+        <v>3234</v>
       </c>
       <c r="E942" t="s">
         <v>1850</v>
@@ -27239,19 +27520,597 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>3245</v>
+        <v>3235</v>
       </c>
       <c r="B943" t="s">
-        <v>3246</v>
+        <v>3236</v>
       </c>
       <c r="C943" t="s">
-        <v>3247</v>
+        <v>3237</v>
       </c>
       <c r="D943" t="s">
-        <v>3248</v>
+        <v>3238</v>
       </c>
       <c r="E943" t="s">
         <v>2234</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B944" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C944" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D944" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E944" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B945" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C945" t="s">
+        <v>830</v>
+      </c>
+      <c r="D945" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B946" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C946" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D946" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E946" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>362</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C947" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D947" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E947" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B948" t="s">
+        <v>480</v>
+      </c>
+      <c r="C948" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D948" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E948" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C949" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D949" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E949" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B950" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C950" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D950" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E950" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>221</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C951" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D951" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E951" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>155</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C952" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D952" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E952" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B953" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C953" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D953" t="s">
+        <v>3285</v>
+      </c>
+      <c r="E953" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B954" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C954" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D954" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E954" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C955" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D955" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E955" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>219</v>
+      </c>
+      <c r="B956" t="s">
+        <v>252</v>
+      </c>
+      <c r="C956" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D956" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E956" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>215</v>
+      </c>
+      <c r="B957" t="s">
+        <v>497</v>
+      </c>
+      <c r="C957" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D957" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E957" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B958" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C958" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D958" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E958" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B959" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C959" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D959" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B960" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C960" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D960" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E960" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B961" t="s">
+        <v>575</v>
+      </c>
+      <c r="C961" t="s">
+        <v>576</v>
+      </c>
+      <c r="D961" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E961" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>373</v>
+      </c>
+      <c r="B962" t="s">
+        <v>374</v>
+      </c>
+      <c r="C962" t="s">
+        <v>375</v>
+      </c>
+      <c r="D962" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E962" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>479</v>
+      </c>
+      <c r="B963" t="s">
+        <v>480</v>
+      </c>
+      <c r="C963" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D963" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E963" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C964" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D964" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E964" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C965" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D965" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E965" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B966" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C966" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D966" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E966" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>215</v>
+      </c>
+      <c r="B967" t="s">
+        <v>497</v>
+      </c>
+      <c r="C967" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D967" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E967" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D968" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E968" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B969" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C969" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D969" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E969" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C970" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D970" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E970" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B971" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C971" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D971" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E971" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B972" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C972" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D972" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B973" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C973" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D973" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E973" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B974" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C974" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E974" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>422</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C975" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D975" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E975" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B976" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C976" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D976" t="s">
+        <v>888</v>
+      </c>
+      <c r="E976" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B977" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C977" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D977" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E977" t="s">
+        <v>1850</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2FF191-FF88-4311-9548-D78E2A8D577D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB4E9B-DCA9-4286-B589-86A136F8185A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="3345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="3435">
   <si>
     <t>百度网盘</t>
   </si>
@@ -10543,6 +10543,278 @@
   </si>
   <si>
     <t>com.sohu.sohuvideo.FirstNavigationActivityGroup</t>
+  </si>
+  <si>
+    <t>com.android.calendar.LaunchTasksActivity</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>com.lge.camera</t>
+  </si>
+  <si>
+    <t>com.lge.camera.CameraAppLauncher</t>
+  </si>
+  <si>
+    <t>com.google.android.GoogleCamerb</t>
+  </si>
+  <si>
+    <t>com.lge.clock</t>
+  </si>
+  <si>
+    <t>com.lge.clock.AlarmClockActivity</t>
+  </si>
+  <si>
+    <t>com.android.gallery3d.app.Gallery</t>
+  </si>
+  <si>
+    <t>com.lge.hifirecorder</t>
+  </si>
+  <si>
+    <t>com.lge.hifirecorder.LaunchHifiRecorder</t>
+  </si>
+  <si>
+    <t>com.lge.bnr.launcher</t>
+  </si>
+  <si>
+    <t>com.lge.bnr.launcher.BNRLauncherActivity</t>
+  </si>
+  <si>
+    <t>com.lge.music</t>
+  </si>
+  <si>
+    <t>com.lge.music.MusicBrowserActivity</t>
+  </si>
+  <si>
+    <t>笔记</t>
+  </si>
+  <si>
+    <t>com.lge.qmemoplus</t>
+  </si>
+  <si>
+    <t>com.lge.qmemoplus.ui.main.MainActivity</t>
+  </si>
+  <si>
+    <t>com.lge.phonemanagement</t>
+  </si>
+  <si>
+    <t>com.lge.phonemanagement.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>升级中心</t>
+  </si>
+  <si>
+    <t>com.lge.updatecenter</t>
+  </si>
+  <si>
+    <t>com.lge.updatecenter.UpdateCenterPrfActivity</t>
+  </si>
+  <si>
+    <t>1password</t>
+  </si>
+  <si>
+    <t>onepassword</t>
+  </si>
+  <si>
+    <t>com.agilebits.onepassword</t>
+  </si>
+  <si>
+    <t>com.agilebits.onepassword.activity.LoginActivity</t>
+  </si>
+  <si>
+    <t>360安全云盘</t>
+  </si>
+  <si>
+    <t>qihoo_cloudisk</t>
+  </si>
+  <si>
+    <t>com.qihoo.cloudisk</t>
+  </si>
+  <si>
+    <t>com.qihoo.cloudisk.base.SplashActivity</t>
+  </si>
+  <si>
+    <t>360浏览器</t>
+  </si>
+  <si>
+    <t>qihu_browser</t>
+  </si>
+  <si>
+    <t>com.qihoo.browser</t>
+  </si>
+  <si>
+    <t>com.qihoo.browser.launcher.LauncherActivity</t>
+  </si>
+  <si>
+    <t>3个目标</t>
+  </si>
+  <si>
+    <t>eve_habit</t>
+  </si>
+  <si>
+    <t>com.eve.habit</t>
+  </si>
+  <si>
+    <t>com.eve.habit.acty.SplashActivity</t>
+  </si>
+  <si>
+    <t>Abi</t>
+  </si>
+  <si>
+    <t>abi</t>
+  </si>
+  <si>
+    <t>com.Lilith.Abi</t>
+  </si>
+  <si>
+    <t>Aegis</t>
+  </si>
+  <si>
+    <t>aegis</t>
+  </si>
+  <si>
+    <t>com.mokee.aegis</t>
+  </si>
+  <si>
+    <t>com.mokee.aegis.activities.ManagePermissionsActivity</t>
+  </si>
+  <si>
+    <t>Airtable</t>
+  </si>
+  <si>
+    <t>airtable</t>
+  </si>
+  <si>
+    <t>com.formagrid.airtable</t>
+  </si>
+  <si>
+    <t>com.formagrid.airtable.activity.HomescreenActivity</t>
+  </si>
+  <si>
+    <t>AI音乐学院</t>
+  </si>
+  <si>
+    <t>ai_musician</t>
+  </si>
+  <si>
+    <t>com.immusician.music</t>
+  </si>
+  <si>
+    <t>com.immusician.unity.UnityPlayerActivity</t>
+  </si>
+  <si>
+    <t>Amazfit手表</t>
+  </si>
+  <si>
+    <t>amazfit</t>
+  </si>
+  <si>
+    <t>com.huami.watch.hmwatchmanager</t>
+  </si>
+  <si>
+    <t>com.huami.watch.companion.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>APlayer</t>
+  </si>
+  <si>
+    <t>aplayer</t>
+  </si>
+  <si>
+    <t>remix.myplayer</t>
+  </si>
+  <si>
+    <t>remix.myplayer.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>atimelogger</t>
+  </si>
+  <si>
+    <t>com.aloggers.atimeloggerapp</t>
+  </si>
+  <si>
+    <t>com.aloggers.atimeloggerapp.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>avgo</t>
+  </si>
+  <si>
+    <t>com.videoapp.avgo</t>
+  </si>
+  <si>
+    <t>com.videoapp.avgo.MainActivity</t>
+  </si>
+  <si>
+    <t>AVnight</t>
+  </si>
+  <si>
+    <t>avnight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.avnight</t>
+  </si>
+  <si>
+    <t>com.avnight.LandingActivity</t>
+  </si>
+  <si>
+    <t>Backdrops</t>
+  </si>
+  <si>
+    <t>backdrops</t>
+  </si>
+  <si>
+    <t>com.backdrops.wallpapers</t>
+  </si>
+  <si>
+    <t>com.backdrops.wallpapers.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>biubiu加速器</t>
+  </si>
+  <si>
+    <t>biubiu</t>
+  </si>
+  <si>
+    <t>com.njh.biubiu</t>
+  </si>
+  <si>
+    <t>com.njh.ping.core.business.LauncherActivity</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>com.facebook.katana</t>
+  </si>
+  <si>
+    <t>com.facebook.katana.LoginActivity</t>
+  </si>
+  <si>
+    <t>AVbobo</t>
+  </si>
+  <si>
+    <t>avbobo</t>
+  </si>
+  <si>
+    <t>com.moviemmapp</t>
+  </si>
+  <si>
+    <t>com.moviemmapp.MainActivity</t>
+  </si>
+  <si>
+    <t>cmb.pb.mainframe.PBEntryActivity</t>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11489,10 +11761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E977"/>
+  <dimension ref="A1:E1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A950" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C982" sqref="C982"/>
+    <sheetView tabSelected="1" topLeftCell="B983" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F993" sqref="F993:G993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28113,6 +28385,499 @@
         <v>1850</v>
       </c>
     </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C978" t="s">
+        <v>325</v>
+      </c>
+      <c r="D978" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E978" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>483</v>
+      </c>
+      <c r="B979" t="s">
+        <v>484</v>
+      </c>
+      <c r="C979" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D979" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E979" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B980" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C980" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>226</v>
+      </c>
+      <c r="B981" t="s">
+        <v>473</v>
+      </c>
+      <c r="C981" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D981" t="s">
+        <v>3351</v>
+      </c>
+      <c r="E981" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>468</v>
+      </c>
+      <c r="B982" t="s">
+        <v>469</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D982" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E982" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>215</v>
+      </c>
+      <c r="B983" t="s">
+        <v>497</v>
+      </c>
+      <c r="C983" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D983" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E983" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>202</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C984" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D984" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E984" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B985" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C985" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D985" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E985" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B986" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C986" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D986" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E986" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>187</v>
+      </c>
+      <c r="B987" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C987" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D987" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E987" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B988" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C988" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D988" t="s">
+        <v>3366</v>
+      </c>
+      <c r="E988" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B989" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C989" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D989" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B990" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C990" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D990" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B991" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C991" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D991" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B992" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C992" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D992" t="s">
+        <v>3382</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B993" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C993" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D993" t="s">
+        <v>225</v>
+      </c>
+      <c r="E993" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B994" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C994" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D994" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B995" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C995" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D995" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E995" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B996" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C996" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D996" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B997" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C997" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D997" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E997" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B998" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C998" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D998" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B999" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C999" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D999" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1850</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E943" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB4E9B-DCA9-4286-B589-86A136F8185A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D35632-72EC-4C3D-98D2-56B4B18A6567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="3435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="3499">
   <si>
     <t>百度网盘</t>
   </si>
@@ -10814,6 +10814,205 @@
   </si>
   <si>
     <t>游戏</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss直聘</t>
+  </si>
+  <si>
+    <t>bosszhipin</t>
+  </si>
+  <si>
+    <t>com.hpbr.bosszhipin</t>
+  </si>
+  <si>
+    <t>com.hpbr.bosszhipin.module.launcher.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Cimoc</t>
+  </si>
+  <si>
+    <t>cimoc</t>
+  </si>
+  <si>
+    <t>com.hiroshi.cimoc</t>
+  </si>
+  <si>
+    <t>com.hiroshi.cimoc.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>CSDN</t>
+  </si>
+  <si>
+    <t>csdn</t>
+  </si>
+  <si>
+    <t>net.csdn.csdnplus</t>
+  </si>
+  <si>
+    <t>net.csdn.csdnplus.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>dropbox</t>
+  </si>
+  <si>
+    <t>com.dropbox.android</t>
+  </si>
+  <si>
+    <t>com.dropbox.android.activity.DropboxBrowser</t>
+  </si>
+  <si>
+    <t>microsoft_emmx</t>
+  </si>
+  <si>
+    <t>com.microsoft.emmx</t>
+  </si>
+  <si>
+    <t>com.microsoft.ruby.Main</t>
+  </si>
+  <si>
+    <t>Edge Action</t>
+  </si>
+  <si>
+    <t>edgeaction</t>
+  </si>
+  <si>
+    <t>com.edgescreen.edgeaction</t>
+  </si>
+  <si>
+    <t>com.edgescreen.edgeaction.ui.splash.SplashScene</t>
+  </si>
+  <si>
+    <t>EMUI主题编辑器</t>
+  </si>
+  <si>
+    <t>emui_themeeditor</t>
+  </si>
+  <si>
+    <t>com.mixapplications.themeeditor</t>
+  </si>
+  <si>
+    <t>com.mixapplications.themeeditor.MainActivity</t>
+  </si>
+  <si>
+    <t>FastHub</t>
+  </si>
+  <si>
+    <t>fasthub</t>
+  </si>
+  <si>
+    <t>com.fastaccess.github</t>
+  </si>
+  <si>
+    <t>com.fastaccess.ui.modules.main.MainActivity</t>
+  </si>
+  <si>
+    <t>Feedly</t>
+  </si>
+  <si>
+    <t>feendly</t>
+  </si>
+  <si>
+    <t>com.devhd.feedly</t>
+  </si>
+  <si>
+    <t>com.devhd.feedly.Main</t>
+  </si>
+  <si>
+    <t>Flamingo</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>com.samruston.twitter</t>
+  </si>
+  <si>
+    <t>com.samruston.twitter.Launcher1</t>
+  </si>
+  <si>
+    <t>floatify</t>
+  </si>
+  <si>
+    <t>com.jamworks.floatify</t>
+  </si>
+  <si>
+    <t>com.jamworks.floatify.SettingsHome</t>
+  </si>
+  <si>
+    <t>Fusion App</t>
+  </si>
+  <si>
+    <t>fusionapp</t>
+  </si>
+  <si>
+    <t>cn.coldsong.fusionapp</t>
+  </si>
+  <si>
+    <t>com.androlua.Welcome</t>
+  </si>
+  <si>
+    <t>FX文件管理器</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>nextapp.fx</t>
+  </si>
+  <si>
+    <t>nextapp.fx.ui.ExplorerActivity</t>
+  </si>
+  <si>
+    <t>Gemini Square 图标包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gemini_iconpack </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.clydeshenry.iconpack.gemini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.clydeshenry.iconpack.gemini.s.activities.SplashActivity</t>
+  </si>
+  <si>
+    <t>Gemini 图标包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.clydeshenry.iconpack.gemini.s</t>
+  </si>
+  <si>
+    <t>com.clydeshenry.iconpack.gemini.activities.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenShelf</t>
+  </si>
+  <si>
+    <t>gsv</t>
+  </si>
+  <si>
+    <t>cn.gen.gsv2</t>
+  </si>
+  <si>
+    <t>cn.gen.gsv2.SplashActivity</t>
+  </si>
+  <si>
+    <t>avbobo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.moviemmapp.SplashActivity</t>
+  </si>
+  <si>
+    <t>微软Edge</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -11761,10 +11960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1006"/>
+  <dimension ref="A1:E1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B983" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F993" sqref="F993:G993"/>
+    <sheetView tabSelected="1" topLeftCell="A1007" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1015" sqref="B1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28878,6 +29077,295 @@
         <v>1850</v>
       </c>
     </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1850</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E943" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D35632-72EC-4C3D-98D2-56B4B18A6567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06464FCE-2E5E-4EA2-AB5B-0D34565E7E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="icon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$A$1:$E$943</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">icon!$A$1:$E$1024</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="3499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5210" uniqueCount="3574">
   <si>
     <t>百度网盘</t>
   </si>
@@ -10430,12 +10430,6 @@
     <t>com.coloros.flowmarket.MainActivity</t>
   </si>
   <si>
-    <t>电话本</t>
-  </si>
-  <si>
-    <t>com.android.contacts.DialtactsActivityAlias</t>
-  </si>
-  <si>
     <t>com.kingsoft.email.activity.Welcome</t>
   </si>
   <si>
@@ -11014,6 +11008,273 @@
   <si>
     <t>微软Edge</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.contacts.PeopleActivityAlias</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.contacts</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.contacts.DialtactsActivityAlias</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gmail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_gm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.gm</t>
+  </si>
+  <si>
+    <t>com.google.android.gm.ConversationListActivityGmail</t>
+  </si>
+  <si>
+    <t>Go Host</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>go_hosts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lerist.go_hosts</t>
+  </si>
+  <si>
+    <t>com.lerist.gohosts.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>Gyroscope </t>
+  </si>
+  <si>
+    <t>gyroscope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gyroscope.gyroscope</t>
+  </si>
+  <si>
+    <t>com.gyroscope.gyroscope.MainActivity</t>
+  </si>
+  <si>
+    <t>iSmart</t>
+  </si>
+  <si>
+    <t>ismart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.up366.ismart</t>
+  </si>
+  <si>
+    <t>com.up366.mobile.SplashActivity</t>
+  </si>
+  <si>
+    <t>iTime</t>
+  </si>
+  <si>
+    <t>countdown</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.example.countdown</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wisdom.ticker.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>Kmplayer Pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmplayerpro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kmplayerpro</t>
+  </si>
+  <si>
+    <t>com.kmplayer.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>Kustom Widget</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kustom_widget</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.kustom.widget</t>
+  </si>
+  <si>
+    <t>org.kustom.widget.picker.WidgetPicker</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantern</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.getlantern.lantern</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.lantern.app.activity.Launcher</t>
+  </si>
+  <si>
+    <t>LOL掌游宝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzogame_lol</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.anzogame.lol</t>
+  </si>
+  <si>
+    <t>com.anzogame.lol.core.AppFlashActivity</t>
+  </si>
+  <si>
+    <t>Lutube</t>
+  </si>
+  <si>
+    <t>lulu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ilulutv.lulu</t>
+  </si>
+  <si>
+    <t>com.ilulutv.lulu.welcome.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Memory Cleaner</t>
+  </si>
+  <si>
+    <t>memory_cleaner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.drpe26.MemoryCleaner</t>
+  </si>
+  <si>
+    <t>com.n0n3m4.apkexport.ExportActivity</t>
+  </si>
+  <si>
+    <t>metro大都会</t>
+  </si>
+  <si>
+    <t>shanghai_metro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.app.shanghai.metro</t>
+  </si>
+  <si>
+    <t>MIIUI活动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miui_hd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hch.miuihd</t>
+  </si>
+  <si>
+    <t>io.dcloud.PandoraEntry</t>
+  </si>
+  <si>
+    <t>MiPush框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mipush</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top.trumeet.mipush</t>
+  </si>
+  <si>
+    <t>top.trumeet.mipushframework.wizard.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>MiXplorer</t>
+  </si>
+  <si>
+    <t>mixplorer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mixplorer</t>
+  </si>
+  <si>
+    <t>com.mixplorer.activities.BrowseActivity</t>
+  </si>
+  <si>
+    <t>MM131</t>
+  </si>
+  <si>
+    <t>mmpic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yr.mmpic</t>
+  </si>
+  <si>
+    <t>com.yr.mmpic.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>MyAndroidTools Pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>myandroidtoolspro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.wq.myandroidtoolspro</t>
+  </si>
+  <si>
+    <t>mygesture</t>
+  </si>
+  <si>
+    <t>mygesture</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.hisn.mygesture</t>
+  </si>
+  <si>
+    <t>me.hisn.mygesture.EA</t>
   </si>
 </sst>
 </file>
@@ -11960,10 +12221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1023"/>
+  <dimension ref="A1:E1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1007" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1015" sqref="B1015"/>
+    <sheetView tabSelected="1" topLeftCell="A1024" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1044" sqref="C1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28297,16 +28558,16 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>3307</v>
+        <v>3500</v>
       </c>
       <c r="B961" t="s">
-        <v>575</v>
+        <v>3501</v>
       </c>
       <c r="C961" t="s">
-        <v>576</v>
+        <v>3502</v>
       </c>
       <c r="D961" t="s">
-        <v>3308</v>
+        <v>3503</v>
       </c>
       <c r="E961" t="s">
         <v>2433</v>
@@ -28323,7 +28584,7 @@
         <v>375</v>
       </c>
       <c r="D962" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="E962" t="s">
         <v>2433</v>
@@ -28337,10 +28598,10 @@
         <v>480</v>
       </c>
       <c r="C963" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="D963" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="E963" t="s">
         <v>2433</v>
@@ -28357,7 +28618,7 @@
         <v>2596</v>
       </c>
       <c r="D964" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="E964" t="s">
         <v>2433</v>
@@ -28374,7 +28635,7 @@
         <v>2587</v>
       </c>
       <c r="D965" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="E965" t="s">
         <v>2433</v>
@@ -28382,16 +28643,16 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B966" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C966" t="s">
         <v>3314</v>
       </c>
-      <c r="B966" t="s">
+      <c r="D966" t="s">
         <v>3315</v>
-      </c>
-      <c r="C966" t="s">
-        <v>3316</v>
-      </c>
-      <c r="D966" t="s">
-        <v>3317</v>
       </c>
       <c r="E966" t="s">
         <v>2433</v>
@@ -28408,7 +28669,7 @@
         <v>2448</v>
       </c>
       <c r="D967" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="E967" t="s">
         <v>2433</v>
@@ -28416,16 +28677,16 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="B968" t="s">
         <v>1961</v>
       </c>
       <c r="C968" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="D968" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="E968" t="s">
         <v>2433</v>
@@ -28433,16 +28694,16 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B969" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C969" t="s">
         <v>3322</v>
       </c>
-      <c r="B969" t="s">
+      <c r="D969" t="s">
         <v>3323</v>
-      </c>
-      <c r="C969" t="s">
-        <v>3324</v>
-      </c>
-      <c r="D969" t="s">
-        <v>3325</v>
       </c>
       <c r="E969" t="s">
         <v>2433</v>
@@ -28459,7 +28720,7 @@
         <v>2590</v>
       </c>
       <c r="D970" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="E970" t="s">
         <v>2433</v>
@@ -28467,16 +28728,16 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B971" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C971" t="s">
         <v>3327</v>
       </c>
-      <c r="B971" t="s">
+      <c r="D971" t="s">
         <v>3328</v>
-      </c>
-      <c r="C971" t="s">
-        <v>3329</v>
-      </c>
-      <c r="D971" t="s">
-        <v>3330</v>
       </c>
       <c r="E971" t="s">
         <v>2433</v>
@@ -28484,16 +28745,16 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="B972" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="C972" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="D972" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="E972" t="s">
         <v>1981</v>
@@ -28501,16 +28762,16 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="B973" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C973" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D973" t="s">
         <v>3328</v>
-      </c>
-      <c r="C973" t="s">
-        <v>3333</v>
-      </c>
-      <c r="D973" t="s">
-        <v>3330</v>
       </c>
       <c r="E973" t="s">
         <v>1850</v>
@@ -28518,13 +28779,13 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B974" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C974" t="s">
         <v>3334</v>
-      </c>
-      <c r="B974" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C974" t="s">
-        <v>3336</v>
       </c>
       <c r="D974" t="s">
         <v>1185</v>
@@ -28541,10 +28802,10 @@
         <v>1950</v>
       </c>
       <c r="C975" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="D975" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="E975" t="s">
         <v>2433</v>
@@ -28555,10 +28816,10 @@
         <v>2375</v>
       </c>
       <c r="B976" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="C976" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="D976" t="s">
         <v>888</v>
@@ -28569,16 +28830,16 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B977" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C977" t="s">
         <v>3341</v>
       </c>
-      <c r="B977" t="s">
+      <c r="D977" t="s">
         <v>3342</v>
-      </c>
-      <c r="C977" t="s">
-        <v>3343</v>
-      </c>
-      <c r="D977" t="s">
-        <v>3344</v>
       </c>
       <c r="E977" t="s">
         <v>1850</v>
@@ -28595,10 +28856,10 @@
         <v>325</v>
       </c>
       <c r="D978" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="E978" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
@@ -28609,13 +28870,13 @@
         <v>484</v>
       </c>
       <c r="C979" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="D979" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="E979" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
@@ -28626,7 +28887,7 @@
         <v>2317</v>
       </c>
       <c r="C980" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="D980" t="s">
         <v>1022</v>
@@ -28643,13 +28904,13 @@
         <v>473</v>
       </c>
       <c r="C981" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="D981" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="E981" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
@@ -28663,10 +28924,10 @@
         <v>1827</v>
       </c>
       <c r="D982" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="E982" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
@@ -28677,13 +28938,13 @@
         <v>497</v>
       </c>
       <c r="C983" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="D983" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="E983" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
@@ -28694,13 +28955,13 @@
         <v>2362</v>
       </c>
       <c r="C984" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="D984" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="E984" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
@@ -28711,30 +28972,30 @@
         <v>2368</v>
       </c>
       <c r="C985" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="D985" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="E985" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="B986" t="s">
         <v>2455</v>
       </c>
       <c r="C986" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="D986" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="E986" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.2">
@@ -28745,44 +29006,44 @@
         <v>2337</v>
       </c>
       <c r="C987" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="D987" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="E987" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="B988" t="s">
         <v>2039</v>
       </c>
       <c r="C988" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="D988" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="E988" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B989" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C989" t="s">
         <v>3367</v>
       </c>
-      <c r="B989" t="s">
+      <c r="D989" t="s">
         <v>3368</v>
-      </c>
-      <c r="C989" t="s">
-        <v>3369</v>
-      </c>
-      <c r="D989" t="s">
-        <v>3370</v>
       </c>
       <c r="E989" t="s">
         <v>1850</v>
@@ -28790,16 +29051,16 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B990" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C990" t="s">
         <v>3371</v>
       </c>
-      <c r="B990" t="s">
+      <c r="D990" t="s">
         <v>3372</v>
-      </c>
-      <c r="C990" t="s">
-        <v>3373</v>
-      </c>
-      <c r="D990" t="s">
-        <v>3374</v>
       </c>
       <c r="E990" t="s">
         <v>1850</v>
@@ -28807,16 +29068,16 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B991" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C991" t="s">
         <v>3375</v>
       </c>
-      <c r="B991" t="s">
+      <c r="D991" t="s">
         <v>3376</v>
-      </c>
-      <c r="C991" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D991" t="s">
-        <v>3378</v>
       </c>
       <c r="E991" t="s">
         <v>1850</v>
@@ -28824,16 +29085,16 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B992" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C992" t="s">
         <v>3379</v>
       </c>
-      <c r="B992" t="s">
+      <c r="D992" t="s">
         <v>3380</v>
-      </c>
-      <c r="C992" t="s">
-        <v>3381</v>
-      </c>
-      <c r="D992" t="s">
-        <v>3382</v>
       </c>
       <c r="E992" t="s">
         <v>1850</v>
@@ -28841,33 +29102,33 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B993" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C993" t="s">
         <v>3383</v>
-      </c>
-      <c r="B993" t="s">
-        <v>3384</v>
-      </c>
-      <c r="C993" t="s">
-        <v>3385</v>
       </c>
       <c r="D993" t="s">
         <v>225</v>
       </c>
       <c r="E993" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B994" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C994" t="s">
         <v>3386</v>
       </c>
-      <c r="B994" t="s">
+      <c r="D994" t="s">
         <v>3387</v>
-      </c>
-      <c r="C994" t="s">
-        <v>3388</v>
-      </c>
-      <c r="D994" t="s">
-        <v>3389</v>
       </c>
       <c r="E994" t="s">
         <v>1850</v>
@@ -28875,16 +29136,16 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B995" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C995" t="s">
         <v>3390</v>
       </c>
-      <c r="B995" t="s">
+      <c r="D995" t="s">
         <v>3391</v>
-      </c>
-      <c r="C995" t="s">
-        <v>3392</v>
-      </c>
-      <c r="D995" t="s">
-        <v>3393</v>
       </c>
       <c r="E995" t="s">
         <v>1850</v>
@@ -28892,16 +29153,16 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B996" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C996" t="s">
         <v>3394</v>
       </c>
-      <c r="B996" t="s">
+      <c r="D996" t="s">
         <v>3395</v>
-      </c>
-      <c r="C996" t="s">
-        <v>3396</v>
-      </c>
-      <c r="D996" t="s">
-        <v>3397</v>
       </c>
       <c r="E996" t="s">
         <v>1850</v>
@@ -28909,16 +29170,16 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B997" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C997" t="s">
         <v>3398</v>
       </c>
-      <c r="B997" t="s">
+      <c r="D997" t="s">
         <v>3399</v>
-      </c>
-      <c r="C997" t="s">
-        <v>3400</v>
-      </c>
-      <c r="D997" t="s">
-        <v>3401</v>
       </c>
       <c r="E997" t="s">
         <v>1850</v>
@@ -28926,16 +29187,16 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B998" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C998" t="s">
         <v>3402</v>
       </c>
-      <c r="B998" t="s">
+      <c r="D998" t="s">
         <v>3403</v>
-      </c>
-      <c r="C998" t="s">
-        <v>3404</v>
-      </c>
-      <c r="D998" t="s">
-        <v>3405</v>
       </c>
       <c r="E998" t="s">
         <v>1850</v>
@@ -28943,16 +29204,16 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B999" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C999" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D999" t="s">
         <v>3406</v>
-      </c>
-      <c r="B999" t="s">
-        <v>3406</v>
-      </c>
-      <c r="C999" t="s">
-        <v>3407</v>
-      </c>
-      <c r="D999" t="s">
-        <v>3408</v>
       </c>
       <c r="E999" t="s">
         <v>1850</v>
@@ -28960,16 +29221,16 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C1000" t="s">
         <v>3409</v>
       </c>
-      <c r="B1000" t="s">
+      <c r="D1000" t="s">
         <v>3410</v>
-      </c>
-      <c r="C1000" t="s">
-        <v>3411</v>
-      </c>
-      <c r="D1000" t="s">
-        <v>3412</v>
       </c>
       <c r="E1000" t="s">
         <v>1850</v>
@@ -28977,16 +29238,16 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C1001" t="s">
         <v>3413</v>
       </c>
-      <c r="B1001" t="s">
+      <c r="D1001" t="s">
         <v>3414</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>3415</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>3416</v>
       </c>
       <c r="E1001" t="s">
         <v>1850</v>
@@ -28994,16 +29255,16 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1002" t="s">
         <v>3417</v>
       </c>
-      <c r="B1002" t="s">
+      <c r="D1002" t="s">
         <v>3418</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>3419</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>3420</v>
       </c>
       <c r="E1002" t="s">
         <v>1850</v>
@@ -29011,16 +29272,16 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C1003" t="s">
         <v>3421</v>
       </c>
-      <c r="B1003" t="s">
+      <c r="D1003" t="s">
         <v>3422</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>3423</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>3424</v>
       </c>
       <c r="E1003" t="s">
         <v>1850</v>
@@ -29028,16 +29289,16 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C1004" t="s">
         <v>3425</v>
       </c>
-      <c r="B1004" t="s">
+      <c r="D1004" t="s">
         <v>3426</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>3427</v>
-      </c>
-      <c r="D1004" t="s">
-        <v>3428</v>
       </c>
       <c r="E1004" t="s">
         <v>1850</v>
@@ -29045,16 +29306,16 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C1005" t="s">
         <v>3429</v>
       </c>
-      <c r="B1005" t="s">
+      <c r="D1005" t="s">
         <v>3430</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>3431</v>
-      </c>
-      <c r="D1005" t="s">
-        <v>3432</v>
       </c>
       <c r="E1005" t="s">
         <v>1850</v>
@@ -29071,7 +29332,7 @@
         <v>1614</v>
       </c>
       <c r="D1006" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="E1006" t="s">
         <v>1850</v>
@@ -29079,16 +29340,16 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C1007" t="s">
         <v>3435</v>
       </c>
-      <c r="B1007" t="s">
+      <c r="D1007" t="s">
         <v>3436</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>3437</v>
-      </c>
-      <c r="D1007" t="s">
-        <v>3438</v>
       </c>
       <c r="E1007" t="s">
         <v>1850</v>
@@ -29096,16 +29357,16 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C1008" t="s">
         <v>3439</v>
       </c>
-      <c r="B1008" t="s">
+      <c r="D1008" t="s">
         <v>3440</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>3441</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>3442</v>
       </c>
       <c r="E1008" t="s">
         <v>1850</v>
@@ -29113,16 +29374,16 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C1009" t="s">
         <v>3443</v>
       </c>
-      <c r="B1009" t="s">
+      <c r="D1009" t="s">
         <v>3444</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>3446</v>
       </c>
       <c r="E1009" t="s">
         <v>1850</v>
@@ -29130,16 +29391,16 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C1010" t="s">
         <v>3447</v>
       </c>
-      <c r="B1010" t="s">
+      <c r="D1010" t="s">
         <v>3448</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>3449</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>3450</v>
       </c>
       <c r="E1010" t="s">
         <v>1850</v>
@@ -29147,16 +29408,16 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="B1011" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1011" t="s">
         <v>3451</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>3452</v>
-      </c>
-      <c r="D1011" t="s">
-        <v>3453</v>
       </c>
       <c r="E1011" t="s">
         <v>1850</v>
@@ -29164,16 +29425,16 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C1012" t="s">
         <v>3454</v>
       </c>
-      <c r="B1012" t="s">
+      <c r="D1012" t="s">
         <v>3455</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>3456</v>
-      </c>
-      <c r="D1012" t="s">
-        <v>3457</v>
       </c>
       <c r="E1012" t="s">
         <v>1850</v>
@@ -29181,16 +29442,16 @@
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C1013" t="s">
         <v>3458</v>
       </c>
-      <c r="B1013" t="s">
+      <c r="D1013" t="s">
         <v>3459</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>3460</v>
-      </c>
-      <c r="D1013" t="s">
-        <v>3461</v>
       </c>
       <c r="E1013" t="s">
         <v>1850</v>
@@ -29198,16 +29459,16 @@
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C1014" t="s">
         <v>3462</v>
       </c>
-      <c r="B1014" t="s">
+      <c r="D1014" t="s">
         <v>3463</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>3464</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>3465</v>
       </c>
       <c r="E1014" t="s">
         <v>1850</v>
@@ -29215,16 +29476,16 @@
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C1015" t="s">
         <v>3466</v>
       </c>
-      <c r="B1015" t="s">
+      <c r="D1015" t="s">
         <v>3467</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>3468</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>3469</v>
       </c>
       <c r="E1015" t="s">
         <v>1850</v>
@@ -29232,16 +29493,16 @@
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C1016" t="s">
         <v>3470</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="D1016" t="s">
         <v>3471</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>3473</v>
       </c>
       <c r="E1016" t="s">
         <v>1850</v>
@@ -29249,16 +29510,16 @@
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D1017" t="s">
         <v>3474</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>3474</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>3475</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>3476</v>
       </c>
       <c r="E1017" t="s">
         <v>1850</v>
@@ -29266,16 +29527,16 @@
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C1018" t="s">
         <v>3477</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="D1018" t="s">
         <v>3478</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>3479</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>3480</v>
       </c>
       <c r="E1018" t="s">
         <v>1850</v>
@@ -29283,16 +29544,16 @@
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C1019" t="s">
         <v>3481</v>
       </c>
-      <c r="B1019" t="s">
+      <c r="D1019" t="s">
         <v>3482</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>3483</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>3484</v>
       </c>
       <c r="E1019" t="s">
         <v>1850</v>
@@ -29300,16 +29561,16 @@
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C1020" t="s">
         <v>3485</v>
       </c>
-      <c r="B1020" t="s">
+      <c r="D1020" t="s">
         <v>3486</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>3487</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>3488</v>
       </c>
       <c r="E1020" t="s">
         <v>1850</v>
@@ -29317,16 +29578,16 @@
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D1021" t="s">
         <v>3489</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>3486</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>3490</v>
-      </c>
-      <c r="D1021" t="s">
-        <v>3491</v>
       </c>
       <c r="E1021" t="s">
         <v>1850</v>
@@ -29334,16 +29595,16 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C1022" t="s">
         <v>3492</v>
       </c>
-      <c r="B1022" t="s">
+      <c r="D1022" t="s">
         <v>3493</v>
-      </c>
-      <c r="C1022" t="s">
-        <v>3494</v>
-      </c>
-      <c r="D1022" t="s">
-        <v>3495</v>
       </c>
       <c r="E1022" t="s">
         <v>1850</v>
@@ -29351,23 +29612,346 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1023" t="s">
         <v>3429</v>
       </c>
-      <c r="B1023" t="s">
-        <v>3496</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>3431</v>
-      </c>
       <c r="D1023" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="E1023" t="s">
         <v>1850</v>
       </c>
     </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>3510</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>3514</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>3530</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>3543</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>3573</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1788</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E943" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
+  <autoFilter ref="A1:E1024" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">
     <sortCondition ref="B2:B78"/>
   </sortState>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D06DC-5BCE-4923-9901-CF622F6F6761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDF9B0-4D5C-4E59-B4A4-34F381ABF967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="3634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="3696">
   <si>
     <t>百度网盘</t>
   </si>
@@ -11481,6 +11481,218 @@
   </si>
   <si>
     <t>com.app.pornhub.alias.normal</t>
+  </si>
+  <si>
+    <t>Power Shade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_shade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.treydev.pns</t>
+  </si>
+  <si>
+    <t>com.treydev.pns.activities.MainActivity</t>
+  </si>
+  <si>
+    <t>PUBG Mobile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_ig</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.ig</t>
+  </si>
+  <si>
+    <t>puretie贴吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>puretie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xesygao.puretie</t>
+  </si>
+  <si>
+    <t>com.xesygao.puretie.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>QQ输入法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_qqpinyin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.qqpinyin</t>
+  </si>
+  <si>
+    <t>com.tencent.qqpinyin.activity.guide.SplashActivity</t>
+  </si>
+  <si>
+    <t>RAM Cleanup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy_memory_cleaner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kosajun.easymemorycleaner</t>
+  </si>
+  <si>
+    <t>com.kosajun.easymemorycleaner.MainActivity</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>reddit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.reddit.frontpage</t>
+  </si>
+  <si>
+    <t>com.reddit.frontpage.StartActivity</t>
+  </si>
+  <si>
+    <t>Retouch</t>
+  </si>
+  <si>
+    <t>retouch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.advasoft.touchretouch</t>
+  </si>
+  <si>
+    <t>com.advasoft.touchretouch4.MainActivity</t>
+  </si>
+  <si>
+    <t>Shizuku Manager</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shizuku</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moe.shizuku.privileged.api</t>
+  </si>
+  <si>
+    <t>moe.shizuku.manager.MainActivity</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>skype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.skype.raider</t>
+  </si>
+  <si>
+    <t>com.skype.raider.Main</t>
+  </si>
+  <si>
+    <t>Snapmod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapmod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.gavinliu.snapmod</t>
+  </si>
+  <si>
+    <t>cn.gavinliu.snapmod.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>Synology Chat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>synology_chat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synology.dschat</t>
+  </si>
+  <si>
+    <t>com.synology.dschat.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>Synology Moments</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>synology_moments</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.synology.moments</t>
+  </si>
+  <si>
+    <t>com.synology.moments.view.SplashActivity</t>
+  </si>
+  <si>
+    <t>Tieba Lite</t>
+  </si>
+  <si>
+    <t>tieba_lite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huanchengfly.tieba.post</t>
+  </si>
+  <si>
+    <t>com.huanchengfly.tieba.post.MainActivity</t>
+  </si>
+  <si>
+    <t>TimeTree</t>
+  </si>
+  <si>
+    <t>timetree</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>works.jubilee.timetree</t>
+  </si>
+  <si>
+    <t>works.jubilee.timetree.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>TOMVPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomvpn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.xhss.tomvpn</t>
+  </si>
+  <si>
+    <t>me.xhss.tomvpn.MainActivity</t>
+  </si>
+  <si>
+    <t>com.nbcmusic</t>
+  </si>
+  <si>
+    <t>com.nbc.music.MusicBrowserActivity</t>
+  </si>
+  <si>
+    <t>诺基亚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12436,10 +12648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1057"/>
+  <dimension ref="A1:E1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1039" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1062" sqref="C1062"/>
+    <sheetView tabSelected="1" topLeftCell="A1057" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1076" sqref="C1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30420,6 +30632,278 @@
         <v>1788</v>
       </c>
     </row>
+    <row r="1058" spans="1:5">
+      <c r="A1058" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>3656</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>3660</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>3670</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>3672</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3674</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>3680</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5">
+      <c r="A1070" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5">
+      <c r="A1071" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5">
+      <c r="A1072" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>3692</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5">
+      <c r="A1073" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>3695</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1024" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDF9B0-4D5C-4E59-B4A4-34F381ABF967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56204795-E2CA-4242-A33F-94B632D9331D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="3696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3757">
   <si>
     <t>百度网盘</t>
   </si>
@@ -11693,6 +11693,231 @@
   <si>
     <t>诺基亚</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP LINK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tplink</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tplink.cloudrouter</t>
+  </si>
+  <si>
+    <t>com.tplink.cloudrouter.activity.basesection.InitAppActivity</t>
+  </si>
+  <si>
+    <t>Turbo VPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>turbovpn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>free.vpn.unblock.proxy.turbovpn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>free.vpn.unblock.proxy.turbovpn.activity.VpnMainActivity</t>
+  </si>
+  <si>
+    <t>UU加速器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>netease_uu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.uu</t>
+  </si>
+  <si>
+    <t>com.netease.uu.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>UU主机加速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>netease_uurouter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.uurouter</t>
+  </si>
+  <si>
+    <t>com.netease.uurouter.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>V2RayNG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2ray_ang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.v2ray.ang</t>
+  </si>
+  <si>
+    <t>com.v2ray.ang.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>VAExposed</t>
+  </si>
+  <si>
+    <t>va_exposed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.va.exposed</t>
+  </si>
+  <si>
+    <t>io.virtualapp.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>Videoder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.rahul.videoderbeta</t>
+  </si>
+  <si>
+    <t>com.rahul.videoderbeta.appinit.ActivityInitLoader</t>
+  </si>
+  <si>
+    <t>VIVO互传</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_easyshare</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.vivo.easyshare</t>
+  </si>
+  <si>
+    <t>com.vivo.easyshare.activity.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN Monster</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpnmonster</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>free.vpn.unblock.proxy.vpnmonster</t>
+  </si>
+  <si>
+    <t>free.vpn.unblock.proxy.vpnmonster.activity.GodActivity</t>
+  </si>
+  <si>
+    <t>VSCO</t>
+  </si>
+  <si>
+    <t>vsco</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.vsco.cam</t>
+  </si>
+  <si>
+    <t>com.vsco.cam.navigation.LithiumActivity</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>whatsapp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.whatsapp</t>
+  </si>
+  <si>
+    <t>com.whatsapp.Main</t>
+  </si>
+  <si>
+    <t>wifikey</t>
+  </si>
+  <si>
+    <t>wifikey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qy.wifi</t>
+  </si>
+  <si>
+    <r>
+      <t>l.　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t>ۖۘۧۦ</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi魔盒</t>
+  </si>
+  <si>
+    <t>wifibox</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ruijie.wifim</t>
+  </si>
+  <si>
+    <t>cn.com.ruijie.wifibox.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>Xbox</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsoft_xbox</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.microsoft.xboxone.smartglass</t>
+  </si>
+  <si>
+    <t>com.microsoft.xbox.xle.app.MainActivity</t>
+  </si>
+  <si>
+    <t>XDA Labs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xda_labs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xda.labs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xda.labs.LabsLauncher</t>
   </si>
 </sst>
 </file>
@@ -12648,10 +12873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1073"/>
+  <dimension ref="A1:E1088"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1057" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1076" sqref="C1076"/>
+    <sheetView tabSelected="1" topLeftCell="B1055" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1072" sqref="F1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30904,6 +31129,261 @@
         <v>3695</v>
       </c>
     </row>
+    <row r="1074" spans="1:5">
+      <c r="A1074" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>3699</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5">
+      <c r="A1075" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5">
+      <c r="A1076" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>3707</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5">
+      <c r="A1077" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5">
+      <c r="A1078" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5">
+      <c r="A1079" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>3719</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5">
+      <c r="A1080" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5">
+      <c r="A1081" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>3727</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5">
+      <c r="A1082" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>3731</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>3732</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5">
+      <c r="A1083" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5">
+      <c r="A1084" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5">
+      <c r="A1085" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>3744</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5">
+      <c r="A1086" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5">
+      <c r="A1087" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>3752</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5">
+      <c r="A1088" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1788</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1024" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598F3A4-5459-464F-B2E2-5DAB91A7CB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B9893D-0448-46D3-B634-8B2DE417C7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="3816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5585" uniqueCount="3874">
   <si>
     <t>百度网盘</t>
   </si>
@@ -12118,12 +12118,211 @@
     <t>com.android.calendar.AllInOneActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>不背单词</t>
+  </si>
+  <si>
+    <t>lang_easy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.langeasy.LangEasyLexis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.langeasy.LangEasyLexis.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>厨房故事</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen_stories</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ajnsnewmedia.kitchenstories</t>
+  </si>
+  <si>
+    <t>com.ajnsnewmedia.kitchenstories.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>带壳截图Pro</t>
+  </si>
+  <si>
+    <t>shelled_pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulisong.ShelledPro.Screenshots</t>
+  </si>
+  <si>
+    <t>倒带</t>
+  </si>
+  <si>
+    <t>rewind</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuss.rewind</t>
+  </si>
+  <si>
+    <t>com.kuss.rewind.MainActivity</t>
+  </si>
+  <si>
+    <t>倒数日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>days_matter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.clover.daysmatter</t>
+  </si>
+  <si>
+    <t>com.clover.daysmatter.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>得到</t>
+  </si>
+  <si>
+    <t>dedao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.luojilab.player</t>
+  </si>
+  <si>
+    <t>com.luojilab.business.welcome.SplashActivity</t>
+  </si>
+  <si>
+    <t>第一弹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>diyidan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.diyidan</t>
+  </si>
+  <si>
+    <t>com.diyidan.ui.launcher.LauncherActivity</t>
+  </si>
+  <si>
+    <t>电量浮动表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_meter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp.gr.java_conf.soboku.batterymeter</t>
+  </si>
+  <si>
+    <t>jp.gr.java_conf.soboku.batterymeter.ui.SettingsActivity</t>
+  </si>
+  <si>
+    <t>电视果</t>
+  </si>
+  <si>
+    <t>tvguo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv.tvguo.androidphone</t>
+  </si>
+  <si>
+    <t>module.home.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>杜比音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dolby</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dolby</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dolby.ds1appUI.MainActivity</t>
+  </si>
+  <si>
+    <t>堆糖</t>
+  </si>
+  <si>
+    <t>duitang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.duitang.main</t>
+  </si>
+  <si>
+    <t>com.duitang.main.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多闪</t>
+  </si>
+  <si>
+    <t>duoshan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my.maya.android</t>
+  </si>
+  <si>
+    <t>com.android.maya.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>分期乐</t>
+  </si>
+  <si>
+    <t>fenqile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.fenqile.fenqile</t>
+  </si>
+  <si>
+    <t>com.fenqile.ui.home.HomeActivity</t>
+  </si>
+  <si>
+    <t>杠精图标包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itf_iconpack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.flijo_sftmi.itf.iconpack</t>
+  </si>
+  <si>
+    <t>个人所得税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_its</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.gov.tax.its</t>
+  </si>
+  <si>
+    <t>cn.gov.tax.its.MainActivity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12310,6 +12509,14 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -12737,7 +12944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12749,6 +12956,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13072,10 +13282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1102"/>
+  <dimension ref="A1:F1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1083" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1107" sqref="C1107"/>
+    <sheetView tabSelected="1" topLeftCell="C1095" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1103" sqref="F1103:F1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31583,7 +31793,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1089" spans="1:5">
+    <row r="1089" spans="1:6">
       <c r="A1089" t="s">
         <v>3760</v>
       </c>
@@ -31600,7 +31810,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1090" spans="1:5">
+    <row r="1090" spans="1:6">
       <c r="A1090" t="s">
         <v>3764</v>
       </c>
@@ -31617,7 +31827,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1091" spans="1:5">
+    <row r="1091" spans="1:6">
       <c r="A1091" t="s">
         <v>3768</v>
       </c>
@@ -31634,7 +31844,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1092" spans="1:5">
+    <row r="1092" spans="1:6">
       <c r="A1092" t="s">
         <v>3772</v>
       </c>
@@ -31651,7 +31861,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1093" spans="1:5">
+    <row r="1093" spans="1:6">
       <c r="A1093" t="s">
         <v>3776</v>
       </c>
@@ -31668,7 +31878,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1094" spans="1:5">
+    <row r="1094" spans="1:6">
       <c r="A1094" t="s">
         <v>3780</v>
       </c>
@@ -31685,7 +31895,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1095" spans="1:5">
+    <row r="1095" spans="1:6">
       <c r="A1095" t="s">
         <v>3784</v>
       </c>
@@ -31702,7 +31912,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1096" spans="1:5">
+    <row r="1096" spans="1:6">
       <c r="A1096" t="s">
         <v>3788</v>
       </c>
@@ -31719,7 +31929,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1097" spans="1:5">
+    <row r="1097" spans="1:6">
       <c r="A1097" t="s">
         <v>3792</v>
       </c>
@@ -31736,7 +31946,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1098" spans="1:5">
+    <row r="1098" spans="1:6">
       <c r="A1098" t="s">
         <v>3796</v>
       </c>
@@ -31753,7 +31963,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1099" spans="1:5">
+    <row r="1099" spans="1:6">
       <c r="A1099" t="s">
         <v>3800</v>
       </c>
@@ -31770,7 +31980,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="1100" spans="1:5">
+    <row r="1100" spans="1:6">
       <c r="A1100" t="s">
         <v>3804</v>
       </c>
@@ -31787,7 +31997,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="1101" spans="1:5">
+    <row r="1101" spans="1:6">
       <c r="A1101" t="s">
         <v>3808</v>
       </c>
@@ -31804,7 +32014,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="1102" spans="1:5">
+    <row r="1102" spans="1:6">
       <c r="A1102" t="s">
         <v>3812</v>
       </c>
@@ -31820,6 +32030,276 @@
       <c r="E1102" t="s">
         <v>1788</v>
       </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1103" s="5"/>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1104" s="5"/>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1105" s="5"/>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1106" s="5"/>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1107" s="5"/>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1108" s="5"/>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1109" s="5"/>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3845</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>3846</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1110" s="5"/>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1111" s="5"/>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>3854</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1112" s="5"/>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1113" s="5"/>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1114" s="5"/>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1115" s="5"/>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1116" s="5"/>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>3873</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1117" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1023" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B9893D-0448-46D3-B634-8B2DE417C7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C774FC1-62A7-4B45-95FD-6A83F92A745E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5585" uniqueCount="3874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5660" uniqueCount="3934">
   <si>
     <t>百度网盘</t>
   </si>
@@ -12317,12 +12317,215 @@
   <si>
     <t>cn.gov.tax.its.MainActivity</t>
   </si>
+  <si>
+    <t>工银融e联</t>
+  </si>
+  <si>
+    <t>icbc_im</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.icbc.im</t>
+  </si>
+  <si>
+    <t>com.icbc.im.SplashActivity</t>
+  </si>
+  <si>
+    <t>谷歌服务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_gms</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.gms</t>
+  </si>
+  <si>
+    <t>com.google.android.gms.app.settings.GoogleSettingsActivity</t>
+  </si>
+  <si>
+    <t>谷歌数字化健康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_wellbeing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.wellbeing</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.wellbeing.settings.LauncherActivity</t>
+  </si>
+  <si>
+    <t>谷歌游戏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_games</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.play.games</t>
+  </si>
+  <si>
+    <t>com.google.android.gms.games.ui.destination.main.MainActivity</t>
+  </si>
+  <si>
+    <t>谷歌云盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_docs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.docs</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.docs.app.NewMainProxyActivity</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>cebbank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cebbank.mobile.cemb</t>
+  </si>
+  <si>
+    <t>com.cebbank.mobile.cemb.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>光大银行阳光惠生活</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cebbank_creditcard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ebank.creditcard</t>
+  </si>
+  <si>
+    <t>com.ebank.creditcard.loadingpage.activity.NewLoadingActivity</t>
+  </si>
+  <si>
+    <t>哈弗智家</t>
+  </si>
+  <si>
+    <t>haval</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.navinfo.gw</t>
+  </si>
+  <si>
+    <t>com.navinfo.gw.view.main.HomeActivity</t>
+  </si>
+  <si>
+    <t>海豚手游加速器</t>
+  </si>
+  <si>
+    <t>htjsq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi.htjsq.accelerator</t>
+  </si>
+  <si>
+    <t>mobi.htjsq.accelerator.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>韩剧TV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanju</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.babycloud.hanju</t>
+  </si>
+  <si>
+    <t>com.babycloud.hanju.ui.activity.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>好轻</t>
+  </si>
+  <si>
+    <t>yunmai_scale</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yunmai.scale</t>
+  </si>
+  <si>
+    <t>com.yunmai.scale.ui.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>葫芦侠</t>
+  </si>
+  <si>
+    <t>huluxia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huluxia.gametools</t>
+  </si>
+  <si>
+    <t>com.huluxia.gametools.ui.MainActivity.AppStart</t>
+  </si>
+  <si>
+    <t>护眼宝</t>
+  </si>
+  <si>
+    <t>protect_eye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect.eye</t>
+  </si>
+  <si>
+    <t>protect.eye.TabMainActivity</t>
+  </si>
+  <si>
+    <t>花粉俱乐部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_fans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huawei.fans</t>
+  </si>
+  <si>
+    <t>com.huawei.fans.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生地铁</t>
+  </si>
+  <si>
+    <t>hsbb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.nfyg.hsbb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12517,6 +12720,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -12944,7 +13153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12959,6 +13168,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13282,10 +13494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1117"/>
+  <dimension ref="A1:F1132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1095" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1103" sqref="F1103:F1117"/>
+    <sheetView tabSelected="1" topLeftCell="A1116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1137" sqref="B1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -32301,6 +32513,261 @@
       </c>
       <c r="F1117" s="5"/>
     </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>3880</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>3885</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5">
+      <c r="A1121" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5">
+      <c r="A1122" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>3893</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5">
+      <c r="A1123" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>3897</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5">
+      <c r="A1124" s="6" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5">
+      <c r="A1125" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>3905</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5">
+      <c r="A1126" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>3909</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5">
+      <c r="A1127" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>3912</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5">
+      <c r="A1128" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>3917</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5">
+      <c r="A1129" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3919</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>3920</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>3921</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5">
+      <c r="A1130" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5">
+      <c r="A1131" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>3929</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5">
+      <c r="A1132" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>1788</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1023" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD820AC4-7E22-45AB-A79D-206957F513F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA22845-B6D0-4E0D-B2DD-5BCE844E80F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="4010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="4070">
   <si>
     <t>百度网盘</t>
   </si>
@@ -12789,6 +12789,209 @@
   <si>
     <t>com.netease.mc.nearme.gamecenter</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅知快递</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>express_query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kingrealer.expressquery</t>
+  </si>
+  <si>
+    <t>com.kingrealer.expressquery.MainActivity</t>
+  </si>
+  <si>
+    <t>快否</t>
+  </si>
+  <si>
+    <t>kf_mark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.af.benchaf</t>
+  </si>
+  <si>
+    <t>com.af.benchaf.main.MainActivity</t>
+  </si>
+  <si>
+    <t>快猫vip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuaimao_video</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.svideo</t>
+  </si>
+  <si>
+    <t>com.applisto.appremium.classes.PasswordActivity</t>
+  </si>
+  <si>
+    <t>狂野飙车9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>asphalt9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftA9HM</t>
+  </si>
+  <si>
+    <t>com.gameloft.android.ANMP.GloftA9HM.MainActivity</t>
+  </si>
+  <si>
+    <t>蝰蛇音效1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>viperfx1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pittvandewitt.viperfx</t>
+  </si>
+  <si>
+    <t>com.pittvandewitt.viperfx.StartActivity</t>
+  </si>
+  <si>
+    <t>蝰蛇音效2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>viperfx2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.audlabs.viperfx</t>
+  </si>
+  <si>
+    <t>com.audlabs.viperfx.main.MainActivity</t>
+  </si>
+  <si>
+    <t>乐享视频</t>
+  </si>
+  <si>
+    <t>lenjoy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ge.lenjoy</t>
+  </si>
+  <si>
+    <t>com.ge.lenjoy.main.ui.activity.simple.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>炉石盒子</t>
+  </si>
+  <si>
+    <t>netease_heartstone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.hearthstone</t>
+  </si>
+  <si>
+    <t>com.netease.hearthstone.module.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>旅法师营地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iplaymtg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg</t>
+  </si>
+  <si>
+    <t>com.gonlan.iplaymtg.common.StartActivity</t>
+  </si>
+  <si>
+    <t>率土之滨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>netease_stzb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.stzb.netease</t>
+  </si>
+  <si>
+    <t>com.netease.stzb.Launcher</t>
+  </si>
+  <si>
+    <t>麻花影视</t>
+  </si>
+  <si>
+    <t>mahua_movie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.amahua.ompimdrt</t>
+  </si>
+  <si>
+    <t>com.mh.movie.core.mvp.ui.activity.main.MainActivity</t>
+  </si>
+  <si>
+    <t>玛雅日历</t>
+  </si>
+  <si>
+    <t>doudoubird_calendar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.doudoubird.calendar</t>
+  </si>
+  <si>
+    <t>com.doudoubird.calendar.StartActivity</t>
+  </si>
+  <si>
+    <t>猫咪</t>
+  </si>
+  <si>
+    <t>lovelycat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lovelycat</t>
+  </si>
+  <si>
+    <t>com.lovelycat.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>美团打车</t>
+  </si>
+  <si>
+    <t>meituan_qcs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meituan.qcs.c.android</t>
+  </si>
+  <si>
+    <t>com.meituan.qcs.c.android.ui.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>魅族社区</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>meizu_flymebbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meizu.flyme.flymebbs</t>
+  </si>
+  <si>
+    <t>com.meizu.flyme.flymebbs.ui.LoadingActivity</t>
   </si>
 </sst>
 </file>
@@ -13763,10 +13966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1156"/>
+  <dimension ref="A1:F1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1133" sqref="F1133"/>
+    <sheetView tabSelected="1" topLeftCell="A1098" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1170" sqref="A1158:E1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -33377,7 +33580,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1153" spans="1:5">
+    <row r="1153" spans="1:6">
       <c r="A1153" t="s">
         <v>3995</v>
       </c>
@@ -33394,7 +33597,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1154" spans="1:5">
+    <row r="1154" spans="1:6">
       <c r="A1154" t="s">
         <v>3996</v>
       </c>
@@ -33411,7 +33614,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1155" spans="1:5">
+    <row r="1155" spans="1:6">
       <c r="A1155" t="s">
         <v>3997</v>
       </c>
@@ -33428,7 +33631,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1156" spans="1:5">
+    <row r="1156" spans="1:6">
       <c r="A1156" t="s">
         <v>3998</v>
       </c>
@@ -33444,6 +33647,276 @@
       <c r="E1156" t="s">
         <v>2233</v>
       </c>
+    </row>
+    <row r="1157" spans="1:6">
+      <c r="A1157" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>4012</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1157" s="5"/>
+    </row>
+    <row r="1158" spans="1:6">
+      <c r="A1158" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1158" s="5"/>
+    </row>
+    <row r="1159" spans="1:6">
+      <c r="A1159" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>4020</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>4021</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1159" s="5"/>
+    </row>
+    <row r="1160" spans="1:6">
+      <c r="A1160" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1160" s="5"/>
+    </row>
+    <row r="1161" spans="1:6">
+      <c r="A1161" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1161" s="5"/>
+    </row>
+    <row r="1162" spans="1:6">
+      <c r="A1162" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>4032</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>4033</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1162" s="5"/>
+    </row>
+    <row r="1163" spans="1:6">
+      <c r="A1163" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>4037</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1163" s="5"/>
+    </row>
+    <row r="1164" spans="1:6">
+      <c r="A1164" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1164" s="5"/>
+    </row>
+    <row r="1165" spans="1:6">
+      <c r="A1165" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1165" s="5"/>
+    </row>
+    <row r="1166" spans="1:6">
+      <c r="A1166" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1166" s="5"/>
+    </row>
+    <row r="1167" spans="1:6">
+      <c r="A1167" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1167" s="5"/>
+    </row>
+    <row r="1168" spans="1:6">
+      <c r="A1168" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>4057</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1168" s="5"/>
+    </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>4061</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1169" s="5"/>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1170" s="5"/>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F1171" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA22845-B6D0-4E0D-B2DD-5BCE844E80F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494583F1-E713-4D70-89E0-C236C7B06A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="4070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="4131">
   <si>
     <t>百度网盘</t>
   </si>
@@ -12122,10 +12122,6 @@
     <t>不背单词</t>
   </si>
   <si>
-    <t>lang_easy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cn.com.langeasy.LangEasyLexis</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -12992,13 +12988,224 @@
   </si>
   <si>
     <t>com.meizu.flyme.flymebbs.ui.LoadingActivity</t>
+  </si>
+  <si>
+    <t>lang_easy_lexis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕视频</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmvideo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cmcc.cmvideo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cmcc.cmvideo.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>米动健康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>midong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huami.midong</t>
+  </si>
+  <si>
+    <t>com.huami.midong.ui.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>米公益</t>
+  </si>
+  <si>
+    <t>migongyi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.migongyi.ricedonate</t>
+  </si>
+  <si>
+    <t>com.migongyi.ricedonate.welcome.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>cmbc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.cmbc.newmbank</t>
+  </si>
+  <si>
+    <t>cn.com.cmbc.newmbank.activity.WelComeActivity</t>
+  </si>
+  <si>
+    <t>cn.com.cmbc.mbank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.cmbc.mbank.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩托邦</t>
+  </si>
+  <si>
+    <t>motoband</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.motoband</t>
+  </si>
+  <si>
+    <t>com.motoband.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>魔趣中心</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mokee_center</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mokee.center</t>
+  </si>
+  <si>
+    <t>com.mokee.center.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>墨墨背单词</t>
+  </si>
+  <si>
+    <t>maimomo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.maimemo.android.momo</t>
+  </si>
+  <si>
+    <t>com.maimemo.android.momo.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>南方航空</t>
+  </si>
+  <si>
+    <t>scair</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.csair.mbp</t>
+  </si>
+  <si>
+    <t>com.csair.mbp.launcher.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>皮皮虾</t>
+  </si>
+  <si>
+    <t>superb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sup.android.superb</t>
+  </si>
+  <si>
+    <t>com.sup.android.superb.SplashActivity</t>
+  </si>
+  <si>
+    <t>屏幕录制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_recorder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kimcy929.screenrecorder</t>
+  </si>
+  <si>
+    <t>com.kimcy929.screenrecorder.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>葡萄影视</t>
+  </si>
+  <si>
+    <t>pt_video</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hp.pt.vod</t>
+  </si>
+  <si>
+    <t>tech.kedou.video.module.common.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>企鹅FM</t>
+  </si>
+  <si>
+    <t>tencent_radio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.radio</t>
+  </si>
+  <si>
+    <t>com.tencent.radio.common.ui.LaunchActivity</t>
+  </si>
+  <si>
+    <t>企业QQ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_eim</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.eim</t>
+  </si>
+  <si>
+    <t>企业微信</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_wework</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.wework</t>
+  </si>
+  <si>
+    <t>com.tencent.wework.launch.LaunchSplashActivity</t>
+  </si>
+  <si>
+    <t>轻听英语</t>
+  </si>
+  <si>
+    <t>leng_easy_listen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.langeasy.EasyListen</t>
+  </si>
+  <si>
+    <t>cn.com.langeasy.LangEasyLrc.ui.SplashActivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13198,6 +13405,13 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -13625,7 +13839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13643,6 +13857,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13966,10 +14183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1171"/>
+  <dimension ref="A1:F1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1098" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1170" sqref="A1158:E1170"/>
+    <sheetView tabSelected="1" topLeftCell="A1176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1191" sqref="C1191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -32686,13 +32903,13 @@
         <v>3816</v>
       </c>
       <c r="B1101" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C1101" t="s">
         <v>3817</v>
       </c>
-      <c r="C1101" t="s">
+      <c r="D1101" t="s">
         <v>3818</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>3819</v>
       </c>
       <c r="E1101" t="s">
         <v>1788</v>
@@ -32701,16 +32918,16 @@
     </row>
     <row r="1102" spans="1:6">
       <c r="A1102" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1102" t="s">
         <v>3820</v>
       </c>
-      <c r="B1102" t="s">
+      <c r="C1102" t="s">
         <v>3821</v>
       </c>
-      <c r="C1102" t="s">
+      <c r="D1102" t="s">
         <v>3822</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>3823</v>
       </c>
       <c r="E1102" t="s">
         <v>1788</v>
@@ -32719,13 +32936,13 @@
     </row>
     <row r="1103" spans="1:6">
       <c r="A1103" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1103" t="s">
         <v>3824</v>
       </c>
-      <c r="B1103" t="s">
+      <c r="C1103" t="s">
         <v>3825</v>
-      </c>
-      <c r="C1103" t="s">
-        <v>3826</v>
       </c>
       <c r="D1103" t="s">
         <v>3477</v>
@@ -32737,16 +32954,16 @@
     </row>
     <row r="1104" spans="1:6">
       <c r="A1104" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B1104" t="s">
         <v>3827</v>
       </c>
-      <c r="B1104" t="s">
+      <c r="C1104" t="s">
         <v>3828</v>
       </c>
-      <c r="C1104" t="s">
+      <c r="D1104" t="s">
         <v>3829</v>
-      </c>
-      <c r="D1104" t="s">
-        <v>3830</v>
       </c>
       <c r="E1104" t="s">
         <v>1788</v>
@@ -32755,16 +32972,16 @@
     </row>
     <row r="1105" spans="1:6">
       <c r="A1105" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1105" t="s">
         <v>3831</v>
       </c>
-      <c r="B1105" t="s">
+      <c r="C1105" t="s">
         <v>3832</v>
       </c>
-      <c r="C1105" t="s">
+      <c r="D1105" t="s">
         <v>3833</v>
-      </c>
-      <c r="D1105" t="s">
-        <v>3834</v>
       </c>
       <c r="E1105" t="s">
         <v>1788</v>
@@ -32773,16 +32990,16 @@
     </row>
     <row r="1106" spans="1:6">
       <c r="A1106" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B1106" t="s">
         <v>3835</v>
       </c>
-      <c r="B1106" t="s">
+      <c r="C1106" t="s">
         <v>3836</v>
       </c>
-      <c r="C1106" t="s">
+      <c r="D1106" t="s">
         <v>3837</v>
-      </c>
-      <c r="D1106" t="s">
-        <v>3838</v>
       </c>
       <c r="E1106" t="s">
         <v>1788</v>
@@ -32791,16 +33008,16 @@
     </row>
     <row r="1107" spans="1:6">
       <c r="A1107" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B1107" t="s">
         <v>3839</v>
       </c>
-      <c r="B1107" t="s">
+      <c r="C1107" t="s">
         <v>3840</v>
       </c>
-      <c r="C1107" t="s">
+      <c r="D1107" t="s">
         <v>3841</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>3842</v>
       </c>
       <c r="E1107" t="s">
         <v>1788</v>
@@ -32809,16 +33026,16 @@
     </row>
     <row r="1108" spans="1:6">
       <c r="A1108" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B1108" t="s">
         <v>3843</v>
       </c>
-      <c r="B1108" t="s">
+      <c r="C1108" t="s">
         <v>3844</v>
       </c>
-      <c r="C1108" t="s">
+      <c r="D1108" t="s">
         <v>3845</v>
-      </c>
-      <c r="D1108" t="s">
-        <v>3846</v>
       </c>
       <c r="E1108" t="s">
         <v>1788</v>
@@ -32827,16 +33044,16 @@
     </row>
     <row r="1109" spans="1:6">
       <c r="A1109" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1109" t="s">
         <v>3847</v>
       </c>
-      <c r="B1109" t="s">
+      <c r="C1109" t="s">
         <v>3848</v>
       </c>
-      <c r="C1109" t="s">
+      <c r="D1109" t="s">
         <v>3849</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>3850</v>
       </c>
       <c r="E1109" t="s">
         <v>1788</v>
@@ -32845,16 +33062,16 @@
     </row>
     <row r="1110" spans="1:6">
       <c r="A1110" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B1110" t="s">
         <v>3851</v>
       </c>
-      <c r="B1110" t="s">
+      <c r="C1110" t="s">
         <v>3852</v>
       </c>
-      <c r="C1110" t="s">
+      <c r="D1110" t="s">
         <v>3853</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>3854</v>
       </c>
       <c r="E1110" t="s">
         <v>1788</v>
@@ -32863,16 +33080,16 @@
     </row>
     <row r="1111" spans="1:6">
       <c r="A1111" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1111" t="s">
         <v>3855</v>
       </c>
-      <c r="B1111" t="s">
+      <c r="C1111" t="s">
         <v>3856</v>
       </c>
-      <c r="C1111" t="s">
+      <c r="D1111" t="s">
         <v>3857</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>3858</v>
       </c>
       <c r="E1111" t="s">
         <v>1788</v>
@@ -32881,16 +33098,16 @@
     </row>
     <row r="1112" spans="1:6">
       <c r="A1112" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B1112" t="s">
         <v>3859</v>
       </c>
-      <c r="B1112" t="s">
+      <c r="C1112" t="s">
         <v>3860</v>
       </c>
-      <c r="C1112" t="s">
+      <c r="D1112" t="s">
         <v>3861</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>3862</v>
       </c>
       <c r="E1112" t="s">
         <v>1788</v>
@@ -32899,16 +33116,16 @@
     </row>
     <row r="1113" spans="1:6">
       <c r="A1113" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B1113" t="s">
         <v>3863</v>
       </c>
-      <c r="B1113" t="s">
+      <c r="C1113" t="s">
         <v>3864</v>
       </c>
-      <c r="C1113" t="s">
+      <c r="D1113" t="s">
         <v>3865</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>3866</v>
       </c>
       <c r="E1113" t="s">
         <v>1788</v>
@@ -32917,13 +33134,13 @@
     </row>
     <row r="1114" spans="1:6">
       <c r="A1114" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B1114" t="s">
         <v>3867</v>
       </c>
-      <c r="B1114" t="s">
+      <c r="C1114" t="s">
         <v>3868</v>
-      </c>
-      <c r="C1114" t="s">
-        <v>3869</v>
       </c>
       <c r="D1114" t="s">
         <v>3074</v>
@@ -32935,16 +33152,16 @@
     </row>
     <row r="1115" spans="1:6">
       <c r="A1115" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1115" t="s">
         <v>3870</v>
       </c>
-      <c r="B1115" t="s">
+      <c r="C1115" t="s">
         <v>3871</v>
       </c>
-      <c r="C1115" t="s">
+      <c r="D1115" t="s">
         <v>3872</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>3873</v>
       </c>
       <c r="E1115" t="s">
         <v>1788</v>
@@ -32953,16 +33170,16 @@
     </row>
     <row r="1116" spans="1:6">
       <c r="A1116" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1116" t="s">
         <v>3874</v>
       </c>
-      <c r="B1116" t="s">
+      <c r="C1116" t="s">
         <v>3875</v>
       </c>
-      <c r="C1116" t="s">
+      <c r="D1116" t="s">
         <v>3876</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>3877</v>
       </c>
       <c r="E1116" t="s">
         <v>1788</v>
@@ -32970,16 +33187,16 @@
     </row>
     <row r="1117" spans="1:6">
       <c r="A1117" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1117" t="s">
         <v>3878</v>
       </c>
-      <c r="B1117" t="s">
+      <c r="C1117" t="s">
         <v>3879</v>
       </c>
-      <c r="C1117" t="s">
+      <c r="D1117" t="s">
         <v>3880</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>3881</v>
       </c>
       <c r="E1117" t="s">
         <v>1788</v>
@@ -32987,16 +33204,16 @@
     </row>
     <row r="1118" spans="1:6">
       <c r="A1118" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1118" t="s">
         <v>3882</v>
       </c>
-      <c r="B1118" t="s">
+      <c r="C1118" t="s">
         <v>3883</v>
       </c>
-      <c r="C1118" t="s">
+      <c r="D1118" t="s">
         <v>3884</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>3885</v>
       </c>
       <c r="E1118" t="s">
         <v>1788</v>
@@ -33004,16 +33221,16 @@
     </row>
     <row r="1119" spans="1:6">
       <c r="A1119" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B1119" t="s">
         <v>3886</v>
       </c>
-      <c r="B1119" t="s">
+      <c r="C1119" t="s">
         <v>3887</v>
       </c>
-      <c r="C1119" t="s">
+      <c r="D1119" t="s">
         <v>3888</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>3889</v>
       </c>
       <c r="E1119" t="s">
         <v>1788</v>
@@ -33021,16 +33238,16 @@
     </row>
     <row r="1120" spans="1:6">
       <c r="A1120" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1120" t="s">
         <v>3890</v>
       </c>
-      <c r="B1120" t="s">
+      <c r="C1120" t="s">
         <v>3891</v>
       </c>
-      <c r="C1120" t="s">
+      <c r="D1120" t="s">
         <v>3892</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>3893</v>
       </c>
       <c r="E1120" t="s">
         <v>1788</v>
@@ -33038,16 +33255,16 @@
     </row>
     <row r="1121" spans="1:5">
       <c r="A1121" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B1121" t="s">
         <v>3894</v>
       </c>
-      <c r="B1121" t="s">
+      <c r="C1121" t="s">
         <v>3895</v>
       </c>
-      <c r="C1121" t="s">
+      <c r="D1121" t="s">
         <v>3896</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>3897</v>
       </c>
       <c r="E1121" t="s">
         <v>1788</v>
@@ -33055,16 +33272,16 @@
     </row>
     <row r="1122" spans="1:5">
       <c r="A1122" s="6" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B1122" t="s">
         <v>3898</v>
       </c>
-      <c r="B1122" t="s">
+      <c r="C1122" t="s">
         <v>3899</v>
       </c>
-      <c r="C1122" t="s">
+      <c r="D1122" t="s">
         <v>3900</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>3901</v>
       </c>
       <c r="E1122" t="s">
         <v>1788</v>
@@ -33072,16 +33289,16 @@
     </row>
     <row r="1123" spans="1:5">
       <c r="A1123" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1123" t="s">
         <v>3902</v>
       </c>
-      <c r="B1123" t="s">
+      <c r="C1123" t="s">
         <v>3903</v>
       </c>
-      <c r="C1123" t="s">
+      <c r="D1123" t="s">
         <v>3904</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>3905</v>
       </c>
       <c r="E1123" t="s">
         <v>1849</v>
@@ -33089,16 +33306,16 @@
     </row>
     <row r="1124" spans="1:5">
       <c r="A1124" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1124" t="s">
         <v>3906</v>
       </c>
-      <c r="B1124" t="s">
+      <c r="C1124" t="s">
         <v>3907</v>
       </c>
-      <c r="C1124" t="s">
+      <c r="D1124" t="s">
         <v>3908</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>3909</v>
       </c>
       <c r="E1124" t="s">
         <v>1788</v>
@@ -33106,16 +33323,16 @@
     </row>
     <row r="1125" spans="1:5">
       <c r="A1125" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1125" t="s">
         <v>3910</v>
       </c>
-      <c r="B1125" t="s">
+      <c r="C1125" t="s">
         <v>3911</v>
       </c>
-      <c r="C1125" t="s">
+      <c r="D1125" t="s">
         <v>3912</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>3913</v>
       </c>
       <c r="E1125" t="s">
         <v>1788</v>
@@ -33123,16 +33340,16 @@
     </row>
     <row r="1126" spans="1:5">
       <c r="A1126" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1126" t="s">
         <v>3914</v>
       </c>
-      <c r="B1126" t="s">
+      <c r="C1126" t="s">
         <v>3915</v>
       </c>
-      <c r="C1126" t="s">
+      <c r="D1126" t="s">
         <v>3916</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>3917</v>
       </c>
       <c r="E1126" t="s">
         <v>1788</v>
@@ -33140,16 +33357,16 @@
     </row>
     <row r="1127" spans="1:5">
       <c r="A1127" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1127" t="s">
         <v>3918</v>
       </c>
-      <c r="B1127" t="s">
+      <c r="C1127" t="s">
         <v>3919</v>
       </c>
-      <c r="C1127" t="s">
+      <c r="D1127" t="s">
         <v>3920</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>3921</v>
       </c>
       <c r="E1127" t="s">
         <v>1788</v>
@@ -33157,16 +33374,16 @@
     </row>
     <row r="1128" spans="1:5">
       <c r="A1128" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B1128" t="s">
         <v>3922</v>
       </c>
-      <c r="B1128" t="s">
+      <c r="C1128" t="s">
         <v>3923</v>
       </c>
-      <c r="C1128" t="s">
+      <c r="D1128" t="s">
         <v>3924</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>3925</v>
       </c>
       <c r="E1128" t="s">
         <v>1788</v>
@@ -33174,30 +33391,30 @@
     </row>
     <row r="1129" spans="1:5">
       <c r="A1129" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1129" t="s">
         <v>3926</v>
       </c>
-      <c r="B1129" t="s">
+      <c r="C1129" t="s">
         <v>3927</v>
       </c>
-      <c r="C1129" t="s">
+      <c r="D1129" t="s">
         <v>3928</v>
       </c>
-      <c r="D1129" t="s">
+      <c r="E1129" t="s">
         <v>3929</v>
-      </c>
-      <c r="E1129" t="s">
-        <v>3930</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
       <c r="A1130" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B1130" t="s">
         <v>3931</v>
       </c>
-      <c r="B1130" t="s">
+      <c r="C1130" t="s">
         <v>3932</v>
-      </c>
-      <c r="C1130" t="s">
-        <v>3933</v>
       </c>
       <c r="D1130" t="s">
         <v>558</v>
@@ -33208,16 +33425,16 @@
     </row>
     <row r="1131" spans="1:5">
       <c r="A1131" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1131" t="s">
         <v>3966</v>
       </c>
-      <c r="B1131" t="s">
-        <v>3967</v>
-      </c>
       <c r="C1131" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D1131" t="s">
         <v>3934</v>
-      </c>
-      <c r="D1131" t="s">
-        <v>3935</v>
       </c>
       <c r="E1131" t="s">
         <v>1788</v>
@@ -33225,50 +33442,50 @@
     </row>
     <row r="1132" spans="1:5">
       <c r="A1132" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1132" t="s">
         <v>3968</v>
       </c>
-      <c r="B1132" t="s">
-        <v>3969</v>
-      </c>
       <c r="C1132" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="D1132" t="s">
         <v>888</v>
       </c>
       <c r="E1132" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
       <c r="A1133" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C1133" t="s">
         <v>3937</v>
       </c>
-      <c r="B1133" t="s">
-        <v>3970</v>
-      </c>
-      <c r="C1133" t="s">
+      <c r="D1133" t="s">
         <v>3938</v>
       </c>
-      <c r="D1133" t="s">
-        <v>3939</v>
-      </c>
       <c r="E1133" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1134" spans="1:5">
       <c r="A1134" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C1134" t="s">
         <v>3940</v>
       </c>
-      <c r="B1134" t="s">
-        <v>3971</v>
-      </c>
-      <c r="C1134" t="s">
+      <c r="D1134" t="s">
         <v>3941</v>
-      </c>
-      <c r="D1134" t="s">
-        <v>3942</v>
       </c>
       <c r="E1134" t="s">
         <v>1788</v>
@@ -33276,16 +33493,16 @@
     </row>
     <row r="1135" spans="1:5">
       <c r="A1135" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C1135" t="s">
         <v>3943</v>
       </c>
-      <c r="B1135" t="s">
-        <v>3972</v>
-      </c>
-      <c r="C1135" t="s">
+      <c r="D1135" t="s">
         <v>3944</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>3945</v>
       </c>
       <c r="E1135" t="s">
         <v>1788</v>
@@ -33293,16 +33510,16 @@
     </row>
     <row r="1136" spans="1:5">
       <c r="A1136" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1136" t="s">
         <v>3973</v>
       </c>
-      <c r="B1136" t="s">
-        <v>3974</v>
-      </c>
       <c r="C1136" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1136" t="s">
         <v>3946</v>
-      </c>
-      <c r="D1136" t="s">
-        <v>3947</v>
       </c>
       <c r="E1136" t="s">
         <v>1788</v>
@@ -33310,16 +33527,16 @@
     </row>
     <row r="1137" spans="1:5">
       <c r="A1137" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1137" t="s">
         <v>3975</v>
       </c>
-      <c r="B1137" t="s">
-        <v>3976</v>
-      </c>
       <c r="C1137" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D1137" t="s">
         <v>3948</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>3949</v>
       </c>
       <c r="E1137" t="s">
         <v>1788</v>
@@ -33327,16 +33544,16 @@
     </row>
     <row r="1138" spans="1:5">
       <c r="A1138" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1138" t="s">
         <v>3977</v>
       </c>
-      <c r="B1138" t="s">
-        <v>3978</v>
-      </c>
       <c r="C1138" t="s">
+        <v>3949</v>
+      </c>
+      <c r="D1138" t="s">
         <v>3950</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>3951</v>
       </c>
       <c r="E1138" t="s">
         <v>1788</v>
@@ -33344,16 +33561,16 @@
     </row>
     <row r="1139" spans="1:5">
       <c r="A1139" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C1139" t="s">
         <v>3952</v>
       </c>
-      <c r="B1139" t="s">
-        <v>3979</v>
-      </c>
-      <c r="C1139" t="s">
+      <c r="D1139" t="s">
         <v>3953</v>
-      </c>
-      <c r="D1139" t="s">
-        <v>3954</v>
       </c>
       <c r="E1139" t="s">
         <v>1788</v>
@@ -33361,16 +33578,16 @@
     </row>
     <row r="1140" spans="1:5">
       <c r="A1140" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D1140" t="s">
         <v>3955</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>3980</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>3981</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>3956</v>
       </c>
       <c r="E1140" t="s">
         <v>1788</v>
@@ -33378,16 +33595,16 @@
     </row>
     <row r="1141" spans="1:5">
       <c r="A1141" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C1141" t="s">
         <v>3957</v>
       </c>
-      <c r="B1141" t="s">
-        <v>3982</v>
-      </c>
-      <c r="C1141" t="s">
+      <c r="D1141" t="s">
         <v>3958</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>3959</v>
       </c>
       <c r="E1141" t="s">
         <v>1788</v>
@@ -33395,16 +33612,16 @@
     </row>
     <row r="1142" spans="1:5">
       <c r="A1142" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1142" t="s">
         <v>3960</v>
       </c>
-      <c r="B1142" t="s">
-        <v>3983</v>
-      </c>
-      <c r="C1142" t="s">
+      <c r="D1142" t="s">
         <v>3961</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>3962</v>
       </c>
       <c r="E1142" t="s">
         <v>1788</v>
@@ -33412,16 +33629,16 @@
     </row>
     <row r="1143" spans="1:5">
       <c r="A1143" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3983</v>
+      </c>
+      <c r="C1143" t="s">
         <v>3963</v>
       </c>
-      <c r="B1143" t="s">
-        <v>3984</v>
-      </c>
-      <c r="C1143" t="s">
+      <c r="D1143" t="s">
         <v>3964</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>3965</v>
       </c>
       <c r="E1143" t="s">
         <v>1788</v>
@@ -33429,13 +33646,13 @@
     </row>
     <row r="1144" spans="1:5">
       <c r="A1144" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1144" t="s">
         <v>3985</v>
       </c>
-      <c r="B1144" t="s">
+      <c r="C1144" t="s">
         <v>3986</v>
-      </c>
-      <c r="C1144" t="s">
-        <v>3987</v>
       </c>
       <c r="D1144" t="s">
         <v>16</v>
@@ -33463,10 +33680,10 @@
     </row>
     <row r="1146" spans="1:5">
       <c r="A1146" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="B1146" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1146" t="s">
         <v>2283</v>
@@ -33480,13 +33697,13 @@
     </row>
     <row r="1147" spans="1:5">
       <c r="A1147" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1147" t="s">
         <v>3989</v>
       </c>
-      <c r="B1147" t="s">
-        <v>3990</v>
-      </c>
       <c r="C1147" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="D1147" t="s">
         <v>2284</v>
@@ -33497,13 +33714,13 @@
     </row>
     <row r="1148" spans="1:5">
       <c r="A1148" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1148" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1148" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="D1148" t="s">
         <v>2284</v>
@@ -33514,13 +33731,13 @@
     </row>
     <row r="1149" spans="1:5">
       <c r="A1149" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C1149" t="s">
         <v>4001</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>3990</v>
-      </c>
-      <c r="C1149" t="s">
-        <v>4002</v>
       </c>
       <c r="D1149" t="s">
         <v>2284</v>
@@ -33531,13 +33748,13 @@
     </row>
     <row r="1150" spans="1:5">
       <c r="A1150" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1150" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1150" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="D1150" t="s">
         <v>2284</v>
@@ -33548,13 +33765,13 @@
     </row>
     <row r="1151" spans="1:5">
       <c r="A1151" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="B1151" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1151" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="D1151" t="s">
         <v>2284</v>
@@ -33565,13 +33782,13 @@
     </row>
     <row r="1152" spans="1:5">
       <c r="A1152" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="B1152" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1152" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="D1152" t="s">
         <v>2284</v>
@@ -33582,13 +33799,13 @@
     </row>
     <row r="1153" spans="1:6">
       <c r="A1153" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="B1153" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1153" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="D1153" t="s">
         <v>2284</v>
@@ -33599,13 +33816,13 @@
     </row>
     <row r="1154" spans="1:6">
       <c r="A1154" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B1154" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1154" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="D1154" t="s">
         <v>2284</v>
@@ -33616,13 +33833,13 @@
     </row>
     <row r="1155" spans="1:6">
       <c r="A1155" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B1155" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1155" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="D1155" t="s">
         <v>2284</v>
@@ -33633,13 +33850,13 @@
     </row>
     <row r="1156" spans="1:6">
       <c r="A1156" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B1156" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1156" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="D1156" t="s">
         <v>2284</v>
@@ -33650,16 +33867,16 @@
     </row>
     <row r="1157" spans="1:6">
       <c r="A1157" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1157" t="s">
         <v>4010</v>
       </c>
-      <c r="B1157" t="s">
+      <c r="C1157" t="s">
         <v>4011</v>
       </c>
-      <c r="C1157" t="s">
+      <c r="D1157" t="s">
         <v>4012</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>4013</v>
       </c>
       <c r="E1157" t="s">
         <v>1788</v>
@@ -33668,16 +33885,16 @@
     </row>
     <row r="1158" spans="1:6">
       <c r="A1158" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1158" t="s">
         <v>4014</v>
       </c>
-      <c r="B1158" t="s">
+      <c r="C1158" t="s">
         <v>4015</v>
       </c>
-      <c r="C1158" t="s">
+      <c r="D1158" t="s">
         <v>4016</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>4017</v>
       </c>
       <c r="E1158" t="s">
         <v>1788</v>
@@ -33686,16 +33903,16 @@
     </row>
     <row r="1159" spans="1:6">
       <c r="A1159" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B1159" t="s">
         <v>4018</v>
       </c>
-      <c r="B1159" t="s">
+      <c r="C1159" t="s">
         <v>4019</v>
       </c>
-      <c r="C1159" t="s">
+      <c r="D1159" t="s">
         <v>4020</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>4021</v>
       </c>
       <c r="E1159" t="s">
         <v>1788</v>
@@ -33704,16 +33921,16 @@
     </row>
     <row r="1160" spans="1:6">
       <c r="A1160" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1160" t="s">
         <v>4022</v>
       </c>
-      <c r="B1160" t="s">
+      <c r="C1160" t="s">
         <v>4023</v>
       </c>
-      <c r="C1160" t="s">
+      <c r="D1160" t="s">
         <v>4024</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>4025</v>
       </c>
       <c r="E1160" t="s">
         <v>2957</v>
@@ -33722,16 +33939,16 @@
     </row>
     <row r="1161" spans="1:6">
       <c r="A1161" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1161" t="s">
         <v>4026</v>
       </c>
-      <c r="B1161" t="s">
+      <c r="C1161" t="s">
         <v>4027</v>
       </c>
-      <c r="C1161" t="s">
+      <c r="D1161" t="s">
         <v>4028</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>4029</v>
       </c>
       <c r="E1161" t="s">
         <v>1788</v>
@@ -33740,16 +33957,16 @@
     </row>
     <row r="1162" spans="1:6">
       <c r="A1162" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B1162" t="s">
         <v>4030</v>
       </c>
-      <c r="B1162" t="s">
+      <c r="C1162" t="s">
         <v>4031</v>
       </c>
-      <c r="C1162" t="s">
+      <c r="D1162" t="s">
         <v>4032</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>4033</v>
       </c>
       <c r="E1162" t="s">
         <v>1788</v>
@@ -33758,16 +33975,16 @@
     </row>
     <row r="1163" spans="1:6">
       <c r="A1163" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B1163" t="s">
         <v>4034</v>
       </c>
-      <c r="B1163" t="s">
+      <c r="C1163" t="s">
         <v>4035</v>
       </c>
-      <c r="C1163" t="s">
+      <c r="D1163" t="s">
         <v>4036</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>4037</v>
       </c>
       <c r="E1163" t="s">
         <v>1788</v>
@@ -33776,16 +33993,16 @@
     </row>
     <row r="1164" spans="1:6">
       <c r="A1164" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B1164" t="s">
         <v>4038</v>
       </c>
-      <c r="B1164" t="s">
+      <c r="C1164" t="s">
         <v>4039</v>
       </c>
-      <c r="C1164" t="s">
+      <c r="D1164" t="s">
         <v>4040</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>4041</v>
       </c>
       <c r="E1164" t="s">
         <v>1788</v>
@@ -33794,16 +34011,16 @@
     </row>
     <row r="1165" spans="1:6">
       <c r="A1165" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B1165" t="s">
         <v>4042</v>
       </c>
-      <c r="B1165" t="s">
+      <c r="C1165" t="s">
         <v>4043</v>
       </c>
-      <c r="C1165" t="s">
+      <c r="D1165" t="s">
         <v>4044</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>4045</v>
       </c>
       <c r="E1165" t="s">
         <v>1788</v>
@@ -33812,16 +34029,16 @@
     </row>
     <row r="1166" spans="1:6">
       <c r="A1166" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B1166" t="s">
         <v>4046</v>
       </c>
-      <c r="B1166" t="s">
+      <c r="C1166" t="s">
         <v>4047</v>
       </c>
-      <c r="C1166" t="s">
+      <c r="D1166" t="s">
         <v>4048</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>4049</v>
       </c>
       <c r="E1166" t="s">
         <v>2957</v>
@@ -33830,16 +34047,16 @@
     </row>
     <row r="1167" spans="1:6">
       <c r="A1167" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B1167" t="s">
         <v>4050</v>
       </c>
-      <c r="B1167" t="s">
+      <c r="C1167" t="s">
         <v>4051</v>
       </c>
-      <c r="C1167" t="s">
+      <c r="D1167" t="s">
         <v>4052</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>4053</v>
       </c>
       <c r="E1167" t="s">
         <v>1788</v>
@@ -33848,16 +34065,16 @@
     </row>
     <row r="1168" spans="1:6">
       <c r="A1168" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1168" t="s">
         <v>4054</v>
       </c>
-      <c r="B1168" t="s">
+      <c r="C1168" t="s">
         <v>4055</v>
       </c>
-      <c r="C1168" t="s">
+      <c r="D1168" t="s">
         <v>4056</v>
-      </c>
-      <c r="D1168" t="s">
-        <v>4057</v>
       </c>
       <c r="E1168" t="s">
         <v>1788</v>
@@ -33866,16 +34083,16 @@
     </row>
     <row r="1169" spans="1:6">
       <c r="A1169" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1169" t="s">
         <v>4058</v>
       </c>
-      <c r="B1169" t="s">
+      <c r="C1169" t="s">
         <v>4059</v>
       </c>
-      <c r="C1169" t="s">
+      <c r="D1169" t="s">
         <v>4060</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>4061</v>
       </c>
       <c r="E1169" t="s">
         <v>1788</v>
@@ -33884,16 +34101,16 @@
     </row>
     <row r="1170" spans="1:6">
       <c r="A1170" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1170" t="s">
         <v>4062</v>
       </c>
-      <c r="B1170" t="s">
+      <c r="C1170" t="s">
         <v>4063</v>
       </c>
-      <c r="C1170" t="s">
+      <c r="D1170" t="s">
         <v>4064</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>4065</v>
       </c>
       <c r="E1170" t="s">
         <v>1788</v>
@@ -33902,21 +34119,293 @@
     </row>
     <row r="1171" spans="1:6">
       <c r="A1171" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B1171" t="s">
         <v>4066</v>
       </c>
-      <c r="B1171" t="s">
+      <c r="C1171" t="s">
         <v>4067</v>
       </c>
-      <c r="C1171" t="s">
+      <c r="D1171" t="s">
         <v>4068</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>4069</v>
       </c>
       <c r="E1171" t="s">
         <v>1977</v>
       </c>
       <c r="F1171" s="5"/>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E1172" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>4077</v>
+      </c>
+      <c r="E1173" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>4080</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>4081</v>
+      </c>
+      <c r="E1174" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>4084</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>4085</v>
+      </c>
+      <c r="E1175" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>4087</v>
+      </c>
+      <c r="E1176" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E1177" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>4095</v>
+      </c>
+      <c r="E1178" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>4098</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E1179" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>4103</v>
+      </c>
+      <c r="E1180" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E1181" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>4110</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>4111</v>
+      </c>
+      <c r="E1182" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>4114</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E1183" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>4119</v>
+      </c>
+      <c r="E1184" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5">
+      <c r="A1185" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1185" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5">
+      <c r="A1186" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>4126</v>
+      </c>
+      <c r="E1186" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5">
+      <c r="A1187" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E1187" s="7" t="s">
+        <v>1788</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34902A-CDBD-4D52-A282-A4ED2BA2FA95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1382D55F-EBDD-4BDD-BB21-E5CA109283C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6240" uniqueCount="4370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6410" uniqueCount="4501">
   <si>
     <t>百度网盘</t>
   </si>
@@ -14019,6 +14019,443 @@
   </si>
   <si>
     <t>com.adnonstop.mancamera2017.CamHomme</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>cib</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cib.cibmb</t>
+  </si>
+  <si>
+    <t>com.cib.cibmb.LPSplashScreen</t>
+  </si>
+  <si>
+    <t>秀动</t>
+  </si>
+  <si>
+    <t>show_start_fans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.showstartfans.activity</t>
+  </si>
+  <si>
+    <t>com.showstartfans.activity.activitys.welcome.WelComeActivity</t>
+  </si>
+  <si>
+    <t>迅游手游加速器</t>
+  </si>
+  <si>
+    <t>xunyou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.wsds.gamemaster</t>
+  </si>
+  <si>
+    <t>cn.wsds.gamemaster.ui.ActivityStart</t>
+  </si>
+  <si>
+    <t>夜间屏幕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackblub</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.papdt.blackblub</t>
+  </si>
+  <si>
+    <t>info.papdt.blackblub.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>移动10086</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmcc_trafic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz.dela.cmcc.traffic</t>
+  </si>
+  <si>
+    <t>zz.dela.cmcc.traffic.features.splash.view.SplashActivity</t>
+  </si>
+  <si>
+    <t>音乐狂</t>
+  </si>
+  <si>
+    <t>crazy_music</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.crazymusic</t>
+  </si>
+  <si>
+    <t>com.e4a.runtime.android.StartActivity</t>
+  </si>
+  <si>
+    <t>音乐侠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>music_man</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.most.musicman.new</t>
+  </si>
+  <si>
+    <t>com.most.kuan.musicman.MainActivity</t>
+  </si>
+  <si>
+    <t>音量管家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume_manager</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.volume.manager</t>
+  </si>
+  <si>
+    <t>com.volume.manager.MainActivity</t>
+  </si>
+  <si>
+    <t>萤石云视频</t>
+  </si>
+  <si>
+    <t>videogo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.videogo</t>
+  </si>
+  <si>
+    <t>com.videogo.login.LoadingActivity</t>
+  </si>
+  <si>
+    <t>影迷大院</t>
+  </si>
+  <si>
+    <t>moviefans</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.ikicker.moviefans</t>
+  </si>
+  <si>
+    <t>cn.ikicker.moviefans.ui.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>应用宝</t>
+  </si>
+  <si>
+    <t>tencent_qqdownloader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.android.qqdownloader</t>
+  </si>
+  <si>
+    <t>com.tencent.pangu.link.SplashActivity</t>
+  </si>
+  <si>
+    <t>应用汇</t>
+  </si>
+  <si>
+    <t>yingyonghui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yingyonghui.market</t>
+  </si>
+  <si>
+    <t>com.yingyonghui.market.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>yitong_mbank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yitong.mbank.psbc</t>
+  </si>
+  <si>
+    <t>com.yitong.mbank.psbc.android.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>有道精品课</t>
+  </si>
+  <si>
+    <t>youdao_course</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.youdao.course</t>
+  </si>
+  <si>
+    <t>com.youdao.course.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>有妖气漫画</t>
+  </si>
+  <si>
+    <t>u17_comic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.u17.comic.phone</t>
+  </si>
+  <si>
+    <t>com.u17.comic.phone.activitys.FirstActivity</t>
+  </si>
+  <si>
+    <t>原声</t>
+  </si>
+  <si>
+    <t>joe_music</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.joe.music</t>
+  </si>
+  <si>
+    <t>com.joe.dida.activity.LoginActivity</t>
+  </si>
+  <si>
+    <t>com.joe.music.activity.LoginActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云帆VPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunfan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc.dingnet.yunfangp</t>
+  </si>
+  <si>
+    <t>cc.dingnet.yunfangp.view.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>云课堂智慧职教</t>
+  </si>
+  <si>
+    <t>ykt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zjy.ykt</t>
+  </si>
+  <si>
+    <t>com.zjy.ykt.publics.app.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>运动世界校园</t>
+  </si>
+  <si>
+    <t>zjwh_physical_fitness</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zjwh.android_wh_physicalfitness</t>
+  </si>
+  <si>
+    <t>com.zjwh.android_wh_physicalfitness.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>滚动截图</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_screenshot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.pkhope.longscreenshot</t>
+  </si>
+  <si>
+    <t>me.pkhope.longscreenshot.activity.MainActivity</t>
+  </si>
+  <si>
+    <t>长佩阅读</t>
+  </si>
+  <si>
+    <t>cpwxw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.cpwxw.cpfiction</t>
+  </si>
+  <si>
+    <t>com.cpwx.reader.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>掌上飞车</t>
+  </si>
+  <si>
+    <t>tencent_gamehelper_speed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.gamehelper.speed</t>
+  </si>
+  <si>
+    <t>知识星球</t>
+  </si>
+  <si>
+    <t>unnoo_quan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.unnoo.quan</t>
+  </si>
+  <si>
+    <t>com.unnoo.quan.activities.StartActivity</t>
+  </si>
+  <si>
+    <t>知音漫客</t>
+  </si>
+  <si>
+    <t>zymk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.zymk.comic</t>
+  </si>
+  <si>
+    <t>cn.zymk.comic.ui.CoverActivity</t>
+  </si>
+  <si>
+    <t>指纹支付</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fingerprint_pay</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.surcumference.fingerprintpay</t>
+  </si>
+  <si>
+    <t>com.yyxx.wechatfp.Main</t>
+  </si>
+  <si>
+    <t>中华会计网校</t>
+  </si>
+  <si>
+    <t>cdel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cdel.accmobile</t>
+  </si>
+  <si>
+    <t>com.cdel.accmobile.app.ui.logo_default</t>
+  </si>
+  <si>
+    <t>中信银行动卡空间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>citic_card</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.citiccard.mobilebank</t>
+  </si>
+  <si>
+    <t>com.citiccard.mobilebankapp.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>作业帮</t>
+  </si>
+  <si>
+    <t>baidu_homework</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.homework</t>
+  </si>
+  <si>
+    <t>com.baidu.homework.activity.init.InitActivity</t>
+  </si>
+  <si>
+    <t>LG支付</t>
+  </si>
+  <si>
+    <t>lge_lgpay</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lge.lgpay</t>
+  </si>
+  <si>
+    <t>com.lge.lgpay.view.EntryActivity</t>
+  </si>
+  <si>
+    <t>LG电视</t>
+  </si>
+  <si>
+    <t>lge_tdmb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lge.tdmb</t>
+  </si>
+  <si>
+    <t>com.lge.tdmb.TdmbStartActivity</t>
+  </si>
+  <si>
+    <t>LG健康</t>
+  </si>
+  <si>
+    <t>lge_lifetracker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lge.lifetracker</t>
+  </si>
+  <si>
+    <t>com.lge.lifetracker.ui.MainActivity</t>
+  </si>
+  <si>
+    <t>Tphone（网络电话）</t>
+  </si>
+  <si>
+    <t>prod_dialer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.skt.prod.dialer</t>
+  </si>
+  <si>
+    <t>com.skt.prod.dialer.activities.main.MainActivity</t>
+  </si>
+  <si>
+    <t>科博科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qeebo_geek</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.DrApp.Qeebogeek</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14225,6 +14662,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15003,10 +15441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1248"/>
+  <dimension ref="A1:F1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1251" sqref="B1251"/>
+    <sheetView tabSelected="1" topLeftCell="A1267" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1283" sqref="B1283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -36264,6 +36702,584 @@
         <v>1786</v>
       </c>
     </row>
+    <row r="1249" spans="1:5">
+      <c r="A1249" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>4372</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5">
+      <c r="A1250" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>4376</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>4377</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5">
+      <c r="A1251" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5">
+      <c r="A1252" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5">
+      <c r="A1253" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>4387</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5">
+      <c r="A1254" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5">
+      <c r="A1255" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5">
+      <c r="A1256" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>4399</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5">
+      <c r="A1257" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>4404</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5">
+      <c r="A1258" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5">
+      <c r="A1259" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>4412</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5">
+      <c r="A1260" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>4417</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5">
+      <c r="A1261" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5">
+      <c r="A1262" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>4425</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>4429</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5">
+      <c r="A1264" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5">
+      <c r="A1265" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5">
+      <c r="A1266" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>4438</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5">
+      <c r="A1267" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>4442</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5">
+      <c r="A1268" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5">
+      <c r="A1269" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>4450</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>4454</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>3118</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>4461</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>4465</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5">
+      <c r="A1274" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>4469</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5">
+      <c r="A1275" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5">
+      <c r="A1276" s="4" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5">
+      <c r="A1277" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>4481</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5">
+      <c r="A1278" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5">
+      <c r="A1279" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>4489</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5">
+      <c r="A1280" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>4493</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5">
+      <c r="A1281" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>4497</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5">
+      <c r="A1282" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>1847</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA9F510-AB3A-4C73-BB4F-0BE19984D0CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A73F4-1466-4547-A995-BC5F68AB95AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="4668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="4758">
   <si>
     <t>百度网盘</t>
   </si>
@@ -15125,6 +15125,366 @@
   </si>
   <si>
     <t>com.leduoworks.gpstoolbox.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joi播放器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>joi_player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wswsl.joiplayer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wswsl.joiplayer.ui.activity.PlayerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dota_max</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dotamax.app</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.max.app.module.welcome.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mere新闻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mere_news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidnews.kiloproject</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>androidnews.kiloproject.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaTrader 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>metatrader4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.metaquotes.metatrader4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.metaquotes.metatrader4.ui.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>balti.migrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>balti.migrate.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse 翻译</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.example.jooff.shuyi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.example.jooff.shuyi.activity.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.aefyr.sai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.aefyr.sai.ui.activities.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snap VPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>snap_vpn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>free.vpn.unblock.proxy.vpnpro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.quickdy.vpn.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stitch（图片拼接）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stitch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.inklin.stitch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.inklin.stitch.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X播放器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>video.player.videoplayer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.inshot.xplayer.activities.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X视频</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_videos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xvideos.app</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xvideos.common.activities.DefaultActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度浏览器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu_browser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.browser.apps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.browser.framework.BdBrowserActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩坏学园2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhxy2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.miHoYo.HSoDv2BiliBiliRelease</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.onevcat.uniwebview.AndroidPlugin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意氢壁纸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageqin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xyznh.makeimageqin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xyznh.makeimageqin.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁力种子播放器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun_player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.iiplayer.sunplayer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.player.sunplayer.activity.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.caf.fmradio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.caf.fmradio.FMRadio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIUI论坛英文版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miuibbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.miui.enbbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.miui.miuibbs.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米社区国际版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mi.global.bbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mi.global.bbs.ui.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异人生</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_is_strange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.squareenix.lis.st</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sthh.StShellActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪最新破解版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xiaoyin.maomi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lovelycat.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>快猫vip破解版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.svideo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.svideo.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.codeaurora.snapcam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.camera.CameraLauncher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易邮箱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>netease_mail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.mobimail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.mobimail.activity.LaunchActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOMO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blink.academy.nomopro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blink.academy.nomo.ui.activity.splash.NomoSplashActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -15332,6 +15692,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -16110,10 +16471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1325"/>
+  <dimension ref="A1:F1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1332" sqref="C1332"/>
+    <sheetView tabSelected="1" topLeftCell="A1336" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1353" sqref="B1353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -38680,6 +39041,414 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="1326" spans="1:5">
+      <c r="A1326" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>4670</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>4671</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5">
+      <c r="A1327" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>4674</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>4675</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5">
+      <c r="A1328" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>4678</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>4679</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5">
+      <c r="A1329" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>4682</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>4683</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5">
+      <c r="A1330" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>4686</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>4687</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5">
+      <c r="A1331" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>4689</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>4690</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>4691</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5">
+      <c r="A1332" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>4693</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>4694</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>4695</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5">
+      <c r="A1333" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>4698</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>4699</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5">
+      <c r="A1334" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>4703</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5">
+      <c r="A1335" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>4705</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>4706</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>4707</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5">
+      <c r="A1336" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5">
+      <c r="A1337" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>4714</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5">
+      <c r="A1338" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>4719</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5">
+      <c r="A1339" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>4722</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>4723</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5">
+      <c r="A1340" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>4726</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>4727</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5">
+      <c r="A1341" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>4728</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>4729</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5">
+      <c r="A1342" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>4732</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>4733</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5">
+      <c r="A1343" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>4735</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>4736</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5">
+      <c r="A1344" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>4739</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>4740</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5">
+      <c r="A1345" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>4743</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5">
+      <c r="A1346" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>4745</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>4746</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5">
+      <c r="A1347" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>4747</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>4748</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>4749</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5">
+      <c r="A1348" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>4753</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>4754</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5">
+      <c r="A1349" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>4756</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>4757</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A73F4-1466-4547-A995-BC5F68AB95AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2945863-6FD5-4C73-98C0-A7B4F70E30AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="4758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="4850">
   <si>
     <t>百度网盘</t>
   </si>
@@ -15485,6 +15485,372 @@
   </si>
   <si>
     <t>com.blink.academy.nomo.ui.activity.splash.NomoSplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储重定向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect_storage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moe.shizuku.redirectstorage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moe.shizuku.redirectstorage.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆萝卜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailuobo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.caicai.dailuobo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.caicai.dailuobo.ui.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvlive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dianshijia.tvlive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dianshijia.tvlive.ui.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视家2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvlive2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.elinkway.tvlive2</t>
+  </si>
+  <si>
+    <t>com.elinkway.tvlive2.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>飞卢小说</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>faloo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.faloo.BookReader4Android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.faloo.app.activity.LogoPageActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>风翼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>windwing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.txbnx.windwing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.txbnx.windwing.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌表格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_editors_sheets</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.docs.editors.sheets</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.docs.app.NewMainProxyActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌文档</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_editors_docs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.docs.editors.docs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hfcard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.whty.hfcard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.com.whty.hfcard.ui.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryeex_groot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ryeex.groot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ryeex.groot.main.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单搜索</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu_searchcraft</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.searchcraft</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.searchcraft.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>京粉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_jxj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jd.jxj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jd.jxj.ui.activity.LoadingActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手斗地主3d</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kwai_ddz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kwai.game.ddz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kwai.game.ddz.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核调教</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel_adiutor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.grarak.kerneladiutor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.grarak.kerneladiutor.activities.StartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇游手游加速器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qeeyou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qeeyou.app.accelerator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.StartPageActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM Pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm_pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dv.adm.pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dv.adm.pro.Main</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼耳机连接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sony.songpal.mdr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sony.songpal.mdr.vim.activity.MdrMainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM卡工具包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.stk2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.stk2.StkLauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指南针</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>compass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blackalpha.compass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.coloros.compass.flat.FlatCompass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运破解器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucky_patcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru.sxbuIDfx.pFSOyagrF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lp.MainActivityOriginal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝰蛇音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pittvandewitt.viperfx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.audlabs.viperfx.main.StartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>muhua_movie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zw.lebo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zw.lebo.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TikTok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiktok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.trill_clone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.aweme.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象笔记中国版</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>evernote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yinxiang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.evernote.ui.HomeActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -15692,7 +16058,6 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -16471,10 +16836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1349"/>
+  <dimension ref="A1:F1375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1336" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1353" sqref="B1353"/>
+    <sheetView tabSelected="1" topLeftCell="A1356" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1374" sqref="C1374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39449,6 +39814,448 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="1350" spans="1:5">
+      <c r="A1350" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>4759</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>4760</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>4761</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5">
+      <c r="A1351" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>4763</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>4764</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>4765</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5">
+      <c r="A1352" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>4767</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>4769</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5">
+      <c r="A1353" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>4771</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>4772</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>4773</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5">
+      <c r="A1354" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>4775</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>4776</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>4777</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5">
+      <c r="A1355" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>4780</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>4781</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5">
+      <c r="A1356" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>4784</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5">
+      <c r="A1357" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>4787</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>4788</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5">
+      <c r="A1358" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>4790</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>4791</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>4792</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5">
+      <c r="A1359" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>4794</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>4795</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5">
+      <c r="A1360" t="s">
+        <v>4797</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>4798</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5">
+      <c r="A1361" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>4802</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>4803</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>4804</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5">
+      <c r="A1362" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>4806</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>4807</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>4808</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5">
+      <c r="A1363" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>4810</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>4811</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>4812</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5">
+      <c r="A1364" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>4814</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>4815</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>4816</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5">
+      <c r="A1365" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>4818</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>4819</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5">
+      <c r="A1366" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>4822</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>4823</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5">
+      <c r="A1367" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5">
+      <c r="A1368" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5">
+      <c r="A1369" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>4826</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>4827</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5">
+      <c r="A1370" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>4830</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5">
+      <c r="A1371" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>4833</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>4834</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5">
+      <c r="A1372" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>4837</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>4838</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5">
+      <c r="A1373" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>4841</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5">
+      <c r="A1374" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>4844</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>4845</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5">
+      <c r="A1375" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>4848</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2945863-6FD5-4C73-98C0-A7B4F70E30AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC2D33-F80B-437D-9721-004DC9499212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="4850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7025" uniqueCount="4972">
   <si>
     <t>百度网盘</t>
   </si>
@@ -15851,6 +15851,494 @@
   </si>
   <si>
     <t>com.evernote.ui.HomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnkiDroid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anki</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ichi2.anki</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ichi2.anki.IntentHandler</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppLock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.domobile.applock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.domobile.applock.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudAccelerator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudaccelerator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gallopingkylin.cloudaccelerator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gallopingkylin.cloudaccelerator.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytus II</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cytus2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.rayark.cytus2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.inca.security.DexProtect.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>glow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.glow.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.glow.android.ui.RootActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloTalk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellotalk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hellotalk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hellotalkx.modules.sign.ui.LaunchActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanGenius</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>langenius</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xchat.stevenzack.langenius</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xchat.stevenzack.langenius.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp.naver.line.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp.naver.line.android.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>measure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.tango.measure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.tango.measure.android.LaunchScreenActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metro新时代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wimetor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wimetro.iafc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.alipay.mobile.quinox.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIUI更新地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miuitool_updateurl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miuitool.xfy9326.getupdateurl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miuitool.xfy9326.getupdateurl.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeoShare</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nubia_neoshare</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.neoshare</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.neoshare.login.AppStartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>努比亚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nubia社区</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nubia_bbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.bbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.bbs.ui.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO钱包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.coloros.wallet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.coloros.wallet.WalletIndexActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper.io2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.voodoo.paper2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.voodoo.paper2.UnityPlayerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.ifengge.passport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.ifengge.passport.VerifyActivityEntry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pelmix图标包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pelmix_iconpack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.edward.iconpack.pelmix</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.com.edward.iconpack.pelmix.activities.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pixel启动器修改器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel_launcher_mods</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kieronquinn.app.pixellaunchermods</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kieronquinn.app.pixellaunchermods.activities.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pixiv Ez</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixivez</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.perol.asdpl.pixivez</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.perol.asdpl.pixivez.normal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polarr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>polarr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo.editor.polarr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>co.polarr.polarrphotoeditor.EditorActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundCloud</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundcloud</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.soundcloud.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.soundcloud.android.main.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steam Go</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam_go</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.miking.steam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.androlua.Welcome</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stellio播放器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellio_player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.stellio.player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.stellio.player.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surfboard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfboard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.getsurfboard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.getsurfboard.activity.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ted.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ted.android.view.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Termux</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>termux</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.termux</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.termux.app.TermuxActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.geminiwen.app.arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.geminiwen.app.arrow.ui.FrameActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo云</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbk_cloud</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bbk.cloud</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bbk.cloud.activities.BBKCloudHomeScreen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTube Vanced</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>youtube_vanced</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.vanced.android.youtube</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.youtube.app.honeycomb.Shell$HomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴哈姆特</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bahamut</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw.com.gamer.android.activecenter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw.com.gamer.android.bahamut.BahamutActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -16058,6 +16546,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -16836,10 +17325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1375"/>
+  <dimension ref="A1:F1405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1356" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1374" sqref="C1374"/>
+    <sheetView tabSelected="1" topLeftCell="A1386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1408" sqref="B1408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -40256,6 +40745,516 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="1376" spans="1:5">
+      <c r="A1376" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>4852</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>4853</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5">
+      <c r="A1377" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>4855</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5">
+      <c r="A1378" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>4859</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>4860</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>4861</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5">
+      <c r="A1379" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>4864</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>4865</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5">
+      <c r="A1380" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>4867</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>4868</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>4869</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5">
+      <c r="A1381" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>4871</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>4872</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5">
+      <c r="A1382" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>4875</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>4876</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5">
+      <c r="A1383" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>4880</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>4881</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5">
+      <c r="A1384" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>4884</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>4885</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5">
+      <c r="A1385" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>4888</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>4889</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5">
+      <c r="A1386" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>4892</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>4893</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5">
+      <c r="A1387" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>4895</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>4896</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>4897</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5">
+      <c r="A1388" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>4900</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>4901</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>4902</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5">
+      <c r="A1389" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>4904</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>4905</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>4906</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5">
+      <c r="A1390" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>4910</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5">
+      <c r="A1391" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>4912</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>4913</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5">
+      <c r="A1392" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>4916</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>4917</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>4918</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5">
+      <c r="A1393" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>4920</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>4921</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5">
+      <c r="A1394" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>4924</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>4925</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>4926</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5">
+      <c r="A1395" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>4929</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>4930</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5">
+      <c r="A1396" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>4932</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>4933</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>4934</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5">
+      <c r="A1397" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>4936</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>4937</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>4938</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5">
+      <c r="A1398" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>4940</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5">
+      <c r="A1399" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>4945</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>4946</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5">
+      <c r="A1400" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>4949</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>4950</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5">
+      <c r="A1401" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>4952</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>4953</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>4954</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5">
+      <c r="A1402" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>4956</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>4957</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>4958</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5">
+      <c r="A1403" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>4960</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>4961</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>4962</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5">
+      <c r="A1404" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>4965</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>4966</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>4967</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5">
+      <c r="A1405" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>4970</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>4971</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC2D33-F80B-437D-9721-004DC9499212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94635F02-199F-41A9-811C-C2CE88F80754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7025" uniqueCount="4972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="5061">
   <si>
     <t>百度网盘</t>
   </si>
@@ -16339,6 +16339,338 @@
   </si>
   <si>
     <t>tw.com.gamer.android.bahamut.BahamutActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huawei.browser</t>
+  </si>
+  <si>
+    <t>com.huawei.browser.Main</t>
+  </si>
+  <si>
+    <t>崩坏学园2</t>
+  </si>
+  <si>
+    <t>bhyx2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.miHoYo.HSoDv2Original</t>
+  </si>
+  <si>
+    <t>com.onevcat.uniwebview.AndroidPlugin</t>
+  </si>
+  <si>
+    <t>cn.nubia.neostore</t>
+  </si>
+  <si>
+    <t>cn.nubia.neostore.ui.start.AppStartActivity</t>
+  </si>
+  <si>
+    <t>计算器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.calculator2.preset</t>
+  </si>
+  <si>
+    <t>cn.nubia.calculator2.Calculator</t>
+  </si>
+  <si>
+    <t>cn.nubia.calendar.preset</t>
+  </si>
+  <si>
+    <t>cn.nubia.calendar.AllInOneActivity</t>
+  </si>
+  <si>
+    <t>cn.nubia.deskclock.preset</t>
+  </si>
+  <si>
+    <t>cn.nubia.deskclock.DeskClock</t>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.gallery3d</t>
+  </si>
+  <si>
+    <t>cn.nubia.gallery3d.app.Gallery</t>
+  </si>
+  <si>
+    <t>mms</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.nubia.mms</t>
+  </si>
+  <si>
+    <t>cn.nubia.mms.tab.MmsMainActivity</t>
+  </si>
+  <si>
+    <t>ru.Unbzcqyv.tXZmaoaas</t>
+  </si>
+  <si>
+    <t>com.lp.MainActivityOriginal</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>com.downloading.main.baiduyundownloae</t>
+  </si>
+  <si>
+    <t>扫描全能王</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.intsig.camscanner.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>mahua_movie</t>
+  </si>
+  <si>
+    <t>com.mh.movie.core.mvp.ui.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>哔哩哔哩漫画</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili_comic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bilibili.comic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bilibili.comic.splash.view.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷生活</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>icbc_forms</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.forms</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.forms.start.ActStart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都银行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_mbank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yitong.cd.mbank.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yitong.cd.mbank.android.activity.ManagerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客信条：燎原</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>assassins_creed_rebellion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ubisoft.accovenant</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bhvr.listenableUnityPlayerActivity.ListenableUnityPlayerActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺猬猫阅读</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciweimao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuangxiangciweimao.novel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuangxiangciweimao.novel.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当乐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>diguayouxi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.diguayouxi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.diguayouxi.ui.FirstActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅号助手</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_mp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mp.feature.launcher.ui.LauncherActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>咚漫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>linewebtoon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.naver.linewebtoon.cn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.naver.linewebtoon.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒汤日历</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.shuodao.toxic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.shuodao.toxic.activity.LaunchActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>端</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>theinitium_news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.theinitium.news</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.theinitium.news.ui.StartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房天下</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>soufun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.soufun.app</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.soufun.app.activity.MainSplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>非人学园</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>netease_frxy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.frxy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.frxy.Launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工口酱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eilojiang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.eilojiang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.eilojiang.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银e生活</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>icbc_elife</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.icbc.elife</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.icbc.elife.LoadingActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌新闻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_magazines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.magazines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.apps.dots.android.app.activity.CurrentsStartActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -16546,7 +16878,6 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -17325,10 +17656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1405"/>
+  <dimension ref="A1:F1433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1408" sqref="B1408"/>
+    <sheetView tabSelected="1" topLeftCell="B1416" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1437" sqref="D1437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -41255,6 +41586,482 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="1406" spans="1:5">
+      <c r="A1406" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>4972</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>4973</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5">
+      <c r="A1407" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>4975</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>4976</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>4977</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5">
+      <c r="A1408" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>4978</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>4979</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5">
+      <c r="A1409" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>4981</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>4982</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5">
+      <c r="A1410" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>4983</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>4984</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5">
+      <c r="A1411" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>4747</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5">
+      <c r="A1412" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>4985</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>4986</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5">
+      <c r="A1413" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>4988</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>4989</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5">
+      <c r="A1414" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>4990</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>4991</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>4992</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5">
+      <c r="A1415" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5">
+      <c r="A1416" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>4996</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5">
+      <c r="A1417" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>4998</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5">
+      <c r="A1418" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>5000</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5">
+      <c r="A1419" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>5002</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>5003</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>5004</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5">
+      <c r="A1420" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>5007</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>5008</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5">
+      <c r="A1421" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>5011</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>5012</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5">
+      <c r="A1422" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>5015</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>5016</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5">
+      <c r="A1423" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>5019</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>5020</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5">
+      <c r="A1424" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>5024</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5">
+      <c r="A1425" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>5026</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>5027</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>5028</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5">
+      <c r="A1426" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>5031</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>5032</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5">
+      <c r="A1427" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>5035</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>5036</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5">
+      <c r="A1428" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>5039</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>5040</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5">
+      <c r="A1429" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>5043</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>5044</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5">
+      <c r="A1430" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>5048</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5">
+      <c r="A1431" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>5051</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>5052</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5">
+      <c r="A1432" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>5055</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>5056</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5">
+      <c r="A1433" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>5059</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>5060</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94635F02-199F-41A9-811C-C2CE88F80754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA4736-EE69-4E4B-8663-E3459F79E54F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="5061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="5120">
   <si>
     <t>百度网盘</t>
   </si>
@@ -16672,6 +16672,206 @@
   <si>
     <t>com.google.apps.dots.android.app.activity.CurrentsStartActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionDash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>actiondash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.actiondash.playstore</t>
+  </si>
+  <si>
+    <t>actiondash.MainActivity</t>
+  </si>
+  <si>
+    <t>CAD_Reader</t>
+  </si>
+  <si>
+    <t>drawing_explorer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.glodon.drawingexplorer</t>
+  </si>
+  <si>
+    <t>com.glodon.drawingexplorer.activity.GSplashActivity</t>
+  </si>
+  <si>
+    <t>CGV电影购票</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cgv_movie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cgv.cn.movie</t>
+  </si>
+  <si>
+    <t>com.cgv.cn.movie.main.FlashScreen</t>
+  </si>
+  <si>
+    <t>Comb图标包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb_iconpack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lanlan.combiconpack</t>
+  </si>
+  <si>
+    <t>FiiNote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiinote</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.fiistudio.fiinote</t>
+  </si>
+  <si>
+    <t>com.fiistudio.fiinote.editor.FiiNote</t>
+  </si>
+  <si>
+    <t>PokeMMO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pokemmo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eu.pokemmo.client</t>
+  </si>
+  <si>
+    <t>eu.pokemmo.client.AndroidLauncher</t>
+  </si>
+  <si>
+    <t>薄荷健康</t>
+  </si>
+  <si>
+    <t>boohee</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.boohee.one</t>
+  </si>
+  <si>
+    <t>com.boohee.one.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>宝宝树孕育</t>
+  </si>
+  <si>
+    <t>babytree</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.babytree.apps.pregnancy</t>
+  </si>
+  <si>
+    <t>com.babytree.apps.pregnancy.MainActivity</t>
+  </si>
+  <si>
+    <t>藏书馆</t>
+  </si>
+  <si>
+    <t>cliff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cliff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cliff.geeboo.core.splash.view.SplashActivity</t>
+  </si>
+  <si>
+    <t>大麦</t>
+  </si>
+  <si>
+    <t>damai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.damai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.damai.launcher.splash.SplashMainActivity</t>
+  </si>
+  <si>
+    <t>懂车帝</t>
+  </si>
+  <si>
+    <t>dongchedi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.auto</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.auto.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>毒舌影视</t>
+  </si>
+  <si>
+    <t>dushe_movie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dushe.movie</t>
+  </si>
+  <si>
+    <t>com.dushe.movie.ui.login.SplashActivity</t>
+  </si>
+  <si>
+    <t>多点</t>
+  </si>
+  <si>
+    <t>dmall</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wm.dmall</t>
+  </si>
+  <si>
+    <t>com.wm.dmall.NORMAL</t>
+  </si>
+  <si>
+    <t>古诗词典</t>
+  </si>
+  <si>
+    <t>kk_poem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kk.poem</t>
+  </si>
+  <si>
+    <t>com.kk.poem.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>观止</t>
+  </si>
+  <si>
+    <t>meiriyiwen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.meiriyiwen.app</t>
+  </si>
+  <si>
+    <t>com.meiriyiwen.app.MainActivity</t>
   </si>
 </sst>
 </file>
@@ -16878,6 +17078,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -17656,10 +17857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1433"/>
+  <dimension ref="A1:F1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1416" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1437" sqref="D1437"/>
+    <sheetView tabSelected="1" topLeftCell="A1437" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1455" sqref="C1455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -42062,6 +42263,261 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="1434" spans="1:5">
+      <c r="A1434" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>5062</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>5063</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>5064</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5">
+      <c r="A1435" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>5067</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>5068</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5">
+      <c r="A1436" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>5072</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5">
+      <c r="A1437" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>5075</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5">
+      <c r="A1438" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>5077</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>5078</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>5079</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5">
+      <c r="A1439" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>5081</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>5082</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>5083</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5">
+      <c r="A1440" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>5085</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>5086</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>5087</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5">
+      <c r="A1441" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>5090</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>5091</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5">
+      <c r="A1442" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>5093</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>5094</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>5095</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5">
+      <c r="A1443" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>5099</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5">
+      <c r="A1444" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>5103</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5">
+      <c r="A1445" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>5105</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>5106</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>5107</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5">
+      <c r="A1446" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>5110</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>5111</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5">
+      <c r="A1447" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>5113</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>5114</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>5115</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5">
+      <c r="A1448" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>5117</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>5118</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>5119</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA4736-EE69-4E4B-8663-E3459F79E54F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0FCBEB-6678-403E-B304-70EBA1E25E40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="5120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7315" uniqueCount="5180">
   <si>
     <t>百度网盘</t>
   </si>
@@ -16872,6 +16872,226 @@
   </si>
   <si>
     <t>com.meiriyiwen.app.MainActivity</t>
+  </si>
+  <si>
+    <t>国家地理</t>
+  </si>
+  <si>
+    <t>geography</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bdatu.geography</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.bdatu.geography.SplashActivity</t>
+  </si>
+  <si>
+    <t>哈哈姆特不EY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahamutim</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw.com.gamer.android.bahamutim</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw.com.gamer.android.bahamutim.UserInitActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔优家</t>
+  </si>
+  <si>
+    <t>haier_uhome</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.haier.uhome.uplus</t>
+  </si>
+  <si>
+    <t>com.haier.uhome.uplus.cms.presentation.welcome.presentation.WelcomeActivity</t>
+  </si>
+  <si>
+    <t>好好住</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzhu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hzhu.m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hzhu.m.ui.account.logo.LogoActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>好游快爆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hykb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xmcy.hykb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xmcy.hykb.app.ui.splash.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄油相机</t>
+  </si>
+  <si>
+    <t>butter_camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.by.butter.camera</t>
+  </si>
+  <si>
+    <t>com.by.butter.camera.splash.LauncherActivity</t>
+  </si>
+  <si>
+    <t>汇优</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huiyou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.klcxkj.quzhixiaoyuan_hx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.klcxkj.quzhixiaoyuan_hx.ui.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>极路由</t>
+  </si>
+  <si>
+    <t>hiwifi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hiwifi</t>
+  </si>
+  <si>
+    <t>com.hiwifi.gee.mvp.view.activity.splash.SplashActivity</t>
+  </si>
+  <si>
+    <t>今日校园</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpdaily</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wisedu.cpdaily</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wisorg.wisedu.campus.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东饭粒</t>
+  </si>
+  <si>
+    <t>jd_fanli</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jd.fanli</t>
+  </si>
+  <si>
+    <t>com.jd.fanli.login.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>绝地求生手游助手</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tencent_gamehelper_pg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.gamehelper.pg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.gamehelper.ui.main.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡吧加钱党</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jarvis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.guxiaqiubai.jarvis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.guxiaqiubai.jarvis.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷酷跑</t>
+  </si>
+  <si>
+    <t>kkp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kkptech.kkpsy</t>
+  </si>
+  <si>
+    <t>com.kkptech.kkpsy.view.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>快快查汉语字典</t>
+  </si>
+  <si>
+    <t>kk_dict</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kk.dict</t>
+  </si>
+  <si>
+    <t>com.kk.dict.activity.SplashActivity</t>
+  </si>
+  <si>
+    <t>快下</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuaixia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuaixia.download</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuaixia.download.activity.LaunchActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -17857,10 +18077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1448"/>
+  <dimension ref="A1:F1463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1437" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1455" sqref="C1455"/>
+    <sheetView tabSelected="1" topLeftCell="A1452" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1467" sqref="C1467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -42518,6 +42738,261 @@
         <v>1784</v>
       </c>
     </row>
+    <row r="1449" spans="1:5">
+      <c r="A1449" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>5121</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>5122</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>5123</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5">
+      <c r="A1450" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>5125</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>5126</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>5127</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5">
+      <c r="A1451" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>5129</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>5130</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>5131</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5">
+      <c r="A1452" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>5134</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>5135</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5">
+      <c r="A1453" t="s">
+        <v>5136</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>5137</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>5138</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>5139</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5">
+      <c r="A1454" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>5141</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>5142</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>5143</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5">
+      <c r="A1455" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>5145</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>5146</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>5147</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5">
+      <c r="A1456" t="s">
+        <v>5148</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>5150</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>5151</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5">
+      <c r="A1457" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>5154</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>5155</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5">
+      <c r="A1458" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>5158</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>5159</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5">
+      <c r="A1459" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>5162</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>5163</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5">
+      <c r="A1460" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>5166</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>5167</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5">
+      <c r="A1461" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>5169</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>5170</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>5171</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5">
+      <c r="A1462" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>5174</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>5175</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5">
+      <c r="A1463" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>5177</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>5178</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>5179</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>1784</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E8203-4698-4284-ACD6-8FBB8E788F5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4D389-647E-4F7F-8C98-B688BFA31337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15304" uniqueCount="5255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7506" uniqueCount="5316">
   <si>
     <t>百度网盘</t>
   </si>
@@ -17395,6 +17395,250 @@
   <si>
     <t>Flyme主题分界线</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppSales</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>appsales</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.tsapps.appsales</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.tsapps.appsales.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.merxury.blocker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.merxury.blocker.ui.home.HomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brawl Stars</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>brawl_stars</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.supercell.brawlstars</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.supercell.brawlstars.GameApp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Daily</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_daily</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.theotino.chinadaily</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.theotino.chinadaily.CdAt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cornie图标包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cornie_icons</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl.patrykgoworowski.cornieicons</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl.patrykgoworowski.cornieicons.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evie启动器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>evie_launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>is.shortcut</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.voxel.launcher3.Launcher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fedilab</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fedilab</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr.gouv.etalab.mastodon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr.gouv.etalab.mastodon.activities.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox Lite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>firefox_rocket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.mozilla.rocket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.mozilla.rocket.activity.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.mozilla.rocket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foodie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.linecorp.foodcamcn.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.linecorp.foodcam.android.camera.CameraActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupMe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupme</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.groupme.android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.groupme.android.HomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiSuite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_hisuite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huawei.hisuite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huawei.hisuite.activity.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iris mini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris_mini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>co.iristech.iris_mini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>co.iristech.iris_mini.activity.ShadesActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>journey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.journey.app</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.journey.app.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jovi语音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo_agent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.vivo.agent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.vivo.agent.view.activities.JoviHomeNewActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicOne</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lingsatuo.thieves</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lingsatuo.thieves.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -18399,10 +18643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1486"/>
+  <dimension ref="A1:F1502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1467" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1487" sqref="B1487"/>
+    <sheetView tabSelected="1" topLeftCell="A1470" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1485" sqref="C1485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -43694,6 +43938,278 @@
         <v>4202</v>
       </c>
     </row>
+    <row r="1487" spans="1:5">
+      <c r="A1487" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>5257</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>5258</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5">
+      <c r="A1488" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>5260</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>5261</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>5262</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5">
+      <c r="A1489" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>5264</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>5265</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>5266</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5">
+      <c r="A1490" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>5269</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>5270</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5">
+      <c r="A1491" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>5272</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>5273</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>5274</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5">
+      <c r="A1492" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>5276</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>5277</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>5278</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5">
+      <c r="A1493" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>5281</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>5282</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5">
+      <c r="A1494" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>5285</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>5286</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5">
+      <c r="A1495" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>5286</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5">
+      <c r="A1496" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>5290</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>5291</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5">
+      <c r="A1497" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>5294</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5">
+      <c r="A1498" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>5297</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>5298</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>5299</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5">
+      <c r="A1499" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>5301</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>5302</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>5303</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5">
+      <c r="A1500" t="s">
+        <v>5304</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>5305</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>5306</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>5307</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5">
+      <c r="A1501" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>5310</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>5311</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5">
+      <c r="A1502" t="s">
+        <v>5312</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>5313</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>5314</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>5315</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>1771</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4D389-647E-4F7F-8C98-B688BFA31337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58436C4-DAD4-4458-BC79-D86C4188563F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7506" uniqueCount="5316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="5377">
   <si>
     <t>百度网盘</t>
   </si>
@@ -17638,6 +17638,250 @@
   </si>
   <si>
     <t>com.lingsatuo.thieves.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nPlayer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nplayer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.newin.nplayer.pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.newin.nplayer.activities.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opera Touch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>opera_touch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.opera.touch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.opera.touch.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overdrop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdrop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>widget.dd.com.overdrop.free</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>widget.dd.com.overdrop.activity.SplashScreenActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus Messenger</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>telegram_plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.telegram.plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.telegram.ui.LaunchActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pure浏览器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pure_browser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.pure.lite.browser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.vs.browser.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.rarlab.rar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.rarlab.rar.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readhub Plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>readhub_plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.marno.readhubplus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.marno.readhubplus.module.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Anywhere</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_anywhere</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.estmob.android.sendanywhere</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.estmob.paprika4.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socialife</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sony_sfrc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sony.nfx.app.sfrc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sony.nfx.app.sfrc.npam.InitialActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWRP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>twrp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.twrp.twrpapp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.twrp.officialtwrpapp.activities.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity模型管理器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity_mod_manager</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.xausky.unitymodmanager</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.xausky.unitymodmanager.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度文库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu_wenku</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.wenku</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.baidu.wenku.splash.view.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁纸频谱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>live_visualizer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.moe.LiveVisualizer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.moe.LiveVisualizer.activity.SettingActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>超格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaoge</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chaoge.athena_android</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chaoge.athena_android.appmain.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯纯打码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pure_mosaic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.drakeet.puremosaic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>me.drakeet.puremosaic.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.lemon.faceu.business.mainpage.LoadingPageActivity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -18643,10 +18887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1502"/>
+  <dimension ref="A1:F1518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1485" sqref="C1485"/>
+    <sheetView tabSelected="1" topLeftCell="A1503" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1520" sqref="C1520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44210,6 +44454,278 @@
         <v>1771</v>
       </c>
     </row>
+    <row r="1503" spans="1:5">
+      <c r="A1503" t="s">
+        <v>5316</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>5317</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>5318</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>5319</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5">
+      <c r="A1504" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>5321</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>5322</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>5323</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5">
+      <c r="A1505" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>5326</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>5327</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5">
+      <c r="A1506" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>5330</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>5331</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5">
+      <c r="A1507" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>5334</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>5335</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5">
+      <c r="A1508" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>5338</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>5339</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5">
+      <c r="A1509" t="s">
+        <v>5340</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>5342</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>5343</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5">
+      <c r="A1510" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>5345</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>5346</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>5347</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5">
+      <c r="A1511" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>5349</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>5350</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>5351</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5">
+      <c r="A1512" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>5354</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>5355</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5">
+      <c r="A1513" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>5357</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>5358</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>5359</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5">
+      <c r="A1514" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>5361</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>5362</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>5363</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5">
+      <c r="A1515" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>5365</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>5366</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5">
+      <c r="A1516" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>5369</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>5370</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>5371</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5">
+      <c r="A1517" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>5373</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>5374</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>5375</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5">
+      <c r="A1518" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>5376</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>1771</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1021" xr:uid="{600E50EC-6C97-47B2-88B8-46F0F6418F80}"/>
   <sortState ref="A2:E78">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjycsm\Documents\Project\TestIconPack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58436C4-DAD4-4458-BC79-D86C4188563F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD61337-4701-4395-93BD-859DD8A7567C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="5377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="5472">
   <si>
     <t>百度网盘</t>
   </si>
@@ -17882,6 +17882,386 @@
   </si>
   <si>
     <t>com.lemon.faceu.business.mainpage.LoadingPageActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁力播</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>magent_player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.laisi.magent.player</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.laisi.magent.player.ui.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔VPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dengta_vpn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qq.network</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qq.vpn.main.LaunchActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>东营智慧公交</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dingying_wisdom_bus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cictec.wisdombus.dongying</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cictec.wisdombus.dongying.activity.LoadingActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌支付</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_pay</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.apps.walletnfcrel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.commerce.tapandpay.android.cardlist.CardListActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光氧运动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangyangyundong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.guangyangyundong.sport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tim.app.ui.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gov</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gov.cn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gov.cn.GovNewsAt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贝音乐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiby_music</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hiby.music</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hiby.music.Activity.StartActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>简洁日历</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjrili</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jjrili.app</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jjrili.app.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰队Collection</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kancolle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dmm.dmmlabo.kancolle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dmm.dmmlabo.kancolle.AppEntry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东读书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_reader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jd.app.reader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jingdong.app.reader.logo.JdLogoActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei_mirror</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.hwmirror</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.hwmirror.Mirror</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试酷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>examcoo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.examcoo.m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.examcoo.m.MainActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可英语</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>keke</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kekeclient_</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kekeclient.activity.InitActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美剧控</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ustv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.leku.ustv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.leku.ustv.activity.WelcomeActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码键盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret_input</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kongzue.secretinput</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kongzue.secretinput.activity.FirstActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙读</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miaodu_reader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.miaodu.reader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tbreader.android.activity.SplashActivity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发信用卡</t>
+    <phoneticPr fontId="18" type